--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -9,10 +9,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$1:$E$1058</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$1:$E$1060</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="287">
   <si>
     <t xml:space="preserve">pic label</t>
   </si>
@@ -320,6 +320,15 @@
     <t xml:space="preserve">This provides mains power for the heaters. The LAB CONTROL UNIT is powered separately.</t>
   </si>
   <si>
+    <t xml:space="preserve">TC-PWC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick disconnect connectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional, but highly recommended for connecting to the inlet power module</t>
+  </si>
+  <si>
     <t xml:space="preserve">REAGENT PUMP UNIT – Linear Syringe Pumps</t>
   </si>
   <si>
@@ -669,6 +678,12 @@
   </si>
   <si>
     <t xml:space="preserve">Used to build the housing for the Reactor Unit and as support for the pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packing tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to make a transparent door for the Reactor Unit housing</t>
   </si>
   <si>
     <t xml:space="preserve">Paint</t>
@@ -1271,15 +1286,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I1058"/>
+  <dimension ref="A1:I1060"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H81" activeCellId="0" sqref="H81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="H73" activeCellId="0" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -1914,49 +1929,48 @@
       </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F36" s="11"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="23"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="9" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="E38" s="23"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
@@ -1969,25 +1983,23 @@
         <v>105</v>
       </c>
       <c r="D40" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="12"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>109</v>
       </c>
       <c r="D41" s="10" t="n">
         <v>3</v>
@@ -1995,7 +2007,9 @@
       <c r="E41" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="I41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2057,7 @@
       <c r="B44" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="24" t="s">
         <v>118</v>
       </c>
       <c r="D44" s="10" t="n">
@@ -2081,7 +2095,7 @@
       <c r="B46" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D46" s="10" t="n">
@@ -2093,14 +2107,14 @@
       <c r="H46" s="12"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="24" t="s">
         <v>127</v>
       </c>
       <c r="D47" s="10" t="n">
@@ -2109,24 +2123,18 @@
       <c r="E47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="H47" s="12"/>
-      <c r="I47" s="22"/>
+      <c r="I47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="D48" s="10" t="n">
         <v>3</v>
@@ -2134,21 +2142,24 @@
       <c r="E48" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="F48" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G48" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H48" s="12"/>
-      <c r="I48" s="15"/>
+      <c r="I48" s="22"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="C49" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="D49" s="10" t="n">
         <v>3</v>
@@ -2156,145 +2167,146 @@
       <c r="E49" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>136</v>
-      </c>
+      <c r="G49" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" s="12"/>
       <c r="I49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="D50" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="23"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="0" t="n">
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="23"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E54" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="10" t="n">
+      <c r="H54" s="12"/>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="I54" s="15"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
       <c r="H55" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
+      <c r="C56" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="D56" s="10"/>
       <c r="E56" s="11"/>
-      <c r="H56" s="12"/>
+      <c r="H56" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="23"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-    </row>
-    <row r="58" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="9" t="s">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="12" t="s">
+      <c r="E58" s="23"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="I58" s="15"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="D59" s="10" t="n">
         <v>1</v>
@@ -2303,19 +2315,23 @@
         <v>12</v>
       </c>
       <c r="H59" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="I59" s="22"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E60" s="11" t="s">
         <v>12</v>
       </c>
@@ -2324,121 +2340,119 @@
       </c>
       <c r="I60" s="22"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="D61" s="10"/>
       <c r="E61" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="25" t="s">
+      <c r="H61" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="I61" s="15"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="D62" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="25" t="s">
-        <v>164</v>
       </c>
       <c r="I62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
+      <c r="E63" s="11"/>
       <c r="G63" s="10"/>
       <c r="H63" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="I63" s="15"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="I63" s="15"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D64" s="10" t="n">
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E65" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I64" s="15"/>
-    </row>
-    <row r="65" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="G65" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="H65" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D65" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="11" t="s">
+      <c r="I65" s="15"/>
+    </row>
+    <row r="66" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="B66" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="I65" s="15"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="D66" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>181</v>
@@ -2457,15 +2471,15 @@
         <v>1</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H67" s="12"/>
+        <v>180</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="I67" s="15"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
         <v>185</v>
       </c>
@@ -2476,15 +2490,12 @@
         <v>1</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="H68" s="12"/>
-      <c r="I68" s="22"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
         <v>187</v>
       </c>
@@ -2500,57 +2511,67 @@
       <c r="E69" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="F69" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="H69" s="12"/>
-      <c r="I69" s="15"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="1" t="s">
+      <c r="I69" s="22"/>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="20"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="D70" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="12" t="s">
+      <c r="E72" s="23"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="20"/>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="I72" s="15"/>
-    </row>
-    <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9"/>
       <c r="B73" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E73" s="11"/>
-      <c r="H73" s="12"/>
+      <c r="E73" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="I73" s="15"/>
     </row>
     <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E74" s="11"/>
       <c r="H74" s="12"/>
@@ -2559,55 +2580,52 @@
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E75" s="11"/>
       <c r="H75" s="12"/>
       <c r="I75" s="15"/>
     </row>
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B76" s="9"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="C76" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D76" s="10" t="n">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="E76" s="11"/>
       <c r="H76" s="12"/>
       <c r="I76" s="15"/>
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9"/>
+      <c r="A77" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D77" s="10"/>
+        <v>205</v>
+      </c>
+      <c r="D77" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E77" s="11"/>
-      <c r="H77" s="12" t="s">
-        <v>204</v>
-      </c>
+      <c r="H77" s="12"/>
       <c r="I77" s="15"/>
     </row>
-    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D78" s="10"/>
-      <c r="E78" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E78" s="11"/>
       <c r="H78" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I78" s="15"/>
     </row>
@@ -2615,14 +2633,14 @@
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I79" s="15"/>
     </row>
@@ -2630,7 +2648,7 @@
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="11" t="s">
@@ -2641,31 +2659,31 @@
       </c>
       <c r="I80" s="15"/>
     </row>
-    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
+      <c r="E81" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H81" s="12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I81" s="15"/>
     </row>
-    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="D82" s="10"/>
-      <c r="E82" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E82" s="11"/>
       <c r="H82" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I82" s="15"/>
     </row>
@@ -2673,66 +2691,81 @@
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9" t="s">
-        <v>213</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D83" s="10"/>
       <c r="E83" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I83" s="15"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>217</v>
+      </c>
+      <c r="I84" s="15"/>
+    </row>
+    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="H85" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I85" s="15"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="15"/>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="15"/>
-    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="9"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
       <c r="H92" s="12"/>
+      <c r="I92" s="15"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="26"/>
       <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
       <c r="H93" s="12"/>
+      <c r="I93" s="15"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="26"/>
       <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
+      <c r="C94" s="9"/>
       <c r="H94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="26"/>
       <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
       <c r="H95" s="12"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8513,9 +8546,21 @@
       <c r="C1058" s="26"/>
       <c r="H1058" s="12"/>
     </row>
+    <row r="1059" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="26"/>
+      <c r="B1059" s="26"/>
+      <c r="C1059" s="26"/>
+      <c r="H1059" s="12"/>
+    </row>
+    <row r="1060" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="26"/>
+      <c r="B1060" s="26"/>
+      <c r="C1060" s="26"/>
+      <c r="H1060" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E1058"/>
-  <conditionalFormatting sqref="A90:B1058 A1:B37 A71:B83 A39:B69">
+  <autoFilter ref="E1:E1060"/>
+  <conditionalFormatting sqref="A92:B1060 A1:B38 A72:B85 A40:B70">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -8549,7 +8594,7 @@
     <hyperlink ref="E32" r:id="rId26" display="link"/>
     <hyperlink ref="E34" r:id="rId27" display="link"/>
     <hyperlink ref="E35" r:id="rId28" display="link"/>
-    <hyperlink ref="E39" r:id="rId29" display="link"/>
+    <hyperlink ref="E36" r:id="rId29" display="link"/>
     <hyperlink ref="E40" r:id="rId30" display="link"/>
     <hyperlink ref="E41" r:id="rId31" display="link"/>
     <hyperlink ref="E42" r:id="rId32" display="link"/>
@@ -8558,30 +8603,31 @@
     <hyperlink ref="E45" r:id="rId35" display="link"/>
     <hyperlink ref="E46" r:id="rId36" display="link"/>
     <hyperlink ref="E47" r:id="rId37" display="link"/>
-    <hyperlink ref="F47" r:id="rId38" display="link"/>
-    <hyperlink ref="E48" r:id="rId39" display="link"/>
+    <hyperlink ref="E48" r:id="rId38" display="link"/>
+    <hyperlink ref="F48" r:id="rId39" display="link"/>
     <hyperlink ref="E49" r:id="rId40" display="link"/>
     <hyperlink ref="E50" r:id="rId41" display="link"/>
-    <hyperlink ref="E53" r:id="rId42" display="link"/>
+    <hyperlink ref="E51" r:id="rId42" display="link"/>
     <hyperlink ref="E54" r:id="rId43" display="link"/>
-    <hyperlink ref="E58" r:id="rId44" display="link"/>
-    <hyperlink ref="H58" r:id="rId45" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="E59" r:id="rId46" display="link"/>
+    <hyperlink ref="E55" r:id="rId44" display="link"/>
+    <hyperlink ref="E59" r:id="rId45" display="link"/>
+    <hyperlink ref="H59" r:id="rId46" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
     <hyperlink ref="E60" r:id="rId47" display="link"/>
     <hyperlink ref="E61" r:id="rId48" display="link"/>
-    <hyperlink ref="E64" r:id="rId49" display="link"/>
-    <hyperlink ref="E65" r:id="rId50" display="printed"/>
+    <hyperlink ref="E62" r:id="rId49" display="link"/>
+    <hyperlink ref="E65" r:id="rId50" display="link"/>
     <hyperlink ref="E66" r:id="rId51" display="printed"/>
     <hyperlink ref="E67" r:id="rId52" display="printed"/>
-    <hyperlink ref="E68" r:id="rId53" display="link"/>
-    <hyperlink ref="F68" r:id="rId54" display="6oz link"/>
-    <hyperlink ref="E69" r:id="rId55" display="link"/>
-    <hyperlink ref="E72" r:id="rId56" display="link"/>
-    <hyperlink ref="E78" r:id="rId57" display="link"/>
+    <hyperlink ref="E68" r:id="rId53" display="printed"/>
+    <hyperlink ref="E69" r:id="rId54" display="link"/>
+    <hyperlink ref="F69" r:id="rId55" display="6oz link"/>
+    <hyperlink ref="E70" r:id="rId56" display="link"/>
+    <hyperlink ref="E73" r:id="rId57" display="link"/>
     <hyperlink ref="E79" r:id="rId58" display="link"/>
     <hyperlink ref="E80" r:id="rId59" display="link"/>
-    <hyperlink ref="E82" r:id="rId60" display="link"/>
+    <hyperlink ref="E81" r:id="rId60" display="link"/>
     <hyperlink ref="E83" r:id="rId61" display="link"/>
+    <hyperlink ref="E84" r:id="rId62" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8590,7 +8636,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId62"/>
+  <drawing r:id="rId63"/>
 </worksheet>
 </file>
 
@@ -8605,7 +8651,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>
@@ -8639,10 +8685,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8653,7 +8699,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>2</v>
@@ -8665,36 +8711,36 @@
         <v>14</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>7.1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>5.49</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8702,7 +8748,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>66</v>
@@ -8717,19 +8763,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I4" s="13" t="n">
         <v>25.9</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K4" s="13" t="n">
         <v>47.98</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8740,7 +8786,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>1</v>
@@ -8753,18 +8799,18 @@
         <v>7.36</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D6" s="10" t="n">
         <v>1</v>
@@ -8775,18 +8821,18 @@
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>4</v>
@@ -8799,21 +8845,21 @@
         <v>9.99</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>2</v>
@@ -8822,78 +8868,78 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I8" s="13" t="n">
         <v>8.99</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I10" s="15" t="n">
         <v>25.99</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>1</v>
@@ -8902,67 +8948,67 @@
         <v>12</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I11" s="13" t="n">
         <v>5.99</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="12" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>13.99</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="12" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>2</v>
@@ -8971,14 +9017,14 @@
         <v>12</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13" t="n">
         <v>3.82</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8989,7 +9035,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>1</v>
@@ -8998,13 +9044,13 @@
         <v>12</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I15" s="13" t="n">
         <v>36.99</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9015,7 +9061,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>1</v>
@@ -9028,7 +9074,7 @@
         <v>10.91</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,7 +9085,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>1</v>
@@ -9049,16 +9095,16 @@
       </c>
       <c r="F17" s="10"/>
       <c r="H17" s="12" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9078,13 +9124,13 @@
         <v>12</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>13.25</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9110,7 +9156,7 @@
         <v>64.08</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9132,7 +9178,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="15"/>
       <c r="J20" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9156,18 +9202,18 @@
         <v>26.79</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D22" s="10" t="n">
         <v>2</v>
@@ -9178,18 +9224,18 @@
       <c r="H22" s="12"/>
       <c r="I22" s="15"/>
       <c r="J22" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D23" s="10" t="n">
         <v>2</v>
@@ -9200,18 +9246,18 @@
       <c r="H23" s="12"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D24" s="10" t="n">
         <v>2</v>
@@ -9222,18 +9268,18 @@
       <c r="H24" s="12"/>
       <c r="I24" s="15"/>
       <c r="J24" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2</v>
@@ -9244,18 +9290,18 @@
       <c r="H25" s="12"/>
       <c r="I25" s="15"/>
       <c r="J25" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D26" s="10" t="n">
         <v>2</v>
@@ -9266,18 +9312,18 @@
       <c r="H26" s="12"/>
       <c r="I26" s="15"/>
       <c r="J26" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>2</v>
@@ -9288,40 +9334,40 @@
       <c r="H27" s="12"/>
       <c r="I27" s="15"/>
       <c r="J27" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D28" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="15"/>
       <c r="J28" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D29" s="10" t="n">
         <v>2</v>
@@ -9333,55 +9379,55 @@
         <v>12</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="15" t="n">
         <v>13.7</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K29" s="10" t="n">
         <v>13.99</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E31" s="28"/>
       <c r="H31" s="12"/>
@@ -9390,10 +9436,10 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E32" s="28"/>
       <c r="H32" s="12"/>
@@ -9402,10 +9448,10 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E33" s="28"/>
       <c r="H33" s="12"/>
@@ -9413,13 +9459,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D34" s="10" t="n">
         <v>2</v>
@@ -9428,25 +9474,25 @@
         <v>12</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13" t="n">
         <v>11.98</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D35" s="10" t="n">
         <v>1</v>
@@ -9462,13 +9508,13 @@
         <v>7.63</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K35" s="10" t="n">
         <v>19.99</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9490,18 +9536,18 @@
       <c r="H36" s="12"/>
       <c r="I36" s="15"/>
       <c r="J36" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D37" s="10" t="n">
         <v>2</v>
@@ -9510,22 +9556,22 @@
         <v>12</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>1.18</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D38" s="10" t="n">
         <v>1</v>
@@ -9535,13 +9581,13 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D39" s="10" t="n">
         <v>1</v>
@@ -9554,37 +9600,37 @@
         <v>9.35</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26"/>
       <c r="B40" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>16.99</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26"/>
       <c r="B41" s="9" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D41" s="10" t="n">
         <v>1</v>
@@ -9597,7 +9643,7 @@
         <v>8.99</v>
       </c>
       <c r="J41" s="30" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9611,7 +9657,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9619,32 +9665,32 @@
         <v>3.9</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="10" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="I46" s="13" t="n">
         <v>4</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9652,24 +9698,24 @@
         <v>9.85</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="30" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$1:$E$1060</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$1:$E$1062</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="292">
   <si>
     <t xml:space="preserve">pic label</t>
   </si>
@@ -329,6 +329,15 @@
     <t xml:space="preserve">Optional, but highly recommended for connecting to the inlet power module</t>
   </si>
   <si>
+    <t xml:space="preserve">TC-COZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coozie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any “coozie” drink insulator designed for a 12oz can, folded over</t>
+  </si>
+  <si>
     <t xml:space="preserve">REAGENT PUMP UNIT – Linear Syringe Pumps</t>
   </si>
   <si>
@@ -678,6 +687,12 @@
   </si>
   <si>
     <t xml:space="preserve">Used to build the housing for the Reactor Unit and as support for the pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corner supports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinforcements for rear corners of the housing. We used upcycled shipping corners.</t>
   </si>
   <si>
     <t xml:space="preserve">Packing tape</t>
@@ -1286,15 +1301,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I1060"/>
+  <dimension ref="A1:I1062"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H73" activeCellId="0" sqref="H73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -1947,49 +1962,46 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="9" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="E39" s="23"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
@@ -2002,25 +2014,23 @@
         <v>108</v>
       </c>
       <c r="D41" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="12"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
+      <c r="B42" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>112</v>
       </c>
       <c r="D42" s="10" t="n">
         <v>3</v>
@@ -2028,7 +2038,9 @@
       <c r="E42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="12"/>
+      <c r="H42" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="I42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,7 +2088,7 @@
       <c r="B45" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="24" t="s">
         <v>121</v>
       </c>
       <c r="D45" s="10" t="n">
@@ -2114,7 +2126,7 @@
       <c r="B47" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D47" s="10" t="n">
@@ -2126,14 +2138,14 @@
       <c r="H47" s="12"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="24" t="s">
         <v>130</v>
       </c>
       <c r="D48" s="10" t="n">
@@ -2142,24 +2154,18 @@
       <c r="E48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="H48" s="12"/>
-      <c r="I48" s="22"/>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>134</v>
       </c>
       <c r="D49" s="10" t="n">
         <v>3</v>
@@ -2167,21 +2173,24 @@
       <c r="E49" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="F49" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G49" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H49" s="12"/>
-      <c r="I49" s="15"/>
+      <c r="I49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="D50" s="10" t="n">
         <v>3</v>
@@ -2189,145 +2198,146 @@
       <c r="E50" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="12" t="s">
-        <v>139</v>
-      </c>
+      <c r="G50" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="12"/>
       <c r="I50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="15"/>
-    </row>
-    <row r="53" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" s="23"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="0" t="n">
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="23"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="20"/>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E55" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" s="10" t="n">
+      <c r="H55" s="12"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I55" s="15"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
       <c r="H56" s="12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
+      <c r="C57" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
-      <c r="H57" s="12"/>
+      <c r="H57" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="23"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="9" t="s">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D59" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I59" s="15"/>
+      <c r="E59" s="23"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="D60" s="10" t="n">
         <v>1</v>
@@ -2336,19 +2346,23 @@
         <v>12</v>
       </c>
       <c r="H60" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="I60" s="22"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E61" s="11" t="s">
         <v>12</v>
       </c>
@@ -2357,121 +2371,119 @@
       </c>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="D62" s="10"/>
       <c r="E62" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H62" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I62" s="22"/>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="I62" s="15"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="D63" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="25" t="s">
         <v>166</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="25" t="s">
-        <v>167</v>
       </c>
       <c r="I63" s="15"/>
     </row>
     <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>170</v>
-      </c>
       <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
+      <c r="E64" s="11"/>
       <c r="G64" s="10"/>
       <c r="H64" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="I64" s="15"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D65" s="10" t="n">
+      <c r="I65" s="15"/>
+    </row>
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="I65" s="15"/>
-    </row>
-    <row r="66" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="G66" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="H66" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="D66" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="11" t="s">
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H66" s="12" t="s">
+      <c r="B67" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="I66" s="15"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="D67" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>184</v>
@@ -2490,15 +2502,15 @@
         <v>1</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H68" s="12"/>
+        <v>183</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="I68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="s">
-        <v>187</v>
-      </c>
+      <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
         <v>188</v>
       </c>
@@ -2509,15 +2521,12 @@
         <v>1</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="H69" s="12"/>
-      <c r="I69" s="22"/>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
         <v>190</v>
       </c>
@@ -2533,57 +2542,67 @@
       <c r="E70" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="F70" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="H70" s="12"/>
-      <c r="I70" s="15"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="1" t="s">
+      <c r="I70" s="22"/>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="20"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="s">
+      <c r="B71" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="D71" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E73" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="12" t="s">
+      <c r="E73" s="23"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="I73" s="15"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9"/>
       <c r="B74" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E74" s="11"/>
-      <c r="H74" s="12"/>
+      <c r="E74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="I74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E75" s="11"/>
       <c r="H75" s="12"/>
@@ -2592,55 +2611,52 @@
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E76" s="11"/>
       <c r="H76" s="12"/>
       <c r="I76" s="15"/>
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B77" s="9"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="C77" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D77" s="10" t="n">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="E77" s="11"/>
       <c r="H77" s="12"/>
       <c r="I77" s="15"/>
     </row>
     <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9"/>
+      <c r="A78" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D78" s="10"/>
+        <v>208</v>
+      </c>
+      <c r="D78" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E78" s="11"/>
-      <c r="H78" s="12" t="s">
-        <v>207</v>
-      </c>
+      <c r="H78" s="12"/>
       <c r="I78" s="15"/>
     </row>
-    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D79" s="10"/>
-      <c r="E79" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E79" s="11"/>
       <c r="H79" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I79" s="15"/>
     </row>
@@ -2648,14 +2664,14 @@
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I80" s="15"/>
     </row>
@@ -2663,7 +2679,7 @@
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="11" t="s">
@@ -2674,31 +2690,31 @@
       </c>
       <c r="I81" s="15"/>
     </row>
-    <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
+      <c r="E82" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H82" s="12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="D83" s="10"/>
-      <c r="E83" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E83" s="11"/>
       <c r="H83" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I83" s="15"/>
     </row>
@@ -2706,13 +2722,14 @@
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9" t="s">
-        <v>216</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D84" s="10"/>
       <c r="E84" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I84" s="15"/>
     </row>
@@ -2720,64 +2737,78 @@
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E85" s="11"/>
+        <v>219</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H85" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I85" s="15"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="9" t="s">
-        <v>220</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E86" s="11"/>
       <c r="H86" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>222</v>
+      </c>
+      <c r="I86" s="15"/>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E87" s="11"/>
+      <c r="H87" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="I87" s="15"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="15"/>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="15"/>
-    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="9"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="11"/>
       <c r="H94" s="12"/>
+      <c r="I94" s="15"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="26"/>
       <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
       <c r="H95" s="12"/>
+      <c r="I95" s="15"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="26"/>
       <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
+      <c r="C96" s="9"/>
       <c r="H96" s="12"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
       <c r="H97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8558,9 +8589,21 @@
       <c r="C1060" s="26"/>
       <c r="H1060" s="12"/>
     </row>
+    <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="26"/>
+      <c r="B1061" s="26"/>
+      <c r="C1061" s="26"/>
+      <c r="H1061" s="12"/>
+    </row>
+    <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1062" s="26"/>
+      <c r="B1062" s="26"/>
+      <c r="C1062" s="26"/>
+      <c r="H1062" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E1060"/>
-  <conditionalFormatting sqref="A92:B1060 A1:B38 A72:B85 A40:B70">
+  <autoFilter ref="E1:E1062"/>
+  <conditionalFormatting sqref="A94:B1062 A1:B39 A73:B87 A41:B71">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -8595,39 +8638,39 @@
     <hyperlink ref="E34" r:id="rId27" display="link"/>
     <hyperlink ref="E35" r:id="rId28" display="link"/>
     <hyperlink ref="E36" r:id="rId29" display="link"/>
-    <hyperlink ref="E40" r:id="rId30" display="link"/>
-    <hyperlink ref="E41" r:id="rId31" display="link"/>
-    <hyperlink ref="E42" r:id="rId32" display="link"/>
-    <hyperlink ref="E43" r:id="rId33" display="link"/>
-    <hyperlink ref="E44" r:id="rId34" display="link"/>
-    <hyperlink ref="E45" r:id="rId35" display="link"/>
-    <hyperlink ref="E46" r:id="rId36" display="link"/>
-    <hyperlink ref="E47" r:id="rId37" display="link"/>
-    <hyperlink ref="E48" r:id="rId38" display="link"/>
-    <hyperlink ref="F48" r:id="rId39" display="link"/>
-    <hyperlink ref="E49" r:id="rId40" display="link"/>
-    <hyperlink ref="E50" r:id="rId41" display="link"/>
-    <hyperlink ref="E51" r:id="rId42" display="link"/>
-    <hyperlink ref="E54" r:id="rId43" display="link"/>
-    <hyperlink ref="E55" r:id="rId44" display="link"/>
-    <hyperlink ref="E59" r:id="rId45" display="link"/>
-    <hyperlink ref="H59" r:id="rId46" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="E60" r:id="rId47" display="link"/>
-    <hyperlink ref="E61" r:id="rId48" display="link"/>
-    <hyperlink ref="E62" r:id="rId49" display="link"/>
-    <hyperlink ref="E65" r:id="rId50" display="link"/>
-    <hyperlink ref="E66" r:id="rId51" display="printed"/>
-    <hyperlink ref="E67" r:id="rId52" display="printed"/>
-    <hyperlink ref="E68" r:id="rId53" display="printed"/>
-    <hyperlink ref="E69" r:id="rId54" display="link"/>
-    <hyperlink ref="F69" r:id="rId55" display="6oz link"/>
-    <hyperlink ref="E70" r:id="rId56" display="link"/>
-    <hyperlink ref="E73" r:id="rId57" display="link"/>
-    <hyperlink ref="E79" r:id="rId58" display="link"/>
-    <hyperlink ref="E80" r:id="rId59" display="link"/>
-    <hyperlink ref="E81" r:id="rId60" display="link"/>
-    <hyperlink ref="E83" r:id="rId61" display="link"/>
-    <hyperlink ref="E84" r:id="rId62" display="link"/>
+    <hyperlink ref="E41" r:id="rId30" display="link"/>
+    <hyperlink ref="E42" r:id="rId31" display="link"/>
+    <hyperlink ref="E43" r:id="rId32" display="link"/>
+    <hyperlink ref="E44" r:id="rId33" display="link"/>
+    <hyperlink ref="E45" r:id="rId34" display="link"/>
+    <hyperlink ref="E46" r:id="rId35" display="link"/>
+    <hyperlink ref="E47" r:id="rId36" display="link"/>
+    <hyperlink ref="E48" r:id="rId37" display="link"/>
+    <hyperlink ref="E49" r:id="rId38" display="link"/>
+    <hyperlink ref="F49" r:id="rId39" display="link"/>
+    <hyperlink ref="E50" r:id="rId40" display="link"/>
+    <hyperlink ref="E51" r:id="rId41" display="link"/>
+    <hyperlink ref="E52" r:id="rId42" display="link"/>
+    <hyperlink ref="E55" r:id="rId43" display="link"/>
+    <hyperlink ref="E56" r:id="rId44" display="link"/>
+    <hyperlink ref="E60" r:id="rId45" display="link"/>
+    <hyperlink ref="H60" r:id="rId46" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
+    <hyperlink ref="E61" r:id="rId47" display="link"/>
+    <hyperlink ref="E62" r:id="rId48" display="link"/>
+    <hyperlink ref="E63" r:id="rId49" display="link"/>
+    <hyperlink ref="E66" r:id="rId50" display="link"/>
+    <hyperlink ref="E67" r:id="rId51" display="printed"/>
+    <hyperlink ref="E68" r:id="rId52" display="printed"/>
+    <hyperlink ref="E69" r:id="rId53" display="printed"/>
+    <hyperlink ref="E70" r:id="rId54" display="link"/>
+    <hyperlink ref="F70" r:id="rId55" display="6oz link"/>
+    <hyperlink ref="E71" r:id="rId56" display="link"/>
+    <hyperlink ref="E74" r:id="rId57" display="link"/>
+    <hyperlink ref="E80" r:id="rId58" display="link"/>
+    <hyperlink ref="E81" r:id="rId59" display="link"/>
+    <hyperlink ref="E82" r:id="rId60" display="link"/>
+    <hyperlink ref="E84" r:id="rId61" display="link"/>
+    <hyperlink ref="E85" r:id="rId62" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8651,7 +8694,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>
@@ -8685,10 +8728,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8699,7 +8742,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>2</v>
@@ -8711,36 +8754,36 @@
         <v>14</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>7.1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>5.49</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8748,7 +8791,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>66</v>
@@ -8763,19 +8806,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I4" s="13" t="n">
         <v>25.9</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K4" s="13" t="n">
         <v>47.98</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8786,7 +8829,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>1</v>
@@ -8799,18 +8842,18 @@
         <v>7.36</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D6" s="10" t="n">
         <v>1</v>
@@ -8821,18 +8864,18 @@
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>4</v>
@@ -8845,21 +8888,21 @@
         <v>9.99</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>2</v>
@@ -8868,78 +8911,78 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I8" s="13" t="n">
         <v>8.99</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="I10" s="15" t="n">
         <v>25.99</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>1</v>
@@ -8948,67 +8991,67 @@
         <v>12</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I11" s="13" t="n">
         <v>5.99</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="12" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>13.99</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="12" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>2</v>
@@ -9017,14 +9060,14 @@
         <v>12</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13" t="n">
         <v>3.82</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9035,7 +9078,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>1</v>
@@ -9044,13 +9087,13 @@
         <v>12</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I15" s="13" t="n">
         <v>36.99</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9061,7 +9104,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>1</v>
@@ -9074,7 +9117,7 @@
         <v>10.91</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9085,7 +9128,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>1</v>
@@ -9095,16 +9138,16 @@
       </c>
       <c r="F17" s="10"/>
       <c r="H17" s="12" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9124,13 +9167,13 @@
         <v>12</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>13.25</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9156,7 +9199,7 @@
         <v>64.08</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9178,7 +9221,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="15"/>
       <c r="J20" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9202,18 +9245,18 @@
         <v>26.79</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D22" s="10" t="n">
         <v>2</v>
@@ -9224,18 +9267,18 @@
       <c r="H22" s="12"/>
       <c r="I22" s="15"/>
       <c r="J22" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D23" s="10" t="n">
         <v>2</v>
@@ -9246,18 +9289,18 @@
       <c r="H23" s="12"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D24" s="10" t="n">
         <v>2</v>
@@ -9268,18 +9311,18 @@
       <c r="H24" s="12"/>
       <c r="I24" s="15"/>
       <c r="J24" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2</v>
@@ -9290,18 +9333,18 @@
       <c r="H25" s="12"/>
       <c r="I25" s="15"/>
       <c r="J25" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D26" s="10" t="n">
         <v>2</v>
@@ -9312,18 +9355,18 @@
       <c r="H26" s="12"/>
       <c r="I26" s="15"/>
       <c r="J26" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>2</v>
@@ -9334,40 +9377,40 @@
       <c r="H27" s="12"/>
       <c r="I27" s="15"/>
       <c r="J27" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D28" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="15"/>
       <c r="J28" s="10" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D29" s="10" t="n">
         <v>2</v>
@@ -9379,55 +9422,55 @@
         <v>12</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="15" t="n">
         <v>13.7</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K29" s="10" t="n">
         <v>13.99</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E31" s="28"/>
       <c r="H31" s="12"/>
@@ -9436,10 +9479,10 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E32" s="28"/>
       <c r="H32" s="12"/>
@@ -9448,10 +9491,10 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E33" s="28"/>
       <c r="H33" s="12"/>
@@ -9459,13 +9502,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D34" s="10" t="n">
         <v>2</v>
@@ -9474,25 +9517,25 @@
         <v>12</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13" t="n">
         <v>11.98</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D35" s="10" t="n">
         <v>1</v>
@@ -9508,13 +9551,13 @@
         <v>7.63</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K35" s="10" t="n">
         <v>19.99</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9536,18 +9579,18 @@
       <c r="H36" s="12"/>
       <c r="I36" s="15"/>
       <c r="J36" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D37" s="10" t="n">
         <v>2</v>
@@ -9556,22 +9599,22 @@
         <v>12</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>1.18</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D38" s="10" t="n">
         <v>1</v>
@@ -9581,13 +9624,13 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D39" s="10" t="n">
         <v>1</v>
@@ -9600,37 +9643,37 @@
         <v>9.35</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26"/>
       <c r="B40" s="9" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>16.99</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26"/>
       <c r="B41" s="9" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D41" s="10" t="n">
         <v>1</v>
@@ -9643,7 +9686,7 @@
         <v>8.99</v>
       </c>
       <c r="J41" s="30" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9657,7 +9700,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9665,32 +9708,32 @@
         <v>3.9</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="10" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="I46" s="13" t="n">
         <v>4</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9698,24 +9741,24 @@
         <v>9.85</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="30" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$1:$E$1063</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$1:$E$1064</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="306">
   <si>
     <t xml:space="preserve">pic label</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">Relay hat / relay board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use either a “hat” that fits directly over the Pi’s GPIO pins, or you can wire a relay board separately.</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -206,6 +209,15 @@
   </si>
   <si>
     <t xml:space="preserve">NOTE: Consider using a power supply that provides more than 2A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC-FAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5v or 12v fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These can be scavenged from old computers</t>
   </si>
   <si>
     <t xml:space="preserve">Extension cord</t>
@@ -1351,15 +1363,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I1064"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -1485,7 +1497,7 @@
       </c>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1504,18 +1516,20 @@
       <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="I7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>1</v>
@@ -1527,19 +1541,19 @@
         <v>13</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>1</v>
@@ -1548,19 +1562,19 @@
         <v>12</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>4</v>
@@ -1569,19 +1583,19 @@
         <v>12</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>1</v>
@@ -1594,13 +1608,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10" t="n">
         <v>1</v>
@@ -1613,13 +1627,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="10" t="n">
         <v>1</v>
@@ -1633,10 +1647,10 @@
     <row r="14" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>1</v>
@@ -1645,17 +1659,17 @@
         <v>12</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>1</v>
@@ -1664,32 +1678,32 @@
         <v>12</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C16" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E16" s="11"/>
       <c r="H16" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>1</v>
@@ -1698,20 +1712,24 @@
         <v>12</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H18" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I18" s="15"/>
     </row>
@@ -1719,110 +1737,103 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
       <c r="H19" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="11"/>
       <c r="H21" s="12"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="9" t="s">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="10" t="n">
         <v>2</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="10" t="n">
-        <v>1</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="10" t="n">
         <v>1</v>
@@ -1831,14 +1842,18 @@
         <v>12</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="I26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C27" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>1</v>
@@ -1847,18 +1862,14 @@
         <v>12</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="H27" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="H27" s="12"/>
       <c r="I27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9"/>
-      <c r="B28" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="10" t="n">
         <v>1</v>
@@ -1868,47 +1879,49 @@
       </c>
       <c r="F28" s="11"/>
       <c r="H28" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="D30" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="E30" s="11" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="H30" s="12" t="s">
-        <v>83</v>
-      </c>
+      <c r="H30" s="12"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
         <v>84</v>
@@ -1918,21 +1931,21 @@
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="11" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F31" s="11"/>
       <c r="H31" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="11" t="s">
@@ -1940,51 +1953,51 @@
       </c>
       <c r="F32" s="11"/>
       <c r="H32" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="H33" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="H34" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="11" t="s">
@@ -1992,17 +2005,17 @@
       </c>
       <c r="F35" s="11"/>
       <c r="H35" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11" t="s">
@@ -2010,99 +2023,96 @@
       </c>
       <c r="F36" s="11"/>
       <c r="H36" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="H37" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="H38" s="12"/>
+      <c r="H38" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="9" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="15"/>
+      <c r="E40" s="23"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D42" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>113</v>
-      </c>
+      <c r="H42" s="12"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="9" t="s">
         <v>116</v>
       </c>
       <c r="D43" s="10" t="n">
@@ -2111,18 +2121,20 @@
       <c r="E43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="12"/>
+      <c r="H43" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="I43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D44" s="10" t="n">
         <v>3</v>
@@ -2135,13 +2147,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D45" s="10" t="n">
         <v>3</v>
@@ -2154,13 +2166,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="9" t="s">
         <v>125</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="D46" s="10" t="n">
         <v>3</v>
@@ -2173,13 +2185,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D47" s="10" t="n">
         <v>3</v>
@@ -2192,13 +2204,13 @@
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="24" t="s">
         <v>131</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="D48" s="10" t="n">
         <v>3</v>
@@ -2209,15 +2221,15 @@
       <c r="H48" s="12"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="9" t="s">
         <v>134</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="D49" s="10" t="n">
         <v>3</v>
@@ -2225,14 +2237,8 @@
       <c r="E49" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>135</v>
-      </c>
       <c r="H49" s="12"/>
-      <c r="I49" s="22"/>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
@@ -2241,7 +2247,7 @@
       <c r="B50" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D50" s="10" t="n">
@@ -2250,11 +2256,14 @@
       <c r="E50" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="F50" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G50" s="10" t="s">
         <v>139</v>
       </c>
       <c r="H50" s="12"/>
-      <c r="I50" s="15"/>
+      <c r="I50" s="22"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
@@ -2263,7 +2272,7 @@
       <c r="B51" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="24" t="s">
         <v>142</v>
       </c>
       <c r="D51" s="10" t="n">
@@ -2272,9 +2281,10 @@
       <c r="E51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="G51" s="10" t="s">
         <v>143</v>
       </c>
+      <c r="H51" s="12"/>
       <c r="I51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,130 +2297,130 @@
       <c r="C52" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="D52" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="15"/>
-    </row>
-    <row r="54" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="1" t="s">
+      <c r="H52" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="20"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="8" t="s">
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="15"/>
+    </row>
+    <row r="55" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="23"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9"/>
-      <c r="B56" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="14"/>
       <c r="H56" s="12"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
-        <v>140</v>
-      </c>
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="10" t="n">
+        <v>154</v>
+      </c>
+      <c r="D57" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="I57" s="15"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="C58" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
+        <v>146</v>
+      </c>
+      <c r="D58" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H58" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I58" s="15"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
+      <c r="C59" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="D59" s="10"/>
       <c r="E59" s="11"/>
-      <c r="H59" s="12"/>
+      <c r="H59" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="23"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="20"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="12" t="s">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I61" s="15"/>
+      <c r="E61" s="23"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
@@ -2431,47 +2441,47 @@
       <c r="H62" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I62" s="22"/>
+      <c r="I62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9"/>
+      <c r="A63" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="B63" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" s="10"/>
+        <v>164</v>
+      </c>
+      <c r="D63" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E63" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I63" s="22"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
-        <v>165</v>
-      </c>
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="D64" s="10"/>
       <c r="E64" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="I64" s="15"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I64" s="22"/>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
         <v>169</v>
       </c>
@@ -2481,9 +2491,12 @@
       <c r="C65" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="G65" s="10"/>
+      <c r="D65" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H65" s="25" t="s">
         <v>172</v>
       </c>
@@ -2500,14 +2513,14 @@
         <v>175</v>
       </c>
       <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
+      <c r="E66" s="11"/>
       <c r="G66" s="10"/>
       <c r="H66" s="25" t="s">
         <v>176</v>
       </c>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
         <v>177</v>
       </c>
@@ -2517,43 +2530,42 @@
       <c r="C67" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="10" t="n">
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E68" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="I67" s="15"/>
-    </row>
-    <row r="68" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68" s="9" t="s">
+      <c r="G68" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D68" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="11" t="s">
+      <c r="H68" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I68" s="15"/>
-    </row>
-    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
         <v>187</v>
       </c>
@@ -2564,61 +2576,58 @@
         <v>1</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D70" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H70" s="12"/>
+        <v>189</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>193</v>
+      </c>
       <c r="I70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="s">
-        <v>192</v>
-      </c>
+      <c r="A71" s="9"/>
       <c r="B71" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D71" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="H71" s="12"/>
-      <c r="I71" s="22"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D72" s="10" t="n">
         <v>1</v>
@@ -2626,57 +2635,67 @@
       <c r="E72" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="F72" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="H72" s="12"/>
-      <c r="I72" s="15"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E74" s="23"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="20"/>
-    </row>
-    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="s">
+      <c r="I72" s="22"/>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B73" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="D73" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="12" t="s">
+      <c r="H73" s="12"/>
+      <c r="I73" s="15"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I75" s="15"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9"/>
+      <c r="E75" s="23"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="B76" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E76" s="11"/>
-      <c r="H76" s="12"/>
+        <v>205</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>206</v>
+      </c>
       <c r="I76" s="15"/>
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E77" s="11"/>
       <c r="H77" s="12"/>
@@ -2685,55 +2704,52 @@
     <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E78" s="11"/>
       <c r="H78" s="12"/>
       <c r="I78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B79" s="9"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="C79" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="10" t="n">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="E79" s="11"/>
       <c r="H79" s="12"/>
       <c r="I79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9"/>
+      <c r="A80" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D80" s="10"/>
+        <v>214</v>
+      </c>
+      <c r="D80" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E80" s="11"/>
-      <c r="H80" s="12" t="s">
-        <v>212</v>
-      </c>
+      <c r="H80" s="12"/>
       <c r="I80" s="15"/>
     </row>
-    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D81" s="10"/>
-      <c r="E81" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E81" s="11"/>
       <c r="H81" s="12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I81" s="15"/>
     </row>
@@ -2741,14 +2757,14 @@
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I82" s="15"/>
     </row>
@@ -2756,42 +2772,42 @@
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I83" s="15"/>
     </row>
-    <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
+      <c r="E84" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H84" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I84" s="15"/>
     </row>
-    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9" t="s">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="D85" s="10"/>
-      <c r="E85" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E85" s="11"/>
       <c r="H85" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I85" s="15"/>
     </row>
@@ -2799,25 +2815,28 @@
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9" t="s">
-        <v>221</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="D86" s="10"/>
       <c r="E86" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E87" s="11"/>
+        <v>225</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H87" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I87" s="15"/>
     </row>
@@ -2825,71 +2844,77 @@
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E88" s="11"/>
       <c r="H88" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I88" s="15"/>
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="9" t="s">
-        <v>227</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E89" s="11"/>
       <c r="H89" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>230</v>
+      </c>
+      <c r="I89" s="15"/>
+    </row>
+    <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D90" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D91" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E91" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H90" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H91" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="11"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="15"/>
-    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
       <c r="H96" s="12"/>
       <c r="I96" s="15"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
-      <c r="C97" s="9"/>
+      <c r="C97" s="26"/>
       <c r="H97" s="12"/>
+      <c r="I97" s="15"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="26"/>
       <c r="B98" s="26"/>
+      <c r="C98" s="9"/>
       <c r="H98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
       <c r="H99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8676,10 +8701,15 @@
       <c r="C1063" s="26"/>
       <c r="H1063" s="12"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1064" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1064" s="26"/>
+      <c r="B1064" s="26"/>
+      <c r="C1064" s="26"/>
+      <c r="H1064" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E1063"/>
-  <conditionalFormatting sqref="A95:B1063 A1:B39 A74:B88 A41:B72">
+  <autoFilter ref="E1:E1064"/>
+  <conditionalFormatting sqref="A96:B1064 A1:B40 A75:B89 A42:B73">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -8699,55 +8729,55 @@
     <hyperlink ref="E13" r:id="rId12" display="link"/>
     <hyperlink ref="E14" r:id="rId13" display="link"/>
     <hyperlink ref="E15" r:id="rId14" display="link"/>
-    <hyperlink ref="E16" r:id="rId15" display="link"/>
-    <hyperlink ref="E17" r:id="rId16" display="link"/>
-    <hyperlink ref="E24" r:id="rId17" display="link"/>
-    <hyperlink ref="F24" r:id="rId18" display="link2"/>
-    <hyperlink ref="E25" r:id="rId19" display="link"/>
-    <hyperlink ref="E26" r:id="rId20" display="link"/>
-    <hyperlink ref="E27" r:id="rId21" display="link"/>
-    <hyperlink ref="E28" r:id="rId22" display="link"/>
-    <hyperlink ref="E29" r:id="rId23" display="link"/>
-    <hyperlink ref="E30" r:id="rId24" display="6oz link"/>
-    <hyperlink ref="E31" r:id="rId25" display="link"/>
-    <hyperlink ref="E32" r:id="rId26" display="link"/>
-    <hyperlink ref="E34" r:id="rId27" display="link"/>
-    <hyperlink ref="E35" r:id="rId28" display="link"/>
-    <hyperlink ref="E36" r:id="rId29" display="link"/>
-    <hyperlink ref="E41" r:id="rId30" display="link"/>
-    <hyperlink ref="E42" r:id="rId31" display="link"/>
-    <hyperlink ref="E43" r:id="rId32" display="link"/>
-    <hyperlink ref="E44" r:id="rId33" display="link"/>
-    <hyperlink ref="E45" r:id="rId34" display="link"/>
-    <hyperlink ref="E46" r:id="rId35" display="link"/>
-    <hyperlink ref="E47" r:id="rId36" display="link"/>
-    <hyperlink ref="E48" r:id="rId37" display="link"/>
-    <hyperlink ref="E49" r:id="rId38" display="link"/>
-    <hyperlink ref="F49" r:id="rId39" display="link"/>
-    <hyperlink ref="E50" r:id="rId40" display="link"/>
-    <hyperlink ref="E51" r:id="rId41" display="link"/>
-    <hyperlink ref="E52" r:id="rId42" display="link"/>
-    <hyperlink ref="E56" r:id="rId43" display="link"/>
-    <hyperlink ref="E57" r:id="rId44" display="link"/>
-    <hyperlink ref="E61" r:id="rId45" display="link"/>
-    <hyperlink ref="H61" r:id="rId46" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="E62" r:id="rId47" display="link"/>
-    <hyperlink ref="E63" r:id="rId48" display="link"/>
-    <hyperlink ref="E64" r:id="rId49" display="link"/>
-    <hyperlink ref="E67" r:id="rId50" display="link"/>
-    <hyperlink ref="E68" r:id="rId51" display="printed"/>
-    <hyperlink ref="E69" r:id="rId52" display="printed"/>
-    <hyperlink ref="E70" r:id="rId53" display="printed"/>
-    <hyperlink ref="E71" r:id="rId54" display="link"/>
-    <hyperlink ref="F71" r:id="rId55" display="6oz link"/>
-    <hyperlink ref="E72" r:id="rId56" display="link"/>
-    <hyperlink ref="E75" r:id="rId57" display="link"/>
-    <hyperlink ref="E81" r:id="rId58" display="link"/>
-    <hyperlink ref="E82" r:id="rId59" display="link"/>
-    <hyperlink ref="E83" r:id="rId60" display="link"/>
-    <hyperlink ref="E85" r:id="rId61" display="link"/>
-    <hyperlink ref="E86" r:id="rId62" display="link"/>
-    <hyperlink ref="E90" r:id="rId63" display="link"/>
+    <hyperlink ref="E17" r:id="rId15" display="link"/>
+    <hyperlink ref="E18" r:id="rId16" display="link"/>
+    <hyperlink ref="E25" r:id="rId17" display="link"/>
+    <hyperlink ref="F25" r:id="rId18" display="link2"/>
+    <hyperlink ref="E26" r:id="rId19" display="link"/>
+    <hyperlink ref="E27" r:id="rId20" display="link"/>
+    <hyperlink ref="E28" r:id="rId21" display="link"/>
+    <hyperlink ref="E29" r:id="rId22" display="link"/>
+    <hyperlink ref="E30" r:id="rId23" display="link"/>
+    <hyperlink ref="E31" r:id="rId24" display="6oz link"/>
+    <hyperlink ref="E32" r:id="rId25" display="link"/>
+    <hyperlink ref="E33" r:id="rId26" display="link"/>
+    <hyperlink ref="E35" r:id="rId27" display="link"/>
+    <hyperlink ref="E36" r:id="rId28" display="link"/>
+    <hyperlink ref="E37" r:id="rId29" display="link"/>
+    <hyperlink ref="E42" r:id="rId30" display="link"/>
+    <hyperlink ref="E43" r:id="rId31" display="link"/>
+    <hyperlink ref="E44" r:id="rId32" display="link"/>
+    <hyperlink ref="E45" r:id="rId33" display="link"/>
+    <hyperlink ref="E46" r:id="rId34" display="link"/>
+    <hyperlink ref="E47" r:id="rId35" display="link"/>
+    <hyperlink ref="E48" r:id="rId36" display="link"/>
+    <hyperlink ref="E49" r:id="rId37" display="link"/>
+    <hyperlink ref="E50" r:id="rId38" display="link"/>
+    <hyperlink ref="F50" r:id="rId39" display="link"/>
+    <hyperlink ref="E51" r:id="rId40" display="link"/>
+    <hyperlink ref="E52" r:id="rId41" display="link"/>
+    <hyperlink ref="E53" r:id="rId42" display="link"/>
+    <hyperlink ref="E57" r:id="rId43" display="link"/>
+    <hyperlink ref="E58" r:id="rId44" display="link"/>
+    <hyperlink ref="E62" r:id="rId45" display="link"/>
+    <hyperlink ref="H62" r:id="rId46" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
+    <hyperlink ref="E63" r:id="rId47" display="link"/>
+    <hyperlink ref="E64" r:id="rId48" display="link"/>
+    <hyperlink ref="E65" r:id="rId49" display="link"/>
+    <hyperlink ref="E68" r:id="rId50" display="link"/>
+    <hyperlink ref="E69" r:id="rId51" display="printed"/>
+    <hyperlink ref="E70" r:id="rId52" display="printed"/>
+    <hyperlink ref="E71" r:id="rId53" display="printed"/>
+    <hyperlink ref="E72" r:id="rId54" display="link"/>
+    <hyperlink ref="F72" r:id="rId55" display="6oz link"/>
+    <hyperlink ref="E73" r:id="rId56" display="link"/>
+    <hyperlink ref="E76" r:id="rId57" display="link"/>
+    <hyperlink ref="E82" r:id="rId58" display="link"/>
+    <hyperlink ref="E83" r:id="rId59" display="link"/>
+    <hyperlink ref="E84" r:id="rId60" display="link"/>
+    <hyperlink ref="E86" r:id="rId61" display="link"/>
+    <hyperlink ref="E87" r:id="rId62" display="link"/>
+    <hyperlink ref="E91" r:id="rId63" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8771,7 +8801,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>
@@ -8805,10 +8835,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8819,7 +8849,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>2</v>
@@ -8831,47 +8861,47 @@
         <v>14</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>7.1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>5.49</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>2</v>
@@ -8883,19 +8913,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I4" s="13" t="n">
         <v>25.9</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K4" s="13" t="n">
         <v>47.98</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8906,7 +8936,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>1</v>
@@ -8919,18 +8949,18 @@
         <v>7.36</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D6" s="10" t="n">
         <v>1</v>
@@ -8941,18 +8971,18 @@
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>4</v>
@@ -8965,21 +8995,21 @@
         <v>9.99</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>2</v>
@@ -8988,78 +9018,78 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I8" s="13" t="n">
         <v>8.99</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I10" s="15" t="n">
         <v>25.99</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>1</v>
@@ -9068,67 +9098,67 @@
         <v>12</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I11" s="13" t="n">
         <v>5.99</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>13.99</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>2</v>
@@ -9137,14 +9167,14 @@
         <v>12</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13" t="n">
         <v>3.82</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9155,7 +9185,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>1</v>
@@ -9164,13 +9194,13 @@
         <v>12</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I15" s="13" t="n">
         <v>36.99</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9181,7 +9211,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>1</v>
@@ -9194,18 +9224,18 @@
         <v>10.91</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>1</v>
@@ -9215,27 +9245,27 @@
       </c>
       <c r="F17" s="10"/>
       <c r="H17" s="12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D18" s="10" t="n">
         <v>1</v>
@@ -9244,24 +9274,24 @@
         <v>12</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>13.25</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>4</v>
@@ -9270,24 +9300,24 @@
         <v>12</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I19" s="13" t="n">
         <v>64.08</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>1</v>
@@ -9298,18 +9328,18 @@
       <c r="H20" s="12"/>
       <c r="I20" s="15"/>
       <c r="J20" s="10" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>1</v>
@@ -9322,18 +9352,18 @@
         <v>26.79</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D22" s="10" t="n">
         <v>2</v>
@@ -9344,18 +9374,18 @@
       <c r="H22" s="12"/>
       <c r="I22" s="15"/>
       <c r="J22" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D23" s="10" t="n">
         <v>2</v>
@@ -9366,18 +9396,18 @@
       <c r="H23" s="12"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D24" s="10" t="n">
         <v>2</v>
@@ -9388,18 +9418,18 @@
       <c r="H24" s="12"/>
       <c r="I24" s="15"/>
       <c r="J24" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2</v>
@@ -9410,18 +9440,18 @@
       <c r="H25" s="12"/>
       <c r="I25" s="15"/>
       <c r="J25" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D26" s="10" t="n">
         <v>2</v>
@@ -9432,18 +9462,18 @@
       <c r="H26" s="12"/>
       <c r="I26" s="15"/>
       <c r="J26" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>2</v>
@@ -9454,40 +9484,40 @@
       <c r="H27" s="12"/>
       <c r="I27" s="15"/>
       <c r="J27" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D28" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="15"/>
       <c r="J28" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D29" s="10" t="n">
         <v>2</v>
@@ -9499,55 +9529,55 @@
         <v>12</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="15" t="n">
         <v>13.7</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K29" s="10" t="n">
         <v>13.99</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E31" s="28"/>
       <c r="H31" s="12"/>
@@ -9556,10 +9586,10 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E32" s="28"/>
       <c r="H32" s="12"/>
@@ -9568,10 +9598,10 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E33" s="28"/>
       <c r="H33" s="12"/>
@@ -9579,13 +9609,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D34" s="10" t="n">
         <v>2</v>
@@ -9594,25 +9624,25 @@
         <v>12</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13" t="n">
         <v>11.98</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D35" s="10" t="n">
         <v>1</v>
@@ -9621,31 +9651,31 @@
         <v>12</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="15" t="n">
         <v>7.63</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K35" s="10" t="n">
         <v>19.99</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36" s="10" t="n">
         <v>1</v>
@@ -9656,18 +9686,18 @@
       <c r="H36" s="12"/>
       <c r="I36" s="15"/>
       <c r="J36" s="10" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D37" s="10" t="n">
         <v>2</v>
@@ -9676,22 +9706,22 @@
         <v>12</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>1.18</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D38" s="10" t="n">
         <v>1</v>
@@ -9701,13 +9731,13 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D39" s="10" t="n">
         <v>1</v>
@@ -9720,37 +9750,37 @@
         <v>9.35</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26"/>
       <c r="B40" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>16.99</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26"/>
       <c r="B41" s="9" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D41" s="10" t="n">
         <v>1</v>
@@ -9763,7 +9793,7 @@
         <v>8.99</v>
       </c>
       <c r="J41" s="30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9777,7 +9807,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9785,32 +9815,32 @@
         <v>3.9</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="I46" s="13" t="n">
         <v>4</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9818,24 +9848,24 @@
         <v>9.85</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="J48" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="J48" s="30" t="s">
-        <v>297</v>
-      </c>
       <c r="K48" s="30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -95,7 +95,7 @@
     <t xml:space="preserve">Touch screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Linked screen is to a raspberry pi 4. Be sure to select a touchscreen that fits your Raspberry Pi or Libre Computer</t>
+    <t xml:space="preserve">Linked screen is to a raspberry pi 4. Be sure to select a touchscreen that fits your Raspberry Pi or Libre Computer. You will also need to download drivers that match your screen. The linked screen uses goodtft’s LCDshow.</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -1368,10 +1368,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -8718,66 +8718,67 @@
     <hyperlink ref="E4" r:id="rId1" display="link"/>
     <hyperlink ref="E5" r:id="rId2" display="link"/>
     <hyperlink ref="E6" r:id="rId3" display="link"/>
-    <hyperlink ref="E7" r:id="rId4" display="link"/>
-    <hyperlink ref="F7" r:id="rId5" display="link2"/>
-    <hyperlink ref="E8" r:id="rId6" display="link"/>
-    <hyperlink ref="F8" r:id="rId7" display="link2"/>
-    <hyperlink ref="E9" r:id="rId8" display="link"/>
-    <hyperlink ref="E10" r:id="rId9" display="link"/>
-    <hyperlink ref="E11" r:id="rId10" display="link"/>
-    <hyperlink ref="E12" r:id="rId11" display="link"/>
-    <hyperlink ref="E13" r:id="rId12" display="link"/>
-    <hyperlink ref="E14" r:id="rId13" display="link"/>
-    <hyperlink ref="E15" r:id="rId14" display="link"/>
-    <hyperlink ref="E17" r:id="rId15" display="link"/>
-    <hyperlink ref="E18" r:id="rId16" display="link"/>
-    <hyperlink ref="E25" r:id="rId17" display="link"/>
-    <hyperlink ref="F25" r:id="rId18" display="link2"/>
-    <hyperlink ref="E26" r:id="rId19" display="link"/>
-    <hyperlink ref="E27" r:id="rId20" display="link"/>
-    <hyperlink ref="E28" r:id="rId21" display="link"/>
-    <hyperlink ref="E29" r:id="rId22" display="link"/>
-    <hyperlink ref="E30" r:id="rId23" display="link"/>
-    <hyperlink ref="E31" r:id="rId24" display="6oz link"/>
-    <hyperlink ref="E32" r:id="rId25" display="link"/>
-    <hyperlink ref="E33" r:id="rId26" display="link"/>
-    <hyperlink ref="E35" r:id="rId27" display="link"/>
-    <hyperlink ref="E36" r:id="rId28" display="link"/>
-    <hyperlink ref="E37" r:id="rId29" display="link"/>
-    <hyperlink ref="E42" r:id="rId30" display="link"/>
-    <hyperlink ref="E43" r:id="rId31" display="link"/>
-    <hyperlink ref="E44" r:id="rId32" display="link"/>
-    <hyperlink ref="E45" r:id="rId33" display="link"/>
-    <hyperlink ref="E46" r:id="rId34" display="link"/>
-    <hyperlink ref="E47" r:id="rId35" display="link"/>
-    <hyperlink ref="E48" r:id="rId36" display="link"/>
-    <hyperlink ref="E49" r:id="rId37" display="link"/>
-    <hyperlink ref="E50" r:id="rId38" display="link"/>
-    <hyperlink ref="F50" r:id="rId39" display="link"/>
-    <hyperlink ref="E51" r:id="rId40" display="link"/>
-    <hyperlink ref="E52" r:id="rId41" display="link"/>
-    <hyperlink ref="E53" r:id="rId42" display="link"/>
-    <hyperlink ref="E57" r:id="rId43" display="link"/>
-    <hyperlink ref="E58" r:id="rId44" display="link"/>
-    <hyperlink ref="E62" r:id="rId45" display="link"/>
-    <hyperlink ref="H62" r:id="rId46" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="E63" r:id="rId47" display="link"/>
-    <hyperlink ref="E64" r:id="rId48" display="link"/>
-    <hyperlink ref="E65" r:id="rId49" display="link"/>
-    <hyperlink ref="E68" r:id="rId50" display="link"/>
-    <hyperlink ref="E69" r:id="rId51" display="printed"/>
-    <hyperlink ref="E70" r:id="rId52" display="printed"/>
-    <hyperlink ref="E71" r:id="rId53" display="printed"/>
-    <hyperlink ref="E72" r:id="rId54" display="link"/>
-    <hyperlink ref="F72" r:id="rId55" display="6oz link"/>
-    <hyperlink ref="E73" r:id="rId56" display="link"/>
-    <hyperlink ref="E76" r:id="rId57" display="link"/>
-    <hyperlink ref="E82" r:id="rId58" display="link"/>
-    <hyperlink ref="E83" r:id="rId59" display="link"/>
-    <hyperlink ref="E84" r:id="rId60" display="link"/>
-    <hyperlink ref="E86" r:id="rId61" display="link"/>
-    <hyperlink ref="E87" r:id="rId62" display="link"/>
-    <hyperlink ref="E91" r:id="rId63" display="link"/>
+    <hyperlink ref="H6" r:id="rId4" display="goodtft’s LCDshow"/>
+    <hyperlink ref="E7" r:id="rId5" display="link"/>
+    <hyperlink ref="F7" r:id="rId6" display="link2"/>
+    <hyperlink ref="E8" r:id="rId7" display="link"/>
+    <hyperlink ref="F8" r:id="rId8" display="link2"/>
+    <hyperlink ref="E9" r:id="rId9" display="link"/>
+    <hyperlink ref="E10" r:id="rId10" display="link"/>
+    <hyperlink ref="E11" r:id="rId11" display="link"/>
+    <hyperlink ref="E12" r:id="rId12" display="link"/>
+    <hyperlink ref="E13" r:id="rId13" display="link"/>
+    <hyperlink ref="E14" r:id="rId14" display="link"/>
+    <hyperlink ref="E15" r:id="rId15" display="link"/>
+    <hyperlink ref="E17" r:id="rId16" display="link"/>
+    <hyperlink ref="E18" r:id="rId17" display="link"/>
+    <hyperlink ref="E25" r:id="rId18" display="link"/>
+    <hyperlink ref="F25" r:id="rId19" display="link2"/>
+    <hyperlink ref="E26" r:id="rId20" display="link"/>
+    <hyperlink ref="E27" r:id="rId21" display="link"/>
+    <hyperlink ref="E28" r:id="rId22" display="link"/>
+    <hyperlink ref="E29" r:id="rId23" display="link"/>
+    <hyperlink ref="E30" r:id="rId24" display="link"/>
+    <hyperlink ref="E31" r:id="rId25" display="6oz link"/>
+    <hyperlink ref="E32" r:id="rId26" display="link"/>
+    <hyperlink ref="E33" r:id="rId27" display="link"/>
+    <hyperlink ref="E35" r:id="rId28" display="link"/>
+    <hyperlink ref="E36" r:id="rId29" display="link"/>
+    <hyperlink ref="E37" r:id="rId30" display="link"/>
+    <hyperlink ref="E42" r:id="rId31" display="link"/>
+    <hyperlink ref="E43" r:id="rId32" display="link"/>
+    <hyperlink ref="E44" r:id="rId33" display="link"/>
+    <hyperlink ref="E45" r:id="rId34" display="link"/>
+    <hyperlink ref="E46" r:id="rId35" display="link"/>
+    <hyperlink ref="E47" r:id="rId36" display="link"/>
+    <hyperlink ref="E48" r:id="rId37" display="link"/>
+    <hyperlink ref="E49" r:id="rId38" display="link"/>
+    <hyperlink ref="E50" r:id="rId39" display="link"/>
+    <hyperlink ref="F50" r:id="rId40" display="link"/>
+    <hyperlink ref="E51" r:id="rId41" display="link"/>
+    <hyperlink ref="E52" r:id="rId42" display="link"/>
+    <hyperlink ref="E53" r:id="rId43" display="link"/>
+    <hyperlink ref="E57" r:id="rId44" display="link"/>
+    <hyperlink ref="E58" r:id="rId45" display="link"/>
+    <hyperlink ref="E62" r:id="rId46" display="link"/>
+    <hyperlink ref="H62" r:id="rId47" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
+    <hyperlink ref="E63" r:id="rId48" display="link"/>
+    <hyperlink ref="E64" r:id="rId49" display="link"/>
+    <hyperlink ref="E65" r:id="rId50" display="link"/>
+    <hyperlink ref="E68" r:id="rId51" display="link"/>
+    <hyperlink ref="E69" r:id="rId52" display="printed"/>
+    <hyperlink ref="E70" r:id="rId53" display="printed"/>
+    <hyperlink ref="E71" r:id="rId54" display="printed"/>
+    <hyperlink ref="E72" r:id="rId55" display="link"/>
+    <hyperlink ref="F72" r:id="rId56" display="6oz link"/>
+    <hyperlink ref="E73" r:id="rId57" display="link"/>
+    <hyperlink ref="E76" r:id="rId58" display="link"/>
+    <hyperlink ref="E82" r:id="rId59" display="link"/>
+    <hyperlink ref="E83" r:id="rId60" display="link"/>
+    <hyperlink ref="E84" r:id="rId61" display="link"/>
+    <hyperlink ref="E86" r:id="rId62" display="link"/>
+    <hyperlink ref="E87" r:id="rId63" display="link"/>
+    <hyperlink ref="E91" r:id="rId64" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8786,7 +8787,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId64"/>
+  <drawing r:id="rId65"/>
 </worksheet>
 </file>
 
@@ -8801,7 +8802,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$1:$E$1064</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$1:$E$1066</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="312">
   <si>
     <t xml:space="preserve">pic label</t>
   </si>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">Circulating pump</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTE Operational limits to pumps in terms of capacity and temperature have not been determined. Larger or self-priming pumps may be desired for optimal operation, especially at high temperatures</t>
+    <t xml:space="preserve">NOTE Operational limits to pumps in terms of capacity and temperature have not been determined. Larger or self-priming pumps may be desired for optimal operation, especially at high temperatures.</t>
   </si>
   <si>
     <t xml:space="preserve">TC-HOU</t>
@@ -296,6 +296,24 @@
   </si>
   <si>
     <t xml:space="preserve">Submersible heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-CTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper tubing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper tubing should fit snugly within the silicone tubing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-STB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicone tubing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicone tubing should fit snugly around the copper tubing</t>
   </si>
   <si>
     <t xml:space="preserve">TC-JAR</t>
@@ -1363,15 +1381,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I1064"/>
+  <dimension ref="A1:I1066"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -1814,14 +1832,12 @@
         <v>70</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="F25" s="11"/>
       <c r="H25" s="12" t="s">
         <v>71</v>
       </c>
@@ -1921,7 +1937,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
         <v>84</v>
@@ -1929,45 +1945,49 @@
       <c r="C31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E31" s="11" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="F31" s="11"/>
       <c r="H31" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E32" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="11"/>
       <c r="H32" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="11" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="F33" s="11"/>
       <c r="H33" s="12" t="s">
@@ -1975,7 +1995,7 @@
       </c>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
         <v>94</v>
@@ -1984,7 +2004,9 @@
         <v>95</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="H34" s="12" t="s">
         <v>96</v>
@@ -2018,9 +2040,7 @@
         <v>101</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="H36" s="12" t="s">
         <v>102</v>
@@ -2045,7 +2065,7 @@
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
         <v>106</v>
@@ -2054,90 +2074,86 @@
         <v>107</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
+      <c r="E38" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="H38" s="12" t="s">
         <v>108</v>
       </c>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F39" s="11"/>
-      <c r="H39" s="12"/>
+      <c r="H39" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="23"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="9" t="s">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="10" t="n">
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="H40" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="10" t="n">
         <v>4</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" s="15"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="10" t="n">
-        <v>3</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>12</v>
@@ -2145,15 +2161,15 @@
       <c r="H44" s="12"/>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="D45" s="10" t="n">
         <v>3</v>
@@ -2161,7 +2177,9 @@
       <c r="E45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="I45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,7 +2208,7 @@
       <c r="B47" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D47" s="10" t="n">
@@ -2209,7 +2227,7 @@
       <c r="B48" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="24" t="s">
         <v>132</v>
       </c>
       <c r="D48" s="10" t="n">
@@ -2228,7 +2246,7 @@
       <c r="B49" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D49" s="10" t="n">
@@ -2240,7 +2258,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
         <v>136</v>
       </c>
@@ -2256,24 +2274,18 @@
       <c r="E50" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="10" t="s">
+      <c r="H50" s="12"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="22"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="C51" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>142</v>
       </c>
       <c r="D51" s="10" t="n">
         <v>3</v>
@@ -2281,21 +2293,18 @@
       <c r="E51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>143</v>
-      </c>
       <c r="H51" s="12"/>
       <c r="I51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="D52" s="10" t="n">
         <v>3</v>
@@ -2303,193 +2312,202 @@
       <c r="E52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I52" s="15"/>
+      <c r="F52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="22"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="D53" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="H53" s="12"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="B54" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="H54" s="12"/>
+      <c r="H54" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="23"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="20"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="24"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="23"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="13"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9" t="s">
+      <c r="D60" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="13"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I58" s="15"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="H59" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="I59" s="15"/>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="H60" s="12"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="23"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="20"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="10" t="n">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="H61" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="23"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I62" s="15"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I63" s="22"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D64" s="10"/>
       <c r="E64" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="I64" s="22"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="D65" s="10" t="n">
         <v>1</v>
@@ -2497,132 +2515,132 @@
       <c r="E65" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I65" s="22"/>
+    </row>
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I65" s="15"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="I66" s="22"/>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="25" t="s">
+      <c r="B67" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I66" s="15"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="D67" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="25" t="s">
+      <c r="B68" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="I67" s="15"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D68" s="10" t="n">
+      <c r="B69" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E70" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="I68" s="15"/>
-    </row>
-    <row r="69" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H69" s="12" t="s">
+      <c r="G70" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I69" s="15"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9" t="s">
+      <c r="H70" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D70" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H70" s="12" t="s">
+      <c r="B71" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="I70" s="15"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="D71" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H71" s="12"/>
+        <v>195</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="I71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="A72" s="9"/>
       <c r="B72" s="9" t="s">
         <v>197</v>
       </c>
@@ -2633,18 +2651,15 @@
         <v>1</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H72" s="12"/>
-      <c r="I72" s="22"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H72" s="12" t="s">
         <v>199</v>
       </c>
+      <c r="I72" s="15"/>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9"/>
       <c r="B73" s="9" t="s">
         <v>200</v>
       </c>
@@ -2655,86 +2670,100 @@
         <v>1</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="15"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="1" t="s">
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E75" s="23"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="20"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="s">
+      <c r="B74" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="D74" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" s="12"/>
+      <c r="I74" s="22"/>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="B75" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="I76" s="15"/>
-    </row>
-    <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C77" s="9" t="s">
+      <c r="H75" s="12"/>
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E77" s="11"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="15"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9"/>
+      <c r="E77" s="23"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="B78" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E78" s="11"/>
-      <c r="H78" s="12"/>
+        <v>211</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>212</v>
+      </c>
       <c r="I78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E79" s="11"/>
       <c r="H79" s="12"/>
       <c r="I79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B80" s="9"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="C80" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D80" s="10" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="E80" s="11"/>
       <c r="H80" s="12"/>
@@ -2742,44 +2771,41 @@
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
+      <c r="B81" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="C81" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D81" s="10"/>
+        <v>218</v>
+      </c>
       <c r="E81" s="11"/>
-      <c r="H81" s="12" t="s">
-        <v>216</v>
-      </c>
+      <c r="H81" s="12"/>
       <c r="I81" s="15"/>
     </row>
-    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9"/>
+    <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
+        <v>219</v>
+      </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="12" t="s">
-        <v>218</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D82" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="H82" s="12"/>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D83" s="10"/>
-      <c r="E83" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E83" s="11"/>
       <c r="H83" s="12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I83" s="15"/>
     </row>
@@ -2787,27 +2813,29 @@
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I84" s="15"/>
     </row>
-    <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
+      <c r="E85" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H85" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I85" s="15"/>
     </row>
@@ -2815,118 +2843,134 @@
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>12</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
       <c r="H87" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I87" s="15"/>
     </row>
-    <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E88" s="11"/>
+        <v>229</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H88" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E89" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H89" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I89" s="15"/>
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="9" t="s">
-        <v>231</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="E90" s="11"/>
       <c r="H90" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D91" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="E91" s="11"/>
+      <c r="H91" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E93" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H91" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H93" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="11"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="15"/>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="15"/>
-    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="9"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
       <c r="H98" s="12"/>
+      <c r="I98" s="15"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
       <c r="H99" s="12"/>
+      <c r="I99" s="15"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
+      <c r="C100" s="9"/>
       <c r="H100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="26"/>
       <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
       <c r="H101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8707,9 +8751,21 @@
       <c r="C1064" s="26"/>
       <c r="H1064" s="12"/>
     </row>
+    <row r="1065" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="26"/>
+      <c r="B1065" s="26"/>
+      <c r="C1065" s="26"/>
+      <c r="H1065" s="12"/>
+    </row>
+    <row r="1066" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="26"/>
+      <c r="B1066" s="26"/>
+      <c r="C1066" s="26"/>
+      <c r="H1066" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E1064"/>
-  <conditionalFormatting sqref="A96:B1064 A1:B40 A75:B89 A42:B73">
+  <autoFilter ref="E1:E1066"/>
+  <conditionalFormatting sqref="A98:B1066 A1:B42 A77:B91 A44:B75">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -8718,7 +8774,7 @@
     <hyperlink ref="E4" r:id="rId1" display="link"/>
     <hyperlink ref="E5" r:id="rId2" display="link"/>
     <hyperlink ref="E6" r:id="rId3" display="link"/>
-    <hyperlink ref="H6" r:id="rId4" display="goodtft’s LCDshow"/>
+    <hyperlink ref="H6" r:id="rId4" display="Linked screen is to a raspberry pi 4. Be sure to select a touchscreen that fits your Raspberry Pi or Libre Computer. You will also need to download drivers that match your screen. The linked screen uses goodtft’s LCDshow."/>
     <hyperlink ref="E7" r:id="rId5" display="link"/>
     <hyperlink ref="F7" r:id="rId6" display="link2"/>
     <hyperlink ref="E8" r:id="rId7" display="link"/>
@@ -8733,52 +8789,53 @@
     <hyperlink ref="E17" r:id="rId16" display="link"/>
     <hyperlink ref="E18" r:id="rId17" display="link"/>
     <hyperlink ref="E25" r:id="rId18" display="link"/>
-    <hyperlink ref="F25" r:id="rId19" display="link2"/>
-    <hyperlink ref="E26" r:id="rId20" display="link"/>
-    <hyperlink ref="E27" r:id="rId21" display="link"/>
-    <hyperlink ref="E28" r:id="rId22" display="link"/>
-    <hyperlink ref="E29" r:id="rId23" display="link"/>
-    <hyperlink ref="E30" r:id="rId24" display="link"/>
-    <hyperlink ref="E31" r:id="rId25" display="6oz link"/>
-    <hyperlink ref="E32" r:id="rId26" display="link"/>
-    <hyperlink ref="E33" r:id="rId27" display="link"/>
+    <hyperlink ref="E26" r:id="rId19" display="link"/>
+    <hyperlink ref="E27" r:id="rId20" display="link"/>
+    <hyperlink ref="E28" r:id="rId21" display="link"/>
+    <hyperlink ref="E29" r:id="rId22" display="link"/>
+    <hyperlink ref="E30" r:id="rId23" display="link"/>
+    <hyperlink ref="E31" r:id="rId24" display="link"/>
+    <hyperlink ref="E32" r:id="rId25" display="link"/>
+    <hyperlink ref="E33" r:id="rId26" display="6oz link"/>
+    <hyperlink ref="E34" r:id="rId27" display="link"/>
     <hyperlink ref="E35" r:id="rId28" display="link"/>
-    <hyperlink ref="E36" r:id="rId29" display="link"/>
-    <hyperlink ref="E37" r:id="rId30" display="link"/>
-    <hyperlink ref="E42" r:id="rId31" display="link"/>
-    <hyperlink ref="E43" r:id="rId32" display="link"/>
-    <hyperlink ref="E44" r:id="rId33" display="link"/>
-    <hyperlink ref="E45" r:id="rId34" display="link"/>
-    <hyperlink ref="E46" r:id="rId35" display="link"/>
-    <hyperlink ref="E47" r:id="rId36" display="link"/>
-    <hyperlink ref="E48" r:id="rId37" display="link"/>
-    <hyperlink ref="E49" r:id="rId38" display="link"/>
-    <hyperlink ref="E50" r:id="rId39" display="link"/>
-    <hyperlink ref="F50" r:id="rId40" display="link"/>
-    <hyperlink ref="E51" r:id="rId41" display="link"/>
-    <hyperlink ref="E52" r:id="rId42" display="link"/>
-    <hyperlink ref="E53" r:id="rId43" display="link"/>
-    <hyperlink ref="E57" r:id="rId44" display="link"/>
-    <hyperlink ref="E58" r:id="rId45" display="link"/>
-    <hyperlink ref="E62" r:id="rId46" display="link"/>
-    <hyperlink ref="H62" r:id="rId47" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="E63" r:id="rId48" display="link"/>
-    <hyperlink ref="E64" r:id="rId49" display="link"/>
-    <hyperlink ref="E65" r:id="rId50" display="link"/>
-    <hyperlink ref="E68" r:id="rId51" display="link"/>
-    <hyperlink ref="E69" r:id="rId52" display="printed"/>
-    <hyperlink ref="E70" r:id="rId53" display="printed"/>
-    <hyperlink ref="E71" r:id="rId54" display="printed"/>
-    <hyperlink ref="E72" r:id="rId55" display="link"/>
-    <hyperlink ref="F72" r:id="rId56" display="6oz link"/>
-    <hyperlink ref="E73" r:id="rId57" display="link"/>
-    <hyperlink ref="E76" r:id="rId58" display="link"/>
-    <hyperlink ref="E82" r:id="rId59" display="link"/>
-    <hyperlink ref="E83" r:id="rId60" display="link"/>
-    <hyperlink ref="E84" r:id="rId61" display="link"/>
+    <hyperlink ref="E37" r:id="rId29" display="link"/>
+    <hyperlink ref="E38" r:id="rId30" display="link"/>
+    <hyperlink ref="E39" r:id="rId31" display="link"/>
+    <hyperlink ref="E44" r:id="rId32" display="link"/>
+    <hyperlink ref="E45" r:id="rId33" display="link"/>
+    <hyperlink ref="E46" r:id="rId34" display="link"/>
+    <hyperlink ref="E47" r:id="rId35" display="link"/>
+    <hyperlink ref="E48" r:id="rId36" display="link"/>
+    <hyperlink ref="E49" r:id="rId37" display="link"/>
+    <hyperlink ref="E50" r:id="rId38" display="link"/>
+    <hyperlink ref="E51" r:id="rId39" display="link"/>
+    <hyperlink ref="E52" r:id="rId40" display="link"/>
+    <hyperlink ref="F52" r:id="rId41" display="link"/>
+    <hyperlink ref="E53" r:id="rId42" display="link"/>
+    <hyperlink ref="E54" r:id="rId43" display="link"/>
+    <hyperlink ref="E55" r:id="rId44" display="link"/>
+    <hyperlink ref="E59" r:id="rId45" display="link"/>
+    <hyperlink ref="E60" r:id="rId46" display="link"/>
+    <hyperlink ref="E64" r:id="rId47" display="link"/>
+    <hyperlink ref="H64" r:id="rId48" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
+    <hyperlink ref="E65" r:id="rId49" display="link"/>
+    <hyperlink ref="E66" r:id="rId50" display="link"/>
+    <hyperlink ref="E67" r:id="rId51" display="link"/>
+    <hyperlink ref="E70" r:id="rId52" display="link"/>
+    <hyperlink ref="E71" r:id="rId53" display="printed"/>
+    <hyperlink ref="E72" r:id="rId54" display="printed"/>
+    <hyperlink ref="E73" r:id="rId55" display="printed"/>
+    <hyperlink ref="E74" r:id="rId56" display="link"/>
+    <hyperlink ref="F74" r:id="rId57" display="6oz link"/>
+    <hyperlink ref="E75" r:id="rId58" display="link"/>
+    <hyperlink ref="E78" r:id="rId59" display="link"/>
+    <hyperlink ref="E84" r:id="rId60" display="link"/>
+    <hyperlink ref="E85" r:id="rId61" display="link"/>
     <hyperlink ref="E86" r:id="rId62" display="link"/>
-    <hyperlink ref="E87" r:id="rId63" display="link"/>
-    <hyperlink ref="E91" r:id="rId64" display="link"/>
+    <hyperlink ref="E88" r:id="rId63" display="link"/>
+    <hyperlink ref="E89" r:id="rId64" display="link"/>
+    <hyperlink ref="E93" r:id="rId65" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8787,7 +8844,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId65"/>
+  <drawing r:id="rId66"/>
 </worksheet>
 </file>
 
@@ -8802,7 +8859,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>
@@ -8836,10 +8893,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8850,7 +8907,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>2</v>
@@ -8862,36 +8919,36 @@
         <v>14</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>7.1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>5.49</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8899,10 +8956,10 @@
         <v>68</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>2</v>
@@ -8914,19 +8971,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I4" s="13" t="n">
         <v>25.9</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K4" s="13" t="n">
         <v>47.98</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8937,7 +8994,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>1</v>
@@ -8950,18 +9007,18 @@
         <v>7.36</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D6" s="10" t="n">
         <v>1</v>
@@ -8972,18 +9029,18 @@
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="10" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>4</v>
@@ -8996,21 +9053,21 @@
         <v>9.99</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>2</v>
@@ -9019,78 +9076,78 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I8" s="13" t="n">
         <v>8.99</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I10" s="15" t="n">
         <v>25.99</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>1</v>
@@ -9099,67 +9156,67 @@
         <v>12</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I11" s="13" t="n">
         <v>5.99</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="12" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>13.99</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="12" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="I13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>2</v>
@@ -9168,14 +9225,14 @@
         <v>12</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13" t="n">
         <v>3.82</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9186,7 +9243,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>1</v>
@@ -9195,13 +9252,13 @@
         <v>12</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I15" s="13" t="n">
         <v>36.99</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9212,7 +9269,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>1</v>
@@ -9225,7 +9282,7 @@
         <v>10.91</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9236,7 +9293,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>1</v>
@@ -9246,16 +9303,16 @@
       </c>
       <c r="F17" s="10"/>
       <c r="H17" s="12" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9266,7 +9323,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D18" s="10" t="n">
         <v>1</v>
@@ -9275,13 +9332,13 @@
         <v>12</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>13.25</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9292,7 +9349,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>4</v>
@@ -9307,7 +9364,7 @@
         <v>64.08</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9318,7 +9375,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>1</v>
@@ -9329,7 +9386,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="15"/>
       <c r="J20" s="10" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9340,7 +9397,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>1</v>
@@ -9353,18 +9410,18 @@
         <v>26.79</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D22" s="10" t="n">
         <v>2</v>
@@ -9375,18 +9432,18 @@
       <c r="H22" s="12"/>
       <c r="I22" s="15"/>
       <c r="J22" s="10" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D23" s="10" t="n">
         <v>2</v>
@@ -9397,18 +9454,18 @@
       <c r="H23" s="12"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D24" s="10" t="n">
         <v>2</v>
@@ -9419,18 +9476,18 @@
       <c r="H24" s="12"/>
       <c r="I24" s="15"/>
       <c r="J24" s="10" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2</v>
@@ -9441,18 +9498,18 @@
       <c r="H25" s="12"/>
       <c r="I25" s="15"/>
       <c r="J25" s="10" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D26" s="10" t="n">
         <v>2</v>
@@ -9463,18 +9520,18 @@
       <c r="H26" s="12"/>
       <c r="I26" s="15"/>
       <c r="J26" s="10" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>2</v>
@@ -9485,40 +9542,40 @@
       <c r="H27" s="12"/>
       <c r="I27" s="15"/>
       <c r="J27" s="10" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D28" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="15"/>
       <c r="J28" s="10" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D29" s="10" t="n">
         <v>2</v>
@@ -9530,55 +9587,55 @@
         <v>12</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="15" t="n">
         <v>13.7</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K29" s="10" t="n">
         <v>13.99</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E31" s="28"/>
       <c r="H31" s="12"/>
@@ -9587,10 +9644,10 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E32" s="28"/>
       <c r="H32" s="12"/>
@@ -9599,10 +9656,10 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E33" s="28"/>
       <c r="H33" s="12"/>
@@ -9610,13 +9667,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D34" s="10" t="n">
         <v>2</v>
@@ -9625,25 +9682,25 @@
         <v>12</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13" t="n">
         <v>11.98</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D35" s="10" t="n">
         <v>1</v>
@@ -9652,20 +9709,20 @@
         <v>12</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="15" t="n">
         <v>7.63</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K35" s="10" t="n">
         <v>19.99</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9687,18 +9744,18 @@
       <c r="H36" s="12"/>
       <c r="I36" s="15"/>
       <c r="J36" s="10" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D37" s="10" t="n">
         <v>2</v>
@@ -9707,22 +9764,22 @@
         <v>12</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>1.18</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D38" s="10" t="n">
         <v>1</v>
@@ -9732,13 +9789,13 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D39" s="10" t="n">
         <v>1</v>
@@ -9751,37 +9808,37 @@
         <v>9.35</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26"/>
       <c r="B40" s="9" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>16.99</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26"/>
       <c r="B41" s="9" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D41" s="10" t="n">
         <v>1</v>
@@ -9794,7 +9851,7 @@
         <v>8.99</v>
       </c>
       <c r="J41" s="30" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9808,7 +9865,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9816,32 +9873,32 @@
         <v>3.9</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="10" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="10" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I46" s="13" t="n">
         <v>4</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9849,24 +9906,24 @@
         <v>9.85</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="30" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$1:$E$1066</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$1:$E$1065</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="312">
   <si>
     <t xml:space="preserve">pic label</t>
   </si>
@@ -119,7 +119,8 @@
     <t xml:space="preserve">Raspberry Pi</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary link is to a 4 - 3b+'s seem hard to come by. We also have experimental support for Le Potato by Libre Computer</t>
+    <t xml:space="preserve">Primary link is to a Raspberry Pi. 4’s and 3b+'s seem hard to come by. 
+We also have experimental support for Le Potato by Libre Computer (link2).</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
@@ -298,24 +299,45 @@
     <t xml:space="preserve">Submersible heater</t>
   </si>
   <si>
+    <t xml:space="preserve">1 or 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC-CTB</t>
   </si>
   <si>
-    <t xml:space="preserve">Copper tubing</t>
+    <t xml:space="preserve">Copper tubing 1/4" OD x 3/16" ID</t>
   </si>
   <si>
     <t xml:space="preserve">Copper tubing should fit snugly within the silicone tubing</t>
   </si>
   <si>
+    <t xml:space="preserve">09</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC-STB</t>
   </si>
   <si>
-    <t xml:space="preserve">Silicone tubing</t>
+    <t xml:space="preserve">Silicone tubing 5mm ID x 7mm OD</t>
   </si>
   <si>
     <t xml:space="preserve">Silicone tubing should fit snugly around the copper tubing</t>
   </si>
   <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX-TEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbed tee fittings for 6mm tubing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429K55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase tubing compatible with your circulation pump and the copper heat exchanger!</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC-JAR</t>
   </si>
   <si>
@@ -391,10 +413,10 @@
     <t xml:space="preserve">Any “coozie” drink insulator or other insulator (like a knit hat) that will fit over the jar</t>
   </si>
   <si>
-    <t xml:space="preserve">REAGENT PUMP UNIT – Linear Syringe Pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE: Consider using peristaltic pumps instead. They work with the same stepper motor interface and require very little assembly.</t>
+    <t xml:space="preserve">REAGENT PUMP UNIT – Linear Syringe Pumps (DEPRECATED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: We HIGHLY recommend using peristaltic pumps instead. They work with the same stepper motor interface and require very little assembly and fiddling.</t>
   </si>
   <si>
     <t xml:space="preserve">06</t>
@@ -571,16 +593,254 @@
     <t xml:space="preserve">NOTE: the motor mount is still under development and this coupling is not optimal</t>
   </si>
   <si>
-    <t xml:space="preserve">09</t>
+    <t xml:space="preserve">09C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX-RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reducing fitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might be needed – Purchase tubing compatible with your circulation pumps!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX-LID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactor manifold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">printed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: the manifold can be a tight squeeze to pass through the mouth of the large mason jar, especially if your printer over-extrudes even slightly. Post-processing (i.e.: sand paper) may be necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX-MMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixing motor mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: the motor mount is under development and does not exactly fit the linked motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX-RUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactor collar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX-COR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/6 oz mason jar for core chamber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX-OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1qt wide mouth mason jar for outer jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISCELLANEOUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-M310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3x10mm screw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon assortment contains all needed sizes and wrench 
+TODO: Which ones to use where?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-M320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3x20mm screw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-M340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3x40mm screw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-M3N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3 nut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex wrench for syringe pump, M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18g wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For miscellaneous connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrel plug connectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional, but good for modularity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrel plug wires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12v button and lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional, but nice for viewing the reaction chamber. Any 12v lights can be used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See the entry in the CONTROL UNIT for details – useful for assembly of the housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split loom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is optional but is very helpful for cable management!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thin plywood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to build the housing for the Reactor Unit and as support for the pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corner supports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link 3 corner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link 2 corner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinforcements for rear corners of the housing. We used upcycled plastic shipping corners because it allows the unit to disassemble and pack flat for shipping. Any bracket or method to stably join 3 faces of cube (4 times in the back) will work. The front corners are also joined but velcro straps alone seem to be sufficient there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packing tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to make a transparent door for the Reactor Unit housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint and stickers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have fun with it! Make the Microlab yours!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional, but good for storage and shipping. The linked one was the cheapest profile we could find at ~$25 ea. The control unit and assembled reaction chamber module can fit side by side in one case while the reactor housing and pumps pack flatish next to the temperature control parts. A broader, less deep profile would be more convenient, but those seemed to be more expensive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Aug/Sep 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wire nuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lever connectors are better, orange wire nuts (video) will also work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McMasterCarr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or 1/8 inch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX-PMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circulating pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini pump (first link) may not withstand being sumberged in 100C water. The 5A pump in link 2 is almost certainly overkill, but should withstand high heat and is self-priming. Power supply connector here. Power supply here. We may want smaller pumps that can run at fewer amps (screw terminals seem to max out at 12v 5A, which is only half of what two of the larger pumps require.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightobject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thermistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliexpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX-TMPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB dongle for thermistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same link as thermistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syringe slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right item?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixing motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixing paddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixing paddle needs to be coated. Stainless steel may react.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not available</t>
   </si>
   <si>
     <t xml:space="preserve">RX-TB5</t>
   </si>
   <si>
-    <t xml:space="preserve">Tubing 5-6mm x 8mm (1/4")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pump outlet – Purchase tubing compatible with your circulation pumps!</t>
+    <t xml:space="preserve">tubing 5-6mm x 8mm (1/4")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pump outlet</t>
   </si>
   <si>
     <t xml:space="preserve">09B</t>
@@ -589,349 +849,91 @@
     <t xml:space="preserve">RX-TB8</t>
   </si>
   <si>
-    <t xml:space="preserve">Tubing 8mm x 12mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pump inlet – Purchase tubing compatible with your circulation pumps!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX-RED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reducing fitting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">might be needed – Purchase tubing compatible with your circulation pumps!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX-TEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbed tee fittings for 6mm tubing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2429K55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase tubing compatible with your circulation pumps!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX-LID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactor manifold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">printed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE: the manifold can be a tight squeeze to pass through the mouth of the large mason jar, especially if your printer over-extrudes even slightly. Post-processing (i.e.: sand paper) may be necessary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX-MMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixing motor mount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE: the motor mount is under development and does not exactly fit the linked motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX-RUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactor collar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX-COR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/6 oz mason jar for core chamber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX-OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1qt wide mouth mason jar for outer jacket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISCELLANEOUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP-M310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3x10mm screw</t>
+    <t xml:space="preserve">tubing 8mm x 12mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pump inlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might be needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barbed tee fittings for 6mm tubing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McMaster Carr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">touch screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screen is to a raspberry pi 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relay hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raspberry pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary link is to a 4 - 3b+'s seem hard to come by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~$12.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro SD card, 32GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motor drivers for CNC hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arduino CNC hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same link as motor drivers for CNC hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arduino UNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plunger holder tab (Linear Actuator V0 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print instuctions not a thing to buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body holder (Linear Actuator V0 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plunger holder base (Linear Actuator V0 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motor end (Linear Actuator V0 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carriage (Linear Actuator V0 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idler end (Linear Actuator V0 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactor manifold assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no print instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stepper motors</t>
   </si>
   <si>
     <t xml:space="preserve">Amazon assortment contains all needed sizes and wrench</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP-M320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3x20mm screw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP-M340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3x40mm screw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP-M3N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3 nut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hex wrench for syringe pump, M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18g wire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For miscellaneous connections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrel plug connectors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional, but good for modularity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrel plug wires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12v button and lights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional, but nice for viewing the reaction chamber. Any 12v lights can be used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See the entry in the CONTROL UNIT for details – useful for assembly of the housing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split loom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is optional but is very helpful for cable management!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thin plywood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to build the housing for the Reactor Unit and as support for the pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corner supports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reinforcements for rear corners of the housing. We used upcycled shipping corners.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Packing tape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to make a transparent door for the Reactor Unit housing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paint and stickers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have fun with it! Make the Microlab yours!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional, but good for storage and shipping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Aug/Sep 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wire nuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lever connectors are better, orange wire nuts (video) will also work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McMasterCarr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or 1/8 inch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amazon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX-PMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">circulating pump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini pump (first link) may not withstand being sumberged in 100C water. The 5A pump in link 2 is almost certainly overkill, but should withstand high heat and is self-priming. Power supply connector here. Power supply here. We may want smaller pumps that can run at fewer amps (screw terminals seem to max out at 12v 5A, which is only half of what two of the larger pumps require.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightobject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thermistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aliexpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX-TMPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB dongle for thermistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same link as thermistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">syringe slides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right item?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mixing motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mixing paddle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixing paddle needs to be coated. Stainless steel may react.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tubing 5-6mm x 8mm (1/4")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pump outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tubing 8mm x 12mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pump inlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">might be needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barbed tee fittings for 6mm tubing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McMaster Carr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">touch screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screen is to a raspberry pi 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relay hat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raspberry pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary link is to a 4 - 3b+'s seem hard to come by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~$12.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro SD card, 32GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">motor drivers for CNC hat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arduino CNC hat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same link as motor drivers for CNC hat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arduino UNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plunger holder tab (Linear Actuator V0 7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print instuctions not a thing to buy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">body holder (Linear Actuator V0 5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plunger holder base (Linear Actuator V0 7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">motor end (Linear Actuator V0 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carriage (Linear Actuator V0 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idler end (Linear Actuator V0 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reactor manifold assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no print instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stepper motors</t>
   </si>
   <si>
     <t xml:space="preserve">not available </t>
@@ -1223,16 +1225,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1381,15 +1383,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I1066"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -1927,8 +1929,8 @@
       <c r="C30" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="10" t="n">
-        <v>2</v>
+      <c r="D30" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>12</v>
@@ -1940,10 +1942,10 @@
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31" s="10" t="n">
         <v>1</v>
@@ -1953,17 +1955,19 @@
       </c>
       <c r="F31" s="11"/>
       <c r="H31" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
+      <c r="A32" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="B32" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D32" s="10" t="n">
         <v>1</v>
@@ -1973,53 +1977,59 @@
       </c>
       <c r="F32" s="11"/>
       <c r="H32" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="B33" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="E33" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="H33" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="11" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="F34" s="11"/>
       <c r="H34" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="11" t="s">
@@ -2027,51 +2037,51 @@
       </c>
       <c r="F35" s="11"/>
       <c r="H35" s="12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="H36" s="12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="H37" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="11" t="s">
@@ -2079,17 +2089,17 @@
       </c>
       <c r="F38" s="11"/>
       <c r="H38" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11" t="s">
@@ -2097,100 +2107,97 @@
       </c>
       <c r="F39" s="11"/>
       <c r="H39" s="12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="H40" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="H41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="23"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="15"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="20"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D45" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="12" t="s">
-        <v>123</v>
-      </c>
+      <c r="H45" s="12"/>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="D46" s="10" t="n">
         <v>3</v>
@@ -2198,18 +2205,20 @@
       <c r="E46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="I46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="D47" s="10" t="n">
         <v>3</v>
@@ -2222,13 +2231,13 @@
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="D48" s="10" t="n">
         <v>3</v>
@@ -2241,13 +2250,13 @@
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="D49" s="10" t="n">
         <v>3</v>
@@ -2260,13 +2269,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D50" s="10" t="n">
         <v>3</v>
@@ -2279,13 +2288,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="D51" s="10" t="n">
         <v>3</v>
@@ -2296,15 +2305,15 @@
       <c r="H51" s="12"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>148</v>
       </c>
       <c r="D52" s="10" t="n">
         <v>3</v>
@@ -2312,24 +2321,18 @@
       <c r="E52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>145</v>
-      </c>
       <c r="H52" s="12"/>
-      <c r="I52" s="22"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="D53" s="10" t="n">
         <v>3</v>
@@ -2337,21 +2340,24 @@
       <c r="E53" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="F53" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G53" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H53" s="12"/>
-      <c r="I53" s="15"/>
+      <c r="I53" s="22"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="D54" s="10" t="n">
         <v>3</v>
@@ -2359,155 +2365,156 @@
       <c r="E54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="12" t="s">
-        <v>153</v>
-      </c>
+      <c r="G54" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54" s="12"/>
       <c r="I54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="15"/>
-    </row>
-    <row r="57" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="23"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="13"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9"/>
-      <c r="B59" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" s="14"/>
       <c r="H59" s="12"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
-        <v>150</v>
-      </c>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="10" t="n">
+        <v>167</v>
+      </c>
+      <c r="D60" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I60" s="15"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>158</v>
+      </c>
       <c r="C61" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
+        <v>159</v>
+      </c>
+      <c r="D61" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H61" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I61" s="15"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
+      <c r="C62" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="D62" s="10"/>
       <c r="E62" s="11"/>
-      <c r="H62" s="12"/>
+      <c r="H62" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E63" s="23"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="20"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I64" s="15"/>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="15"/>
+    </row>
+    <row r="64" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="24"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D65" s="10" t="n">
         <v>1</v>
@@ -2516,174 +2523,155 @@
         <v>12</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I65" s="22"/>
+        <v>174</v>
+      </c>
+      <c r="I65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9"/>
+      <c r="A66" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="B66" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D66" s="10"/>
+        <v>177</v>
+      </c>
+      <c r="D66" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E66" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I66" s="22"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
-        <v>175</v>
-      </c>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D67" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D67" s="10"/>
       <c r="E67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="I67" s="15"/>
+      <c r="H67" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I67" s="22"/>
     </row>
     <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
+      <c r="E68" s="10"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="25" t="s">
-        <v>182</v>
+      <c r="H68" s="23" t="s">
+        <v>185</v>
       </c>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="25" t="s">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I69" s="15"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="D70" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="10" t="s">
+      <c r="H70" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I70" s="15"/>
-    </row>
-    <row r="71" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="D71" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9"/>
       <c r="B72" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D72" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="H72" s="12"/>
       <c r="I72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9"/>
+      <c r="A73" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="B73" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D73" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>195</v>
+        <v>12</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="H73" s="12"/>
-      <c r="I73" s="15"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I73" s="22"/>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D74" s="10" t="n">
         <v>1</v>
@@ -2691,67 +2679,57 @@
       <c r="E74" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="H74" s="12"/>
-      <c r="I74" s="22"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="s">
+      <c r="I74" s="15"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" s="24"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="20"/>
+    </row>
+    <row r="77" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="E77" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="I77" s="15"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D75" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="15"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E77" s="23"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="20"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>212</v>
-      </c>
+      <c r="E78" s="11"/>
+      <c r="H78" s="12"/>
       <c r="I78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E79" s="11"/>
       <c r="H79" s="12"/>
@@ -2760,52 +2738,55 @@
     <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E80" s="11"/>
       <c r="H80" s="12"/>
       <c r="I80" s="15"/>
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9" t="s">
-        <v>217</v>
-      </c>
+      <c r="A81" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="9"/>
       <c r="C81" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
+      </c>
+      <c r="D81" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="E81" s="11"/>
       <c r="H81" s="12"/>
       <c r="I81" s="15"/>
     </row>
     <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="s">
-        <v>219</v>
-      </c>
+      <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D82" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D82" s="10"/>
       <c r="E82" s="11"/>
-      <c r="H82" s="12"/>
+      <c r="H82" s="12" t="s">
+        <v>216</v>
+      </c>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
+      <c r="E83" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H83" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I83" s="15"/>
     </row>
@@ -2813,14 +2794,14 @@
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I84" s="15"/>
     </row>
@@ -2828,42 +2809,42 @@
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I85" s="15"/>
     </row>
-    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="D86" s="10"/>
-      <c r="E86" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E86" s="11"/>
       <c r="H86" s="12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
+      <c r="E87" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H87" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I87" s="15"/>
     </row>
@@ -2871,28 +2852,30 @@
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D88" s="10"/>
+        <v>225</v>
+      </c>
       <c r="E88" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>12</v>
+        <v>228</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I89" s="15"/>
     </row>
@@ -2900,77 +2883,71 @@
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E90" s="11"/>
       <c r="H90" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H91" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="I90" s="15"/>
-    </row>
-    <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E91" s="11"/>
-      <c r="H91" s="12" t="s">
+      <c r="D92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="I91" s="15"/>
-    </row>
-    <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D93" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="11"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="15"/>
+    </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="11"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
       <c r="H98" s="12"/>
       <c r="I98" s="15"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
+      <c r="C99" s="9"/>
       <c r="H99" s="12"/>
-      <c r="I99" s="15"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
-      <c r="C100" s="9"/>
       <c r="H100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="26"/>
       <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
       <c r="H101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8757,15 +8734,10 @@
       <c r="C1065" s="26"/>
       <c r="H1065" s="12"/>
     </row>
-    <row r="1066" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1066" s="26"/>
-      <c r="B1066" s="26"/>
-      <c r="C1066" s="26"/>
-      <c r="H1066" s="12"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="E1:E1066"/>
-  <conditionalFormatting sqref="A98:B1066 A1:B42 A77:B91 A44:B75">
+  <autoFilter ref="E1:E1065"/>
+  <conditionalFormatting sqref="A97:B1065 A76:B90 A70:B74 A45:B68 A1:B43">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -8796,13 +8768,13 @@
     <hyperlink ref="E30" r:id="rId23" display="link"/>
     <hyperlink ref="E31" r:id="rId24" display="link"/>
     <hyperlink ref="E32" r:id="rId25" display="link"/>
-    <hyperlink ref="E33" r:id="rId26" display="6oz link"/>
-    <hyperlink ref="E34" r:id="rId27" display="link"/>
+    <hyperlink ref="E33" r:id="rId26" display="link"/>
+    <hyperlink ref="E34" r:id="rId27" display="6oz link"/>
     <hyperlink ref="E35" r:id="rId28" display="link"/>
-    <hyperlink ref="E37" r:id="rId29" display="link"/>
+    <hyperlink ref="E36" r:id="rId29" display="link"/>
     <hyperlink ref="E38" r:id="rId30" display="link"/>
     <hyperlink ref="E39" r:id="rId31" display="link"/>
-    <hyperlink ref="E44" r:id="rId32" display="link"/>
+    <hyperlink ref="E40" r:id="rId32" display="link"/>
     <hyperlink ref="E45" r:id="rId33" display="link"/>
     <hyperlink ref="E46" r:id="rId34" display="link"/>
     <hyperlink ref="E47" r:id="rId35" display="link"/>
@@ -8811,31 +8783,32 @@
     <hyperlink ref="E50" r:id="rId38" display="link"/>
     <hyperlink ref="E51" r:id="rId39" display="link"/>
     <hyperlink ref="E52" r:id="rId40" display="link"/>
-    <hyperlink ref="F52" r:id="rId41" display="link"/>
-    <hyperlink ref="E53" r:id="rId42" display="link"/>
+    <hyperlink ref="E53" r:id="rId41" display="link"/>
+    <hyperlink ref="F53" r:id="rId42" display="link"/>
     <hyperlink ref="E54" r:id="rId43" display="link"/>
     <hyperlink ref="E55" r:id="rId44" display="link"/>
-    <hyperlink ref="E59" r:id="rId45" display="link"/>
+    <hyperlink ref="E56" r:id="rId45" display="link"/>
     <hyperlink ref="E60" r:id="rId46" display="link"/>
-    <hyperlink ref="E64" r:id="rId47" display="link"/>
-    <hyperlink ref="H64" r:id="rId48" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="E65" r:id="rId49" display="link"/>
+    <hyperlink ref="E61" r:id="rId47" display="link"/>
+    <hyperlink ref="E65" r:id="rId48" display="link"/>
+    <hyperlink ref="H65" r:id="rId49" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
     <hyperlink ref="E66" r:id="rId50" display="link"/>
     <hyperlink ref="E67" r:id="rId51" display="link"/>
-    <hyperlink ref="E70" r:id="rId52" display="link"/>
+    <hyperlink ref="E70" r:id="rId52" display="printed"/>
     <hyperlink ref="E71" r:id="rId53" display="printed"/>
     <hyperlink ref="E72" r:id="rId54" display="printed"/>
-    <hyperlink ref="E73" r:id="rId55" display="printed"/>
-    <hyperlink ref="E74" r:id="rId56" display="link"/>
-    <hyperlink ref="F74" r:id="rId57" display="6oz link"/>
-    <hyperlink ref="E75" r:id="rId58" display="link"/>
-    <hyperlink ref="E78" r:id="rId59" display="link"/>
+    <hyperlink ref="E73" r:id="rId55" display="link"/>
+    <hyperlink ref="F73" r:id="rId56" display="6oz link"/>
+    <hyperlink ref="E74" r:id="rId57" display="link"/>
+    <hyperlink ref="E77" r:id="rId58" display="link"/>
+    <hyperlink ref="E83" r:id="rId59" display="link"/>
     <hyperlink ref="E84" r:id="rId60" display="link"/>
     <hyperlink ref="E85" r:id="rId61" display="link"/>
-    <hyperlink ref="E86" r:id="rId62" display="link"/>
+    <hyperlink ref="E87" r:id="rId62" display="link"/>
     <hyperlink ref="E88" r:id="rId63" display="link"/>
-    <hyperlink ref="E89" r:id="rId64" display="link"/>
-    <hyperlink ref="E93" r:id="rId65" display="link"/>
+    <hyperlink ref="E89" r:id="rId64" display="link 3 corner"/>
+    <hyperlink ref="F89" r:id="rId65" display="link 2 corner"/>
+    <hyperlink ref="E92" r:id="rId66" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8844,7 +8817,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId66"/>
+  <drawing r:id="rId67"/>
 </worksheet>
 </file>
 
@@ -8859,7 +8832,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>
@@ -8893,10 +8866,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8907,7 +8880,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>2</v>
@@ -8919,36 +8892,36 @@
         <v>14</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>7.1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>5.49</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8956,10 +8929,10 @@
         <v>68</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>2</v>
@@ -8971,19 +8944,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I4" s="13" t="n">
         <v>25.9</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K4" s="13" t="n">
         <v>47.98</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8994,7 +8967,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>1</v>
@@ -9007,18 +8980,18 @@
         <v>7.36</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D6" s="10" t="n">
         <v>1</v>
@@ -9029,18 +9002,18 @@
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>4</v>
@@ -9053,21 +9026,21 @@
         <v>9.99</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>2</v>
@@ -9076,78 +9049,78 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I8" s="13" t="n">
         <v>8.99</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I10" s="15" t="n">
         <v>25.99</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>1</v>
@@ -9156,67 +9129,67 @@
         <v>12</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I11" s="13" t="n">
         <v>5.99</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>13.99</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>2</v>
@@ -9225,14 +9198,14 @@
         <v>12</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13" t="n">
         <v>3.82</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9243,7 +9216,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>1</v>
@@ -9252,13 +9225,13 @@
         <v>12</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I15" s="13" t="n">
         <v>36.99</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9269,7 +9242,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>1</v>
@@ -9282,7 +9255,7 @@
         <v>10.91</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9293,7 +9266,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>1</v>
@@ -9303,16 +9276,16 @@
       </c>
       <c r="F17" s="10"/>
       <c r="H17" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9323,7 +9296,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="10" t="n">
         <v>1</v>
@@ -9332,13 +9305,13 @@
         <v>12</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>13.25</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9349,7 +9322,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>4</v>
@@ -9364,7 +9337,7 @@
         <v>64.08</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9375,7 +9348,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>1</v>
@@ -9386,7 +9359,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="15"/>
       <c r="J20" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9397,7 +9370,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>1</v>
@@ -9410,18 +9383,18 @@
         <v>26.79</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>286</v>
+        <v>132</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>285</v>
       </c>
       <c r="D22" s="10" t="n">
         <v>2</v>
@@ -9432,18 +9405,18 @@
       <c r="H22" s="12"/>
       <c r="I22" s="15"/>
       <c r="J22" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>288</v>
+        <v>135</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>287</v>
       </c>
       <c r="D23" s="10" t="n">
         <v>2</v>
@@ -9454,18 +9427,18 @@
       <c r="H23" s="12"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>289</v>
+        <v>138</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="D24" s="10" t="n">
         <v>2</v>
@@ -9476,18 +9449,18 @@
       <c r="H24" s="12"/>
       <c r="I24" s="15"/>
       <c r="J24" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2</v>
@@ -9498,18 +9471,18 @@
       <c r="H25" s="12"/>
       <c r="I25" s="15"/>
       <c r="J25" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D26" s="10" t="n">
         <v>2</v>
@@ -9520,18 +9493,18 @@
       <c r="H26" s="12"/>
       <c r="I26" s="15"/>
       <c r="J26" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>292</v>
+        <v>147</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>291</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>2</v>
@@ -9542,40 +9515,40 @@
       <c r="H27" s="12"/>
       <c r="I27" s="15"/>
       <c r="J27" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="15"/>
       <c r="J28" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D29" s="10" t="n">
         <v>2</v>
@@ -9587,43 +9560,43 @@
         <v>12</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="15" t="n">
         <v>13.7</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K29" s="10" t="n">
         <v>13.99</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>296</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>297</v>
@@ -9632,10 +9605,10 @@
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E31" s="28"/>
       <c r="H31" s="12"/>
@@ -9644,10 +9617,10 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E32" s="28"/>
       <c r="H32" s="12"/>
@@ -9656,10 +9629,10 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E33" s="28"/>
       <c r="H33" s="12"/>
@@ -9667,13 +9640,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>148</v>
+        <v>154</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="D34" s="10" t="n">
         <v>2</v>
@@ -9682,25 +9655,25 @@
         <v>12</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13" t="n">
         <v>11.98</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D35" s="10" t="n">
         <v>1</v>
@@ -9709,20 +9682,20 @@
         <v>12</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="15" t="n">
         <v>7.63</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K35" s="10" t="n">
         <v>19.99</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9744,15 +9717,15 @@
       <c r="H36" s="12"/>
       <c r="I36" s="15"/>
       <c r="J36" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>298</v>
@@ -9764,7 +9737,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>1.18</v>
@@ -9775,7 +9748,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
@@ -9789,13 +9762,13 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D39" s="10" t="n">
         <v>1</v>
@@ -9808,7 +9781,7 @@
         <v>9.35</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9829,7 +9802,7 @@
         <v>16.99</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9851,7 +9824,7 @@
         <v>8.99</v>
       </c>
       <c r="J41" s="30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9876,7 +9849,7 @@
         <v>307</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9898,7 +9871,7 @@
         <v>307</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9923,7 +9896,7 @@
         <v>307</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="313">
   <si>
     <t xml:space="preserve">pic label</t>
   </si>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">2429K55</t>
   </si>
   <si>
-    <t xml:space="preserve">Purchase tubing compatible with your circulation pump and the copper heat exchanger!</t>
+    <t xml:space="preserve">Purchase tubing compatible with your circulation pump and the copper tubing!</t>
   </si>
   <si>
     <t xml:space="preserve">TC-JAR</t>
@@ -347,7 +347,10 @@
     <t xml:space="preserve">6oz link</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTE: We are investigating the simplest and most reliable configuration. A larger jar allows the pumps to be submerged, but submerging the pumps may lead them to over-heat at high temperatures.</t>
+    <t xml:space="preserve">16oz link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: We are investigating the simplest and most reliable configuration. 16Oz wide mouth jar may be optimal.</t>
   </si>
   <si>
     <t xml:space="preserve">TC-RLY</t>
@@ -1386,12 +1389,12 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="G25" activeCellId="1" sqref="H33 G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -2017,19 +2020,21 @@
       <c r="E34" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="H34" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="11" t="s">
@@ -2037,17 +2042,17 @@
       </c>
       <c r="F35" s="11"/>
       <c r="H35" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11" t="s">
@@ -2055,33 +2060,33 @@
       </c>
       <c r="F36" s="11"/>
       <c r="H36" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="H37" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="11" t="s">
@@ -2089,17 +2094,17 @@
       </c>
       <c r="F38" s="11"/>
       <c r="H38" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11" t="s">
@@ -2107,17 +2112,17 @@
       </c>
       <c r="F39" s="11"/>
       <c r="H39" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="11" t="s">
@@ -2125,23 +2130,23 @@
       </c>
       <c r="F40" s="11"/>
       <c r="H40" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="H41" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I41" s="22"/>
     </row>
@@ -2159,7 +2164,7 @@
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E43" s="24"/>
       <c r="H43" s="19"/>
@@ -2167,18 +2172,18 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D45" s="10" t="n">
         <v>4</v>
@@ -2191,13 +2196,13 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D46" s="10" t="n">
         <v>3</v>
@@ -2206,19 +2211,19 @@
         <v>12</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" s="10" t="n">
         <v>3</v>
@@ -2231,13 +2236,13 @@
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D48" s="10" t="n">
         <v>3</v>
@@ -2250,13 +2255,13 @@
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D49" s="10" t="n">
         <v>3</v>
@@ -2269,13 +2274,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D50" s="10" t="n">
         <v>3</v>
@@ -2288,13 +2293,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="10" t="n">
         <v>3</v>
@@ -2307,13 +2312,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="10" t="n">
         <v>3</v>
@@ -2326,13 +2331,13 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="10" t="n">
         <v>3</v>
@@ -2344,20 +2349,20 @@
         <v>12</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="22"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="10" t="n">
         <v>3</v>
@@ -2366,20 +2371,20 @@
         <v>12</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="10" t="n">
         <v>3</v>
@@ -2388,19 +2393,19 @@
         <v>12</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>12</v>
@@ -2420,7 +2425,7 @@
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E58" s="24"/>
       <c r="H58" s="19"/>
@@ -2430,7 +2435,7 @@
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E59" s="14"/>
       <c r="H59" s="12"/>
@@ -2439,10 +2444,10 @@
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>3</v>
@@ -2455,13 +2460,13 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D61" s="10" t="n">
         <v>3</v>
@@ -2470,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I61" s="15"/>
     </row>
@@ -2478,12 +2483,12 @@
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="11"/>
       <c r="H62" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I62" s="15"/>
     </row>
@@ -2500,7 +2505,7 @@
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E64" s="24"/>
       <c r="H64" s="19"/>
@@ -2508,13 +2513,13 @@
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D65" s="10" t="n">
         <v>1</v>
@@ -2523,19 +2528,19 @@
         <v>12</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D66" s="10" t="n">
         <v>1</v>
@@ -2544,112 +2549,112 @@
         <v>12</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I66" s="22"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I67" s="22"/>
     </row>
     <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D70" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D71" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9"/>
       <c r="B72" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D72" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D73" s="10" t="n">
         <v>1</v>
@@ -2665,13 +2670,13 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D74" s="10" t="n">
         <v>1</v>
@@ -2687,7 +2692,7 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E76" s="24"/>
       <c r="H76" s="19"/>
@@ -2695,29 +2700,29 @@
     </row>
     <row r="77" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I77" s="15"/>
     </row>
     <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E78" s="11"/>
       <c r="H78" s="12"/>
@@ -2726,10 +2731,10 @@
     <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E79" s="11"/>
       <c r="H79" s="12"/>
@@ -2738,10 +2743,10 @@
     <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E80" s="11"/>
       <c r="H80" s="12"/>
@@ -2749,11 +2754,11 @@
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D81" s="10" t="n">
         <v>1</v>
@@ -2766,12 +2771,12 @@
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="11"/>
       <c r="H82" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I82" s="15"/>
     </row>
@@ -2779,14 +2784,14 @@
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I83" s="15"/>
     </row>
@@ -2794,14 +2799,14 @@
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I84" s="15"/>
     </row>
@@ -2809,14 +2814,14 @@
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I85" s="15"/>
     </row>
@@ -2829,7 +2834,7 @@
       <c r="D86" s="10"/>
       <c r="E86" s="11"/>
       <c r="H86" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I86" s="15"/>
     </row>
@@ -2837,14 +2842,14 @@
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I87" s="15"/>
     </row>
@@ -2852,13 +2857,13 @@
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I88" s="15"/>
     </row>
@@ -2866,16 +2871,16 @@
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I89" s="15"/>
     </row>
@@ -2883,25 +2888,25 @@
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E90" s="11"/>
       <c r="H90" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I90" s="15"/>
     </row>
     <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>2</v>
@@ -2910,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8770,45 +8775,46 @@
     <hyperlink ref="E32" r:id="rId25" display="link"/>
     <hyperlink ref="E33" r:id="rId26" display="link"/>
     <hyperlink ref="E34" r:id="rId27" display="6oz link"/>
-    <hyperlink ref="E35" r:id="rId28" display="link"/>
-    <hyperlink ref="E36" r:id="rId29" display="link"/>
-    <hyperlink ref="E38" r:id="rId30" display="link"/>
-    <hyperlink ref="E39" r:id="rId31" display="link"/>
-    <hyperlink ref="E40" r:id="rId32" display="link"/>
-    <hyperlink ref="E45" r:id="rId33" display="link"/>
-    <hyperlink ref="E46" r:id="rId34" display="link"/>
-    <hyperlink ref="E47" r:id="rId35" display="link"/>
-    <hyperlink ref="E48" r:id="rId36" display="link"/>
-    <hyperlink ref="E49" r:id="rId37" display="link"/>
-    <hyperlink ref="E50" r:id="rId38" display="link"/>
-    <hyperlink ref="E51" r:id="rId39" display="link"/>
-    <hyperlink ref="E52" r:id="rId40" display="link"/>
-    <hyperlink ref="E53" r:id="rId41" display="link"/>
-    <hyperlink ref="F53" r:id="rId42" display="link"/>
-    <hyperlink ref="E54" r:id="rId43" display="link"/>
-    <hyperlink ref="E55" r:id="rId44" display="link"/>
-    <hyperlink ref="E56" r:id="rId45" display="link"/>
-    <hyperlink ref="E60" r:id="rId46" display="link"/>
-    <hyperlink ref="E61" r:id="rId47" display="link"/>
-    <hyperlink ref="E65" r:id="rId48" display="link"/>
-    <hyperlink ref="H65" r:id="rId49" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="E66" r:id="rId50" display="link"/>
-    <hyperlink ref="E67" r:id="rId51" display="link"/>
-    <hyperlink ref="E70" r:id="rId52" display="printed"/>
-    <hyperlink ref="E71" r:id="rId53" display="printed"/>
-    <hyperlink ref="E72" r:id="rId54" display="printed"/>
-    <hyperlink ref="E73" r:id="rId55" display="link"/>
-    <hyperlink ref="F73" r:id="rId56" display="6oz link"/>
-    <hyperlink ref="E74" r:id="rId57" display="link"/>
-    <hyperlink ref="E77" r:id="rId58" display="link"/>
-    <hyperlink ref="E83" r:id="rId59" display="link"/>
-    <hyperlink ref="E84" r:id="rId60" display="link"/>
-    <hyperlink ref="E85" r:id="rId61" display="link"/>
-    <hyperlink ref="E87" r:id="rId62" display="link"/>
-    <hyperlink ref="E88" r:id="rId63" display="link"/>
-    <hyperlink ref="E89" r:id="rId64" display="link 3 corner"/>
-    <hyperlink ref="F89" r:id="rId65" display="link 2 corner"/>
-    <hyperlink ref="E92" r:id="rId66" display="link"/>
+    <hyperlink ref="F34" r:id="rId28" display="16oz link"/>
+    <hyperlink ref="E35" r:id="rId29" display="link"/>
+    <hyperlink ref="E36" r:id="rId30" display="link"/>
+    <hyperlink ref="E38" r:id="rId31" display="link"/>
+    <hyperlink ref="E39" r:id="rId32" display="link"/>
+    <hyperlink ref="E40" r:id="rId33" display="link"/>
+    <hyperlink ref="E45" r:id="rId34" display="link"/>
+    <hyperlink ref="E46" r:id="rId35" display="link"/>
+    <hyperlink ref="E47" r:id="rId36" display="link"/>
+    <hyperlink ref="E48" r:id="rId37" display="link"/>
+    <hyperlink ref="E49" r:id="rId38" display="link"/>
+    <hyperlink ref="E50" r:id="rId39" display="link"/>
+    <hyperlink ref="E51" r:id="rId40" display="link"/>
+    <hyperlink ref="E52" r:id="rId41" display="link"/>
+    <hyperlink ref="E53" r:id="rId42" display="link"/>
+    <hyperlink ref="F53" r:id="rId43" display="link"/>
+    <hyperlink ref="E54" r:id="rId44" display="link"/>
+    <hyperlink ref="E55" r:id="rId45" display="link"/>
+    <hyperlink ref="E56" r:id="rId46" display="link"/>
+    <hyperlink ref="E60" r:id="rId47" display="link"/>
+    <hyperlink ref="E61" r:id="rId48" display="link"/>
+    <hyperlink ref="E65" r:id="rId49" display="link"/>
+    <hyperlink ref="H65" r:id="rId50" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
+    <hyperlink ref="E66" r:id="rId51" display="link"/>
+    <hyperlink ref="E67" r:id="rId52" display="link"/>
+    <hyperlink ref="E70" r:id="rId53" display="printed"/>
+    <hyperlink ref="E71" r:id="rId54" display="printed"/>
+    <hyperlink ref="E72" r:id="rId55" display="printed"/>
+    <hyperlink ref="E73" r:id="rId56" display="link"/>
+    <hyperlink ref="F73" r:id="rId57" display="6oz link"/>
+    <hyperlink ref="E74" r:id="rId58" display="link"/>
+    <hyperlink ref="E77" r:id="rId59" display="link"/>
+    <hyperlink ref="E83" r:id="rId60" display="link"/>
+    <hyperlink ref="E84" r:id="rId61" display="link"/>
+    <hyperlink ref="E85" r:id="rId62" display="link"/>
+    <hyperlink ref="E87" r:id="rId63" display="link"/>
+    <hyperlink ref="E88" r:id="rId64" display="link"/>
+    <hyperlink ref="E89" r:id="rId65" display="link 3 corner"/>
+    <hyperlink ref="F89" r:id="rId66" display="link 2 corner"/>
+    <hyperlink ref="E92" r:id="rId67" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8817,7 +8823,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId67"/>
+  <drawing r:id="rId68"/>
 </worksheet>
 </file>
 
@@ -8829,10 +8835,10 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="H33 G25 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>
@@ -8866,10 +8872,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8880,7 +8886,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>2</v>
@@ -8892,36 +8898,36 @@
         <v>14</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>7.1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>5.49</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8929,10 +8935,10 @@
         <v>68</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>2</v>
@@ -8944,19 +8950,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I4" s="13" t="n">
         <v>25.9</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K4" s="13" t="n">
         <v>47.98</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8967,7 +8973,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>1</v>
@@ -8980,18 +8986,18 @@
         <v>7.36</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D6" s="10" t="n">
         <v>1</v>
@@ -9002,18 +9008,18 @@
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>4</v>
@@ -9026,21 +9032,21 @@
         <v>9.99</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>2</v>
@@ -9049,67 +9055,67 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I8" s="13" t="n">
         <v>8.99</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I10" s="15" t="n">
         <v>25.99</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9117,10 +9123,10 @@
         <v>88</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>1</v>
@@ -9129,55 +9135,55 @@
         <v>12</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I11" s="13" t="n">
         <v>5.99</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>13.99</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I13" s="15"/>
     </row>
@@ -9189,7 +9195,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>2</v>
@@ -9205,7 +9211,7 @@
         <v>3.82</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9216,7 +9222,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>1</v>
@@ -9225,13 +9231,13 @@
         <v>12</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I15" s="13" t="n">
         <v>36.99</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9242,7 +9248,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>1</v>
@@ -9255,7 +9261,7 @@
         <v>10.91</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9266,7 +9272,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>1</v>
@@ -9276,16 +9282,16 @@
       </c>
       <c r="F17" s="10"/>
       <c r="H17" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9296,7 +9302,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D18" s="10" t="n">
         <v>1</v>
@@ -9305,13 +9311,13 @@
         <v>12</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>13.25</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9322,7 +9328,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>4</v>
@@ -9337,7 +9343,7 @@
         <v>64.08</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9348,7 +9354,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>1</v>
@@ -9359,7 +9365,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="15"/>
       <c r="J20" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9370,7 +9376,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>1</v>
@@ -9383,18 +9389,18 @@
         <v>26.79</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D22" s="10" t="n">
         <v>2</v>
@@ -9405,18 +9411,18 @@
       <c r="H22" s="12"/>
       <c r="I22" s="15"/>
       <c r="J22" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D23" s="10" t="n">
         <v>2</v>
@@ -9427,18 +9433,18 @@
       <c r="H23" s="12"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D24" s="10" t="n">
         <v>2</v>
@@ -9449,18 +9455,18 @@
       <c r="H24" s="12"/>
       <c r="I24" s="15"/>
       <c r="J24" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2</v>
@@ -9471,18 +9477,18 @@
       <c r="H25" s="12"/>
       <c r="I25" s="15"/>
       <c r="J25" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D26" s="10" t="n">
         <v>2</v>
@@ -9493,18 +9499,18 @@
       <c r="H26" s="12"/>
       <c r="I26" s="15"/>
       <c r="J26" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>2</v>
@@ -9515,40 +9521,40 @@
       <c r="H27" s="12"/>
       <c r="I27" s="15"/>
       <c r="J27" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="15"/>
       <c r="J28" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D29" s="10" t="n">
         <v>2</v>
@@ -9560,55 +9566,55 @@
         <v>12</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="15" t="n">
         <v>13.7</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K29" s="10" t="n">
         <v>13.99</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E31" s="28"/>
       <c r="H31" s="12"/>
@@ -9617,10 +9623,10 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E32" s="28"/>
       <c r="H32" s="12"/>
@@ -9629,10 +9635,10 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E33" s="28"/>
       <c r="H33" s="12"/>
@@ -9640,13 +9646,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D34" s="10" t="n">
         <v>2</v>
@@ -9655,25 +9661,25 @@
         <v>12</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13" t="n">
         <v>11.98</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D35" s="10" t="n">
         <v>1</v>
@@ -9689,13 +9695,13 @@
         <v>7.63</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K35" s="10" t="n">
         <v>19.99</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9717,18 +9723,18 @@
       <c r="H36" s="12"/>
       <c r="I36" s="15"/>
       <c r="J36" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D37" s="10" t="n">
         <v>2</v>
@@ -9737,22 +9743,22 @@
         <v>12</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>1.18</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D38" s="10" t="n">
         <v>1</v>
@@ -9762,13 +9768,13 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D39" s="10" t="n">
         <v>1</v>
@@ -9781,37 +9787,37 @@
         <v>9.35</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26"/>
       <c r="B40" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>16.99</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26"/>
       <c r="B41" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D41" s="10" t="n">
         <v>1</v>
@@ -9824,7 +9830,7 @@
         <v>8.99</v>
       </c>
       <c r="J41" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9838,7 +9844,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9846,32 +9852,32 @@
         <v>3.9</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I46" s="13" t="n">
         <v>4</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9879,24 +9885,24 @@
         <v>9.85</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">Thermistor</t>
   </si>
   <si>
-    <t xml:space="preserve">Used to monitor the temperature in the reaction chamber.</t>
+    <t xml:space="preserve">Used to monitor the temperature in the reaction chamber. This is a link to a USB DS18B20 </t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
@@ -1135,7 +1135,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1228,7 +1228,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1238,6 +1238,10 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1391,10 +1395,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G25" activeCellId="1" sqref="H33 G25"/>
+      <selection pane="bottomLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -1478,7 +1482,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1499,7 +1503,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2583,7 +2587,7 @@
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="23" t="s">
+      <c r="H68" s="26" t="s">
         <v>186</v>
       </c>
       <c r="I68" s="15"/>
@@ -2932,5811 +2936,5811 @@
       <c r="I97" s="15"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
       <c r="H98" s="12"/>
       <c r="I98" s="15"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="9"/>
       <c r="H99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="26"/>
-      <c r="B100" s="26"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
       <c r="H100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
       <c r="H101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="26"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
       <c r="H102" s="12"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="26"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
       <c r="H103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
       <c r="H104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="26"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
       <c r="H105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="26"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
       <c r="H106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
       <c r="H107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="26"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
       <c r="H108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="26"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
       <c r="H109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="26"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
       <c r="H110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="26"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
       <c r="H111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="26"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
       <c r="H112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="26"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
       <c r="H113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="26"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
       <c r="H114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="26"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="26"/>
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
       <c r="H115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="26"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
       <c r="H116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="26"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
       <c r="H117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="26"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
       <c r="H118" s="12"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="26"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
       <c r="H119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="26"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
       <c r="H120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="26"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
+      <c r="A121" s="27"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
       <c r="H121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="26"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
+      <c r="A122" s="27"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
       <c r="H122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="26"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
       <c r="H123" s="12"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="26"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
+      <c r="A124" s="27"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
       <c r="H124" s="12"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="26"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
       <c r="H125" s="12"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="26"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
       <c r="H126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="26"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
+      <c r="A127" s="27"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
       <c r="H127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="26"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
       <c r="H128" s="12"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="26"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
+      <c r="A129" s="27"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
       <c r="H129" s="12"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="26"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
+      <c r="A130" s="27"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
       <c r="H130" s="12"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="26"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
+      <c r="A131" s="27"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
       <c r="H131" s="12"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="26"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
+      <c r="A132" s="27"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
       <c r="H132" s="12"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="26"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
+      <c r="A133" s="27"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
       <c r="H133" s="12"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="26"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
+      <c r="A134" s="27"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
       <c r="H134" s="12"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="26"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
+      <c r="A135" s="27"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="27"/>
       <c r="H135" s="12"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="26"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
+      <c r="A136" s="27"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
       <c r="H136" s="12"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="26"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
+      <c r="A137" s="27"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
       <c r="H137" s="12"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="26"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
+      <c r="A138" s="27"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
       <c r="H138" s="12"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="26"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
+      <c r="A139" s="27"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="27"/>
       <c r="H139" s="12"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="26"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
+      <c r="A140" s="27"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
       <c r="H140" s="12"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
+      <c r="A141" s="27"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="27"/>
       <c r="H141" s="12"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="26"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="26"/>
+      <c r="A142" s="27"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="27"/>
       <c r="H142" s="12"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="26"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
+      <c r="A143" s="27"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="27"/>
       <c r="H143" s="12"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="26"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
+      <c r="A144" s="27"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="27"/>
       <c r="H144" s="12"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="26"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="26"/>
+      <c r="A145" s="27"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="27"/>
       <c r="H145" s="12"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="26"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
+      <c r="A146" s="27"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="27"/>
       <c r="H146" s="12"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="26"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="26"/>
+      <c r="A147" s="27"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="27"/>
       <c r="H147" s="12"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="26"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="26"/>
+      <c r="A148" s="27"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
       <c r="H148" s="12"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
+      <c r="A149" s="27"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="27"/>
       <c r="H149" s="12"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="26"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
+      <c r="A150" s="27"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
       <c r="H150" s="12"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="26"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
+      <c r="A151" s="27"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="27"/>
       <c r="H151" s="12"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="26"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
+      <c r="A152" s="27"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="27"/>
       <c r="H152" s="12"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="26"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
+      <c r="A153" s="27"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="27"/>
       <c r="H153" s="12"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="26"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
+      <c r="A154" s="27"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="27"/>
       <c r="H154" s="12"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="26"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="26"/>
+      <c r="A155" s="27"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
       <c r="H155" s="12"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="26"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
+      <c r="A156" s="27"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="27"/>
       <c r="H156" s="12"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="26"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
+      <c r="A157" s="27"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="27"/>
       <c r="H157" s="12"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="26"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
+      <c r="A158" s="27"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="27"/>
       <c r="H158" s="12"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="26"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
+      <c r="A159" s="27"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="27"/>
       <c r="H159" s="12"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="26"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
+      <c r="A160" s="27"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="27"/>
       <c r="H160" s="12"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
+      <c r="A161" s="27"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="27"/>
       <c r="H161" s="12"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="26"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
+      <c r="A162" s="27"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="27"/>
       <c r="H162" s="12"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="26"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
+      <c r="A163" s="27"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="27"/>
       <c r="H163" s="12"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="26"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
+      <c r="A164" s="27"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="27"/>
       <c r="H164" s="12"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="26"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
+      <c r="A165" s="27"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="27"/>
       <c r="H165" s="12"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="26"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
+      <c r="A166" s="27"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="27"/>
       <c r="H166" s="12"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="26"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
+      <c r="A167" s="27"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="27"/>
       <c r="H167" s="12"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="26"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
+      <c r="A168" s="27"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="27"/>
       <c r="H168" s="12"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="26"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
+      <c r="A169" s="27"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="27"/>
       <c r="H169" s="12"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="26"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="26"/>
+      <c r="A170" s="27"/>
+      <c r="B170" s="27"/>
+      <c r="C170" s="27"/>
       <c r="H170" s="12"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="26"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
+      <c r="A171" s="27"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="27"/>
       <c r="H171" s="12"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="26"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
+      <c r="A172" s="27"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="27"/>
       <c r="H172" s="12"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="26"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
+      <c r="A173" s="27"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="27"/>
       <c r="H173" s="12"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="26"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
+      <c r="A174" s="27"/>
+      <c r="B174" s="27"/>
+      <c r="C174" s="27"/>
       <c r="H174" s="12"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="26"/>
-      <c r="B175" s="26"/>
-      <c r="C175" s="26"/>
+      <c r="A175" s="27"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="27"/>
       <c r="H175" s="12"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="26"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
+      <c r="A176" s="27"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="27"/>
       <c r="H176" s="12"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="26"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="A177" s="27"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
       <c r="H177" s="12"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="26"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
+      <c r="A178" s="27"/>
+      <c r="B178" s="27"/>
+      <c r="C178" s="27"/>
       <c r="H178" s="12"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="26"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
+      <c r="A179" s="27"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="27"/>
       <c r="H179" s="12"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="26"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="26"/>
+      <c r="A180" s="27"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="27"/>
       <c r="H180" s="12"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="26"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="26"/>
+      <c r="A181" s="27"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="27"/>
       <c r="H181" s="12"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="26"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="26"/>
+      <c r="A182" s="27"/>
+      <c r="B182" s="27"/>
+      <c r="C182" s="27"/>
       <c r="H182" s="12"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="26"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
+      <c r="A183" s="27"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="27"/>
       <c r="H183" s="12"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="26"/>
-      <c r="B184" s="26"/>
-      <c r="C184" s="26"/>
+      <c r="A184" s="27"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="27"/>
       <c r="H184" s="12"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="26"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="26"/>
+      <c r="A185" s="27"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="27"/>
       <c r="H185" s="12"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="26"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
+      <c r="A186" s="27"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="27"/>
       <c r="H186" s="12"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="26"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="26"/>
+      <c r="A187" s="27"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="27"/>
       <c r="H187" s="12"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="26"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
+      <c r="A188" s="27"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="27"/>
       <c r="H188" s="12"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="26"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
+      <c r="A189" s="27"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="27"/>
       <c r="H189" s="12"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="26"/>
-      <c r="B190" s="26"/>
-      <c r="C190" s="26"/>
+      <c r="A190" s="27"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="27"/>
       <c r="H190" s="12"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="26"/>
-      <c r="B191" s="26"/>
-      <c r="C191" s="26"/>
+      <c r="A191" s="27"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="27"/>
       <c r="H191" s="12"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="26"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="26"/>
+      <c r="A192" s="27"/>
+      <c r="B192" s="27"/>
+      <c r="C192" s="27"/>
       <c r="H192" s="12"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="26"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="26"/>
+      <c r="A193" s="27"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="27"/>
       <c r="H193" s="12"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="26"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
+      <c r="A194" s="27"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="27"/>
       <c r="H194" s="12"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="26"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
+      <c r="A195" s="27"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="27"/>
       <c r="H195" s="12"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="26"/>
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
+      <c r="A196" s="27"/>
+      <c r="B196" s="27"/>
+      <c r="C196" s="27"/>
       <c r="H196" s="12"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="26"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="26"/>
+      <c r="A197" s="27"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="27"/>
       <c r="H197" s="12"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="26"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
+      <c r="A198" s="27"/>
+      <c r="B198" s="27"/>
+      <c r="C198" s="27"/>
       <c r="H198" s="12"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="26"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="26"/>
+      <c r="A199" s="27"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="27"/>
       <c r="H199" s="12"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="26"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
+      <c r="A200" s="27"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="27"/>
       <c r="H200" s="12"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="26"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
+      <c r="A201" s="27"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
       <c r="H201" s="12"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="26"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
+      <c r="A202" s="27"/>
+      <c r="B202" s="27"/>
+      <c r="C202" s="27"/>
       <c r="H202" s="12"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="26"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
+      <c r="A203" s="27"/>
+      <c r="B203" s="27"/>
+      <c r="C203" s="27"/>
       <c r="H203" s="12"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="26"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
+      <c r="A204" s="27"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
       <c r="H204" s="12"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="26"/>
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
+      <c r="A205" s="27"/>
+      <c r="B205" s="27"/>
+      <c r="C205" s="27"/>
       <c r="H205" s="12"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="26"/>
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
+      <c r="A206" s="27"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="27"/>
       <c r="H206" s="12"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="26"/>
-      <c r="B207" s="26"/>
-      <c r="C207" s="26"/>
+      <c r="A207" s="27"/>
+      <c r="B207" s="27"/>
+      <c r="C207" s="27"/>
       <c r="H207" s="12"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="26"/>
-      <c r="B208" s="26"/>
-      <c r="C208" s="26"/>
+      <c r="A208" s="27"/>
+      <c r="B208" s="27"/>
+      <c r="C208" s="27"/>
       <c r="H208" s="12"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="26"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="26"/>
+      <c r="A209" s="27"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="27"/>
       <c r="H209" s="12"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="26"/>
-      <c r="B210" s="26"/>
-      <c r="C210" s="26"/>
+      <c r="A210" s="27"/>
+      <c r="B210" s="27"/>
+      <c r="C210" s="27"/>
       <c r="H210" s="12"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="26"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="26"/>
+      <c r="A211" s="27"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="27"/>
       <c r="H211" s="12"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="26"/>
-      <c r="B212" s="26"/>
-      <c r="C212" s="26"/>
+      <c r="A212" s="27"/>
+      <c r="B212" s="27"/>
+      <c r="C212" s="27"/>
       <c r="H212" s="12"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="26"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="26"/>
+      <c r="A213" s="27"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="27"/>
       <c r="H213" s="12"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="26"/>
-      <c r="B214" s="26"/>
-      <c r="C214" s="26"/>
+      <c r="A214" s="27"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="27"/>
       <c r="H214" s="12"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="26"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
+      <c r="A215" s="27"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="27"/>
       <c r="H215" s="12"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="26"/>
-      <c r="B216" s="26"/>
-      <c r="C216" s="26"/>
+      <c r="A216" s="27"/>
+      <c r="B216" s="27"/>
+      <c r="C216" s="27"/>
       <c r="H216" s="12"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="26"/>
-      <c r="B217" s="26"/>
-      <c r="C217" s="26"/>
+      <c r="A217" s="27"/>
+      <c r="B217" s="27"/>
+      <c r="C217" s="27"/>
       <c r="H217" s="12"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="26"/>
-      <c r="B218" s="26"/>
-      <c r="C218" s="26"/>
+      <c r="A218" s="27"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="27"/>
       <c r="H218" s="12"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="26"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
+      <c r="A219" s="27"/>
+      <c r="B219" s="27"/>
+      <c r="C219" s="27"/>
       <c r="H219" s="12"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="26"/>
-      <c r="B220" s="26"/>
-      <c r="C220" s="26"/>
+      <c r="A220" s="27"/>
+      <c r="B220" s="27"/>
+      <c r="C220" s="27"/>
       <c r="H220" s="12"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="26"/>
-      <c r="B221" s="26"/>
-      <c r="C221" s="26"/>
+      <c r="A221" s="27"/>
+      <c r="B221" s="27"/>
+      <c r="C221" s="27"/>
       <c r="H221" s="12"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="26"/>
-      <c r="B222" s="26"/>
-      <c r="C222" s="26"/>
+      <c r="A222" s="27"/>
+      <c r="B222" s="27"/>
+      <c r="C222" s="27"/>
       <c r="H222" s="12"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="26"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
+      <c r="A223" s="27"/>
+      <c r="B223" s="27"/>
+      <c r="C223" s="27"/>
       <c r="H223" s="12"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="26"/>
-      <c r="B224" s="26"/>
-      <c r="C224" s="26"/>
+      <c r="A224" s="27"/>
+      <c r="B224" s="27"/>
+      <c r="C224" s="27"/>
       <c r="H224" s="12"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="26"/>
-      <c r="B225" s="26"/>
-      <c r="C225" s="26"/>
+      <c r="A225" s="27"/>
+      <c r="B225" s="27"/>
+      <c r="C225" s="27"/>
       <c r="H225" s="12"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="26"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
+      <c r="A226" s="27"/>
+      <c r="B226" s="27"/>
+      <c r="C226" s="27"/>
       <c r="H226" s="12"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="26"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
+      <c r="A227" s="27"/>
+      <c r="B227" s="27"/>
+      <c r="C227" s="27"/>
       <c r="H227" s="12"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="26"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
+      <c r="A228" s="27"/>
+      <c r="B228" s="27"/>
+      <c r="C228" s="27"/>
       <c r="H228" s="12"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="26"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="26"/>
+      <c r="A229" s="27"/>
+      <c r="B229" s="27"/>
+      <c r="C229" s="27"/>
       <c r="H229" s="12"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="26"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="26"/>
+      <c r="A230" s="27"/>
+      <c r="B230" s="27"/>
+      <c r="C230" s="27"/>
       <c r="H230" s="12"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="26"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="26"/>
+      <c r="A231" s="27"/>
+      <c r="B231" s="27"/>
+      <c r="C231" s="27"/>
       <c r="H231" s="12"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="26"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
+      <c r="A232" s="27"/>
+      <c r="B232" s="27"/>
+      <c r="C232" s="27"/>
       <c r="H232" s="12"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="26"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
+      <c r="A233" s="27"/>
+      <c r="B233" s="27"/>
+      <c r="C233" s="27"/>
       <c r="H233" s="12"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="26"/>
-      <c r="B234" s="26"/>
-      <c r="C234" s="26"/>
+      <c r="A234" s="27"/>
+      <c r="B234" s="27"/>
+      <c r="C234" s="27"/>
       <c r="H234" s="12"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="26"/>
-      <c r="B235" s="26"/>
-      <c r="C235" s="26"/>
+      <c r="A235" s="27"/>
+      <c r="B235" s="27"/>
+      <c r="C235" s="27"/>
       <c r="H235" s="12"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="26"/>
-      <c r="B236" s="26"/>
-      <c r="C236" s="26"/>
+      <c r="A236" s="27"/>
+      <c r="B236" s="27"/>
+      <c r="C236" s="27"/>
       <c r="H236" s="12"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="26"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="26"/>
+      <c r="A237" s="27"/>
+      <c r="B237" s="27"/>
+      <c r="C237" s="27"/>
       <c r="H237" s="12"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="26"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="A238" s="27"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
       <c r="H238" s="12"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="26"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="26"/>
+      <c r="A239" s="27"/>
+      <c r="B239" s="27"/>
+      <c r="C239" s="27"/>
       <c r="H239" s="12"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="26"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="26"/>
+      <c r="A240" s="27"/>
+      <c r="B240" s="27"/>
+      <c r="C240" s="27"/>
       <c r="H240" s="12"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="26"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="26"/>
+      <c r="A241" s="27"/>
+      <c r="B241" s="27"/>
+      <c r="C241" s="27"/>
       <c r="H241" s="12"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="26"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="26"/>
+      <c r="A242" s="27"/>
+      <c r="B242" s="27"/>
+      <c r="C242" s="27"/>
       <c r="H242" s="12"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="26"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="26"/>
+      <c r="A243" s="27"/>
+      <c r="B243" s="27"/>
+      <c r="C243" s="27"/>
       <c r="H243" s="12"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="26"/>
-      <c r="B244" s="26"/>
-      <c r="C244" s="26"/>
+      <c r="A244" s="27"/>
+      <c r="B244" s="27"/>
+      <c r="C244" s="27"/>
       <c r="H244" s="12"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="26"/>
-      <c r="B245" s="26"/>
-      <c r="C245" s="26"/>
+      <c r="A245" s="27"/>
+      <c r="B245" s="27"/>
+      <c r="C245" s="27"/>
       <c r="H245" s="12"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="26"/>
-      <c r="B246" s="26"/>
-      <c r="C246" s="26"/>
+      <c r="A246" s="27"/>
+      <c r="B246" s="27"/>
+      <c r="C246" s="27"/>
       <c r="H246" s="12"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="26"/>
-      <c r="B247" s="26"/>
-      <c r="C247" s="26"/>
+      <c r="A247" s="27"/>
+      <c r="B247" s="27"/>
+      <c r="C247" s="27"/>
       <c r="H247" s="12"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="26"/>
-      <c r="B248" s="26"/>
-      <c r="C248" s="26"/>
+      <c r="A248" s="27"/>
+      <c r="B248" s="27"/>
+      <c r="C248" s="27"/>
       <c r="H248" s="12"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="26"/>
-      <c r="B249" s="26"/>
-      <c r="C249" s="26"/>
+      <c r="A249" s="27"/>
+      <c r="B249" s="27"/>
+      <c r="C249" s="27"/>
       <c r="H249" s="12"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="26"/>
-      <c r="B250" s="26"/>
-      <c r="C250" s="26"/>
+      <c r="A250" s="27"/>
+      <c r="B250" s="27"/>
+      <c r="C250" s="27"/>
       <c r="H250" s="12"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="26"/>
-      <c r="B251" s="26"/>
-      <c r="C251" s="26"/>
+      <c r="A251" s="27"/>
+      <c r="B251" s="27"/>
+      <c r="C251" s="27"/>
       <c r="H251" s="12"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="26"/>
-      <c r="B252" s="26"/>
-      <c r="C252" s="26"/>
+      <c r="A252" s="27"/>
+      <c r="B252" s="27"/>
+      <c r="C252" s="27"/>
       <c r="H252" s="12"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="26"/>
-      <c r="B253" s="26"/>
-      <c r="C253" s="26"/>
+      <c r="A253" s="27"/>
+      <c r="B253" s="27"/>
+      <c r="C253" s="27"/>
       <c r="H253" s="12"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="26"/>
-      <c r="B254" s="26"/>
-      <c r="C254" s="26"/>
+      <c r="A254" s="27"/>
+      <c r="B254" s="27"/>
+      <c r="C254" s="27"/>
       <c r="H254" s="12"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
-      <c r="C255" s="26"/>
+      <c r="A255" s="27"/>
+      <c r="B255" s="27"/>
+      <c r="C255" s="27"/>
       <c r="H255" s="12"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="26"/>
-      <c r="B256" s="26"/>
-      <c r="C256" s="26"/>
+      <c r="A256" s="27"/>
+      <c r="B256" s="27"/>
+      <c r="C256" s="27"/>
       <c r="H256" s="12"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="26"/>
-      <c r="B257" s="26"/>
-      <c r="C257" s="26"/>
+      <c r="A257" s="27"/>
+      <c r="B257" s="27"/>
+      <c r="C257" s="27"/>
       <c r="H257" s="12"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="26"/>
-      <c r="B258" s="26"/>
-      <c r="C258" s="26"/>
+      <c r="A258" s="27"/>
+      <c r="B258" s="27"/>
+      <c r="C258" s="27"/>
       <c r="H258" s="12"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="26"/>
-      <c r="B259" s="26"/>
-      <c r="C259" s="26"/>
+      <c r="A259" s="27"/>
+      <c r="B259" s="27"/>
+      <c r="C259" s="27"/>
       <c r="H259" s="12"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="26"/>
-      <c r="B260" s="26"/>
-      <c r="C260" s="26"/>
+      <c r="A260" s="27"/>
+      <c r="B260" s="27"/>
+      <c r="C260" s="27"/>
       <c r="H260" s="12"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="26"/>
-      <c r="B261" s="26"/>
-      <c r="C261" s="26"/>
+      <c r="A261" s="27"/>
+      <c r="B261" s="27"/>
+      <c r="C261" s="27"/>
       <c r="H261" s="12"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="26"/>
-      <c r="B262" s="26"/>
-      <c r="C262" s="26"/>
+      <c r="A262" s="27"/>
+      <c r="B262" s="27"/>
+      <c r="C262" s="27"/>
       <c r="H262" s="12"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="26"/>
-      <c r="B263" s="26"/>
-      <c r="C263" s="26"/>
+      <c r="A263" s="27"/>
+      <c r="B263" s="27"/>
+      <c r="C263" s="27"/>
       <c r="H263" s="12"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="26"/>
-      <c r="B264" s="26"/>
-      <c r="C264" s="26"/>
+      <c r="A264" s="27"/>
+      <c r="B264" s="27"/>
+      <c r="C264" s="27"/>
       <c r="H264" s="12"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="26"/>
-      <c r="B265" s="26"/>
-      <c r="C265" s="26"/>
+      <c r="A265" s="27"/>
+      <c r="B265" s="27"/>
+      <c r="C265" s="27"/>
       <c r="H265" s="12"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="26"/>
-      <c r="B266" s="26"/>
-      <c r="C266" s="26"/>
+      <c r="A266" s="27"/>
+      <c r="B266" s="27"/>
+      <c r="C266" s="27"/>
       <c r="H266" s="12"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="26"/>
-      <c r="B267" s="26"/>
-      <c r="C267" s="26"/>
+      <c r="A267" s="27"/>
+      <c r="B267" s="27"/>
+      <c r="C267" s="27"/>
       <c r="H267" s="12"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="26"/>
-      <c r="B268" s="26"/>
-      <c r="C268" s="26"/>
+      <c r="A268" s="27"/>
+      <c r="B268" s="27"/>
+      <c r="C268" s="27"/>
       <c r="H268" s="12"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="26"/>
-      <c r="B269" s="26"/>
-      <c r="C269" s="26"/>
+      <c r="A269" s="27"/>
+      <c r="B269" s="27"/>
+      <c r="C269" s="27"/>
       <c r="H269" s="12"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="26"/>
-      <c r="B270" s="26"/>
-      <c r="C270" s="26"/>
+      <c r="A270" s="27"/>
+      <c r="B270" s="27"/>
+      <c r="C270" s="27"/>
       <c r="H270" s="12"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="26"/>
-      <c r="B271" s="26"/>
-      <c r="C271" s="26"/>
+      <c r="A271" s="27"/>
+      <c r="B271" s="27"/>
+      <c r="C271" s="27"/>
       <c r="H271" s="12"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="26"/>
-      <c r="B272" s="26"/>
-      <c r="C272" s="26"/>
+      <c r="A272" s="27"/>
+      <c r="B272" s="27"/>
+      <c r="C272" s="27"/>
       <c r="H272" s="12"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="26"/>
-      <c r="B273" s="26"/>
-      <c r="C273" s="26"/>
+      <c r="A273" s="27"/>
+      <c r="B273" s="27"/>
+      <c r="C273" s="27"/>
       <c r="H273" s="12"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="26"/>
-      <c r="B274" s="26"/>
-      <c r="C274" s="26"/>
+      <c r="A274" s="27"/>
+      <c r="B274" s="27"/>
+      <c r="C274" s="27"/>
       <c r="H274" s="12"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="26"/>
-      <c r="B275" s="26"/>
-      <c r="C275" s="26"/>
+      <c r="A275" s="27"/>
+      <c r="B275" s="27"/>
+      <c r="C275" s="27"/>
       <c r="H275" s="12"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="26"/>
-      <c r="B276" s="26"/>
-      <c r="C276" s="26"/>
+      <c r="A276" s="27"/>
+      <c r="B276" s="27"/>
+      <c r="C276" s="27"/>
       <c r="H276" s="12"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="26"/>
-      <c r="B277" s="26"/>
-      <c r="C277" s="26"/>
+      <c r="A277" s="27"/>
+      <c r="B277" s="27"/>
+      <c r="C277" s="27"/>
       <c r="H277" s="12"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="26"/>
-      <c r="B278" s="26"/>
-      <c r="C278" s="26"/>
+      <c r="A278" s="27"/>
+      <c r="B278" s="27"/>
+      <c r="C278" s="27"/>
       <c r="H278" s="12"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="26"/>
-      <c r="B279" s="26"/>
-      <c r="C279" s="26"/>
+      <c r="A279" s="27"/>
+      <c r="B279" s="27"/>
+      <c r="C279" s="27"/>
       <c r="H279" s="12"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="26"/>
-      <c r="B280" s="26"/>
-      <c r="C280" s="26"/>
+      <c r="A280" s="27"/>
+      <c r="B280" s="27"/>
+      <c r="C280" s="27"/>
       <c r="H280" s="12"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="26"/>
-      <c r="B281" s="26"/>
-      <c r="C281" s="26"/>
+      <c r="A281" s="27"/>
+      <c r="B281" s="27"/>
+      <c r="C281" s="27"/>
       <c r="H281" s="12"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="26"/>
-      <c r="B282" s="26"/>
-      <c r="C282" s="26"/>
+      <c r="A282" s="27"/>
+      <c r="B282" s="27"/>
+      <c r="C282" s="27"/>
       <c r="H282" s="12"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="26"/>
-      <c r="B283" s="26"/>
-      <c r="C283" s="26"/>
+      <c r="A283" s="27"/>
+      <c r="B283" s="27"/>
+      <c r="C283" s="27"/>
       <c r="H283" s="12"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="26"/>
-      <c r="B284" s="26"/>
-      <c r="C284" s="26"/>
+      <c r="A284" s="27"/>
+      <c r="B284" s="27"/>
+      <c r="C284" s="27"/>
       <c r="H284" s="12"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="26"/>
-      <c r="B285" s="26"/>
-      <c r="C285" s="26"/>
+      <c r="A285" s="27"/>
+      <c r="B285" s="27"/>
+      <c r="C285" s="27"/>
       <c r="H285" s="12"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="26"/>
-      <c r="B286" s="26"/>
-      <c r="C286" s="26"/>
+      <c r="A286" s="27"/>
+      <c r="B286" s="27"/>
+      <c r="C286" s="27"/>
       <c r="H286" s="12"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="26"/>
-      <c r="B287" s="26"/>
-      <c r="C287" s="26"/>
+      <c r="A287" s="27"/>
+      <c r="B287" s="27"/>
+      <c r="C287" s="27"/>
       <c r="H287" s="12"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="26"/>
-      <c r="B288" s="26"/>
-      <c r="C288" s="26"/>
+      <c r="A288" s="27"/>
+      <c r="B288" s="27"/>
+      <c r="C288" s="27"/>
       <c r="H288" s="12"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="26"/>
-      <c r="B289" s="26"/>
-      <c r="C289" s="26"/>
+      <c r="A289" s="27"/>
+      <c r="B289" s="27"/>
+      <c r="C289" s="27"/>
       <c r="H289" s="12"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="26"/>
-      <c r="B290" s="26"/>
-      <c r="C290" s="26"/>
+      <c r="A290" s="27"/>
+      <c r="B290" s="27"/>
+      <c r="C290" s="27"/>
       <c r="H290" s="12"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="26"/>
-      <c r="B291" s="26"/>
-      <c r="C291" s="26"/>
+      <c r="A291" s="27"/>
+      <c r="B291" s="27"/>
+      <c r="C291" s="27"/>
       <c r="H291" s="12"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="26"/>
-      <c r="B292" s="26"/>
-      <c r="C292" s="26"/>
+      <c r="A292" s="27"/>
+      <c r="B292" s="27"/>
+      <c r="C292" s="27"/>
       <c r="H292" s="12"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="26"/>
-      <c r="B293" s="26"/>
-      <c r="C293" s="26"/>
+      <c r="A293" s="27"/>
+      <c r="B293" s="27"/>
+      <c r="C293" s="27"/>
       <c r="H293" s="12"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="26"/>
-      <c r="B294" s="26"/>
-      <c r="C294" s="26"/>
+      <c r="A294" s="27"/>
+      <c r="B294" s="27"/>
+      <c r="C294" s="27"/>
       <c r="H294" s="12"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="26"/>
-      <c r="B295" s="26"/>
-      <c r="C295" s="26"/>
+      <c r="A295" s="27"/>
+      <c r="B295" s="27"/>
+      <c r="C295" s="27"/>
       <c r="H295" s="12"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="26"/>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="A296" s="27"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
       <c r="H296" s="12"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="26"/>
-      <c r="B297" s="26"/>
-      <c r="C297" s="26"/>
+      <c r="A297" s="27"/>
+      <c r="B297" s="27"/>
+      <c r="C297" s="27"/>
       <c r="H297" s="12"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="26"/>
-      <c r="B298" s="26"/>
-      <c r="C298" s="26"/>
+      <c r="A298" s="27"/>
+      <c r="B298" s="27"/>
+      <c r="C298" s="27"/>
       <c r="H298" s="12"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="26"/>
-      <c r="B299" s="26"/>
-      <c r="C299" s="26"/>
+      <c r="A299" s="27"/>
+      <c r="B299" s="27"/>
+      <c r="C299" s="27"/>
       <c r="H299" s="12"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="26"/>
-      <c r="B300" s="26"/>
-      <c r="C300" s="26"/>
+      <c r="A300" s="27"/>
+      <c r="B300" s="27"/>
+      <c r="C300" s="27"/>
       <c r="H300" s="12"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="26"/>
-      <c r="B301" s="26"/>
-      <c r="C301" s="26"/>
+      <c r="A301" s="27"/>
+      <c r="B301" s="27"/>
+      <c r="C301" s="27"/>
       <c r="H301" s="12"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="26"/>
-      <c r="B302" s="26"/>
-      <c r="C302" s="26"/>
+      <c r="A302" s="27"/>
+      <c r="B302" s="27"/>
+      <c r="C302" s="27"/>
       <c r="H302" s="12"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="26"/>
-      <c r="B303" s="26"/>
-      <c r="C303" s="26"/>
+      <c r="A303" s="27"/>
+      <c r="B303" s="27"/>
+      <c r="C303" s="27"/>
       <c r="H303" s="12"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="26"/>
-      <c r="B304" s="26"/>
-      <c r="C304" s="26"/>
+      <c r="A304" s="27"/>
+      <c r="B304" s="27"/>
+      <c r="C304" s="27"/>
       <c r="H304" s="12"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="26"/>
-      <c r="B305" s="26"/>
-      <c r="C305" s="26"/>
+      <c r="A305" s="27"/>
+      <c r="B305" s="27"/>
+      <c r="C305" s="27"/>
       <c r="H305" s="12"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="26"/>
-      <c r="B306" s="26"/>
-      <c r="C306" s="26"/>
+      <c r="A306" s="27"/>
+      <c r="B306" s="27"/>
+      <c r="C306" s="27"/>
       <c r="H306" s="12"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="26"/>
-      <c r="B307" s="26"/>
-      <c r="C307" s="26"/>
+      <c r="A307" s="27"/>
+      <c r="B307" s="27"/>
+      <c r="C307" s="27"/>
       <c r="H307" s="12"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="26"/>
-      <c r="B308" s="26"/>
-      <c r="C308" s="26"/>
+      <c r="A308" s="27"/>
+      <c r="B308" s="27"/>
+      <c r="C308" s="27"/>
       <c r="H308" s="12"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="26"/>
-      <c r="B309" s="26"/>
-      <c r="C309" s="26"/>
+      <c r="A309" s="27"/>
+      <c r="B309" s="27"/>
+      <c r="C309" s="27"/>
       <c r="H309" s="12"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="26"/>
-      <c r="B310" s="26"/>
-      <c r="C310" s="26"/>
+      <c r="A310" s="27"/>
+      <c r="B310" s="27"/>
+      <c r="C310" s="27"/>
       <c r="H310" s="12"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="26"/>
-      <c r="B311" s="26"/>
-      <c r="C311" s="26"/>
+      <c r="A311" s="27"/>
+      <c r="B311" s="27"/>
+      <c r="C311" s="27"/>
       <c r="H311" s="12"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="26"/>
-      <c r="B312" s="26"/>
-      <c r="C312" s="26"/>
+      <c r="A312" s="27"/>
+      <c r="B312" s="27"/>
+      <c r="C312" s="27"/>
       <c r="H312" s="12"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="26"/>
-      <c r="B313" s="26"/>
-      <c r="C313" s="26"/>
+      <c r="A313" s="27"/>
+      <c r="B313" s="27"/>
+      <c r="C313" s="27"/>
       <c r="H313" s="12"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="26"/>
-      <c r="B314" s="26"/>
-      <c r="C314" s="26"/>
+      <c r="A314" s="27"/>
+      <c r="B314" s="27"/>
+      <c r="C314" s="27"/>
       <c r="H314" s="12"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="26"/>
-      <c r="B315" s="26"/>
-      <c r="C315" s="26"/>
+      <c r="A315" s="27"/>
+      <c r="B315" s="27"/>
+      <c r="C315" s="27"/>
       <c r="H315" s="12"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="26"/>
-      <c r="B316" s="26"/>
-      <c r="C316" s="26"/>
+      <c r="A316" s="27"/>
+      <c r="B316" s="27"/>
+      <c r="C316" s="27"/>
       <c r="H316" s="12"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="26"/>
-      <c r="B317" s="26"/>
-      <c r="C317" s="26"/>
+      <c r="A317" s="27"/>
+      <c r="B317" s="27"/>
+      <c r="C317" s="27"/>
       <c r="H317" s="12"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="26"/>
-      <c r="B318" s="26"/>
-      <c r="C318" s="26"/>
+      <c r="A318" s="27"/>
+      <c r="B318" s="27"/>
+      <c r="C318" s="27"/>
       <c r="H318" s="12"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="26"/>
-      <c r="B319" s="26"/>
-      <c r="C319" s="26"/>
+      <c r="A319" s="27"/>
+      <c r="B319" s="27"/>
+      <c r="C319" s="27"/>
       <c r="H319" s="12"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="26"/>
-      <c r="B320" s="26"/>
-      <c r="C320" s="26"/>
+      <c r="A320" s="27"/>
+      <c r="B320" s="27"/>
+      <c r="C320" s="27"/>
       <c r="H320" s="12"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="26"/>
-      <c r="B321" s="26"/>
-      <c r="C321" s="26"/>
+      <c r="A321" s="27"/>
+      <c r="B321" s="27"/>
+      <c r="C321" s="27"/>
       <c r="H321" s="12"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="26"/>
-      <c r="B322" s="26"/>
-      <c r="C322" s="26"/>
+      <c r="A322" s="27"/>
+      <c r="B322" s="27"/>
+      <c r="C322" s="27"/>
       <c r="H322" s="12"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="26"/>
-      <c r="B323" s="26"/>
-      <c r="C323" s="26"/>
+      <c r="A323" s="27"/>
+      <c r="B323" s="27"/>
+      <c r="C323" s="27"/>
       <c r="H323" s="12"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="26"/>
-      <c r="B324" s="26"/>
-      <c r="C324" s="26"/>
+      <c r="A324" s="27"/>
+      <c r="B324" s="27"/>
+      <c r="C324" s="27"/>
       <c r="H324" s="12"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="26"/>
-      <c r="B325" s="26"/>
-      <c r="C325" s="26"/>
+      <c r="A325" s="27"/>
+      <c r="B325" s="27"/>
+      <c r="C325" s="27"/>
       <c r="H325" s="12"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="26"/>
-      <c r="B326" s="26"/>
-      <c r="C326" s="26"/>
+      <c r="A326" s="27"/>
+      <c r="B326" s="27"/>
+      <c r="C326" s="27"/>
       <c r="H326" s="12"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="26"/>
-      <c r="B327" s="26"/>
-      <c r="C327" s="26"/>
+      <c r="A327" s="27"/>
+      <c r="B327" s="27"/>
+      <c r="C327" s="27"/>
       <c r="H327" s="12"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="26"/>
-      <c r="B328" s="26"/>
-      <c r="C328" s="26"/>
+      <c r="A328" s="27"/>
+      <c r="B328" s="27"/>
+      <c r="C328" s="27"/>
       <c r="H328" s="12"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="26"/>
-      <c r="B329" s="26"/>
-      <c r="C329" s="26"/>
+      <c r="A329" s="27"/>
+      <c r="B329" s="27"/>
+      <c r="C329" s="27"/>
       <c r="H329" s="12"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="26"/>
-      <c r="B330" s="26"/>
-      <c r="C330" s="26"/>
+      <c r="A330" s="27"/>
+      <c r="B330" s="27"/>
+      <c r="C330" s="27"/>
       <c r="H330" s="12"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="26"/>
-      <c r="B331" s="26"/>
-      <c r="C331" s="26"/>
+      <c r="A331" s="27"/>
+      <c r="B331" s="27"/>
+      <c r="C331" s="27"/>
       <c r="H331" s="12"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="26"/>
-      <c r="B332" s="26"/>
-      <c r="C332" s="26"/>
+      <c r="A332" s="27"/>
+      <c r="B332" s="27"/>
+      <c r="C332" s="27"/>
       <c r="H332" s="12"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="26"/>
-      <c r="B333" s="26"/>
-      <c r="C333" s="26"/>
+      <c r="A333" s="27"/>
+      <c r="B333" s="27"/>
+      <c r="C333" s="27"/>
       <c r="H333" s="12"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="26"/>
-      <c r="B334" s="26"/>
-      <c r="C334" s="26"/>
+      <c r="A334" s="27"/>
+      <c r="B334" s="27"/>
+      <c r="C334" s="27"/>
       <c r="H334" s="12"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="26"/>
-      <c r="B335" s="26"/>
-      <c r="C335" s="26"/>
+      <c r="A335" s="27"/>
+      <c r="B335" s="27"/>
+      <c r="C335" s="27"/>
       <c r="H335" s="12"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="26"/>
-      <c r="B336" s="26"/>
-      <c r="C336" s="26"/>
+      <c r="A336" s="27"/>
+      <c r="B336" s="27"/>
+      <c r="C336" s="27"/>
       <c r="H336" s="12"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="26"/>
-      <c r="B337" s="26"/>
-      <c r="C337" s="26"/>
+      <c r="A337" s="27"/>
+      <c r="B337" s="27"/>
+      <c r="C337" s="27"/>
       <c r="H337" s="12"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="26"/>
-      <c r="B338" s="26"/>
-      <c r="C338" s="26"/>
+      <c r="A338" s="27"/>
+      <c r="B338" s="27"/>
+      <c r="C338" s="27"/>
       <c r="H338" s="12"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="26"/>
-      <c r="B339" s="26"/>
-      <c r="C339" s="26"/>
+      <c r="A339" s="27"/>
+      <c r="B339" s="27"/>
+      <c r="C339" s="27"/>
       <c r="H339" s="12"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="26"/>
-      <c r="B340" s="26"/>
-      <c r="C340" s="26"/>
+      <c r="A340" s="27"/>
+      <c r="B340" s="27"/>
+      <c r="C340" s="27"/>
       <c r="H340" s="12"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="26"/>
-      <c r="B341" s="26"/>
-      <c r="C341" s="26"/>
+      <c r="A341" s="27"/>
+      <c r="B341" s="27"/>
+      <c r="C341" s="27"/>
       <c r="H341" s="12"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="26"/>
-      <c r="B342" s="26"/>
-      <c r="C342" s="26"/>
+      <c r="A342" s="27"/>
+      <c r="B342" s="27"/>
+      <c r="C342" s="27"/>
       <c r="H342" s="12"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="26"/>
-      <c r="B343" s="26"/>
-      <c r="C343" s="26"/>
+      <c r="A343" s="27"/>
+      <c r="B343" s="27"/>
+      <c r="C343" s="27"/>
       <c r="H343" s="12"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="26"/>
-      <c r="B344" s="26"/>
-      <c r="C344" s="26"/>
+      <c r="A344" s="27"/>
+      <c r="B344" s="27"/>
+      <c r="C344" s="27"/>
       <c r="H344" s="12"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="26"/>
-      <c r="B345" s="26"/>
-      <c r="C345" s="26"/>
+      <c r="A345" s="27"/>
+      <c r="B345" s="27"/>
+      <c r="C345" s="27"/>
       <c r="H345" s="12"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="26"/>
-      <c r="B346" s="26"/>
-      <c r="C346" s="26"/>
+      <c r="A346" s="27"/>
+      <c r="B346" s="27"/>
+      <c r="C346" s="27"/>
       <c r="H346" s="12"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="26"/>
-      <c r="B347" s="26"/>
-      <c r="C347" s="26"/>
+      <c r="A347" s="27"/>
+      <c r="B347" s="27"/>
+      <c r="C347" s="27"/>
       <c r="H347" s="12"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="26"/>
-      <c r="B348" s="26"/>
-      <c r="C348" s="26"/>
+      <c r="A348" s="27"/>
+      <c r="B348" s="27"/>
+      <c r="C348" s="27"/>
       <c r="H348" s="12"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="26"/>
-      <c r="B349" s="26"/>
-      <c r="C349" s="26"/>
+      <c r="A349" s="27"/>
+      <c r="B349" s="27"/>
+      <c r="C349" s="27"/>
       <c r="H349" s="12"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="26"/>
-      <c r="B350" s="26"/>
-      <c r="C350" s="26"/>
+      <c r="A350" s="27"/>
+      <c r="B350" s="27"/>
+      <c r="C350" s="27"/>
       <c r="H350" s="12"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="26"/>
-      <c r="B351" s="26"/>
-      <c r="C351" s="26"/>
+      <c r="A351" s="27"/>
+      <c r="B351" s="27"/>
+      <c r="C351" s="27"/>
       <c r="H351" s="12"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="26"/>
-      <c r="B352" s="26"/>
-      <c r="C352" s="26"/>
+      <c r="A352" s="27"/>
+      <c r="B352" s="27"/>
+      <c r="C352" s="27"/>
       <c r="H352" s="12"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="26"/>
-      <c r="B353" s="26"/>
-      <c r="C353" s="26"/>
+      <c r="A353" s="27"/>
+      <c r="B353" s="27"/>
+      <c r="C353" s="27"/>
       <c r="H353" s="12"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="26"/>
-      <c r="B354" s="26"/>
-      <c r="C354" s="26"/>
+      <c r="A354" s="27"/>
+      <c r="B354" s="27"/>
+      <c r="C354" s="27"/>
       <c r="H354" s="12"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="26"/>
-      <c r="B355" s="26"/>
-      <c r="C355" s="26"/>
+      <c r="A355" s="27"/>
+      <c r="B355" s="27"/>
+      <c r="C355" s="27"/>
       <c r="H355" s="12"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="26"/>
-      <c r="B356" s="26"/>
-      <c r="C356" s="26"/>
+      <c r="A356" s="27"/>
+      <c r="B356" s="27"/>
+      <c r="C356" s="27"/>
       <c r="H356" s="12"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="26"/>
-      <c r="B357" s="26"/>
-      <c r="C357" s="26"/>
+      <c r="A357" s="27"/>
+      <c r="B357" s="27"/>
+      <c r="C357" s="27"/>
       <c r="H357" s="12"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="26"/>
-      <c r="B358" s="26"/>
-      <c r="C358" s="26"/>
+      <c r="A358" s="27"/>
+      <c r="B358" s="27"/>
+      <c r="C358" s="27"/>
       <c r="H358" s="12"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="26"/>
-      <c r="B359" s="26"/>
-      <c r="C359" s="26"/>
+      <c r="A359" s="27"/>
+      <c r="B359" s="27"/>
+      <c r="C359" s="27"/>
       <c r="H359" s="12"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="26"/>
-      <c r="B360" s="26"/>
-      <c r="C360" s="26"/>
+      <c r="A360" s="27"/>
+      <c r="B360" s="27"/>
+      <c r="C360" s="27"/>
       <c r="H360" s="12"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="26"/>
-      <c r="B361" s="26"/>
-      <c r="C361" s="26"/>
+      <c r="A361" s="27"/>
+      <c r="B361" s="27"/>
+      <c r="C361" s="27"/>
       <c r="H361" s="12"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="26"/>
-      <c r="B362" s="26"/>
-      <c r="C362" s="26"/>
+      <c r="A362" s="27"/>
+      <c r="B362" s="27"/>
+      <c r="C362" s="27"/>
       <c r="H362" s="12"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="26"/>
-      <c r="B363" s="26"/>
-      <c r="C363" s="26"/>
+      <c r="A363" s="27"/>
+      <c r="B363" s="27"/>
+      <c r="C363" s="27"/>
       <c r="H363" s="12"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="26"/>
-      <c r="B364" s="26"/>
-      <c r="C364" s="26"/>
+      <c r="A364" s="27"/>
+      <c r="B364" s="27"/>
+      <c r="C364" s="27"/>
       <c r="H364" s="12"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="26"/>
-      <c r="B365" s="26"/>
-      <c r="C365" s="26"/>
+      <c r="A365" s="27"/>
+      <c r="B365" s="27"/>
+      <c r="C365" s="27"/>
       <c r="H365" s="12"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="26"/>
-      <c r="B366" s="26"/>
-      <c r="C366" s="26"/>
+      <c r="A366" s="27"/>
+      <c r="B366" s="27"/>
+      <c r="C366" s="27"/>
       <c r="H366" s="12"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="26"/>
-      <c r="B367" s="26"/>
-      <c r="C367" s="26"/>
+      <c r="A367" s="27"/>
+      <c r="B367" s="27"/>
+      <c r="C367" s="27"/>
       <c r="H367" s="12"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="26"/>
-      <c r="B368" s="26"/>
-      <c r="C368" s="26"/>
+      <c r="A368" s="27"/>
+      <c r="B368" s="27"/>
+      <c r="C368" s="27"/>
       <c r="H368" s="12"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="26"/>
-      <c r="B369" s="26"/>
-      <c r="C369" s="26"/>
+      <c r="A369" s="27"/>
+      <c r="B369" s="27"/>
+      <c r="C369" s="27"/>
       <c r="H369" s="12"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="26"/>
-      <c r="B370" s="26"/>
-      <c r="C370" s="26"/>
+      <c r="A370" s="27"/>
+      <c r="B370" s="27"/>
+      <c r="C370" s="27"/>
       <c r="H370" s="12"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="26"/>
-      <c r="B371" s="26"/>
-      <c r="C371" s="26"/>
+      <c r="A371" s="27"/>
+      <c r="B371" s="27"/>
+      <c r="C371" s="27"/>
       <c r="H371" s="12"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="26"/>
-      <c r="B372" s="26"/>
-      <c r="C372" s="26"/>
+      <c r="A372" s="27"/>
+      <c r="B372" s="27"/>
+      <c r="C372" s="27"/>
       <c r="H372" s="12"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="26"/>
-      <c r="B373" s="26"/>
-      <c r="C373" s="26"/>
+      <c r="A373" s="27"/>
+      <c r="B373" s="27"/>
+      <c r="C373" s="27"/>
       <c r="H373" s="12"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="26"/>
-      <c r="B374" s="26"/>
-      <c r="C374" s="26"/>
+      <c r="A374" s="27"/>
+      <c r="B374" s="27"/>
+      <c r="C374" s="27"/>
       <c r="H374" s="12"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="26"/>
-      <c r="B375" s="26"/>
-      <c r="C375" s="26"/>
+      <c r="A375" s="27"/>
+      <c r="B375" s="27"/>
+      <c r="C375" s="27"/>
       <c r="H375" s="12"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="26"/>
-      <c r="B376" s="26"/>
-      <c r="C376" s="26"/>
+      <c r="A376" s="27"/>
+      <c r="B376" s="27"/>
+      <c r="C376" s="27"/>
       <c r="H376" s="12"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="26"/>
-      <c r="B377" s="26"/>
-      <c r="C377" s="26"/>
+      <c r="A377" s="27"/>
+      <c r="B377" s="27"/>
+      <c r="C377" s="27"/>
       <c r="H377" s="12"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="26"/>
-      <c r="B378" s="26"/>
-      <c r="C378" s="26"/>
+      <c r="A378" s="27"/>
+      <c r="B378" s="27"/>
+      <c r="C378" s="27"/>
       <c r="H378" s="12"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="26"/>
-      <c r="B379" s="26"/>
-      <c r="C379" s="26"/>
+      <c r="A379" s="27"/>
+      <c r="B379" s="27"/>
+      <c r="C379" s="27"/>
       <c r="H379" s="12"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="26"/>
-      <c r="B380" s="26"/>
-      <c r="C380" s="26"/>
+      <c r="A380" s="27"/>
+      <c r="B380" s="27"/>
+      <c r="C380" s="27"/>
       <c r="H380" s="12"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="26"/>
-      <c r="B381" s="26"/>
-      <c r="C381" s="26"/>
+      <c r="A381" s="27"/>
+      <c r="B381" s="27"/>
+      <c r="C381" s="27"/>
       <c r="H381" s="12"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="26"/>
-      <c r="B382" s="26"/>
-      <c r="C382" s="26"/>
+      <c r="A382" s="27"/>
+      <c r="B382" s="27"/>
+      <c r="C382" s="27"/>
       <c r="H382" s="12"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="26"/>
-      <c r="B383" s="26"/>
-      <c r="C383" s="26"/>
+      <c r="A383" s="27"/>
+      <c r="B383" s="27"/>
+      <c r="C383" s="27"/>
       <c r="H383" s="12"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="26"/>
-      <c r="B384" s="26"/>
-      <c r="C384" s="26"/>
+      <c r="A384" s="27"/>
+      <c r="B384" s="27"/>
+      <c r="C384" s="27"/>
       <c r="H384" s="12"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="26"/>
-      <c r="B385" s="26"/>
-      <c r="C385" s="26"/>
+      <c r="A385" s="27"/>
+      <c r="B385" s="27"/>
+      <c r="C385" s="27"/>
       <c r="H385" s="12"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="26"/>
-      <c r="B386" s="26"/>
-      <c r="C386" s="26"/>
+      <c r="A386" s="27"/>
+      <c r="B386" s="27"/>
+      <c r="C386" s="27"/>
       <c r="H386" s="12"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="26"/>
-      <c r="B387" s="26"/>
-      <c r="C387" s="26"/>
+      <c r="A387" s="27"/>
+      <c r="B387" s="27"/>
+      <c r="C387" s="27"/>
       <c r="H387" s="12"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="26"/>
-      <c r="B388" s="26"/>
-      <c r="C388" s="26"/>
+      <c r="A388" s="27"/>
+      <c r="B388" s="27"/>
+      <c r="C388" s="27"/>
       <c r="H388" s="12"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="26"/>
-      <c r="B389" s="26"/>
-      <c r="C389" s="26"/>
+      <c r="A389" s="27"/>
+      <c r="B389" s="27"/>
+      <c r="C389" s="27"/>
       <c r="H389" s="12"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="26"/>
-      <c r="B390" s="26"/>
-      <c r="C390" s="26"/>
+      <c r="A390" s="27"/>
+      <c r="B390" s="27"/>
+      <c r="C390" s="27"/>
       <c r="H390" s="12"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="26"/>
-      <c r="B391" s="26"/>
-      <c r="C391" s="26"/>
+      <c r="A391" s="27"/>
+      <c r="B391" s="27"/>
+      <c r="C391" s="27"/>
       <c r="H391" s="12"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="26"/>
-      <c r="B392" s="26"/>
-      <c r="C392" s="26"/>
+      <c r="A392" s="27"/>
+      <c r="B392" s="27"/>
+      <c r="C392" s="27"/>
       <c r="H392" s="12"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="26"/>
-      <c r="B393" s="26"/>
-      <c r="C393" s="26"/>
+      <c r="A393" s="27"/>
+      <c r="B393" s="27"/>
+      <c r="C393" s="27"/>
       <c r="H393" s="12"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="26"/>
-      <c r="B394" s="26"/>
-      <c r="C394" s="26"/>
+      <c r="A394" s="27"/>
+      <c r="B394" s="27"/>
+      <c r="C394" s="27"/>
       <c r="H394" s="12"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="26"/>
-      <c r="B395" s="26"/>
-      <c r="C395" s="26"/>
+      <c r="A395" s="27"/>
+      <c r="B395" s="27"/>
+      <c r="C395" s="27"/>
       <c r="H395" s="12"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="26"/>
-      <c r="B396" s="26"/>
-      <c r="C396" s="26"/>
+      <c r="A396" s="27"/>
+      <c r="B396" s="27"/>
+      <c r="C396" s="27"/>
       <c r="H396" s="12"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="26"/>
-      <c r="B397" s="26"/>
-      <c r="C397" s="26"/>
+      <c r="A397" s="27"/>
+      <c r="B397" s="27"/>
+      <c r="C397" s="27"/>
       <c r="H397" s="12"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="26"/>
-      <c r="B398" s="26"/>
-      <c r="C398" s="26"/>
+      <c r="A398" s="27"/>
+      <c r="B398" s="27"/>
+      <c r="C398" s="27"/>
       <c r="H398" s="12"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="26"/>
-      <c r="B399" s="26"/>
-      <c r="C399" s="26"/>
+      <c r="A399" s="27"/>
+      <c r="B399" s="27"/>
+      <c r="C399" s="27"/>
       <c r="H399" s="12"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="26"/>
-      <c r="B400" s="26"/>
-      <c r="C400" s="26"/>
+      <c r="A400" s="27"/>
+      <c r="B400" s="27"/>
+      <c r="C400" s="27"/>
       <c r="H400" s="12"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="26"/>
-      <c r="B401" s="26"/>
-      <c r="C401" s="26"/>
+      <c r="A401" s="27"/>
+      <c r="B401" s="27"/>
+      <c r="C401" s="27"/>
       <c r="H401" s="12"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="26"/>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="A402" s="27"/>
+      <c r="B402" s="27"/>
+      <c r="C402" s="27"/>
       <c r="H402" s="12"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="26"/>
-      <c r="B403" s="26"/>
-      <c r="C403" s="26"/>
+      <c r="A403" s="27"/>
+      <c r="B403" s="27"/>
+      <c r="C403" s="27"/>
       <c r="H403" s="12"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="26"/>
-      <c r="B404" s="26"/>
-      <c r="C404" s="26"/>
+      <c r="A404" s="27"/>
+      <c r="B404" s="27"/>
+      <c r="C404" s="27"/>
       <c r="H404" s="12"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="26"/>
-      <c r="B405" s="26"/>
-      <c r="C405" s="26"/>
+      <c r="A405" s="27"/>
+      <c r="B405" s="27"/>
+      <c r="C405" s="27"/>
       <c r="H405" s="12"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="26"/>
-      <c r="B406" s="26"/>
-      <c r="C406" s="26"/>
+      <c r="A406" s="27"/>
+      <c r="B406" s="27"/>
+      <c r="C406" s="27"/>
       <c r="H406" s="12"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="26"/>
-      <c r="B407" s="26"/>
-      <c r="C407" s="26"/>
+      <c r="A407" s="27"/>
+      <c r="B407" s="27"/>
+      <c r="C407" s="27"/>
       <c r="H407" s="12"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="26"/>
-      <c r="B408" s="26"/>
-      <c r="C408" s="26"/>
+      <c r="A408" s="27"/>
+      <c r="B408" s="27"/>
+      <c r="C408" s="27"/>
       <c r="H408" s="12"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="26"/>
-      <c r="B409" s="26"/>
-      <c r="C409" s="26"/>
+      <c r="A409" s="27"/>
+      <c r="B409" s="27"/>
+      <c r="C409" s="27"/>
       <c r="H409" s="12"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="26"/>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="A410" s="27"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
       <c r="H410" s="12"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="26"/>
-      <c r="B411" s="26"/>
-      <c r="C411" s="26"/>
+      <c r="A411" s="27"/>
+      <c r="B411" s="27"/>
+      <c r="C411" s="27"/>
       <c r="H411" s="12"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="26"/>
-      <c r="B412" s="26"/>
-      <c r="C412" s="26"/>
+      <c r="A412" s="27"/>
+      <c r="B412" s="27"/>
+      <c r="C412" s="27"/>
       <c r="H412" s="12"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="26"/>
-      <c r="B413" s="26"/>
-      <c r="C413" s="26"/>
+      <c r="A413" s="27"/>
+      <c r="B413" s="27"/>
+      <c r="C413" s="27"/>
       <c r="H413" s="12"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="26"/>
-      <c r="B414" s="26"/>
-      <c r="C414" s="26"/>
+      <c r="A414" s="27"/>
+      <c r="B414" s="27"/>
+      <c r="C414" s="27"/>
       <c r="H414" s="12"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="26"/>
-      <c r="B415" s="26"/>
-      <c r="C415" s="26"/>
+      <c r="A415" s="27"/>
+      <c r="B415" s="27"/>
+      <c r="C415" s="27"/>
       <c r="H415" s="12"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="26"/>
-      <c r="B416" s="26"/>
-      <c r="C416" s="26"/>
+      <c r="A416" s="27"/>
+      <c r="B416" s="27"/>
+      <c r="C416" s="27"/>
       <c r="H416" s="12"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="26"/>
-      <c r="B417" s="26"/>
-      <c r="C417" s="26"/>
+      <c r="A417" s="27"/>
+      <c r="B417" s="27"/>
+      <c r="C417" s="27"/>
       <c r="H417" s="12"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="26"/>
-      <c r="B418" s="26"/>
-      <c r="C418" s="26"/>
+      <c r="A418" s="27"/>
+      <c r="B418" s="27"/>
+      <c r="C418" s="27"/>
       <c r="H418" s="12"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="26"/>
-      <c r="B419" s="26"/>
-      <c r="C419" s="26"/>
+      <c r="A419" s="27"/>
+      <c r="B419" s="27"/>
+      <c r="C419" s="27"/>
       <c r="H419" s="12"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="26"/>
-      <c r="B420" s="26"/>
-      <c r="C420" s="26"/>
+      <c r="A420" s="27"/>
+      <c r="B420" s="27"/>
+      <c r="C420" s="27"/>
       <c r="H420" s="12"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="26"/>
-      <c r="B421" s="26"/>
-      <c r="C421" s="26"/>
+      <c r="A421" s="27"/>
+      <c r="B421" s="27"/>
+      <c r="C421" s="27"/>
       <c r="H421" s="12"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="26"/>
-      <c r="B422" s="26"/>
-      <c r="C422" s="26"/>
+      <c r="A422" s="27"/>
+      <c r="B422" s="27"/>
+      <c r="C422" s="27"/>
       <c r="H422" s="12"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="26"/>
-      <c r="B423" s="26"/>
-      <c r="C423" s="26"/>
+      <c r="A423" s="27"/>
+      <c r="B423" s="27"/>
+      <c r="C423" s="27"/>
       <c r="H423" s="12"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="26"/>
-      <c r="B424" s="26"/>
-      <c r="C424" s="26"/>
+      <c r="A424" s="27"/>
+      <c r="B424" s="27"/>
+      <c r="C424" s="27"/>
       <c r="H424" s="12"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="26"/>
-      <c r="B425" s="26"/>
-      <c r="C425" s="26"/>
+      <c r="A425" s="27"/>
+      <c r="B425" s="27"/>
+      <c r="C425" s="27"/>
       <c r="H425" s="12"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="26"/>
-      <c r="B426" s="26"/>
-      <c r="C426" s="26"/>
+      <c r="A426" s="27"/>
+      <c r="B426" s="27"/>
+      <c r="C426" s="27"/>
       <c r="H426" s="12"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="26"/>
-      <c r="B427" s="26"/>
-      <c r="C427" s="26"/>
+      <c r="A427" s="27"/>
+      <c r="B427" s="27"/>
+      <c r="C427" s="27"/>
       <c r="H427" s="12"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="26"/>
-      <c r="B428" s="26"/>
-      <c r="C428" s="26"/>
+      <c r="A428" s="27"/>
+      <c r="B428" s="27"/>
+      <c r="C428" s="27"/>
       <c r="H428" s="12"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="26"/>
-      <c r="B429" s="26"/>
-      <c r="C429" s="26"/>
+      <c r="A429" s="27"/>
+      <c r="B429" s="27"/>
+      <c r="C429" s="27"/>
       <c r="H429" s="12"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="26"/>
-      <c r="B430" s="26"/>
-      <c r="C430" s="26"/>
+      <c r="A430" s="27"/>
+      <c r="B430" s="27"/>
+      <c r="C430" s="27"/>
       <c r="H430" s="12"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="26"/>
-      <c r="B431" s="26"/>
-      <c r="C431" s="26"/>
+      <c r="A431" s="27"/>
+      <c r="B431" s="27"/>
+      <c r="C431" s="27"/>
       <c r="H431" s="12"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="26"/>
-      <c r="B432" s="26"/>
-      <c r="C432" s="26"/>
+      <c r="A432" s="27"/>
+      <c r="B432" s="27"/>
+      <c r="C432" s="27"/>
       <c r="H432" s="12"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="26"/>
-      <c r="B433" s="26"/>
-      <c r="C433" s="26"/>
+      <c r="A433" s="27"/>
+      <c r="B433" s="27"/>
+      <c r="C433" s="27"/>
       <c r="H433" s="12"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="26"/>
-      <c r="B434" s="26"/>
-      <c r="C434" s="26"/>
+      <c r="A434" s="27"/>
+      <c r="B434" s="27"/>
+      <c r="C434" s="27"/>
       <c r="H434" s="12"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="26"/>
-      <c r="B435" s="26"/>
-      <c r="C435" s="26"/>
+      <c r="A435" s="27"/>
+      <c r="B435" s="27"/>
+      <c r="C435" s="27"/>
       <c r="H435" s="12"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="26"/>
-      <c r="B436" s="26"/>
-      <c r="C436" s="26"/>
+      <c r="A436" s="27"/>
+      <c r="B436" s="27"/>
+      <c r="C436" s="27"/>
       <c r="H436" s="12"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="26"/>
-      <c r="B437" s="26"/>
-      <c r="C437" s="26"/>
+      <c r="A437" s="27"/>
+      <c r="B437" s="27"/>
+      <c r="C437" s="27"/>
       <c r="H437" s="12"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="26"/>
-      <c r="B438" s="26"/>
-      <c r="C438" s="26"/>
+      <c r="A438" s="27"/>
+      <c r="B438" s="27"/>
+      <c r="C438" s="27"/>
       <c r="H438" s="12"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="26"/>
-      <c r="B439" s="26"/>
-      <c r="C439" s="26"/>
+      <c r="A439" s="27"/>
+      <c r="B439" s="27"/>
+      <c r="C439" s="27"/>
       <c r="H439" s="12"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="26"/>
-      <c r="B440" s="26"/>
-      <c r="C440" s="26"/>
+      <c r="A440" s="27"/>
+      <c r="B440" s="27"/>
+      <c r="C440" s="27"/>
       <c r="H440" s="12"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="26"/>
-      <c r="B441" s="26"/>
-      <c r="C441" s="26"/>
+      <c r="A441" s="27"/>
+      <c r="B441" s="27"/>
+      <c r="C441" s="27"/>
       <c r="H441" s="12"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="26"/>
-      <c r="B442" s="26"/>
-      <c r="C442" s="26"/>
+      <c r="A442" s="27"/>
+      <c r="B442" s="27"/>
+      <c r="C442" s="27"/>
       <c r="H442" s="12"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="26"/>
-      <c r="B443" s="26"/>
-      <c r="C443" s="26"/>
+      <c r="A443" s="27"/>
+      <c r="B443" s="27"/>
+      <c r="C443" s="27"/>
       <c r="H443" s="12"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="26"/>
-      <c r="B444" s="26"/>
-      <c r="C444" s="26"/>
+      <c r="A444" s="27"/>
+      <c r="B444" s="27"/>
+      <c r="C444" s="27"/>
       <c r="H444" s="12"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="26"/>
-      <c r="B445" s="26"/>
-      <c r="C445" s="26"/>
+      <c r="A445" s="27"/>
+      <c r="B445" s="27"/>
+      <c r="C445" s="27"/>
       <c r="H445" s="12"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="26"/>
-      <c r="B446" s="26"/>
-      <c r="C446" s="26"/>
+      <c r="A446" s="27"/>
+      <c r="B446" s="27"/>
+      <c r="C446" s="27"/>
       <c r="H446" s="12"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="26"/>
-      <c r="B447" s="26"/>
-      <c r="C447" s="26"/>
+      <c r="A447" s="27"/>
+      <c r="B447" s="27"/>
+      <c r="C447" s="27"/>
       <c r="H447" s="12"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="26"/>
-      <c r="B448" s="26"/>
-      <c r="C448" s="26"/>
+      <c r="A448" s="27"/>
+      <c r="B448" s="27"/>
+      <c r="C448" s="27"/>
       <c r="H448" s="12"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="26"/>
-      <c r="B449" s="26"/>
-      <c r="C449" s="26"/>
+      <c r="A449" s="27"/>
+      <c r="B449" s="27"/>
+      <c r="C449" s="27"/>
       <c r="H449" s="12"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="26"/>
-      <c r="B450" s="26"/>
-      <c r="C450" s="26"/>
+      <c r="A450" s="27"/>
+      <c r="B450" s="27"/>
+      <c r="C450" s="27"/>
       <c r="H450" s="12"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="26"/>
-      <c r="B451" s="26"/>
-      <c r="C451" s="26"/>
+      <c r="A451" s="27"/>
+      <c r="B451" s="27"/>
+      <c r="C451" s="27"/>
       <c r="H451" s="12"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="26"/>
-      <c r="B452" s="26"/>
-      <c r="C452" s="26"/>
+      <c r="A452" s="27"/>
+      <c r="B452" s="27"/>
+      <c r="C452" s="27"/>
       <c r="H452" s="12"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="26"/>
-      <c r="B453" s="26"/>
-      <c r="C453" s="26"/>
+      <c r="A453" s="27"/>
+      <c r="B453" s="27"/>
+      <c r="C453" s="27"/>
       <c r="H453" s="12"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="26"/>
-      <c r="B454" s="26"/>
-      <c r="C454" s="26"/>
+      <c r="A454" s="27"/>
+      <c r="B454" s="27"/>
+      <c r="C454" s="27"/>
       <c r="H454" s="12"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="26"/>
-      <c r="B455" s="26"/>
-      <c r="C455" s="26"/>
+      <c r="A455" s="27"/>
+      <c r="B455" s="27"/>
+      <c r="C455" s="27"/>
       <c r="H455" s="12"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="26"/>
-      <c r="B456" s="26"/>
-      <c r="C456" s="26"/>
+      <c r="A456" s="27"/>
+      <c r="B456" s="27"/>
+      <c r="C456" s="27"/>
       <c r="H456" s="12"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="26"/>
-      <c r="B457" s="26"/>
-      <c r="C457" s="26"/>
+      <c r="A457" s="27"/>
+      <c r="B457" s="27"/>
+      <c r="C457" s="27"/>
       <c r="H457" s="12"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="26"/>
-      <c r="B458" s="26"/>
-      <c r="C458" s="26"/>
+      <c r="A458" s="27"/>
+      <c r="B458" s="27"/>
+      <c r="C458" s="27"/>
       <c r="H458" s="12"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="26"/>
-      <c r="B459" s="26"/>
-      <c r="C459" s="26"/>
+      <c r="A459" s="27"/>
+      <c r="B459" s="27"/>
+      <c r="C459" s="27"/>
       <c r="H459" s="12"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="26"/>
-      <c r="B460" s="26"/>
-      <c r="C460" s="26"/>
+      <c r="A460" s="27"/>
+      <c r="B460" s="27"/>
+      <c r="C460" s="27"/>
       <c r="H460" s="12"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="26"/>
-      <c r="B461" s="26"/>
-      <c r="C461" s="26"/>
+      <c r="A461" s="27"/>
+      <c r="B461" s="27"/>
+      <c r="C461" s="27"/>
       <c r="H461" s="12"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="26"/>
-      <c r="B462" s="26"/>
-      <c r="C462" s="26"/>
+      <c r="A462" s="27"/>
+      <c r="B462" s="27"/>
+      <c r="C462" s="27"/>
       <c r="H462" s="12"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="26"/>
-      <c r="B463" s="26"/>
-      <c r="C463" s="26"/>
+      <c r="A463" s="27"/>
+      <c r="B463" s="27"/>
+      <c r="C463" s="27"/>
       <c r="H463" s="12"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="26"/>
-      <c r="B464" s="26"/>
-      <c r="C464" s="26"/>
+      <c r="A464" s="27"/>
+      <c r="B464" s="27"/>
+      <c r="C464" s="27"/>
       <c r="H464" s="12"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="26"/>
-      <c r="B465" s="26"/>
-      <c r="C465" s="26"/>
+      <c r="A465" s="27"/>
+      <c r="B465" s="27"/>
+      <c r="C465" s="27"/>
       <c r="H465" s="12"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="26"/>
-      <c r="B466" s="26"/>
-      <c r="C466" s="26"/>
+      <c r="A466" s="27"/>
+      <c r="B466" s="27"/>
+      <c r="C466" s="27"/>
       <c r="H466" s="12"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="26"/>
-      <c r="B467" s="26"/>
-      <c r="C467" s="26"/>
+      <c r="A467" s="27"/>
+      <c r="B467" s="27"/>
+      <c r="C467" s="27"/>
       <c r="H467" s="12"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="26"/>
-      <c r="B468" s="26"/>
-      <c r="C468" s="26"/>
+      <c r="A468" s="27"/>
+      <c r="B468" s="27"/>
+      <c r="C468" s="27"/>
       <c r="H468" s="12"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="26"/>
-      <c r="B469" s="26"/>
-      <c r="C469" s="26"/>
+      <c r="A469" s="27"/>
+      <c r="B469" s="27"/>
+      <c r="C469" s="27"/>
       <c r="H469" s="12"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="26"/>
-      <c r="B470" s="26"/>
-      <c r="C470" s="26"/>
+      <c r="A470" s="27"/>
+      <c r="B470" s="27"/>
+      <c r="C470" s="27"/>
       <c r="H470" s="12"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="26"/>
-      <c r="B471" s="26"/>
-      <c r="C471" s="26"/>
+      <c r="A471" s="27"/>
+      <c r="B471" s="27"/>
+      <c r="C471" s="27"/>
       <c r="H471" s="12"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="26"/>
-      <c r="B472" s="26"/>
-      <c r="C472" s="26"/>
+      <c r="A472" s="27"/>
+      <c r="B472" s="27"/>
+      <c r="C472" s="27"/>
       <c r="H472" s="12"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="26"/>
-      <c r="B473" s="26"/>
-      <c r="C473" s="26"/>
+      <c r="A473" s="27"/>
+      <c r="B473" s="27"/>
+      <c r="C473" s="27"/>
       <c r="H473" s="12"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="26"/>
-      <c r="B474" s="26"/>
-      <c r="C474" s="26"/>
+      <c r="A474" s="27"/>
+      <c r="B474" s="27"/>
+      <c r="C474" s="27"/>
       <c r="H474" s="12"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="26"/>
-      <c r="B475" s="26"/>
-      <c r="C475" s="26"/>
+      <c r="A475" s="27"/>
+      <c r="B475" s="27"/>
+      <c r="C475" s="27"/>
       <c r="H475" s="12"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="26"/>
-      <c r="B476" s="26"/>
-      <c r="C476" s="26"/>
+      <c r="A476" s="27"/>
+      <c r="B476" s="27"/>
+      <c r="C476" s="27"/>
       <c r="H476" s="12"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="26"/>
-      <c r="B477" s="26"/>
-      <c r="C477" s="26"/>
+      <c r="A477" s="27"/>
+      <c r="B477" s="27"/>
+      <c r="C477" s="27"/>
       <c r="H477" s="12"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="26"/>
-      <c r="B478" s="26"/>
-      <c r="C478" s="26"/>
+      <c r="A478" s="27"/>
+      <c r="B478" s="27"/>
+      <c r="C478" s="27"/>
       <c r="H478" s="12"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="26"/>
-      <c r="B479" s="26"/>
-      <c r="C479" s="26"/>
+      <c r="A479" s="27"/>
+      <c r="B479" s="27"/>
+      <c r="C479" s="27"/>
       <c r="H479" s="12"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="26"/>
-      <c r="B480" s="26"/>
-      <c r="C480" s="26"/>
+      <c r="A480" s="27"/>
+      <c r="B480" s="27"/>
+      <c r="C480" s="27"/>
       <c r="H480" s="12"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="26"/>
-      <c r="B481" s="26"/>
-      <c r="C481" s="26"/>
+      <c r="A481" s="27"/>
+      <c r="B481" s="27"/>
+      <c r="C481" s="27"/>
       <c r="H481" s="12"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="26"/>
-      <c r="B482" s="26"/>
-      <c r="C482" s="26"/>
+      <c r="A482" s="27"/>
+      <c r="B482" s="27"/>
+      <c r="C482" s="27"/>
       <c r="H482" s="12"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="26"/>
-      <c r="B483" s="26"/>
-      <c r="C483" s="26"/>
+      <c r="A483" s="27"/>
+      <c r="B483" s="27"/>
+      <c r="C483" s="27"/>
       <c r="H483" s="12"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="26"/>
-      <c r="B484" s="26"/>
-      <c r="C484" s="26"/>
+      <c r="A484" s="27"/>
+      <c r="B484" s="27"/>
+      <c r="C484" s="27"/>
       <c r="H484" s="12"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="26"/>
-      <c r="B485" s="26"/>
-      <c r="C485" s="26"/>
+      <c r="A485" s="27"/>
+      <c r="B485" s="27"/>
+      <c r="C485" s="27"/>
       <c r="H485" s="12"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="26"/>
-      <c r="B486" s="26"/>
-      <c r="C486" s="26"/>
+      <c r="A486" s="27"/>
+      <c r="B486" s="27"/>
+      <c r="C486" s="27"/>
       <c r="H486" s="12"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="26"/>
-      <c r="B487" s="26"/>
-      <c r="C487" s="26"/>
+      <c r="A487" s="27"/>
+      <c r="B487" s="27"/>
+      <c r="C487" s="27"/>
       <c r="H487" s="12"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="26"/>
-      <c r="B488" s="26"/>
-      <c r="C488" s="26"/>
+      <c r="A488" s="27"/>
+      <c r="B488" s="27"/>
+      <c r="C488" s="27"/>
       <c r="H488" s="12"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="26"/>
-      <c r="B489" s="26"/>
-      <c r="C489" s="26"/>
+      <c r="A489" s="27"/>
+      <c r="B489" s="27"/>
+      <c r="C489" s="27"/>
       <c r="H489" s="12"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="26"/>
-      <c r="B490" s="26"/>
-      <c r="C490" s="26"/>
+      <c r="A490" s="27"/>
+      <c r="B490" s="27"/>
+      <c r="C490" s="27"/>
       <c r="H490" s="12"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="26"/>
-      <c r="B491" s="26"/>
-      <c r="C491" s="26"/>
+      <c r="A491" s="27"/>
+      <c r="B491" s="27"/>
+      <c r="C491" s="27"/>
       <c r="H491" s="12"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="26"/>
-      <c r="B492" s="26"/>
-      <c r="C492" s="26"/>
+      <c r="A492" s="27"/>
+      <c r="B492" s="27"/>
+      <c r="C492" s="27"/>
       <c r="H492" s="12"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="26"/>
-      <c r="B493" s="26"/>
-      <c r="C493" s="26"/>
+      <c r="A493" s="27"/>
+      <c r="B493" s="27"/>
+      <c r="C493" s="27"/>
       <c r="H493" s="12"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="26"/>
-      <c r="B494" s="26"/>
-      <c r="C494" s="26"/>
+      <c r="A494" s="27"/>
+      <c r="B494" s="27"/>
+      <c r="C494" s="27"/>
       <c r="H494" s="12"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="26"/>
-      <c r="B495" s="26"/>
-      <c r="C495" s="26"/>
+      <c r="A495" s="27"/>
+      <c r="B495" s="27"/>
+      <c r="C495" s="27"/>
       <c r="H495" s="12"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="26"/>
-      <c r="B496" s="26"/>
-      <c r="C496" s="26"/>
+      <c r="A496" s="27"/>
+      <c r="B496" s="27"/>
+      <c r="C496" s="27"/>
       <c r="H496" s="12"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="26"/>
-      <c r="B497" s="26"/>
-      <c r="C497" s="26"/>
+      <c r="A497" s="27"/>
+      <c r="B497" s="27"/>
+      <c r="C497" s="27"/>
       <c r="H497" s="12"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="26"/>
-      <c r="B498" s="26"/>
-      <c r="C498" s="26"/>
+      <c r="A498" s="27"/>
+      <c r="B498" s="27"/>
+      <c r="C498" s="27"/>
       <c r="H498" s="12"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="26"/>
-      <c r="B499" s="26"/>
-      <c r="C499" s="26"/>
+      <c r="A499" s="27"/>
+      <c r="B499" s="27"/>
+      <c r="C499" s="27"/>
       <c r="H499" s="12"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="26"/>
-      <c r="B500" s="26"/>
-      <c r="C500" s="26"/>
+      <c r="A500" s="27"/>
+      <c r="B500" s="27"/>
+      <c r="C500" s="27"/>
       <c r="H500" s="12"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="26"/>
-      <c r="B501" s="26"/>
-      <c r="C501" s="26"/>
+      <c r="A501" s="27"/>
+      <c r="B501" s="27"/>
+      <c r="C501" s="27"/>
       <c r="H501" s="12"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="26"/>
-      <c r="B502" s="26"/>
-      <c r="C502" s="26"/>
+      <c r="A502" s="27"/>
+      <c r="B502" s="27"/>
+      <c r="C502" s="27"/>
       <c r="H502" s="12"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="26"/>
-      <c r="B503" s="26"/>
-      <c r="C503" s="26"/>
+      <c r="A503" s="27"/>
+      <c r="B503" s="27"/>
+      <c r="C503" s="27"/>
       <c r="H503" s="12"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="26"/>
-      <c r="B504" s="26"/>
-      <c r="C504" s="26"/>
+      <c r="A504" s="27"/>
+      <c r="B504" s="27"/>
+      <c r="C504" s="27"/>
       <c r="H504" s="12"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="26"/>
-      <c r="B505" s="26"/>
-      <c r="C505" s="26"/>
+      <c r="A505" s="27"/>
+      <c r="B505" s="27"/>
+      <c r="C505" s="27"/>
       <c r="H505" s="12"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="26"/>
-      <c r="B506" s="26"/>
-      <c r="C506" s="26"/>
+      <c r="A506" s="27"/>
+      <c r="B506" s="27"/>
+      <c r="C506" s="27"/>
       <c r="H506" s="12"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="26"/>
-      <c r="B507" s="26"/>
-      <c r="C507" s="26"/>
+      <c r="A507" s="27"/>
+      <c r="B507" s="27"/>
+      <c r="C507" s="27"/>
       <c r="H507" s="12"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="26"/>
-      <c r="B508" s="26"/>
-      <c r="C508" s="26"/>
+      <c r="A508" s="27"/>
+      <c r="B508" s="27"/>
+      <c r="C508" s="27"/>
       <c r="H508" s="12"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="26"/>
-      <c r="B509" s="26"/>
-      <c r="C509" s="26"/>
+      <c r="A509" s="27"/>
+      <c r="B509" s="27"/>
+      <c r="C509" s="27"/>
       <c r="H509" s="12"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="26"/>
-      <c r="B510" s="26"/>
-      <c r="C510" s="26"/>
+      <c r="A510" s="27"/>
+      <c r="B510" s="27"/>
+      <c r="C510" s="27"/>
       <c r="H510" s="12"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="26"/>
-      <c r="B511" s="26"/>
-      <c r="C511" s="26"/>
+      <c r="A511" s="27"/>
+      <c r="B511" s="27"/>
+      <c r="C511" s="27"/>
       <c r="H511" s="12"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="26"/>
-      <c r="B512" s="26"/>
-      <c r="C512" s="26"/>
+      <c r="A512" s="27"/>
+      <c r="B512" s="27"/>
+      <c r="C512" s="27"/>
       <c r="H512" s="12"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="26"/>
-      <c r="B513" s="26"/>
-      <c r="C513" s="26"/>
+      <c r="A513" s="27"/>
+      <c r="B513" s="27"/>
+      <c r="C513" s="27"/>
       <c r="H513" s="12"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="26"/>
-      <c r="B514" s="26"/>
-      <c r="C514" s="26"/>
+      <c r="A514" s="27"/>
+      <c r="B514" s="27"/>
+      <c r="C514" s="27"/>
       <c r="H514" s="12"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="26"/>
-      <c r="B515" s="26"/>
-      <c r="C515" s="26"/>
+      <c r="A515" s="27"/>
+      <c r="B515" s="27"/>
+      <c r="C515" s="27"/>
       <c r="H515" s="12"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="26"/>
-      <c r="B516" s="26"/>
-      <c r="C516" s="26"/>
+      <c r="A516" s="27"/>
+      <c r="B516" s="27"/>
+      <c r="C516" s="27"/>
       <c r="H516" s="12"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="26"/>
-      <c r="B517" s="26"/>
-      <c r="C517" s="26"/>
+      <c r="A517" s="27"/>
+      <c r="B517" s="27"/>
+      <c r="C517" s="27"/>
       <c r="H517" s="12"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="26"/>
-      <c r="B518" s="26"/>
-      <c r="C518" s="26"/>
+      <c r="A518" s="27"/>
+      <c r="B518" s="27"/>
+      <c r="C518" s="27"/>
       <c r="H518" s="12"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="26"/>
-      <c r="B519" s="26"/>
-      <c r="C519" s="26"/>
+      <c r="A519" s="27"/>
+      <c r="B519" s="27"/>
+      <c r="C519" s="27"/>
       <c r="H519" s="12"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="26"/>
-      <c r="B520" s="26"/>
-      <c r="C520" s="26"/>
+      <c r="A520" s="27"/>
+      <c r="B520" s="27"/>
+      <c r="C520" s="27"/>
       <c r="H520" s="12"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="26"/>
-      <c r="B521" s="26"/>
-      <c r="C521" s="26"/>
+      <c r="A521" s="27"/>
+      <c r="B521" s="27"/>
+      <c r="C521" s="27"/>
       <c r="H521" s="12"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="26"/>
-      <c r="B522" s="26"/>
-      <c r="C522" s="26"/>
+      <c r="A522" s="27"/>
+      <c r="B522" s="27"/>
+      <c r="C522" s="27"/>
       <c r="H522" s="12"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="26"/>
-      <c r="B523" s="26"/>
-      <c r="C523" s="26"/>
+      <c r="A523" s="27"/>
+      <c r="B523" s="27"/>
+      <c r="C523" s="27"/>
       <c r="H523" s="12"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="26"/>
-      <c r="B524" s="26"/>
-      <c r="C524" s="26"/>
+      <c r="A524" s="27"/>
+      <c r="B524" s="27"/>
+      <c r="C524" s="27"/>
       <c r="H524" s="12"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="26"/>
-      <c r="B525" s="26"/>
-      <c r="C525" s="26"/>
+      <c r="A525" s="27"/>
+      <c r="B525" s="27"/>
+      <c r="C525" s="27"/>
       <c r="H525" s="12"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="26"/>
-      <c r="B526" s="26"/>
-      <c r="C526" s="26"/>
+      <c r="A526" s="27"/>
+      <c r="B526" s="27"/>
+      <c r="C526" s="27"/>
       <c r="H526" s="12"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="26"/>
-      <c r="B527" s="26"/>
-      <c r="C527" s="26"/>
+      <c r="A527" s="27"/>
+      <c r="B527" s="27"/>
+      <c r="C527" s="27"/>
       <c r="H527" s="12"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="26"/>
-      <c r="B528" s="26"/>
-      <c r="C528" s="26"/>
+      <c r="A528" s="27"/>
+      <c r="B528" s="27"/>
+      <c r="C528" s="27"/>
       <c r="H528" s="12"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="26"/>
-      <c r="B529" s="26"/>
-      <c r="C529" s="26"/>
+      <c r="A529" s="27"/>
+      <c r="B529" s="27"/>
+      <c r="C529" s="27"/>
       <c r="H529" s="12"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="26"/>
-      <c r="B530" s="26"/>
-      <c r="C530" s="26"/>
+      <c r="A530" s="27"/>
+      <c r="B530" s="27"/>
+      <c r="C530" s="27"/>
       <c r="H530" s="12"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="26"/>
-      <c r="B531" s="26"/>
-      <c r="C531" s="26"/>
+      <c r="A531" s="27"/>
+      <c r="B531" s="27"/>
+      <c r="C531" s="27"/>
       <c r="H531" s="12"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="26"/>
-      <c r="B532" s="26"/>
-      <c r="C532" s="26"/>
+      <c r="A532" s="27"/>
+      <c r="B532" s="27"/>
+      <c r="C532" s="27"/>
       <c r="H532" s="12"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="26"/>
-      <c r="B533" s="26"/>
-      <c r="C533" s="26"/>
+      <c r="A533" s="27"/>
+      <c r="B533" s="27"/>
+      <c r="C533" s="27"/>
       <c r="H533" s="12"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="26"/>
-      <c r="B534" s="26"/>
-      <c r="C534" s="26"/>
+      <c r="A534" s="27"/>
+      <c r="B534" s="27"/>
+      <c r="C534" s="27"/>
       <c r="H534" s="12"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="26"/>
-      <c r="B535" s="26"/>
-      <c r="C535" s="26"/>
+      <c r="A535" s="27"/>
+      <c r="B535" s="27"/>
+      <c r="C535" s="27"/>
       <c r="H535" s="12"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="26"/>
-      <c r="B536" s="26"/>
-      <c r="C536" s="26"/>
+      <c r="A536" s="27"/>
+      <c r="B536" s="27"/>
+      <c r="C536" s="27"/>
       <c r="H536" s="12"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="26"/>
-      <c r="B537" s="26"/>
-      <c r="C537" s="26"/>
+      <c r="A537" s="27"/>
+      <c r="B537" s="27"/>
+      <c r="C537" s="27"/>
       <c r="H537" s="12"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="26"/>
-      <c r="B538" s="26"/>
-      <c r="C538" s="26"/>
+      <c r="A538" s="27"/>
+      <c r="B538" s="27"/>
+      <c r="C538" s="27"/>
       <c r="H538" s="12"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="26"/>
-      <c r="B539" s="26"/>
-      <c r="C539" s="26"/>
+      <c r="A539" s="27"/>
+      <c r="B539" s="27"/>
+      <c r="C539" s="27"/>
       <c r="H539" s="12"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="26"/>
-      <c r="B540" s="26"/>
-      <c r="C540" s="26"/>
+      <c r="A540" s="27"/>
+      <c r="B540" s="27"/>
+      <c r="C540" s="27"/>
       <c r="H540" s="12"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="26"/>
-      <c r="B541" s="26"/>
-      <c r="C541" s="26"/>
+      <c r="A541" s="27"/>
+      <c r="B541" s="27"/>
+      <c r="C541" s="27"/>
       <c r="H541" s="12"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="26"/>
-      <c r="B542" s="26"/>
-      <c r="C542" s="26"/>
+      <c r="A542" s="27"/>
+      <c r="B542" s="27"/>
+      <c r="C542" s="27"/>
       <c r="H542" s="12"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="26"/>
-      <c r="B543" s="26"/>
-      <c r="C543" s="26"/>
+      <c r="A543" s="27"/>
+      <c r="B543" s="27"/>
+      <c r="C543" s="27"/>
       <c r="H543" s="12"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="26"/>
-      <c r="B544" s="26"/>
-      <c r="C544" s="26"/>
+      <c r="A544" s="27"/>
+      <c r="B544" s="27"/>
+      <c r="C544" s="27"/>
       <c r="H544" s="12"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="26"/>
-      <c r="B545" s="26"/>
-      <c r="C545" s="26"/>
+      <c r="A545" s="27"/>
+      <c r="B545" s="27"/>
+      <c r="C545" s="27"/>
       <c r="H545" s="12"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="26"/>
-      <c r="B546" s="26"/>
-      <c r="C546" s="26"/>
+      <c r="A546" s="27"/>
+      <c r="B546" s="27"/>
+      <c r="C546" s="27"/>
       <c r="H546" s="12"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="26"/>
-      <c r="B547" s="26"/>
-      <c r="C547" s="26"/>
+      <c r="A547" s="27"/>
+      <c r="B547" s="27"/>
+      <c r="C547" s="27"/>
       <c r="H547" s="12"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="26"/>
-      <c r="B548" s="26"/>
-      <c r="C548" s="26"/>
+      <c r="A548" s="27"/>
+      <c r="B548" s="27"/>
+      <c r="C548" s="27"/>
       <c r="H548" s="12"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="26"/>
-      <c r="B549" s="26"/>
-      <c r="C549" s="26"/>
+      <c r="A549" s="27"/>
+      <c r="B549" s="27"/>
+      <c r="C549" s="27"/>
       <c r="H549" s="12"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="26"/>
-      <c r="B550" s="26"/>
-      <c r="C550" s="26"/>
+      <c r="A550" s="27"/>
+      <c r="B550" s="27"/>
+      <c r="C550" s="27"/>
       <c r="H550" s="12"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="26"/>
-      <c r="B551" s="26"/>
-      <c r="C551" s="26"/>
+      <c r="A551" s="27"/>
+      <c r="B551" s="27"/>
+      <c r="C551" s="27"/>
       <c r="H551" s="12"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="26"/>
-      <c r="B552" s="26"/>
-      <c r="C552" s="26"/>
+      <c r="A552" s="27"/>
+      <c r="B552" s="27"/>
+      <c r="C552" s="27"/>
       <c r="H552" s="12"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="26"/>
-      <c r="B553" s="26"/>
-      <c r="C553" s="26"/>
+      <c r="A553" s="27"/>
+      <c r="B553" s="27"/>
+      <c r="C553" s="27"/>
       <c r="H553" s="12"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="26"/>
-      <c r="B554" s="26"/>
-      <c r="C554" s="26"/>
+      <c r="A554" s="27"/>
+      <c r="B554" s="27"/>
+      <c r="C554" s="27"/>
       <c r="H554" s="12"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="26"/>
-      <c r="B555" s="26"/>
-      <c r="C555" s="26"/>
+      <c r="A555" s="27"/>
+      <c r="B555" s="27"/>
+      <c r="C555" s="27"/>
       <c r="H555" s="12"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="26"/>
-      <c r="B556" s="26"/>
-      <c r="C556" s="26"/>
+      <c r="A556" s="27"/>
+      <c r="B556" s="27"/>
+      <c r="C556" s="27"/>
       <c r="H556" s="12"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="26"/>
-      <c r="B557" s="26"/>
-      <c r="C557" s="26"/>
+      <c r="A557" s="27"/>
+      <c r="B557" s="27"/>
+      <c r="C557" s="27"/>
       <c r="H557" s="12"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="26"/>
-      <c r="B558" s="26"/>
-      <c r="C558" s="26"/>
+      <c r="A558" s="27"/>
+      <c r="B558" s="27"/>
+      <c r="C558" s="27"/>
       <c r="H558" s="12"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="26"/>
-      <c r="B559" s="26"/>
-      <c r="C559" s="26"/>
+      <c r="A559" s="27"/>
+      <c r="B559" s="27"/>
+      <c r="C559" s="27"/>
       <c r="H559" s="12"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="26"/>
-      <c r="B560" s="26"/>
-      <c r="C560" s="26"/>
+      <c r="A560" s="27"/>
+      <c r="B560" s="27"/>
+      <c r="C560" s="27"/>
       <c r="H560" s="12"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="26"/>
-      <c r="B561" s="26"/>
-      <c r="C561" s="26"/>
+      <c r="A561" s="27"/>
+      <c r="B561" s="27"/>
+      <c r="C561" s="27"/>
       <c r="H561" s="12"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="26"/>
-      <c r="B562" s="26"/>
-      <c r="C562" s="26"/>
+      <c r="A562" s="27"/>
+      <c r="B562" s="27"/>
+      <c r="C562" s="27"/>
       <c r="H562" s="12"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="26"/>
-      <c r="B563" s="26"/>
-      <c r="C563" s="26"/>
+      <c r="A563" s="27"/>
+      <c r="B563" s="27"/>
+      <c r="C563" s="27"/>
       <c r="H563" s="12"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="26"/>
-      <c r="B564" s="26"/>
-      <c r="C564" s="26"/>
+      <c r="A564" s="27"/>
+      <c r="B564" s="27"/>
+      <c r="C564" s="27"/>
       <c r="H564" s="12"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="26"/>
-      <c r="B565" s="26"/>
-      <c r="C565" s="26"/>
+      <c r="A565" s="27"/>
+      <c r="B565" s="27"/>
+      <c r="C565" s="27"/>
       <c r="H565" s="12"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="26"/>
-      <c r="B566" s="26"/>
-      <c r="C566" s="26"/>
+      <c r="A566" s="27"/>
+      <c r="B566" s="27"/>
+      <c r="C566" s="27"/>
       <c r="H566" s="12"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="26"/>
-      <c r="B567" s="26"/>
-      <c r="C567" s="26"/>
+      <c r="A567" s="27"/>
+      <c r="B567" s="27"/>
+      <c r="C567" s="27"/>
       <c r="H567" s="12"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="26"/>
-      <c r="B568" s="26"/>
-      <c r="C568" s="26"/>
+      <c r="A568" s="27"/>
+      <c r="B568" s="27"/>
+      <c r="C568" s="27"/>
       <c r="H568" s="12"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="26"/>
-      <c r="B569" s="26"/>
-      <c r="C569" s="26"/>
+      <c r="A569" s="27"/>
+      <c r="B569" s="27"/>
+      <c r="C569" s="27"/>
       <c r="H569" s="12"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="26"/>
-      <c r="B570" s="26"/>
-      <c r="C570" s="26"/>
+      <c r="A570" s="27"/>
+      <c r="B570" s="27"/>
+      <c r="C570" s="27"/>
       <c r="H570" s="12"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="26"/>
-      <c r="B571" s="26"/>
-      <c r="C571" s="26"/>
+      <c r="A571" s="27"/>
+      <c r="B571" s="27"/>
+      <c r="C571" s="27"/>
       <c r="H571" s="12"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="26"/>
-      <c r="B572" s="26"/>
-      <c r="C572" s="26"/>
+      <c r="A572" s="27"/>
+      <c r="B572" s="27"/>
+      <c r="C572" s="27"/>
       <c r="H572" s="12"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="26"/>
-      <c r="B573" s="26"/>
-      <c r="C573" s="26"/>
+      <c r="A573" s="27"/>
+      <c r="B573" s="27"/>
+      <c r="C573" s="27"/>
       <c r="H573" s="12"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="26"/>
-      <c r="B574" s="26"/>
-      <c r="C574" s="26"/>
+      <c r="A574" s="27"/>
+      <c r="B574" s="27"/>
+      <c r="C574" s="27"/>
       <c r="H574" s="12"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="26"/>
-      <c r="B575" s="26"/>
-      <c r="C575" s="26"/>
+      <c r="A575" s="27"/>
+      <c r="B575" s="27"/>
+      <c r="C575" s="27"/>
       <c r="H575" s="12"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="26"/>
-      <c r="B576" s="26"/>
-      <c r="C576" s="26"/>
+      <c r="A576" s="27"/>
+      <c r="B576" s="27"/>
+      <c r="C576" s="27"/>
       <c r="H576" s="12"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="26"/>
-      <c r="B577" s="26"/>
-      <c r="C577" s="26"/>
+      <c r="A577" s="27"/>
+      <c r="B577" s="27"/>
+      <c r="C577" s="27"/>
       <c r="H577" s="12"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="26"/>
-      <c r="B578" s="26"/>
-      <c r="C578" s="26"/>
+      <c r="A578" s="27"/>
+      <c r="B578" s="27"/>
+      <c r="C578" s="27"/>
       <c r="H578" s="12"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="26"/>
-      <c r="B579" s="26"/>
-      <c r="C579" s="26"/>
+      <c r="A579" s="27"/>
+      <c r="B579" s="27"/>
+      <c r="C579" s="27"/>
       <c r="H579" s="12"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="26"/>
-      <c r="B580" s="26"/>
-      <c r="C580" s="26"/>
+      <c r="A580" s="27"/>
+      <c r="B580" s="27"/>
+      <c r="C580" s="27"/>
       <c r="H580" s="12"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="26"/>
-      <c r="B581" s="26"/>
-      <c r="C581" s="26"/>
+      <c r="A581" s="27"/>
+      <c r="B581" s="27"/>
+      <c r="C581" s="27"/>
       <c r="H581" s="12"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="26"/>
-      <c r="B582" s="26"/>
-      <c r="C582" s="26"/>
+      <c r="A582" s="27"/>
+      <c r="B582" s="27"/>
+      <c r="C582" s="27"/>
       <c r="H582" s="12"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="26"/>
-      <c r="B583" s="26"/>
-      <c r="C583" s="26"/>
+      <c r="A583" s="27"/>
+      <c r="B583" s="27"/>
+      <c r="C583" s="27"/>
       <c r="H583" s="12"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="26"/>
-      <c r="B584" s="26"/>
-      <c r="C584" s="26"/>
+      <c r="A584" s="27"/>
+      <c r="B584" s="27"/>
+      <c r="C584" s="27"/>
       <c r="H584" s="12"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="26"/>
-      <c r="B585" s="26"/>
-      <c r="C585" s="26"/>
+      <c r="A585" s="27"/>
+      <c r="B585" s="27"/>
+      <c r="C585" s="27"/>
       <c r="H585" s="12"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="26"/>
-      <c r="B586" s="26"/>
-      <c r="C586" s="26"/>
+      <c r="A586" s="27"/>
+      <c r="B586" s="27"/>
+      <c r="C586" s="27"/>
       <c r="H586" s="12"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="26"/>
-      <c r="B587" s="26"/>
-      <c r="C587" s="26"/>
+      <c r="A587" s="27"/>
+      <c r="B587" s="27"/>
+      <c r="C587" s="27"/>
       <c r="H587" s="12"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="26"/>
-      <c r="B588" s="26"/>
-      <c r="C588" s="26"/>
+      <c r="A588" s="27"/>
+      <c r="B588" s="27"/>
+      <c r="C588" s="27"/>
       <c r="H588" s="12"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="26"/>
-      <c r="B589" s="26"/>
-      <c r="C589" s="26"/>
+      <c r="A589" s="27"/>
+      <c r="B589" s="27"/>
+      <c r="C589" s="27"/>
       <c r="H589" s="12"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="26"/>
-      <c r="B590" s="26"/>
-      <c r="C590" s="26"/>
+      <c r="A590" s="27"/>
+      <c r="B590" s="27"/>
+      <c r="C590" s="27"/>
       <c r="H590" s="12"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="26"/>
-      <c r="B591" s="26"/>
-      <c r="C591" s="26"/>
+      <c r="A591" s="27"/>
+      <c r="B591" s="27"/>
+      <c r="C591" s="27"/>
       <c r="H591" s="12"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="26"/>
-      <c r="B592" s="26"/>
-      <c r="C592" s="26"/>
+      <c r="A592" s="27"/>
+      <c r="B592" s="27"/>
+      <c r="C592" s="27"/>
       <c r="H592" s="12"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="26"/>
-      <c r="B593" s="26"/>
-      <c r="C593" s="26"/>
+      <c r="A593" s="27"/>
+      <c r="B593" s="27"/>
+      <c r="C593" s="27"/>
       <c r="H593" s="12"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="26"/>
-      <c r="B594" s="26"/>
-      <c r="C594" s="26"/>
+      <c r="A594" s="27"/>
+      <c r="B594" s="27"/>
+      <c r="C594" s="27"/>
       <c r="H594" s="12"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="26"/>
-      <c r="B595" s="26"/>
-      <c r="C595" s="26"/>
+      <c r="A595" s="27"/>
+      <c r="B595" s="27"/>
+      <c r="C595" s="27"/>
       <c r="H595" s="12"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="26"/>
-      <c r="B596" s="26"/>
-      <c r="C596" s="26"/>
+      <c r="A596" s="27"/>
+      <c r="B596" s="27"/>
+      <c r="C596" s="27"/>
       <c r="H596" s="12"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="26"/>
-      <c r="B597" s="26"/>
-      <c r="C597" s="26"/>
+      <c r="A597" s="27"/>
+      <c r="B597" s="27"/>
+      <c r="C597" s="27"/>
       <c r="H597" s="12"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="26"/>
-      <c r="B598" s="26"/>
-      <c r="C598" s="26"/>
+      <c r="A598" s="27"/>
+      <c r="B598" s="27"/>
+      <c r="C598" s="27"/>
       <c r="H598" s="12"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="26"/>
-      <c r="B599" s="26"/>
-      <c r="C599" s="26"/>
+      <c r="A599" s="27"/>
+      <c r="B599" s="27"/>
+      <c r="C599" s="27"/>
       <c r="H599" s="12"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="26"/>
-      <c r="B600" s="26"/>
-      <c r="C600" s="26"/>
+      <c r="A600" s="27"/>
+      <c r="B600" s="27"/>
+      <c r="C600" s="27"/>
       <c r="H600" s="12"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="26"/>
-      <c r="B601" s="26"/>
-      <c r="C601" s="26"/>
+      <c r="A601" s="27"/>
+      <c r="B601" s="27"/>
+      <c r="C601" s="27"/>
       <c r="H601" s="12"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="26"/>
-      <c r="B602" s="26"/>
-      <c r="C602" s="26"/>
+      <c r="A602" s="27"/>
+      <c r="B602" s="27"/>
+      <c r="C602" s="27"/>
       <c r="H602" s="12"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="26"/>
-      <c r="B603" s="26"/>
-      <c r="C603" s="26"/>
+      <c r="A603" s="27"/>
+      <c r="B603" s="27"/>
+      <c r="C603" s="27"/>
       <c r="H603" s="12"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="26"/>
-      <c r="B604" s="26"/>
-      <c r="C604" s="26"/>
+      <c r="A604" s="27"/>
+      <c r="B604" s="27"/>
+      <c r="C604" s="27"/>
       <c r="H604" s="12"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="26"/>
-      <c r="B605" s="26"/>
-      <c r="C605" s="26"/>
+      <c r="A605" s="27"/>
+      <c r="B605" s="27"/>
+      <c r="C605" s="27"/>
       <c r="H605" s="12"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="26"/>
-      <c r="B606" s="26"/>
-      <c r="C606" s="26"/>
+      <c r="A606" s="27"/>
+      <c r="B606" s="27"/>
+      <c r="C606" s="27"/>
       <c r="H606" s="12"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="26"/>
-      <c r="B607" s="26"/>
-      <c r="C607" s="26"/>
+      <c r="A607" s="27"/>
+      <c r="B607" s="27"/>
+      <c r="C607" s="27"/>
       <c r="H607" s="12"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="26"/>
-      <c r="B608" s="26"/>
-      <c r="C608" s="26"/>
+      <c r="A608" s="27"/>
+      <c r="B608" s="27"/>
+      <c r="C608" s="27"/>
       <c r="H608" s="12"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="26"/>
-      <c r="B609" s="26"/>
-      <c r="C609" s="26"/>
+      <c r="A609" s="27"/>
+      <c r="B609" s="27"/>
+      <c r="C609" s="27"/>
       <c r="H609" s="12"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="26"/>
-      <c r="B610" s="26"/>
-      <c r="C610" s="26"/>
+      <c r="A610" s="27"/>
+      <c r="B610" s="27"/>
+      <c r="C610" s="27"/>
       <c r="H610" s="12"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="26"/>
-      <c r="B611" s="26"/>
-      <c r="C611" s="26"/>
+      <c r="A611" s="27"/>
+      <c r="B611" s="27"/>
+      <c r="C611" s="27"/>
       <c r="H611" s="12"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="26"/>
-      <c r="B612" s="26"/>
-      <c r="C612" s="26"/>
+      <c r="A612" s="27"/>
+      <c r="B612" s="27"/>
+      <c r="C612" s="27"/>
       <c r="H612" s="12"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="26"/>
-      <c r="B613" s="26"/>
-      <c r="C613" s="26"/>
+      <c r="A613" s="27"/>
+      <c r="B613" s="27"/>
+      <c r="C613" s="27"/>
       <c r="H613" s="12"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="26"/>
-      <c r="B614" s="26"/>
-      <c r="C614" s="26"/>
+      <c r="A614" s="27"/>
+      <c r="B614" s="27"/>
+      <c r="C614" s="27"/>
       <c r="H614" s="12"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="26"/>
-      <c r="B615" s="26"/>
-      <c r="C615" s="26"/>
+      <c r="A615" s="27"/>
+      <c r="B615" s="27"/>
+      <c r="C615" s="27"/>
       <c r="H615" s="12"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="26"/>
-      <c r="B616" s="26"/>
-      <c r="C616" s="26"/>
+      <c r="A616" s="27"/>
+      <c r="B616" s="27"/>
+      <c r="C616" s="27"/>
       <c r="H616" s="12"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="26"/>
-      <c r="B617" s="26"/>
-      <c r="C617" s="26"/>
+      <c r="A617" s="27"/>
+      <c r="B617" s="27"/>
+      <c r="C617" s="27"/>
       <c r="H617" s="12"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="26"/>
-      <c r="B618" s="26"/>
-      <c r="C618" s="26"/>
+      <c r="A618" s="27"/>
+      <c r="B618" s="27"/>
+      <c r="C618" s="27"/>
       <c r="H618" s="12"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="26"/>
-      <c r="B619" s="26"/>
-      <c r="C619" s="26"/>
+      <c r="A619" s="27"/>
+      <c r="B619" s="27"/>
+      <c r="C619" s="27"/>
       <c r="H619" s="12"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="26"/>
-      <c r="B620" s="26"/>
-      <c r="C620" s="26"/>
+      <c r="A620" s="27"/>
+      <c r="B620" s="27"/>
+      <c r="C620" s="27"/>
       <c r="H620" s="12"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="26"/>
-      <c r="B621" s="26"/>
-      <c r="C621" s="26"/>
+      <c r="A621" s="27"/>
+      <c r="B621" s="27"/>
+      <c r="C621" s="27"/>
       <c r="H621" s="12"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="26"/>
-      <c r="B622" s="26"/>
-      <c r="C622" s="26"/>
+      <c r="A622" s="27"/>
+      <c r="B622" s="27"/>
+      <c r="C622" s="27"/>
       <c r="H622" s="12"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="26"/>
-      <c r="B623" s="26"/>
-      <c r="C623" s="26"/>
+      <c r="A623" s="27"/>
+      <c r="B623" s="27"/>
+      <c r="C623" s="27"/>
       <c r="H623" s="12"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="26"/>
-      <c r="B624" s="26"/>
-      <c r="C624" s="26"/>
+      <c r="A624" s="27"/>
+      <c r="B624" s="27"/>
+      <c r="C624" s="27"/>
       <c r="H624" s="12"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="26"/>
-      <c r="B625" s="26"/>
-      <c r="C625" s="26"/>
+      <c r="A625" s="27"/>
+      <c r="B625" s="27"/>
+      <c r="C625" s="27"/>
       <c r="H625" s="12"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="26"/>
-      <c r="B626" s="26"/>
-      <c r="C626" s="26"/>
+      <c r="A626" s="27"/>
+      <c r="B626" s="27"/>
+      <c r="C626" s="27"/>
       <c r="H626" s="12"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="26"/>
-      <c r="B627" s="26"/>
-      <c r="C627" s="26"/>
+      <c r="A627" s="27"/>
+      <c r="B627" s="27"/>
+      <c r="C627" s="27"/>
       <c r="H627" s="12"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="26"/>
-      <c r="B628" s="26"/>
-      <c r="C628" s="26"/>
+      <c r="A628" s="27"/>
+      <c r="B628" s="27"/>
+      <c r="C628" s="27"/>
       <c r="H628" s="12"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="26"/>
-      <c r="B629" s="26"/>
-      <c r="C629" s="26"/>
+      <c r="A629" s="27"/>
+      <c r="B629" s="27"/>
+      <c r="C629" s="27"/>
       <c r="H629" s="12"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="26"/>
-      <c r="B630" s="26"/>
-      <c r="C630" s="26"/>
+      <c r="A630" s="27"/>
+      <c r="B630" s="27"/>
+      <c r="C630" s="27"/>
       <c r="H630" s="12"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="26"/>
-      <c r="B631" s="26"/>
-      <c r="C631" s="26"/>
+      <c r="A631" s="27"/>
+      <c r="B631" s="27"/>
+      <c r="C631" s="27"/>
       <c r="H631" s="12"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="26"/>
-      <c r="B632" s="26"/>
-      <c r="C632" s="26"/>
+      <c r="A632" s="27"/>
+      <c r="B632" s="27"/>
+      <c r="C632" s="27"/>
       <c r="H632" s="12"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="26"/>
-      <c r="B633" s="26"/>
-      <c r="C633" s="26"/>
+      <c r="A633" s="27"/>
+      <c r="B633" s="27"/>
+      <c r="C633" s="27"/>
       <c r="H633" s="12"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="26"/>
-      <c r="B634" s="26"/>
-      <c r="C634" s="26"/>
+      <c r="A634" s="27"/>
+      <c r="B634" s="27"/>
+      <c r="C634" s="27"/>
       <c r="H634" s="12"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="26"/>
-      <c r="B635" s="26"/>
-      <c r="C635" s="26"/>
+      <c r="A635" s="27"/>
+      <c r="B635" s="27"/>
+      <c r="C635" s="27"/>
       <c r="H635" s="12"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="26"/>
-      <c r="B636" s="26"/>
-      <c r="C636" s="26"/>
+      <c r="A636" s="27"/>
+      <c r="B636" s="27"/>
+      <c r="C636" s="27"/>
       <c r="H636" s="12"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="26"/>
-      <c r="B637" s="26"/>
-      <c r="C637" s="26"/>
+      <c r="A637" s="27"/>
+      <c r="B637" s="27"/>
+      <c r="C637" s="27"/>
       <c r="H637" s="12"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="26"/>
-      <c r="B638" s="26"/>
-      <c r="C638" s="26"/>
+      <c r="A638" s="27"/>
+      <c r="B638" s="27"/>
+      <c r="C638" s="27"/>
       <c r="H638" s="12"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="26"/>
-      <c r="B639" s="26"/>
-      <c r="C639" s="26"/>
+      <c r="A639" s="27"/>
+      <c r="B639" s="27"/>
+      <c r="C639" s="27"/>
       <c r="H639" s="12"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="26"/>
-      <c r="B640" s="26"/>
-      <c r="C640" s="26"/>
+      <c r="A640" s="27"/>
+      <c r="B640" s="27"/>
+      <c r="C640" s="27"/>
       <c r="H640" s="12"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="26"/>
-      <c r="B641" s="26"/>
-      <c r="C641" s="26"/>
+      <c r="A641" s="27"/>
+      <c r="B641" s="27"/>
+      <c r="C641" s="27"/>
       <c r="H641" s="12"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="26"/>
-      <c r="B642" s="26"/>
-      <c r="C642" s="26"/>
+      <c r="A642" s="27"/>
+      <c r="B642" s="27"/>
+      <c r="C642" s="27"/>
       <c r="H642" s="12"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="26"/>
-      <c r="B643" s="26"/>
-      <c r="C643" s="26"/>
+      <c r="A643" s="27"/>
+      <c r="B643" s="27"/>
+      <c r="C643" s="27"/>
       <c r="H643" s="12"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="26"/>
-      <c r="B644" s="26"/>
-      <c r="C644" s="26"/>
+      <c r="A644" s="27"/>
+      <c r="B644" s="27"/>
+      <c r="C644" s="27"/>
       <c r="H644" s="12"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="26"/>
-      <c r="B645" s="26"/>
-      <c r="C645" s="26"/>
+      <c r="A645" s="27"/>
+      <c r="B645" s="27"/>
+      <c r="C645" s="27"/>
       <c r="H645" s="12"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="26"/>
-      <c r="B646" s="26"/>
-      <c r="C646" s="26"/>
+      <c r="A646" s="27"/>
+      <c r="B646" s="27"/>
+      <c r="C646" s="27"/>
       <c r="H646" s="12"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="26"/>
-      <c r="B647" s="26"/>
-      <c r="C647" s="26"/>
+      <c r="A647" s="27"/>
+      <c r="B647" s="27"/>
+      <c r="C647" s="27"/>
       <c r="H647" s="12"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="26"/>
-      <c r="B648" s="26"/>
-      <c r="C648" s="26"/>
+      <c r="A648" s="27"/>
+      <c r="B648" s="27"/>
+      <c r="C648" s="27"/>
       <c r="H648" s="12"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="26"/>
-      <c r="B649" s="26"/>
-      <c r="C649" s="26"/>
+      <c r="A649" s="27"/>
+      <c r="B649" s="27"/>
+      <c r="C649" s="27"/>
       <c r="H649" s="12"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="26"/>
-      <c r="B650" s="26"/>
-      <c r="C650" s="26"/>
+      <c r="A650" s="27"/>
+      <c r="B650" s="27"/>
+      <c r="C650" s="27"/>
       <c r="H650" s="12"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="26"/>
-      <c r="B651" s="26"/>
-      <c r="C651" s="26"/>
+      <c r="A651" s="27"/>
+      <c r="B651" s="27"/>
+      <c r="C651" s="27"/>
       <c r="H651" s="12"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="26"/>
-      <c r="B652" s="26"/>
-      <c r="C652" s="26"/>
+      <c r="A652" s="27"/>
+      <c r="B652" s="27"/>
+      <c r="C652" s="27"/>
       <c r="H652" s="12"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="26"/>
-      <c r="B653" s="26"/>
-      <c r="C653" s="26"/>
+      <c r="A653" s="27"/>
+      <c r="B653" s="27"/>
+      <c r="C653" s="27"/>
       <c r="H653" s="12"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="26"/>
-      <c r="B654" s="26"/>
-      <c r="C654" s="26"/>
+      <c r="A654" s="27"/>
+      <c r="B654" s="27"/>
+      <c r="C654" s="27"/>
       <c r="H654" s="12"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="26"/>
-      <c r="B655" s="26"/>
-      <c r="C655" s="26"/>
+      <c r="A655" s="27"/>
+      <c r="B655" s="27"/>
+      <c r="C655" s="27"/>
       <c r="H655" s="12"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="26"/>
-      <c r="B656" s="26"/>
-      <c r="C656" s="26"/>
+      <c r="A656" s="27"/>
+      <c r="B656" s="27"/>
+      <c r="C656" s="27"/>
       <c r="H656" s="12"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="26"/>
-      <c r="B657" s="26"/>
-      <c r="C657" s="26"/>
+      <c r="A657" s="27"/>
+      <c r="B657" s="27"/>
+      <c r="C657" s="27"/>
       <c r="H657" s="12"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="26"/>
-      <c r="B658" s="26"/>
-      <c r="C658" s="26"/>
+      <c r="A658" s="27"/>
+      <c r="B658" s="27"/>
+      <c r="C658" s="27"/>
       <c r="H658" s="12"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="26"/>
-      <c r="B659" s="26"/>
-      <c r="C659" s="26"/>
+      <c r="A659" s="27"/>
+      <c r="B659" s="27"/>
+      <c r="C659" s="27"/>
       <c r="H659" s="12"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="26"/>
-      <c r="B660" s="26"/>
-      <c r="C660" s="26"/>
+      <c r="A660" s="27"/>
+      <c r="B660" s="27"/>
+      <c r="C660" s="27"/>
       <c r="H660" s="12"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="26"/>
-      <c r="B661" s="26"/>
-      <c r="C661" s="26"/>
+      <c r="A661" s="27"/>
+      <c r="B661" s="27"/>
+      <c r="C661" s="27"/>
       <c r="H661" s="12"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="26"/>
-      <c r="B662" s="26"/>
-      <c r="C662" s="26"/>
+      <c r="A662" s="27"/>
+      <c r="B662" s="27"/>
+      <c r="C662" s="27"/>
       <c r="H662" s="12"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="26"/>
-      <c r="B663" s="26"/>
-      <c r="C663" s="26"/>
+      <c r="A663" s="27"/>
+      <c r="B663" s="27"/>
+      <c r="C663" s="27"/>
       <c r="H663" s="12"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="26"/>
-      <c r="B664" s="26"/>
-      <c r="C664" s="26"/>
+      <c r="A664" s="27"/>
+      <c r="B664" s="27"/>
+      <c r="C664" s="27"/>
       <c r="H664" s="12"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="26"/>
-      <c r="B665" s="26"/>
-      <c r="C665" s="26"/>
+      <c r="A665" s="27"/>
+      <c r="B665" s="27"/>
+      <c r="C665" s="27"/>
       <c r="H665" s="12"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="26"/>
-      <c r="B666" s="26"/>
-      <c r="C666" s="26"/>
+      <c r="A666" s="27"/>
+      <c r="B666" s="27"/>
+      <c r="C666" s="27"/>
       <c r="H666" s="12"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="26"/>
-      <c r="B667" s="26"/>
-      <c r="C667" s="26"/>
+      <c r="A667" s="27"/>
+      <c r="B667" s="27"/>
+      <c r="C667" s="27"/>
       <c r="H667" s="12"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="26"/>
-      <c r="B668" s="26"/>
-      <c r="C668" s="26"/>
+      <c r="A668" s="27"/>
+      <c r="B668" s="27"/>
+      <c r="C668" s="27"/>
       <c r="H668" s="12"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="26"/>
-      <c r="B669" s="26"/>
-      <c r="C669" s="26"/>
+      <c r="A669" s="27"/>
+      <c r="B669" s="27"/>
+      <c r="C669" s="27"/>
       <c r="H669" s="12"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="26"/>
-      <c r="B670" s="26"/>
-      <c r="C670" s="26"/>
+      <c r="A670" s="27"/>
+      <c r="B670" s="27"/>
+      <c r="C670" s="27"/>
       <c r="H670" s="12"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="26"/>
-      <c r="B671" s="26"/>
-      <c r="C671" s="26"/>
+      <c r="A671" s="27"/>
+      <c r="B671" s="27"/>
+      <c r="C671" s="27"/>
       <c r="H671" s="12"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="26"/>
-      <c r="B672" s="26"/>
-      <c r="C672" s="26"/>
+      <c r="A672" s="27"/>
+      <c r="B672" s="27"/>
+      <c r="C672" s="27"/>
       <c r="H672" s="12"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="26"/>
-      <c r="B673" s="26"/>
-      <c r="C673" s="26"/>
+      <c r="A673" s="27"/>
+      <c r="B673" s="27"/>
+      <c r="C673" s="27"/>
       <c r="H673" s="12"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="26"/>
-      <c r="B674" s="26"/>
-      <c r="C674" s="26"/>
+      <c r="A674" s="27"/>
+      <c r="B674" s="27"/>
+      <c r="C674" s="27"/>
       <c r="H674" s="12"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="26"/>
-      <c r="B675" s="26"/>
-      <c r="C675" s="26"/>
+      <c r="A675" s="27"/>
+      <c r="B675" s="27"/>
+      <c r="C675" s="27"/>
       <c r="H675" s="12"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="26"/>
-      <c r="B676" s="26"/>
-      <c r="C676" s="26"/>
+      <c r="A676" s="27"/>
+      <c r="B676" s="27"/>
+      <c r="C676" s="27"/>
       <c r="H676" s="12"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="26"/>
-      <c r="B677" s="26"/>
-      <c r="C677" s="26"/>
+      <c r="A677" s="27"/>
+      <c r="B677" s="27"/>
+      <c r="C677" s="27"/>
       <c r="H677" s="12"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="26"/>
-      <c r="B678" s="26"/>
-      <c r="C678" s="26"/>
+      <c r="A678" s="27"/>
+      <c r="B678" s="27"/>
+      <c r="C678" s="27"/>
       <c r="H678" s="12"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="26"/>
-      <c r="B679" s="26"/>
-      <c r="C679" s="26"/>
+      <c r="A679" s="27"/>
+      <c r="B679" s="27"/>
+      <c r="C679" s="27"/>
       <c r="H679" s="12"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="26"/>
-      <c r="B680" s="26"/>
-      <c r="C680" s="26"/>
+      <c r="A680" s="27"/>
+      <c r="B680" s="27"/>
+      <c r="C680" s="27"/>
       <c r="H680" s="12"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="26"/>
-      <c r="B681" s="26"/>
-      <c r="C681" s="26"/>
+      <c r="A681" s="27"/>
+      <c r="B681" s="27"/>
+      <c r="C681" s="27"/>
       <c r="H681" s="12"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="26"/>
-      <c r="B682" s="26"/>
-      <c r="C682" s="26"/>
+      <c r="A682" s="27"/>
+      <c r="B682" s="27"/>
+      <c r="C682" s="27"/>
       <c r="H682" s="12"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="26"/>
-      <c r="B683" s="26"/>
-      <c r="C683" s="26"/>
+      <c r="A683" s="27"/>
+      <c r="B683" s="27"/>
+      <c r="C683" s="27"/>
       <c r="H683" s="12"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="26"/>
-      <c r="B684" s="26"/>
-      <c r="C684" s="26"/>
+      <c r="A684" s="27"/>
+      <c r="B684" s="27"/>
+      <c r="C684" s="27"/>
       <c r="H684" s="12"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="26"/>
-      <c r="B685" s="26"/>
-      <c r="C685" s="26"/>
+      <c r="A685" s="27"/>
+      <c r="B685" s="27"/>
+      <c r="C685" s="27"/>
       <c r="H685" s="12"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="26"/>
-      <c r="B686" s="26"/>
-      <c r="C686" s="26"/>
+      <c r="A686" s="27"/>
+      <c r="B686" s="27"/>
+      <c r="C686" s="27"/>
       <c r="H686" s="12"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="26"/>
-      <c r="B687" s="26"/>
-      <c r="C687" s="26"/>
+      <c r="A687" s="27"/>
+      <c r="B687" s="27"/>
+      <c r="C687" s="27"/>
       <c r="H687" s="12"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="26"/>
-      <c r="B688" s="26"/>
-      <c r="C688" s="26"/>
+      <c r="A688" s="27"/>
+      <c r="B688" s="27"/>
+      <c r="C688" s="27"/>
       <c r="H688" s="12"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="26"/>
-      <c r="B689" s="26"/>
-      <c r="C689" s="26"/>
+      <c r="A689" s="27"/>
+      <c r="B689" s="27"/>
+      <c r="C689" s="27"/>
       <c r="H689" s="12"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="26"/>
-      <c r="B690" s="26"/>
-      <c r="C690" s="26"/>
+      <c r="A690" s="27"/>
+      <c r="B690" s="27"/>
+      <c r="C690" s="27"/>
       <c r="H690" s="12"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="26"/>
-      <c r="B691" s="26"/>
-      <c r="C691" s="26"/>
+      <c r="A691" s="27"/>
+      <c r="B691" s="27"/>
+      <c r="C691" s="27"/>
       <c r="H691" s="12"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="26"/>
-      <c r="B692" s="26"/>
-      <c r="C692" s="26"/>
+      <c r="A692" s="27"/>
+      <c r="B692" s="27"/>
+      <c r="C692" s="27"/>
       <c r="H692" s="12"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="26"/>
-      <c r="B693" s="26"/>
-      <c r="C693" s="26"/>
+      <c r="A693" s="27"/>
+      <c r="B693" s="27"/>
+      <c r="C693" s="27"/>
       <c r="H693" s="12"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="26"/>
-      <c r="B694" s="26"/>
-      <c r="C694" s="26"/>
+      <c r="A694" s="27"/>
+      <c r="B694" s="27"/>
+      <c r="C694" s="27"/>
       <c r="H694" s="12"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="26"/>
-      <c r="B695" s="26"/>
-      <c r="C695" s="26"/>
+      <c r="A695" s="27"/>
+      <c r="B695" s="27"/>
+      <c r="C695" s="27"/>
       <c r="H695" s="12"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="26"/>
-      <c r="B696" s="26"/>
-      <c r="C696" s="26"/>
+      <c r="A696" s="27"/>
+      <c r="B696" s="27"/>
+      <c r="C696" s="27"/>
       <c r="H696" s="12"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="26"/>
-      <c r="B697" s="26"/>
-      <c r="C697" s="26"/>
+      <c r="A697" s="27"/>
+      <c r="B697" s="27"/>
+      <c r="C697" s="27"/>
       <c r="H697" s="12"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="26"/>
-      <c r="B698" s="26"/>
-      <c r="C698" s="26"/>
+      <c r="A698" s="27"/>
+      <c r="B698" s="27"/>
+      <c r="C698" s="27"/>
       <c r="H698" s="12"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="26"/>
-      <c r="B699" s="26"/>
-      <c r="C699" s="26"/>
+      <c r="A699" s="27"/>
+      <c r="B699" s="27"/>
+      <c r="C699" s="27"/>
       <c r="H699" s="12"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="26"/>
-      <c r="B700" s="26"/>
-      <c r="C700" s="26"/>
+      <c r="A700" s="27"/>
+      <c r="B700" s="27"/>
+      <c r="C700" s="27"/>
       <c r="H700" s="12"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="26"/>
-      <c r="B701" s="26"/>
-      <c r="C701" s="26"/>
+      <c r="A701" s="27"/>
+      <c r="B701" s="27"/>
+      <c r="C701" s="27"/>
       <c r="H701" s="12"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="26"/>
-      <c r="B702" s="26"/>
-      <c r="C702" s="26"/>
+      <c r="A702" s="27"/>
+      <c r="B702" s="27"/>
+      <c r="C702" s="27"/>
       <c r="H702" s="12"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="26"/>
-      <c r="B703" s="26"/>
-      <c r="C703" s="26"/>
+      <c r="A703" s="27"/>
+      <c r="B703" s="27"/>
+      <c r="C703" s="27"/>
       <c r="H703" s="12"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="26"/>
-      <c r="B704" s="26"/>
-      <c r="C704" s="26"/>
+      <c r="A704" s="27"/>
+      <c r="B704" s="27"/>
+      <c r="C704" s="27"/>
       <c r="H704" s="12"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="26"/>
-      <c r="B705" s="26"/>
-      <c r="C705" s="26"/>
+      <c r="A705" s="27"/>
+      <c r="B705" s="27"/>
+      <c r="C705" s="27"/>
       <c r="H705" s="12"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="26"/>
-      <c r="B706" s="26"/>
-      <c r="C706" s="26"/>
+      <c r="A706" s="27"/>
+      <c r="B706" s="27"/>
+      <c r="C706" s="27"/>
       <c r="H706" s="12"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="26"/>
-      <c r="B707" s="26"/>
-      <c r="C707" s="26"/>
+      <c r="A707" s="27"/>
+      <c r="B707" s="27"/>
+      <c r="C707" s="27"/>
       <c r="H707" s="12"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="26"/>
-      <c r="B708" s="26"/>
-      <c r="C708" s="26"/>
+      <c r="A708" s="27"/>
+      <c r="B708" s="27"/>
+      <c r="C708" s="27"/>
       <c r="H708" s="12"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="26"/>
-      <c r="B709" s="26"/>
-      <c r="C709" s="26"/>
+      <c r="A709" s="27"/>
+      <c r="B709" s="27"/>
+      <c r="C709" s="27"/>
       <c r="H709" s="12"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="26"/>
-      <c r="B710" s="26"/>
-      <c r="C710" s="26"/>
+      <c r="A710" s="27"/>
+      <c r="B710" s="27"/>
+      <c r="C710" s="27"/>
       <c r="H710" s="12"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="26"/>
-      <c r="B711" s="26"/>
-      <c r="C711" s="26"/>
+      <c r="A711" s="27"/>
+      <c r="B711" s="27"/>
+      <c r="C711" s="27"/>
       <c r="H711" s="12"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="26"/>
-      <c r="B712" s="26"/>
-      <c r="C712" s="26"/>
+      <c r="A712" s="27"/>
+      <c r="B712" s="27"/>
+      <c r="C712" s="27"/>
       <c r="H712" s="12"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="26"/>
-      <c r="B713" s="26"/>
-      <c r="C713" s="26"/>
+      <c r="A713" s="27"/>
+      <c r="B713" s="27"/>
+      <c r="C713" s="27"/>
       <c r="H713" s="12"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="26"/>
-      <c r="B714" s="26"/>
-      <c r="C714" s="26"/>
+      <c r="A714" s="27"/>
+      <c r="B714" s="27"/>
+      <c r="C714" s="27"/>
       <c r="H714" s="12"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="26"/>
-      <c r="B715" s="26"/>
-      <c r="C715" s="26"/>
+      <c r="A715" s="27"/>
+      <c r="B715" s="27"/>
+      <c r="C715" s="27"/>
       <c r="H715" s="12"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="26"/>
-      <c r="B716" s="26"/>
-      <c r="C716" s="26"/>
+      <c r="A716" s="27"/>
+      <c r="B716" s="27"/>
+      <c r="C716" s="27"/>
       <c r="H716" s="12"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="26"/>
-      <c r="B717" s="26"/>
-      <c r="C717" s="26"/>
+      <c r="A717" s="27"/>
+      <c r="B717" s="27"/>
+      <c r="C717" s="27"/>
       <c r="H717" s="12"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="26"/>
-      <c r="B718" s="26"/>
-      <c r="C718" s="26"/>
+      <c r="A718" s="27"/>
+      <c r="B718" s="27"/>
+      <c r="C718" s="27"/>
       <c r="H718" s="12"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="26"/>
-      <c r="B719" s="26"/>
-      <c r="C719" s="26"/>
+      <c r="A719" s="27"/>
+      <c r="B719" s="27"/>
+      <c r="C719" s="27"/>
       <c r="H719" s="12"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="26"/>
-      <c r="B720" s="26"/>
-      <c r="C720" s="26"/>
+      <c r="A720" s="27"/>
+      <c r="B720" s="27"/>
+      <c r="C720" s="27"/>
       <c r="H720" s="12"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="26"/>
-      <c r="B721" s="26"/>
-      <c r="C721" s="26"/>
+      <c r="A721" s="27"/>
+      <c r="B721" s="27"/>
+      <c r="C721" s="27"/>
       <c r="H721" s="12"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="26"/>
-      <c r="B722" s="26"/>
-      <c r="C722" s="26"/>
+      <c r="A722" s="27"/>
+      <c r="B722" s="27"/>
+      <c r="C722" s="27"/>
       <c r="H722" s="12"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="26"/>
-      <c r="B723" s="26"/>
-      <c r="C723" s="26"/>
+      <c r="A723" s="27"/>
+      <c r="B723" s="27"/>
+      <c r="C723" s="27"/>
       <c r="H723" s="12"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="26"/>
-      <c r="B724" s="26"/>
-      <c r="C724" s="26"/>
+      <c r="A724" s="27"/>
+      <c r="B724" s="27"/>
+      <c r="C724" s="27"/>
       <c r="H724" s="12"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="26"/>
-      <c r="B725" s="26"/>
-      <c r="C725" s="26"/>
+      <c r="A725" s="27"/>
+      <c r="B725" s="27"/>
+      <c r="C725" s="27"/>
       <c r="H725" s="12"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="26"/>
-      <c r="B726" s="26"/>
-      <c r="C726" s="26"/>
+      <c r="A726" s="27"/>
+      <c r="B726" s="27"/>
+      <c r="C726" s="27"/>
       <c r="H726" s="12"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="26"/>
-      <c r="B727" s="26"/>
-      <c r="C727" s="26"/>
+      <c r="A727" s="27"/>
+      <c r="B727" s="27"/>
+      <c r="C727" s="27"/>
       <c r="H727" s="12"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="26"/>
-      <c r="B728" s="26"/>
-      <c r="C728" s="26"/>
+      <c r="A728" s="27"/>
+      <c r="B728" s="27"/>
+      <c r="C728" s="27"/>
       <c r="H728" s="12"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="26"/>
-      <c r="B729" s="26"/>
-      <c r="C729" s="26"/>
+      <c r="A729" s="27"/>
+      <c r="B729" s="27"/>
+      <c r="C729" s="27"/>
       <c r="H729" s="12"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="26"/>
-      <c r="B730" s="26"/>
-      <c r="C730" s="26"/>
+      <c r="A730" s="27"/>
+      <c r="B730" s="27"/>
+      <c r="C730" s="27"/>
       <c r="H730" s="12"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="26"/>
-      <c r="B731" s="26"/>
-      <c r="C731" s="26"/>
+      <c r="A731" s="27"/>
+      <c r="B731" s="27"/>
+      <c r="C731" s="27"/>
       <c r="H731" s="12"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="26"/>
-      <c r="B732" s="26"/>
-      <c r="C732" s="26"/>
+      <c r="A732" s="27"/>
+      <c r="B732" s="27"/>
+      <c r="C732" s="27"/>
       <c r="H732" s="12"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="26"/>
-      <c r="B733" s="26"/>
-      <c r="C733" s="26"/>
+      <c r="A733" s="27"/>
+      <c r="B733" s="27"/>
+      <c r="C733" s="27"/>
       <c r="H733" s="12"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="26"/>
-      <c r="B734" s="26"/>
-      <c r="C734" s="26"/>
+      <c r="A734" s="27"/>
+      <c r="B734" s="27"/>
+      <c r="C734" s="27"/>
       <c r="H734" s="12"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="26"/>
-      <c r="B735" s="26"/>
-      <c r="C735" s="26"/>
+      <c r="A735" s="27"/>
+      <c r="B735" s="27"/>
+      <c r="C735" s="27"/>
       <c r="H735" s="12"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="26"/>
-      <c r="B736" s="26"/>
-      <c r="C736" s="26"/>
+      <c r="A736" s="27"/>
+      <c r="B736" s="27"/>
+      <c r="C736" s="27"/>
       <c r="H736" s="12"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="26"/>
-      <c r="B737" s="26"/>
-      <c r="C737" s="26"/>
+      <c r="A737" s="27"/>
+      <c r="B737" s="27"/>
+      <c r="C737" s="27"/>
       <c r="H737" s="12"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="26"/>
-      <c r="B738" s="26"/>
-      <c r="C738" s="26"/>
+      <c r="A738" s="27"/>
+      <c r="B738" s="27"/>
+      <c r="C738" s="27"/>
       <c r="H738" s="12"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="26"/>
-      <c r="B739" s="26"/>
-      <c r="C739" s="26"/>
+      <c r="A739" s="27"/>
+      <c r="B739" s="27"/>
+      <c r="C739" s="27"/>
       <c r="H739" s="12"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="26"/>
-      <c r="B740" s="26"/>
-      <c r="C740" s="26"/>
+      <c r="A740" s="27"/>
+      <c r="B740" s="27"/>
+      <c r="C740" s="27"/>
       <c r="H740" s="12"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="26"/>
-      <c r="B741" s="26"/>
-      <c r="C741" s="26"/>
+      <c r="A741" s="27"/>
+      <c r="B741" s="27"/>
+      <c r="C741" s="27"/>
       <c r="H741" s="12"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="26"/>
-      <c r="B742" s="26"/>
-      <c r="C742" s="26"/>
+      <c r="A742" s="27"/>
+      <c r="B742" s="27"/>
+      <c r="C742" s="27"/>
       <c r="H742" s="12"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="26"/>
-      <c r="B743" s="26"/>
-      <c r="C743" s="26"/>
+      <c r="A743" s="27"/>
+      <c r="B743" s="27"/>
+      <c r="C743" s="27"/>
       <c r="H743" s="12"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="26"/>
-      <c r="B744" s="26"/>
-      <c r="C744" s="26"/>
+      <c r="A744" s="27"/>
+      <c r="B744" s="27"/>
+      <c r="C744" s="27"/>
       <c r="H744" s="12"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="26"/>
-      <c r="B745" s="26"/>
-      <c r="C745" s="26"/>
+      <c r="A745" s="27"/>
+      <c r="B745" s="27"/>
+      <c r="C745" s="27"/>
       <c r="H745" s="12"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="26"/>
-      <c r="B746" s="26"/>
-      <c r="C746" s="26"/>
+      <c r="A746" s="27"/>
+      <c r="B746" s="27"/>
+      <c r="C746" s="27"/>
       <c r="H746" s="12"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="26"/>
-      <c r="B747" s="26"/>
-      <c r="C747" s="26"/>
+      <c r="A747" s="27"/>
+      <c r="B747" s="27"/>
+      <c r="C747" s="27"/>
       <c r="H747" s="12"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="26"/>
-      <c r="B748" s="26"/>
-      <c r="C748" s="26"/>
+      <c r="A748" s="27"/>
+      <c r="B748" s="27"/>
+      <c r="C748" s="27"/>
       <c r="H748" s="12"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="26"/>
-      <c r="B749" s="26"/>
-      <c r="C749" s="26"/>
+      <c r="A749" s="27"/>
+      <c r="B749" s="27"/>
+      <c r="C749" s="27"/>
       <c r="H749" s="12"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="26"/>
-      <c r="B750" s="26"/>
-      <c r="C750" s="26"/>
+      <c r="A750" s="27"/>
+      <c r="B750" s="27"/>
+      <c r="C750" s="27"/>
       <c r="H750" s="12"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="26"/>
-      <c r="B751" s="26"/>
-      <c r="C751" s="26"/>
+      <c r="A751" s="27"/>
+      <c r="B751" s="27"/>
+      <c r="C751" s="27"/>
       <c r="H751" s="12"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="26"/>
-      <c r="B752" s="26"/>
-      <c r="C752" s="26"/>
+      <c r="A752" s="27"/>
+      <c r="B752" s="27"/>
+      <c r="C752" s="27"/>
       <c r="H752" s="12"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="26"/>
-      <c r="B753" s="26"/>
-      <c r="C753" s="26"/>
+      <c r="A753" s="27"/>
+      <c r="B753" s="27"/>
+      <c r="C753" s="27"/>
       <c r="H753" s="12"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="26"/>
-      <c r="B754" s="26"/>
-      <c r="C754" s="26"/>
+      <c r="A754" s="27"/>
+      <c r="B754" s="27"/>
+      <c r="C754" s="27"/>
       <c r="H754" s="12"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="26"/>
-      <c r="B755" s="26"/>
-      <c r="C755" s="26"/>
+      <c r="A755" s="27"/>
+      <c r="B755" s="27"/>
+      <c r="C755" s="27"/>
       <c r="H755" s="12"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="26"/>
-      <c r="B756" s="26"/>
-      <c r="C756" s="26"/>
+      <c r="A756" s="27"/>
+      <c r="B756" s="27"/>
+      <c r="C756" s="27"/>
       <c r="H756" s="12"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="26"/>
-      <c r="B757" s="26"/>
-      <c r="C757" s="26"/>
+      <c r="A757" s="27"/>
+      <c r="B757" s="27"/>
+      <c r="C757" s="27"/>
       <c r="H757" s="12"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="26"/>
-      <c r="B758" s="26"/>
-      <c r="C758" s="26"/>
+      <c r="A758" s="27"/>
+      <c r="B758" s="27"/>
+      <c r="C758" s="27"/>
       <c r="H758" s="12"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="26"/>
-      <c r="B759" s="26"/>
-      <c r="C759" s="26"/>
+      <c r="A759" s="27"/>
+      <c r="B759" s="27"/>
+      <c r="C759" s="27"/>
       <c r="H759" s="12"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="26"/>
-      <c r="B760" s="26"/>
-      <c r="C760" s="26"/>
+      <c r="A760" s="27"/>
+      <c r="B760" s="27"/>
+      <c r="C760" s="27"/>
       <c r="H760" s="12"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="26"/>
-      <c r="B761" s="26"/>
-      <c r="C761" s="26"/>
+      <c r="A761" s="27"/>
+      <c r="B761" s="27"/>
+      <c r="C761" s="27"/>
       <c r="H761" s="12"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="26"/>
-      <c r="B762" s="26"/>
-      <c r="C762" s="26"/>
+      <c r="A762" s="27"/>
+      <c r="B762" s="27"/>
+      <c r="C762" s="27"/>
       <c r="H762" s="12"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="26"/>
-      <c r="B763" s="26"/>
-      <c r="C763" s="26"/>
+      <c r="A763" s="27"/>
+      <c r="B763" s="27"/>
+      <c r="C763" s="27"/>
       <c r="H763" s="12"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="26"/>
-      <c r="B764" s="26"/>
-      <c r="C764" s="26"/>
+      <c r="A764" s="27"/>
+      <c r="B764" s="27"/>
+      <c r="C764" s="27"/>
       <c r="H764" s="12"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="26"/>
-      <c r="B765" s="26"/>
-      <c r="C765" s="26"/>
+      <c r="A765" s="27"/>
+      <c r="B765" s="27"/>
+      <c r="C765" s="27"/>
       <c r="H765" s="12"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="26"/>
-      <c r="B766" s="26"/>
-      <c r="C766" s="26"/>
+      <c r="A766" s="27"/>
+      <c r="B766" s="27"/>
+      <c r="C766" s="27"/>
       <c r="H766" s="12"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="26"/>
-      <c r="B767" s="26"/>
-      <c r="C767" s="26"/>
+      <c r="A767" s="27"/>
+      <c r="B767" s="27"/>
+      <c r="C767" s="27"/>
       <c r="H767" s="12"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="26"/>
-      <c r="B768" s="26"/>
-      <c r="C768" s="26"/>
+      <c r="A768" s="27"/>
+      <c r="B768" s="27"/>
+      <c r="C768" s="27"/>
       <c r="H768" s="12"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="26"/>
-      <c r="B769" s="26"/>
-      <c r="C769" s="26"/>
+      <c r="A769" s="27"/>
+      <c r="B769" s="27"/>
+      <c r="C769" s="27"/>
       <c r="H769" s="12"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="26"/>
-      <c r="B770" s="26"/>
-      <c r="C770" s="26"/>
+      <c r="A770" s="27"/>
+      <c r="B770" s="27"/>
+      <c r="C770" s="27"/>
       <c r="H770" s="12"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="26"/>
-      <c r="B771" s="26"/>
-      <c r="C771" s="26"/>
+      <c r="A771" s="27"/>
+      <c r="B771" s="27"/>
+      <c r="C771" s="27"/>
       <c r="H771" s="12"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="26"/>
-      <c r="B772" s="26"/>
-      <c r="C772" s="26"/>
+      <c r="A772" s="27"/>
+      <c r="B772" s="27"/>
+      <c r="C772" s="27"/>
       <c r="H772" s="12"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="26"/>
-      <c r="B773" s="26"/>
-      <c r="C773" s="26"/>
+      <c r="A773" s="27"/>
+      <c r="B773" s="27"/>
+      <c r="C773" s="27"/>
       <c r="H773" s="12"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="26"/>
-      <c r="B774" s="26"/>
-      <c r="C774" s="26"/>
+      <c r="A774" s="27"/>
+      <c r="B774" s="27"/>
+      <c r="C774" s="27"/>
       <c r="H774" s="12"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="26"/>
-      <c r="B775" s="26"/>
-      <c r="C775" s="26"/>
+      <c r="A775" s="27"/>
+      <c r="B775" s="27"/>
+      <c r="C775" s="27"/>
       <c r="H775" s="12"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="26"/>
-      <c r="B776" s="26"/>
-      <c r="C776" s="26"/>
+      <c r="A776" s="27"/>
+      <c r="B776" s="27"/>
+      <c r="C776" s="27"/>
       <c r="H776" s="12"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="26"/>
-      <c r="B777" s="26"/>
-      <c r="C777" s="26"/>
+      <c r="A777" s="27"/>
+      <c r="B777" s="27"/>
+      <c r="C777" s="27"/>
       <c r="H777" s="12"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="26"/>
-      <c r="B778" s="26"/>
-      <c r="C778" s="26"/>
+      <c r="A778" s="27"/>
+      <c r="B778" s="27"/>
+      <c r="C778" s="27"/>
       <c r="H778" s="12"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="26"/>
-      <c r="B779" s="26"/>
-      <c r="C779" s="26"/>
+      <c r="A779" s="27"/>
+      <c r="B779" s="27"/>
+      <c r="C779" s="27"/>
       <c r="H779" s="12"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="26"/>
-      <c r="B780" s="26"/>
-      <c r="C780" s="26"/>
+      <c r="A780" s="27"/>
+      <c r="B780" s="27"/>
+      <c r="C780" s="27"/>
       <c r="H780" s="12"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="26"/>
-      <c r="B781" s="26"/>
-      <c r="C781" s="26"/>
+      <c r="A781" s="27"/>
+      <c r="B781" s="27"/>
+      <c r="C781" s="27"/>
       <c r="H781" s="12"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="26"/>
-      <c r="B782" s="26"/>
-      <c r="C782" s="26"/>
+      <c r="A782" s="27"/>
+      <c r="B782" s="27"/>
+      <c r="C782" s="27"/>
       <c r="H782" s="12"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="26"/>
-      <c r="B783" s="26"/>
-      <c r="C783" s="26"/>
+      <c r="A783" s="27"/>
+      <c r="B783" s="27"/>
+      <c r="C783" s="27"/>
       <c r="H783" s="12"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="26"/>
-      <c r="B784" s="26"/>
-      <c r="C784" s="26"/>
+      <c r="A784" s="27"/>
+      <c r="B784" s="27"/>
+      <c r="C784" s="27"/>
       <c r="H784" s="12"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="26"/>
-      <c r="B785" s="26"/>
-      <c r="C785" s="26"/>
+      <c r="A785" s="27"/>
+      <c r="B785" s="27"/>
+      <c r="C785" s="27"/>
       <c r="H785" s="12"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="26"/>
-      <c r="B786" s="26"/>
-      <c r="C786" s="26"/>
+      <c r="A786" s="27"/>
+      <c r="B786" s="27"/>
+      <c r="C786" s="27"/>
       <c r="H786" s="12"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="26"/>
-      <c r="B787" s="26"/>
-      <c r="C787" s="26"/>
+      <c r="A787" s="27"/>
+      <c r="B787" s="27"/>
+      <c r="C787" s="27"/>
       <c r="H787" s="12"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="26"/>
-      <c r="B788" s="26"/>
-      <c r="C788" s="26"/>
+      <c r="A788" s="27"/>
+      <c r="B788" s="27"/>
+      <c r="C788" s="27"/>
       <c r="H788" s="12"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="26"/>
-      <c r="B789" s="26"/>
-      <c r="C789" s="26"/>
+      <c r="A789" s="27"/>
+      <c r="B789" s="27"/>
+      <c r="C789" s="27"/>
       <c r="H789" s="12"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="26"/>
-      <c r="B790" s="26"/>
-      <c r="C790" s="26"/>
+      <c r="A790" s="27"/>
+      <c r="B790" s="27"/>
+      <c r="C790" s="27"/>
       <c r="H790" s="12"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="26"/>
-      <c r="B791" s="26"/>
-      <c r="C791" s="26"/>
+      <c r="A791" s="27"/>
+      <c r="B791" s="27"/>
+      <c r="C791" s="27"/>
       <c r="H791" s="12"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="26"/>
-      <c r="B792" s="26"/>
-      <c r="C792" s="26"/>
+      <c r="A792" s="27"/>
+      <c r="B792" s="27"/>
+      <c r="C792" s="27"/>
       <c r="H792" s="12"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="26"/>
-      <c r="B793" s="26"/>
-      <c r="C793" s="26"/>
+      <c r="A793" s="27"/>
+      <c r="B793" s="27"/>
+      <c r="C793" s="27"/>
       <c r="H793" s="12"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="26"/>
-      <c r="B794" s="26"/>
-      <c r="C794" s="26"/>
+      <c r="A794" s="27"/>
+      <c r="B794" s="27"/>
+      <c r="C794" s="27"/>
       <c r="H794" s="12"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="26"/>
-      <c r="B795" s="26"/>
-      <c r="C795" s="26"/>
+      <c r="A795" s="27"/>
+      <c r="B795" s="27"/>
+      <c r="C795" s="27"/>
       <c r="H795" s="12"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="26"/>
-      <c r="B796" s="26"/>
-      <c r="C796" s="26"/>
+      <c r="A796" s="27"/>
+      <c r="B796" s="27"/>
+      <c r="C796" s="27"/>
       <c r="H796" s="12"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="26"/>
-      <c r="B797" s="26"/>
-      <c r="C797" s="26"/>
+      <c r="A797" s="27"/>
+      <c r="B797" s="27"/>
+      <c r="C797" s="27"/>
       <c r="H797" s="12"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="26"/>
-      <c r="B798" s="26"/>
-      <c r="C798" s="26"/>
+      <c r="A798" s="27"/>
+      <c r="B798" s="27"/>
+      <c r="C798" s="27"/>
       <c r="H798" s="12"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="26"/>
-      <c r="B799" s="26"/>
-      <c r="C799" s="26"/>
+      <c r="A799" s="27"/>
+      <c r="B799" s="27"/>
+      <c r="C799" s="27"/>
       <c r="H799" s="12"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="26"/>
-      <c r="B800" s="26"/>
-      <c r="C800" s="26"/>
+      <c r="A800" s="27"/>
+      <c r="B800" s="27"/>
+      <c r="C800" s="27"/>
       <c r="H800" s="12"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="26"/>
-      <c r="B801" s="26"/>
-      <c r="C801" s="26"/>
+      <c r="A801" s="27"/>
+      <c r="B801" s="27"/>
+      <c r="C801" s="27"/>
       <c r="H801" s="12"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="26"/>
-      <c r="B802" s="26"/>
-      <c r="C802" s="26"/>
+      <c r="A802" s="27"/>
+      <c r="B802" s="27"/>
+      <c r="C802" s="27"/>
       <c r="H802" s="12"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="26"/>
-      <c r="B803" s="26"/>
-      <c r="C803" s="26"/>
+      <c r="A803" s="27"/>
+      <c r="B803" s="27"/>
+      <c r="C803" s="27"/>
       <c r="H803" s="12"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="26"/>
-      <c r="B804" s="26"/>
-      <c r="C804" s="26"/>
+      <c r="A804" s="27"/>
+      <c r="B804" s="27"/>
+      <c r="C804" s="27"/>
       <c r="H804" s="12"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="26"/>
-      <c r="B805" s="26"/>
-      <c r="C805" s="26"/>
+      <c r="A805" s="27"/>
+      <c r="B805" s="27"/>
+      <c r="C805" s="27"/>
       <c r="H805" s="12"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="26"/>
-      <c r="B806" s="26"/>
-      <c r="C806" s="26"/>
+      <c r="A806" s="27"/>
+      <c r="B806" s="27"/>
+      <c r="C806" s="27"/>
       <c r="H806" s="12"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="26"/>
-      <c r="B807" s="26"/>
-      <c r="C807" s="26"/>
+      <c r="A807" s="27"/>
+      <c r="B807" s="27"/>
+      <c r="C807" s="27"/>
       <c r="H807" s="12"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="26"/>
-      <c r="B808" s="26"/>
-      <c r="C808" s="26"/>
+      <c r="A808" s="27"/>
+      <c r="B808" s="27"/>
+      <c r="C808" s="27"/>
       <c r="H808" s="12"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="26"/>
-      <c r="B809" s="26"/>
-      <c r="C809" s="26"/>
+      <c r="A809" s="27"/>
+      <c r="B809" s="27"/>
+      <c r="C809" s="27"/>
       <c r="H809" s="12"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="26"/>
-      <c r="B810" s="26"/>
-      <c r="C810" s="26"/>
+      <c r="A810" s="27"/>
+      <c r="B810" s="27"/>
+      <c r="C810" s="27"/>
       <c r="H810" s="12"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="26"/>
-      <c r="B811" s="26"/>
-      <c r="C811" s="26"/>
+      <c r="A811" s="27"/>
+      <c r="B811" s="27"/>
+      <c r="C811" s="27"/>
       <c r="H811" s="12"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="26"/>
-      <c r="B812" s="26"/>
-      <c r="C812" s="26"/>
+      <c r="A812" s="27"/>
+      <c r="B812" s="27"/>
+      <c r="C812" s="27"/>
       <c r="H812" s="12"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="26"/>
-      <c r="B813" s="26"/>
-      <c r="C813" s="26"/>
+      <c r="A813" s="27"/>
+      <c r="B813" s="27"/>
+      <c r="C813" s="27"/>
       <c r="H813" s="12"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="26"/>
-      <c r="B814" s="26"/>
-      <c r="C814" s="26"/>
+      <c r="A814" s="27"/>
+      <c r="B814" s="27"/>
+      <c r="C814" s="27"/>
       <c r="H814" s="12"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="26"/>
-      <c r="B815" s="26"/>
-      <c r="C815" s="26"/>
+      <c r="A815" s="27"/>
+      <c r="B815" s="27"/>
+      <c r="C815" s="27"/>
       <c r="H815" s="12"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="26"/>
-      <c r="B816" s="26"/>
-      <c r="C816" s="26"/>
+      <c r="A816" s="27"/>
+      <c r="B816" s="27"/>
+      <c r="C816" s="27"/>
       <c r="H816" s="12"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="26"/>
-      <c r="B817" s="26"/>
-      <c r="C817" s="26"/>
+      <c r="A817" s="27"/>
+      <c r="B817" s="27"/>
+      <c r="C817" s="27"/>
       <c r="H817" s="12"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="26"/>
-      <c r="B818" s="26"/>
-      <c r="C818" s="26"/>
+      <c r="A818" s="27"/>
+      <c r="B818" s="27"/>
+      <c r="C818" s="27"/>
       <c r="H818" s="12"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="26"/>
-      <c r="B819" s="26"/>
-      <c r="C819" s="26"/>
+      <c r="A819" s="27"/>
+      <c r="B819" s="27"/>
+      <c r="C819" s="27"/>
       <c r="H819" s="12"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="26"/>
-      <c r="B820" s="26"/>
-      <c r="C820" s="26"/>
+      <c r="A820" s="27"/>
+      <c r="B820" s="27"/>
+      <c r="C820" s="27"/>
       <c r="H820" s="12"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="26"/>
-      <c r="B821" s="26"/>
-      <c r="C821" s="26"/>
+      <c r="A821" s="27"/>
+      <c r="B821" s="27"/>
+      <c r="C821" s="27"/>
       <c r="H821" s="12"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="26"/>
-      <c r="B822" s="26"/>
-      <c r="C822" s="26"/>
+      <c r="A822" s="27"/>
+      <c r="B822" s="27"/>
+      <c r="C822" s="27"/>
       <c r="H822" s="12"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="26"/>
-      <c r="B823" s="26"/>
-      <c r="C823" s="26"/>
+      <c r="A823" s="27"/>
+      <c r="B823" s="27"/>
+      <c r="C823" s="27"/>
       <c r="H823" s="12"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="26"/>
-      <c r="B824" s="26"/>
-      <c r="C824" s="26"/>
+      <c r="A824" s="27"/>
+      <c r="B824" s="27"/>
+      <c r="C824" s="27"/>
       <c r="H824" s="12"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="26"/>
-      <c r="B825" s="26"/>
-      <c r="C825" s="26"/>
+      <c r="A825" s="27"/>
+      <c r="B825" s="27"/>
+      <c r="C825" s="27"/>
       <c r="H825" s="12"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="26"/>
-      <c r="B826" s="26"/>
-      <c r="C826" s="26"/>
+      <c r="A826" s="27"/>
+      <c r="B826" s="27"/>
+      <c r="C826" s="27"/>
       <c r="H826" s="12"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="26"/>
-      <c r="B827" s="26"/>
-      <c r="C827" s="26"/>
+      <c r="A827" s="27"/>
+      <c r="B827" s="27"/>
+      <c r="C827" s="27"/>
       <c r="H827" s="12"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="26"/>
-      <c r="B828" s="26"/>
-      <c r="C828" s="26"/>
+      <c r="A828" s="27"/>
+      <c r="B828" s="27"/>
+      <c r="C828" s="27"/>
       <c r="H828" s="12"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="26"/>
-      <c r="B829" s="26"/>
-      <c r="C829" s="26"/>
+      <c r="A829" s="27"/>
+      <c r="B829" s="27"/>
+      <c r="C829" s="27"/>
       <c r="H829" s="12"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="26"/>
-      <c r="B830" s="26"/>
-      <c r="C830" s="26"/>
+      <c r="A830" s="27"/>
+      <c r="B830" s="27"/>
+      <c r="C830" s="27"/>
       <c r="H830" s="12"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="26"/>
-      <c r="B831" s="26"/>
-      <c r="C831" s="26"/>
+      <c r="A831" s="27"/>
+      <c r="B831" s="27"/>
+      <c r="C831" s="27"/>
       <c r="H831" s="12"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="26"/>
-      <c r="B832" s="26"/>
-      <c r="C832" s="26"/>
+      <c r="A832" s="27"/>
+      <c r="B832" s="27"/>
+      <c r="C832" s="27"/>
       <c r="H832" s="12"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="26"/>
-      <c r="B833" s="26"/>
-      <c r="C833" s="26"/>
+      <c r="A833" s="27"/>
+      <c r="B833" s="27"/>
+      <c r="C833" s="27"/>
       <c r="H833" s="12"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="26"/>
-      <c r="B834" s="26"/>
-      <c r="C834" s="26"/>
+      <c r="A834" s="27"/>
+      <c r="B834" s="27"/>
+      <c r="C834" s="27"/>
       <c r="H834" s="12"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="26"/>
-      <c r="B835" s="26"/>
-      <c r="C835" s="26"/>
+      <c r="A835" s="27"/>
+      <c r="B835" s="27"/>
+      <c r="C835" s="27"/>
       <c r="H835" s="12"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="26"/>
-      <c r="B836" s="26"/>
-      <c r="C836" s="26"/>
+      <c r="A836" s="27"/>
+      <c r="B836" s="27"/>
+      <c r="C836" s="27"/>
       <c r="H836" s="12"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="26"/>
-      <c r="B837" s="26"/>
-      <c r="C837" s="26"/>
+      <c r="A837" s="27"/>
+      <c r="B837" s="27"/>
+      <c r="C837" s="27"/>
       <c r="H837" s="12"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="26"/>
-      <c r="B838" s="26"/>
-      <c r="C838" s="26"/>
+      <c r="A838" s="27"/>
+      <c r="B838" s="27"/>
+      <c r="C838" s="27"/>
       <c r="H838" s="12"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="26"/>
-      <c r="B839" s="26"/>
-      <c r="C839" s="26"/>
+      <c r="A839" s="27"/>
+      <c r="B839" s="27"/>
+      <c r="C839" s="27"/>
       <c r="H839" s="12"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="26"/>
-      <c r="B840" s="26"/>
-      <c r="C840" s="26"/>
+      <c r="A840" s="27"/>
+      <c r="B840" s="27"/>
+      <c r="C840" s="27"/>
       <c r="H840" s="12"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="26"/>
-      <c r="B841" s="26"/>
-      <c r="C841" s="26"/>
+      <c r="A841" s="27"/>
+      <c r="B841" s="27"/>
+      <c r="C841" s="27"/>
       <c r="H841" s="12"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="26"/>
-      <c r="B842" s="26"/>
-      <c r="C842" s="26"/>
+      <c r="A842" s="27"/>
+      <c r="B842" s="27"/>
+      <c r="C842" s="27"/>
       <c r="H842" s="12"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="26"/>
-      <c r="B843" s="26"/>
-      <c r="C843" s="26"/>
+      <c r="A843" s="27"/>
+      <c r="B843" s="27"/>
+      <c r="C843" s="27"/>
       <c r="H843" s="12"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="26"/>
-      <c r="B844" s="26"/>
-      <c r="C844" s="26"/>
+      <c r="A844" s="27"/>
+      <c r="B844" s="27"/>
+      <c r="C844" s="27"/>
       <c r="H844" s="12"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="26"/>
-      <c r="B845" s="26"/>
-      <c r="C845" s="26"/>
+      <c r="A845" s="27"/>
+      <c r="B845" s="27"/>
+      <c r="C845" s="27"/>
       <c r="H845" s="12"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="26"/>
-      <c r="B846" s="26"/>
-      <c r="C846" s="26"/>
+      <c r="A846" s="27"/>
+      <c r="B846" s="27"/>
+      <c r="C846" s="27"/>
       <c r="H846" s="12"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="26"/>
-      <c r="B847" s="26"/>
-      <c r="C847" s="26"/>
+      <c r="A847" s="27"/>
+      <c r="B847" s="27"/>
+      <c r="C847" s="27"/>
       <c r="H847" s="12"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="26"/>
-      <c r="B848" s="26"/>
-      <c r="C848" s="26"/>
+      <c r="A848" s="27"/>
+      <c r="B848" s="27"/>
+      <c r="C848" s="27"/>
       <c r="H848" s="12"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="26"/>
-      <c r="B849" s="26"/>
-      <c r="C849" s="26"/>
+      <c r="A849" s="27"/>
+      <c r="B849" s="27"/>
+      <c r="C849" s="27"/>
       <c r="H849" s="12"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="26"/>
-      <c r="B850" s="26"/>
-      <c r="C850" s="26"/>
+      <c r="A850" s="27"/>
+      <c r="B850" s="27"/>
+      <c r="C850" s="27"/>
       <c r="H850" s="12"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="26"/>
-      <c r="B851" s="26"/>
-      <c r="C851" s="26"/>
+      <c r="A851" s="27"/>
+      <c r="B851" s="27"/>
+      <c r="C851" s="27"/>
       <c r="H851" s="12"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="26"/>
-      <c r="B852" s="26"/>
-      <c r="C852" s="26"/>
+      <c r="A852" s="27"/>
+      <c r="B852" s="27"/>
+      <c r="C852" s="27"/>
       <c r="H852" s="12"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="26"/>
-      <c r="B853" s="26"/>
-      <c r="C853" s="26"/>
+      <c r="A853" s="27"/>
+      <c r="B853" s="27"/>
+      <c r="C853" s="27"/>
       <c r="H853" s="12"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="26"/>
-      <c r="B854" s="26"/>
-      <c r="C854" s="26"/>
+      <c r="A854" s="27"/>
+      <c r="B854" s="27"/>
+      <c r="C854" s="27"/>
       <c r="H854" s="12"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="26"/>
-      <c r="B855" s="26"/>
-      <c r="C855" s="26"/>
+      <c r="A855" s="27"/>
+      <c r="B855" s="27"/>
+      <c r="C855" s="27"/>
       <c r="H855" s="12"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="26"/>
-      <c r="B856" s="26"/>
-      <c r="C856" s="26"/>
+      <c r="A856" s="27"/>
+      <c r="B856" s="27"/>
+      <c r="C856" s="27"/>
       <c r="H856" s="12"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="26"/>
-      <c r="B857" s="26"/>
-      <c r="C857" s="26"/>
+      <c r="A857" s="27"/>
+      <c r="B857" s="27"/>
+      <c r="C857" s="27"/>
       <c r="H857" s="12"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="26"/>
-      <c r="B858" s="26"/>
-      <c r="C858" s="26"/>
+      <c r="A858" s="27"/>
+      <c r="B858" s="27"/>
+      <c r="C858" s="27"/>
       <c r="H858" s="12"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="26"/>
-      <c r="B859" s="26"/>
-      <c r="C859" s="26"/>
+      <c r="A859" s="27"/>
+      <c r="B859" s="27"/>
+      <c r="C859" s="27"/>
       <c r="H859" s="12"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="26"/>
-      <c r="B860" s="26"/>
-      <c r="C860" s="26"/>
+      <c r="A860" s="27"/>
+      <c r="B860" s="27"/>
+      <c r="C860" s="27"/>
       <c r="H860" s="12"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="26"/>
-      <c r="B861" s="26"/>
-      <c r="C861" s="26"/>
+      <c r="A861" s="27"/>
+      <c r="B861" s="27"/>
+      <c r="C861" s="27"/>
       <c r="H861" s="12"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="26"/>
-      <c r="B862" s="26"/>
-      <c r="C862" s="26"/>
+      <c r="A862" s="27"/>
+      <c r="B862" s="27"/>
+      <c r="C862" s="27"/>
       <c r="H862" s="12"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="26"/>
-      <c r="B863" s="26"/>
-      <c r="C863" s="26"/>
+      <c r="A863" s="27"/>
+      <c r="B863" s="27"/>
+      <c r="C863" s="27"/>
       <c r="H863" s="12"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="26"/>
-      <c r="B864" s="26"/>
-      <c r="C864" s="26"/>
+      <c r="A864" s="27"/>
+      <c r="B864" s="27"/>
+      <c r="C864" s="27"/>
       <c r="H864" s="12"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="26"/>
-      <c r="B865" s="26"/>
-      <c r="C865" s="26"/>
+      <c r="A865" s="27"/>
+      <c r="B865" s="27"/>
+      <c r="C865" s="27"/>
       <c r="H865" s="12"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="26"/>
-      <c r="B866" s="26"/>
-      <c r="C866" s="26"/>
+      <c r="A866" s="27"/>
+      <c r="B866" s="27"/>
+      <c r="C866" s="27"/>
       <c r="H866" s="12"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="26"/>
-      <c r="B867" s="26"/>
-      <c r="C867" s="26"/>
+      <c r="A867" s="27"/>
+      <c r="B867" s="27"/>
+      <c r="C867" s="27"/>
       <c r="H867" s="12"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="26"/>
-      <c r="B868" s="26"/>
-      <c r="C868" s="26"/>
+      <c r="A868" s="27"/>
+      <c r="B868" s="27"/>
+      <c r="C868" s="27"/>
       <c r="H868" s="12"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="26"/>
-      <c r="B869" s="26"/>
-      <c r="C869" s="26"/>
+      <c r="A869" s="27"/>
+      <c r="B869" s="27"/>
+      <c r="C869" s="27"/>
       <c r="H869" s="12"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="26"/>
-      <c r="B870" s="26"/>
-      <c r="C870" s="26"/>
+      <c r="A870" s="27"/>
+      <c r="B870" s="27"/>
+      <c r="C870" s="27"/>
       <c r="H870" s="12"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="26"/>
-      <c r="B871" s="26"/>
-      <c r="C871" s="26"/>
+      <c r="A871" s="27"/>
+      <c r="B871" s="27"/>
+      <c r="C871" s="27"/>
       <c r="H871" s="12"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="26"/>
-      <c r="B872" s="26"/>
-      <c r="C872" s="26"/>
+      <c r="A872" s="27"/>
+      <c r="B872" s="27"/>
+      <c r="C872" s="27"/>
       <c r="H872" s="12"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="26"/>
-      <c r="B873" s="26"/>
-      <c r="C873" s="26"/>
+      <c r="A873" s="27"/>
+      <c r="B873" s="27"/>
+      <c r="C873" s="27"/>
       <c r="H873" s="12"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="26"/>
-      <c r="B874" s="26"/>
-      <c r="C874" s="26"/>
+      <c r="A874" s="27"/>
+      <c r="B874" s="27"/>
+      <c r="C874" s="27"/>
       <c r="H874" s="12"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="26"/>
-      <c r="B875" s="26"/>
-      <c r="C875" s="26"/>
+      <c r="A875" s="27"/>
+      <c r="B875" s="27"/>
+      <c r="C875" s="27"/>
       <c r="H875" s="12"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="26"/>
-      <c r="B876" s="26"/>
-      <c r="C876" s="26"/>
+      <c r="A876" s="27"/>
+      <c r="B876" s="27"/>
+      <c r="C876" s="27"/>
       <c r="H876" s="12"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="26"/>
-      <c r="B877" s="26"/>
-      <c r="C877" s="26"/>
+      <c r="A877" s="27"/>
+      <c r="B877" s="27"/>
+      <c r="C877" s="27"/>
       <c r="H877" s="12"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="26"/>
-      <c r="B878" s="26"/>
-      <c r="C878" s="26"/>
+      <c r="A878" s="27"/>
+      <c r="B878" s="27"/>
+      <c r="C878" s="27"/>
       <c r="H878" s="12"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="26"/>
-      <c r="B879" s="26"/>
-      <c r="C879" s="26"/>
+      <c r="A879" s="27"/>
+      <c r="B879" s="27"/>
+      <c r="C879" s="27"/>
       <c r="H879" s="12"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="26"/>
-      <c r="B880" s="26"/>
-      <c r="C880" s="26"/>
+      <c r="A880" s="27"/>
+      <c r="B880" s="27"/>
+      <c r="C880" s="27"/>
       <c r="H880" s="12"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="26"/>
-      <c r="B881" s="26"/>
-      <c r="C881" s="26"/>
+      <c r="A881" s="27"/>
+      <c r="B881" s="27"/>
+      <c r="C881" s="27"/>
       <c r="H881" s="12"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="26"/>
-      <c r="B882" s="26"/>
-      <c r="C882" s="26"/>
+      <c r="A882" s="27"/>
+      <c r="B882" s="27"/>
+      <c r="C882" s="27"/>
       <c r="H882" s="12"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="26"/>
-      <c r="B883" s="26"/>
-      <c r="C883" s="26"/>
+      <c r="A883" s="27"/>
+      <c r="B883" s="27"/>
+      <c r="C883" s="27"/>
       <c r="H883" s="12"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="26"/>
-      <c r="B884" s="26"/>
-      <c r="C884" s="26"/>
+      <c r="A884" s="27"/>
+      <c r="B884" s="27"/>
+      <c r="C884" s="27"/>
       <c r="H884" s="12"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="26"/>
-      <c r="B885" s="26"/>
-      <c r="C885" s="26"/>
+      <c r="A885" s="27"/>
+      <c r="B885" s="27"/>
+      <c r="C885" s="27"/>
       <c r="H885" s="12"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="26"/>
-      <c r="B886" s="26"/>
-      <c r="C886" s="26"/>
+      <c r="A886" s="27"/>
+      <c r="B886" s="27"/>
+      <c r="C886" s="27"/>
       <c r="H886" s="12"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="26"/>
-      <c r="B887" s="26"/>
-      <c r="C887" s="26"/>
+      <c r="A887" s="27"/>
+      <c r="B887" s="27"/>
+      <c r="C887" s="27"/>
       <c r="H887" s="12"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="26"/>
-      <c r="B888" s="26"/>
-      <c r="C888" s="26"/>
+      <c r="A888" s="27"/>
+      <c r="B888" s="27"/>
+      <c r="C888" s="27"/>
       <c r="H888" s="12"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="26"/>
-      <c r="B889" s="26"/>
-      <c r="C889" s="26"/>
+      <c r="A889" s="27"/>
+      <c r="B889" s="27"/>
+      <c r="C889" s="27"/>
       <c r="H889" s="12"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="26"/>
-      <c r="B890" s="26"/>
-      <c r="C890" s="26"/>
+      <c r="A890" s="27"/>
+      <c r="B890" s="27"/>
+      <c r="C890" s="27"/>
       <c r="H890" s="12"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="26"/>
-      <c r="B891" s="26"/>
-      <c r="C891" s="26"/>
+      <c r="A891" s="27"/>
+      <c r="B891" s="27"/>
+      <c r="C891" s="27"/>
       <c r="H891" s="12"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="26"/>
-      <c r="B892" s="26"/>
-      <c r="C892" s="26"/>
+      <c r="A892" s="27"/>
+      <c r="B892" s="27"/>
+      <c r="C892" s="27"/>
       <c r="H892" s="12"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="26"/>
-      <c r="B893" s="26"/>
-      <c r="C893" s="26"/>
+      <c r="A893" s="27"/>
+      <c r="B893" s="27"/>
+      <c r="C893" s="27"/>
       <c r="H893" s="12"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="26"/>
-      <c r="B894" s="26"/>
-      <c r="C894" s="26"/>
+      <c r="A894" s="27"/>
+      <c r="B894" s="27"/>
+      <c r="C894" s="27"/>
       <c r="H894" s="12"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="26"/>
-      <c r="B895" s="26"/>
-      <c r="C895" s="26"/>
+      <c r="A895" s="27"/>
+      <c r="B895" s="27"/>
+      <c r="C895" s="27"/>
       <c r="H895" s="12"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="26"/>
-      <c r="B896" s="26"/>
-      <c r="C896" s="26"/>
+      <c r="A896" s="27"/>
+      <c r="B896" s="27"/>
+      <c r="C896" s="27"/>
       <c r="H896" s="12"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="26"/>
-      <c r="B897" s="26"/>
-      <c r="C897" s="26"/>
+      <c r="A897" s="27"/>
+      <c r="B897" s="27"/>
+      <c r="C897" s="27"/>
       <c r="H897" s="12"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="26"/>
-      <c r="B898" s="26"/>
-      <c r="C898" s="26"/>
+      <c r="A898" s="27"/>
+      <c r="B898" s="27"/>
+      <c r="C898" s="27"/>
       <c r="H898" s="12"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="26"/>
-      <c r="B899" s="26"/>
-      <c r="C899" s="26"/>
+      <c r="A899" s="27"/>
+      <c r="B899" s="27"/>
+      <c r="C899" s="27"/>
       <c r="H899" s="12"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="26"/>
-      <c r="B900" s="26"/>
-      <c r="C900" s="26"/>
+      <c r="A900" s="27"/>
+      <c r="B900" s="27"/>
+      <c r="C900" s="27"/>
       <c r="H900" s="12"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="26"/>
-      <c r="B901" s="26"/>
-      <c r="C901" s="26"/>
+      <c r="A901" s="27"/>
+      <c r="B901" s="27"/>
+      <c r="C901" s="27"/>
       <c r="H901" s="12"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="26"/>
-      <c r="B902" s="26"/>
-      <c r="C902" s="26"/>
+      <c r="A902" s="27"/>
+      <c r="B902" s="27"/>
+      <c r="C902" s="27"/>
       <c r="H902" s="12"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="26"/>
-      <c r="B903" s="26"/>
-      <c r="C903" s="26"/>
+      <c r="A903" s="27"/>
+      <c r="B903" s="27"/>
+      <c r="C903" s="27"/>
       <c r="H903" s="12"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="26"/>
-      <c r="B904" s="26"/>
-      <c r="C904" s="26"/>
+      <c r="A904" s="27"/>
+      <c r="B904" s="27"/>
+      <c r="C904" s="27"/>
       <c r="H904" s="12"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="26"/>
-      <c r="B905" s="26"/>
-      <c r="C905" s="26"/>
+      <c r="A905" s="27"/>
+      <c r="B905" s="27"/>
+      <c r="C905" s="27"/>
       <c r="H905" s="12"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="26"/>
-      <c r="B906" s="26"/>
-      <c r="C906" s="26"/>
+      <c r="A906" s="27"/>
+      <c r="B906" s="27"/>
+      <c r="C906" s="27"/>
       <c r="H906" s="12"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="26"/>
-      <c r="B907" s="26"/>
-      <c r="C907" s="26"/>
+      <c r="A907" s="27"/>
+      <c r="B907" s="27"/>
+      <c r="C907" s="27"/>
       <c r="H907" s="12"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="26"/>
-      <c r="B908" s="26"/>
-      <c r="C908" s="26"/>
+      <c r="A908" s="27"/>
+      <c r="B908" s="27"/>
+      <c r="C908" s="27"/>
       <c r="H908" s="12"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="26"/>
-      <c r="B909" s="26"/>
-      <c r="C909" s="26"/>
+      <c r="A909" s="27"/>
+      <c r="B909" s="27"/>
+      <c r="C909" s="27"/>
       <c r="H909" s="12"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="26"/>
-      <c r="B910" s="26"/>
-      <c r="C910" s="26"/>
+      <c r="A910" s="27"/>
+      <c r="B910" s="27"/>
+      <c r="C910" s="27"/>
       <c r="H910" s="12"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="26"/>
-      <c r="B911" s="26"/>
-      <c r="C911" s="26"/>
+      <c r="A911" s="27"/>
+      <c r="B911" s="27"/>
+      <c r="C911" s="27"/>
       <c r="H911" s="12"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="26"/>
-      <c r="B912" s="26"/>
-      <c r="C912" s="26"/>
+      <c r="A912" s="27"/>
+      <c r="B912" s="27"/>
+      <c r="C912" s="27"/>
       <c r="H912" s="12"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="26"/>
-      <c r="B913" s="26"/>
-      <c r="C913" s="26"/>
+      <c r="A913" s="27"/>
+      <c r="B913" s="27"/>
+      <c r="C913" s="27"/>
       <c r="H913" s="12"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="26"/>
-      <c r="B914" s="26"/>
-      <c r="C914" s="26"/>
+      <c r="A914" s="27"/>
+      <c r="B914" s="27"/>
+      <c r="C914" s="27"/>
       <c r="H914" s="12"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="26"/>
-      <c r="B915" s="26"/>
-      <c r="C915" s="26"/>
+      <c r="A915" s="27"/>
+      <c r="B915" s="27"/>
+      <c r="C915" s="27"/>
       <c r="H915" s="12"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="26"/>
-      <c r="B916" s="26"/>
-      <c r="C916" s="26"/>
+      <c r="A916" s="27"/>
+      <c r="B916" s="27"/>
+      <c r="C916" s="27"/>
       <c r="H916" s="12"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="26"/>
-      <c r="B917" s="26"/>
-      <c r="C917" s="26"/>
+      <c r="A917" s="27"/>
+      <c r="B917" s="27"/>
+      <c r="C917" s="27"/>
       <c r="H917" s="12"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="26"/>
-      <c r="B918" s="26"/>
-      <c r="C918" s="26"/>
+      <c r="A918" s="27"/>
+      <c r="B918" s="27"/>
+      <c r="C918" s="27"/>
       <c r="H918" s="12"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="26"/>
-      <c r="B919" s="26"/>
-      <c r="C919" s="26"/>
+      <c r="A919" s="27"/>
+      <c r="B919" s="27"/>
+      <c r="C919" s="27"/>
       <c r="H919" s="12"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="26"/>
-      <c r="B920" s="26"/>
-      <c r="C920" s="26"/>
+      <c r="A920" s="27"/>
+      <c r="B920" s="27"/>
+      <c r="C920" s="27"/>
       <c r="H920" s="12"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="26"/>
-      <c r="B921" s="26"/>
-      <c r="C921" s="26"/>
+      <c r="A921" s="27"/>
+      <c r="B921" s="27"/>
+      <c r="C921" s="27"/>
       <c r="H921" s="12"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="26"/>
-      <c r="B922" s="26"/>
-      <c r="C922" s="26"/>
+      <c r="A922" s="27"/>
+      <c r="B922" s="27"/>
+      <c r="C922" s="27"/>
       <c r="H922" s="12"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="26"/>
-      <c r="B923" s="26"/>
-      <c r="C923" s="26"/>
+      <c r="A923" s="27"/>
+      <c r="B923" s="27"/>
+      <c r="C923" s="27"/>
       <c r="H923" s="12"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="26"/>
-      <c r="B924" s="26"/>
-      <c r="C924" s="26"/>
+      <c r="A924" s="27"/>
+      <c r="B924" s="27"/>
+      <c r="C924" s="27"/>
       <c r="H924" s="12"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="26"/>
-      <c r="B925" s="26"/>
-      <c r="C925" s="26"/>
+      <c r="A925" s="27"/>
+      <c r="B925" s="27"/>
+      <c r="C925" s="27"/>
       <c r="H925" s="12"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="26"/>
-      <c r="B926" s="26"/>
-      <c r="C926" s="26"/>
+      <c r="A926" s="27"/>
+      <c r="B926" s="27"/>
+      <c r="C926" s="27"/>
       <c r="H926" s="12"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="26"/>
-      <c r="B927" s="26"/>
-      <c r="C927" s="26"/>
+      <c r="A927" s="27"/>
+      <c r="B927" s="27"/>
+      <c r="C927" s="27"/>
       <c r="H927" s="12"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="26"/>
-      <c r="B928" s="26"/>
-      <c r="C928" s="26"/>
+      <c r="A928" s="27"/>
+      <c r="B928" s="27"/>
+      <c r="C928" s="27"/>
       <c r="H928" s="12"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="26"/>
-      <c r="B929" s="26"/>
-      <c r="C929" s="26"/>
+      <c r="A929" s="27"/>
+      <c r="B929" s="27"/>
+      <c r="C929" s="27"/>
       <c r="H929" s="12"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="26"/>
-      <c r="B930" s="26"/>
-      <c r="C930" s="26"/>
+      <c r="A930" s="27"/>
+      <c r="B930" s="27"/>
+      <c r="C930" s="27"/>
       <c r="H930" s="12"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="26"/>
-      <c r="B931" s="26"/>
-      <c r="C931" s="26"/>
+      <c r="A931" s="27"/>
+      <c r="B931" s="27"/>
+      <c r="C931" s="27"/>
       <c r="H931" s="12"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="26"/>
-      <c r="B932" s="26"/>
-      <c r="C932" s="26"/>
+      <c r="A932" s="27"/>
+      <c r="B932" s="27"/>
+      <c r="C932" s="27"/>
       <c r="H932" s="12"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="26"/>
-      <c r="B933" s="26"/>
-      <c r="C933" s="26"/>
+      <c r="A933" s="27"/>
+      <c r="B933" s="27"/>
+      <c r="C933" s="27"/>
       <c r="H933" s="12"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="26"/>
-      <c r="B934" s="26"/>
-      <c r="C934" s="26"/>
+      <c r="A934" s="27"/>
+      <c r="B934" s="27"/>
+      <c r="C934" s="27"/>
       <c r="H934" s="12"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="26"/>
-      <c r="B935" s="26"/>
-      <c r="C935" s="26"/>
+      <c r="A935" s="27"/>
+      <c r="B935" s="27"/>
+      <c r="C935" s="27"/>
       <c r="H935" s="12"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="26"/>
-      <c r="B936" s="26"/>
-      <c r="C936" s="26"/>
+      <c r="A936" s="27"/>
+      <c r="B936" s="27"/>
+      <c r="C936" s="27"/>
       <c r="H936" s="12"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="26"/>
-      <c r="B937" s="26"/>
-      <c r="C937" s="26"/>
+      <c r="A937" s="27"/>
+      <c r="B937" s="27"/>
+      <c r="C937" s="27"/>
       <c r="H937" s="12"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="26"/>
-      <c r="B938" s="26"/>
-      <c r="C938" s="26"/>
+      <c r="A938" s="27"/>
+      <c r="B938" s="27"/>
+      <c r="C938" s="27"/>
       <c r="H938" s="12"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="26"/>
-      <c r="B939" s="26"/>
-      <c r="C939" s="26"/>
+      <c r="A939" s="27"/>
+      <c r="B939" s="27"/>
+      <c r="C939" s="27"/>
       <c r="H939" s="12"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="26"/>
-      <c r="B940" s="26"/>
-      <c r="C940" s="26"/>
+      <c r="A940" s="27"/>
+      <c r="B940" s="27"/>
+      <c r="C940" s="27"/>
       <c r="H940" s="12"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="26"/>
-      <c r="B941" s="26"/>
-      <c r="C941" s="26"/>
+      <c r="A941" s="27"/>
+      <c r="B941" s="27"/>
+      <c r="C941" s="27"/>
       <c r="H941" s="12"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="26"/>
-      <c r="B942" s="26"/>
-      <c r="C942" s="26"/>
+      <c r="A942" s="27"/>
+      <c r="B942" s="27"/>
+      <c r="C942" s="27"/>
       <c r="H942" s="12"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="26"/>
-      <c r="B943" s="26"/>
-      <c r="C943" s="26"/>
+      <c r="A943" s="27"/>
+      <c r="B943" s="27"/>
+      <c r="C943" s="27"/>
       <c r="H943" s="12"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="26"/>
-      <c r="B944" s="26"/>
-      <c r="C944" s="26"/>
+      <c r="A944" s="27"/>
+      <c r="B944" s="27"/>
+      <c r="C944" s="27"/>
       <c r="H944" s="12"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="26"/>
-      <c r="B945" s="26"/>
-      <c r="C945" s="26"/>
+      <c r="A945" s="27"/>
+      <c r="B945" s="27"/>
+      <c r="C945" s="27"/>
       <c r="H945" s="12"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="26"/>
-      <c r="B946" s="26"/>
-      <c r="C946" s="26"/>
+      <c r="A946" s="27"/>
+      <c r="B946" s="27"/>
+      <c r="C946" s="27"/>
       <c r="H946" s="12"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="26"/>
-      <c r="B947" s="26"/>
-      <c r="C947" s="26"/>
+      <c r="A947" s="27"/>
+      <c r="B947" s="27"/>
+      <c r="C947" s="27"/>
       <c r="H947" s="12"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="26"/>
-      <c r="B948" s="26"/>
-      <c r="C948" s="26"/>
+      <c r="A948" s="27"/>
+      <c r="B948" s="27"/>
+      <c r="C948" s="27"/>
       <c r="H948" s="12"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="26"/>
-      <c r="B949" s="26"/>
-      <c r="C949" s="26"/>
+      <c r="A949" s="27"/>
+      <c r="B949" s="27"/>
+      <c r="C949" s="27"/>
       <c r="H949" s="12"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="26"/>
-      <c r="B950" s="26"/>
-      <c r="C950" s="26"/>
+      <c r="A950" s="27"/>
+      <c r="B950" s="27"/>
+      <c r="C950" s="27"/>
       <c r="H950" s="12"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="26"/>
-      <c r="B951" s="26"/>
-      <c r="C951" s="26"/>
+      <c r="A951" s="27"/>
+      <c r="B951" s="27"/>
+      <c r="C951" s="27"/>
       <c r="H951" s="12"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="26"/>
-      <c r="B952" s="26"/>
-      <c r="C952" s="26"/>
+      <c r="A952" s="27"/>
+      <c r="B952" s="27"/>
+      <c r="C952" s="27"/>
       <c r="H952" s="12"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="26"/>
-      <c r="B953" s="26"/>
-      <c r="C953" s="26"/>
+      <c r="A953" s="27"/>
+      <c r="B953" s="27"/>
+      <c r="C953" s="27"/>
       <c r="H953" s="12"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="26"/>
-      <c r="B954" s="26"/>
-      <c r="C954" s="26"/>
+      <c r="A954" s="27"/>
+      <c r="B954" s="27"/>
+      <c r="C954" s="27"/>
       <c r="H954" s="12"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="26"/>
-      <c r="B955" s="26"/>
-      <c r="C955" s="26"/>
+      <c r="A955" s="27"/>
+      <c r="B955" s="27"/>
+      <c r="C955" s="27"/>
       <c r="H955" s="12"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="26"/>
-      <c r="B956" s="26"/>
-      <c r="C956" s="26"/>
+      <c r="A956" s="27"/>
+      <c r="B956" s="27"/>
+      <c r="C956" s="27"/>
       <c r="H956" s="12"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="26"/>
-      <c r="B957" s="26"/>
-      <c r="C957" s="26"/>
+      <c r="A957" s="27"/>
+      <c r="B957" s="27"/>
+      <c r="C957" s="27"/>
       <c r="H957" s="12"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="26"/>
-      <c r="B958" s="26"/>
-      <c r="C958" s="26"/>
+      <c r="A958" s="27"/>
+      <c r="B958" s="27"/>
+      <c r="C958" s="27"/>
       <c r="H958" s="12"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="26"/>
-      <c r="B959" s="26"/>
-      <c r="C959" s="26"/>
+      <c r="A959" s="27"/>
+      <c r="B959" s="27"/>
+      <c r="C959" s="27"/>
       <c r="H959" s="12"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="26"/>
-      <c r="B960" s="26"/>
-      <c r="C960" s="26"/>
+      <c r="A960" s="27"/>
+      <c r="B960" s="27"/>
+      <c r="C960" s="27"/>
       <c r="H960" s="12"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="26"/>
-      <c r="B961" s="26"/>
-      <c r="C961" s="26"/>
+      <c r="A961" s="27"/>
+      <c r="B961" s="27"/>
+      <c r="C961" s="27"/>
       <c r="H961" s="12"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="26"/>
-      <c r="B962" s="26"/>
-      <c r="C962" s="26"/>
+      <c r="A962" s="27"/>
+      <c r="B962" s="27"/>
+      <c r="C962" s="27"/>
       <c r="H962" s="12"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="26"/>
-      <c r="B963" s="26"/>
-      <c r="C963" s="26"/>
+      <c r="A963" s="27"/>
+      <c r="B963" s="27"/>
+      <c r="C963" s="27"/>
       <c r="H963" s="12"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="26"/>
-      <c r="B964" s="26"/>
-      <c r="C964" s="26"/>
+      <c r="A964" s="27"/>
+      <c r="B964" s="27"/>
+      <c r="C964" s="27"/>
       <c r="H964" s="12"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="26"/>
-      <c r="B965" s="26"/>
-      <c r="C965" s="26"/>
+      <c r="A965" s="27"/>
+      <c r="B965" s="27"/>
+      <c r="C965" s="27"/>
       <c r="H965" s="12"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="26"/>
-      <c r="B966" s="26"/>
-      <c r="C966" s="26"/>
+      <c r="A966" s="27"/>
+      <c r="B966" s="27"/>
+      <c r="C966" s="27"/>
       <c r="H966" s="12"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="26"/>
-      <c r="B967" s="26"/>
-      <c r="C967" s="26"/>
+      <c r="A967" s="27"/>
+      <c r="B967" s="27"/>
+      <c r="C967" s="27"/>
       <c r="H967" s="12"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="26"/>
-      <c r="B968" s="26"/>
-      <c r="C968" s="26"/>
+      <c r="A968" s="27"/>
+      <c r="B968" s="27"/>
+      <c r="C968" s="27"/>
       <c r="H968" s="12"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="26"/>
-      <c r="B969" s="26"/>
-      <c r="C969" s="26"/>
+      <c r="A969" s="27"/>
+      <c r="B969" s="27"/>
+      <c r="C969" s="27"/>
       <c r="H969" s="12"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="26"/>
-      <c r="B970" s="26"/>
-      <c r="C970" s="26"/>
+      <c r="A970" s="27"/>
+      <c r="B970" s="27"/>
+      <c r="C970" s="27"/>
       <c r="H970" s="12"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="26"/>
-      <c r="B971" s="26"/>
-      <c r="C971" s="26"/>
+      <c r="A971" s="27"/>
+      <c r="B971" s="27"/>
+      <c r="C971" s="27"/>
       <c r="H971" s="12"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="26"/>
-      <c r="B972" s="26"/>
-      <c r="C972" s="26"/>
+      <c r="A972" s="27"/>
+      <c r="B972" s="27"/>
+      <c r="C972" s="27"/>
       <c r="H972" s="12"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="26"/>
-      <c r="B973" s="26"/>
-      <c r="C973" s="26"/>
+      <c r="A973" s="27"/>
+      <c r="B973" s="27"/>
+      <c r="C973" s="27"/>
       <c r="H973" s="12"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="26"/>
-      <c r="B974" s="26"/>
-      <c r="C974" s="26"/>
+      <c r="A974" s="27"/>
+      <c r="B974" s="27"/>
+      <c r="C974" s="27"/>
       <c r="H974" s="12"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="26"/>
-      <c r="B975" s="26"/>
-      <c r="C975" s="26"/>
+      <c r="A975" s="27"/>
+      <c r="B975" s="27"/>
+      <c r="C975" s="27"/>
       <c r="H975" s="12"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="26"/>
-      <c r="B976" s="26"/>
-      <c r="C976" s="26"/>
+      <c r="A976" s="27"/>
+      <c r="B976" s="27"/>
+      <c r="C976" s="27"/>
       <c r="H976" s="12"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="26"/>
-      <c r="B977" s="26"/>
-      <c r="C977" s="26"/>
+      <c r="A977" s="27"/>
+      <c r="B977" s="27"/>
+      <c r="C977" s="27"/>
       <c r="H977" s="12"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="26"/>
-      <c r="B978" s="26"/>
-      <c r="C978" s="26"/>
+      <c r="A978" s="27"/>
+      <c r="B978" s="27"/>
+      <c r="C978" s="27"/>
       <c r="H978" s="12"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="26"/>
-      <c r="B979" s="26"/>
-      <c r="C979" s="26"/>
+      <c r="A979" s="27"/>
+      <c r="B979" s="27"/>
+      <c r="C979" s="27"/>
       <c r="H979" s="12"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="26"/>
-      <c r="B980" s="26"/>
-      <c r="C980" s="26"/>
+      <c r="A980" s="27"/>
+      <c r="B980" s="27"/>
+      <c r="C980" s="27"/>
       <c r="H980" s="12"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="26"/>
-      <c r="B981" s="26"/>
-      <c r="C981" s="26"/>
+      <c r="A981" s="27"/>
+      <c r="B981" s="27"/>
+      <c r="C981" s="27"/>
       <c r="H981" s="12"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="26"/>
-      <c r="B982" s="26"/>
-      <c r="C982" s="26"/>
+      <c r="A982" s="27"/>
+      <c r="B982" s="27"/>
+      <c r="C982" s="27"/>
       <c r="H982" s="12"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="26"/>
-      <c r="B983" s="26"/>
-      <c r="C983" s="26"/>
+      <c r="A983" s="27"/>
+      <c r="B983" s="27"/>
+      <c r="C983" s="27"/>
       <c r="H983" s="12"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="26"/>
-      <c r="B984" s="26"/>
-      <c r="C984" s="26"/>
+      <c r="A984" s="27"/>
+      <c r="B984" s="27"/>
+      <c r="C984" s="27"/>
       <c r="H984" s="12"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="26"/>
-      <c r="B985" s="26"/>
-      <c r="C985" s="26"/>
+      <c r="A985" s="27"/>
+      <c r="B985" s="27"/>
+      <c r="C985" s="27"/>
       <c r="H985" s="12"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="26"/>
-      <c r="B986" s="26"/>
-      <c r="C986" s="26"/>
+      <c r="A986" s="27"/>
+      <c r="B986" s="27"/>
+      <c r="C986" s="27"/>
       <c r="H986" s="12"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="26"/>
-      <c r="B987" s="26"/>
-      <c r="C987" s="26"/>
+      <c r="A987" s="27"/>
+      <c r="B987" s="27"/>
+      <c r="C987" s="27"/>
       <c r="H987" s="12"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="26"/>
-      <c r="B988" s="26"/>
-      <c r="C988" s="26"/>
+      <c r="A988" s="27"/>
+      <c r="B988" s="27"/>
+      <c r="C988" s="27"/>
       <c r="H988" s="12"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="26"/>
-      <c r="B989" s="26"/>
-      <c r="C989" s="26"/>
+      <c r="A989" s="27"/>
+      <c r="B989" s="27"/>
+      <c r="C989" s="27"/>
       <c r="H989" s="12"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="26"/>
-      <c r="B990" s="26"/>
-      <c r="C990" s="26"/>
+      <c r="A990" s="27"/>
+      <c r="B990" s="27"/>
+      <c r="C990" s="27"/>
       <c r="H990" s="12"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="26"/>
-      <c r="B991" s="26"/>
-      <c r="C991" s="26"/>
+      <c r="A991" s="27"/>
+      <c r="B991" s="27"/>
+      <c r="C991" s="27"/>
       <c r="H991" s="12"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="26"/>
-      <c r="B992" s="26"/>
-      <c r="C992" s="26"/>
+      <c r="A992" s="27"/>
+      <c r="B992" s="27"/>
+      <c r="C992" s="27"/>
       <c r="H992" s="12"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="26"/>
-      <c r="B993" s="26"/>
-      <c r="C993" s="26"/>
+      <c r="A993" s="27"/>
+      <c r="B993" s="27"/>
+      <c r="C993" s="27"/>
       <c r="H993" s="12"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="26"/>
-      <c r="B994" s="26"/>
-      <c r="C994" s="26"/>
+      <c r="A994" s="27"/>
+      <c r="B994" s="27"/>
+      <c r="C994" s="27"/>
       <c r="H994" s="12"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="26"/>
-      <c r="B995" s="26"/>
-      <c r="C995" s="26"/>
+      <c r="A995" s="27"/>
+      <c r="B995" s="27"/>
+      <c r="C995" s="27"/>
       <c r="H995" s="12"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="26"/>
-      <c r="B996" s="26"/>
-      <c r="C996" s="26"/>
+      <c r="A996" s="27"/>
+      <c r="B996" s="27"/>
+      <c r="C996" s="27"/>
       <c r="H996" s="12"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="26"/>
-      <c r="B997" s="26"/>
-      <c r="C997" s="26"/>
+      <c r="A997" s="27"/>
+      <c r="B997" s="27"/>
+      <c r="C997" s="27"/>
       <c r="H997" s="12"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="26"/>
-      <c r="B998" s="26"/>
-      <c r="C998" s="26"/>
+      <c r="A998" s="27"/>
+      <c r="B998" s="27"/>
+      <c r="C998" s="27"/>
       <c r="H998" s="12"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="26"/>
-      <c r="B999" s="26"/>
-      <c r="C999" s="26"/>
+      <c r="A999" s="27"/>
+      <c r="B999" s="27"/>
+      <c r="C999" s="27"/>
       <c r="H999" s="12"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="26"/>
-      <c r="B1000" s="26"/>
-      <c r="C1000" s="26"/>
+      <c r="A1000" s="27"/>
+      <c r="B1000" s="27"/>
+      <c r="C1000" s="27"/>
       <c r="H1000" s="12"/>
     </row>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="26"/>
-      <c r="B1001" s="26"/>
-      <c r="C1001" s="26"/>
+      <c r="A1001" s="27"/>
+      <c r="B1001" s="27"/>
+      <c r="C1001" s="27"/>
       <c r="H1001" s="12"/>
     </row>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="26"/>
-      <c r="B1002" s="26"/>
-      <c r="C1002" s="26"/>
+      <c r="A1002" s="27"/>
+      <c r="B1002" s="27"/>
+      <c r="C1002" s="27"/>
       <c r="H1002" s="12"/>
     </row>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="26"/>
-      <c r="B1003" s="26"/>
-      <c r="C1003" s="26"/>
+      <c r="A1003" s="27"/>
+      <c r="B1003" s="27"/>
+      <c r="C1003" s="27"/>
       <c r="H1003" s="12"/>
     </row>
     <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="26"/>
-      <c r="B1004" s="26"/>
-      <c r="C1004" s="26"/>
+      <c r="A1004" s="27"/>
+      <c r="B1004" s="27"/>
+      <c r="C1004" s="27"/>
       <c r="H1004" s="12"/>
     </row>
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="26"/>
-      <c r="B1005" s="26"/>
-      <c r="C1005" s="26"/>
+      <c r="A1005" s="27"/>
+      <c r="B1005" s="27"/>
+      <c r="C1005" s="27"/>
       <c r="H1005" s="12"/>
     </row>
     <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="26"/>
-      <c r="B1006" s="26"/>
-      <c r="C1006" s="26"/>
+      <c r="A1006" s="27"/>
+      <c r="B1006" s="27"/>
+      <c r="C1006" s="27"/>
       <c r="H1006" s="12"/>
     </row>
     <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="26"/>
-      <c r="B1007" s="26"/>
-      <c r="C1007" s="26"/>
+      <c r="A1007" s="27"/>
+      <c r="B1007" s="27"/>
+      <c r="C1007" s="27"/>
       <c r="H1007" s="12"/>
     </row>
     <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="26"/>
-      <c r="B1008" s="26"/>
-      <c r="C1008" s="26"/>
+      <c r="A1008" s="27"/>
+      <c r="B1008" s="27"/>
+      <c r="C1008" s="27"/>
       <c r="H1008" s="12"/>
     </row>
     <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="26"/>
-      <c r="B1009" s="26"/>
-      <c r="C1009" s="26"/>
+      <c r="A1009" s="27"/>
+      <c r="B1009" s="27"/>
+      <c r="C1009" s="27"/>
       <c r="H1009" s="12"/>
     </row>
     <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="26"/>
-      <c r="B1010" s="26"/>
-      <c r="C1010" s="26"/>
+      <c r="A1010" s="27"/>
+      <c r="B1010" s="27"/>
+      <c r="C1010" s="27"/>
       <c r="H1010" s="12"/>
     </row>
     <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="26"/>
-      <c r="B1011" s="26"/>
-      <c r="C1011" s="26"/>
+      <c r="A1011" s="27"/>
+      <c r="B1011" s="27"/>
+      <c r="C1011" s="27"/>
       <c r="H1011" s="12"/>
     </row>
     <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="26"/>
-      <c r="B1012" s="26"/>
-      <c r="C1012" s="26"/>
+      <c r="A1012" s="27"/>
+      <c r="B1012" s="27"/>
+      <c r="C1012" s="27"/>
       <c r="H1012" s="12"/>
     </row>
     <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="26"/>
-      <c r="B1013" s="26"/>
-      <c r="C1013" s="26"/>
+      <c r="A1013" s="27"/>
+      <c r="B1013" s="27"/>
+      <c r="C1013" s="27"/>
       <c r="H1013" s="12"/>
     </row>
     <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="26"/>
-      <c r="B1014" s="26"/>
-      <c r="C1014" s="26"/>
+      <c r="A1014" s="27"/>
+      <c r="B1014" s="27"/>
+      <c r="C1014" s="27"/>
       <c r="H1014" s="12"/>
     </row>
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="26"/>
-      <c r="B1015" s="26"/>
-      <c r="C1015" s="26"/>
+      <c r="A1015" s="27"/>
+      <c r="B1015" s="27"/>
+      <c r="C1015" s="27"/>
       <c r="H1015" s="12"/>
     </row>
     <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="26"/>
-      <c r="B1016" s="26"/>
-      <c r="C1016" s="26"/>
+      <c r="A1016" s="27"/>
+      <c r="B1016" s="27"/>
+      <c r="C1016" s="27"/>
       <c r="H1016" s="12"/>
     </row>
     <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="26"/>
-      <c r="B1017" s="26"/>
-      <c r="C1017" s="26"/>
+      <c r="A1017" s="27"/>
+      <c r="B1017" s="27"/>
+      <c r="C1017" s="27"/>
       <c r="H1017" s="12"/>
     </row>
     <row r="1018" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="26"/>
-      <c r="B1018" s="26"/>
-      <c r="C1018" s="26"/>
+      <c r="A1018" s="27"/>
+      <c r="B1018" s="27"/>
+      <c r="C1018" s="27"/>
       <c r="H1018" s="12"/>
     </row>
     <row r="1019" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="26"/>
-      <c r="B1019" s="26"/>
-      <c r="C1019" s="26"/>
+      <c r="A1019" s="27"/>
+      <c r="B1019" s="27"/>
+      <c r="C1019" s="27"/>
       <c r="H1019" s="12"/>
     </row>
     <row r="1020" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="26"/>
-      <c r="B1020" s="26"/>
-      <c r="C1020" s="26"/>
+      <c r="A1020" s="27"/>
+      <c r="B1020" s="27"/>
+      <c r="C1020" s="27"/>
       <c r="H1020" s="12"/>
     </row>
     <row r="1021" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="26"/>
-      <c r="B1021" s="26"/>
-      <c r="C1021" s="26"/>
+      <c r="A1021" s="27"/>
+      <c r="B1021" s="27"/>
+      <c r="C1021" s="27"/>
       <c r="H1021" s="12"/>
     </row>
     <row r="1022" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1022" s="26"/>
-      <c r="B1022" s="26"/>
-      <c r="C1022" s="26"/>
+      <c r="A1022" s="27"/>
+      <c r="B1022" s="27"/>
+      <c r="C1022" s="27"/>
       <c r="H1022" s="12"/>
     </row>
     <row r="1023" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="26"/>
-      <c r="B1023" s="26"/>
-      <c r="C1023" s="26"/>
+      <c r="A1023" s="27"/>
+      <c r="B1023" s="27"/>
+      <c r="C1023" s="27"/>
       <c r="H1023" s="12"/>
     </row>
     <row r="1024" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1024" s="26"/>
-      <c r="B1024" s="26"/>
-      <c r="C1024" s="26"/>
+      <c r="A1024" s="27"/>
+      <c r="B1024" s="27"/>
+      <c r="C1024" s="27"/>
       <c r="H1024" s="12"/>
     </row>
     <row r="1025" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1025" s="26"/>
-      <c r="B1025" s="26"/>
-      <c r="C1025" s="26"/>
+      <c r="A1025" s="27"/>
+      <c r="B1025" s="27"/>
+      <c r="C1025" s="27"/>
       <c r="H1025" s="12"/>
     </row>
     <row r="1026" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1026" s="26"/>
-      <c r="B1026" s="26"/>
-      <c r="C1026" s="26"/>
+      <c r="A1026" s="27"/>
+      <c r="B1026" s="27"/>
+      <c r="C1026" s="27"/>
       <c r="H1026" s="12"/>
     </row>
     <row r="1027" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1027" s="26"/>
-      <c r="B1027" s="26"/>
-      <c r="C1027" s="26"/>
+      <c r="A1027" s="27"/>
+      <c r="B1027" s="27"/>
+      <c r="C1027" s="27"/>
       <c r="H1027" s="12"/>
     </row>
     <row r="1028" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="26"/>
-      <c r="B1028" s="26"/>
-      <c r="C1028" s="26"/>
+      <c r="A1028" s="27"/>
+      <c r="B1028" s="27"/>
+      <c r="C1028" s="27"/>
       <c r="H1028" s="12"/>
     </row>
     <row r="1029" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="26"/>
-      <c r="B1029" s="26"/>
-      <c r="C1029" s="26"/>
+      <c r="A1029" s="27"/>
+      <c r="B1029" s="27"/>
+      <c r="C1029" s="27"/>
       <c r="H1029" s="12"/>
     </row>
     <row r="1030" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="26"/>
-      <c r="B1030" s="26"/>
-      <c r="C1030" s="26"/>
+      <c r="A1030" s="27"/>
+      <c r="B1030" s="27"/>
+      <c r="C1030" s="27"/>
       <c r="H1030" s="12"/>
     </row>
     <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="26"/>
-      <c r="B1031" s="26"/>
-      <c r="C1031" s="26"/>
+      <c r="A1031" s="27"/>
+      <c r="B1031" s="27"/>
+      <c r="C1031" s="27"/>
       <c r="H1031" s="12"/>
     </row>
     <row r="1032" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="26"/>
-      <c r="B1032" s="26"/>
-      <c r="C1032" s="26"/>
+      <c r="A1032" s="27"/>
+      <c r="B1032" s="27"/>
+      <c r="C1032" s="27"/>
       <c r="H1032" s="12"/>
     </row>
     <row r="1033" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1033" s="26"/>
-      <c r="B1033" s="26"/>
-      <c r="C1033" s="26"/>
+      <c r="A1033" s="27"/>
+      <c r="B1033" s="27"/>
+      <c r="C1033" s="27"/>
       <c r="H1033" s="12"/>
     </row>
     <row r="1034" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="26"/>
-      <c r="B1034" s="26"/>
-      <c r="C1034" s="26"/>
+      <c r="A1034" s="27"/>
+      <c r="B1034" s="27"/>
+      <c r="C1034" s="27"/>
       <c r="H1034" s="12"/>
     </row>
     <row r="1035" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="26"/>
-      <c r="B1035" s="26"/>
-      <c r="C1035" s="26"/>
+      <c r="A1035" s="27"/>
+      <c r="B1035" s="27"/>
+      <c r="C1035" s="27"/>
       <c r="H1035" s="12"/>
     </row>
     <row r="1036" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1036" s="26"/>
-      <c r="B1036" s="26"/>
-      <c r="C1036" s="26"/>
+      <c r="A1036" s="27"/>
+      <c r="B1036" s="27"/>
+      <c r="C1036" s="27"/>
       <c r="H1036" s="12"/>
     </row>
     <row r="1037" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1037" s="26"/>
-      <c r="B1037" s="26"/>
-      <c r="C1037" s="26"/>
+      <c r="A1037" s="27"/>
+      <c r="B1037" s="27"/>
+      <c r="C1037" s="27"/>
       <c r="H1037" s="12"/>
     </row>
     <row r="1038" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1038" s="26"/>
-      <c r="B1038" s="26"/>
-      <c r="C1038" s="26"/>
+      <c r="A1038" s="27"/>
+      <c r="B1038" s="27"/>
+      <c r="C1038" s="27"/>
       <c r="H1038" s="12"/>
     </row>
     <row r="1039" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1039" s="26"/>
-      <c r="B1039" s="26"/>
-      <c r="C1039" s="26"/>
+      <c r="A1039" s="27"/>
+      <c r="B1039" s="27"/>
+      <c r="C1039" s="27"/>
       <c r="H1039" s="12"/>
     </row>
     <row r="1040" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1040" s="26"/>
-      <c r="B1040" s="26"/>
-      <c r="C1040" s="26"/>
+      <c r="A1040" s="27"/>
+      <c r="B1040" s="27"/>
+      <c r="C1040" s="27"/>
       <c r="H1040" s="12"/>
     </row>
     <row r="1041" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1041" s="26"/>
-      <c r="B1041" s="26"/>
-      <c r="C1041" s="26"/>
+      <c r="A1041" s="27"/>
+      <c r="B1041" s="27"/>
+      <c r="C1041" s="27"/>
       <c r="H1041" s="12"/>
     </row>
     <row r="1042" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1042" s="26"/>
-      <c r="B1042" s="26"/>
-      <c r="C1042" s="26"/>
+      <c r="A1042" s="27"/>
+      <c r="B1042" s="27"/>
+      <c r="C1042" s="27"/>
       <c r="H1042" s="12"/>
     </row>
     <row r="1043" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1043" s="26"/>
-      <c r="B1043" s="26"/>
-      <c r="C1043" s="26"/>
+      <c r="A1043" s="27"/>
+      <c r="B1043" s="27"/>
+      <c r="C1043" s="27"/>
       <c r="H1043" s="12"/>
     </row>
     <row r="1044" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1044" s="26"/>
-      <c r="B1044" s="26"/>
-      <c r="C1044" s="26"/>
+      <c r="A1044" s="27"/>
+      <c r="B1044" s="27"/>
+      <c r="C1044" s="27"/>
       <c r="H1044" s="12"/>
     </row>
     <row r="1045" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1045" s="26"/>
-      <c r="B1045" s="26"/>
-      <c r="C1045" s="26"/>
+      <c r="A1045" s="27"/>
+      <c r="B1045" s="27"/>
+      <c r="C1045" s="27"/>
       <c r="H1045" s="12"/>
     </row>
     <row r="1046" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1046" s="26"/>
-      <c r="B1046" s="26"/>
-      <c r="C1046" s="26"/>
+      <c r="A1046" s="27"/>
+      <c r="B1046" s="27"/>
+      <c r="C1046" s="27"/>
       <c r="H1046" s="12"/>
     </row>
     <row r="1047" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1047" s="26"/>
-      <c r="B1047" s="26"/>
-      <c r="C1047" s="26"/>
+      <c r="A1047" s="27"/>
+      <c r="B1047" s="27"/>
+      <c r="C1047" s="27"/>
       <c r="H1047" s="12"/>
     </row>
     <row r="1048" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1048" s="26"/>
-      <c r="B1048" s="26"/>
-      <c r="C1048" s="26"/>
+      <c r="A1048" s="27"/>
+      <c r="B1048" s="27"/>
+      <c r="C1048" s="27"/>
       <c r="H1048" s="12"/>
     </row>
     <row r="1049" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1049" s="26"/>
-      <c r="B1049" s="26"/>
-      <c r="C1049" s="26"/>
+      <c r="A1049" s="27"/>
+      <c r="B1049" s="27"/>
+      <c r="C1049" s="27"/>
       <c r="H1049" s="12"/>
     </row>
     <row r="1050" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1050" s="26"/>
-      <c r="B1050" s="26"/>
-      <c r="C1050" s="26"/>
+      <c r="A1050" s="27"/>
+      <c r="B1050" s="27"/>
+      <c r="C1050" s="27"/>
       <c r="H1050" s="12"/>
     </row>
     <row r="1051" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1051" s="26"/>
-      <c r="B1051" s="26"/>
-      <c r="C1051" s="26"/>
+      <c r="A1051" s="27"/>
+      <c r="B1051" s="27"/>
+      <c r="C1051" s="27"/>
       <c r="H1051" s="12"/>
     </row>
     <row r="1052" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1052" s="26"/>
-      <c r="B1052" s="26"/>
-      <c r="C1052" s="26"/>
+      <c r="A1052" s="27"/>
+      <c r="B1052" s="27"/>
+      <c r="C1052" s="27"/>
       <c r="H1052" s="12"/>
     </row>
     <row r="1053" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1053" s="26"/>
-      <c r="B1053" s="26"/>
-      <c r="C1053" s="26"/>
+      <c r="A1053" s="27"/>
+      <c r="B1053" s="27"/>
+      <c r="C1053" s="27"/>
       <c r="H1053" s="12"/>
     </row>
     <row r="1054" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1054" s="26"/>
-      <c r="B1054" s="26"/>
-      <c r="C1054" s="26"/>
+      <c r="A1054" s="27"/>
+      <c r="B1054" s="27"/>
+      <c r="C1054" s="27"/>
       <c r="H1054" s="12"/>
     </row>
     <row r="1055" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1055" s="26"/>
-      <c r="B1055" s="26"/>
-      <c r="C1055" s="26"/>
+      <c r="A1055" s="27"/>
+      <c r="B1055" s="27"/>
+      <c r="C1055" s="27"/>
       <c r="H1055" s="12"/>
     </row>
     <row r="1056" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1056" s="26"/>
-      <c r="B1056" s="26"/>
-      <c r="C1056" s="26"/>
+      <c r="A1056" s="27"/>
+      <c r="B1056" s="27"/>
+      <c r="C1056" s="27"/>
       <c r="H1056" s="12"/>
     </row>
     <row r="1057" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1057" s="26"/>
-      <c r="B1057" s="26"/>
-      <c r="C1057" s="26"/>
+      <c r="A1057" s="27"/>
+      <c r="B1057" s="27"/>
+      <c r="C1057" s="27"/>
       <c r="H1057" s="12"/>
     </row>
     <row r="1058" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1058" s="26"/>
-      <c r="B1058" s="26"/>
-      <c r="C1058" s="26"/>
+      <c r="A1058" s="27"/>
+      <c r="B1058" s="27"/>
+      <c r="C1058" s="27"/>
       <c r="H1058" s="12"/>
     </row>
     <row r="1059" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1059" s="26"/>
-      <c r="B1059" s="26"/>
-      <c r="C1059" s="26"/>
+      <c r="A1059" s="27"/>
+      <c r="B1059" s="27"/>
+      <c r="C1059" s="27"/>
       <c r="H1059" s="12"/>
     </row>
     <row r="1060" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1060" s="26"/>
-      <c r="B1060" s="26"/>
-      <c r="C1060" s="26"/>
+      <c r="A1060" s="27"/>
+      <c r="B1060" s="27"/>
+      <c r="C1060" s="27"/>
       <c r="H1060" s="12"/>
     </row>
     <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1061" s="26"/>
-      <c r="B1061" s="26"/>
-      <c r="C1061" s="26"/>
+      <c r="A1061" s="27"/>
+      <c r="B1061" s="27"/>
+      <c r="C1061" s="27"/>
       <c r="H1061" s="12"/>
     </row>
     <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1062" s="26"/>
-      <c r="B1062" s="26"/>
-      <c r="C1062" s="26"/>
+      <c r="A1062" s="27"/>
+      <c r="B1062" s="27"/>
+      <c r="C1062" s="27"/>
       <c r="H1062" s="12"/>
     </row>
     <row r="1063" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1063" s="26"/>
-      <c r="B1063" s="26"/>
-      <c r="C1063" s="26"/>
+      <c r="A1063" s="27"/>
+      <c r="B1063" s="27"/>
+      <c r="C1063" s="27"/>
       <c r="H1063" s="12"/>
     </row>
     <row r="1064" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1064" s="26"/>
-      <c r="B1064" s="26"/>
-      <c r="C1064" s="26"/>
+      <c r="A1064" s="27"/>
+      <c r="B1064" s="27"/>
+      <c r="C1064" s="27"/>
       <c r="H1064" s="12"/>
     </row>
     <row r="1065" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1065" s="26"/>
-      <c r="B1065" s="26"/>
-      <c r="C1065" s="26"/>
+      <c r="A1065" s="27"/>
+      <c r="B1065" s="27"/>
+      <c r="C1065" s="27"/>
       <c r="H1065" s="12"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8750,71 +8754,72 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="link"/>
     <hyperlink ref="E5" r:id="rId2" display="link"/>
-    <hyperlink ref="E6" r:id="rId3" display="link"/>
-    <hyperlink ref="H6" r:id="rId4" display="Linked screen is to a raspberry pi 4. Be sure to select a touchscreen that fits your Raspberry Pi or Libre Computer. You will also need to download drivers that match your screen. The linked screen uses goodtft’s LCDshow."/>
-    <hyperlink ref="E7" r:id="rId5" display="link"/>
-    <hyperlink ref="F7" r:id="rId6" display="link2"/>
-    <hyperlink ref="E8" r:id="rId7" display="link"/>
-    <hyperlink ref="F8" r:id="rId8" display="link2"/>
-    <hyperlink ref="E9" r:id="rId9" display="link"/>
-    <hyperlink ref="E10" r:id="rId10" display="link"/>
-    <hyperlink ref="E11" r:id="rId11" display="link"/>
-    <hyperlink ref="E12" r:id="rId12" display="link"/>
-    <hyperlink ref="E13" r:id="rId13" display="link"/>
-    <hyperlink ref="E14" r:id="rId14" display="link"/>
-    <hyperlink ref="E15" r:id="rId15" display="link"/>
-    <hyperlink ref="E17" r:id="rId16" display="link"/>
-    <hyperlink ref="E18" r:id="rId17" display="link"/>
-    <hyperlink ref="E25" r:id="rId18" display="link"/>
-    <hyperlink ref="E26" r:id="rId19" display="link"/>
-    <hyperlink ref="E27" r:id="rId20" display="link"/>
-    <hyperlink ref="E28" r:id="rId21" display="link"/>
-    <hyperlink ref="E29" r:id="rId22" display="link"/>
-    <hyperlink ref="E30" r:id="rId23" display="link"/>
-    <hyperlink ref="E31" r:id="rId24" display="link"/>
-    <hyperlink ref="E32" r:id="rId25" display="link"/>
-    <hyperlink ref="E33" r:id="rId26" display="link"/>
-    <hyperlink ref="E34" r:id="rId27" display="6oz link"/>
-    <hyperlink ref="F34" r:id="rId28" display="16oz link"/>
-    <hyperlink ref="E35" r:id="rId29" display="link"/>
-    <hyperlink ref="E36" r:id="rId30" display="link"/>
-    <hyperlink ref="E38" r:id="rId31" display="link"/>
-    <hyperlink ref="E39" r:id="rId32" display="link"/>
-    <hyperlink ref="E40" r:id="rId33" display="link"/>
-    <hyperlink ref="E45" r:id="rId34" display="link"/>
-    <hyperlink ref="E46" r:id="rId35" display="link"/>
-    <hyperlink ref="E47" r:id="rId36" display="link"/>
-    <hyperlink ref="E48" r:id="rId37" display="link"/>
-    <hyperlink ref="E49" r:id="rId38" display="link"/>
-    <hyperlink ref="E50" r:id="rId39" display="link"/>
-    <hyperlink ref="E51" r:id="rId40" display="link"/>
-    <hyperlink ref="E52" r:id="rId41" display="link"/>
-    <hyperlink ref="E53" r:id="rId42" display="link"/>
-    <hyperlink ref="F53" r:id="rId43" display="link"/>
-    <hyperlink ref="E54" r:id="rId44" display="link"/>
-    <hyperlink ref="E55" r:id="rId45" display="link"/>
-    <hyperlink ref="E56" r:id="rId46" display="link"/>
-    <hyperlink ref="E60" r:id="rId47" display="link"/>
-    <hyperlink ref="E61" r:id="rId48" display="link"/>
-    <hyperlink ref="E65" r:id="rId49" display="link"/>
-    <hyperlink ref="H65" r:id="rId50" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="E66" r:id="rId51" display="link"/>
-    <hyperlink ref="E67" r:id="rId52" display="link"/>
-    <hyperlink ref="E70" r:id="rId53" display="printed"/>
-    <hyperlink ref="E71" r:id="rId54" display="printed"/>
-    <hyperlink ref="E72" r:id="rId55" display="printed"/>
-    <hyperlink ref="E73" r:id="rId56" display="link"/>
-    <hyperlink ref="F73" r:id="rId57" display="6oz link"/>
-    <hyperlink ref="E74" r:id="rId58" display="link"/>
-    <hyperlink ref="E77" r:id="rId59" display="link"/>
-    <hyperlink ref="E83" r:id="rId60" display="link"/>
-    <hyperlink ref="E84" r:id="rId61" display="link"/>
-    <hyperlink ref="E85" r:id="rId62" display="link"/>
-    <hyperlink ref="E87" r:id="rId63" display="link"/>
-    <hyperlink ref="E88" r:id="rId64" display="link"/>
-    <hyperlink ref="E89" r:id="rId65" display="link 3 corner"/>
-    <hyperlink ref="F89" r:id="rId66" display="link 2 corner"/>
-    <hyperlink ref="E92" r:id="rId67" display="link"/>
+    <hyperlink ref="H5" r:id="rId3" display="USB DS18B20"/>
+    <hyperlink ref="E6" r:id="rId4" display="link"/>
+    <hyperlink ref="H6" r:id="rId5" display="Linked screen is to a raspberry pi 4. Be sure to select a touchscreen that fits your Raspberry Pi or Libre Computer. You will also need to download drivers that match your screen. The linked screen uses goodtft’s LCDshow."/>
+    <hyperlink ref="E7" r:id="rId6" display="link"/>
+    <hyperlink ref="F7" r:id="rId7" display="link2"/>
+    <hyperlink ref="E8" r:id="rId8" display="link"/>
+    <hyperlink ref="F8" r:id="rId9" display="link2"/>
+    <hyperlink ref="E9" r:id="rId10" display="link"/>
+    <hyperlink ref="E10" r:id="rId11" display="link"/>
+    <hyperlink ref="E11" r:id="rId12" display="link"/>
+    <hyperlink ref="E12" r:id="rId13" display="link"/>
+    <hyperlink ref="E13" r:id="rId14" display="link"/>
+    <hyperlink ref="E14" r:id="rId15" display="link"/>
+    <hyperlink ref="E15" r:id="rId16" display="link"/>
+    <hyperlink ref="E17" r:id="rId17" display="link"/>
+    <hyperlink ref="E18" r:id="rId18" display="link"/>
+    <hyperlink ref="E25" r:id="rId19" display="link"/>
+    <hyperlink ref="E26" r:id="rId20" display="link"/>
+    <hyperlink ref="E27" r:id="rId21" display="link"/>
+    <hyperlink ref="E28" r:id="rId22" display="link"/>
+    <hyperlink ref="E29" r:id="rId23" display="link"/>
+    <hyperlink ref="E30" r:id="rId24" display="link"/>
+    <hyperlink ref="E31" r:id="rId25" display="link"/>
+    <hyperlink ref="E32" r:id="rId26" display="link"/>
+    <hyperlink ref="E33" r:id="rId27" display="link"/>
+    <hyperlink ref="E34" r:id="rId28" display="6oz link"/>
+    <hyperlink ref="F34" r:id="rId29" display="16oz link"/>
+    <hyperlink ref="E35" r:id="rId30" display="link"/>
+    <hyperlink ref="E36" r:id="rId31" display="link"/>
+    <hyperlink ref="E38" r:id="rId32" display="link"/>
+    <hyperlink ref="E39" r:id="rId33" display="link"/>
+    <hyperlink ref="E40" r:id="rId34" display="link"/>
+    <hyperlink ref="E45" r:id="rId35" display="link"/>
+    <hyperlink ref="E46" r:id="rId36" display="link"/>
+    <hyperlink ref="E47" r:id="rId37" display="link"/>
+    <hyperlink ref="E48" r:id="rId38" display="link"/>
+    <hyperlink ref="E49" r:id="rId39" display="link"/>
+    <hyperlink ref="E50" r:id="rId40" display="link"/>
+    <hyperlink ref="E51" r:id="rId41" display="link"/>
+    <hyperlink ref="E52" r:id="rId42" display="link"/>
+    <hyperlink ref="E53" r:id="rId43" display="link"/>
+    <hyperlink ref="F53" r:id="rId44" display="link"/>
+    <hyperlink ref="E54" r:id="rId45" display="link"/>
+    <hyperlink ref="E55" r:id="rId46" display="link"/>
+    <hyperlink ref="E56" r:id="rId47" display="link"/>
+    <hyperlink ref="E60" r:id="rId48" display="link"/>
+    <hyperlink ref="E61" r:id="rId49" display="link"/>
+    <hyperlink ref="E65" r:id="rId50" display="link"/>
+    <hyperlink ref="H65" r:id="rId51" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
+    <hyperlink ref="E66" r:id="rId52" display="link"/>
+    <hyperlink ref="E67" r:id="rId53" display="link"/>
+    <hyperlink ref="E70" r:id="rId54" display="printed"/>
+    <hyperlink ref="E71" r:id="rId55" display="printed"/>
+    <hyperlink ref="E72" r:id="rId56" display="printed"/>
+    <hyperlink ref="E73" r:id="rId57" display="link"/>
+    <hyperlink ref="F73" r:id="rId58" display="6oz link"/>
+    <hyperlink ref="E74" r:id="rId59" display="link"/>
+    <hyperlink ref="E77" r:id="rId60" display="link"/>
+    <hyperlink ref="E83" r:id="rId61" display="link"/>
+    <hyperlink ref="E84" r:id="rId62" display="link"/>
+    <hyperlink ref="E85" r:id="rId63" display="link"/>
+    <hyperlink ref="E87" r:id="rId64" display="link"/>
+    <hyperlink ref="E88" r:id="rId65" display="link"/>
+    <hyperlink ref="E89" r:id="rId66" display="link 3 corner"/>
+    <hyperlink ref="F89" r:id="rId67" display="link 2 corner"/>
+    <hyperlink ref="E92" r:id="rId68" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8823,7 +8828,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId68"/>
+  <drawing r:id="rId69"/>
 </worksheet>
 </file>
 
@@ -8835,10 +8840,10 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="H33 G25 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>
@@ -8949,7 +8954,7 @@
       <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="28" t="s">
         <v>247</v>
       </c>
       <c r="I4" s="13" t="n">
@@ -9077,7 +9082,7 @@
       <c r="D9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>258</v>
       </c>
       <c r="H9" s="12"/>
@@ -9616,7 +9621,7 @@
       <c r="C31" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="29"/>
       <c r="H31" s="12"/>
       <c r="I31" s="15"/>
     </row>
@@ -9628,7 +9633,7 @@
       <c r="C32" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="28"/>
+      <c r="E32" s="29"/>
       <c r="H32" s="12"/>
       <c r="I32" s="15"/>
     </row>
@@ -9640,7 +9645,7 @@
       <c r="C33" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E33" s="28"/>
+      <c r="E33" s="29"/>
       <c r="H33" s="12"/>
       <c r="I33" s="15"/>
     </row>
@@ -9791,7 +9796,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="9" t="s">
         <v>302</v>
       </c>
@@ -9812,7 +9817,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="9" t="s">
         <v>305</v>
       </c>
@@ -9826,10 +9831,10 @@
         <v>12</v>
       </c>
       <c r="H41" s="12"/>
-      <c r="I41" s="29" t="n">
+      <c r="I41" s="30" t="n">
         <v>8.99</v>
       </c>
-      <c r="J41" s="30" t="s">
+      <c r="J41" s="31" t="s">
         <v>244</v>
       </c>
     </row>
@@ -9895,13 +9900,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="30" t="s">
+      <c r="I48" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="J48" s="30" t="s">
+      <c r="J48" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="K48" s="30" t="s">
+      <c r="K48" s="31" t="s">
         <v>244</v>
       </c>
     </row>

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -317,7 +317,25 @@
     <t xml:space="preserve">TC-STB</t>
   </si>
   <si>
-    <t xml:space="preserve">Silicone tubing 5mm ID x 7mm OD</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Silicone tubing 7mm OD x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">5mm ID</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Silicone tubing should fit snugly around the copper tubing</t>
@@ -996,7 +1014,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1069,6 +1087,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1135,7 +1159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1228,15 +1252,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1395,10 +1415,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -2007,7 +2027,7 @@
       <c r="G33" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="12" t="s">
         <v>96</v>
       </c>
       <c r="I33" s="15"/>
@@ -2170,7 +2190,7 @@
       <c r="C43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="23"/>
       <c r="H43" s="19"/>
       <c r="I43" s="20"/>
     </row>
@@ -2226,7 +2246,7 @@
       <c r="B47" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>134</v>
       </c>
       <c r="D47" s="10" t="n">
@@ -2245,7 +2265,7 @@
       <c r="B48" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>137</v>
       </c>
       <c r="D48" s="10" t="n">
@@ -2264,7 +2284,7 @@
       <c r="B49" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>140</v>
       </c>
       <c r="D49" s="10" t="n">
@@ -2321,7 +2341,7 @@
       <c r="B52" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>149</v>
       </c>
       <c r="D52" s="10" t="n">
@@ -2365,7 +2385,7 @@
       <c r="B54" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>156</v>
       </c>
       <c r="D54" s="10" t="n">
@@ -2419,7 +2439,7 @@
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="25"/>
+      <c r="C57" s="24"/>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
       <c r="H57" s="12"/>
@@ -2431,7 +2451,7 @@
       <c r="C58" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E58" s="24"/>
+      <c r="E58" s="23"/>
       <c r="H58" s="19"/>
       <c r="I58" s="20"/>
     </row>
@@ -2511,7 +2531,7 @@
       <c r="C64" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E64" s="24"/>
+      <c r="E64" s="23"/>
       <c r="H64" s="19"/>
       <c r="I64" s="20"/>
     </row>
@@ -2587,7 +2607,7 @@
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="26" t="s">
+      <c r="H68" s="25" t="s">
         <v>186</v>
       </c>
       <c r="I68" s="15"/>
@@ -2698,7 +2718,7 @@
       <c r="C76" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E76" s="24"/>
+      <c r="E76" s="23"/>
       <c r="H76" s="19"/>
       <c r="I76" s="20"/>
     </row>
@@ -2936,5811 +2956,5811 @@
       <c r="I97" s="15"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
       <c r="H98" s="12"/>
       <c r="I98" s="15"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="9"/>
       <c r="H99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
+      <c r="A100" s="26"/>
+      <c r="B100" s="26"/>
       <c r="H100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
       <c r="H101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
       <c r="H102" s="12"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
       <c r="H103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="26"/>
       <c r="H104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
       <c r="H105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
       <c r="H106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
       <c r="H107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
       <c r="H108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
       <c r="H109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
       <c r="H110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
       <c r="H111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
       <c r="H112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
       <c r="H113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="27"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
       <c r="H114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="26"/>
       <c r="H115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
       <c r="H116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="27"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
       <c r="H117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="27"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
       <c r="H118" s="12"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
+      <c r="A119" s="26"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
       <c r="H119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
+      <c r="A120" s="26"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
       <c r="H120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
       <c r="H121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="27"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
       <c r="H122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
       <c r="H123" s="12"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="27"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
       <c r="H124" s="12"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="27"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26"/>
       <c r="H125" s="12"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="27"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="27"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26"/>
       <c r="H126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
+      <c r="A127" s="26"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
       <c r="H127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
       <c r="H128" s="12"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="27"/>
-      <c r="B129" s="27"/>
-      <c r="C129" s="27"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
       <c r="H129" s="12"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="27"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
+      <c r="A130" s="26"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="26"/>
       <c r="H130" s="12"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="27"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
+      <c r="A131" s="26"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="26"/>
       <c r="H131" s="12"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="26"/>
       <c r="H132" s="12"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="27"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="26"/>
       <c r="H133" s="12"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="27"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="26"/>
       <c r="H134" s="12"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="27"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="27"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="26"/>
       <c r="H135" s="12"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="26"/>
       <c r="H136" s="12"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="26"/>
       <c r="H137" s="12"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="26"/>
       <c r="H138" s="12"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="26"/>
       <c r="H139" s="12"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="26"/>
       <c r="H140" s="12"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="27"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="26"/>
       <c r="H141" s="12"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="27"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="26"/>
       <c r="H142" s="12"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="26"/>
       <c r="H143" s="12"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26"/>
       <c r="H144" s="12"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="27"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="26"/>
       <c r="H145" s="12"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="27"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="27"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="26"/>
       <c r="H146" s="12"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="26"/>
       <c r="H147" s="12"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="27"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="27"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="26"/>
       <c r="H148" s="12"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="27"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="27"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="26"/>
       <c r="H149" s="12"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="27"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="26"/>
       <c r="H150" s="12"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="27"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="26"/>
       <c r="H151" s="12"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="27"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="26"/>
       <c r="H152" s="12"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="27"/>
-      <c r="B153" s="27"/>
-      <c r="C153" s="27"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="26"/>
       <c r="H153" s="12"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="27"/>
-      <c r="B154" s="27"/>
-      <c r="C154" s="27"/>
+      <c r="A154" s="26"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="26"/>
       <c r="H154" s="12"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="27"/>
-      <c r="B155" s="27"/>
-      <c r="C155" s="27"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="26"/>
       <c r="H155" s="12"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="27"/>
-      <c r="B156" s="27"/>
-      <c r="C156" s="27"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="26"/>
       <c r="H156" s="12"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="27"/>
-      <c r="B157" s="27"/>
-      <c r="C157" s="27"/>
+      <c r="A157" s="26"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="26"/>
       <c r="H157" s="12"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="27"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="27"/>
+      <c r="A158" s="26"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
       <c r="H158" s="12"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="27"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="27"/>
+      <c r="A159" s="26"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="26"/>
       <c r="H159" s="12"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="27"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="27"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="26"/>
       <c r="H160" s="12"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="27"/>
-      <c r="B161" s="27"/>
-      <c r="C161" s="27"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="26"/>
       <c r="H161" s="12"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="27"/>
-      <c r="B162" s="27"/>
-      <c r="C162" s="27"/>
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="26"/>
       <c r="H162" s="12"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="27"/>
-      <c r="B163" s="27"/>
-      <c r="C163" s="27"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
       <c r="H163" s="12"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="27"/>
-      <c r="B164" s="27"/>
-      <c r="C164" s="27"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="26"/>
       <c r="H164" s="12"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="27"/>
-      <c r="B165" s="27"/>
-      <c r="C165" s="27"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
       <c r="H165" s="12"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="27"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="27"/>
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="26"/>
       <c r="H166" s="12"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="27"/>
-      <c r="B167" s="27"/>
-      <c r="C167" s="27"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="26"/>
       <c r="H167" s="12"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="27"/>
-      <c r="B168" s="27"/>
-      <c r="C168" s="27"/>
+      <c r="A168" s="26"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
       <c r="H168" s="12"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="27"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="27"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="26"/>
       <c r="H169" s="12"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="27"/>
-      <c r="B170" s="27"/>
-      <c r="C170" s="27"/>
+      <c r="A170" s="26"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="26"/>
       <c r="H170" s="12"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="27"/>
-      <c r="B171" s="27"/>
-      <c r="C171" s="27"/>
+      <c r="A171" s="26"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="26"/>
       <c r="H171" s="12"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="27"/>
-      <c r="B172" s="27"/>
-      <c r="C172" s="27"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="26"/>
       <c r="H172" s="12"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="27"/>
-      <c r="B173" s="27"/>
-      <c r="C173" s="27"/>
+      <c r="A173" s="26"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
       <c r="H173" s="12"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="27"/>
-      <c r="B174" s="27"/>
-      <c r="C174" s="27"/>
+      <c r="A174" s="26"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="26"/>
       <c r="H174" s="12"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="27"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="27"/>
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="26"/>
       <c r="H175" s="12"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="27"/>
-      <c r="B176" s="27"/>
-      <c r="C176" s="27"/>
+      <c r="A176" s="26"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="26"/>
       <c r="H176" s="12"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="27"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="A177" s="26"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
       <c r="H177" s="12"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="27"/>
-      <c r="B178" s="27"/>
-      <c r="C178" s="27"/>
+      <c r="A178" s="26"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="26"/>
       <c r="H178" s="12"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="27"/>
-      <c r="B179" s="27"/>
-      <c r="C179" s="27"/>
+      <c r="A179" s="26"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="26"/>
       <c r="H179" s="12"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="27"/>
-      <c r="B180" s="27"/>
-      <c r="C180" s="27"/>
+      <c r="A180" s="26"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="26"/>
       <c r="H180" s="12"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="27"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="27"/>
+      <c r="A181" s="26"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="26"/>
       <c r="H181" s="12"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="27"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="27"/>
+      <c r="A182" s="26"/>
+      <c r="B182" s="26"/>
+      <c r="C182" s="26"/>
       <c r="H182" s="12"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="27"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="27"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="26"/>
       <c r="H183" s="12"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="27"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="27"/>
+      <c r="A184" s="26"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="26"/>
       <c r="H184" s="12"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="27"/>
-      <c r="B185" s="27"/>
-      <c r="C185" s="27"/>
+      <c r="A185" s="26"/>
+      <c r="B185" s="26"/>
+      <c r="C185" s="26"/>
       <c r="H185" s="12"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="27"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="27"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="26"/>
       <c r="H186" s="12"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="27"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="27"/>
+      <c r="A187" s="26"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="26"/>
       <c r="H187" s="12"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="27"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="27"/>
+      <c r="A188" s="26"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="26"/>
       <c r="H188" s="12"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="27"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="27"/>
+      <c r="A189" s="26"/>
+      <c r="B189" s="26"/>
+      <c r="C189" s="26"/>
       <c r="H189" s="12"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="27"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="27"/>
+      <c r="A190" s="26"/>
+      <c r="B190" s="26"/>
+      <c r="C190" s="26"/>
       <c r="H190" s="12"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="27"/>
-      <c r="B191" s="27"/>
-      <c r="C191" s="27"/>
+      <c r="A191" s="26"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="26"/>
       <c r="H191" s="12"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="27"/>
-      <c r="B192" s="27"/>
-      <c r="C192" s="27"/>
+      <c r="A192" s="26"/>
+      <c r="B192" s="26"/>
+      <c r="C192" s="26"/>
       <c r="H192" s="12"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="27"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="27"/>
+      <c r="A193" s="26"/>
+      <c r="B193" s="26"/>
+      <c r="C193" s="26"/>
       <c r="H193" s="12"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="27"/>
-      <c r="B194" s="27"/>
-      <c r="C194" s="27"/>
+      <c r="A194" s="26"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="26"/>
       <c r="H194" s="12"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="27"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="27"/>
+      <c r="A195" s="26"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="26"/>
       <c r="H195" s="12"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="27"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="27"/>
+      <c r="A196" s="26"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="26"/>
       <c r="H196" s="12"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="27"/>
-      <c r="B197" s="27"/>
-      <c r="C197" s="27"/>
+      <c r="A197" s="26"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="26"/>
       <c r="H197" s="12"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="27"/>
-      <c r="B198" s="27"/>
-      <c r="C198" s="27"/>
+      <c r="A198" s="26"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="26"/>
       <c r="H198" s="12"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="27"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="27"/>
+      <c r="A199" s="26"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="26"/>
       <c r="H199" s="12"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="27"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="27"/>
+      <c r="A200" s="26"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="26"/>
       <c r="H200" s="12"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="27"/>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="26"/>
       <c r="H201" s="12"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="27"/>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
+      <c r="A202" s="26"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="26"/>
       <c r="H202" s="12"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="27"/>
-      <c r="B203" s="27"/>
-      <c r="C203" s="27"/>
+      <c r="A203" s="26"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="26"/>
       <c r="H203" s="12"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="27"/>
-      <c r="B204" s="27"/>
-      <c r="C204" s="27"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="26"/>
       <c r="H204" s="12"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="27"/>
-      <c r="B205" s="27"/>
-      <c r="C205" s="27"/>
+      <c r="A205" s="26"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="26"/>
       <c r="H205" s="12"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="27"/>
-      <c r="B206" s="27"/>
-      <c r="C206" s="27"/>
+      <c r="A206" s="26"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="26"/>
       <c r="H206" s="12"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="27"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="27"/>
+      <c r="A207" s="26"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="26"/>
       <c r="H207" s="12"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="27"/>
-      <c r="B208" s="27"/>
-      <c r="C208" s="27"/>
+      <c r="A208" s="26"/>
+      <c r="B208" s="26"/>
+      <c r="C208" s="26"/>
       <c r="H208" s="12"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="27"/>
-      <c r="B209" s="27"/>
-      <c r="C209" s="27"/>
+      <c r="A209" s="26"/>
+      <c r="B209" s="26"/>
+      <c r="C209" s="26"/>
       <c r="H209" s="12"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="27"/>
-      <c r="B210" s="27"/>
-      <c r="C210" s="27"/>
+      <c r="A210" s="26"/>
+      <c r="B210" s="26"/>
+      <c r="C210" s="26"/>
       <c r="H210" s="12"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="27"/>
-      <c r="B211" s="27"/>
-      <c r="C211" s="27"/>
+      <c r="A211" s="26"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="26"/>
       <c r="H211" s="12"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="27"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="27"/>
+      <c r="A212" s="26"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="26"/>
       <c r="H212" s="12"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="27"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="27"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="26"/>
+      <c r="C213" s="26"/>
       <c r="H213" s="12"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="27"/>
-      <c r="B214" s="27"/>
-      <c r="C214" s="27"/>
+      <c r="A214" s="26"/>
+      <c r="B214" s="26"/>
+      <c r="C214" s="26"/>
       <c r="H214" s="12"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="27"/>
-      <c r="B215" s="27"/>
-      <c r="C215" s="27"/>
+      <c r="A215" s="26"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="26"/>
       <c r="H215" s="12"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="27"/>
-      <c r="B216" s="27"/>
-      <c r="C216" s="27"/>
+      <c r="A216" s="26"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="26"/>
       <c r="H216" s="12"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="27"/>
-      <c r="B217" s="27"/>
-      <c r="C217" s="27"/>
+      <c r="A217" s="26"/>
+      <c r="B217" s="26"/>
+      <c r="C217" s="26"/>
       <c r="H217" s="12"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="27"/>
-      <c r="B218" s="27"/>
-      <c r="C218" s="27"/>
+      <c r="A218" s="26"/>
+      <c r="B218" s="26"/>
+      <c r="C218" s="26"/>
       <c r="H218" s="12"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="27"/>
-      <c r="B219" s="27"/>
-      <c r="C219" s="27"/>
+      <c r="A219" s="26"/>
+      <c r="B219" s="26"/>
+      <c r="C219" s="26"/>
       <c r="H219" s="12"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="27"/>
-      <c r="B220" s="27"/>
-      <c r="C220" s="27"/>
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="26"/>
       <c r="H220" s="12"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="27"/>
-      <c r="B221" s="27"/>
-      <c r="C221" s="27"/>
+      <c r="A221" s="26"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="26"/>
       <c r="H221" s="12"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="27"/>
-      <c r="B222" s="27"/>
-      <c r="C222" s="27"/>
+      <c r="A222" s="26"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="26"/>
       <c r="H222" s="12"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="27"/>
-      <c r="B223" s="27"/>
-      <c r="C223" s="27"/>
+      <c r="A223" s="26"/>
+      <c r="B223" s="26"/>
+      <c r="C223" s="26"/>
       <c r="H223" s="12"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="27"/>
-      <c r="B224" s="27"/>
-      <c r="C224" s="27"/>
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="26"/>
       <c r="H224" s="12"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="27"/>
-      <c r="B225" s="27"/>
-      <c r="C225" s="27"/>
+      <c r="A225" s="26"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="26"/>
       <c r="H225" s="12"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="27"/>
-      <c r="B226" s="27"/>
-      <c r="C226" s="27"/>
+      <c r="A226" s="26"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="26"/>
       <c r="H226" s="12"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="27"/>
-      <c r="B227" s="27"/>
-      <c r="C227" s="27"/>
+      <c r="A227" s="26"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="26"/>
       <c r="H227" s="12"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="27"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="27"/>
+      <c r="A228" s="26"/>
+      <c r="B228" s="26"/>
+      <c r="C228" s="26"/>
       <c r="H228" s="12"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="27"/>
-      <c r="B229" s="27"/>
-      <c r="C229" s="27"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="26"/>
       <c r="H229" s="12"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="27"/>
-      <c r="B230" s="27"/>
-      <c r="C230" s="27"/>
+      <c r="A230" s="26"/>
+      <c r="B230" s="26"/>
+      <c r="C230" s="26"/>
       <c r="H230" s="12"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="27"/>
-      <c r="B231" s="27"/>
-      <c r="C231" s="27"/>
+      <c r="A231" s="26"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="26"/>
       <c r="H231" s="12"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="27"/>
-      <c r="B232" s="27"/>
-      <c r="C232" s="27"/>
+      <c r="A232" s="26"/>
+      <c r="B232" s="26"/>
+      <c r="C232" s="26"/>
       <c r="H232" s="12"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="27"/>
-      <c r="B233" s="27"/>
-      <c r="C233" s="27"/>
+      <c r="A233" s="26"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="26"/>
       <c r="H233" s="12"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="27"/>
-      <c r="B234" s="27"/>
-      <c r="C234" s="27"/>
+      <c r="A234" s="26"/>
+      <c r="B234" s="26"/>
+      <c r="C234" s="26"/>
       <c r="H234" s="12"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="27"/>
-      <c r="B235" s="27"/>
-      <c r="C235" s="27"/>
+      <c r="A235" s="26"/>
+      <c r="B235" s="26"/>
+      <c r="C235" s="26"/>
       <c r="H235" s="12"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="27"/>
-      <c r="B236" s="27"/>
-      <c r="C236" s="27"/>
+      <c r="A236" s="26"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="26"/>
       <c r="H236" s="12"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="27"/>
-      <c r="B237" s="27"/>
-      <c r="C237" s="27"/>
+      <c r="A237" s="26"/>
+      <c r="B237" s="26"/>
+      <c r="C237" s="26"/>
       <c r="H237" s="12"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="27"/>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="A238" s="26"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
       <c r="H238" s="12"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="27"/>
-      <c r="B239" s="27"/>
-      <c r="C239" s="27"/>
+      <c r="A239" s="26"/>
+      <c r="B239" s="26"/>
+      <c r="C239" s="26"/>
       <c r="H239" s="12"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="27"/>
-      <c r="B240" s="27"/>
-      <c r="C240" s="27"/>
+      <c r="A240" s="26"/>
+      <c r="B240" s="26"/>
+      <c r="C240" s="26"/>
       <c r="H240" s="12"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="27"/>
-      <c r="B241" s="27"/>
-      <c r="C241" s="27"/>
+      <c r="A241" s="26"/>
+      <c r="B241" s="26"/>
+      <c r="C241" s="26"/>
       <c r="H241" s="12"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="27"/>
-      <c r="B242" s="27"/>
-      <c r="C242" s="27"/>
+      <c r="A242" s="26"/>
+      <c r="B242" s="26"/>
+      <c r="C242" s="26"/>
       <c r="H242" s="12"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="27"/>
-      <c r="B243" s="27"/>
-      <c r="C243" s="27"/>
+      <c r="A243" s="26"/>
+      <c r="B243" s="26"/>
+      <c r="C243" s="26"/>
       <c r="H243" s="12"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="27"/>
-      <c r="B244" s="27"/>
-      <c r="C244" s="27"/>
+      <c r="A244" s="26"/>
+      <c r="B244" s="26"/>
+      <c r="C244" s="26"/>
       <c r="H244" s="12"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="27"/>
-      <c r="B245" s="27"/>
-      <c r="C245" s="27"/>
+      <c r="A245" s="26"/>
+      <c r="B245" s="26"/>
+      <c r="C245" s="26"/>
       <c r="H245" s="12"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="27"/>
-      <c r="B246" s="27"/>
-      <c r="C246" s="27"/>
+      <c r="A246" s="26"/>
+      <c r="B246" s="26"/>
+      <c r="C246" s="26"/>
       <c r="H246" s="12"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="27"/>
-      <c r="B247" s="27"/>
-      <c r="C247" s="27"/>
+      <c r="A247" s="26"/>
+      <c r="B247" s="26"/>
+      <c r="C247" s="26"/>
       <c r="H247" s="12"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="27"/>
-      <c r="B248" s="27"/>
-      <c r="C248" s="27"/>
+      <c r="A248" s="26"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="26"/>
       <c r="H248" s="12"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="27"/>
-      <c r="B249" s="27"/>
-      <c r="C249" s="27"/>
+      <c r="A249" s="26"/>
+      <c r="B249" s="26"/>
+      <c r="C249" s="26"/>
       <c r="H249" s="12"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="27"/>
-      <c r="B250" s="27"/>
-      <c r="C250" s="27"/>
+      <c r="A250" s="26"/>
+      <c r="B250" s="26"/>
+      <c r="C250" s="26"/>
       <c r="H250" s="12"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="27"/>
-      <c r="B251" s="27"/>
-      <c r="C251" s="27"/>
+      <c r="A251" s="26"/>
+      <c r="B251" s="26"/>
+      <c r="C251" s="26"/>
       <c r="H251" s="12"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="27"/>
-      <c r="B252" s="27"/>
-      <c r="C252" s="27"/>
+      <c r="A252" s="26"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="26"/>
       <c r="H252" s="12"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="27"/>
-      <c r="B253" s="27"/>
-      <c r="C253" s="27"/>
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
+      <c r="C253" s="26"/>
       <c r="H253" s="12"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="27"/>
-      <c r="B254" s="27"/>
-      <c r="C254" s="27"/>
+      <c r="A254" s="26"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="26"/>
       <c r="H254" s="12"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="27"/>
-      <c r="B255" s="27"/>
-      <c r="C255" s="27"/>
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="26"/>
       <c r="H255" s="12"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="27"/>
-      <c r="B256" s="27"/>
-      <c r="C256" s="27"/>
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
+      <c r="C256" s="26"/>
       <c r="H256" s="12"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="27"/>
-      <c r="B257" s="27"/>
-      <c r="C257" s="27"/>
+      <c r="A257" s="26"/>
+      <c r="B257" s="26"/>
+      <c r="C257" s="26"/>
       <c r="H257" s="12"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="27"/>
-      <c r="B258" s="27"/>
-      <c r="C258" s="27"/>
+      <c r="A258" s="26"/>
+      <c r="B258" s="26"/>
+      <c r="C258" s="26"/>
       <c r="H258" s="12"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="27"/>
-      <c r="B259" s="27"/>
-      <c r="C259" s="27"/>
+      <c r="A259" s="26"/>
+      <c r="B259" s="26"/>
+      <c r="C259" s="26"/>
       <c r="H259" s="12"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="27"/>
-      <c r="B260" s="27"/>
-      <c r="C260" s="27"/>
+      <c r="A260" s="26"/>
+      <c r="B260" s="26"/>
+      <c r="C260" s="26"/>
       <c r="H260" s="12"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="27"/>
-      <c r="B261" s="27"/>
-      <c r="C261" s="27"/>
+      <c r="A261" s="26"/>
+      <c r="B261" s="26"/>
+      <c r="C261" s="26"/>
       <c r="H261" s="12"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="27"/>
-      <c r="B262" s="27"/>
-      <c r="C262" s="27"/>
+      <c r="A262" s="26"/>
+      <c r="B262" s="26"/>
+      <c r="C262" s="26"/>
       <c r="H262" s="12"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="27"/>
-      <c r="B263" s="27"/>
-      <c r="C263" s="27"/>
+      <c r="A263" s="26"/>
+      <c r="B263" s="26"/>
+      <c r="C263" s="26"/>
       <c r="H263" s="12"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="27"/>
-      <c r="B264" s="27"/>
-      <c r="C264" s="27"/>
+      <c r="A264" s="26"/>
+      <c r="B264" s="26"/>
+      <c r="C264" s="26"/>
       <c r="H264" s="12"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="27"/>
-      <c r="B265" s="27"/>
-      <c r="C265" s="27"/>
+      <c r="A265" s="26"/>
+      <c r="B265" s="26"/>
+      <c r="C265" s="26"/>
       <c r="H265" s="12"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="27"/>
-      <c r="B266" s="27"/>
-      <c r="C266" s="27"/>
+      <c r="A266" s="26"/>
+      <c r="B266" s="26"/>
+      <c r="C266" s="26"/>
       <c r="H266" s="12"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="27"/>
-      <c r="B267" s="27"/>
-      <c r="C267" s="27"/>
+      <c r="A267" s="26"/>
+      <c r="B267" s="26"/>
+      <c r="C267" s="26"/>
       <c r="H267" s="12"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="27"/>
-      <c r="B268" s="27"/>
-      <c r="C268" s="27"/>
+      <c r="A268" s="26"/>
+      <c r="B268" s="26"/>
+      <c r="C268" s="26"/>
       <c r="H268" s="12"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="27"/>
-      <c r="B269" s="27"/>
-      <c r="C269" s="27"/>
+      <c r="A269" s="26"/>
+      <c r="B269" s="26"/>
+      <c r="C269" s="26"/>
       <c r="H269" s="12"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="27"/>
-      <c r="B270" s="27"/>
-      <c r="C270" s="27"/>
+      <c r="A270" s="26"/>
+      <c r="B270" s="26"/>
+      <c r="C270" s="26"/>
       <c r="H270" s="12"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="27"/>
-      <c r="B271" s="27"/>
-      <c r="C271" s="27"/>
+      <c r="A271" s="26"/>
+      <c r="B271" s="26"/>
+      <c r="C271" s="26"/>
       <c r="H271" s="12"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="27"/>
-      <c r="B272" s="27"/>
-      <c r="C272" s="27"/>
+      <c r="A272" s="26"/>
+      <c r="B272" s="26"/>
+      <c r="C272" s="26"/>
       <c r="H272" s="12"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="27"/>
-      <c r="B273" s="27"/>
-      <c r="C273" s="27"/>
+      <c r="A273" s="26"/>
+      <c r="B273" s="26"/>
+      <c r="C273" s="26"/>
       <c r="H273" s="12"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="27"/>
-      <c r="B274" s="27"/>
-      <c r="C274" s="27"/>
+      <c r="A274" s="26"/>
+      <c r="B274" s="26"/>
+      <c r="C274" s="26"/>
       <c r="H274" s="12"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="27"/>
-      <c r="B275" s="27"/>
-      <c r="C275" s="27"/>
+      <c r="A275" s="26"/>
+      <c r="B275" s="26"/>
+      <c r="C275" s="26"/>
       <c r="H275" s="12"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="27"/>
-      <c r="B276" s="27"/>
-      <c r="C276" s="27"/>
+      <c r="A276" s="26"/>
+      <c r="B276" s="26"/>
+      <c r="C276" s="26"/>
       <c r="H276" s="12"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="27"/>
-      <c r="B277" s="27"/>
-      <c r="C277" s="27"/>
+      <c r="A277" s="26"/>
+      <c r="B277" s="26"/>
+      <c r="C277" s="26"/>
       <c r="H277" s="12"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="27"/>
-      <c r="B278" s="27"/>
-      <c r="C278" s="27"/>
+      <c r="A278" s="26"/>
+      <c r="B278" s="26"/>
+      <c r="C278" s="26"/>
       <c r="H278" s="12"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="27"/>
-      <c r="B279" s="27"/>
-      <c r="C279" s="27"/>
+      <c r="A279" s="26"/>
+      <c r="B279" s="26"/>
+      <c r="C279" s="26"/>
       <c r="H279" s="12"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="27"/>
-      <c r="B280" s="27"/>
-      <c r="C280" s="27"/>
+      <c r="A280" s="26"/>
+      <c r="B280" s="26"/>
+      <c r="C280" s="26"/>
       <c r="H280" s="12"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="27"/>
-      <c r="B281" s="27"/>
-      <c r="C281" s="27"/>
+      <c r="A281" s="26"/>
+      <c r="B281" s="26"/>
+      <c r="C281" s="26"/>
       <c r="H281" s="12"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="27"/>
-      <c r="B282" s="27"/>
-      <c r="C282" s="27"/>
+      <c r="A282" s="26"/>
+      <c r="B282" s="26"/>
+      <c r="C282" s="26"/>
       <c r="H282" s="12"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="27"/>
-      <c r="B283" s="27"/>
-      <c r="C283" s="27"/>
+      <c r="A283" s="26"/>
+      <c r="B283" s="26"/>
+      <c r="C283" s="26"/>
       <c r="H283" s="12"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="27"/>
-      <c r="B284" s="27"/>
-      <c r="C284" s="27"/>
+      <c r="A284" s="26"/>
+      <c r="B284" s="26"/>
+      <c r="C284" s="26"/>
       <c r="H284" s="12"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="27"/>
-      <c r="B285" s="27"/>
-      <c r="C285" s="27"/>
+      <c r="A285" s="26"/>
+      <c r="B285" s="26"/>
+      <c r="C285" s="26"/>
       <c r="H285" s="12"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="27"/>
-      <c r="B286" s="27"/>
-      <c r="C286" s="27"/>
+      <c r="A286" s="26"/>
+      <c r="B286" s="26"/>
+      <c r="C286" s="26"/>
       <c r="H286" s="12"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="27"/>
-      <c r="B287" s="27"/>
-      <c r="C287" s="27"/>
+      <c r="A287" s="26"/>
+      <c r="B287" s="26"/>
+      <c r="C287" s="26"/>
       <c r="H287" s="12"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="27"/>
-      <c r="B288" s="27"/>
-      <c r="C288" s="27"/>
+      <c r="A288" s="26"/>
+      <c r="B288" s="26"/>
+      <c r="C288" s="26"/>
       <c r="H288" s="12"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="27"/>
-      <c r="B289" s="27"/>
-      <c r="C289" s="27"/>
+      <c r="A289" s="26"/>
+      <c r="B289" s="26"/>
+      <c r="C289" s="26"/>
       <c r="H289" s="12"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="27"/>
-      <c r="B290" s="27"/>
-      <c r="C290" s="27"/>
+      <c r="A290" s="26"/>
+      <c r="B290" s="26"/>
+      <c r="C290" s="26"/>
       <c r="H290" s="12"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="27"/>
-      <c r="B291" s="27"/>
-      <c r="C291" s="27"/>
+      <c r="A291" s="26"/>
+      <c r="B291" s="26"/>
+      <c r="C291" s="26"/>
       <c r="H291" s="12"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="27"/>
-      <c r="B292" s="27"/>
-      <c r="C292" s="27"/>
+      <c r="A292" s="26"/>
+      <c r="B292" s="26"/>
+      <c r="C292" s="26"/>
       <c r="H292" s="12"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="27"/>
-      <c r="B293" s="27"/>
-      <c r="C293" s="27"/>
+      <c r="A293" s="26"/>
+      <c r="B293" s="26"/>
+      <c r="C293" s="26"/>
       <c r="H293" s="12"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="27"/>
-      <c r="B294" s="27"/>
-      <c r="C294" s="27"/>
+      <c r="A294" s="26"/>
+      <c r="B294" s="26"/>
+      <c r="C294" s="26"/>
       <c r="H294" s="12"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="27"/>
-      <c r="B295" s="27"/>
-      <c r="C295" s="27"/>
+      <c r="A295" s="26"/>
+      <c r="B295" s="26"/>
+      <c r="C295" s="26"/>
       <c r="H295" s="12"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="27"/>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="A296" s="26"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
       <c r="H296" s="12"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="27"/>
-      <c r="B297" s="27"/>
-      <c r="C297" s="27"/>
+      <c r="A297" s="26"/>
+      <c r="B297" s="26"/>
+      <c r="C297" s="26"/>
       <c r="H297" s="12"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="27"/>
-      <c r="B298" s="27"/>
-      <c r="C298" s="27"/>
+      <c r="A298" s="26"/>
+      <c r="B298" s="26"/>
+      <c r="C298" s="26"/>
       <c r="H298" s="12"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="27"/>
-      <c r="B299" s="27"/>
-      <c r="C299" s="27"/>
+      <c r="A299" s="26"/>
+      <c r="B299" s="26"/>
+      <c r="C299" s="26"/>
       <c r="H299" s="12"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="27"/>
-      <c r="B300" s="27"/>
-      <c r="C300" s="27"/>
+      <c r="A300" s="26"/>
+      <c r="B300" s="26"/>
+      <c r="C300" s="26"/>
       <c r="H300" s="12"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="27"/>
-      <c r="B301" s="27"/>
-      <c r="C301" s="27"/>
+      <c r="A301" s="26"/>
+      <c r="B301" s="26"/>
+      <c r="C301" s="26"/>
       <c r="H301" s="12"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="27"/>
-      <c r="B302" s="27"/>
-      <c r="C302" s="27"/>
+      <c r="A302" s="26"/>
+      <c r="B302" s="26"/>
+      <c r="C302" s="26"/>
       <c r="H302" s="12"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="27"/>
-      <c r="B303" s="27"/>
-      <c r="C303" s="27"/>
+      <c r="A303" s="26"/>
+      <c r="B303" s="26"/>
+      <c r="C303" s="26"/>
       <c r="H303" s="12"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="27"/>
-      <c r="B304" s="27"/>
-      <c r="C304" s="27"/>
+      <c r="A304" s="26"/>
+      <c r="B304" s="26"/>
+      <c r="C304" s="26"/>
       <c r="H304" s="12"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="27"/>
-      <c r="B305" s="27"/>
-      <c r="C305" s="27"/>
+      <c r="A305" s="26"/>
+      <c r="B305" s="26"/>
+      <c r="C305" s="26"/>
       <c r="H305" s="12"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="27"/>
-      <c r="B306" s="27"/>
-      <c r="C306" s="27"/>
+      <c r="A306" s="26"/>
+      <c r="B306" s="26"/>
+      <c r="C306" s="26"/>
       <c r="H306" s="12"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="27"/>
-      <c r="B307" s="27"/>
-      <c r="C307" s="27"/>
+      <c r="A307" s="26"/>
+      <c r="B307" s="26"/>
+      <c r="C307" s="26"/>
       <c r="H307" s="12"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="27"/>
-      <c r="B308" s="27"/>
-      <c r="C308" s="27"/>
+      <c r="A308" s="26"/>
+      <c r="B308" s="26"/>
+      <c r="C308" s="26"/>
       <c r="H308" s="12"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="27"/>
-      <c r="B309" s="27"/>
-      <c r="C309" s="27"/>
+      <c r="A309" s="26"/>
+      <c r="B309" s="26"/>
+      <c r="C309" s="26"/>
       <c r="H309" s="12"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="27"/>
-      <c r="B310" s="27"/>
-      <c r="C310" s="27"/>
+      <c r="A310" s="26"/>
+      <c r="B310" s="26"/>
+      <c r="C310" s="26"/>
       <c r="H310" s="12"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="27"/>
-      <c r="B311" s="27"/>
-      <c r="C311" s="27"/>
+      <c r="A311" s="26"/>
+      <c r="B311" s="26"/>
+      <c r="C311" s="26"/>
       <c r="H311" s="12"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="27"/>
-      <c r="B312" s="27"/>
-      <c r="C312" s="27"/>
+      <c r="A312" s="26"/>
+      <c r="B312" s="26"/>
+      <c r="C312" s="26"/>
       <c r="H312" s="12"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="27"/>
-      <c r="B313" s="27"/>
-      <c r="C313" s="27"/>
+      <c r="A313" s="26"/>
+      <c r="B313" s="26"/>
+      <c r="C313" s="26"/>
       <c r="H313" s="12"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="27"/>
-      <c r="B314" s="27"/>
-      <c r="C314" s="27"/>
+      <c r="A314" s="26"/>
+      <c r="B314" s="26"/>
+      <c r="C314" s="26"/>
       <c r="H314" s="12"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="27"/>
-      <c r="B315" s="27"/>
-      <c r="C315" s="27"/>
+      <c r="A315" s="26"/>
+      <c r="B315" s="26"/>
+      <c r="C315" s="26"/>
       <c r="H315" s="12"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="27"/>
-      <c r="B316" s="27"/>
-      <c r="C316" s="27"/>
+      <c r="A316" s="26"/>
+      <c r="B316" s="26"/>
+      <c r="C316" s="26"/>
       <c r="H316" s="12"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="27"/>
-      <c r="B317" s="27"/>
-      <c r="C317" s="27"/>
+      <c r="A317" s="26"/>
+      <c r="B317" s="26"/>
+      <c r="C317" s="26"/>
       <c r="H317" s="12"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="27"/>
-      <c r="B318" s="27"/>
-      <c r="C318" s="27"/>
+      <c r="A318" s="26"/>
+      <c r="B318" s="26"/>
+      <c r="C318" s="26"/>
       <c r="H318" s="12"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="27"/>
-      <c r="B319" s="27"/>
-      <c r="C319" s="27"/>
+      <c r="A319" s="26"/>
+      <c r="B319" s="26"/>
+      <c r="C319" s="26"/>
       <c r="H319" s="12"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="27"/>
-      <c r="B320" s="27"/>
-      <c r="C320" s="27"/>
+      <c r="A320" s="26"/>
+      <c r="B320" s="26"/>
+      <c r="C320" s="26"/>
       <c r="H320" s="12"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="27"/>
-      <c r="B321" s="27"/>
-      <c r="C321" s="27"/>
+      <c r="A321" s="26"/>
+      <c r="B321" s="26"/>
+      <c r="C321" s="26"/>
       <c r="H321" s="12"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="27"/>
-      <c r="B322" s="27"/>
-      <c r="C322" s="27"/>
+      <c r="A322" s="26"/>
+      <c r="B322" s="26"/>
+      <c r="C322" s="26"/>
       <c r="H322" s="12"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="27"/>
-      <c r="B323" s="27"/>
-      <c r="C323" s="27"/>
+      <c r="A323" s="26"/>
+      <c r="B323" s="26"/>
+      <c r="C323" s="26"/>
       <c r="H323" s="12"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="27"/>
-      <c r="B324" s="27"/>
-      <c r="C324" s="27"/>
+      <c r="A324" s="26"/>
+      <c r="B324" s="26"/>
+      <c r="C324" s="26"/>
       <c r="H324" s="12"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="27"/>
-      <c r="B325" s="27"/>
-      <c r="C325" s="27"/>
+      <c r="A325" s="26"/>
+      <c r="B325" s="26"/>
+      <c r="C325" s="26"/>
       <c r="H325" s="12"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="27"/>
-      <c r="B326" s="27"/>
-      <c r="C326" s="27"/>
+      <c r="A326" s="26"/>
+      <c r="B326" s="26"/>
+      <c r="C326" s="26"/>
       <c r="H326" s="12"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="27"/>
-      <c r="B327" s="27"/>
-      <c r="C327" s="27"/>
+      <c r="A327" s="26"/>
+      <c r="B327" s="26"/>
+      <c r="C327" s="26"/>
       <c r="H327" s="12"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="27"/>
-      <c r="B328" s="27"/>
-      <c r="C328" s="27"/>
+      <c r="A328" s="26"/>
+      <c r="B328" s="26"/>
+      <c r="C328" s="26"/>
       <c r="H328" s="12"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="27"/>
-      <c r="B329" s="27"/>
-      <c r="C329" s="27"/>
+      <c r="A329" s="26"/>
+      <c r="B329" s="26"/>
+      <c r="C329" s="26"/>
       <c r="H329" s="12"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="27"/>
-      <c r="B330" s="27"/>
-      <c r="C330" s="27"/>
+      <c r="A330" s="26"/>
+      <c r="B330" s="26"/>
+      <c r="C330" s="26"/>
       <c r="H330" s="12"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="27"/>
-      <c r="B331" s="27"/>
-      <c r="C331" s="27"/>
+      <c r="A331" s="26"/>
+      <c r="B331" s="26"/>
+      <c r="C331" s="26"/>
       <c r="H331" s="12"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="27"/>
-      <c r="B332" s="27"/>
-      <c r="C332" s="27"/>
+      <c r="A332" s="26"/>
+      <c r="B332" s="26"/>
+      <c r="C332" s="26"/>
       <c r="H332" s="12"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="27"/>
-      <c r="B333" s="27"/>
-      <c r="C333" s="27"/>
+      <c r="A333" s="26"/>
+      <c r="B333" s="26"/>
+      <c r="C333" s="26"/>
       <c r="H333" s="12"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="27"/>
-      <c r="B334" s="27"/>
-      <c r="C334" s="27"/>
+      <c r="A334" s="26"/>
+      <c r="B334" s="26"/>
+      <c r="C334" s="26"/>
       <c r="H334" s="12"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="27"/>
-      <c r="B335" s="27"/>
-      <c r="C335" s="27"/>
+      <c r="A335" s="26"/>
+      <c r="B335" s="26"/>
+      <c r="C335" s="26"/>
       <c r="H335" s="12"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="27"/>
-      <c r="B336" s="27"/>
-      <c r="C336" s="27"/>
+      <c r="A336" s="26"/>
+      <c r="B336" s="26"/>
+      <c r="C336" s="26"/>
       <c r="H336" s="12"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="27"/>
-      <c r="B337" s="27"/>
-      <c r="C337" s="27"/>
+      <c r="A337" s="26"/>
+      <c r="B337" s="26"/>
+      <c r="C337" s="26"/>
       <c r="H337" s="12"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="27"/>
-      <c r="B338" s="27"/>
-      <c r="C338" s="27"/>
+      <c r="A338" s="26"/>
+      <c r="B338" s="26"/>
+      <c r="C338" s="26"/>
       <c r="H338" s="12"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="27"/>
-      <c r="B339" s="27"/>
-      <c r="C339" s="27"/>
+      <c r="A339" s="26"/>
+      <c r="B339" s="26"/>
+      <c r="C339" s="26"/>
       <c r="H339" s="12"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="27"/>
-      <c r="B340" s="27"/>
-      <c r="C340" s="27"/>
+      <c r="A340" s="26"/>
+      <c r="B340" s="26"/>
+      <c r="C340" s="26"/>
       <c r="H340" s="12"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="27"/>
-      <c r="B341" s="27"/>
-      <c r="C341" s="27"/>
+      <c r="A341" s="26"/>
+      <c r="B341" s="26"/>
+      <c r="C341" s="26"/>
       <c r="H341" s="12"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="27"/>
-      <c r="B342" s="27"/>
-      <c r="C342" s="27"/>
+      <c r="A342" s="26"/>
+      <c r="B342" s="26"/>
+      <c r="C342" s="26"/>
       <c r="H342" s="12"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="27"/>
-      <c r="B343" s="27"/>
-      <c r="C343" s="27"/>
+      <c r="A343" s="26"/>
+      <c r="B343" s="26"/>
+      <c r="C343" s="26"/>
       <c r="H343" s="12"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="27"/>
-      <c r="B344" s="27"/>
-      <c r="C344" s="27"/>
+      <c r="A344" s="26"/>
+      <c r="B344" s="26"/>
+      <c r="C344" s="26"/>
       <c r="H344" s="12"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="27"/>
-      <c r="B345" s="27"/>
-      <c r="C345" s="27"/>
+      <c r="A345" s="26"/>
+      <c r="B345" s="26"/>
+      <c r="C345" s="26"/>
       <c r="H345" s="12"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="27"/>
-      <c r="B346" s="27"/>
-      <c r="C346" s="27"/>
+      <c r="A346" s="26"/>
+      <c r="B346" s="26"/>
+      <c r="C346" s="26"/>
       <c r="H346" s="12"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="27"/>
-      <c r="B347" s="27"/>
-      <c r="C347" s="27"/>
+      <c r="A347" s="26"/>
+      <c r="B347" s="26"/>
+      <c r="C347" s="26"/>
       <c r="H347" s="12"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="27"/>
-      <c r="B348" s="27"/>
-      <c r="C348" s="27"/>
+      <c r="A348" s="26"/>
+      <c r="B348" s="26"/>
+      <c r="C348" s="26"/>
       <c r="H348" s="12"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="27"/>
-      <c r="B349" s="27"/>
-      <c r="C349" s="27"/>
+      <c r="A349" s="26"/>
+      <c r="B349" s="26"/>
+      <c r="C349" s="26"/>
       <c r="H349" s="12"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="27"/>
-      <c r="B350" s="27"/>
-      <c r="C350" s="27"/>
+      <c r="A350" s="26"/>
+      <c r="B350" s="26"/>
+      <c r="C350" s="26"/>
       <c r="H350" s="12"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="27"/>
-      <c r="B351" s="27"/>
-      <c r="C351" s="27"/>
+      <c r="A351" s="26"/>
+      <c r="B351" s="26"/>
+      <c r="C351" s="26"/>
       <c r="H351" s="12"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="27"/>
-      <c r="B352" s="27"/>
-      <c r="C352" s="27"/>
+      <c r="A352" s="26"/>
+      <c r="B352" s="26"/>
+      <c r="C352" s="26"/>
       <c r="H352" s="12"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="27"/>
-      <c r="B353" s="27"/>
-      <c r="C353" s="27"/>
+      <c r="A353" s="26"/>
+      <c r="B353" s="26"/>
+      <c r="C353" s="26"/>
       <c r="H353" s="12"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="27"/>
-      <c r="B354" s="27"/>
-      <c r="C354" s="27"/>
+      <c r="A354" s="26"/>
+      <c r="B354" s="26"/>
+      <c r="C354" s="26"/>
       <c r="H354" s="12"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="27"/>
-      <c r="B355" s="27"/>
-      <c r="C355" s="27"/>
+      <c r="A355" s="26"/>
+      <c r="B355" s="26"/>
+      <c r="C355" s="26"/>
       <c r="H355" s="12"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="27"/>
-      <c r="B356" s="27"/>
-      <c r="C356" s="27"/>
+      <c r="A356" s="26"/>
+      <c r="B356" s="26"/>
+      <c r="C356" s="26"/>
       <c r="H356" s="12"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="27"/>
-      <c r="B357" s="27"/>
-      <c r="C357" s="27"/>
+      <c r="A357" s="26"/>
+      <c r="B357" s="26"/>
+      <c r="C357" s="26"/>
       <c r="H357" s="12"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="27"/>
-      <c r="B358" s="27"/>
-      <c r="C358" s="27"/>
+      <c r="A358" s="26"/>
+      <c r="B358" s="26"/>
+      <c r="C358" s="26"/>
       <c r="H358" s="12"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="27"/>
-      <c r="B359" s="27"/>
-      <c r="C359" s="27"/>
+      <c r="A359" s="26"/>
+      <c r="B359" s="26"/>
+      <c r="C359" s="26"/>
       <c r="H359" s="12"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="27"/>
-      <c r="B360" s="27"/>
-      <c r="C360" s="27"/>
+      <c r="A360" s="26"/>
+      <c r="B360" s="26"/>
+      <c r="C360" s="26"/>
       <c r="H360" s="12"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="27"/>
-      <c r="B361" s="27"/>
-      <c r="C361" s="27"/>
+      <c r="A361" s="26"/>
+      <c r="B361" s="26"/>
+      <c r="C361" s="26"/>
       <c r="H361" s="12"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="27"/>
-      <c r="B362" s="27"/>
-      <c r="C362" s="27"/>
+      <c r="A362" s="26"/>
+      <c r="B362" s="26"/>
+      <c r="C362" s="26"/>
       <c r="H362" s="12"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="27"/>
-      <c r="B363" s="27"/>
-      <c r="C363" s="27"/>
+      <c r="A363" s="26"/>
+      <c r="B363" s="26"/>
+      <c r="C363" s="26"/>
       <c r="H363" s="12"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="27"/>
-      <c r="B364" s="27"/>
-      <c r="C364" s="27"/>
+      <c r="A364" s="26"/>
+      <c r="B364" s="26"/>
+      <c r="C364" s="26"/>
       <c r="H364" s="12"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="27"/>
-      <c r="B365" s="27"/>
-      <c r="C365" s="27"/>
+      <c r="A365" s="26"/>
+      <c r="B365" s="26"/>
+      <c r="C365" s="26"/>
       <c r="H365" s="12"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="27"/>
-      <c r="B366" s="27"/>
-      <c r="C366" s="27"/>
+      <c r="A366" s="26"/>
+      <c r="B366" s="26"/>
+      <c r="C366" s="26"/>
       <c r="H366" s="12"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="27"/>
-      <c r="B367" s="27"/>
-      <c r="C367" s="27"/>
+      <c r="A367" s="26"/>
+      <c r="B367" s="26"/>
+      <c r="C367" s="26"/>
       <c r="H367" s="12"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="27"/>
-      <c r="B368" s="27"/>
-      <c r="C368" s="27"/>
+      <c r="A368" s="26"/>
+      <c r="B368" s="26"/>
+      <c r="C368" s="26"/>
       <c r="H368" s="12"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="27"/>
-      <c r="B369" s="27"/>
-      <c r="C369" s="27"/>
+      <c r="A369" s="26"/>
+      <c r="B369" s="26"/>
+      <c r="C369" s="26"/>
       <c r="H369" s="12"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="27"/>
-      <c r="B370" s="27"/>
-      <c r="C370" s="27"/>
+      <c r="A370" s="26"/>
+      <c r="B370" s="26"/>
+      <c r="C370" s="26"/>
       <c r="H370" s="12"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="27"/>
-      <c r="B371" s="27"/>
-      <c r="C371" s="27"/>
+      <c r="A371" s="26"/>
+      <c r="B371" s="26"/>
+      <c r="C371" s="26"/>
       <c r="H371" s="12"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="27"/>
-      <c r="B372" s="27"/>
-      <c r="C372" s="27"/>
+      <c r="A372" s="26"/>
+      <c r="B372" s="26"/>
+      <c r="C372" s="26"/>
       <c r="H372" s="12"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="27"/>
-      <c r="B373" s="27"/>
-      <c r="C373" s="27"/>
+      <c r="A373" s="26"/>
+      <c r="B373" s="26"/>
+      <c r="C373" s="26"/>
       <c r="H373" s="12"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="27"/>
-      <c r="B374" s="27"/>
-      <c r="C374" s="27"/>
+      <c r="A374" s="26"/>
+      <c r="B374" s="26"/>
+      <c r="C374" s="26"/>
       <c r="H374" s="12"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="27"/>
-      <c r="B375" s="27"/>
-      <c r="C375" s="27"/>
+      <c r="A375" s="26"/>
+      <c r="B375" s="26"/>
+      <c r="C375" s="26"/>
       <c r="H375" s="12"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="27"/>
-      <c r="B376" s="27"/>
-      <c r="C376" s="27"/>
+      <c r="A376" s="26"/>
+      <c r="B376" s="26"/>
+      <c r="C376" s="26"/>
       <c r="H376" s="12"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="27"/>
-      <c r="B377" s="27"/>
-      <c r="C377" s="27"/>
+      <c r="A377" s="26"/>
+      <c r="B377" s="26"/>
+      <c r="C377" s="26"/>
       <c r="H377" s="12"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="27"/>
-      <c r="B378" s="27"/>
-      <c r="C378" s="27"/>
+      <c r="A378" s="26"/>
+      <c r="B378" s="26"/>
+      <c r="C378" s="26"/>
       <c r="H378" s="12"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="27"/>
-      <c r="B379" s="27"/>
-      <c r="C379" s="27"/>
+      <c r="A379" s="26"/>
+      <c r="B379" s="26"/>
+      <c r="C379" s="26"/>
       <c r="H379" s="12"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="27"/>
-      <c r="B380" s="27"/>
-      <c r="C380" s="27"/>
+      <c r="A380" s="26"/>
+      <c r="B380" s="26"/>
+      <c r="C380" s="26"/>
       <c r="H380" s="12"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="27"/>
-      <c r="B381" s="27"/>
-      <c r="C381" s="27"/>
+      <c r="A381" s="26"/>
+      <c r="B381" s="26"/>
+      <c r="C381" s="26"/>
       <c r="H381" s="12"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="27"/>
-      <c r="B382" s="27"/>
-      <c r="C382" s="27"/>
+      <c r="A382" s="26"/>
+      <c r="B382" s="26"/>
+      <c r="C382" s="26"/>
       <c r="H382" s="12"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="27"/>
-      <c r="B383" s="27"/>
-      <c r="C383" s="27"/>
+      <c r="A383" s="26"/>
+      <c r="B383" s="26"/>
+      <c r="C383" s="26"/>
       <c r="H383" s="12"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="27"/>
-      <c r="B384" s="27"/>
-      <c r="C384" s="27"/>
+      <c r="A384" s="26"/>
+      <c r="B384" s="26"/>
+      <c r="C384" s="26"/>
       <c r="H384" s="12"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="27"/>
-      <c r="B385" s="27"/>
-      <c r="C385" s="27"/>
+      <c r="A385" s="26"/>
+      <c r="B385" s="26"/>
+      <c r="C385" s="26"/>
       <c r="H385" s="12"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="27"/>
-      <c r="B386" s="27"/>
-      <c r="C386" s="27"/>
+      <c r="A386" s="26"/>
+      <c r="B386" s="26"/>
+      <c r="C386" s="26"/>
       <c r="H386" s="12"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="27"/>
-      <c r="B387" s="27"/>
-      <c r="C387" s="27"/>
+      <c r="A387" s="26"/>
+      <c r="B387" s="26"/>
+      <c r="C387" s="26"/>
       <c r="H387" s="12"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="27"/>
-      <c r="B388" s="27"/>
-      <c r="C388" s="27"/>
+      <c r="A388" s="26"/>
+      <c r="B388" s="26"/>
+      <c r="C388" s="26"/>
       <c r="H388" s="12"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="27"/>
-      <c r="B389" s="27"/>
-      <c r="C389" s="27"/>
+      <c r="A389" s="26"/>
+      <c r="B389" s="26"/>
+      <c r="C389" s="26"/>
       <c r="H389" s="12"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="27"/>
-      <c r="B390" s="27"/>
-      <c r="C390" s="27"/>
+      <c r="A390" s="26"/>
+      <c r="B390" s="26"/>
+      <c r="C390" s="26"/>
       <c r="H390" s="12"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="27"/>
-      <c r="B391" s="27"/>
-      <c r="C391" s="27"/>
+      <c r="A391" s="26"/>
+      <c r="B391" s="26"/>
+      <c r="C391" s="26"/>
       <c r="H391" s="12"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="27"/>
-      <c r="B392" s="27"/>
-      <c r="C392" s="27"/>
+      <c r="A392" s="26"/>
+      <c r="B392" s="26"/>
+      <c r="C392" s="26"/>
       <c r="H392" s="12"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="27"/>
-      <c r="B393" s="27"/>
-      <c r="C393" s="27"/>
+      <c r="A393" s="26"/>
+      <c r="B393" s="26"/>
+      <c r="C393" s="26"/>
       <c r="H393" s="12"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="27"/>
-      <c r="B394" s="27"/>
-      <c r="C394" s="27"/>
+      <c r="A394" s="26"/>
+      <c r="B394" s="26"/>
+      <c r="C394" s="26"/>
       <c r="H394" s="12"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="27"/>
-      <c r="B395" s="27"/>
-      <c r="C395" s="27"/>
+      <c r="A395" s="26"/>
+      <c r="B395" s="26"/>
+      <c r="C395" s="26"/>
       <c r="H395" s="12"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="27"/>
-      <c r="B396" s="27"/>
-      <c r="C396" s="27"/>
+      <c r="A396" s="26"/>
+      <c r="B396" s="26"/>
+      <c r="C396" s="26"/>
       <c r="H396" s="12"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="27"/>
-      <c r="B397" s="27"/>
-      <c r="C397" s="27"/>
+      <c r="A397" s="26"/>
+      <c r="B397" s="26"/>
+      <c r="C397" s="26"/>
       <c r="H397" s="12"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="27"/>
-      <c r="B398" s="27"/>
-      <c r="C398" s="27"/>
+      <c r="A398" s="26"/>
+      <c r="B398" s="26"/>
+      <c r="C398" s="26"/>
       <c r="H398" s="12"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="27"/>
-      <c r="B399" s="27"/>
-      <c r="C399" s="27"/>
+      <c r="A399" s="26"/>
+      <c r="B399" s="26"/>
+      <c r="C399" s="26"/>
       <c r="H399" s="12"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="27"/>
-      <c r="B400" s="27"/>
-      <c r="C400" s="27"/>
+      <c r="A400" s="26"/>
+      <c r="B400" s="26"/>
+      <c r="C400" s="26"/>
       <c r="H400" s="12"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="27"/>
-      <c r="B401" s="27"/>
-      <c r="C401" s="27"/>
+      <c r="A401" s="26"/>
+      <c r="B401" s="26"/>
+      <c r="C401" s="26"/>
       <c r="H401" s="12"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="27"/>
-      <c r="B402" s="27"/>
-      <c r="C402" s="27"/>
+      <c r="A402" s="26"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
       <c r="H402" s="12"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="27"/>
-      <c r="B403" s="27"/>
-      <c r="C403" s="27"/>
+      <c r="A403" s="26"/>
+      <c r="B403" s="26"/>
+      <c r="C403" s="26"/>
       <c r="H403" s="12"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="27"/>
-      <c r="B404" s="27"/>
-      <c r="C404" s="27"/>
+      <c r="A404" s="26"/>
+      <c r="B404" s="26"/>
+      <c r="C404" s="26"/>
       <c r="H404" s="12"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="27"/>
-      <c r="B405" s="27"/>
-      <c r="C405" s="27"/>
+      <c r="A405" s="26"/>
+      <c r="B405" s="26"/>
+      <c r="C405" s="26"/>
       <c r="H405" s="12"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="27"/>
-      <c r="B406" s="27"/>
-      <c r="C406" s="27"/>
+      <c r="A406" s="26"/>
+      <c r="B406" s="26"/>
+      <c r="C406" s="26"/>
       <c r="H406" s="12"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="27"/>
-      <c r="B407" s="27"/>
-      <c r="C407" s="27"/>
+      <c r="A407" s="26"/>
+      <c r="B407" s="26"/>
+      <c r="C407" s="26"/>
       <c r="H407" s="12"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="27"/>
-      <c r="B408" s="27"/>
-      <c r="C408" s="27"/>
+      <c r="A408" s="26"/>
+      <c r="B408" s="26"/>
+      <c r="C408" s="26"/>
       <c r="H408" s="12"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="27"/>
-      <c r="B409" s="27"/>
-      <c r="C409" s="27"/>
+      <c r="A409" s="26"/>
+      <c r="B409" s="26"/>
+      <c r="C409" s="26"/>
       <c r="H409" s="12"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="27"/>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="A410" s="26"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
       <c r="H410" s="12"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="27"/>
-      <c r="B411" s="27"/>
-      <c r="C411" s="27"/>
+      <c r="A411" s="26"/>
+      <c r="B411" s="26"/>
+      <c r="C411" s="26"/>
       <c r="H411" s="12"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="27"/>
-      <c r="B412" s="27"/>
-      <c r="C412" s="27"/>
+      <c r="A412" s="26"/>
+      <c r="B412" s="26"/>
+      <c r="C412" s="26"/>
       <c r="H412" s="12"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="27"/>
-      <c r="B413" s="27"/>
-      <c r="C413" s="27"/>
+      <c r="A413" s="26"/>
+      <c r="B413" s="26"/>
+      <c r="C413" s="26"/>
       <c r="H413" s="12"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="27"/>
-      <c r="B414" s="27"/>
-      <c r="C414" s="27"/>
+      <c r="A414" s="26"/>
+      <c r="B414" s="26"/>
+      <c r="C414" s="26"/>
       <c r="H414" s="12"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="27"/>
-      <c r="B415" s="27"/>
-      <c r="C415" s="27"/>
+      <c r="A415" s="26"/>
+      <c r="B415" s="26"/>
+      <c r="C415" s="26"/>
       <c r="H415" s="12"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="27"/>
-      <c r="B416" s="27"/>
-      <c r="C416" s="27"/>
+      <c r="A416" s="26"/>
+      <c r="B416" s="26"/>
+      <c r="C416" s="26"/>
       <c r="H416" s="12"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="27"/>
-      <c r="B417" s="27"/>
-      <c r="C417" s="27"/>
+      <c r="A417" s="26"/>
+      <c r="B417" s="26"/>
+      <c r="C417" s="26"/>
       <c r="H417" s="12"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="27"/>
-      <c r="B418" s="27"/>
-      <c r="C418" s="27"/>
+      <c r="A418" s="26"/>
+      <c r="B418" s="26"/>
+      <c r="C418" s="26"/>
       <c r="H418" s="12"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="27"/>
-      <c r="B419" s="27"/>
-      <c r="C419" s="27"/>
+      <c r="A419" s="26"/>
+      <c r="B419" s="26"/>
+      <c r="C419" s="26"/>
       <c r="H419" s="12"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="27"/>
-      <c r="B420" s="27"/>
-      <c r="C420" s="27"/>
+      <c r="A420" s="26"/>
+      <c r="B420" s="26"/>
+      <c r="C420" s="26"/>
       <c r="H420" s="12"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="27"/>
-      <c r="B421" s="27"/>
-      <c r="C421" s="27"/>
+      <c r="A421" s="26"/>
+      <c r="B421" s="26"/>
+      <c r="C421" s="26"/>
       <c r="H421" s="12"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="27"/>
-      <c r="B422" s="27"/>
-      <c r="C422" s="27"/>
+      <c r="A422" s="26"/>
+      <c r="B422" s="26"/>
+      <c r="C422" s="26"/>
       <c r="H422" s="12"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="27"/>
-      <c r="B423" s="27"/>
-      <c r="C423" s="27"/>
+      <c r="A423" s="26"/>
+      <c r="B423" s="26"/>
+      <c r="C423" s="26"/>
       <c r="H423" s="12"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="27"/>
-      <c r="B424" s="27"/>
-      <c r="C424" s="27"/>
+      <c r="A424" s="26"/>
+      <c r="B424" s="26"/>
+      <c r="C424" s="26"/>
       <c r="H424" s="12"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="27"/>
-      <c r="B425" s="27"/>
-      <c r="C425" s="27"/>
+      <c r="A425" s="26"/>
+      <c r="B425" s="26"/>
+      <c r="C425" s="26"/>
       <c r="H425" s="12"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="27"/>
-      <c r="B426" s="27"/>
-      <c r="C426" s="27"/>
+      <c r="A426" s="26"/>
+      <c r="B426" s="26"/>
+      <c r="C426" s="26"/>
       <c r="H426" s="12"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="27"/>
-      <c r="B427" s="27"/>
-      <c r="C427" s="27"/>
+      <c r="A427" s="26"/>
+      <c r="B427" s="26"/>
+      <c r="C427" s="26"/>
       <c r="H427" s="12"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="27"/>
-      <c r="B428" s="27"/>
-      <c r="C428" s="27"/>
+      <c r="A428" s="26"/>
+      <c r="B428" s="26"/>
+      <c r="C428" s="26"/>
       <c r="H428" s="12"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="27"/>
-      <c r="B429" s="27"/>
-      <c r="C429" s="27"/>
+      <c r="A429" s="26"/>
+      <c r="B429" s="26"/>
+      <c r="C429" s="26"/>
       <c r="H429" s="12"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="27"/>
-      <c r="B430" s="27"/>
-      <c r="C430" s="27"/>
+      <c r="A430" s="26"/>
+      <c r="B430" s="26"/>
+      <c r="C430" s="26"/>
       <c r="H430" s="12"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="27"/>
-      <c r="B431" s="27"/>
-      <c r="C431" s="27"/>
+      <c r="A431" s="26"/>
+      <c r="B431" s="26"/>
+      <c r="C431" s="26"/>
       <c r="H431" s="12"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="27"/>
-      <c r="B432" s="27"/>
-      <c r="C432" s="27"/>
+      <c r="A432" s="26"/>
+      <c r="B432" s="26"/>
+      <c r="C432" s="26"/>
       <c r="H432" s="12"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="27"/>
-      <c r="B433" s="27"/>
-      <c r="C433" s="27"/>
+      <c r="A433" s="26"/>
+      <c r="B433" s="26"/>
+      <c r="C433" s="26"/>
       <c r="H433" s="12"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="27"/>
-      <c r="B434" s="27"/>
-      <c r="C434" s="27"/>
+      <c r="A434" s="26"/>
+      <c r="B434" s="26"/>
+      <c r="C434" s="26"/>
       <c r="H434" s="12"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="27"/>
-      <c r="B435" s="27"/>
-      <c r="C435" s="27"/>
+      <c r="A435" s="26"/>
+      <c r="B435" s="26"/>
+      <c r="C435" s="26"/>
       <c r="H435" s="12"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="27"/>
-      <c r="B436" s="27"/>
-      <c r="C436" s="27"/>
+      <c r="A436" s="26"/>
+      <c r="B436" s="26"/>
+      <c r="C436" s="26"/>
       <c r="H436" s="12"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="27"/>
-      <c r="B437" s="27"/>
-      <c r="C437" s="27"/>
+      <c r="A437" s="26"/>
+      <c r="B437" s="26"/>
+      <c r="C437" s="26"/>
       <c r="H437" s="12"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="27"/>
-      <c r="B438" s="27"/>
-      <c r="C438" s="27"/>
+      <c r="A438" s="26"/>
+      <c r="B438" s="26"/>
+      <c r="C438" s="26"/>
       <c r="H438" s="12"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="27"/>
-      <c r="B439" s="27"/>
-      <c r="C439" s="27"/>
+      <c r="A439" s="26"/>
+      <c r="B439" s="26"/>
+      <c r="C439" s="26"/>
       <c r="H439" s="12"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="27"/>
-      <c r="B440" s="27"/>
-      <c r="C440" s="27"/>
+      <c r="A440" s="26"/>
+      <c r="B440" s="26"/>
+      <c r="C440" s="26"/>
       <c r="H440" s="12"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="27"/>
-      <c r="B441" s="27"/>
-      <c r="C441" s="27"/>
+      <c r="A441" s="26"/>
+      <c r="B441" s="26"/>
+      <c r="C441" s="26"/>
       <c r="H441" s="12"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="27"/>
-      <c r="B442" s="27"/>
-      <c r="C442" s="27"/>
+      <c r="A442" s="26"/>
+      <c r="B442" s="26"/>
+      <c r="C442" s="26"/>
       <c r="H442" s="12"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="27"/>
-      <c r="B443" s="27"/>
-      <c r="C443" s="27"/>
+      <c r="A443" s="26"/>
+      <c r="B443" s="26"/>
+      <c r="C443" s="26"/>
       <c r="H443" s="12"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="27"/>
-      <c r="B444" s="27"/>
-      <c r="C444" s="27"/>
+      <c r="A444" s="26"/>
+      <c r="B444" s="26"/>
+      <c r="C444" s="26"/>
       <c r="H444" s="12"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="27"/>
-      <c r="B445" s="27"/>
-      <c r="C445" s="27"/>
+      <c r="A445" s="26"/>
+      <c r="B445" s="26"/>
+      <c r="C445" s="26"/>
       <c r="H445" s="12"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="27"/>
-      <c r="B446" s="27"/>
-      <c r="C446" s="27"/>
+      <c r="A446" s="26"/>
+      <c r="B446" s="26"/>
+      <c r="C446" s="26"/>
       <c r="H446" s="12"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="27"/>
-      <c r="B447" s="27"/>
-      <c r="C447" s="27"/>
+      <c r="A447" s="26"/>
+      <c r="B447" s="26"/>
+      <c r="C447" s="26"/>
       <c r="H447" s="12"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="27"/>
-      <c r="B448" s="27"/>
-      <c r="C448" s="27"/>
+      <c r="A448" s="26"/>
+      <c r="B448" s="26"/>
+      <c r="C448" s="26"/>
       <c r="H448" s="12"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="27"/>
-      <c r="B449" s="27"/>
-      <c r="C449" s="27"/>
+      <c r="A449" s="26"/>
+      <c r="B449" s="26"/>
+      <c r="C449" s="26"/>
       <c r="H449" s="12"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="27"/>
-      <c r="B450" s="27"/>
-      <c r="C450" s="27"/>
+      <c r="A450" s="26"/>
+      <c r="B450" s="26"/>
+      <c r="C450" s="26"/>
       <c r="H450" s="12"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="27"/>
-      <c r="B451" s="27"/>
-      <c r="C451" s="27"/>
+      <c r="A451" s="26"/>
+      <c r="B451" s="26"/>
+      <c r="C451" s="26"/>
       <c r="H451" s="12"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="27"/>
-      <c r="B452" s="27"/>
-      <c r="C452" s="27"/>
+      <c r="A452" s="26"/>
+      <c r="B452" s="26"/>
+      <c r="C452" s="26"/>
       <c r="H452" s="12"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="27"/>
-      <c r="B453" s="27"/>
-      <c r="C453" s="27"/>
+      <c r="A453" s="26"/>
+      <c r="B453" s="26"/>
+      <c r="C453" s="26"/>
       <c r="H453" s="12"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="27"/>
-      <c r="B454" s="27"/>
-      <c r="C454" s="27"/>
+      <c r="A454" s="26"/>
+      <c r="B454" s="26"/>
+      <c r="C454" s="26"/>
       <c r="H454" s="12"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="27"/>
-      <c r="B455" s="27"/>
-      <c r="C455" s="27"/>
+      <c r="A455" s="26"/>
+      <c r="B455" s="26"/>
+      <c r="C455" s="26"/>
       <c r="H455" s="12"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="27"/>
-      <c r="B456" s="27"/>
-      <c r="C456" s="27"/>
+      <c r="A456" s="26"/>
+      <c r="B456" s="26"/>
+      <c r="C456" s="26"/>
       <c r="H456" s="12"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="27"/>
-      <c r="B457" s="27"/>
-      <c r="C457" s="27"/>
+      <c r="A457" s="26"/>
+      <c r="B457" s="26"/>
+      <c r="C457" s="26"/>
       <c r="H457" s="12"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="27"/>
-      <c r="B458" s="27"/>
-      <c r="C458" s="27"/>
+      <c r="A458" s="26"/>
+      <c r="B458" s="26"/>
+      <c r="C458" s="26"/>
       <c r="H458" s="12"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="27"/>
-      <c r="B459" s="27"/>
-      <c r="C459" s="27"/>
+      <c r="A459" s="26"/>
+      <c r="B459" s="26"/>
+      <c r="C459" s="26"/>
       <c r="H459" s="12"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="27"/>
-      <c r="B460" s="27"/>
-      <c r="C460" s="27"/>
+      <c r="A460" s="26"/>
+      <c r="B460" s="26"/>
+      <c r="C460" s="26"/>
       <c r="H460" s="12"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="27"/>
-      <c r="B461" s="27"/>
-      <c r="C461" s="27"/>
+      <c r="A461" s="26"/>
+      <c r="B461" s="26"/>
+      <c r="C461" s="26"/>
       <c r="H461" s="12"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="27"/>
-      <c r="B462" s="27"/>
-      <c r="C462" s="27"/>
+      <c r="A462" s="26"/>
+      <c r="B462" s="26"/>
+      <c r="C462" s="26"/>
       <c r="H462" s="12"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="27"/>
-      <c r="B463" s="27"/>
-      <c r="C463" s="27"/>
+      <c r="A463" s="26"/>
+      <c r="B463" s="26"/>
+      <c r="C463" s="26"/>
       <c r="H463" s="12"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="27"/>
-      <c r="B464" s="27"/>
-      <c r="C464" s="27"/>
+      <c r="A464" s="26"/>
+      <c r="B464" s="26"/>
+      <c r="C464" s="26"/>
       <c r="H464" s="12"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="27"/>
-      <c r="B465" s="27"/>
-      <c r="C465" s="27"/>
+      <c r="A465" s="26"/>
+      <c r="B465" s="26"/>
+      <c r="C465" s="26"/>
       <c r="H465" s="12"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="27"/>
-      <c r="B466" s="27"/>
-      <c r="C466" s="27"/>
+      <c r="A466" s="26"/>
+      <c r="B466" s="26"/>
+      <c r="C466" s="26"/>
       <c r="H466" s="12"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="27"/>
-      <c r="B467" s="27"/>
-      <c r="C467" s="27"/>
+      <c r="A467" s="26"/>
+      <c r="B467" s="26"/>
+      <c r="C467" s="26"/>
       <c r="H467" s="12"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="27"/>
-      <c r="B468" s="27"/>
-      <c r="C468" s="27"/>
+      <c r="A468" s="26"/>
+      <c r="B468" s="26"/>
+      <c r="C468" s="26"/>
       <c r="H468" s="12"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="27"/>
-      <c r="B469" s="27"/>
-      <c r="C469" s="27"/>
+      <c r="A469" s="26"/>
+      <c r="B469" s="26"/>
+      <c r="C469" s="26"/>
       <c r="H469" s="12"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="27"/>
-      <c r="B470" s="27"/>
-      <c r="C470" s="27"/>
+      <c r="A470" s="26"/>
+      <c r="B470" s="26"/>
+      <c r="C470" s="26"/>
       <c r="H470" s="12"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="27"/>
-      <c r="B471" s="27"/>
-      <c r="C471" s="27"/>
+      <c r="A471" s="26"/>
+      <c r="B471" s="26"/>
+      <c r="C471" s="26"/>
       <c r="H471" s="12"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="27"/>
-      <c r="B472" s="27"/>
-      <c r="C472" s="27"/>
+      <c r="A472" s="26"/>
+      <c r="B472" s="26"/>
+      <c r="C472" s="26"/>
       <c r="H472" s="12"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="27"/>
-      <c r="B473" s="27"/>
-      <c r="C473" s="27"/>
+      <c r="A473" s="26"/>
+      <c r="B473" s="26"/>
+      <c r="C473" s="26"/>
       <c r="H473" s="12"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="27"/>
-      <c r="B474" s="27"/>
-      <c r="C474" s="27"/>
+      <c r="A474" s="26"/>
+      <c r="B474" s="26"/>
+      <c r="C474" s="26"/>
       <c r="H474" s="12"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="27"/>
-      <c r="B475" s="27"/>
-      <c r="C475" s="27"/>
+      <c r="A475" s="26"/>
+      <c r="B475" s="26"/>
+      <c r="C475" s="26"/>
       <c r="H475" s="12"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="27"/>
-      <c r="B476" s="27"/>
-      <c r="C476" s="27"/>
+      <c r="A476" s="26"/>
+      <c r="B476" s="26"/>
+      <c r="C476" s="26"/>
       <c r="H476" s="12"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="27"/>
-      <c r="B477" s="27"/>
-      <c r="C477" s="27"/>
+      <c r="A477" s="26"/>
+      <c r="B477" s="26"/>
+      <c r="C477" s="26"/>
       <c r="H477" s="12"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="27"/>
-      <c r="B478" s="27"/>
-      <c r="C478" s="27"/>
+      <c r="A478" s="26"/>
+      <c r="B478" s="26"/>
+      <c r="C478" s="26"/>
       <c r="H478" s="12"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="27"/>
-      <c r="B479" s="27"/>
-      <c r="C479" s="27"/>
+      <c r="A479" s="26"/>
+      <c r="B479" s="26"/>
+      <c r="C479" s="26"/>
       <c r="H479" s="12"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="27"/>
-      <c r="B480" s="27"/>
-      <c r="C480" s="27"/>
+      <c r="A480" s="26"/>
+      <c r="B480" s="26"/>
+      <c r="C480" s="26"/>
       <c r="H480" s="12"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="27"/>
-      <c r="B481" s="27"/>
-      <c r="C481" s="27"/>
+      <c r="A481" s="26"/>
+      <c r="B481" s="26"/>
+      <c r="C481" s="26"/>
       <c r="H481" s="12"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="27"/>
-      <c r="B482" s="27"/>
-      <c r="C482" s="27"/>
+      <c r="A482" s="26"/>
+      <c r="B482" s="26"/>
+      <c r="C482" s="26"/>
       <c r="H482" s="12"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="27"/>
-      <c r="B483" s="27"/>
-      <c r="C483" s="27"/>
+      <c r="A483" s="26"/>
+      <c r="B483" s="26"/>
+      <c r="C483" s="26"/>
       <c r="H483" s="12"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="27"/>
-      <c r="B484" s="27"/>
-      <c r="C484" s="27"/>
+      <c r="A484" s="26"/>
+      <c r="B484" s="26"/>
+      <c r="C484" s="26"/>
       <c r="H484" s="12"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="27"/>
-      <c r="B485" s="27"/>
-      <c r="C485" s="27"/>
+      <c r="A485" s="26"/>
+      <c r="B485" s="26"/>
+      <c r="C485" s="26"/>
       <c r="H485" s="12"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="27"/>
-      <c r="B486" s="27"/>
-      <c r="C486" s="27"/>
+      <c r="A486" s="26"/>
+      <c r="B486" s="26"/>
+      <c r="C486" s="26"/>
       <c r="H486" s="12"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="27"/>
-      <c r="B487" s="27"/>
-      <c r="C487" s="27"/>
+      <c r="A487" s="26"/>
+      <c r="B487" s="26"/>
+      <c r="C487" s="26"/>
       <c r="H487" s="12"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="27"/>
-      <c r="B488" s="27"/>
-      <c r="C488" s="27"/>
+      <c r="A488" s="26"/>
+      <c r="B488" s="26"/>
+      <c r="C488" s="26"/>
       <c r="H488" s="12"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="27"/>
-      <c r="B489" s="27"/>
-      <c r="C489" s="27"/>
+      <c r="A489" s="26"/>
+      <c r="B489" s="26"/>
+      <c r="C489" s="26"/>
       <c r="H489" s="12"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="27"/>
-      <c r="B490" s="27"/>
-      <c r="C490" s="27"/>
+      <c r="A490" s="26"/>
+      <c r="B490" s="26"/>
+      <c r="C490" s="26"/>
       <c r="H490" s="12"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="27"/>
-      <c r="B491" s="27"/>
-      <c r="C491" s="27"/>
+      <c r="A491" s="26"/>
+      <c r="B491" s="26"/>
+      <c r="C491" s="26"/>
       <c r="H491" s="12"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="27"/>
-      <c r="B492" s="27"/>
-      <c r="C492" s="27"/>
+      <c r="A492" s="26"/>
+      <c r="B492" s="26"/>
+      <c r="C492" s="26"/>
       <c r="H492" s="12"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="27"/>
-      <c r="B493" s="27"/>
-      <c r="C493" s="27"/>
+      <c r="A493" s="26"/>
+      <c r="B493" s="26"/>
+      <c r="C493" s="26"/>
       <c r="H493" s="12"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="27"/>
-      <c r="B494" s="27"/>
-      <c r="C494" s="27"/>
+      <c r="A494" s="26"/>
+      <c r="B494" s="26"/>
+      <c r="C494" s="26"/>
       <c r="H494" s="12"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="27"/>
-      <c r="B495" s="27"/>
-      <c r="C495" s="27"/>
+      <c r="A495" s="26"/>
+      <c r="B495" s="26"/>
+      <c r="C495" s="26"/>
       <c r="H495" s="12"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="27"/>
-      <c r="B496" s="27"/>
-      <c r="C496" s="27"/>
+      <c r="A496" s="26"/>
+      <c r="B496" s="26"/>
+      <c r="C496" s="26"/>
       <c r="H496" s="12"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="27"/>
-      <c r="B497" s="27"/>
-      <c r="C497" s="27"/>
+      <c r="A497" s="26"/>
+      <c r="B497" s="26"/>
+      <c r="C497" s="26"/>
       <c r="H497" s="12"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="27"/>
-      <c r="B498" s="27"/>
-      <c r="C498" s="27"/>
+      <c r="A498" s="26"/>
+      <c r="B498" s="26"/>
+      <c r="C498" s="26"/>
       <c r="H498" s="12"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="27"/>
-      <c r="B499" s="27"/>
-      <c r="C499" s="27"/>
+      <c r="A499" s="26"/>
+      <c r="B499" s="26"/>
+      <c r="C499" s="26"/>
       <c r="H499" s="12"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="27"/>
-      <c r="B500" s="27"/>
-      <c r="C500" s="27"/>
+      <c r="A500" s="26"/>
+      <c r="B500" s="26"/>
+      <c r="C500" s="26"/>
       <c r="H500" s="12"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="27"/>
-      <c r="B501" s="27"/>
-      <c r="C501" s="27"/>
+      <c r="A501" s="26"/>
+      <c r="B501" s="26"/>
+      <c r="C501" s="26"/>
       <c r="H501" s="12"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="27"/>
-      <c r="B502" s="27"/>
-      <c r="C502" s="27"/>
+      <c r="A502" s="26"/>
+      <c r="B502" s="26"/>
+      <c r="C502" s="26"/>
       <c r="H502" s="12"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="27"/>
-      <c r="B503" s="27"/>
-      <c r="C503" s="27"/>
+      <c r="A503" s="26"/>
+      <c r="B503" s="26"/>
+      <c r="C503" s="26"/>
       <c r="H503" s="12"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="27"/>
-      <c r="B504" s="27"/>
-      <c r="C504" s="27"/>
+      <c r="A504" s="26"/>
+      <c r="B504" s="26"/>
+      <c r="C504" s="26"/>
       <c r="H504" s="12"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="27"/>
-      <c r="B505" s="27"/>
-      <c r="C505" s="27"/>
+      <c r="A505" s="26"/>
+      <c r="B505" s="26"/>
+      <c r="C505" s="26"/>
       <c r="H505" s="12"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="27"/>
-      <c r="B506" s="27"/>
-      <c r="C506" s="27"/>
+      <c r="A506" s="26"/>
+      <c r="B506" s="26"/>
+      <c r="C506" s="26"/>
       <c r="H506" s="12"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="27"/>
-      <c r="B507" s="27"/>
-      <c r="C507" s="27"/>
+      <c r="A507" s="26"/>
+      <c r="B507" s="26"/>
+      <c r="C507" s="26"/>
       <c r="H507" s="12"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="27"/>
-      <c r="B508" s="27"/>
-      <c r="C508" s="27"/>
+      <c r="A508" s="26"/>
+      <c r="B508" s="26"/>
+      <c r="C508" s="26"/>
       <c r="H508" s="12"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="27"/>
-      <c r="B509" s="27"/>
-      <c r="C509" s="27"/>
+      <c r="A509" s="26"/>
+      <c r="B509" s="26"/>
+      <c r="C509" s="26"/>
       <c r="H509" s="12"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="27"/>
-      <c r="B510" s="27"/>
-      <c r="C510" s="27"/>
+      <c r="A510" s="26"/>
+      <c r="B510" s="26"/>
+      <c r="C510" s="26"/>
       <c r="H510" s="12"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="27"/>
-      <c r="B511" s="27"/>
-      <c r="C511" s="27"/>
+      <c r="A511" s="26"/>
+      <c r="B511" s="26"/>
+      <c r="C511" s="26"/>
       <c r="H511" s="12"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="27"/>
-      <c r="B512" s="27"/>
-      <c r="C512" s="27"/>
+      <c r="A512" s="26"/>
+      <c r="B512" s="26"/>
+      <c r="C512" s="26"/>
       <c r="H512" s="12"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="27"/>
-      <c r="B513" s="27"/>
-      <c r="C513" s="27"/>
+      <c r="A513" s="26"/>
+      <c r="B513" s="26"/>
+      <c r="C513" s="26"/>
       <c r="H513" s="12"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="27"/>
-      <c r="B514" s="27"/>
-      <c r="C514" s="27"/>
+      <c r="A514" s="26"/>
+      <c r="B514" s="26"/>
+      <c r="C514" s="26"/>
       <c r="H514" s="12"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="27"/>
-      <c r="B515" s="27"/>
-      <c r="C515" s="27"/>
+      <c r="A515" s="26"/>
+      <c r="B515" s="26"/>
+      <c r="C515" s="26"/>
       <c r="H515" s="12"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="27"/>
-      <c r="B516" s="27"/>
-      <c r="C516" s="27"/>
+      <c r="A516" s="26"/>
+      <c r="B516" s="26"/>
+      <c r="C516" s="26"/>
       <c r="H516" s="12"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="27"/>
-      <c r="B517" s="27"/>
-      <c r="C517" s="27"/>
+      <c r="A517" s="26"/>
+      <c r="B517" s="26"/>
+      <c r="C517" s="26"/>
       <c r="H517" s="12"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="27"/>
-      <c r="B518" s="27"/>
-      <c r="C518" s="27"/>
+      <c r="A518" s="26"/>
+      <c r="B518" s="26"/>
+      <c r="C518" s="26"/>
       <c r="H518" s="12"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="27"/>
-      <c r="B519" s="27"/>
-      <c r="C519" s="27"/>
+      <c r="A519" s="26"/>
+      <c r="B519" s="26"/>
+      <c r="C519" s="26"/>
       <c r="H519" s="12"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="27"/>
-      <c r="B520" s="27"/>
-      <c r="C520" s="27"/>
+      <c r="A520" s="26"/>
+      <c r="B520" s="26"/>
+      <c r="C520" s="26"/>
       <c r="H520" s="12"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="27"/>
-      <c r="B521" s="27"/>
-      <c r="C521" s="27"/>
+      <c r="A521" s="26"/>
+      <c r="B521" s="26"/>
+      <c r="C521" s="26"/>
       <c r="H521" s="12"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="27"/>
-      <c r="B522" s="27"/>
-      <c r="C522" s="27"/>
+      <c r="A522" s="26"/>
+      <c r="B522" s="26"/>
+      <c r="C522" s="26"/>
       <c r="H522" s="12"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="27"/>
-      <c r="B523" s="27"/>
-      <c r="C523" s="27"/>
+      <c r="A523" s="26"/>
+      <c r="B523" s="26"/>
+      <c r="C523" s="26"/>
       <c r="H523" s="12"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="27"/>
-      <c r="B524" s="27"/>
-      <c r="C524" s="27"/>
+      <c r="A524" s="26"/>
+      <c r="B524" s="26"/>
+      <c r="C524" s="26"/>
       <c r="H524" s="12"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="27"/>
-      <c r="B525" s="27"/>
-      <c r="C525" s="27"/>
+      <c r="A525" s="26"/>
+      <c r="B525" s="26"/>
+      <c r="C525" s="26"/>
       <c r="H525" s="12"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="27"/>
-      <c r="B526" s="27"/>
-      <c r="C526" s="27"/>
+      <c r="A526" s="26"/>
+      <c r="B526" s="26"/>
+      <c r="C526" s="26"/>
       <c r="H526" s="12"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="27"/>
-      <c r="B527" s="27"/>
-      <c r="C527" s="27"/>
+      <c r="A527" s="26"/>
+      <c r="B527" s="26"/>
+      <c r="C527" s="26"/>
       <c r="H527" s="12"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="27"/>
-      <c r="B528" s="27"/>
-      <c r="C528" s="27"/>
+      <c r="A528" s="26"/>
+      <c r="B528" s="26"/>
+      <c r="C528" s="26"/>
       <c r="H528" s="12"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="27"/>
-      <c r="B529" s="27"/>
-      <c r="C529" s="27"/>
+      <c r="A529" s="26"/>
+      <c r="B529" s="26"/>
+      <c r="C529" s="26"/>
       <c r="H529" s="12"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="27"/>
-      <c r="B530" s="27"/>
-      <c r="C530" s="27"/>
+      <c r="A530" s="26"/>
+      <c r="B530" s="26"/>
+      <c r="C530" s="26"/>
       <c r="H530" s="12"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="27"/>
-      <c r="B531" s="27"/>
-      <c r="C531" s="27"/>
+      <c r="A531" s="26"/>
+      <c r="B531" s="26"/>
+      <c r="C531" s="26"/>
       <c r="H531" s="12"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="27"/>
-      <c r="B532" s="27"/>
-      <c r="C532" s="27"/>
+      <c r="A532" s="26"/>
+      <c r="B532" s="26"/>
+      <c r="C532" s="26"/>
       <c r="H532" s="12"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="27"/>
-      <c r="B533" s="27"/>
-      <c r="C533" s="27"/>
+      <c r="A533" s="26"/>
+      <c r="B533" s="26"/>
+      <c r="C533" s="26"/>
       <c r="H533" s="12"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="27"/>
-      <c r="B534" s="27"/>
-      <c r="C534" s="27"/>
+      <c r="A534" s="26"/>
+      <c r="B534" s="26"/>
+      <c r="C534" s="26"/>
       <c r="H534" s="12"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="27"/>
-      <c r="B535" s="27"/>
-      <c r="C535" s="27"/>
+      <c r="A535" s="26"/>
+      <c r="B535" s="26"/>
+      <c r="C535" s="26"/>
       <c r="H535" s="12"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="27"/>
-      <c r="B536" s="27"/>
-      <c r="C536" s="27"/>
+      <c r="A536" s="26"/>
+      <c r="B536" s="26"/>
+      <c r="C536" s="26"/>
       <c r="H536" s="12"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="27"/>
-      <c r="B537" s="27"/>
-      <c r="C537" s="27"/>
+      <c r="A537" s="26"/>
+      <c r="B537" s="26"/>
+      <c r="C537" s="26"/>
       <c r="H537" s="12"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="27"/>
-      <c r="B538" s="27"/>
-      <c r="C538" s="27"/>
+      <c r="A538" s="26"/>
+      <c r="B538" s="26"/>
+      <c r="C538" s="26"/>
       <c r="H538" s="12"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="27"/>
-      <c r="B539" s="27"/>
-      <c r="C539" s="27"/>
+      <c r="A539" s="26"/>
+      <c r="B539" s="26"/>
+      <c r="C539" s="26"/>
       <c r="H539" s="12"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="27"/>
-      <c r="B540" s="27"/>
-      <c r="C540" s="27"/>
+      <c r="A540" s="26"/>
+      <c r="B540" s="26"/>
+      <c r="C540" s="26"/>
       <c r="H540" s="12"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="27"/>
-      <c r="B541" s="27"/>
-      <c r="C541" s="27"/>
+      <c r="A541" s="26"/>
+      <c r="B541" s="26"/>
+      <c r="C541" s="26"/>
       <c r="H541" s="12"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="27"/>
-      <c r="B542" s="27"/>
-      <c r="C542" s="27"/>
+      <c r="A542" s="26"/>
+      <c r="B542" s="26"/>
+      <c r="C542" s="26"/>
       <c r="H542" s="12"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="27"/>
-      <c r="B543" s="27"/>
-      <c r="C543" s="27"/>
+      <c r="A543" s="26"/>
+      <c r="B543" s="26"/>
+      <c r="C543" s="26"/>
       <c r="H543" s="12"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="27"/>
-      <c r="B544" s="27"/>
-      <c r="C544" s="27"/>
+      <c r="A544" s="26"/>
+      <c r="B544" s="26"/>
+      <c r="C544" s="26"/>
       <c r="H544" s="12"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="27"/>
-      <c r="B545" s="27"/>
-      <c r="C545" s="27"/>
+      <c r="A545" s="26"/>
+      <c r="B545" s="26"/>
+      <c r="C545" s="26"/>
       <c r="H545" s="12"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="27"/>
-      <c r="B546" s="27"/>
-      <c r="C546" s="27"/>
+      <c r="A546" s="26"/>
+      <c r="B546" s="26"/>
+      <c r="C546" s="26"/>
       <c r="H546" s="12"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="27"/>
-      <c r="B547" s="27"/>
-      <c r="C547" s="27"/>
+      <c r="A547" s="26"/>
+      <c r="B547" s="26"/>
+      <c r="C547" s="26"/>
       <c r="H547" s="12"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="27"/>
-      <c r="B548" s="27"/>
-      <c r="C548" s="27"/>
+      <c r="A548" s="26"/>
+      <c r="B548" s="26"/>
+      <c r="C548" s="26"/>
       <c r="H548" s="12"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="27"/>
-      <c r="B549" s="27"/>
-      <c r="C549" s="27"/>
+      <c r="A549" s="26"/>
+      <c r="B549" s="26"/>
+      <c r="C549" s="26"/>
       <c r="H549" s="12"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="27"/>
-      <c r="B550" s="27"/>
-      <c r="C550" s="27"/>
+      <c r="A550" s="26"/>
+      <c r="B550" s="26"/>
+      <c r="C550" s="26"/>
       <c r="H550" s="12"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="27"/>
-      <c r="B551" s="27"/>
-      <c r="C551" s="27"/>
+      <c r="A551" s="26"/>
+      <c r="B551" s="26"/>
+      <c r="C551" s="26"/>
       <c r="H551" s="12"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="27"/>
-      <c r="B552" s="27"/>
-      <c r="C552" s="27"/>
+      <c r="A552" s="26"/>
+      <c r="B552" s="26"/>
+      <c r="C552" s="26"/>
       <c r="H552" s="12"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="27"/>
-      <c r="B553" s="27"/>
-      <c r="C553" s="27"/>
+      <c r="A553" s="26"/>
+      <c r="B553" s="26"/>
+      <c r="C553" s="26"/>
       <c r="H553" s="12"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="27"/>
-      <c r="B554" s="27"/>
-      <c r="C554" s="27"/>
+      <c r="A554" s="26"/>
+      <c r="B554" s="26"/>
+      <c r="C554" s="26"/>
       <c r="H554" s="12"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="27"/>
-      <c r="B555" s="27"/>
-      <c r="C555" s="27"/>
+      <c r="A555" s="26"/>
+      <c r="B555" s="26"/>
+      <c r="C555" s="26"/>
       <c r="H555" s="12"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="27"/>
-      <c r="B556" s="27"/>
-      <c r="C556" s="27"/>
+      <c r="A556" s="26"/>
+      <c r="B556" s="26"/>
+      <c r="C556" s="26"/>
       <c r="H556" s="12"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="27"/>
-      <c r="B557" s="27"/>
-      <c r="C557" s="27"/>
+      <c r="A557" s="26"/>
+      <c r="B557" s="26"/>
+      <c r="C557" s="26"/>
       <c r="H557" s="12"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="27"/>
-      <c r="B558" s="27"/>
-      <c r="C558" s="27"/>
+      <c r="A558" s="26"/>
+      <c r="B558" s="26"/>
+      <c r="C558" s="26"/>
       <c r="H558" s="12"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="27"/>
-      <c r="B559" s="27"/>
-      <c r="C559" s="27"/>
+      <c r="A559" s="26"/>
+      <c r="B559" s="26"/>
+      <c r="C559" s="26"/>
       <c r="H559" s="12"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="27"/>
-      <c r="B560" s="27"/>
-      <c r="C560" s="27"/>
+      <c r="A560" s="26"/>
+      <c r="B560" s="26"/>
+      <c r="C560" s="26"/>
       <c r="H560" s="12"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="27"/>
-      <c r="B561" s="27"/>
-      <c r="C561" s="27"/>
+      <c r="A561" s="26"/>
+      <c r="B561" s="26"/>
+      <c r="C561" s="26"/>
       <c r="H561" s="12"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="27"/>
-      <c r="B562" s="27"/>
-      <c r="C562" s="27"/>
+      <c r="A562" s="26"/>
+      <c r="B562" s="26"/>
+      <c r="C562" s="26"/>
       <c r="H562" s="12"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="27"/>
-      <c r="B563" s="27"/>
-      <c r="C563" s="27"/>
+      <c r="A563" s="26"/>
+      <c r="B563" s="26"/>
+      <c r="C563" s="26"/>
       <c r="H563" s="12"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="27"/>
-      <c r="B564" s="27"/>
-      <c r="C564" s="27"/>
+      <c r="A564" s="26"/>
+      <c r="B564" s="26"/>
+      <c r="C564" s="26"/>
       <c r="H564" s="12"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="27"/>
-      <c r="B565" s="27"/>
-      <c r="C565" s="27"/>
+      <c r="A565" s="26"/>
+      <c r="B565" s="26"/>
+      <c r="C565" s="26"/>
       <c r="H565" s="12"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="27"/>
-      <c r="B566" s="27"/>
-      <c r="C566" s="27"/>
+      <c r="A566" s="26"/>
+      <c r="B566" s="26"/>
+      <c r="C566" s="26"/>
       <c r="H566" s="12"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="27"/>
-      <c r="B567" s="27"/>
-      <c r="C567" s="27"/>
+      <c r="A567" s="26"/>
+      <c r="B567" s="26"/>
+      <c r="C567" s="26"/>
       <c r="H567" s="12"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="27"/>
-      <c r="B568" s="27"/>
-      <c r="C568" s="27"/>
+      <c r="A568" s="26"/>
+      <c r="B568" s="26"/>
+      <c r="C568" s="26"/>
       <c r="H568" s="12"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="27"/>
-      <c r="B569" s="27"/>
-      <c r="C569" s="27"/>
+      <c r="A569" s="26"/>
+      <c r="B569" s="26"/>
+      <c r="C569" s="26"/>
       <c r="H569" s="12"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="27"/>
-      <c r="B570" s="27"/>
-      <c r="C570" s="27"/>
+      <c r="A570" s="26"/>
+      <c r="B570" s="26"/>
+      <c r="C570" s="26"/>
       <c r="H570" s="12"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="27"/>
-      <c r="B571" s="27"/>
-      <c r="C571" s="27"/>
+      <c r="A571" s="26"/>
+      <c r="B571" s="26"/>
+      <c r="C571" s="26"/>
       <c r="H571" s="12"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="27"/>
-      <c r="B572" s="27"/>
-      <c r="C572" s="27"/>
+      <c r="A572" s="26"/>
+      <c r="B572" s="26"/>
+      <c r="C572" s="26"/>
       <c r="H572" s="12"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="27"/>
-      <c r="B573" s="27"/>
-      <c r="C573" s="27"/>
+      <c r="A573" s="26"/>
+      <c r="B573" s="26"/>
+      <c r="C573" s="26"/>
       <c r="H573" s="12"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="27"/>
-      <c r="B574" s="27"/>
-      <c r="C574" s="27"/>
+      <c r="A574" s="26"/>
+      <c r="B574" s="26"/>
+      <c r="C574" s="26"/>
       <c r="H574" s="12"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="27"/>
-      <c r="B575" s="27"/>
-      <c r="C575" s="27"/>
+      <c r="A575" s="26"/>
+      <c r="B575" s="26"/>
+      <c r="C575" s="26"/>
       <c r="H575" s="12"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="27"/>
-      <c r="B576" s="27"/>
-      <c r="C576" s="27"/>
+      <c r="A576" s="26"/>
+      <c r="B576" s="26"/>
+      <c r="C576" s="26"/>
       <c r="H576" s="12"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="27"/>
-      <c r="B577" s="27"/>
-      <c r="C577" s="27"/>
+      <c r="A577" s="26"/>
+      <c r="B577" s="26"/>
+      <c r="C577" s="26"/>
       <c r="H577" s="12"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="27"/>
-      <c r="B578" s="27"/>
-      <c r="C578" s="27"/>
+      <c r="A578" s="26"/>
+      <c r="B578" s="26"/>
+      <c r="C578" s="26"/>
       <c r="H578" s="12"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="27"/>
-      <c r="B579" s="27"/>
-      <c r="C579" s="27"/>
+      <c r="A579" s="26"/>
+      <c r="B579" s="26"/>
+      <c r="C579" s="26"/>
       <c r="H579" s="12"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="27"/>
-      <c r="B580" s="27"/>
-      <c r="C580" s="27"/>
+      <c r="A580" s="26"/>
+      <c r="B580" s="26"/>
+      <c r="C580" s="26"/>
       <c r="H580" s="12"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="27"/>
-      <c r="B581" s="27"/>
-      <c r="C581" s="27"/>
+      <c r="A581" s="26"/>
+      <c r="B581" s="26"/>
+      <c r="C581" s="26"/>
       <c r="H581" s="12"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="27"/>
-      <c r="B582" s="27"/>
-      <c r="C582" s="27"/>
+      <c r="A582" s="26"/>
+      <c r="B582" s="26"/>
+      <c r="C582" s="26"/>
       <c r="H582" s="12"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="27"/>
-      <c r="B583" s="27"/>
-      <c r="C583" s="27"/>
+      <c r="A583" s="26"/>
+      <c r="B583" s="26"/>
+      <c r="C583" s="26"/>
       <c r="H583" s="12"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="27"/>
-      <c r="B584" s="27"/>
-      <c r="C584" s="27"/>
+      <c r="A584" s="26"/>
+      <c r="B584" s="26"/>
+      <c r="C584" s="26"/>
       <c r="H584" s="12"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="27"/>
-      <c r="B585" s="27"/>
-      <c r="C585" s="27"/>
+      <c r="A585" s="26"/>
+      <c r="B585" s="26"/>
+      <c r="C585" s="26"/>
       <c r="H585" s="12"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="27"/>
-      <c r="B586" s="27"/>
-      <c r="C586" s="27"/>
+      <c r="A586" s="26"/>
+      <c r="B586" s="26"/>
+      <c r="C586" s="26"/>
       <c r="H586" s="12"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="27"/>
-      <c r="B587" s="27"/>
-      <c r="C587" s="27"/>
+      <c r="A587" s="26"/>
+      <c r="B587" s="26"/>
+      <c r="C587" s="26"/>
       <c r="H587" s="12"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="27"/>
-      <c r="B588" s="27"/>
-      <c r="C588" s="27"/>
+      <c r="A588" s="26"/>
+      <c r="B588" s="26"/>
+      <c r="C588" s="26"/>
       <c r="H588" s="12"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="27"/>
-      <c r="B589" s="27"/>
-      <c r="C589" s="27"/>
+      <c r="A589" s="26"/>
+      <c r="B589" s="26"/>
+      <c r="C589" s="26"/>
       <c r="H589" s="12"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="27"/>
-      <c r="B590" s="27"/>
-      <c r="C590" s="27"/>
+      <c r="A590" s="26"/>
+      <c r="B590" s="26"/>
+      <c r="C590" s="26"/>
       <c r="H590" s="12"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="27"/>
-      <c r="B591" s="27"/>
-      <c r="C591" s="27"/>
+      <c r="A591" s="26"/>
+      <c r="B591" s="26"/>
+      <c r="C591" s="26"/>
       <c r="H591" s="12"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="27"/>
-      <c r="B592" s="27"/>
-      <c r="C592" s="27"/>
+      <c r="A592" s="26"/>
+      <c r="B592" s="26"/>
+      <c r="C592" s="26"/>
       <c r="H592" s="12"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="27"/>
-      <c r="B593" s="27"/>
-      <c r="C593" s="27"/>
+      <c r="A593" s="26"/>
+      <c r="B593" s="26"/>
+      <c r="C593" s="26"/>
       <c r="H593" s="12"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="27"/>
-      <c r="B594" s="27"/>
-      <c r="C594" s="27"/>
+      <c r="A594" s="26"/>
+      <c r="B594" s="26"/>
+      <c r="C594" s="26"/>
       <c r="H594" s="12"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="27"/>
-      <c r="B595" s="27"/>
-      <c r="C595" s="27"/>
+      <c r="A595" s="26"/>
+      <c r="B595" s="26"/>
+      <c r="C595" s="26"/>
       <c r="H595" s="12"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="27"/>
-      <c r="B596" s="27"/>
-      <c r="C596" s="27"/>
+      <c r="A596" s="26"/>
+      <c r="B596" s="26"/>
+      <c r="C596" s="26"/>
       <c r="H596" s="12"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="27"/>
-      <c r="B597" s="27"/>
-      <c r="C597" s="27"/>
+      <c r="A597" s="26"/>
+      <c r="B597" s="26"/>
+      <c r="C597" s="26"/>
       <c r="H597" s="12"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="27"/>
-      <c r="B598" s="27"/>
-      <c r="C598" s="27"/>
+      <c r="A598" s="26"/>
+      <c r="B598" s="26"/>
+      <c r="C598" s="26"/>
       <c r="H598" s="12"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="27"/>
-      <c r="B599" s="27"/>
-      <c r="C599" s="27"/>
+      <c r="A599" s="26"/>
+      <c r="B599" s="26"/>
+      <c r="C599" s="26"/>
       <c r="H599" s="12"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="27"/>
-      <c r="B600" s="27"/>
-      <c r="C600" s="27"/>
+      <c r="A600" s="26"/>
+      <c r="B600" s="26"/>
+      <c r="C600" s="26"/>
       <c r="H600" s="12"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="27"/>
-      <c r="B601" s="27"/>
-      <c r="C601" s="27"/>
+      <c r="A601" s="26"/>
+      <c r="B601" s="26"/>
+      <c r="C601" s="26"/>
       <c r="H601" s="12"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="27"/>
-      <c r="B602" s="27"/>
-      <c r="C602" s="27"/>
+      <c r="A602" s="26"/>
+      <c r="B602" s="26"/>
+      <c r="C602" s="26"/>
       <c r="H602" s="12"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="27"/>
-      <c r="B603" s="27"/>
-      <c r="C603" s="27"/>
+      <c r="A603" s="26"/>
+      <c r="B603" s="26"/>
+      <c r="C603" s="26"/>
       <c r="H603" s="12"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="27"/>
-      <c r="B604" s="27"/>
-      <c r="C604" s="27"/>
+      <c r="A604" s="26"/>
+      <c r="B604" s="26"/>
+      <c r="C604" s="26"/>
       <c r="H604" s="12"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="27"/>
-      <c r="B605" s="27"/>
-      <c r="C605" s="27"/>
+      <c r="A605" s="26"/>
+      <c r="B605" s="26"/>
+      <c r="C605" s="26"/>
       <c r="H605" s="12"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="27"/>
-      <c r="B606" s="27"/>
-      <c r="C606" s="27"/>
+      <c r="A606" s="26"/>
+      <c r="B606" s="26"/>
+      <c r="C606" s="26"/>
       <c r="H606" s="12"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="27"/>
-      <c r="B607" s="27"/>
-      <c r="C607" s="27"/>
+      <c r="A607" s="26"/>
+      <c r="B607" s="26"/>
+      <c r="C607" s="26"/>
       <c r="H607" s="12"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="27"/>
-      <c r="B608" s="27"/>
-      <c r="C608" s="27"/>
+      <c r="A608" s="26"/>
+      <c r="B608" s="26"/>
+      <c r="C608" s="26"/>
       <c r="H608" s="12"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="27"/>
-      <c r="B609" s="27"/>
-      <c r="C609" s="27"/>
+      <c r="A609" s="26"/>
+      <c r="B609" s="26"/>
+      <c r="C609" s="26"/>
       <c r="H609" s="12"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="27"/>
-      <c r="B610" s="27"/>
-      <c r="C610" s="27"/>
+      <c r="A610" s="26"/>
+      <c r="B610" s="26"/>
+      <c r="C610" s="26"/>
       <c r="H610" s="12"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="27"/>
-      <c r="B611" s="27"/>
-      <c r="C611" s="27"/>
+      <c r="A611" s="26"/>
+      <c r="B611" s="26"/>
+      <c r="C611" s="26"/>
       <c r="H611" s="12"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="27"/>
-      <c r="B612" s="27"/>
-      <c r="C612" s="27"/>
+      <c r="A612" s="26"/>
+      <c r="B612" s="26"/>
+      <c r="C612" s="26"/>
       <c r="H612" s="12"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="27"/>
-      <c r="B613" s="27"/>
-      <c r="C613" s="27"/>
+      <c r="A613" s="26"/>
+      <c r="B613" s="26"/>
+      <c r="C613" s="26"/>
       <c r="H613" s="12"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="27"/>
-      <c r="B614" s="27"/>
-      <c r="C614" s="27"/>
+      <c r="A614" s="26"/>
+      <c r="B614" s="26"/>
+      <c r="C614" s="26"/>
       <c r="H614" s="12"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="27"/>
-      <c r="B615" s="27"/>
-      <c r="C615" s="27"/>
+      <c r="A615" s="26"/>
+      <c r="B615" s="26"/>
+      <c r="C615" s="26"/>
       <c r="H615" s="12"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="27"/>
-      <c r="B616" s="27"/>
-      <c r="C616" s="27"/>
+      <c r="A616" s="26"/>
+      <c r="B616" s="26"/>
+      <c r="C616" s="26"/>
       <c r="H616" s="12"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="27"/>
-      <c r="B617" s="27"/>
-      <c r="C617" s="27"/>
+      <c r="A617" s="26"/>
+      <c r="B617" s="26"/>
+      <c r="C617" s="26"/>
       <c r="H617" s="12"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="27"/>
-      <c r="B618" s="27"/>
-      <c r="C618" s="27"/>
+      <c r="A618" s="26"/>
+      <c r="B618" s="26"/>
+      <c r="C618" s="26"/>
       <c r="H618" s="12"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="27"/>
-      <c r="B619" s="27"/>
-      <c r="C619" s="27"/>
+      <c r="A619" s="26"/>
+      <c r="B619" s="26"/>
+      <c r="C619" s="26"/>
       <c r="H619" s="12"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="27"/>
-      <c r="B620" s="27"/>
-      <c r="C620" s="27"/>
+      <c r="A620" s="26"/>
+      <c r="B620" s="26"/>
+      <c r="C620" s="26"/>
       <c r="H620" s="12"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="27"/>
-      <c r="B621" s="27"/>
-      <c r="C621" s="27"/>
+      <c r="A621" s="26"/>
+      <c r="B621" s="26"/>
+      <c r="C621" s="26"/>
       <c r="H621" s="12"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="27"/>
-      <c r="B622" s="27"/>
-      <c r="C622" s="27"/>
+      <c r="A622" s="26"/>
+      <c r="B622" s="26"/>
+      <c r="C622" s="26"/>
       <c r="H622" s="12"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="27"/>
-      <c r="B623" s="27"/>
-      <c r="C623" s="27"/>
+      <c r="A623" s="26"/>
+      <c r="B623" s="26"/>
+      <c r="C623" s="26"/>
       <c r="H623" s="12"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="27"/>
-      <c r="B624" s="27"/>
-      <c r="C624" s="27"/>
+      <c r="A624" s="26"/>
+      <c r="B624" s="26"/>
+      <c r="C624" s="26"/>
       <c r="H624" s="12"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="27"/>
-      <c r="B625" s="27"/>
-      <c r="C625" s="27"/>
+      <c r="A625" s="26"/>
+      <c r="B625" s="26"/>
+      <c r="C625" s="26"/>
       <c r="H625" s="12"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="27"/>
-      <c r="B626" s="27"/>
-      <c r="C626" s="27"/>
+      <c r="A626" s="26"/>
+      <c r="B626" s="26"/>
+      <c r="C626" s="26"/>
       <c r="H626" s="12"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="27"/>
-      <c r="B627" s="27"/>
-      <c r="C627" s="27"/>
+      <c r="A627" s="26"/>
+      <c r="B627" s="26"/>
+      <c r="C627" s="26"/>
       <c r="H627" s="12"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="27"/>
-      <c r="B628" s="27"/>
-      <c r="C628" s="27"/>
+      <c r="A628" s="26"/>
+      <c r="B628" s="26"/>
+      <c r="C628" s="26"/>
       <c r="H628" s="12"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="27"/>
-      <c r="B629" s="27"/>
-      <c r="C629" s="27"/>
+      <c r="A629" s="26"/>
+      <c r="B629" s="26"/>
+      <c r="C629" s="26"/>
       <c r="H629" s="12"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="27"/>
-      <c r="B630" s="27"/>
-      <c r="C630" s="27"/>
+      <c r="A630" s="26"/>
+      <c r="B630" s="26"/>
+      <c r="C630" s="26"/>
       <c r="H630" s="12"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="27"/>
-      <c r="B631" s="27"/>
-      <c r="C631" s="27"/>
+      <c r="A631" s="26"/>
+      <c r="B631" s="26"/>
+      <c r="C631" s="26"/>
       <c r="H631" s="12"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="27"/>
-      <c r="B632" s="27"/>
-      <c r="C632" s="27"/>
+      <c r="A632" s="26"/>
+      <c r="B632" s="26"/>
+      <c r="C632" s="26"/>
       <c r="H632" s="12"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="27"/>
-      <c r="B633" s="27"/>
-      <c r="C633" s="27"/>
+      <c r="A633" s="26"/>
+      <c r="B633" s="26"/>
+      <c r="C633" s="26"/>
       <c r="H633" s="12"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="27"/>
-      <c r="B634" s="27"/>
-      <c r="C634" s="27"/>
+      <c r="A634" s="26"/>
+      <c r="B634" s="26"/>
+      <c r="C634" s="26"/>
       <c r="H634" s="12"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="27"/>
-      <c r="B635" s="27"/>
-      <c r="C635" s="27"/>
+      <c r="A635" s="26"/>
+      <c r="B635" s="26"/>
+      <c r="C635" s="26"/>
       <c r="H635" s="12"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="27"/>
-      <c r="B636" s="27"/>
-      <c r="C636" s="27"/>
+      <c r="A636" s="26"/>
+      <c r="B636" s="26"/>
+      <c r="C636" s="26"/>
       <c r="H636" s="12"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="27"/>
-      <c r="B637" s="27"/>
-      <c r="C637" s="27"/>
+      <c r="A637" s="26"/>
+      <c r="B637" s="26"/>
+      <c r="C637" s="26"/>
       <c r="H637" s="12"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="27"/>
-      <c r="B638" s="27"/>
-      <c r="C638" s="27"/>
+      <c r="A638" s="26"/>
+      <c r="B638" s="26"/>
+      <c r="C638" s="26"/>
       <c r="H638" s="12"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="27"/>
-      <c r="B639" s="27"/>
-      <c r="C639" s="27"/>
+      <c r="A639" s="26"/>
+      <c r="B639" s="26"/>
+      <c r="C639" s="26"/>
       <c r="H639" s="12"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="27"/>
-      <c r="B640" s="27"/>
-      <c r="C640" s="27"/>
+      <c r="A640" s="26"/>
+      <c r="B640" s="26"/>
+      <c r="C640" s="26"/>
       <c r="H640" s="12"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="27"/>
-      <c r="B641" s="27"/>
-      <c r="C641" s="27"/>
+      <c r="A641" s="26"/>
+      <c r="B641" s="26"/>
+      <c r="C641" s="26"/>
       <c r="H641" s="12"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="27"/>
-      <c r="B642" s="27"/>
-      <c r="C642" s="27"/>
+      <c r="A642" s="26"/>
+      <c r="B642" s="26"/>
+      <c r="C642" s="26"/>
       <c r="H642" s="12"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="27"/>
-      <c r="B643" s="27"/>
-      <c r="C643" s="27"/>
+      <c r="A643" s="26"/>
+      <c r="B643" s="26"/>
+      <c r="C643" s="26"/>
       <c r="H643" s="12"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="27"/>
-      <c r="B644" s="27"/>
-      <c r="C644" s="27"/>
+      <c r="A644" s="26"/>
+      <c r="B644" s="26"/>
+      <c r="C644" s="26"/>
       <c r="H644" s="12"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="27"/>
-      <c r="B645" s="27"/>
-      <c r="C645" s="27"/>
+      <c r="A645" s="26"/>
+      <c r="B645" s="26"/>
+      <c r="C645" s="26"/>
       <c r="H645" s="12"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="27"/>
-      <c r="B646" s="27"/>
-      <c r="C646" s="27"/>
+      <c r="A646" s="26"/>
+      <c r="B646" s="26"/>
+      <c r="C646" s="26"/>
       <c r="H646" s="12"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="27"/>
-      <c r="B647" s="27"/>
-      <c r="C647" s="27"/>
+      <c r="A647" s="26"/>
+      <c r="B647" s="26"/>
+      <c r="C647" s="26"/>
       <c r="H647" s="12"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="27"/>
-      <c r="B648" s="27"/>
-      <c r="C648" s="27"/>
+      <c r="A648" s="26"/>
+      <c r="B648" s="26"/>
+      <c r="C648" s="26"/>
       <c r="H648" s="12"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="27"/>
-      <c r="B649" s="27"/>
-      <c r="C649" s="27"/>
+      <c r="A649" s="26"/>
+      <c r="B649" s="26"/>
+      <c r="C649" s="26"/>
       <c r="H649" s="12"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="27"/>
-      <c r="B650" s="27"/>
-      <c r="C650" s="27"/>
+      <c r="A650" s="26"/>
+      <c r="B650" s="26"/>
+      <c r="C650" s="26"/>
       <c r="H650" s="12"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="27"/>
-      <c r="B651" s="27"/>
-      <c r="C651" s="27"/>
+      <c r="A651" s="26"/>
+      <c r="B651" s="26"/>
+      <c r="C651" s="26"/>
       <c r="H651" s="12"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="27"/>
-      <c r="B652" s="27"/>
-      <c r="C652" s="27"/>
+      <c r="A652" s="26"/>
+      <c r="B652" s="26"/>
+      <c r="C652" s="26"/>
       <c r="H652" s="12"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="27"/>
-      <c r="B653" s="27"/>
-      <c r="C653" s="27"/>
+      <c r="A653" s="26"/>
+      <c r="B653" s="26"/>
+      <c r="C653" s="26"/>
       <c r="H653" s="12"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="27"/>
-      <c r="B654" s="27"/>
-      <c r="C654" s="27"/>
+      <c r="A654" s="26"/>
+      <c r="B654" s="26"/>
+      <c r="C654" s="26"/>
       <c r="H654" s="12"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="27"/>
-      <c r="B655" s="27"/>
-      <c r="C655" s="27"/>
+      <c r="A655" s="26"/>
+      <c r="B655" s="26"/>
+      <c r="C655" s="26"/>
       <c r="H655" s="12"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="27"/>
-      <c r="B656" s="27"/>
-      <c r="C656" s="27"/>
+      <c r="A656" s="26"/>
+      <c r="B656" s="26"/>
+      <c r="C656" s="26"/>
       <c r="H656" s="12"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="27"/>
-      <c r="B657" s="27"/>
-      <c r="C657" s="27"/>
+      <c r="A657" s="26"/>
+      <c r="B657" s="26"/>
+      <c r="C657" s="26"/>
       <c r="H657" s="12"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="27"/>
-      <c r="B658" s="27"/>
-      <c r="C658" s="27"/>
+      <c r="A658" s="26"/>
+      <c r="B658" s="26"/>
+      <c r="C658" s="26"/>
       <c r="H658" s="12"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="27"/>
-      <c r="B659" s="27"/>
-      <c r="C659" s="27"/>
+      <c r="A659" s="26"/>
+      <c r="B659" s="26"/>
+      <c r="C659" s="26"/>
       <c r="H659" s="12"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="27"/>
-      <c r="B660" s="27"/>
-      <c r="C660" s="27"/>
+      <c r="A660" s="26"/>
+      <c r="B660" s="26"/>
+      <c r="C660" s="26"/>
       <c r="H660" s="12"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="27"/>
-      <c r="B661" s="27"/>
-      <c r="C661" s="27"/>
+      <c r="A661" s="26"/>
+      <c r="B661" s="26"/>
+      <c r="C661" s="26"/>
       <c r="H661" s="12"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="27"/>
-      <c r="B662" s="27"/>
-      <c r="C662" s="27"/>
+      <c r="A662" s="26"/>
+      <c r="B662" s="26"/>
+      <c r="C662" s="26"/>
       <c r="H662" s="12"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="27"/>
-      <c r="B663" s="27"/>
-      <c r="C663" s="27"/>
+      <c r="A663" s="26"/>
+      <c r="B663" s="26"/>
+      <c r="C663" s="26"/>
       <c r="H663" s="12"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="27"/>
-      <c r="B664" s="27"/>
-      <c r="C664" s="27"/>
+      <c r="A664" s="26"/>
+      <c r="B664" s="26"/>
+      <c r="C664" s="26"/>
       <c r="H664" s="12"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="27"/>
-      <c r="B665" s="27"/>
-      <c r="C665" s="27"/>
+      <c r="A665" s="26"/>
+      <c r="B665" s="26"/>
+      <c r="C665" s="26"/>
       <c r="H665" s="12"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="27"/>
-      <c r="B666" s="27"/>
-      <c r="C666" s="27"/>
+      <c r="A666" s="26"/>
+      <c r="B666" s="26"/>
+      <c r="C666" s="26"/>
       <c r="H666" s="12"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="27"/>
-      <c r="B667" s="27"/>
-      <c r="C667" s="27"/>
+      <c r="A667" s="26"/>
+      <c r="B667" s="26"/>
+      <c r="C667" s="26"/>
       <c r="H667" s="12"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="27"/>
-      <c r="B668" s="27"/>
-      <c r="C668" s="27"/>
+      <c r="A668" s="26"/>
+      <c r="B668" s="26"/>
+      <c r="C668" s="26"/>
       <c r="H668" s="12"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="27"/>
-      <c r="B669" s="27"/>
-      <c r="C669" s="27"/>
+      <c r="A669" s="26"/>
+      <c r="B669" s="26"/>
+      <c r="C669" s="26"/>
       <c r="H669" s="12"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="27"/>
-      <c r="B670" s="27"/>
-      <c r="C670" s="27"/>
+      <c r="A670" s="26"/>
+      <c r="B670" s="26"/>
+      <c r="C670" s="26"/>
       <c r="H670" s="12"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="27"/>
-      <c r="B671" s="27"/>
-      <c r="C671" s="27"/>
+      <c r="A671" s="26"/>
+      <c r="B671" s="26"/>
+      <c r="C671" s="26"/>
       <c r="H671" s="12"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="27"/>
-      <c r="B672" s="27"/>
-      <c r="C672" s="27"/>
+      <c r="A672" s="26"/>
+      <c r="B672" s="26"/>
+      <c r="C672" s="26"/>
       <c r="H672" s="12"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="27"/>
-      <c r="B673" s="27"/>
-      <c r="C673" s="27"/>
+      <c r="A673" s="26"/>
+      <c r="B673" s="26"/>
+      <c r="C673" s="26"/>
       <c r="H673" s="12"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="27"/>
-      <c r="B674" s="27"/>
-      <c r="C674" s="27"/>
+      <c r="A674" s="26"/>
+      <c r="B674" s="26"/>
+      <c r="C674" s="26"/>
       <c r="H674" s="12"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="27"/>
-      <c r="B675" s="27"/>
-      <c r="C675" s="27"/>
+      <c r="A675" s="26"/>
+      <c r="B675" s="26"/>
+      <c r="C675" s="26"/>
       <c r="H675" s="12"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="27"/>
-      <c r="B676" s="27"/>
-      <c r="C676" s="27"/>
+      <c r="A676" s="26"/>
+      <c r="B676" s="26"/>
+      <c r="C676" s="26"/>
       <c r="H676" s="12"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="27"/>
-      <c r="B677" s="27"/>
-      <c r="C677" s="27"/>
+      <c r="A677" s="26"/>
+      <c r="B677" s="26"/>
+      <c r="C677" s="26"/>
       <c r="H677" s="12"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="27"/>
-      <c r="B678" s="27"/>
-      <c r="C678" s="27"/>
+      <c r="A678" s="26"/>
+      <c r="B678" s="26"/>
+      <c r="C678" s="26"/>
       <c r="H678" s="12"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="27"/>
-      <c r="B679" s="27"/>
-      <c r="C679" s="27"/>
+      <c r="A679" s="26"/>
+      <c r="B679" s="26"/>
+      <c r="C679" s="26"/>
       <c r="H679" s="12"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="27"/>
-      <c r="B680" s="27"/>
-      <c r="C680" s="27"/>
+      <c r="A680" s="26"/>
+      <c r="B680" s="26"/>
+      <c r="C680" s="26"/>
       <c r="H680" s="12"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="27"/>
-      <c r="B681" s="27"/>
-      <c r="C681" s="27"/>
+      <c r="A681" s="26"/>
+      <c r="B681" s="26"/>
+      <c r="C681" s="26"/>
       <c r="H681" s="12"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="27"/>
-      <c r="B682" s="27"/>
-      <c r="C682" s="27"/>
+      <c r="A682" s="26"/>
+      <c r="B682" s="26"/>
+      <c r="C682" s="26"/>
       <c r="H682" s="12"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="27"/>
-      <c r="B683" s="27"/>
-      <c r="C683" s="27"/>
+      <c r="A683" s="26"/>
+      <c r="B683" s="26"/>
+      <c r="C683" s="26"/>
       <c r="H683" s="12"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="27"/>
-      <c r="B684" s="27"/>
-      <c r="C684" s="27"/>
+      <c r="A684" s="26"/>
+      <c r="B684" s="26"/>
+      <c r="C684" s="26"/>
       <c r="H684" s="12"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="27"/>
-      <c r="B685" s="27"/>
-      <c r="C685" s="27"/>
+      <c r="A685" s="26"/>
+      <c r="B685" s="26"/>
+      <c r="C685" s="26"/>
       <c r="H685" s="12"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="27"/>
-      <c r="B686" s="27"/>
-      <c r="C686" s="27"/>
+      <c r="A686" s="26"/>
+      <c r="B686" s="26"/>
+      <c r="C686" s="26"/>
       <c r="H686" s="12"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="27"/>
-      <c r="B687" s="27"/>
-      <c r="C687" s="27"/>
+      <c r="A687" s="26"/>
+      <c r="B687" s="26"/>
+      <c r="C687" s="26"/>
       <c r="H687" s="12"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="27"/>
-      <c r="B688" s="27"/>
-      <c r="C688" s="27"/>
+      <c r="A688" s="26"/>
+      <c r="B688" s="26"/>
+      <c r="C688" s="26"/>
       <c r="H688" s="12"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="27"/>
-      <c r="B689" s="27"/>
-      <c r="C689" s="27"/>
+      <c r="A689" s="26"/>
+      <c r="B689" s="26"/>
+      <c r="C689" s="26"/>
       <c r="H689" s="12"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="27"/>
-      <c r="B690" s="27"/>
-      <c r="C690" s="27"/>
+      <c r="A690" s="26"/>
+      <c r="B690" s="26"/>
+      <c r="C690" s="26"/>
       <c r="H690" s="12"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="27"/>
-      <c r="B691" s="27"/>
-      <c r="C691" s="27"/>
+      <c r="A691" s="26"/>
+      <c r="B691" s="26"/>
+      <c r="C691" s="26"/>
       <c r="H691" s="12"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="27"/>
-      <c r="B692" s="27"/>
-      <c r="C692" s="27"/>
+      <c r="A692" s="26"/>
+      <c r="B692" s="26"/>
+      <c r="C692" s="26"/>
       <c r="H692" s="12"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="27"/>
-      <c r="B693" s="27"/>
-      <c r="C693" s="27"/>
+      <c r="A693" s="26"/>
+      <c r="B693" s="26"/>
+      <c r="C693" s="26"/>
       <c r="H693" s="12"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="27"/>
-      <c r="B694" s="27"/>
-      <c r="C694" s="27"/>
+      <c r="A694" s="26"/>
+      <c r="B694" s="26"/>
+      <c r="C694" s="26"/>
       <c r="H694" s="12"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="27"/>
-      <c r="B695" s="27"/>
-      <c r="C695" s="27"/>
+      <c r="A695" s="26"/>
+      <c r="B695" s="26"/>
+      <c r="C695" s="26"/>
       <c r="H695" s="12"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="27"/>
-      <c r="B696" s="27"/>
-      <c r="C696" s="27"/>
+      <c r="A696" s="26"/>
+      <c r="B696" s="26"/>
+      <c r="C696" s="26"/>
       <c r="H696" s="12"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="27"/>
-      <c r="B697" s="27"/>
-      <c r="C697" s="27"/>
+      <c r="A697" s="26"/>
+      <c r="B697" s="26"/>
+      <c r="C697" s="26"/>
       <c r="H697" s="12"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="27"/>
-      <c r="B698" s="27"/>
-      <c r="C698" s="27"/>
+      <c r="A698" s="26"/>
+      <c r="B698" s="26"/>
+      <c r="C698" s="26"/>
       <c r="H698" s="12"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="27"/>
-      <c r="B699" s="27"/>
-      <c r="C699" s="27"/>
+      <c r="A699" s="26"/>
+      <c r="B699" s="26"/>
+      <c r="C699" s="26"/>
       <c r="H699" s="12"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="27"/>
-      <c r="B700" s="27"/>
-      <c r="C700" s="27"/>
+      <c r="A700" s="26"/>
+      <c r="B700" s="26"/>
+      <c r="C700" s="26"/>
       <c r="H700" s="12"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="27"/>
-      <c r="B701" s="27"/>
-      <c r="C701" s="27"/>
+      <c r="A701" s="26"/>
+      <c r="B701" s="26"/>
+      <c r="C701" s="26"/>
       <c r="H701" s="12"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="27"/>
-      <c r="B702" s="27"/>
-      <c r="C702" s="27"/>
+      <c r="A702" s="26"/>
+      <c r="B702" s="26"/>
+      <c r="C702" s="26"/>
       <c r="H702" s="12"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="27"/>
-      <c r="B703" s="27"/>
-      <c r="C703" s="27"/>
+      <c r="A703" s="26"/>
+      <c r="B703" s="26"/>
+      <c r="C703" s="26"/>
       <c r="H703" s="12"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="27"/>
-      <c r="B704" s="27"/>
-      <c r="C704" s="27"/>
+      <c r="A704" s="26"/>
+      <c r="B704" s="26"/>
+      <c r="C704" s="26"/>
       <c r="H704" s="12"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="27"/>
-      <c r="B705" s="27"/>
-      <c r="C705" s="27"/>
+      <c r="A705" s="26"/>
+      <c r="B705" s="26"/>
+      <c r="C705" s="26"/>
       <c r="H705" s="12"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="27"/>
-      <c r="B706" s="27"/>
-      <c r="C706" s="27"/>
+      <c r="A706" s="26"/>
+      <c r="B706" s="26"/>
+      <c r="C706" s="26"/>
       <c r="H706" s="12"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="27"/>
-      <c r="B707" s="27"/>
-      <c r="C707" s="27"/>
+      <c r="A707" s="26"/>
+      <c r="B707" s="26"/>
+      <c r="C707" s="26"/>
       <c r="H707" s="12"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="27"/>
-      <c r="B708" s="27"/>
-      <c r="C708" s="27"/>
+      <c r="A708" s="26"/>
+      <c r="B708" s="26"/>
+      <c r="C708" s="26"/>
       <c r="H708" s="12"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="27"/>
-      <c r="B709" s="27"/>
-      <c r="C709" s="27"/>
+      <c r="A709" s="26"/>
+      <c r="B709" s="26"/>
+      <c r="C709" s="26"/>
       <c r="H709" s="12"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="27"/>
-      <c r="B710" s="27"/>
-      <c r="C710" s="27"/>
+      <c r="A710" s="26"/>
+      <c r="B710" s="26"/>
+      <c r="C710" s="26"/>
       <c r="H710" s="12"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="27"/>
-      <c r="B711" s="27"/>
-      <c r="C711" s="27"/>
+      <c r="A711" s="26"/>
+      <c r="B711" s="26"/>
+      <c r="C711" s="26"/>
       <c r="H711" s="12"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="27"/>
-      <c r="B712" s="27"/>
-      <c r="C712" s="27"/>
+      <c r="A712" s="26"/>
+      <c r="B712" s="26"/>
+      <c r="C712" s="26"/>
       <c r="H712" s="12"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="27"/>
-      <c r="B713" s="27"/>
-      <c r="C713" s="27"/>
+      <c r="A713" s="26"/>
+      <c r="B713" s="26"/>
+      <c r="C713" s="26"/>
       <c r="H713" s="12"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="27"/>
-      <c r="B714" s="27"/>
-      <c r="C714" s="27"/>
+      <c r="A714" s="26"/>
+      <c r="B714" s="26"/>
+      <c r="C714" s="26"/>
       <c r="H714" s="12"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="27"/>
-      <c r="B715" s="27"/>
-      <c r="C715" s="27"/>
+      <c r="A715" s="26"/>
+      <c r="B715" s="26"/>
+      <c r="C715" s="26"/>
       <c r="H715" s="12"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="27"/>
-      <c r="B716" s="27"/>
-      <c r="C716" s="27"/>
+      <c r="A716" s="26"/>
+      <c r="B716" s="26"/>
+      <c r="C716" s="26"/>
       <c r="H716" s="12"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="27"/>
-      <c r="B717" s="27"/>
-      <c r="C717" s="27"/>
+      <c r="A717" s="26"/>
+      <c r="B717" s="26"/>
+      <c r="C717" s="26"/>
       <c r="H717" s="12"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="27"/>
-      <c r="B718" s="27"/>
-      <c r="C718" s="27"/>
+      <c r="A718" s="26"/>
+      <c r="B718" s="26"/>
+      <c r="C718" s="26"/>
       <c r="H718" s="12"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="27"/>
-      <c r="B719" s="27"/>
-      <c r="C719" s="27"/>
+      <c r="A719" s="26"/>
+      <c r="B719" s="26"/>
+      <c r="C719" s="26"/>
       <c r="H719" s="12"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="27"/>
-      <c r="B720" s="27"/>
-      <c r="C720" s="27"/>
+      <c r="A720" s="26"/>
+      <c r="B720" s="26"/>
+      <c r="C720" s="26"/>
       <c r="H720" s="12"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="27"/>
-      <c r="B721" s="27"/>
-      <c r="C721" s="27"/>
+      <c r="A721" s="26"/>
+      <c r="B721" s="26"/>
+      <c r="C721" s="26"/>
       <c r="H721" s="12"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="27"/>
-      <c r="B722" s="27"/>
-      <c r="C722" s="27"/>
+      <c r="A722" s="26"/>
+      <c r="B722" s="26"/>
+      <c r="C722" s="26"/>
       <c r="H722" s="12"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="27"/>
-      <c r="B723" s="27"/>
-      <c r="C723" s="27"/>
+      <c r="A723" s="26"/>
+      <c r="B723" s="26"/>
+      <c r="C723" s="26"/>
       <c r="H723" s="12"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="27"/>
-      <c r="B724" s="27"/>
-      <c r="C724" s="27"/>
+      <c r="A724" s="26"/>
+      <c r="B724" s="26"/>
+      <c r="C724" s="26"/>
       <c r="H724" s="12"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="27"/>
-      <c r="B725" s="27"/>
-      <c r="C725" s="27"/>
+      <c r="A725" s="26"/>
+      <c r="B725" s="26"/>
+      <c r="C725" s="26"/>
       <c r="H725" s="12"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="27"/>
-      <c r="B726" s="27"/>
-      <c r="C726" s="27"/>
+      <c r="A726" s="26"/>
+      <c r="B726" s="26"/>
+      <c r="C726" s="26"/>
       <c r="H726" s="12"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="27"/>
-      <c r="B727" s="27"/>
-      <c r="C727" s="27"/>
+      <c r="A727" s="26"/>
+      <c r="B727" s="26"/>
+      <c r="C727" s="26"/>
       <c r="H727" s="12"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="27"/>
-      <c r="B728" s="27"/>
-      <c r="C728" s="27"/>
+      <c r="A728" s="26"/>
+      <c r="B728" s="26"/>
+      <c r="C728" s="26"/>
       <c r="H728" s="12"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="27"/>
-      <c r="B729" s="27"/>
-      <c r="C729" s="27"/>
+      <c r="A729" s="26"/>
+      <c r="B729" s="26"/>
+      <c r="C729" s="26"/>
       <c r="H729" s="12"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="27"/>
-      <c r="B730" s="27"/>
-      <c r="C730" s="27"/>
+      <c r="A730" s="26"/>
+      <c r="B730" s="26"/>
+      <c r="C730" s="26"/>
       <c r="H730" s="12"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="27"/>
-      <c r="B731" s="27"/>
-      <c r="C731" s="27"/>
+      <c r="A731" s="26"/>
+      <c r="B731" s="26"/>
+      <c r="C731" s="26"/>
       <c r="H731" s="12"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="27"/>
-      <c r="B732" s="27"/>
-      <c r="C732" s="27"/>
+      <c r="A732" s="26"/>
+      <c r="B732" s="26"/>
+      <c r="C732" s="26"/>
       <c r="H732" s="12"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="27"/>
-      <c r="B733" s="27"/>
-      <c r="C733" s="27"/>
+      <c r="A733" s="26"/>
+      <c r="B733" s="26"/>
+      <c r="C733" s="26"/>
       <c r="H733" s="12"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="27"/>
-      <c r="B734" s="27"/>
-      <c r="C734" s="27"/>
+      <c r="A734" s="26"/>
+      <c r="B734" s="26"/>
+      <c r="C734" s="26"/>
       <c r="H734" s="12"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="27"/>
-      <c r="B735" s="27"/>
-      <c r="C735" s="27"/>
+      <c r="A735" s="26"/>
+      <c r="B735" s="26"/>
+      <c r="C735" s="26"/>
       <c r="H735" s="12"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="27"/>
-      <c r="B736" s="27"/>
-      <c r="C736" s="27"/>
+      <c r="A736" s="26"/>
+      <c r="B736" s="26"/>
+      <c r="C736" s="26"/>
       <c r="H736" s="12"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="27"/>
-      <c r="B737" s="27"/>
-      <c r="C737" s="27"/>
+      <c r="A737" s="26"/>
+      <c r="B737" s="26"/>
+      <c r="C737" s="26"/>
       <c r="H737" s="12"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="27"/>
-      <c r="B738" s="27"/>
-      <c r="C738" s="27"/>
+      <c r="A738" s="26"/>
+      <c r="B738" s="26"/>
+      <c r="C738" s="26"/>
       <c r="H738" s="12"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="27"/>
-      <c r="B739" s="27"/>
-      <c r="C739" s="27"/>
+      <c r="A739" s="26"/>
+      <c r="B739" s="26"/>
+      <c r="C739" s="26"/>
       <c r="H739" s="12"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="27"/>
-      <c r="B740" s="27"/>
-      <c r="C740" s="27"/>
+      <c r="A740" s="26"/>
+      <c r="B740" s="26"/>
+      <c r="C740" s="26"/>
       <c r="H740" s="12"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="27"/>
-      <c r="B741" s="27"/>
-      <c r="C741" s="27"/>
+      <c r="A741" s="26"/>
+      <c r="B741" s="26"/>
+      <c r="C741" s="26"/>
       <c r="H741" s="12"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="27"/>
-      <c r="B742" s="27"/>
-      <c r="C742" s="27"/>
+      <c r="A742" s="26"/>
+      <c r="B742" s="26"/>
+      <c r="C742" s="26"/>
       <c r="H742" s="12"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="27"/>
-      <c r="B743" s="27"/>
-      <c r="C743" s="27"/>
+      <c r="A743" s="26"/>
+      <c r="B743" s="26"/>
+      <c r="C743" s="26"/>
       <c r="H743" s="12"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="27"/>
-      <c r="B744" s="27"/>
-      <c r="C744" s="27"/>
+      <c r="A744" s="26"/>
+      <c r="B744" s="26"/>
+      <c r="C744" s="26"/>
       <c r="H744" s="12"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="27"/>
-      <c r="B745" s="27"/>
-      <c r="C745" s="27"/>
+      <c r="A745" s="26"/>
+      <c r="B745" s="26"/>
+      <c r="C745" s="26"/>
       <c r="H745" s="12"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="27"/>
-      <c r="B746" s="27"/>
-      <c r="C746" s="27"/>
+      <c r="A746" s="26"/>
+      <c r="B746" s="26"/>
+      <c r="C746" s="26"/>
       <c r="H746" s="12"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="27"/>
-      <c r="B747" s="27"/>
-      <c r="C747" s="27"/>
+      <c r="A747" s="26"/>
+      <c r="B747" s="26"/>
+      <c r="C747" s="26"/>
       <c r="H747" s="12"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="27"/>
-      <c r="B748" s="27"/>
-      <c r="C748" s="27"/>
+      <c r="A748" s="26"/>
+      <c r="B748" s="26"/>
+      <c r="C748" s="26"/>
       <c r="H748" s="12"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="27"/>
-      <c r="B749" s="27"/>
-      <c r="C749" s="27"/>
+      <c r="A749" s="26"/>
+      <c r="B749" s="26"/>
+      <c r="C749" s="26"/>
       <c r="H749" s="12"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="27"/>
-      <c r="B750" s="27"/>
-      <c r="C750" s="27"/>
+      <c r="A750" s="26"/>
+      <c r="B750" s="26"/>
+      <c r="C750" s="26"/>
       <c r="H750" s="12"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="27"/>
-      <c r="B751" s="27"/>
-      <c r="C751" s="27"/>
+      <c r="A751" s="26"/>
+      <c r="B751" s="26"/>
+      <c r="C751" s="26"/>
       <c r="H751" s="12"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="27"/>
-      <c r="B752" s="27"/>
-      <c r="C752" s="27"/>
+      <c r="A752" s="26"/>
+      <c r="B752" s="26"/>
+      <c r="C752" s="26"/>
       <c r="H752" s="12"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="27"/>
-      <c r="B753" s="27"/>
-      <c r="C753" s="27"/>
+      <c r="A753" s="26"/>
+      <c r="B753" s="26"/>
+      <c r="C753" s="26"/>
       <c r="H753" s="12"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="27"/>
-      <c r="B754" s="27"/>
-      <c r="C754" s="27"/>
+      <c r="A754" s="26"/>
+      <c r="B754" s="26"/>
+      <c r="C754" s="26"/>
       <c r="H754" s="12"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="27"/>
-      <c r="B755" s="27"/>
-      <c r="C755" s="27"/>
+      <c r="A755" s="26"/>
+      <c r="B755" s="26"/>
+      <c r="C755" s="26"/>
       <c r="H755" s="12"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="27"/>
-      <c r="B756" s="27"/>
-      <c r="C756" s="27"/>
+      <c r="A756" s="26"/>
+      <c r="B756" s="26"/>
+      <c r="C756" s="26"/>
       <c r="H756" s="12"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="27"/>
-      <c r="B757" s="27"/>
-      <c r="C757" s="27"/>
+      <c r="A757" s="26"/>
+      <c r="B757" s="26"/>
+      <c r="C757" s="26"/>
       <c r="H757" s="12"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="27"/>
-      <c r="B758" s="27"/>
-      <c r="C758" s="27"/>
+      <c r="A758" s="26"/>
+      <c r="B758" s="26"/>
+      <c r="C758" s="26"/>
       <c r="H758" s="12"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="27"/>
-      <c r="B759" s="27"/>
-      <c r="C759" s="27"/>
+      <c r="A759" s="26"/>
+      <c r="B759" s="26"/>
+      <c r="C759" s="26"/>
       <c r="H759" s="12"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="27"/>
-      <c r="B760" s="27"/>
-      <c r="C760" s="27"/>
+      <c r="A760" s="26"/>
+      <c r="B760" s="26"/>
+      <c r="C760" s="26"/>
       <c r="H760" s="12"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="27"/>
-      <c r="B761" s="27"/>
-      <c r="C761" s="27"/>
+      <c r="A761" s="26"/>
+      <c r="B761" s="26"/>
+      <c r="C761" s="26"/>
       <c r="H761" s="12"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="27"/>
-      <c r="B762" s="27"/>
-      <c r="C762" s="27"/>
+      <c r="A762" s="26"/>
+      <c r="B762" s="26"/>
+      <c r="C762" s="26"/>
       <c r="H762" s="12"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="27"/>
-      <c r="B763" s="27"/>
-      <c r="C763" s="27"/>
+      <c r="A763" s="26"/>
+      <c r="B763" s="26"/>
+      <c r="C763" s="26"/>
       <c r="H763" s="12"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="27"/>
-      <c r="B764" s="27"/>
-      <c r="C764" s="27"/>
+      <c r="A764" s="26"/>
+      <c r="B764" s="26"/>
+      <c r="C764" s="26"/>
       <c r="H764" s="12"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="27"/>
-      <c r="B765" s="27"/>
-      <c r="C765" s="27"/>
+      <c r="A765" s="26"/>
+      <c r="B765" s="26"/>
+      <c r="C765" s="26"/>
       <c r="H765" s="12"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="27"/>
-      <c r="B766" s="27"/>
-      <c r="C766" s="27"/>
+      <c r="A766" s="26"/>
+      <c r="B766" s="26"/>
+      <c r="C766" s="26"/>
       <c r="H766" s="12"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="27"/>
-      <c r="B767" s="27"/>
-      <c r="C767" s="27"/>
+      <c r="A767" s="26"/>
+      <c r="B767" s="26"/>
+      <c r="C767" s="26"/>
       <c r="H767" s="12"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="27"/>
-      <c r="B768" s="27"/>
-      <c r="C768" s="27"/>
+      <c r="A768" s="26"/>
+      <c r="B768" s="26"/>
+      <c r="C768" s="26"/>
       <c r="H768" s="12"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="27"/>
-      <c r="B769" s="27"/>
-      <c r="C769" s="27"/>
+      <c r="A769" s="26"/>
+      <c r="B769" s="26"/>
+      <c r="C769" s="26"/>
       <c r="H769" s="12"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="27"/>
-      <c r="B770" s="27"/>
-      <c r="C770" s="27"/>
+      <c r="A770" s="26"/>
+      <c r="B770" s="26"/>
+      <c r="C770" s="26"/>
       <c r="H770" s="12"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="27"/>
-      <c r="B771" s="27"/>
-      <c r="C771" s="27"/>
+      <c r="A771" s="26"/>
+      <c r="B771" s="26"/>
+      <c r="C771" s="26"/>
       <c r="H771" s="12"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="27"/>
-      <c r="B772" s="27"/>
-      <c r="C772" s="27"/>
+      <c r="A772" s="26"/>
+      <c r="B772" s="26"/>
+      <c r="C772" s="26"/>
       <c r="H772" s="12"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="27"/>
-      <c r="B773" s="27"/>
-      <c r="C773" s="27"/>
+      <c r="A773" s="26"/>
+      <c r="B773" s="26"/>
+      <c r="C773" s="26"/>
       <c r="H773" s="12"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="27"/>
-      <c r="B774" s="27"/>
-      <c r="C774" s="27"/>
+      <c r="A774" s="26"/>
+      <c r="B774" s="26"/>
+      <c r="C774" s="26"/>
       <c r="H774" s="12"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="27"/>
-      <c r="B775" s="27"/>
-      <c r="C775" s="27"/>
+      <c r="A775" s="26"/>
+      <c r="B775" s="26"/>
+      <c r="C775" s="26"/>
       <c r="H775" s="12"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="27"/>
-      <c r="B776" s="27"/>
-      <c r="C776" s="27"/>
+      <c r="A776" s="26"/>
+      <c r="B776" s="26"/>
+      <c r="C776" s="26"/>
       <c r="H776" s="12"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="27"/>
-      <c r="B777" s="27"/>
-      <c r="C777" s="27"/>
+      <c r="A777" s="26"/>
+      <c r="B777" s="26"/>
+      <c r="C777" s="26"/>
       <c r="H777" s="12"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="27"/>
-      <c r="B778" s="27"/>
-      <c r="C778" s="27"/>
+      <c r="A778" s="26"/>
+      <c r="B778" s="26"/>
+      <c r="C778" s="26"/>
       <c r="H778" s="12"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="27"/>
-      <c r="B779" s="27"/>
-      <c r="C779" s="27"/>
+      <c r="A779" s="26"/>
+      <c r="B779" s="26"/>
+      <c r="C779" s="26"/>
       <c r="H779" s="12"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="27"/>
-      <c r="B780" s="27"/>
-      <c r="C780" s="27"/>
+      <c r="A780" s="26"/>
+      <c r="B780" s="26"/>
+      <c r="C780" s="26"/>
       <c r="H780" s="12"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="27"/>
-      <c r="B781" s="27"/>
-      <c r="C781" s="27"/>
+      <c r="A781" s="26"/>
+      <c r="B781" s="26"/>
+      <c r="C781" s="26"/>
       <c r="H781" s="12"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="27"/>
-      <c r="B782" s="27"/>
-      <c r="C782" s="27"/>
+      <c r="A782" s="26"/>
+      <c r="B782" s="26"/>
+      <c r="C782" s="26"/>
       <c r="H782" s="12"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="27"/>
-      <c r="B783" s="27"/>
-      <c r="C783" s="27"/>
+      <c r="A783" s="26"/>
+      <c r="B783" s="26"/>
+      <c r="C783" s="26"/>
       <c r="H783" s="12"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="27"/>
-      <c r="B784" s="27"/>
-      <c r="C784" s="27"/>
+      <c r="A784" s="26"/>
+      <c r="B784" s="26"/>
+      <c r="C784" s="26"/>
       <c r="H784" s="12"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="27"/>
-      <c r="B785" s="27"/>
-      <c r="C785" s="27"/>
+      <c r="A785" s="26"/>
+      <c r="B785" s="26"/>
+      <c r="C785" s="26"/>
       <c r="H785" s="12"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="27"/>
-      <c r="B786" s="27"/>
-      <c r="C786" s="27"/>
+      <c r="A786" s="26"/>
+      <c r="B786" s="26"/>
+      <c r="C786" s="26"/>
       <c r="H786" s="12"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="27"/>
-      <c r="B787" s="27"/>
-      <c r="C787" s="27"/>
+      <c r="A787" s="26"/>
+      <c r="B787" s="26"/>
+      <c r="C787" s="26"/>
       <c r="H787" s="12"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="27"/>
-      <c r="B788" s="27"/>
-      <c r="C788" s="27"/>
+      <c r="A788" s="26"/>
+      <c r="B788" s="26"/>
+      <c r="C788" s="26"/>
       <c r="H788" s="12"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="27"/>
-      <c r="B789" s="27"/>
-      <c r="C789" s="27"/>
+      <c r="A789" s="26"/>
+      <c r="B789" s="26"/>
+      <c r="C789" s="26"/>
       <c r="H789" s="12"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="27"/>
-      <c r="B790" s="27"/>
-      <c r="C790" s="27"/>
+      <c r="A790" s="26"/>
+      <c r="B790" s="26"/>
+      <c r="C790" s="26"/>
       <c r="H790" s="12"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="27"/>
-      <c r="B791" s="27"/>
-      <c r="C791" s="27"/>
+      <c r="A791" s="26"/>
+      <c r="B791" s="26"/>
+      <c r="C791" s="26"/>
       <c r="H791" s="12"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="27"/>
-      <c r="B792" s="27"/>
-      <c r="C792" s="27"/>
+      <c r="A792" s="26"/>
+      <c r="B792" s="26"/>
+      <c r="C792" s="26"/>
       <c r="H792" s="12"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="27"/>
-      <c r="B793" s="27"/>
-      <c r="C793" s="27"/>
+      <c r="A793" s="26"/>
+      <c r="B793" s="26"/>
+      <c r="C793" s="26"/>
       <c r="H793" s="12"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="27"/>
-      <c r="B794" s="27"/>
-      <c r="C794" s="27"/>
+      <c r="A794" s="26"/>
+      <c r="B794" s="26"/>
+      <c r="C794" s="26"/>
       <c r="H794" s="12"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="27"/>
-      <c r="B795" s="27"/>
-      <c r="C795" s="27"/>
+      <c r="A795" s="26"/>
+      <c r="B795" s="26"/>
+      <c r="C795" s="26"/>
       <c r="H795" s="12"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="27"/>
-      <c r="B796" s="27"/>
-      <c r="C796" s="27"/>
+      <c r="A796" s="26"/>
+      <c r="B796" s="26"/>
+      <c r="C796" s="26"/>
       <c r="H796" s="12"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="27"/>
-      <c r="B797" s="27"/>
-      <c r="C797" s="27"/>
+      <c r="A797" s="26"/>
+      <c r="B797" s="26"/>
+      <c r="C797" s="26"/>
       <c r="H797" s="12"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="27"/>
-      <c r="B798" s="27"/>
-      <c r="C798" s="27"/>
+      <c r="A798" s="26"/>
+      <c r="B798" s="26"/>
+      <c r="C798" s="26"/>
       <c r="H798" s="12"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="27"/>
-      <c r="B799" s="27"/>
-      <c r="C799" s="27"/>
+      <c r="A799" s="26"/>
+      <c r="B799" s="26"/>
+      <c r="C799" s="26"/>
       <c r="H799" s="12"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="27"/>
-      <c r="B800" s="27"/>
-      <c r="C800" s="27"/>
+      <c r="A800" s="26"/>
+      <c r="B800" s="26"/>
+      <c r="C800" s="26"/>
       <c r="H800" s="12"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="27"/>
-      <c r="B801" s="27"/>
-      <c r="C801" s="27"/>
+      <c r="A801" s="26"/>
+      <c r="B801" s="26"/>
+      <c r="C801" s="26"/>
       <c r="H801" s="12"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="27"/>
-      <c r="B802" s="27"/>
-      <c r="C802" s="27"/>
+      <c r="A802" s="26"/>
+      <c r="B802" s="26"/>
+      <c r="C802" s="26"/>
       <c r="H802" s="12"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="27"/>
-      <c r="B803" s="27"/>
-      <c r="C803" s="27"/>
+      <c r="A803" s="26"/>
+      <c r="B803" s="26"/>
+      <c r="C803" s="26"/>
       <c r="H803" s="12"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="27"/>
-      <c r="B804" s="27"/>
-      <c r="C804" s="27"/>
+      <c r="A804" s="26"/>
+      <c r="B804" s="26"/>
+      <c r="C804" s="26"/>
       <c r="H804" s="12"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="27"/>
-      <c r="B805" s="27"/>
-      <c r="C805" s="27"/>
+      <c r="A805" s="26"/>
+      <c r="B805" s="26"/>
+      <c r="C805" s="26"/>
       <c r="H805" s="12"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="27"/>
-      <c r="B806" s="27"/>
-      <c r="C806" s="27"/>
+      <c r="A806" s="26"/>
+      <c r="B806" s="26"/>
+      <c r="C806" s="26"/>
       <c r="H806" s="12"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="27"/>
-      <c r="B807" s="27"/>
-      <c r="C807" s="27"/>
+      <c r="A807" s="26"/>
+      <c r="B807" s="26"/>
+      <c r="C807" s="26"/>
       <c r="H807" s="12"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="27"/>
-      <c r="B808" s="27"/>
-      <c r="C808" s="27"/>
+      <c r="A808" s="26"/>
+      <c r="B808" s="26"/>
+      <c r="C808" s="26"/>
       <c r="H808" s="12"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="27"/>
-      <c r="B809" s="27"/>
-      <c r="C809" s="27"/>
+      <c r="A809" s="26"/>
+      <c r="B809" s="26"/>
+      <c r="C809" s="26"/>
       <c r="H809" s="12"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="27"/>
-      <c r="B810" s="27"/>
-      <c r="C810" s="27"/>
+      <c r="A810" s="26"/>
+      <c r="B810" s="26"/>
+      <c r="C810" s="26"/>
       <c r="H810" s="12"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="27"/>
-      <c r="B811" s="27"/>
-      <c r="C811" s="27"/>
+      <c r="A811" s="26"/>
+      <c r="B811" s="26"/>
+      <c r="C811" s="26"/>
       <c r="H811" s="12"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="27"/>
-      <c r="B812" s="27"/>
-      <c r="C812" s="27"/>
+      <c r="A812" s="26"/>
+      <c r="B812" s="26"/>
+      <c r="C812" s="26"/>
       <c r="H812" s="12"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="27"/>
-      <c r="B813" s="27"/>
-      <c r="C813" s="27"/>
+      <c r="A813" s="26"/>
+      <c r="B813" s="26"/>
+      <c r="C813" s="26"/>
       <c r="H813" s="12"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="27"/>
-      <c r="B814" s="27"/>
-      <c r="C814" s="27"/>
+      <c r="A814" s="26"/>
+      <c r="B814" s="26"/>
+      <c r="C814" s="26"/>
       <c r="H814" s="12"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="27"/>
-      <c r="B815" s="27"/>
-      <c r="C815" s="27"/>
+      <c r="A815" s="26"/>
+      <c r="B815" s="26"/>
+      <c r="C815" s="26"/>
       <c r="H815" s="12"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="27"/>
-      <c r="B816" s="27"/>
-      <c r="C816" s="27"/>
+      <c r="A816" s="26"/>
+      <c r="B816" s="26"/>
+      <c r="C816" s="26"/>
       <c r="H816" s="12"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="27"/>
-      <c r="B817" s="27"/>
-      <c r="C817" s="27"/>
+      <c r="A817" s="26"/>
+      <c r="B817" s="26"/>
+      <c r="C817" s="26"/>
       <c r="H817" s="12"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="27"/>
-      <c r="B818" s="27"/>
-      <c r="C818" s="27"/>
+      <c r="A818" s="26"/>
+      <c r="B818" s="26"/>
+      <c r="C818" s="26"/>
       <c r="H818" s="12"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="27"/>
-      <c r="B819" s="27"/>
-      <c r="C819" s="27"/>
+      <c r="A819" s="26"/>
+      <c r="B819" s="26"/>
+      <c r="C819" s="26"/>
       <c r="H819" s="12"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="27"/>
-      <c r="B820" s="27"/>
-      <c r="C820" s="27"/>
+      <c r="A820" s="26"/>
+      <c r="B820" s="26"/>
+      <c r="C820" s="26"/>
       <c r="H820" s="12"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="27"/>
-      <c r="B821" s="27"/>
-      <c r="C821" s="27"/>
+      <c r="A821" s="26"/>
+      <c r="B821" s="26"/>
+      <c r="C821" s="26"/>
       <c r="H821" s="12"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="27"/>
-      <c r="B822" s="27"/>
-      <c r="C822" s="27"/>
+      <c r="A822" s="26"/>
+      <c r="B822" s="26"/>
+      <c r="C822" s="26"/>
       <c r="H822" s="12"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="27"/>
-      <c r="B823" s="27"/>
-      <c r="C823" s="27"/>
+      <c r="A823" s="26"/>
+      <c r="B823" s="26"/>
+      <c r="C823" s="26"/>
       <c r="H823" s="12"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="27"/>
-      <c r="B824" s="27"/>
-      <c r="C824" s="27"/>
+      <c r="A824" s="26"/>
+      <c r="B824" s="26"/>
+      <c r="C824" s="26"/>
       <c r="H824" s="12"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="27"/>
-      <c r="B825" s="27"/>
-      <c r="C825" s="27"/>
+      <c r="A825" s="26"/>
+      <c r="B825" s="26"/>
+      <c r="C825" s="26"/>
       <c r="H825" s="12"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="27"/>
-      <c r="B826" s="27"/>
-      <c r="C826" s="27"/>
+      <c r="A826" s="26"/>
+      <c r="B826" s="26"/>
+      <c r="C826" s="26"/>
       <c r="H826" s="12"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="27"/>
-      <c r="B827" s="27"/>
-      <c r="C827" s="27"/>
+      <c r="A827" s="26"/>
+      <c r="B827" s="26"/>
+      <c r="C827" s="26"/>
       <c r="H827" s="12"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="27"/>
-      <c r="B828" s="27"/>
-      <c r="C828" s="27"/>
+      <c r="A828" s="26"/>
+      <c r="B828" s="26"/>
+      <c r="C828" s="26"/>
       <c r="H828" s="12"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="27"/>
-      <c r="B829" s="27"/>
-      <c r="C829" s="27"/>
+      <c r="A829" s="26"/>
+      <c r="B829" s="26"/>
+      <c r="C829" s="26"/>
       <c r="H829" s="12"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="27"/>
-      <c r="B830" s="27"/>
-      <c r="C830" s="27"/>
+      <c r="A830" s="26"/>
+      <c r="B830" s="26"/>
+      <c r="C830" s="26"/>
       <c r="H830" s="12"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="27"/>
-      <c r="B831" s="27"/>
-      <c r="C831" s="27"/>
+      <c r="A831" s="26"/>
+      <c r="B831" s="26"/>
+      <c r="C831" s="26"/>
       <c r="H831" s="12"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="27"/>
-      <c r="B832" s="27"/>
-      <c r="C832" s="27"/>
+      <c r="A832" s="26"/>
+      <c r="B832" s="26"/>
+      <c r="C832" s="26"/>
       <c r="H832" s="12"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="27"/>
-      <c r="B833" s="27"/>
-      <c r="C833" s="27"/>
+      <c r="A833" s="26"/>
+      <c r="B833" s="26"/>
+      <c r="C833" s="26"/>
       <c r="H833" s="12"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="27"/>
-      <c r="B834" s="27"/>
-      <c r="C834" s="27"/>
+      <c r="A834" s="26"/>
+      <c r="B834" s="26"/>
+      <c r="C834" s="26"/>
       <c r="H834" s="12"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="27"/>
-      <c r="B835" s="27"/>
-      <c r="C835" s="27"/>
+      <c r="A835" s="26"/>
+      <c r="B835" s="26"/>
+      <c r="C835" s="26"/>
       <c r="H835" s="12"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="27"/>
-      <c r="B836" s="27"/>
-      <c r="C836" s="27"/>
+      <c r="A836" s="26"/>
+      <c r="B836" s="26"/>
+      <c r="C836" s="26"/>
       <c r="H836" s="12"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="27"/>
-      <c r="B837" s="27"/>
-      <c r="C837" s="27"/>
+      <c r="A837" s="26"/>
+      <c r="B837" s="26"/>
+      <c r="C837" s="26"/>
       <c r="H837" s="12"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="27"/>
-      <c r="B838" s="27"/>
-      <c r="C838" s="27"/>
+      <c r="A838" s="26"/>
+      <c r="B838" s="26"/>
+      <c r="C838" s="26"/>
       <c r="H838" s="12"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="27"/>
-      <c r="B839" s="27"/>
-      <c r="C839" s="27"/>
+      <c r="A839" s="26"/>
+      <c r="B839" s="26"/>
+      <c r="C839" s="26"/>
       <c r="H839" s="12"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="27"/>
-      <c r="B840" s="27"/>
-      <c r="C840" s="27"/>
+      <c r="A840" s="26"/>
+      <c r="B840" s="26"/>
+      <c r="C840" s="26"/>
       <c r="H840" s="12"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="27"/>
-      <c r="B841" s="27"/>
-      <c r="C841" s="27"/>
+      <c r="A841" s="26"/>
+      <c r="B841" s="26"/>
+      <c r="C841" s="26"/>
       <c r="H841" s="12"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="27"/>
-      <c r="B842" s="27"/>
-      <c r="C842" s="27"/>
+      <c r="A842" s="26"/>
+      <c r="B842" s="26"/>
+      <c r="C842" s="26"/>
       <c r="H842" s="12"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="27"/>
-      <c r="B843" s="27"/>
-      <c r="C843" s="27"/>
+      <c r="A843" s="26"/>
+      <c r="B843" s="26"/>
+      <c r="C843" s="26"/>
       <c r="H843" s="12"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="27"/>
-      <c r="B844" s="27"/>
-      <c r="C844" s="27"/>
+      <c r="A844" s="26"/>
+      <c r="B844" s="26"/>
+      <c r="C844" s="26"/>
       <c r="H844" s="12"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="27"/>
-      <c r="B845" s="27"/>
-      <c r="C845" s="27"/>
+      <c r="A845" s="26"/>
+      <c r="B845" s="26"/>
+      <c r="C845" s="26"/>
       <c r="H845" s="12"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="27"/>
-      <c r="B846" s="27"/>
-      <c r="C846" s="27"/>
+      <c r="A846" s="26"/>
+      <c r="B846" s="26"/>
+      <c r="C846" s="26"/>
       <c r="H846" s="12"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="27"/>
-      <c r="B847" s="27"/>
-      <c r="C847" s="27"/>
+      <c r="A847" s="26"/>
+      <c r="B847" s="26"/>
+      <c r="C847" s="26"/>
       <c r="H847" s="12"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="27"/>
-      <c r="B848" s="27"/>
-      <c r="C848" s="27"/>
+      <c r="A848" s="26"/>
+      <c r="B848" s="26"/>
+      <c r="C848" s="26"/>
       <c r="H848" s="12"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="27"/>
-      <c r="B849" s="27"/>
-      <c r="C849" s="27"/>
+      <c r="A849" s="26"/>
+      <c r="B849" s="26"/>
+      <c r="C849" s="26"/>
       <c r="H849" s="12"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="27"/>
-      <c r="B850" s="27"/>
-      <c r="C850" s="27"/>
+      <c r="A850" s="26"/>
+      <c r="B850" s="26"/>
+      <c r="C850" s="26"/>
       <c r="H850" s="12"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="27"/>
-      <c r="B851" s="27"/>
-      <c r="C851" s="27"/>
+      <c r="A851" s="26"/>
+      <c r="B851" s="26"/>
+      <c r="C851" s="26"/>
       <c r="H851" s="12"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="27"/>
-      <c r="B852" s="27"/>
-      <c r="C852" s="27"/>
+      <c r="A852" s="26"/>
+      <c r="B852" s="26"/>
+      <c r="C852" s="26"/>
       <c r="H852" s="12"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="27"/>
-      <c r="B853" s="27"/>
-      <c r="C853" s="27"/>
+      <c r="A853" s="26"/>
+      <c r="B853" s="26"/>
+      <c r="C853" s="26"/>
       <c r="H853" s="12"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="27"/>
-      <c r="B854" s="27"/>
-      <c r="C854" s="27"/>
+      <c r="A854" s="26"/>
+      <c r="B854" s="26"/>
+      <c r="C854" s="26"/>
       <c r="H854" s="12"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="27"/>
-      <c r="B855" s="27"/>
-      <c r="C855" s="27"/>
+      <c r="A855" s="26"/>
+      <c r="B855" s="26"/>
+      <c r="C855" s="26"/>
       <c r="H855" s="12"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="27"/>
-      <c r="B856" s="27"/>
-      <c r="C856" s="27"/>
+      <c r="A856" s="26"/>
+      <c r="B856" s="26"/>
+      <c r="C856" s="26"/>
       <c r="H856" s="12"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="27"/>
-      <c r="B857" s="27"/>
-      <c r="C857" s="27"/>
+      <c r="A857" s="26"/>
+      <c r="B857" s="26"/>
+      <c r="C857" s="26"/>
       <c r="H857" s="12"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="27"/>
-      <c r="B858" s="27"/>
-      <c r="C858" s="27"/>
+      <c r="A858" s="26"/>
+      <c r="B858" s="26"/>
+      <c r="C858" s="26"/>
       <c r="H858" s="12"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="27"/>
-      <c r="B859" s="27"/>
-      <c r="C859" s="27"/>
+      <c r="A859" s="26"/>
+      <c r="B859" s="26"/>
+      <c r="C859" s="26"/>
       <c r="H859" s="12"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="27"/>
-      <c r="B860" s="27"/>
-      <c r="C860" s="27"/>
+      <c r="A860" s="26"/>
+      <c r="B860" s="26"/>
+      <c r="C860" s="26"/>
       <c r="H860" s="12"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="27"/>
-      <c r="B861" s="27"/>
-      <c r="C861" s="27"/>
+      <c r="A861" s="26"/>
+      <c r="B861" s="26"/>
+      <c r="C861" s="26"/>
       <c r="H861" s="12"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="27"/>
-      <c r="B862" s="27"/>
-      <c r="C862" s="27"/>
+      <c r="A862" s="26"/>
+      <c r="B862" s="26"/>
+      <c r="C862" s="26"/>
       <c r="H862" s="12"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="27"/>
-      <c r="B863" s="27"/>
-      <c r="C863" s="27"/>
+      <c r="A863" s="26"/>
+      <c r="B863" s="26"/>
+      <c r="C863" s="26"/>
       <c r="H863" s="12"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="27"/>
-      <c r="B864" s="27"/>
-      <c r="C864" s="27"/>
+      <c r="A864" s="26"/>
+      <c r="B864" s="26"/>
+      <c r="C864" s="26"/>
       <c r="H864" s="12"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="27"/>
-      <c r="B865" s="27"/>
-      <c r="C865" s="27"/>
+      <c r="A865" s="26"/>
+      <c r="B865" s="26"/>
+      <c r="C865" s="26"/>
       <c r="H865" s="12"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="27"/>
-      <c r="B866" s="27"/>
-      <c r="C866" s="27"/>
+      <c r="A866" s="26"/>
+      <c r="B866" s="26"/>
+      <c r="C866" s="26"/>
       <c r="H866" s="12"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="27"/>
-      <c r="B867" s="27"/>
-      <c r="C867" s="27"/>
+      <c r="A867" s="26"/>
+      <c r="B867" s="26"/>
+      <c r="C867" s="26"/>
       <c r="H867" s="12"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="27"/>
-      <c r="B868" s="27"/>
-      <c r="C868" s="27"/>
+      <c r="A868" s="26"/>
+      <c r="B868" s="26"/>
+      <c r="C868" s="26"/>
       <c r="H868" s="12"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="27"/>
-      <c r="B869" s="27"/>
-      <c r="C869" s="27"/>
+      <c r="A869" s="26"/>
+      <c r="B869" s="26"/>
+      <c r="C869" s="26"/>
       <c r="H869" s="12"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="27"/>
-      <c r="B870" s="27"/>
-      <c r="C870" s="27"/>
+      <c r="A870" s="26"/>
+      <c r="B870" s="26"/>
+      <c r="C870" s="26"/>
       <c r="H870" s="12"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="27"/>
-      <c r="B871" s="27"/>
-      <c r="C871" s="27"/>
+      <c r="A871" s="26"/>
+      <c r="B871" s="26"/>
+      <c r="C871" s="26"/>
       <c r="H871" s="12"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="27"/>
-      <c r="B872" s="27"/>
-      <c r="C872" s="27"/>
+      <c r="A872" s="26"/>
+      <c r="B872" s="26"/>
+      <c r="C872" s="26"/>
       <c r="H872" s="12"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="27"/>
-      <c r="B873" s="27"/>
-      <c r="C873" s="27"/>
+      <c r="A873" s="26"/>
+      <c r="B873" s="26"/>
+      <c r="C873" s="26"/>
       <c r="H873" s="12"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="27"/>
-      <c r="B874" s="27"/>
-      <c r="C874" s="27"/>
+      <c r="A874" s="26"/>
+      <c r="B874" s="26"/>
+      <c r="C874" s="26"/>
       <c r="H874" s="12"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="27"/>
-      <c r="B875" s="27"/>
-      <c r="C875" s="27"/>
+      <c r="A875" s="26"/>
+      <c r="B875" s="26"/>
+      <c r="C875" s="26"/>
       <c r="H875" s="12"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="27"/>
-      <c r="B876" s="27"/>
-      <c r="C876" s="27"/>
+      <c r="A876" s="26"/>
+      <c r="B876" s="26"/>
+      <c r="C876" s="26"/>
       <c r="H876" s="12"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="27"/>
-      <c r="B877" s="27"/>
-      <c r="C877" s="27"/>
+      <c r="A877" s="26"/>
+      <c r="B877" s="26"/>
+      <c r="C877" s="26"/>
       <c r="H877" s="12"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="27"/>
-      <c r="B878" s="27"/>
-      <c r="C878" s="27"/>
+      <c r="A878" s="26"/>
+      <c r="B878" s="26"/>
+      <c r="C878" s="26"/>
       <c r="H878" s="12"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="27"/>
-      <c r="B879" s="27"/>
-      <c r="C879" s="27"/>
+      <c r="A879" s="26"/>
+      <c r="B879" s="26"/>
+      <c r="C879" s="26"/>
       <c r="H879" s="12"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="27"/>
-      <c r="B880" s="27"/>
-      <c r="C880" s="27"/>
+      <c r="A880" s="26"/>
+      <c r="B880" s="26"/>
+      <c r="C880" s="26"/>
       <c r="H880" s="12"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="27"/>
-      <c r="B881" s="27"/>
-      <c r="C881" s="27"/>
+      <c r="A881" s="26"/>
+      <c r="B881" s="26"/>
+      <c r="C881" s="26"/>
       <c r="H881" s="12"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="27"/>
-      <c r="B882" s="27"/>
-      <c r="C882" s="27"/>
+      <c r="A882" s="26"/>
+      <c r="B882" s="26"/>
+      <c r="C882" s="26"/>
       <c r="H882" s="12"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="27"/>
-      <c r="B883" s="27"/>
-      <c r="C883" s="27"/>
+      <c r="A883" s="26"/>
+      <c r="B883" s="26"/>
+      <c r="C883" s="26"/>
       <c r="H883" s="12"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="27"/>
-      <c r="B884" s="27"/>
-      <c r="C884" s="27"/>
+      <c r="A884" s="26"/>
+      <c r="B884" s="26"/>
+      <c r="C884" s="26"/>
       <c r="H884" s="12"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="27"/>
-      <c r="B885" s="27"/>
-      <c r="C885" s="27"/>
+      <c r="A885" s="26"/>
+      <c r="B885" s="26"/>
+      <c r="C885" s="26"/>
       <c r="H885" s="12"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="27"/>
-      <c r="B886" s="27"/>
-      <c r="C886" s="27"/>
+      <c r="A886" s="26"/>
+      <c r="B886" s="26"/>
+      <c r="C886" s="26"/>
       <c r="H886" s="12"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="27"/>
-      <c r="B887" s="27"/>
-      <c r="C887" s="27"/>
+      <c r="A887" s="26"/>
+      <c r="B887" s="26"/>
+      <c r="C887" s="26"/>
       <c r="H887" s="12"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="27"/>
-      <c r="B888" s="27"/>
-      <c r="C888" s="27"/>
+      <c r="A888" s="26"/>
+      <c r="B888" s="26"/>
+      <c r="C888" s="26"/>
       <c r="H888" s="12"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="27"/>
-      <c r="B889" s="27"/>
-      <c r="C889" s="27"/>
+      <c r="A889" s="26"/>
+      <c r="B889" s="26"/>
+      <c r="C889" s="26"/>
       <c r="H889" s="12"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="27"/>
-      <c r="B890" s="27"/>
-      <c r="C890" s="27"/>
+      <c r="A890" s="26"/>
+      <c r="B890" s="26"/>
+      <c r="C890" s="26"/>
       <c r="H890" s="12"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="27"/>
-      <c r="B891" s="27"/>
-      <c r="C891" s="27"/>
+      <c r="A891" s="26"/>
+      <c r="B891" s="26"/>
+      <c r="C891" s="26"/>
       <c r="H891" s="12"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="27"/>
-      <c r="B892" s="27"/>
-      <c r="C892" s="27"/>
+      <c r="A892" s="26"/>
+      <c r="B892" s="26"/>
+      <c r="C892" s="26"/>
       <c r="H892" s="12"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="27"/>
-      <c r="B893" s="27"/>
-      <c r="C893" s="27"/>
+      <c r="A893" s="26"/>
+      <c r="B893" s="26"/>
+      <c r="C893" s="26"/>
       <c r="H893" s="12"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="27"/>
-      <c r="B894" s="27"/>
-      <c r="C894" s="27"/>
+      <c r="A894" s="26"/>
+      <c r="B894" s="26"/>
+      <c r="C894" s="26"/>
       <c r="H894" s="12"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="27"/>
-      <c r="B895" s="27"/>
-      <c r="C895" s="27"/>
+      <c r="A895" s="26"/>
+      <c r="B895" s="26"/>
+      <c r="C895" s="26"/>
       <c r="H895" s="12"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="27"/>
-      <c r="B896" s="27"/>
-      <c r="C896" s="27"/>
+      <c r="A896" s="26"/>
+      <c r="B896" s="26"/>
+      <c r="C896" s="26"/>
       <c r="H896" s="12"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="27"/>
-      <c r="B897" s="27"/>
-      <c r="C897" s="27"/>
+      <c r="A897" s="26"/>
+      <c r="B897" s="26"/>
+      <c r="C897" s="26"/>
       <c r="H897" s="12"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="27"/>
-      <c r="B898" s="27"/>
-      <c r="C898" s="27"/>
+      <c r="A898" s="26"/>
+      <c r="B898" s="26"/>
+      <c r="C898" s="26"/>
       <c r="H898" s="12"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="27"/>
-      <c r="B899" s="27"/>
-      <c r="C899" s="27"/>
+      <c r="A899" s="26"/>
+      <c r="B899" s="26"/>
+      <c r="C899" s="26"/>
       <c r="H899" s="12"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="27"/>
-      <c r="B900" s="27"/>
-      <c r="C900" s="27"/>
+      <c r="A900" s="26"/>
+      <c r="B900" s="26"/>
+      <c r="C900" s="26"/>
       <c r="H900" s="12"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="27"/>
-      <c r="B901" s="27"/>
-      <c r="C901" s="27"/>
+      <c r="A901" s="26"/>
+      <c r="B901" s="26"/>
+      <c r="C901" s="26"/>
       <c r="H901" s="12"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="27"/>
-      <c r="B902" s="27"/>
-      <c r="C902" s="27"/>
+      <c r="A902" s="26"/>
+      <c r="B902" s="26"/>
+      <c r="C902" s="26"/>
       <c r="H902" s="12"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="27"/>
-      <c r="B903" s="27"/>
-      <c r="C903" s="27"/>
+      <c r="A903" s="26"/>
+      <c r="B903" s="26"/>
+      <c r="C903" s="26"/>
       <c r="H903" s="12"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="27"/>
-      <c r="B904" s="27"/>
-      <c r="C904" s="27"/>
+      <c r="A904" s="26"/>
+      <c r="B904" s="26"/>
+      <c r="C904" s="26"/>
       <c r="H904" s="12"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="27"/>
-      <c r="B905" s="27"/>
-      <c r="C905" s="27"/>
+      <c r="A905" s="26"/>
+      <c r="B905" s="26"/>
+      <c r="C905" s="26"/>
       <c r="H905" s="12"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="27"/>
-      <c r="B906" s="27"/>
-      <c r="C906" s="27"/>
+      <c r="A906" s="26"/>
+      <c r="B906" s="26"/>
+      <c r="C906" s="26"/>
       <c r="H906" s="12"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="27"/>
-      <c r="B907" s="27"/>
-      <c r="C907" s="27"/>
+      <c r="A907" s="26"/>
+      <c r="B907" s="26"/>
+      <c r="C907" s="26"/>
       <c r="H907" s="12"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="27"/>
-      <c r="B908" s="27"/>
-      <c r="C908" s="27"/>
+      <c r="A908" s="26"/>
+      <c r="B908" s="26"/>
+      <c r="C908" s="26"/>
       <c r="H908" s="12"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="27"/>
-      <c r="B909" s="27"/>
-      <c r="C909" s="27"/>
+      <c r="A909" s="26"/>
+      <c r="B909" s="26"/>
+      <c r="C909" s="26"/>
       <c r="H909" s="12"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="27"/>
-      <c r="B910" s="27"/>
-      <c r="C910" s="27"/>
+      <c r="A910" s="26"/>
+      <c r="B910" s="26"/>
+      <c r="C910" s="26"/>
       <c r="H910" s="12"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="27"/>
-      <c r="B911" s="27"/>
-      <c r="C911" s="27"/>
+      <c r="A911" s="26"/>
+      <c r="B911" s="26"/>
+      <c r="C911" s="26"/>
       <c r="H911" s="12"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="27"/>
-      <c r="B912" s="27"/>
-      <c r="C912" s="27"/>
+      <c r="A912" s="26"/>
+      <c r="B912" s="26"/>
+      <c r="C912" s="26"/>
       <c r="H912" s="12"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="27"/>
-      <c r="B913" s="27"/>
-      <c r="C913" s="27"/>
+      <c r="A913" s="26"/>
+      <c r="B913" s="26"/>
+      <c r="C913" s="26"/>
       <c r="H913" s="12"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="27"/>
-      <c r="B914" s="27"/>
-      <c r="C914" s="27"/>
+      <c r="A914" s="26"/>
+      <c r="B914" s="26"/>
+      <c r="C914" s="26"/>
       <c r="H914" s="12"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="27"/>
-      <c r="B915" s="27"/>
-      <c r="C915" s="27"/>
+      <c r="A915" s="26"/>
+      <c r="B915" s="26"/>
+      <c r="C915" s="26"/>
       <c r="H915" s="12"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="27"/>
-      <c r="B916" s="27"/>
-      <c r="C916" s="27"/>
+      <c r="A916" s="26"/>
+      <c r="B916" s="26"/>
+      <c r="C916" s="26"/>
       <c r="H916" s="12"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="27"/>
-      <c r="B917" s="27"/>
-      <c r="C917" s="27"/>
+      <c r="A917" s="26"/>
+      <c r="B917" s="26"/>
+      <c r="C917" s="26"/>
       <c r="H917" s="12"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="27"/>
-      <c r="B918" s="27"/>
-      <c r="C918" s="27"/>
+      <c r="A918" s="26"/>
+      <c r="B918" s="26"/>
+      <c r="C918" s="26"/>
       <c r="H918" s="12"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="27"/>
-      <c r="B919" s="27"/>
-      <c r="C919" s="27"/>
+      <c r="A919" s="26"/>
+      <c r="B919" s="26"/>
+      <c r="C919" s="26"/>
       <c r="H919" s="12"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="27"/>
-      <c r="B920" s="27"/>
-      <c r="C920" s="27"/>
+      <c r="A920" s="26"/>
+      <c r="B920" s="26"/>
+      <c r="C920" s="26"/>
       <c r="H920" s="12"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="27"/>
-      <c r="B921" s="27"/>
-      <c r="C921" s="27"/>
+      <c r="A921" s="26"/>
+      <c r="B921" s="26"/>
+      <c r="C921" s="26"/>
       <c r="H921" s="12"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="27"/>
-      <c r="B922" s="27"/>
-      <c r="C922" s="27"/>
+      <c r="A922" s="26"/>
+      <c r="B922" s="26"/>
+      <c r="C922" s="26"/>
       <c r="H922" s="12"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="27"/>
-      <c r="B923" s="27"/>
-      <c r="C923" s="27"/>
+      <c r="A923" s="26"/>
+      <c r="B923" s="26"/>
+      <c r="C923" s="26"/>
       <c r="H923" s="12"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="27"/>
-      <c r="B924" s="27"/>
-      <c r="C924" s="27"/>
+      <c r="A924" s="26"/>
+      <c r="B924" s="26"/>
+      <c r="C924" s="26"/>
       <c r="H924" s="12"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="27"/>
-      <c r="B925" s="27"/>
-      <c r="C925" s="27"/>
+      <c r="A925" s="26"/>
+      <c r="B925" s="26"/>
+      <c r="C925" s="26"/>
       <c r="H925" s="12"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="27"/>
-      <c r="B926" s="27"/>
-      <c r="C926" s="27"/>
+      <c r="A926" s="26"/>
+      <c r="B926" s="26"/>
+      <c r="C926" s="26"/>
       <c r="H926" s="12"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="27"/>
-      <c r="B927" s="27"/>
-      <c r="C927" s="27"/>
+      <c r="A927" s="26"/>
+      <c r="B927" s="26"/>
+      <c r="C927" s="26"/>
       <c r="H927" s="12"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="27"/>
-      <c r="B928" s="27"/>
-      <c r="C928" s="27"/>
+      <c r="A928" s="26"/>
+      <c r="B928" s="26"/>
+      <c r="C928" s="26"/>
       <c r="H928" s="12"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="27"/>
-      <c r="B929" s="27"/>
-      <c r="C929" s="27"/>
+      <c r="A929" s="26"/>
+      <c r="B929" s="26"/>
+      <c r="C929" s="26"/>
       <c r="H929" s="12"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="27"/>
-      <c r="B930" s="27"/>
-      <c r="C930" s="27"/>
+      <c r="A930" s="26"/>
+      <c r="B930" s="26"/>
+      <c r="C930" s="26"/>
       <c r="H930" s="12"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="27"/>
-      <c r="B931" s="27"/>
-      <c r="C931" s="27"/>
+      <c r="A931" s="26"/>
+      <c r="B931" s="26"/>
+      <c r="C931" s="26"/>
       <c r="H931" s="12"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="27"/>
-      <c r="B932" s="27"/>
-      <c r="C932" s="27"/>
+      <c r="A932" s="26"/>
+      <c r="B932" s="26"/>
+      <c r="C932" s="26"/>
       <c r="H932" s="12"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="27"/>
-      <c r="B933" s="27"/>
-      <c r="C933" s="27"/>
+      <c r="A933" s="26"/>
+      <c r="B933" s="26"/>
+      <c r="C933" s="26"/>
       <c r="H933" s="12"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="27"/>
-      <c r="B934" s="27"/>
-      <c r="C934" s="27"/>
+      <c r="A934" s="26"/>
+      <c r="B934" s="26"/>
+      <c r="C934" s="26"/>
       <c r="H934" s="12"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="27"/>
-      <c r="B935" s="27"/>
-      <c r="C935" s="27"/>
+      <c r="A935" s="26"/>
+      <c r="B935" s="26"/>
+      <c r="C935" s="26"/>
       <c r="H935" s="12"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="27"/>
-      <c r="B936" s="27"/>
-      <c r="C936" s="27"/>
+      <c r="A936" s="26"/>
+      <c r="B936" s="26"/>
+      <c r="C936" s="26"/>
       <c r="H936" s="12"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="27"/>
-      <c r="B937" s="27"/>
-      <c r="C937" s="27"/>
+      <c r="A937" s="26"/>
+      <c r="B937" s="26"/>
+      <c r="C937" s="26"/>
       <c r="H937" s="12"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="27"/>
-      <c r="B938" s="27"/>
-      <c r="C938" s="27"/>
+      <c r="A938" s="26"/>
+      <c r="B938" s="26"/>
+      <c r="C938" s="26"/>
       <c r="H938" s="12"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="27"/>
-      <c r="B939" s="27"/>
-      <c r="C939" s="27"/>
+      <c r="A939" s="26"/>
+      <c r="B939" s="26"/>
+      <c r="C939" s="26"/>
       <c r="H939" s="12"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="27"/>
-      <c r="B940" s="27"/>
-      <c r="C940" s="27"/>
+      <c r="A940" s="26"/>
+      <c r="B940" s="26"/>
+      <c r="C940" s="26"/>
       <c r="H940" s="12"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="27"/>
-      <c r="B941" s="27"/>
-      <c r="C941" s="27"/>
+      <c r="A941" s="26"/>
+      <c r="B941" s="26"/>
+      <c r="C941" s="26"/>
       <c r="H941" s="12"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="27"/>
-      <c r="B942" s="27"/>
-      <c r="C942" s="27"/>
+      <c r="A942" s="26"/>
+      <c r="B942" s="26"/>
+      <c r="C942" s="26"/>
       <c r="H942" s="12"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="27"/>
-      <c r="B943" s="27"/>
-      <c r="C943" s="27"/>
+      <c r="A943" s="26"/>
+      <c r="B943" s="26"/>
+      <c r="C943" s="26"/>
       <c r="H943" s="12"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="27"/>
-      <c r="B944" s="27"/>
-      <c r="C944" s="27"/>
+      <c r="A944" s="26"/>
+      <c r="B944" s="26"/>
+      <c r="C944" s="26"/>
       <c r="H944" s="12"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="27"/>
-      <c r="B945" s="27"/>
-      <c r="C945" s="27"/>
+      <c r="A945" s="26"/>
+      <c r="B945" s="26"/>
+      <c r="C945" s="26"/>
       <c r="H945" s="12"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="27"/>
-      <c r="B946" s="27"/>
-      <c r="C946" s="27"/>
+      <c r="A946" s="26"/>
+      <c r="B946" s="26"/>
+      <c r="C946" s="26"/>
       <c r="H946" s="12"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="27"/>
-      <c r="B947" s="27"/>
-      <c r="C947" s="27"/>
+      <c r="A947" s="26"/>
+      <c r="B947" s="26"/>
+      <c r="C947" s="26"/>
       <c r="H947" s="12"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="27"/>
-      <c r="B948" s="27"/>
-      <c r="C948" s="27"/>
+      <c r="A948" s="26"/>
+      <c r="B948" s="26"/>
+      <c r="C948" s="26"/>
       <c r="H948" s="12"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="27"/>
-      <c r="B949" s="27"/>
-      <c r="C949" s="27"/>
+      <c r="A949" s="26"/>
+      <c r="B949" s="26"/>
+      <c r="C949" s="26"/>
       <c r="H949" s="12"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="27"/>
-      <c r="B950" s="27"/>
-      <c r="C950" s="27"/>
+      <c r="A950" s="26"/>
+      <c r="B950" s="26"/>
+      <c r="C950" s="26"/>
       <c r="H950" s="12"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="27"/>
-      <c r="B951" s="27"/>
-      <c r="C951" s="27"/>
+      <c r="A951" s="26"/>
+      <c r="B951" s="26"/>
+      <c r="C951" s="26"/>
       <c r="H951" s="12"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="27"/>
-      <c r="B952" s="27"/>
-      <c r="C952" s="27"/>
+      <c r="A952" s="26"/>
+      <c r="B952" s="26"/>
+      <c r="C952" s="26"/>
       <c r="H952" s="12"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="27"/>
-      <c r="B953" s="27"/>
-      <c r="C953" s="27"/>
+      <c r="A953" s="26"/>
+      <c r="B953" s="26"/>
+      <c r="C953" s="26"/>
       <c r="H953" s="12"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="27"/>
-      <c r="B954" s="27"/>
-      <c r="C954" s="27"/>
+      <c r="A954" s="26"/>
+      <c r="B954" s="26"/>
+      <c r="C954" s="26"/>
       <c r="H954" s="12"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="27"/>
-      <c r="B955" s="27"/>
-      <c r="C955" s="27"/>
+      <c r="A955" s="26"/>
+      <c r="B955" s="26"/>
+      <c r="C955" s="26"/>
       <c r="H955" s="12"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="27"/>
-      <c r="B956" s="27"/>
-      <c r="C956" s="27"/>
+      <c r="A956" s="26"/>
+      <c r="B956" s="26"/>
+      <c r="C956" s="26"/>
       <c r="H956" s="12"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="27"/>
-      <c r="B957" s="27"/>
-      <c r="C957" s="27"/>
+      <c r="A957" s="26"/>
+      <c r="B957" s="26"/>
+      <c r="C957" s="26"/>
       <c r="H957" s="12"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="27"/>
-      <c r="B958" s="27"/>
-      <c r="C958" s="27"/>
+      <c r="A958" s="26"/>
+      <c r="B958" s="26"/>
+      <c r="C958" s="26"/>
       <c r="H958" s="12"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="27"/>
-      <c r="B959" s="27"/>
-      <c r="C959" s="27"/>
+      <c r="A959" s="26"/>
+      <c r="B959" s="26"/>
+      <c r="C959" s="26"/>
       <c r="H959" s="12"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="27"/>
-      <c r="B960" s="27"/>
-      <c r="C960" s="27"/>
+      <c r="A960" s="26"/>
+      <c r="B960" s="26"/>
+      <c r="C960" s="26"/>
       <c r="H960" s="12"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="27"/>
-      <c r="B961" s="27"/>
-      <c r="C961" s="27"/>
+      <c r="A961" s="26"/>
+      <c r="B961" s="26"/>
+      <c r="C961" s="26"/>
       <c r="H961" s="12"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="27"/>
-      <c r="B962" s="27"/>
-      <c r="C962" s="27"/>
+      <c r="A962" s="26"/>
+      <c r="B962" s="26"/>
+      <c r="C962" s="26"/>
       <c r="H962" s="12"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="27"/>
-      <c r="B963" s="27"/>
-      <c r="C963" s="27"/>
+      <c r="A963" s="26"/>
+      <c r="B963" s="26"/>
+      <c r="C963" s="26"/>
       <c r="H963" s="12"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="27"/>
-      <c r="B964" s="27"/>
-      <c r="C964" s="27"/>
+      <c r="A964" s="26"/>
+      <c r="B964" s="26"/>
+      <c r="C964" s="26"/>
       <c r="H964" s="12"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="27"/>
-      <c r="B965" s="27"/>
-      <c r="C965" s="27"/>
+      <c r="A965" s="26"/>
+      <c r="B965" s="26"/>
+      <c r="C965" s="26"/>
       <c r="H965" s="12"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="27"/>
-      <c r="B966" s="27"/>
-      <c r="C966" s="27"/>
+      <c r="A966" s="26"/>
+      <c r="B966" s="26"/>
+      <c r="C966" s="26"/>
       <c r="H966" s="12"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="27"/>
-      <c r="B967" s="27"/>
-      <c r="C967" s="27"/>
+      <c r="A967" s="26"/>
+      <c r="B967" s="26"/>
+      <c r="C967" s="26"/>
       <c r="H967" s="12"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="27"/>
-      <c r="B968" s="27"/>
-      <c r="C968" s="27"/>
+      <c r="A968" s="26"/>
+      <c r="B968" s="26"/>
+      <c r="C968" s="26"/>
       <c r="H968" s="12"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="27"/>
-      <c r="B969" s="27"/>
-      <c r="C969" s="27"/>
+      <c r="A969" s="26"/>
+      <c r="B969" s="26"/>
+      <c r="C969" s="26"/>
       <c r="H969" s="12"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="27"/>
-      <c r="B970" s="27"/>
-      <c r="C970" s="27"/>
+      <c r="A970" s="26"/>
+      <c r="B970" s="26"/>
+      <c r="C970" s="26"/>
       <c r="H970" s="12"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="27"/>
-      <c r="B971" s="27"/>
-      <c r="C971" s="27"/>
+      <c r="A971" s="26"/>
+      <c r="B971" s="26"/>
+      <c r="C971" s="26"/>
       <c r="H971" s="12"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="27"/>
-      <c r="B972" s="27"/>
-      <c r="C972" s="27"/>
+      <c r="A972" s="26"/>
+      <c r="B972" s="26"/>
+      <c r="C972" s="26"/>
       <c r="H972" s="12"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="27"/>
-      <c r="B973" s="27"/>
-      <c r="C973" s="27"/>
+      <c r="A973" s="26"/>
+      <c r="B973" s="26"/>
+      <c r="C973" s="26"/>
       <c r="H973" s="12"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="27"/>
-      <c r="B974" s="27"/>
-      <c r="C974" s="27"/>
+      <c r="A974" s="26"/>
+      <c r="B974" s="26"/>
+      <c r="C974" s="26"/>
       <c r="H974" s="12"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="27"/>
-      <c r="B975" s="27"/>
-      <c r="C975" s="27"/>
+      <c r="A975" s="26"/>
+      <c r="B975" s="26"/>
+      <c r="C975" s="26"/>
       <c r="H975" s="12"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="27"/>
-      <c r="B976" s="27"/>
-      <c r="C976" s="27"/>
+      <c r="A976" s="26"/>
+      <c r="B976" s="26"/>
+      <c r="C976" s="26"/>
       <c r="H976" s="12"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="27"/>
-      <c r="B977" s="27"/>
-      <c r="C977" s="27"/>
+      <c r="A977" s="26"/>
+      <c r="B977" s="26"/>
+      <c r="C977" s="26"/>
       <c r="H977" s="12"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="27"/>
-      <c r="B978" s="27"/>
-      <c r="C978" s="27"/>
+      <c r="A978" s="26"/>
+      <c r="B978" s="26"/>
+      <c r="C978" s="26"/>
       <c r="H978" s="12"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="27"/>
-      <c r="B979" s="27"/>
-      <c r="C979" s="27"/>
+      <c r="A979" s="26"/>
+      <c r="B979" s="26"/>
+      <c r="C979" s="26"/>
       <c r="H979" s="12"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="27"/>
-      <c r="B980" s="27"/>
-      <c r="C980" s="27"/>
+      <c r="A980" s="26"/>
+      <c r="B980" s="26"/>
+      <c r="C980" s="26"/>
       <c r="H980" s="12"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="27"/>
-      <c r="B981" s="27"/>
-      <c r="C981" s="27"/>
+      <c r="A981" s="26"/>
+      <c r="B981" s="26"/>
+      <c r="C981" s="26"/>
       <c r="H981" s="12"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="27"/>
-      <c r="B982" s="27"/>
-      <c r="C982" s="27"/>
+      <c r="A982" s="26"/>
+      <c r="B982" s="26"/>
+      <c r="C982" s="26"/>
       <c r="H982" s="12"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="27"/>
-      <c r="B983" s="27"/>
-      <c r="C983" s="27"/>
+      <c r="A983" s="26"/>
+      <c r="B983" s="26"/>
+      <c r="C983" s="26"/>
       <c r="H983" s="12"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="27"/>
-      <c r="B984" s="27"/>
-      <c r="C984" s="27"/>
+      <c r="A984" s="26"/>
+      <c r="B984" s="26"/>
+      <c r="C984" s="26"/>
       <c r="H984" s="12"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="27"/>
-      <c r="B985" s="27"/>
-      <c r="C985" s="27"/>
+      <c r="A985" s="26"/>
+      <c r="B985" s="26"/>
+      <c r="C985" s="26"/>
       <c r="H985" s="12"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="27"/>
-      <c r="B986" s="27"/>
-      <c r="C986" s="27"/>
+      <c r="A986" s="26"/>
+      <c r="B986" s="26"/>
+      <c r="C986" s="26"/>
       <c r="H986" s="12"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="27"/>
-      <c r="B987" s="27"/>
-      <c r="C987" s="27"/>
+      <c r="A987" s="26"/>
+      <c r="B987" s="26"/>
+      <c r="C987" s="26"/>
       <c r="H987" s="12"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="27"/>
-      <c r="B988" s="27"/>
-      <c r="C988" s="27"/>
+      <c r="A988" s="26"/>
+      <c r="B988" s="26"/>
+      <c r="C988" s="26"/>
       <c r="H988" s="12"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="27"/>
-      <c r="B989" s="27"/>
-      <c r="C989" s="27"/>
+      <c r="A989" s="26"/>
+      <c r="B989" s="26"/>
+      <c r="C989" s="26"/>
       <c r="H989" s="12"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="27"/>
-      <c r="B990" s="27"/>
-      <c r="C990" s="27"/>
+      <c r="A990" s="26"/>
+      <c r="B990" s="26"/>
+      <c r="C990" s="26"/>
       <c r="H990" s="12"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="27"/>
-      <c r="B991" s="27"/>
-      <c r="C991" s="27"/>
+      <c r="A991" s="26"/>
+      <c r="B991" s="26"/>
+      <c r="C991" s="26"/>
       <c r="H991" s="12"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="27"/>
-      <c r="B992" s="27"/>
-      <c r="C992" s="27"/>
+      <c r="A992" s="26"/>
+      <c r="B992" s="26"/>
+      <c r="C992" s="26"/>
       <c r="H992" s="12"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="27"/>
-      <c r="B993" s="27"/>
-      <c r="C993" s="27"/>
+      <c r="A993" s="26"/>
+      <c r="B993" s="26"/>
+      <c r="C993" s="26"/>
       <c r="H993" s="12"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="27"/>
-      <c r="B994" s="27"/>
-      <c r="C994" s="27"/>
+      <c r="A994" s="26"/>
+      <c r="B994" s="26"/>
+      <c r="C994" s="26"/>
       <c r="H994" s="12"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="27"/>
-      <c r="B995" s="27"/>
-      <c r="C995" s="27"/>
+      <c r="A995" s="26"/>
+      <c r="B995" s="26"/>
+      <c r="C995" s="26"/>
       <c r="H995" s="12"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="27"/>
-      <c r="B996" s="27"/>
-      <c r="C996" s="27"/>
+      <c r="A996" s="26"/>
+      <c r="B996" s="26"/>
+      <c r="C996" s="26"/>
       <c r="H996" s="12"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="27"/>
-      <c r="B997" s="27"/>
-      <c r="C997" s="27"/>
+      <c r="A997" s="26"/>
+      <c r="B997" s="26"/>
+      <c r="C997" s="26"/>
       <c r="H997" s="12"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="27"/>
-      <c r="B998" s="27"/>
-      <c r="C998" s="27"/>
+      <c r="A998" s="26"/>
+      <c r="B998" s="26"/>
+      <c r="C998" s="26"/>
       <c r="H998" s="12"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="27"/>
-      <c r="B999" s="27"/>
-      <c r="C999" s="27"/>
+      <c r="A999" s="26"/>
+      <c r="B999" s="26"/>
+      <c r="C999" s="26"/>
       <c r="H999" s="12"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="27"/>
-      <c r="B1000" s="27"/>
-      <c r="C1000" s="27"/>
+      <c r="A1000" s="26"/>
+      <c r="B1000" s="26"/>
+      <c r="C1000" s="26"/>
       <c r="H1000" s="12"/>
     </row>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="27"/>
-      <c r="B1001" s="27"/>
-      <c r="C1001" s="27"/>
+      <c r="A1001" s="26"/>
+      <c r="B1001" s="26"/>
+      <c r="C1001" s="26"/>
       <c r="H1001" s="12"/>
     </row>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="27"/>
-      <c r="B1002" s="27"/>
-      <c r="C1002" s="27"/>
+      <c r="A1002" s="26"/>
+      <c r="B1002" s="26"/>
+      <c r="C1002" s="26"/>
       <c r="H1002" s="12"/>
     </row>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="27"/>
-      <c r="B1003" s="27"/>
-      <c r="C1003" s="27"/>
+      <c r="A1003" s="26"/>
+      <c r="B1003" s="26"/>
+      <c r="C1003" s="26"/>
       <c r="H1003" s="12"/>
     </row>
     <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="27"/>
-      <c r="B1004" s="27"/>
-      <c r="C1004" s="27"/>
+      <c r="A1004" s="26"/>
+      <c r="B1004" s="26"/>
+      <c r="C1004" s="26"/>
       <c r="H1004" s="12"/>
     </row>
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="27"/>
-      <c r="B1005" s="27"/>
-      <c r="C1005" s="27"/>
+      <c r="A1005" s="26"/>
+      <c r="B1005" s="26"/>
+      <c r="C1005" s="26"/>
       <c r="H1005" s="12"/>
     </row>
     <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="27"/>
-      <c r="B1006" s="27"/>
-      <c r="C1006" s="27"/>
+      <c r="A1006" s="26"/>
+      <c r="B1006" s="26"/>
+      <c r="C1006" s="26"/>
       <c r="H1006" s="12"/>
     </row>
     <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="27"/>
-      <c r="B1007" s="27"/>
-      <c r="C1007" s="27"/>
+      <c r="A1007" s="26"/>
+      <c r="B1007" s="26"/>
+      <c r="C1007" s="26"/>
       <c r="H1007" s="12"/>
     </row>
     <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="27"/>
-      <c r="B1008" s="27"/>
-      <c r="C1008" s="27"/>
+      <c r="A1008" s="26"/>
+      <c r="B1008" s="26"/>
+      <c r="C1008" s="26"/>
       <c r="H1008" s="12"/>
     </row>
     <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="27"/>
-      <c r="B1009" s="27"/>
-      <c r="C1009" s="27"/>
+      <c r="A1009" s="26"/>
+      <c r="B1009" s="26"/>
+      <c r="C1009" s="26"/>
       <c r="H1009" s="12"/>
     </row>
     <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="27"/>
-      <c r="B1010" s="27"/>
-      <c r="C1010" s="27"/>
+      <c r="A1010" s="26"/>
+      <c r="B1010" s="26"/>
+      <c r="C1010" s="26"/>
       <c r="H1010" s="12"/>
     </row>
     <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="27"/>
-      <c r="B1011" s="27"/>
-      <c r="C1011" s="27"/>
+      <c r="A1011" s="26"/>
+      <c r="B1011" s="26"/>
+      <c r="C1011" s="26"/>
       <c r="H1011" s="12"/>
     </row>
     <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="27"/>
-      <c r="B1012" s="27"/>
-      <c r="C1012" s="27"/>
+      <c r="A1012" s="26"/>
+      <c r="B1012" s="26"/>
+      <c r="C1012" s="26"/>
       <c r="H1012" s="12"/>
     </row>
     <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="27"/>
-      <c r="B1013" s="27"/>
-      <c r="C1013" s="27"/>
+      <c r="A1013" s="26"/>
+      <c r="B1013" s="26"/>
+      <c r="C1013" s="26"/>
       <c r="H1013" s="12"/>
     </row>
     <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="27"/>
-      <c r="B1014" s="27"/>
-      <c r="C1014" s="27"/>
+      <c r="A1014" s="26"/>
+      <c r="B1014" s="26"/>
+      <c r="C1014" s="26"/>
       <c r="H1014" s="12"/>
     </row>
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="27"/>
-      <c r="B1015" s="27"/>
-      <c r="C1015" s="27"/>
+      <c r="A1015" s="26"/>
+      <c r="B1015" s="26"/>
+      <c r="C1015" s="26"/>
       <c r="H1015" s="12"/>
     </row>
     <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="27"/>
-      <c r="B1016" s="27"/>
-      <c r="C1016" s="27"/>
+      <c r="A1016" s="26"/>
+      <c r="B1016" s="26"/>
+      <c r="C1016" s="26"/>
       <c r="H1016" s="12"/>
     </row>
     <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="27"/>
-      <c r="B1017" s="27"/>
-      <c r="C1017" s="27"/>
+      <c r="A1017" s="26"/>
+      <c r="B1017" s="26"/>
+      <c r="C1017" s="26"/>
       <c r="H1017" s="12"/>
     </row>
     <row r="1018" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="27"/>
-      <c r="B1018" s="27"/>
-      <c r="C1018" s="27"/>
+      <c r="A1018" s="26"/>
+      <c r="B1018" s="26"/>
+      <c r="C1018" s="26"/>
       <c r="H1018" s="12"/>
     </row>
     <row r="1019" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="27"/>
-      <c r="B1019" s="27"/>
-      <c r="C1019" s="27"/>
+      <c r="A1019" s="26"/>
+      <c r="B1019" s="26"/>
+      <c r="C1019" s="26"/>
       <c r="H1019" s="12"/>
     </row>
     <row r="1020" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="27"/>
-      <c r="B1020" s="27"/>
-      <c r="C1020" s="27"/>
+      <c r="A1020" s="26"/>
+      <c r="B1020" s="26"/>
+      <c r="C1020" s="26"/>
       <c r="H1020" s="12"/>
     </row>
     <row r="1021" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="27"/>
-      <c r="B1021" s="27"/>
-      <c r="C1021" s="27"/>
+      <c r="A1021" s="26"/>
+      <c r="B1021" s="26"/>
+      <c r="C1021" s="26"/>
       <c r="H1021" s="12"/>
     </row>
     <row r="1022" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1022" s="27"/>
-      <c r="B1022" s="27"/>
-      <c r="C1022" s="27"/>
+      <c r="A1022" s="26"/>
+      <c r="B1022" s="26"/>
+      <c r="C1022" s="26"/>
       <c r="H1022" s="12"/>
     </row>
     <row r="1023" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="27"/>
-      <c r="B1023" s="27"/>
-      <c r="C1023" s="27"/>
+      <c r="A1023" s="26"/>
+      <c r="B1023" s="26"/>
+      <c r="C1023" s="26"/>
       <c r="H1023" s="12"/>
     </row>
     <row r="1024" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1024" s="27"/>
-      <c r="B1024" s="27"/>
-      <c r="C1024" s="27"/>
+      <c r="A1024" s="26"/>
+      <c r="B1024" s="26"/>
+      <c r="C1024" s="26"/>
       <c r="H1024" s="12"/>
     </row>
     <row r="1025" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1025" s="27"/>
-      <c r="B1025" s="27"/>
-      <c r="C1025" s="27"/>
+      <c r="A1025" s="26"/>
+      <c r="B1025" s="26"/>
+      <c r="C1025" s="26"/>
       <c r="H1025" s="12"/>
     </row>
     <row r="1026" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1026" s="27"/>
-      <c r="B1026" s="27"/>
-      <c r="C1026" s="27"/>
+      <c r="A1026" s="26"/>
+      <c r="B1026" s="26"/>
+      <c r="C1026" s="26"/>
       <c r="H1026" s="12"/>
     </row>
     <row r="1027" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1027" s="27"/>
-      <c r="B1027" s="27"/>
-      <c r="C1027" s="27"/>
+      <c r="A1027" s="26"/>
+      <c r="B1027" s="26"/>
+      <c r="C1027" s="26"/>
       <c r="H1027" s="12"/>
     </row>
     <row r="1028" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="27"/>
-      <c r="B1028" s="27"/>
-      <c r="C1028" s="27"/>
+      <c r="A1028" s="26"/>
+      <c r="B1028" s="26"/>
+      <c r="C1028" s="26"/>
       <c r="H1028" s="12"/>
     </row>
     <row r="1029" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="27"/>
-      <c r="B1029" s="27"/>
-      <c r="C1029" s="27"/>
+      <c r="A1029" s="26"/>
+      <c r="B1029" s="26"/>
+      <c r="C1029" s="26"/>
       <c r="H1029" s="12"/>
     </row>
     <row r="1030" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="27"/>
-      <c r="B1030" s="27"/>
-      <c r="C1030" s="27"/>
+      <c r="A1030" s="26"/>
+      <c r="B1030" s="26"/>
+      <c r="C1030" s="26"/>
       <c r="H1030" s="12"/>
     </row>
     <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="27"/>
-      <c r="B1031" s="27"/>
-      <c r="C1031" s="27"/>
+      <c r="A1031" s="26"/>
+      <c r="B1031" s="26"/>
+      <c r="C1031" s="26"/>
       <c r="H1031" s="12"/>
     </row>
     <row r="1032" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="27"/>
-      <c r="B1032" s="27"/>
-      <c r="C1032" s="27"/>
+      <c r="A1032" s="26"/>
+      <c r="B1032" s="26"/>
+      <c r="C1032" s="26"/>
       <c r="H1032" s="12"/>
     </row>
     <row r="1033" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1033" s="27"/>
-      <c r="B1033" s="27"/>
-      <c r="C1033" s="27"/>
+      <c r="A1033" s="26"/>
+      <c r="B1033" s="26"/>
+      <c r="C1033" s="26"/>
       <c r="H1033" s="12"/>
     </row>
     <row r="1034" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="27"/>
-      <c r="B1034" s="27"/>
-      <c r="C1034" s="27"/>
+      <c r="A1034" s="26"/>
+      <c r="B1034" s="26"/>
+      <c r="C1034" s="26"/>
       <c r="H1034" s="12"/>
     </row>
     <row r="1035" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="27"/>
-      <c r="B1035" s="27"/>
-      <c r="C1035" s="27"/>
+      <c r="A1035" s="26"/>
+      <c r="B1035" s="26"/>
+      <c r="C1035" s="26"/>
       <c r="H1035" s="12"/>
     </row>
     <row r="1036" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1036" s="27"/>
-      <c r="B1036" s="27"/>
-      <c r="C1036" s="27"/>
+      <c r="A1036" s="26"/>
+      <c r="B1036" s="26"/>
+      <c r="C1036" s="26"/>
       <c r="H1036" s="12"/>
     </row>
     <row r="1037" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1037" s="27"/>
-      <c r="B1037" s="27"/>
-      <c r="C1037" s="27"/>
+      <c r="A1037" s="26"/>
+      <c r="B1037" s="26"/>
+      <c r="C1037" s="26"/>
       <c r="H1037" s="12"/>
     </row>
     <row r="1038" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1038" s="27"/>
-      <c r="B1038" s="27"/>
-      <c r="C1038" s="27"/>
+      <c r="A1038" s="26"/>
+      <c r="B1038" s="26"/>
+      <c r="C1038" s="26"/>
       <c r="H1038" s="12"/>
     </row>
     <row r="1039" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1039" s="27"/>
-      <c r="B1039" s="27"/>
-      <c r="C1039" s="27"/>
+      <c r="A1039" s="26"/>
+      <c r="B1039" s="26"/>
+      <c r="C1039" s="26"/>
       <c r="H1039" s="12"/>
     </row>
     <row r="1040" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1040" s="27"/>
-      <c r="B1040" s="27"/>
-      <c r="C1040" s="27"/>
+      <c r="A1040" s="26"/>
+      <c r="B1040" s="26"/>
+      <c r="C1040" s="26"/>
       <c r="H1040" s="12"/>
     </row>
     <row r="1041" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1041" s="27"/>
-      <c r="B1041" s="27"/>
-      <c r="C1041" s="27"/>
+      <c r="A1041" s="26"/>
+      <c r="B1041" s="26"/>
+      <c r="C1041" s="26"/>
       <c r="H1041" s="12"/>
     </row>
     <row r="1042" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1042" s="27"/>
-      <c r="B1042" s="27"/>
-      <c r="C1042" s="27"/>
+      <c r="A1042" s="26"/>
+      <c r="B1042" s="26"/>
+      <c r="C1042" s="26"/>
       <c r="H1042" s="12"/>
     </row>
     <row r="1043" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1043" s="27"/>
-      <c r="B1043" s="27"/>
-      <c r="C1043" s="27"/>
+      <c r="A1043" s="26"/>
+      <c r="B1043" s="26"/>
+      <c r="C1043" s="26"/>
       <c r="H1043" s="12"/>
     </row>
     <row r="1044" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1044" s="27"/>
-      <c r="B1044" s="27"/>
-      <c r="C1044" s="27"/>
+      <c r="A1044" s="26"/>
+      <c r="B1044" s="26"/>
+      <c r="C1044" s="26"/>
       <c r="H1044" s="12"/>
     </row>
     <row r="1045" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1045" s="27"/>
-      <c r="B1045" s="27"/>
-      <c r="C1045" s="27"/>
+      <c r="A1045" s="26"/>
+      <c r="B1045" s="26"/>
+      <c r="C1045" s="26"/>
       <c r="H1045" s="12"/>
     </row>
     <row r="1046" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1046" s="27"/>
-      <c r="B1046" s="27"/>
-      <c r="C1046" s="27"/>
+      <c r="A1046" s="26"/>
+      <c r="B1046" s="26"/>
+      <c r="C1046" s="26"/>
       <c r="H1046" s="12"/>
     </row>
     <row r="1047" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1047" s="27"/>
-      <c r="B1047" s="27"/>
-      <c r="C1047" s="27"/>
+      <c r="A1047" s="26"/>
+      <c r="B1047" s="26"/>
+      <c r="C1047" s="26"/>
       <c r="H1047" s="12"/>
     </row>
     <row r="1048" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1048" s="27"/>
-      <c r="B1048" s="27"/>
-      <c r="C1048" s="27"/>
+      <c r="A1048" s="26"/>
+      <c r="B1048" s="26"/>
+      <c r="C1048" s="26"/>
       <c r="H1048" s="12"/>
     </row>
     <row r="1049" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1049" s="27"/>
-      <c r="B1049" s="27"/>
-      <c r="C1049" s="27"/>
+      <c r="A1049" s="26"/>
+      <c r="B1049" s="26"/>
+      <c r="C1049" s="26"/>
       <c r="H1049" s="12"/>
     </row>
     <row r="1050" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1050" s="27"/>
-      <c r="B1050" s="27"/>
-      <c r="C1050" s="27"/>
+      <c r="A1050" s="26"/>
+      <c r="B1050" s="26"/>
+      <c r="C1050" s="26"/>
       <c r="H1050" s="12"/>
     </row>
     <row r="1051" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1051" s="27"/>
-      <c r="B1051" s="27"/>
-      <c r="C1051" s="27"/>
+      <c r="A1051" s="26"/>
+      <c r="B1051" s="26"/>
+      <c r="C1051" s="26"/>
       <c r="H1051" s="12"/>
     </row>
     <row r="1052" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1052" s="27"/>
-      <c r="B1052" s="27"/>
-      <c r="C1052" s="27"/>
+      <c r="A1052" s="26"/>
+      <c r="B1052" s="26"/>
+      <c r="C1052" s="26"/>
       <c r="H1052" s="12"/>
     </row>
     <row r="1053" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1053" s="27"/>
-      <c r="B1053" s="27"/>
-      <c r="C1053" s="27"/>
+      <c r="A1053" s="26"/>
+      <c r="B1053" s="26"/>
+      <c r="C1053" s="26"/>
       <c r="H1053" s="12"/>
     </row>
     <row r="1054" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1054" s="27"/>
-      <c r="B1054" s="27"/>
-      <c r="C1054" s="27"/>
+      <c r="A1054" s="26"/>
+      <c r="B1054" s="26"/>
+      <c r="C1054" s="26"/>
       <c r="H1054" s="12"/>
     </row>
     <row r="1055" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1055" s="27"/>
-      <c r="B1055" s="27"/>
-      <c r="C1055" s="27"/>
+      <c r="A1055" s="26"/>
+      <c r="B1055" s="26"/>
+      <c r="C1055" s="26"/>
       <c r="H1055" s="12"/>
     </row>
     <row r="1056" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1056" s="27"/>
-      <c r="B1056" s="27"/>
-      <c r="C1056" s="27"/>
+      <c r="A1056" s="26"/>
+      <c r="B1056" s="26"/>
+      <c r="C1056" s="26"/>
       <c r="H1056" s="12"/>
     </row>
     <row r="1057" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1057" s="27"/>
-      <c r="B1057" s="27"/>
-      <c r="C1057" s="27"/>
+      <c r="A1057" s="26"/>
+      <c r="B1057" s="26"/>
+      <c r="C1057" s="26"/>
       <c r="H1057" s="12"/>
     </row>
     <row r="1058" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1058" s="27"/>
-      <c r="B1058" s="27"/>
-      <c r="C1058" s="27"/>
+      <c r="A1058" s="26"/>
+      <c r="B1058" s="26"/>
+      <c r="C1058" s="26"/>
       <c r="H1058" s="12"/>
     </row>
     <row r="1059" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1059" s="27"/>
-      <c r="B1059" s="27"/>
-      <c r="C1059" s="27"/>
+      <c r="A1059" s="26"/>
+      <c r="B1059" s="26"/>
+      <c r="C1059" s="26"/>
       <c r="H1059" s="12"/>
     </row>
     <row r="1060" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1060" s="27"/>
-      <c r="B1060" s="27"/>
-      <c r="C1060" s="27"/>
+      <c r="A1060" s="26"/>
+      <c r="B1060" s="26"/>
+      <c r="C1060" s="26"/>
       <c r="H1060" s="12"/>
     </row>
     <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1061" s="27"/>
-      <c r="B1061" s="27"/>
-      <c r="C1061" s="27"/>
+      <c r="A1061" s="26"/>
+      <c r="B1061" s="26"/>
+      <c r="C1061" s="26"/>
       <c r="H1061" s="12"/>
     </row>
     <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1062" s="27"/>
-      <c r="B1062" s="27"/>
-      <c r="C1062" s="27"/>
+      <c r="A1062" s="26"/>
+      <c r="B1062" s="26"/>
+      <c r="C1062" s="26"/>
       <c r="H1062" s="12"/>
     </row>
     <row r="1063" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1063" s="27"/>
-      <c r="B1063" s="27"/>
-      <c r="C1063" s="27"/>
+      <c r="A1063" s="26"/>
+      <c r="B1063" s="26"/>
+      <c r="C1063" s="26"/>
       <c r="H1063" s="12"/>
     </row>
     <row r="1064" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1064" s="27"/>
-      <c r="B1064" s="27"/>
-      <c r="C1064" s="27"/>
+      <c r="A1064" s="26"/>
+      <c r="B1064" s="26"/>
+      <c r="C1064" s="26"/>
       <c r="H1064" s="12"/>
     </row>
     <row r="1065" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1065" s="27"/>
-      <c r="B1065" s="27"/>
-      <c r="C1065" s="27"/>
+      <c r="A1065" s="26"/>
+      <c r="B1065" s="26"/>
+      <c r="C1065" s="26"/>
       <c r="H1065" s="12"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8754,7 +8774,7 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="link"/>
     <hyperlink ref="E5" r:id="rId2" display="link"/>
-    <hyperlink ref="H5" r:id="rId3" display="USB DS18B20"/>
+    <hyperlink ref="H5" r:id="rId3" display="Used to monitor the temperature in the reaction chamber. This is a link to a USB DS18B20 "/>
     <hyperlink ref="E6" r:id="rId4" display="link"/>
     <hyperlink ref="H6" r:id="rId5" display="Linked screen is to a raspberry pi 4. Be sure to select a touchscreen that fits your Raspberry Pi or Libre Computer. You will also need to download drivers that match your screen. The linked screen uses goodtft’s LCDshow."/>
     <hyperlink ref="E7" r:id="rId6" display="link"/>
@@ -8843,7 +8863,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>
@@ -8954,7 +8974,7 @@
       <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>247</v>
       </c>
       <c r="I4" s="13" t="n">
@@ -9082,7 +9102,7 @@
       <c r="D9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>258</v>
       </c>
       <c r="H9" s="12"/>
@@ -9404,7 +9424,7 @@
       <c r="B22" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>286</v>
       </c>
       <c r="D22" s="10" t="n">
@@ -9426,7 +9446,7 @@
       <c r="B23" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>288</v>
       </c>
       <c r="D23" s="10" t="n">
@@ -9448,7 +9468,7 @@
       <c r="B24" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>289</v>
       </c>
       <c r="D24" s="10" t="n">
@@ -9514,7 +9534,7 @@
       <c r="B27" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>292</v>
       </c>
       <c r="D27" s="10" t="n">
@@ -9621,7 +9641,7 @@
       <c r="C31" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="28"/>
       <c r="H31" s="12"/>
       <c r="I31" s="15"/>
     </row>
@@ -9633,7 +9653,7 @@
       <c r="C32" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="28"/>
       <c r="H32" s="12"/>
       <c r="I32" s="15"/>
     </row>
@@ -9645,7 +9665,7 @@
       <c r="C33" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="28"/>
       <c r="H33" s="12"/>
       <c r="I33" s="15"/>
     </row>
@@ -9656,7 +9676,7 @@
       <c r="B34" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>156</v>
       </c>
       <c r="D34" s="10" t="n">
@@ -9796,7 +9816,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="9" t="s">
         <v>302</v>
       </c>
@@ -9817,7 +9837,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="9" t="s">
         <v>305</v>
       </c>
@@ -9831,10 +9851,10 @@
         <v>12</v>
       </c>
       <c r="H41" s="12"/>
-      <c r="I41" s="30" t="n">
+      <c r="I41" s="29" t="n">
         <v>8.99</v>
       </c>
-      <c r="J41" s="31" t="s">
+      <c r="J41" s="30" t="s">
         <v>244</v>
       </c>
     </row>
@@ -9900,13 +9920,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="31" t="s">
+      <c r="I48" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="J48" s="31" t="s">
+      <c r="J48" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="K48" s="31" t="s">
+      <c r="K48" s="30" t="s">
         <v>244</v>
       </c>
     </row>

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="313">
   <si>
     <t xml:space="preserve">pic label</t>
   </si>
@@ -260,7 +260,11 @@
     <t xml:space="preserve">Circulating pump</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTE Operational limits to pumps in terms of capacity and temperature have not been determined. Larger or self-priming pumps may be desired for optimal operation, especially at high temperatures.</t>
+    <t xml:space="preserve">1 or 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To run both heating and cooling in the same recipe without hardware reconfiguration between recipe steps, 2 pumps are required.
+NOTE: Operational limits to pumps in terms of capacity and temperature have not been determined. Larger pumps may be desired for optimal operation, especially at high temperatures. Self-priming pumps are HIGHLY recommended.</t>
   </si>
   <si>
     <t xml:space="preserve">TC-HOU</t>
@@ -299,16 +303,13 @@
     <t xml:space="preserve">Submersible heater</t>
   </si>
   <si>
-    <t xml:space="preserve">1 or 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC-CTB</t>
   </si>
   <si>
     <t xml:space="preserve">Copper tubing 1/4" OD x 3/16" ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Copper tubing should fit snugly within the silicone tubing</t>
+    <t xml:space="preserve">Copper tubing should fit snugly within the silicone tubing. This should be enough to make 2 heat exchanger coils.</t>
   </si>
   <si>
     <t xml:space="preserve">09</t>
@@ -317,25 +318,7 @@
     <t xml:space="preserve">TC-STB</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Silicone tubing 7mm OD x </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">5mm ID</t>
-    </r>
+    <t xml:space="preserve">Silicone tubing 7mm OD x 5mm ID</t>
   </si>
   <si>
     <t xml:space="preserve">Silicone tubing should fit snugly around the copper tubing</t>
@@ -359,7 +342,7 @@
     <t xml:space="preserve">TC-JAR</t>
   </si>
   <si>
-    <t xml:space="preserve">6oz canning jar or large Ball jar</t>
+    <t xml:space="preserve">16oz canning jar and/or large Ball jar</t>
   </si>
   <si>
     <t xml:space="preserve">6oz link</t>
@@ -777,7 +760,7 @@
     <t xml:space="preserve">Hard case</t>
   </si>
   <si>
-    <t xml:space="preserve">Optional, but good for storage and shipping. The linked one was the cheapest profile we could find at ~$25 ea. The control unit and assembled reaction chamber module can fit side by side in one case while the reactor housing and pumps pack flatish next to the temperature control parts. A broader, less deep profile would be more convenient, but those seemed to be more expensive.</t>
+    <t xml:space="preserve">Optional, but good for storage and shipping. The linked one was the cheapest profile we could find at 2x ~$25 ea. The control unit and assembled reaction chamber module can fit side by side in one case while the reactor housing and pumps pack flat-ish next to the temperature control parts. A broader, less deep profile would be more convenient, but those seem to be more expensive. It’s snug – a separate cooling jar and coil will NOT fit.</t>
   </si>
   <si>
     <t xml:space="preserve">Price Aug/Sep 2022</t>
@@ -1014,7 +997,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1083,12 +1066,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1256,7 +1233,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1413,12 +1390,12 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="H93" activeCellId="0" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -1850,7 +1827,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>68</v>
       </c>
@@ -1860,25 +1837,25 @@
       <c r="C25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="10" t="n">
-        <v>1</v>
+      <c r="D25" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="11"/>
       <c r="H25" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="10" t="n">
         <v>1</v>
@@ -1888,17 +1865,17 @@
       </c>
       <c r="F26" s="11"/>
       <c r="H26" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>1</v>
@@ -1914,7 +1891,7 @@
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="10" t="n">
         <v>1</v>
@@ -1924,17 +1901,17 @@
       </c>
       <c r="F28" s="11"/>
       <c r="H28" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" s="10" t="n">
         <v>1</v>
@@ -1944,20 +1921,20 @@
       </c>
       <c r="F29" s="11"/>
       <c r="H29" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>12</v>
@@ -1966,7 +1943,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
         <v>85</v>
@@ -8863,7 +8840,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -754,7 +754,14 @@
     <t xml:space="preserve">Paint and stickers</t>
   </si>
   <si>
-    <t xml:space="preserve">Have fun with it! Make the Microlab yours!</t>
+    <t xml:space="preserve">Have fun with it! Make the Microlab yours! 
+OR MAKE IT OURS and use the colors from our “brand guidelines” (lmao):
+https://www.homedepot.com/p/MONTANA-11-oz-GOLD-Spray-Paint-Banana-Joe-034498/304354434
+https://www.homedepot.com/p/MONTANA-11-oz-GOLD-Spray-Paint-Pink-Pink-034546/304354610
+https://www.homedepot.com/p/MONTANA-11-oz-GOLD-Spray-Paint-Malachite-034600/304354558
+https://www.homedepot.com/p/MONTANA-11-oz-GOLD-Spray-Paint-Lavender-034556/304354620
+https://www.homedepot.com/p/MONTANA-11-oz-GOLD-Spray-Paint-Capri-034527/304354508
+https://www.homedepot.com/p/MONTANA-11-oz-GOLD-Spray-Paint-Blue-Magic-034574/304354574</t>
   </si>
   <si>
     <t xml:space="preserve">Hard case</t>
@@ -1392,10 +1399,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H93" activeCellId="0" sqref="H93"/>
+      <selection pane="bottomLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -2897,7 +2904,7 @@
       </c>
       <c r="I90" s="15"/>
     </row>
-    <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="9" t="s">
         <v>234</v>
       </c>
@@ -8840,7 +8847,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$1:$E$1065</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$1:$E$1066</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="321">
   <si>
     <t xml:space="preserve">pic label</t>
   </si>
@@ -221,22 +221,46 @@
     <t xml:space="preserve">These can be scavenged from old computers</t>
   </si>
   <si>
+    <t xml:space="preserve">MC-JMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breadboard Jumpers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small wires to connect exposed pins on the Pi and Arduino to lever and screw terminals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC-ECD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension cord</t>
   </si>
   <si>
     <t xml:space="preserve">This provides power for the 5v and 12v circuits in the LAB CONTROL UNIT. The heaters that run on mains power are powered separately.</t>
   </si>
   <si>
+    <t xml:space="preserve">MC-VCR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Velcro / hook-and-loop straps</t>
   </si>
   <si>
     <t xml:space="preserve">Optional, but useful for assembly and affixing components to the case</t>
   </si>
   <si>
+    <t xml:space="preserve">MC-SMC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stepper Motor Cables</t>
   </si>
   <si>
     <t xml:space="preserve">Most stepper motors will come with these</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC-HOU</t>
   </si>
   <si>
     <t xml:space="preserve">Corrugated plastic </t>
@@ -1394,15 +1418,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I1066"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
+      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -1730,28 +1754,32 @@
       </c>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="10" t="n">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="C18" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D18" s="10" t="n">
         <v>1</v>
@@ -1760,129 +1788,132 @@
         <v>12</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H19" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="C20" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
       <c r="H20" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="11"/>
       <c r="H22" s="12"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>12</v>
-      </c>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="14"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="H25" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="B26" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="10" t="n">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="11"/>
       <c r="H26" s="12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>1</v>
@@ -1891,14 +1922,18 @@
         <v>12</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="C28" s="9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D28" s="10" t="n">
         <v>1</v>
@@ -1907,18 +1942,14 @@
         <v>12</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="H28" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="H28" s="12"/>
       <c r="I28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9"/>
-      <c r="B29" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D29" s="10" t="n">
         <v>1</v>
@@ -1928,57 +1959,55 @@
       </c>
       <c r="F29" s="11"/>
       <c r="H29" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>71</v>
+        <v>89</v>
+      </c>
+      <c r="D30" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="H30" s="12"/>
+      <c r="H30" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="10" t="n">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="H31" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="H31" s="12"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>88</v>
-      </c>
+    <row r="32" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D32" s="10" t="n">
         <v>1</v>
@@ -1988,79 +2017,83 @@
       </c>
       <c r="F32" s="11"/>
       <c r="H32" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D33" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="F33" s="11"/>
       <c r="H33" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="B34" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="D34" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="E34" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="H35" s="12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11" t="s">
@@ -2068,51 +2101,51 @@
       </c>
       <c r="F36" s="11"/>
       <c r="H36" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="H37" s="12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="H38" s="12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11" t="s">
@@ -2120,17 +2153,17 @@
       </c>
       <c r="F39" s="11"/>
       <c r="H39" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="11" t="s">
@@ -2138,100 +2171,97 @@
       </c>
       <c r="F40" s="11"/>
       <c r="H40" s="12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F41" s="11"/>
       <c r="H41" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="H42" s="12"/>
+      <c r="H42" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="23"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="15"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D46" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>131</v>
-      </c>
+      <c r="H46" s="12"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="D47" s="10" t="n">
         <v>3</v>
@@ -2239,18 +2269,20 @@
       <c r="E47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D48" s="10" t="n">
         <v>3</v>
@@ -2263,13 +2295,13 @@
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D49" s="10" t="n">
         <v>3</v>
@@ -2282,13 +2314,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="D50" s="10" t="n">
         <v>3</v>
@@ -2301,13 +2333,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D51" s="10" t="n">
         <v>3</v>
@@ -2320,13 +2352,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="D52" s="10" t="n">
         <v>3</v>
@@ -2337,15 +2369,15 @@
       <c r="H52" s="12"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="D53" s="10" t="n">
         <v>3</v>
@@ -2353,24 +2385,18 @@
       <c r="E53" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="H53" s="12"/>
-      <c r="I53" s="22"/>
+      <c r="I53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="D54" s="10" t="n">
         <v>3</v>
@@ -2378,21 +2404,24 @@
       <c r="E54" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="F54" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G54" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H54" s="12"/>
-      <c r="I54" s="15"/>
+      <c r="I54" s="22"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>160</v>
+        <v>163</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="D55" s="10" t="n">
         <v>3</v>
@@ -2400,155 +2429,156 @@
       <c r="E55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="12" t="s">
-        <v>161</v>
-      </c>
+      <c r="G55" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55" s="12"/>
       <c r="I55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I56" s="13"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="15"/>
-    </row>
-    <row r="58" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E58" s="23"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="13"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="23"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9"/>
-      <c r="B60" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="14"/>
       <c r="H60" s="12"/>
       <c r="I60" s="13"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
-        <v>158</v>
-      </c>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="10" t="n">
+        <v>176</v>
+      </c>
+      <c r="D61" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I61" s="15"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="C62" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="H62" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="I62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
+      <c r="C63" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="D63" s="10"/>
       <c r="E63" s="11"/>
-      <c r="H63" s="12"/>
+      <c r="H63" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E64" s="23"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="20"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D65" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="I65" s="15"/>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="23"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D66" s="10" t="n">
         <v>1</v>
@@ -2557,134 +2587,133 @@
         <v>12</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="I66" s="22"/>
+        <v>183</v>
+      </c>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9"/>
+      <c r="A67" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="B67" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="10"/>
+        <v>186</v>
+      </c>
+      <c r="D67" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E67" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I67" s="22"/>
     </row>
-    <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
-        <v>183</v>
-      </c>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="I68" s="15"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D70" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="11" t="s">
+      <c r="E68" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="H70" s="12" t="s">
+      <c r="I68" s="22"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I70" s="15"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9"/>
+      <c r="B69" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
+        <v>195</v>
+      </c>
       <c r="B71" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D71" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9"/>
       <c r="B72" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D72" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H72" s="12"/>
+        <v>198</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>202</v>
+      </c>
       <c r="I72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="s">
-        <v>197</v>
-      </c>
+      <c r="A73" s="9"/>
       <c r="B73" s="9" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D73" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="H73" s="12"/>
-      <c r="I73" s="22"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I73" s="15"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D74" s="10" t="n">
         <v>1</v>
@@ -2692,57 +2721,67 @@
       <c r="E74" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="F74" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="H74" s="12"/>
-      <c r="I74" s="15"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E76" s="23"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="20"/>
-    </row>
-    <row r="77" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E77" s="11" t="s">
+      <c r="I74" s="22"/>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I77" s="15"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E77" s="23"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="B78" s="9" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E78" s="11"/>
-      <c r="H78" s="12"/>
+        <v>214</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>215</v>
+      </c>
       <c r="I78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E79" s="11"/>
       <c r="H79" s="12"/>
@@ -2751,55 +2790,52 @@
     <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E80" s="11"/>
       <c r="H80" s="12"/>
       <c r="I80" s="15"/>
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B81" s="9"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9" t="s">
+        <v>220</v>
+      </c>
       <c r="C81" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D81" s="10" t="n">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="E81" s="11"/>
       <c r="H81" s="12"/>
       <c r="I81" s="15"/>
     </row>
     <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9"/>
+      <c r="A82" s="9" t="s">
+        <v>222</v>
+      </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D82" s="10"/>
+        <v>223</v>
+      </c>
+      <c r="D82" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E82" s="11"/>
-      <c r="H82" s="12" t="s">
-        <v>217</v>
-      </c>
+      <c r="H82" s="12"/>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D83" s="10"/>
-      <c r="E83" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E83" s="11"/>
       <c r="H83" s="12" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I83" s="15"/>
     </row>
@@ -2807,14 +2843,14 @@
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I84" s="15"/>
     </row>
@@ -2822,42 +2858,42 @@
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I85" s="15"/>
     </row>
-    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
+      <c r="E86" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="H86" s="12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="D87" s="10"/>
-      <c r="E87" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E87" s="11"/>
       <c r="H87" s="12" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I87" s="15"/>
     </row>
@@ -2865,102 +2901,111 @@
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9" t="s">
-        <v>226</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="D88" s="10"/>
       <c r="E88" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E90" s="11"/>
+        <v>236</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="H90" s="12" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="I90" s="15"/>
     </row>
-    <row r="91" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="9" t="s">
-        <v>234</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E91" s="11"/>
       <c r="H91" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D92" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D93" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="E93" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H92" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H93" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="11"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="15"/>
-    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
       <c r="H98" s="12"/>
       <c r="I98" s="15"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
-      <c r="C99" s="9"/>
+      <c r="C99" s="26"/>
       <c r="H99" s="12"/>
+      <c r="I99" s="15"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
+      <c r="C100" s="9"/>
       <c r="H100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="26"/>
       <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
       <c r="H101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8747,10 +8792,15 @@
       <c r="C1065" s="26"/>
       <c r="H1065" s="12"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1066" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="26"/>
+      <c r="B1066" s="26"/>
+      <c r="C1066" s="26"/>
+      <c r="H1066" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E1065"/>
-  <conditionalFormatting sqref="A97:B1065 A76:B90 A70:B74 A45:B68 A1:B43">
+  <autoFilter ref="E1:E1066"/>
+  <conditionalFormatting sqref="A98:B1066 A77:B91 A71:B75 A46:B69 A1:B44">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -8774,7 +8824,7 @@
     <hyperlink ref="E15" r:id="rId16" display="link"/>
     <hyperlink ref="E17" r:id="rId17" display="link"/>
     <hyperlink ref="E18" r:id="rId18" display="link"/>
-    <hyperlink ref="E25" r:id="rId19" display="link"/>
+    <hyperlink ref="E19" r:id="rId19" display="link"/>
     <hyperlink ref="E26" r:id="rId20" display="link"/>
     <hyperlink ref="E27" r:id="rId21" display="link"/>
     <hyperlink ref="E28" r:id="rId22" display="link"/>
@@ -8783,14 +8833,14 @@
     <hyperlink ref="E31" r:id="rId25" display="link"/>
     <hyperlink ref="E32" r:id="rId26" display="link"/>
     <hyperlink ref="E33" r:id="rId27" display="link"/>
-    <hyperlink ref="E34" r:id="rId28" display="6oz link"/>
-    <hyperlink ref="F34" r:id="rId29" display="16oz link"/>
-    <hyperlink ref="E35" r:id="rId30" display="link"/>
+    <hyperlink ref="E34" r:id="rId28" display="link"/>
+    <hyperlink ref="E35" r:id="rId29" display="6oz link"/>
+    <hyperlink ref="F35" r:id="rId30" display="16oz link"/>
     <hyperlink ref="E36" r:id="rId31" display="link"/>
-    <hyperlink ref="E38" r:id="rId32" display="link"/>
+    <hyperlink ref="E37" r:id="rId32" display="link"/>
     <hyperlink ref="E39" r:id="rId33" display="link"/>
     <hyperlink ref="E40" r:id="rId34" display="link"/>
-    <hyperlink ref="E45" r:id="rId35" display="link"/>
+    <hyperlink ref="E41" r:id="rId35" display="link"/>
     <hyperlink ref="E46" r:id="rId36" display="link"/>
     <hyperlink ref="E47" r:id="rId37" display="link"/>
     <hyperlink ref="E48" r:id="rId38" display="link"/>
@@ -8799,31 +8849,32 @@
     <hyperlink ref="E51" r:id="rId41" display="link"/>
     <hyperlink ref="E52" r:id="rId42" display="link"/>
     <hyperlink ref="E53" r:id="rId43" display="link"/>
-    <hyperlink ref="F53" r:id="rId44" display="link"/>
-    <hyperlink ref="E54" r:id="rId45" display="link"/>
+    <hyperlink ref="E54" r:id="rId44" display="link"/>
+    <hyperlink ref="F54" r:id="rId45" display="link"/>
     <hyperlink ref="E55" r:id="rId46" display="link"/>
     <hyperlink ref="E56" r:id="rId47" display="link"/>
-    <hyperlink ref="E60" r:id="rId48" display="link"/>
+    <hyperlink ref="E57" r:id="rId48" display="link"/>
     <hyperlink ref="E61" r:id="rId49" display="link"/>
-    <hyperlink ref="E65" r:id="rId50" display="link"/>
-    <hyperlink ref="H65" r:id="rId51" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="E66" r:id="rId52" display="link"/>
+    <hyperlink ref="E62" r:id="rId50" display="link"/>
+    <hyperlink ref="E66" r:id="rId51" display="link"/>
+    <hyperlink ref="H66" r:id="rId52" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
     <hyperlink ref="E67" r:id="rId53" display="link"/>
-    <hyperlink ref="E70" r:id="rId54" display="printed"/>
+    <hyperlink ref="E68" r:id="rId54" display="link"/>
     <hyperlink ref="E71" r:id="rId55" display="printed"/>
     <hyperlink ref="E72" r:id="rId56" display="printed"/>
-    <hyperlink ref="E73" r:id="rId57" display="link"/>
-    <hyperlink ref="F73" r:id="rId58" display="6oz link"/>
-    <hyperlink ref="E74" r:id="rId59" display="link"/>
-    <hyperlink ref="E77" r:id="rId60" display="link"/>
-    <hyperlink ref="E83" r:id="rId61" display="link"/>
+    <hyperlink ref="E73" r:id="rId57" display="printed"/>
+    <hyperlink ref="E74" r:id="rId58" display="link"/>
+    <hyperlink ref="F74" r:id="rId59" display="6oz link"/>
+    <hyperlink ref="E75" r:id="rId60" display="link"/>
+    <hyperlink ref="E78" r:id="rId61" display="link"/>
     <hyperlink ref="E84" r:id="rId62" display="link"/>
     <hyperlink ref="E85" r:id="rId63" display="link"/>
-    <hyperlink ref="E87" r:id="rId64" display="link"/>
+    <hyperlink ref="E86" r:id="rId64" display="link"/>
     <hyperlink ref="E88" r:id="rId65" display="link"/>
-    <hyperlink ref="E89" r:id="rId66" display="link 3 corner"/>
-    <hyperlink ref="F89" r:id="rId67" display="link 2 corner"/>
-    <hyperlink ref="E92" r:id="rId68" display="link"/>
+    <hyperlink ref="E89" r:id="rId66" display="link"/>
+    <hyperlink ref="E90" r:id="rId67" display="link 3 corner"/>
+    <hyperlink ref="F90" r:id="rId68" display="link 2 corner"/>
+    <hyperlink ref="E93" r:id="rId69" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8832,7 +8883,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId69"/>
+  <drawing r:id="rId70"/>
 </worksheet>
 </file>
 
@@ -8847,7 +8898,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>
@@ -8881,10 +8932,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8895,7 +8946,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>2</v>
@@ -8907,47 +8958,47 @@
         <v>14</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>7.1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>5.49</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>2</v>
@@ -8959,19 +9010,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="I4" s="13" t="n">
         <v>25.9</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="K4" s="13" t="n">
         <v>47.98</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8982,7 +9033,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>1</v>
@@ -8995,18 +9046,18 @@
         <v>7.36</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D6" s="10" t="n">
         <v>1</v>
@@ -9017,18 +9068,18 @@
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="10" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>4</v>
@@ -9041,21 +9092,21 @@
         <v>9.99</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>2</v>
@@ -9064,78 +9115,78 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I8" s="13" t="n">
         <v>8.99</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="I10" s="15" t="n">
         <v>25.99</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>1</v>
@@ -9144,67 +9195,67 @@
         <v>12</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I11" s="13" t="n">
         <v>5.99</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="12" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>13.99</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="12" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="I13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>2</v>
@@ -9213,14 +9264,14 @@
         <v>12</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13" t="n">
         <v>3.82</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9231,7 +9282,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>1</v>
@@ -9240,13 +9291,13 @@
         <v>12</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I15" s="13" t="n">
         <v>36.99</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9257,7 +9308,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>1</v>
@@ -9270,7 +9321,7 @@
         <v>10.91</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9281,7 +9332,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>1</v>
@@ -9291,16 +9342,16 @@
       </c>
       <c r="F17" s="10"/>
       <c r="H17" s="12" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9311,7 +9362,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D18" s="10" t="n">
         <v>1</v>
@@ -9320,13 +9371,13 @@
         <v>12</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>13.25</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9337,7 +9388,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>4</v>
@@ -9352,7 +9403,7 @@
         <v>64.08</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9363,7 +9414,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>1</v>
@@ -9374,7 +9425,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="15"/>
       <c r="J20" s="10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9385,7 +9436,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>1</v>
@@ -9398,18 +9449,18 @@
         <v>26.79</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D22" s="10" t="n">
         <v>2</v>
@@ -9420,18 +9471,18 @@
       <c r="H22" s="12"/>
       <c r="I22" s="15"/>
       <c r="J22" s="10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D23" s="10" t="n">
         <v>2</v>
@@ -9442,18 +9493,18 @@
       <c r="H23" s="12"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D24" s="10" t="n">
         <v>2</v>
@@ -9464,18 +9515,18 @@
       <c r="H24" s="12"/>
       <c r="I24" s="15"/>
       <c r="J24" s="10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2</v>
@@ -9486,18 +9537,18 @@
       <c r="H25" s="12"/>
       <c r="I25" s="15"/>
       <c r="J25" s="10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D26" s="10" t="n">
         <v>2</v>
@@ -9508,18 +9559,18 @@
       <c r="H26" s="12"/>
       <c r="I26" s="15"/>
       <c r="J26" s="10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>2</v>
@@ -9530,40 +9581,40 @@
       <c r="H27" s="12"/>
       <c r="I27" s="15"/>
       <c r="J27" s="10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D28" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="15"/>
       <c r="J28" s="10" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D29" s="10" t="n">
         <v>2</v>
@@ -9575,55 +9626,55 @@
         <v>12</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="15" t="n">
         <v>13.7</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K29" s="10" t="n">
         <v>13.99</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E31" s="28"/>
       <c r="H31" s="12"/>
@@ -9632,10 +9683,10 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E32" s="28"/>
       <c r="H32" s="12"/>
@@ -9644,10 +9695,10 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E33" s="28"/>
       <c r="H33" s="12"/>
@@ -9655,13 +9706,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D34" s="10" t="n">
         <v>2</v>
@@ -9670,25 +9721,25 @@
         <v>12</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13" t="n">
         <v>11.98</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D35" s="10" t="n">
         <v>1</v>
@@ -9697,20 +9748,20 @@
         <v>12</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="15" t="n">
         <v>7.63</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K35" s="10" t="n">
         <v>19.99</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9732,18 +9783,18 @@
       <c r="H36" s="12"/>
       <c r="I36" s="15"/>
       <c r="J36" s="10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D37" s="10" t="n">
         <v>2</v>
@@ -9752,22 +9803,22 @@
         <v>12</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>1.18</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D38" s="10" t="n">
         <v>1</v>
@@ -9777,13 +9828,13 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D39" s="10" t="n">
         <v>1</v>
@@ -9796,37 +9847,37 @@
         <v>9.35</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26"/>
       <c r="B40" s="9" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>16.99</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26"/>
       <c r="B41" s="9" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D41" s="10" t="n">
         <v>1</v>
@@ -9839,7 +9890,7 @@
         <v>8.99</v>
       </c>
       <c r="J41" s="30" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9853,7 +9904,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9861,32 +9912,32 @@
         <v>3.9</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="10" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="10" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="I46" s="13" t="n">
         <v>4</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9894,24 +9945,24 @@
         <v>9.85</v>
       </c>
       <c r="J47" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="K47" s="10" t="s">
-        <v>300</v>
-      </c>
       <c r="L47" s="10" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="30" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="350">
   <si>
     <t xml:space="preserve">pic label</t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t xml:space="preserve">Optional, but good for storage and shipping. The linked one was the cheapest profile we could find at 2x ~$25 ea. The control unit and assembled reaction chamber module can fit side by side in one case while the reactor housing and pumps pack flat-ish next to the temperature control parts. A broader, less deep profile would be more convenient, but those seem to be more expensive. It’s snug – a separate cooling jar and coil will NOT fit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra peristaltic tubing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tubing is likely to need to be replaced and to feed from larger containers than syringes, longer pieces may be desired.</t>
   </si>
   <si>
     <t xml:space="preserve">Price Aug/Sep 2022</t>
@@ -1610,13 +1616,13 @@
   </sheetPr>
   <dimension ref="A1:I1068"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E91" activeCellId="0" sqref="E91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F94" activeCellId="0" sqref="F94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.13"/>
@@ -3230,7 +3236,17 @@
         <v>269</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9133,6 +9149,7 @@
     <hyperlink ref="E92" r:id="rId72" display="Printed 3 corner"/>
     <hyperlink ref="F92" r:id="rId73" display="Printed 2 corner"/>
     <hyperlink ref="E95" r:id="rId74" display="Amazon link"/>
+    <hyperlink ref="E96" r:id="rId75" display="Amazon link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -9141,7 +9158,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId75"/>
+  <drawing r:id="rId76"/>
 </worksheet>
 </file>
 
@@ -9156,7 +9173,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>
@@ -9190,10 +9207,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9204,7 +9221,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>2</v>
@@ -9216,13 +9233,13 @@
         <v>17</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>7.1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9239,13 +9256,13 @@
         <v>150</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>5.49</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9253,10 +9270,10 @@
         <v>92</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>2</v>
@@ -9265,22 +9282,22 @@
         <v>150</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I4" s="13" t="n">
         <v>25.9</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K4" s="13" t="n">
         <v>47.98</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9291,7 +9308,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>1</v>
@@ -9304,18 +9321,18 @@
         <v>7.36</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D6" s="10" t="n">
         <v>1</v>
@@ -9326,7 +9343,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9337,7 +9354,7 @@
         <v>148</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>4</v>
@@ -9350,10 +9367,10 @@
         <v>9.99</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9379,7 +9396,7 @@
         <v>8.99</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9390,13 +9407,13 @@
         <v>199</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="15"/>
@@ -9409,31 +9426,31 @@
         <v>203</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I10" s="15" t="n">
         <v>25.99</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9441,10 +9458,10 @@
         <v>112</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>1</v>
@@ -9453,38 +9470,38 @@
         <v>150</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I11" s="13" t="n">
         <v>5.99</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>13.99</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9501,7 +9518,7 @@
       <c r="E13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I13" s="15"/>
     </row>
@@ -9513,7 +9530,7 @@
         <v>117</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>2</v>
@@ -9529,7 +9546,7 @@
         <v>3.82</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9540,7 +9557,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>1</v>
@@ -9549,13 +9566,13 @@
         <v>150</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I15" s="13" t="n">
         <v>36.99</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9566,7 +9583,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>1</v>
@@ -9579,7 +9596,7 @@
         <v>10.91</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9590,7 +9607,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>1</v>
@@ -9600,16 +9617,16 @@
       </c>
       <c r="F17" s="10"/>
       <c r="H17" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9620,7 +9637,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D18" s="10" t="n">
         <v>1</v>
@@ -9629,13 +9646,13 @@
         <v>150</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>13.25</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9646,7 +9663,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>4</v>
@@ -9655,13 +9672,13 @@
         <v>150</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I19" s="13" t="n">
         <v>64.08</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9672,7 +9689,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>1</v>
@@ -9683,7 +9700,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="15"/>
       <c r="J20" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9694,7 +9711,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>1</v>
@@ -9707,7 +9724,7 @@
         <v>26.79</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9718,7 +9735,7 @@
         <v>156</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D22" s="10" t="n">
         <v>2</v>
@@ -9729,7 +9746,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="15"/>
       <c r="J22" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9740,7 +9757,7 @@
         <v>159</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D23" s="10" t="n">
         <v>2</v>
@@ -9751,7 +9768,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9762,7 +9779,7 @@
         <v>162</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D24" s="10" t="n">
         <v>2</v>
@@ -9773,7 +9790,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="15"/>
       <c r="J24" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9784,7 +9801,7 @@
         <v>165</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2</v>
@@ -9795,7 +9812,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="15"/>
       <c r="J25" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9806,7 +9823,7 @@
         <v>168</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D26" s="10" t="n">
         <v>2</v>
@@ -9817,7 +9834,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="15"/>
       <c r="J26" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9828,7 +9845,7 @@
         <v>171</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>2</v>
@@ -9839,7 +9856,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="15"/>
       <c r="J27" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9850,7 +9867,7 @@
         <v>214</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D28" s="10" t="n">
         <v>1</v>
@@ -9861,7 +9878,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="15"/>
       <c r="J28" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9872,7 +9889,7 @@
         <v>174</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D29" s="10" t="n">
         <v>2</v>
@@ -9891,13 +9908,13 @@
         <v>13.7</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K29" s="10" t="n">
         <v>13.99</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9914,16 +9931,16 @@
         <v>150</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9986,7 +10003,7 @@
         <v>11.98</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10006,20 +10023,20 @@
         <v>150</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="15" t="n">
         <v>7.63</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K35" s="10" t="n">
         <v>19.99</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10041,7 +10058,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="15"/>
       <c r="J36" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10052,7 +10069,7 @@
         <v>182</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D37" s="10" t="n">
         <v>2</v>
@@ -10067,7 +10084,7 @@
         <v>1.18</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10076,7 +10093,7 @@
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D38" s="10" t="n">
         <v>1</v>
@@ -10105,37 +10122,37 @@
         <v>9.35</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="35"/>
       <c r="B40" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>16.99</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="35"/>
       <c r="B41" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D41" s="10" t="n">
         <v>1</v>
@@ -10148,7 +10165,7 @@
         <v>8.99</v>
       </c>
       <c r="J41" s="39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10162,7 +10179,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10170,32 +10187,32 @@
         <v>3.9</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I46" s="13" t="n">
         <v>4</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10203,24 +10220,24 @@
         <v>9.85</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J48" s="39" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K48" s="39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="323">
   <si>
     <t xml:space="preserve">ID code</t>
   </si>
@@ -216,7 +216,7 @@
     <t xml:space="preserve">Pi power cable (ex: micro USB)</t>
   </si>
   <si>
-    <t xml:space="preserve">Your Pi may come with a cable or a power supply. You will need a cable that fits your Pi, typically Micro USB (although newer board usually use USB C)</t>
+    <t xml:space="preserve">Your Pi may come with a cable or a power supply. You will need a cable that fits your Pi, typically Micro USB (although newer board usually use USB C). A cable with a 90 degree bend on the micro end will fit better in the printed cases.</t>
   </si>
   <si>
     <t xml:space="preserve">MC-FAN</t>
@@ -1494,9 +1494,9 @@
   <dimension ref="A1:AMJ1038"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0546875" defaultRowHeight="18.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1839,7 +1839,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
         <v>60</v>
       </c>
@@ -1848,6 +1848,9 @@
       </c>
       <c r="C19" s="14" t="n">
         <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E19" s="2"/>
       <c r="G19" s="14" t="s">
@@ -7416,7 +7419,7 @@
   <autoFilter ref="D1:D1038"/>
   <conditionalFormatting sqref="A70:A1038 A60:A64 A1:A58">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>LEN(TRIM(#REF!))&gt;0</formula>
+      <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -7439,39 +7442,40 @@
     <hyperlink ref="D16" r:id="rId17" display="Amazon link"/>
     <hyperlink ref="D17" r:id="rId18" display="Ali Express Link"/>
     <hyperlink ref="D18" r:id="rId19" display="Ali Express Link"/>
-    <hyperlink ref="D20" r:id="rId20" display="Amazon Link"/>
-    <hyperlink ref="D21" r:id="rId21" display="Amazon link"/>
-    <hyperlink ref="D22" r:id="rId22" display="Amazon link"/>
-    <hyperlink ref="D24" r:id="rId23" display="Amazon link"/>
-    <hyperlink ref="D25" r:id="rId24" display="Github Link"/>
-    <hyperlink ref="D28" r:id="rId25" display="Ali Express link"/>
-    <hyperlink ref="D29" r:id="rId26" display="Amazon link"/>
-    <hyperlink ref="D32" r:id="rId27" display="Amazon link"/>
-    <hyperlink ref="D33" r:id="rId28" display="Amazon link"/>
-    <hyperlink ref="D34" r:id="rId29" display="Amazon link"/>
-    <hyperlink ref="D35" r:id="rId30" display="Amazon link"/>
-    <hyperlink ref="D36" r:id="rId31" display="McMaster link"/>
-    <hyperlink ref="D37" r:id="rId32" display="Amazon link"/>
-    <hyperlink ref="D38" r:id="rId33" display="Amazon Link"/>
-    <hyperlink ref="D40" r:id="rId34" display="Amazon link"/>
-    <hyperlink ref="D43" r:id="rId35" display="Amazon link"/>
-    <hyperlink ref="D44" r:id="rId36" display="Amazon link"/>
-    <hyperlink ref="D45" r:id="rId37" display="Github Link"/>
-    <hyperlink ref="D49" r:id="rId38" display="Amazon link"/>
-    <hyperlink ref="G49" r:id="rId39" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="D50" r:id="rId40" display="Amazon link"/>
-    <hyperlink ref="D51" r:id="rId41" display="Amazon link"/>
-    <hyperlink ref="D52" r:id="rId42" display="Amazon link"/>
-    <hyperlink ref="D53" r:id="rId43" display="Github link"/>
-    <hyperlink ref="D54" r:id="rId44" display="Github link"/>
-    <hyperlink ref="D55" r:id="rId45" display="Github link"/>
-    <hyperlink ref="D56" r:id="rId46" display="Amazon 4oz link"/>
-    <hyperlink ref="E56" r:id="rId47" display="Amazon 6oz link"/>
-    <hyperlink ref="D57" r:id="rId48" display="Amazon link"/>
-    <hyperlink ref="D58" r:id="rId49" display="Github link"/>
-    <hyperlink ref="D61" r:id="rId50" display="Amazon assordment link"/>
-    <hyperlink ref="D64" r:id="rId51" display="Amazon link"/>
-    <hyperlink ref="D66" r:id="rId52" display="Amazon link"/>
+    <hyperlink ref="D19" r:id="rId20" display="Amazon Link"/>
+    <hyperlink ref="D20" r:id="rId21" display="Amazon Link"/>
+    <hyperlink ref="D21" r:id="rId22" display="Amazon link"/>
+    <hyperlink ref="D22" r:id="rId23" display="Amazon link"/>
+    <hyperlink ref="D24" r:id="rId24" display="Amazon link"/>
+    <hyperlink ref="D25" r:id="rId25" display="Github Link"/>
+    <hyperlink ref="D28" r:id="rId26" display="Ali Express link"/>
+    <hyperlink ref="D29" r:id="rId27" display="Amazon link"/>
+    <hyperlink ref="D32" r:id="rId28" display="Amazon link"/>
+    <hyperlink ref="D33" r:id="rId29" display="Amazon link"/>
+    <hyperlink ref="D34" r:id="rId30" display="Amazon link for raw copper tubing"/>
+    <hyperlink ref="D35" r:id="rId31" display="Amazon link"/>
+    <hyperlink ref="D36" r:id="rId32" display="McMaster link"/>
+    <hyperlink ref="D37" r:id="rId33" display="Amazon link"/>
+    <hyperlink ref="D38" r:id="rId34" display="Amazon Link"/>
+    <hyperlink ref="D40" r:id="rId35" display="Amazon link"/>
+    <hyperlink ref="D43" r:id="rId36" display="Amazon link"/>
+    <hyperlink ref="D44" r:id="rId37" display="Amazon link"/>
+    <hyperlink ref="D45" r:id="rId38" display="Github Link"/>
+    <hyperlink ref="D49" r:id="rId39" display="Amazon link"/>
+    <hyperlink ref="G49" r:id="rId40" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
+    <hyperlink ref="D50" r:id="rId41" display="Amazon link"/>
+    <hyperlink ref="D51" r:id="rId42" display="Amazon link"/>
+    <hyperlink ref="D52" r:id="rId43" display="Amazon link"/>
+    <hyperlink ref="D53" r:id="rId44" display="Github link"/>
+    <hyperlink ref="D54" r:id="rId45" display="Github link"/>
+    <hyperlink ref="D55" r:id="rId46" display="Github link"/>
+    <hyperlink ref="D56" r:id="rId47" display="Amazon 4oz link"/>
+    <hyperlink ref="E56" r:id="rId48" display="Amazon 6oz link"/>
+    <hyperlink ref="D57" r:id="rId49" display="Amazon link"/>
+    <hyperlink ref="D58" r:id="rId50" display="Github link"/>
+    <hyperlink ref="D61" r:id="rId51" display="Amazon assordment link"/>
+    <hyperlink ref="D64" r:id="rId52" display="Amazon link"/>
+    <hyperlink ref="D66" r:id="rId53" display="Amazon link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7480,7 +7484,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId53"/>
+  <drawing r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -7495,7 +7499,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.09375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.62"/>

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ap/GitGYall/4tv/solderless-microlab/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BCF3969-AF06-DE48-8FC8-61EF524368C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB1A395-B8FD-424A-A8E2-4E9B0C1FA6B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,11 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="414">
   <si>
     <t>ID code</t>
   </si>
@@ -1231,6 +1230,49 @@
   </si>
   <si>
     <t xml:space="preserve">The 3 stepper motors come with their own cable, but will need to cut  in half creating a 6-pin cable and a 4-pin cable. </t>
+  </si>
+  <si>
+    <t>TC-TCT</t>
+  </si>
+  <si>
+    <t>Copper tube cutter tool</t>
+  </si>
+  <si>
+    <t>TC-INS</t>
+  </si>
+  <si>
+    <t>Insulation for jars</t>
+  </si>
+  <si>
+    <t>Although you could use a knit hat or any other insulator for this, we find that upcycling the foil bubblewrap bags used for shipping cold things is a light and convenient way to insulate the jars</t>
+  </si>
+  <si>
+    <t>Copper tube jig</t>
+  </si>
+  <si>
+    <t>TC-CTJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently we are using the Reactor Core manifold as a jig, other options include, a cylinder with a smaller diameter than the jar or a medium-to-large dowel/tube
+      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 32oz wide mouth jar will contain the heating coils and the copper coils. Link is to a multi-pack but single jars are not easy to find and buying in bulk is often cheaper. </t>
+  </si>
+  <si>
+    <t>TC-CUL</t>
+  </si>
+  <si>
+    <t>Cooling Unit Lid (Printed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lid for the Mason jar </t>
+  </si>
+  <si>
+    <t>TC-HUL</t>
+  </si>
+  <si>
+    <t>Heating Unit Lid (Printed)</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1559,9 +1601,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1616,12 +1655,39 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2317,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E169E61-96C0-0C4A-B524-8C29049A37EB}">
   <dimension ref="A1:AMJ1051"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="14"/>
@@ -2337,15 +2403,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:1024" s="30" customFormat="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="61"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
       <c r="G2" s="36"/>
@@ -2355,9 +2421,9 @@
       <c r="A3" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
       <c r="G3" s="36"/>
@@ -2367,34 +2433,34 @@
       <c r="A4" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="AMJ4" s="15"/>
     </row>
     <row r="5" spans="1:1024" s="30" customFormat="1">
-      <c r="A5" s="65"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="24"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="61"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
       <c r="G5" s="36"/>
       <c r="AMJ5" s="15"/>
     </row>
     <row r="6" spans="1:1024" s="20" customFormat="1" ht="15">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="25" t="s">
@@ -2409,28 +2475,28 @@
       <c r="AMJ6" s="15"/>
     </row>
     <row r="7" spans="1:1024">
-      <c r="A7" s="73"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="71"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="70"/>
     </row>
     <row r="8" spans="1:1024" s="30" customFormat="1">
-      <c r="A8" s="65"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="61"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="34"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
       <c r="AMJ8" s="15"/>
     </row>
     <row r="9" spans="1:1024" s="20" customFormat="1">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="70"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="23"/>
@@ -2539,7 +2605,7 @@
       <c r="D14" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="76" t="s">
         <v>289</v>
       </c>
       <c r="F14" s="32" t="s">
@@ -2563,7 +2629,7 @@
       <c r="D15" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="32" t="s">
         <v>25</v>
       </c>
@@ -2582,7 +2648,7 @@
       <c r="D16" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="32" t="s">
         <v>22</v>
       </c>
@@ -2595,16 +2661,16 @@
       <c r="A17" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="66" t="s">
         <v>270</v>
       </c>
       <c r="C17" s="33">
         <v>1</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="E17" s="57"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="32"/>
       <c r="G17" s="21"/>
       <c r="H17" s="37"/>
@@ -2688,7 +2754,7 @@
       <c r="D21" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="E21" s="74" t="s">
+      <c r="E21" s="73" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="16"/>
@@ -2697,13 +2763,13 @@
       <c r="A22" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="67" t="s">
         <v>301</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="67">
         <v>1</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="63" t="s">
         <v>298</v>
       </c>
       <c r="E22" s="32" t="s">
@@ -2815,13 +2881,13 @@
       <c r="A27" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="66" t="s">
         <v>357</v>
       </c>
       <c r="C27" s="33">
         <v>2</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="62" t="s">
         <v>365</v>
       </c>
       <c r="E27" s="32" t="s">
@@ -2843,10 +2909,10 @@
       <c r="C28" s="33">
         <v>2</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="58" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="32"/>
@@ -2905,7 +2971,7 @@
       <c r="D31" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="73" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="32" t="s">
@@ -2943,12 +3009,12 @@
       <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:1024" s="20" customFormat="1">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="62"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="23"/>
@@ -3026,10 +3092,10 @@
       <c r="C38" s="42">
         <v>2</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="21" t="s">
@@ -3047,10 +3113,10 @@
       <c r="C39" s="42">
         <v>2</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="E39" s="58"/>
+      <c r="E39" s="77"/>
       <c r="G39" s="21" t="s">
         <v>332</v>
       </c>
@@ -3066,10 +3132,10 @@
       <c r="C40" s="34">
         <v>1</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="E40" s="58"/>
+      <c r="E40" s="77"/>
       <c r="G40" s="15" t="s">
         <v>333</v>
       </c>
@@ -3085,10 +3151,10 @@
       <c r="C41" s="34">
         <v>23</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="76" t="s">
         <v>312</v>
       </c>
       <c r="G41" s="15" t="s">
@@ -3106,10 +3172,10 @@
       <c r="C42" s="34">
         <v>28</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="E42" s="57"/>
+      <c r="E42" s="76"/>
       <c r="G42" s="15" t="s">
         <v>310</v>
       </c>
@@ -3125,10 +3191,10 @@
       <c r="C43" s="34">
         <v>5</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="E43" s="57"/>
+      <c r="E43" s="76"/>
       <c r="G43" s="15" t="s">
         <v>304</v>
       </c>
@@ -3144,10 +3210,10 @@
       <c r="C44" s="34">
         <v>5</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E44" s="57"/>
+      <c r="E44" s="76"/>
       <c r="G44" s="15" t="s">
         <v>311</v>
       </c>
@@ -3186,7 +3252,7 @@
       <c r="C46" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="62" t="s">
         <v>326</v>
       </c>
       <c r="E46" s="39" t="s">
@@ -3198,25 +3264,25 @@
       <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:1024">
-      <c r="B47" s="67"/>
-      <c r="D47" s="63"/>
+      <c r="B47" s="66"/>
+      <c r="D47" s="62"/>
       <c r="G47" s="21"/>
       <c r="H47" s="17"/>
     </row>
     <row r="49" spans="1:1024">
-      <c r="B49" s="67"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="33"/>
-      <c r="D49" s="63"/>
+      <c r="D49" s="62"/>
       <c r="G49" s="21"/>
       <c r="H49" s="37"/>
     </row>
     <row r="50" spans="1:1024" s="46" customFormat="1">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="69"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="62"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="61"/>
       <c r="E50" s="25"/>
       <c r="F50" s="47"/>
       <c r="G50" s="48"/>
@@ -3227,13 +3293,13 @@
       <c r="A51" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="66" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="33">
         <v>2</v>
       </c>
-      <c r="D51" s="63" t="s">
+      <c r="D51" s="62" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="32" t="s">
@@ -3249,13 +3315,13 @@
       <c r="A52" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="66" t="s">
         <v>37</v>
       </c>
       <c r="C52" s="33">
         <v>1</v>
       </c>
-      <c r="D52" s="63" t="s">
+      <c r="D52" s="62" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="32" t="s">
@@ -3269,13 +3335,13 @@
       <c r="A53" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="66" t="s">
         <v>39</v>
       </c>
       <c r="C53" s="33">
         <v>1</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="62" t="s">
         <v>40</v>
       </c>
       <c r="E53" s="32" t="s">
@@ -3293,13 +3359,13 @@
       <c r="A54" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="66" t="s">
         <v>44</v>
       </c>
       <c r="C54" s="33">
         <v>1</v>
       </c>
-      <c r="D54" s="63" t="s">
+      <c r="D54" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E54" s="32" t="s">
@@ -3315,13 +3381,13 @@
       <c r="A55" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="66" t="s">
         <v>343</v>
       </c>
       <c r="C55" s="33">
         <v>2</v>
       </c>
-      <c r="D55" s="63" t="s">
+      <c r="D55" s="62" t="s">
         <v>48</v>
       </c>
       <c r="E55" s="32" t="s">
@@ -3337,20 +3403,20 @@
       <c r="A56" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="66" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="33">
         <v>2</v>
       </c>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="62" t="s">
         <v>52</v>
       </c>
       <c r="E56" s="32" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>53</v>
+        <v>408</v>
       </c>
       <c r="H56" s="50"/>
     </row>
@@ -3358,84 +3424,138 @@
       <c r="A57" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="66" t="s">
         <v>54</v>
       </c>
       <c r="C57" s="33">
         <v>1</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="62" t="s">
         <v>55</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G57" s="21"/>
       <c r="H57" s="50"/>
     </row>
-    <row r="58" spans="1:1024" ht="45">
+    <row r="58" spans="1:1024" ht="30">
       <c r="A58" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="B58" s="67" t="s">
-        <v>56</v>
+      <c r="B58" s="66" t="s">
+        <v>402</v>
       </c>
       <c r="C58" s="33">
         <v>2</v>
       </c>
-      <c r="D58" s="63" t="s">
-        <v>57</v>
+      <c r="D58" s="62" t="s">
+        <v>403</v>
       </c>
       <c r="F58" s="52"/>
       <c r="G58" s="21" t="s">
-        <v>58</v>
+        <v>404</v>
       </c>
       <c r="H58" s="50"/>
     </row>
-    <row r="59" spans="1:1024" ht="15">
+    <row r="59" spans="1:1024">
       <c r="A59" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="B59" s="67" t="s">
-        <v>59</v>
+      <c r="B59" s="66" t="s">
+        <v>400</v>
       </c>
       <c r="C59" s="33">
         <v>1</v>
       </c>
-      <c r="D59" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="E59" s="32" t="s">
+      <c r="D59" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="E59" s="73" t="s">
         <v>15</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H59" s="37"/>
-    </row>
-    <row r="60" spans="1:1024">
-      <c r="B60" s="67"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="63"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="50"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="50"/>
+    </row>
+    <row r="60" spans="1:1024" ht="45">
+      <c r="A60" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B60" s="66" t="s">
+        <v>406</v>
+      </c>
+      <c r="C60" s="33">
+        <v>1</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1024" ht="15">
+      <c r="A61" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="C61" s="34">
+        <v>1</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="E61" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="F61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="H61" s="37"/>
+    </row>
+    <row r="62" spans="1:1024" ht="15">
+      <c r="A62" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="C62" s="34">
+        <v>1</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="E62" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="F62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="64" spans="1:1024">
-      <c r="B64" s="67"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="33"/>
-      <c r="D64" s="63"/>
+      <c r="D64" s="62"/>
       <c r="G64" s="21"/>
       <c r="H64" s="37"/>
     </row>
     <row r="65" spans="1:1024" s="46" customFormat="1">
-      <c r="A65" s="66" t="s">
+      <c r="A65" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="69"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="62"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="61"/>
       <c r="E65" s="25"/>
       <c r="F65" s="54"/>
       <c r="G65" s="48"/>
@@ -3446,13 +3566,13 @@
       <c r="A66" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B66" s="67" t="s">
+      <c r="B66" s="66" t="s">
         <v>391</v>
       </c>
       <c r="C66" s="33">
         <v>1</v>
       </c>
-      <c r="D66" s="63" t="s">
+      <c r="D66" s="62" t="s">
         <v>390</v>
       </c>
       <c r="E66" s="32" t="s">
@@ -3467,13 +3587,13 @@
       <c r="A67" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B67" s="67" t="s">
+      <c r="B67" s="66" t="s">
         <v>393</v>
       </c>
       <c r="C67" s="33">
         <v>1</v>
       </c>
-      <c r="D67" s="63" t="s">
+      <c r="D67" s="62" t="s">
         <v>392</v>
       </c>
       <c r="E67" s="32" t="s">
@@ -3488,11 +3608,11 @@
       <c r="A68" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B68" s="67" t="s">
+      <c r="B68" s="66" t="s">
         <v>394</v>
       </c>
       <c r="C68" s="33"/>
-      <c r="D68" s="63" t="s">
+      <c r="D68" s="62" t="s">
         <v>356</v>
       </c>
       <c r="E68" s="32" t="s">
@@ -3507,11 +3627,11 @@
       <c r="A69" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B69" s="67" t="s">
+      <c r="B69" s="66" t="s">
         <v>347</v>
       </c>
       <c r="C69" s="33"/>
-      <c r="D69" s="63" t="s">
+      <c r="D69" s="62" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="32" t="s">
@@ -3524,13 +3644,13 @@
       <c r="A70" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B70" s="67" t="s">
+      <c r="B70" s="66" t="s">
         <v>348</v>
       </c>
       <c r="C70" s="33">
         <v>1</v>
       </c>
-      <c r="D70" s="63" t="s">
+      <c r="D70" s="62" t="s">
         <v>375</v>
       </c>
       <c r="E70" s="38" t="s">
@@ -3546,13 +3666,13 @@
       <c r="A71" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B71" s="67" t="s">
+      <c r="B71" s="66" t="s">
         <v>391</v>
       </c>
       <c r="C71" s="33">
         <v>1</v>
       </c>
-      <c r="D71" s="63" t="s">
+      <c r="D71" s="62" t="s">
         <v>395</v>
       </c>
       <c r="E71" s="38" t="s">
@@ -3570,13 +3690,13 @@
       <c r="A72" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B72" s="67" t="s">
+      <c r="B72" s="66" t="s">
         <v>398</v>
       </c>
       <c r="C72" s="33">
         <v>2</v>
       </c>
-      <c r="D72" s="63" t="s">
+      <c r="D72" s="62" t="s">
         <v>397</v>
       </c>
       <c r="E72" s="38" t="s">
@@ -3592,13 +3712,13 @@
       <c r="A73" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B73" s="67" t="s">
+      <c r="B73" s="66" t="s">
         <v>351</v>
       </c>
       <c r="C73" s="33">
         <v>1</v>
       </c>
-      <c r="D73" s="63" t="s">
+      <c r="D73" s="62" t="s">
         <v>92</v>
       </c>
       <c r="E73" s="32" t="s">
@@ -3616,13 +3736,13 @@
       <c r="A74" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="66" t="s">
         <v>352</v>
       </c>
       <c r="C74" s="33">
         <v>1</v>
       </c>
-      <c r="D74" s="63" t="s">
+      <c r="D74" s="62" t="s">
         <v>97</v>
       </c>
       <c r="E74" s="32" t="s">
@@ -3637,13 +3757,13 @@
       <c r="A75" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="66" t="s">
         <v>380</v>
       </c>
       <c r="C75" s="33">
         <v>1</v>
       </c>
-      <c r="D75" s="63" t="s">
+      <c r="D75" s="62" t="s">
         <v>379</v>
       </c>
       <c r="E75" s="38" t="s">
@@ -3661,13 +3781,13 @@
       <c r="A76" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B76" s="67" t="s">
+      <c r="B76" s="66" t="s">
         <v>380</v>
       </c>
       <c r="C76" s="33">
         <v>1</v>
       </c>
-      <c r="D76" s="63" t="s">
+      <c r="D76" s="62" t="s">
         <v>381</v>
       </c>
       <c r="E76" s="38" t="s">
@@ -3685,13 +3805,13 @@
       <c r="A77" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B77" s="67" t="s">
+      <c r="B77" s="66" t="s">
         <v>380</v>
       </c>
       <c r="C77" s="33">
         <v>1</v>
       </c>
-      <c r="D77" s="63" t="s">
+      <c r="D77" s="62" t="s">
         <v>383</v>
       </c>
       <c r="E77" s="38" t="s">
@@ -3709,13 +3829,13 @@
       <c r="A78" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B78" s="67" t="s">
+      <c r="B78" s="66" t="s">
         <v>380</v>
       </c>
       <c r="C78" s="33">
         <v>1</v>
       </c>
-      <c r="D78" s="63" t="s">
+      <c r="D78" s="62" t="s">
         <v>382</v>
       </c>
       <c r="E78" s="38" t="s">
@@ -3733,13 +3853,13 @@
       <c r="A79" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B79" s="67" t="s">
+      <c r="B79" s="66" t="s">
         <v>354</v>
       </c>
       <c r="C79" s="33">
         <v>1</v>
       </c>
-      <c r="D79" s="63" t="s">
+      <c r="D79" s="62" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="32" t="s">
@@ -3755,13 +3875,13 @@
       <c r="A80" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B80" s="67" t="s">
+      <c r="B80" s="66" t="s">
         <v>371</v>
       </c>
       <c r="C80" s="34">
         <v>3</v>
       </c>
-      <c r="D80" s="63" t="s">
+      <c r="D80" s="62" t="s">
         <v>370</v>
       </c>
       <c r="E80" s="32" t="s">
@@ -3776,13 +3896,13 @@
       <c r="A81" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B81" s="67" t="s">
+      <c r="B81" s="66" t="s">
         <v>372</v>
       </c>
       <c r="C81" s="33">
         <v>3</v>
       </c>
-      <c r="D81" s="63" t="s">
+      <c r="D81" s="62" t="s">
         <v>66</v>
       </c>
       <c r="E81" s="32" t="s">
@@ -3797,13 +3917,13 @@
       <c r="A82" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B82" s="67" t="s">
+      <c r="B82" s="66" t="s">
         <v>373</v>
       </c>
       <c r="C82" s="33">
         <v>1</v>
       </c>
-      <c r="D82" s="63" t="s">
+      <c r="D82" s="62" t="s">
         <v>377</v>
       </c>
       <c r="E82" s="38" t="s">
@@ -3821,13 +3941,13 @@
       <c r="A83" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B83" s="67" t="s">
+      <c r="B83" s="66" t="s">
         <v>374</v>
       </c>
       <c r="C83" s="33">
         <v>1</v>
       </c>
-      <c r="D83" s="63" t="s">
+      <c r="D83" s="62" t="s">
         <v>378</v>
       </c>
       <c r="E83" s="38" t="s">
@@ -3842,4840 +3962,4840 @@
       <c r="H83" s="37"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="B84" s="67"/>
-      <c r="D84" s="63"/>
+      <c r="B84" s="66"/>
+      <c r="D84" s="62"/>
       <c r="G84" s="21"/>
       <c r="H84" s="37"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="D85" s="63"/>
+      <c r="D85" s="62"/>
       <c r="G85" s="21"/>
     </row>
     <row r="86" spans="1:8">
       <c r="G86" s="21"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="D87" s="63"/>
+      <c r="D87" s="62"/>
       <c r="G87" s="21"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="B88" s="67"/>
-      <c r="D88" s="63"/>
+      <c r="B88" s="66"/>
+      <c r="D88" s="62"/>
       <c r="G88" s="21"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="B89" s="67"/>
-      <c r="D89" s="63"/>
+      <c r="B89" s="66"/>
+      <c r="D89" s="62"/>
       <c r="G89" s="21"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="B90" s="67"/>
-      <c r="D90" s="63"/>
+      <c r="B90" s="66"/>
+      <c r="D90" s="62"/>
       <c r="G90" s="21"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="67"/>
-      <c r="D91" s="63"/>
+      <c r="B91" s="66"/>
+      <c r="D91" s="62"/>
       <c r="G91" s="21"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="67"/>
-      <c r="D92" s="63"/>
+      <c r="B92" s="66"/>
+      <c r="D92" s="62"/>
       <c r="G92" s="21"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="67"/>
-      <c r="D93" s="63"/>
+      <c r="B93" s="66"/>
+      <c r="D93" s="62"/>
       <c r="G93" s="21"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="67"/>
-      <c r="D94" s="63"/>
+      <c r="B94" s="66"/>
+      <c r="D94" s="62"/>
       <c r="G94" s="21"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="67"/>
-      <c r="D95" s="63"/>
+      <c r="B95" s="66"/>
+      <c r="D95" s="62"/>
       <c r="G95" s="21"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="67"/>
-      <c r="D96" s="63"/>
+      <c r="B96" s="66"/>
+      <c r="D96" s="62"/>
       <c r="G96" s="21"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="67"/>
-      <c r="D97" s="63"/>
+      <c r="B97" s="66"/>
+      <c r="D97" s="62"/>
       <c r="G97" s="21"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="67"/>
-      <c r="D98" s="63"/>
+      <c r="B98" s="66"/>
+      <c r="D98" s="62"/>
       <c r="G98" s="21"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="67"/>
-      <c r="D99" s="63"/>
+      <c r="B99" s="66"/>
+      <c r="D99" s="62"/>
       <c r="G99" s="21"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="67"/>
-      <c r="D100" s="63"/>
+      <c r="B100" s="66"/>
+      <c r="D100" s="62"/>
       <c r="G100" s="21"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="67"/>
-      <c r="D101" s="63"/>
+      <c r="B101" s="66"/>
+      <c r="D101" s="62"/>
       <c r="G101" s="21"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="67"/>
-      <c r="D102" s="63"/>
+      <c r="B102" s="66"/>
+      <c r="D102" s="62"/>
       <c r="G102" s="21"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="67"/>
-      <c r="D103" s="63"/>
+      <c r="B103" s="66"/>
+      <c r="D103" s="62"/>
       <c r="G103" s="21"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="67"/>
-      <c r="D104" s="63"/>
+      <c r="B104" s="66"/>
+      <c r="D104" s="62"/>
       <c r="G104" s="21"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="67"/>
-      <c r="D105" s="63"/>
+      <c r="B105" s="66"/>
+      <c r="D105" s="62"/>
       <c r="G105" s="21"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="67"/>
-      <c r="D106" s="63"/>
+      <c r="B106" s="66"/>
+      <c r="D106" s="62"/>
       <c r="G106" s="21"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="67"/>
-      <c r="D107" s="63"/>
+      <c r="B107" s="66"/>
+      <c r="D107" s="62"/>
       <c r="G107" s="21"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="67"/>
-      <c r="D108" s="63"/>
+      <c r="B108" s="66"/>
+      <c r="D108" s="62"/>
       <c r="G108" s="21"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="67"/>
-      <c r="D109" s="63"/>
+      <c r="B109" s="66"/>
+      <c r="D109" s="62"/>
       <c r="G109" s="21"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="67"/>
-      <c r="D110" s="63"/>
+      <c r="B110" s="66"/>
+      <c r="D110" s="62"/>
       <c r="G110" s="21"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="67"/>
-      <c r="D111" s="63"/>
+      <c r="B111" s="66"/>
+      <c r="D111" s="62"/>
       <c r="G111" s="21"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="67"/>
-      <c r="D112" s="63"/>
+      <c r="B112" s="66"/>
+      <c r="D112" s="62"/>
       <c r="G112" s="21"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="67"/>
-      <c r="D113" s="63"/>
+      <c r="B113" s="66"/>
+      <c r="D113" s="62"/>
       <c r="G113" s="21"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="67"/>
-      <c r="D114" s="63"/>
+      <c r="B114" s="66"/>
+      <c r="D114" s="62"/>
       <c r="G114" s="21"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="67"/>
-      <c r="D115" s="63"/>
+      <c r="B115" s="66"/>
+      <c r="D115" s="62"/>
       <c r="G115" s="21"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="67"/>
-      <c r="D116" s="63"/>
+      <c r="B116" s="66"/>
+      <c r="D116" s="62"/>
       <c r="G116" s="21"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="67"/>
-      <c r="D117" s="63"/>
+      <c r="B117" s="66"/>
+      <c r="D117" s="62"/>
       <c r="G117" s="21"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="67"/>
-      <c r="D118" s="63"/>
+      <c r="B118" s="66"/>
+      <c r="D118" s="62"/>
       <c r="G118" s="21"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="67"/>
-      <c r="D119" s="63"/>
+      <c r="B119" s="66"/>
+      <c r="D119" s="62"/>
       <c r="G119" s="21"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="67"/>
-      <c r="D120" s="63"/>
+      <c r="B120" s="66"/>
+      <c r="D120" s="62"/>
       <c r="G120" s="21"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="67"/>
-      <c r="D121" s="63"/>
+      <c r="B121" s="66"/>
+      <c r="D121" s="62"/>
       <c r="G121" s="21"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="67"/>
-      <c r="D122" s="63"/>
+      <c r="B122" s="66"/>
+      <c r="D122" s="62"/>
       <c r="G122" s="21"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="67"/>
-      <c r="D123" s="63"/>
+      <c r="B123" s="66"/>
+      <c r="D123" s="62"/>
       <c r="G123" s="21"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="67"/>
-      <c r="D124" s="63"/>
+      <c r="B124" s="66"/>
+      <c r="D124" s="62"/>
       <c r="G124" s="21"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="67"/>
-      <c r="D125" s="63"/>
+      <c r="B125" s="66"/>
+      <c r="D125" s="62"/>
       <c r="G125" s="21"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="67"/>
-      <c r="D126" s="63"/>
+      <c r="B126" s="66"/>
+      <c r="D126" s="62"/>
       <c r="G126" s="21"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="67"/>
-      <c r="D127" s="63"/>
+      <c r="B127" s="66"/>
+      <c r="D127" s="62"/>
       <c r="G127" s="21"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="67"/>
-      <c r="D128" s="63"/>
+      <c r="B128" s="66"/>
+      <c r="D128" s="62"/>
       <c r="G128" s="21"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="67"/>
-      <c r="D129" s="63"/>
+      <c r="B129" s="66"/>
+      <c r="D129" s="62"/>
       <c r="G129" s="21"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="67"/>
-      <c r="D130" s="63"/>
+      <c r="B130" s="66"/>
+      <c r="D130" s="62"/>
       <c r="G130" s="21"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="67"/>
-      <c r="D131" s="63"/>
+      <c r="B131" s="66"/>
+      <c r="D131" s="62"/>
       <c r="G131" s="21"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="67"/>
-      <c r="D132" s="63"/>
+      <c r="B132" s="66"/>
+      <c r="D132" s="62"/>
       <c r="G132" s="21"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="67"/>
-      <c r="D133" s="63"/>
+      <c r="B133" s="66"/>
+      <c r="D133" s="62"/>
       <c r="G133" s="21"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="67"/>
-      <c r="D134" s="63"/>
+      <c r="B134" s="66"/>
+      <c r="D134" s="62"/>
       <c r="G134" s="21"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="67"/>
-      <c r="D135" s="63"/>
+      <c r="B135" s="66"/>
+      <c r="D135" s="62"/>
       <c r="G135" s="21"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="67"/>
-      <c r="D136" s="63"/>
+      <c r="B136" s="66"/>
+      <c r="D136" s="62"/>
       <c r="G136" s="21"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="67"/>
-      <c r="D137" s="63"/>
+      <c r="B137" s="66"/>
+      <c r="D137" s="62"/>
       <c r="G137" s="21"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="67"/>
-      <c r="D138" s="63"/>
+      <c r="B138" s="66"/>
+      <c r="D138" s="62"/>
       <c r="G138" s="21"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="67"/>
-      <c r="D139" s="63"/>
+      <c r="B139" s="66"/>
+      <c r="D139" s="62"/>
       <c r="G139" s="21"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="67"/>
-      <c r="D140" s="63"/>
+      <c r="B140" s="66"/>
+      <c r="D140" s="62"/>
       <c r="G140" s="21"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="67"/>
-      <c r="D141" s="63"/>
+      <c r="B141" s="66"/>
+      <c r="D141" s="62"/>
       <c r="G141" s="21"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="67"/>
-      <c r="D142" s="63"/>
+      <c r="B142" s="66"/>
+      <c r="D142" s="62"/>
       <c r="G142" s="21"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="67"/>
-      <c r="D143" s="63"/>
+      <c r="B143" s="66"/>
+      <c r="D143" s="62"/>
       <c r="G143" s="21"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="67"/>
-      <c r="D144" s="63"/>
+      <c r="B144" s="66"/>
+      <c r="D144" s="62"/>
       <c r="G144" s="21"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="67"/>
-      <c r="D145" s="63"/>
+      <c r="B145" s="66"/>
+      <c r="D145" s="62"/>
       <c r="G145" s="21"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="67"/>
-      <c r="D146" s="63"/>
+      <c r="B146" s="66"/>
+      <c r="D146" s="62"/>
       <c r="G146" s="21"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="67"/>
-      <c r="D147" s="63"/>
+      <c r="B147" s="66"/>
+      <c r="D147" s="62"/>
       <c r="G147" s="21"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="67"/>
-      <c r="D148" s="63"/>
+      <c r="B148" s="66"/>
+      <c r="D148" s="62"/>
       <c r="G148" s="21"/>
     </row>
     <row r="149" spans="2:7">
-      <c r="B149" s="67"/>
-      <c r="D149" s="63"/>
+      <c r="B149" s="66"/>
+      <c r="D149" s="62"/>
       <c r="G149" s="21"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="67"/>
-      <c r="D150" s="63"/>
+      <c r="B150" s="66"/>
+      <c r="D150" s="62"/>
       <c r="G150" s="21"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="67"/>
-      <c r="D151" s="63"/>
+      <c r="B151" s="66"/>
+      <c r="D151" s="62"/>
       <c r="G151" s="21"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="67"/>
-      <c r="D152" s="63"/>
+      <c r="B152" s="66"/>
+      <c r="D152" s="62"/>
       <c r="G152" s="21"/>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="67"/>
-      <c r="D153" s="63"/>
+      <c r="B153" s="66"/>
+      <c r="D153" s="62"/>
       <c r="G153" s="21"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="67"/>
-      <c r="D154" s="63"/>
+      <c r="B154" s="66"/>
+      <c r="D154" s="62"/>
       <c r="G154" s="21"/>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="67"/>
-      <c r="D155" s="63"/>
+      <c r="B155" s="66"/>
+      <c r="D155" s="62"/>
       <c r="G155" s="21"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="67"/>
-      <c r="D156" s="63"/>
+      <c r="B156" s="66"/>
+      <c r="D156" s="62"/>
       <c r="G156" s="21"/>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="67"/>
-      <c r="D157" s="63"/>
+      <c r="B157" s="66"/>
+      <c r="D157" s="62"/>
       <c r="G157" s="21"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="67"/>
-      <c r="D158" s="63"/>
+      <c r="B158" s="66"/>
+      <c r="D158" s="62"/>
       <c r="G158" s="21"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="67"/>
-      <c r="D159" s="63"/>
+      <c r="B159" s="66"/>
+      <c r="D159" s="62"/>
       <c r="G159" s="21"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="67"/>
-      <c r="D160" s="63"/>
+      <c r="B160" s="66"/>
+      <c r="D160" s="62"/>
       <c r="G160" s="21"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="67"/>
-      <c r="D161" s="63"/>
+      <c r="B161" s="66"/>
+      <c r="D161" s="62"/>
       <c r="G161" s="21"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="67"/>
-      <c r="D162" s="63"/>
+      <c r="B162" s="66"/>
+      <c r="D162" s="62"/>
       <c r="G162" s="21"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="67"/>
-      <c r="D163" s="63"/>
+      <c r="B163" s="66"/>
+      <c r="D163" s="62"/>
       <c r="G163" s="21"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="67"/>
-      <c r="D164" s="63"/>
+      <c r="B164" s="66"/>
+      <c r="D164" s="62"/>
       <c r="G164" s="21"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="67"/>
-      <c r="D165" s="63"/>
+      <c r="B165" s="66"/>
+      <c r="D165" s="62"/>
       <c r="G165" s="21"/>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="67"/>
-      <c r="D166" s="63"/>
+      <c r="B166" s="66"/>
+      <c r="D166" s="62"/>
       <c r="G166" s="21"/>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="67"/>
-      <c r="D167" s="63"/>
+      <c r="B167" s="66"/>
+      <c r="D167" s="62"/>
       <c r="G167" s="21"/>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="67"/>
-      <c r="D168" s="63"/>
+      <c r="B168" s="66"/>
+      <c r="D168" s="62"/>
       <c r="G168" s="21"/>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="67"/>
-      <c r="D169" s="63"/>
+      <c r="B169" s="66"/>
+      <c r="D169" s="62"/>
       <c r="G169" s="21"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="67"/>
-      <c r="D170" s="63"/>
+      <c r="B170" s="66"/>
+      <c r="D170" s="62"/>
       <c r="G170" s="21"/>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="67"/>
-      <c r="D171" s="63"/>
+      <c r="B171" s="66"/>
+      <c r="D171" s="62"/>
       <c r="G171" s="21"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="67"/>
-      <c r="D172" s="63"/>
+      <c r="B172" s="66"/>
+      <c r="D172" s="62"/>
       <c r="G172" s="21"/>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="67"/>
-      <c r="D173" s="63"/>
+      <c r="B173" s="66"/>
+      <c r="D173" s="62"/>
       <c r="G173" s="21"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="67"/>
-      <c r="D174" s="63"/>
+      <c r="B174" s="66"/>
+      <c r="D174" s="62"/>
       <c r="G174" s="21"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="67"/>
-      <c r="D175" s="63"/>
+      <c r="B175" s="66"/>
+      <c r="D175" s="62"/>
       <c r="G175" s="21"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="67"/>
-      <c r="D176" s="63"/>
+      <c r="B176" s="66"/>
+      <c r="D176" s="62"/>
       <c r="G176" s="21"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="67"/>
-      <c r="D177" s="63"/>
+      <c r="B177" s="66"/>
+      <c r="D177" s="62"/>
       <c r="G177" s="21"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="67"/>
-      <c r="D178" s="63"/>
+      <c r="B178" s="66"/>
+      <c r="D178" s="62"/>
       <c r="G178" s="21"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="67"/>
-      <c r="D179" s="63"/>
+      <c r="B179" s="66"/>
+      <c r="D179" s="62"/>
       <c r="G179" s="21"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="67"/>
-      <c r="D180" s="63"/>
+      <c r="B180" s="66"/>
+      <c r="D180" s="62"/>
       <c r="G180" s="21"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="67"/>
-      <c r="D181" s="63"/>
+      <c r="B181" s="66"/>
+      <c r="D181" s="62"/>
       <c r="G181" s="21"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="67"/>
-      <c r="D182" s="63"/>
+      <c r="B182" s="66"/>
+      <c r="D182" s="62"/>
       <c r="G182" s="21"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="67"/>
-      <c r="D183" s="63"/>
+      <c r="B183" s="66"/>
+      <c r="D183" s="62"/>
       <c r="G183" s="21"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="67"/>
-      <c r="D184" s="63"/>
+      <c r="B184" s="66"/>
+      <c r="D184" s="62"/>
       <c r="G184" s="21"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="67"/>
-      <c r="D185" s="63"/>
+      <c r="B185" s="66"/>
+      <c r="D185" s="62"/>
       <c r="G185" s="21"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="67"/>
-      <c r="D186" s="63"/>
+      <c r="B186" s="66"/>
+      <c r="D186" s="62"/>
       <c r="G186" s="21"/>
     </row>
     <row r="187" spans="2:7">
-      <c r="B187" s="67"/>
-      <c r="D187" s="63"/>
+      <c r="B187" s="66"/>
+      <c r="D187" s="62"/>
       <c r="G187" s="21"/>
     </row>
     <row r="188" spans="2:7">
-      <c r="B188" s="67"/>
-      <c r="D188" s="63"/>
+      <c r="B188" s="66"/>
+      <c r="D188" s="62"/>
       <c r="G188" s="21"/>
     </row>
     <row r="189" spans="2:7">
-      <c r="B189" s="67"/>
-      <c r="D189" s="63"/>
+      <c r="B189" s="66"/>
+      <c r="D189" s="62"/>
       <c r="G189" s="21"/>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="67"/>
-      <c r="D190" s="63"/>
+      <c r="B190" s="66"/>
+      <c r="D190" s="62"/>
       <c r="G190" s="21"/>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="67"/>
-      <c r="D191" s="63"/>
+      <c r="B191" s="66"/>
+      <c r="D191" s="62"/>
       <c r="G191" s="21"/>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="67"/>
-      <c r="D192" s="63"/>
+      <c r="B192" s="66"/>
+      <c r="D192" s="62"/>
       <c r="G192" s="21"/>
     </row>
     <row r="193" spans="2:7">
-      <c r="B193" s="67"/>
-      <c r="D193" s="63"/>
+      <c r="B193" s="66"/>
+      <c r="D193" s="62"/>
       <c r="G193" s="21"/>
     </row>
     <row r="194" spans="2:7">
-      <c r="B194" s="67"/>
-      <c r="D194" s="63"/>
+      <c r="B194" s="66"/>
+      <c r="D194" s="62"/>
       <c r="G194" s="21"/>
     </row>
     <row r="195" spans="2:7">
-      <c r="B195" s="67"/>
-      <c r="D195" s="63"/>
+      <c r="B195" s="66"/>
+      <c r="D195" s="62"/>
       <c r="G195" s="21"/>
     </row>
     <row r="196" spans="2:7">
-      <c r="B196" s="67"/>
-      <c r="D196" s="63"/>
+      <c r="B196" s="66"/>
+      <c r="D196" s="62"/>
       <c r="G196" s="21"/>
     </row>
     <row r="197" spans="2:7">
-      <c r="B197" s="67"/>
-      <c r="D197" s="63"/>
+      <c r="B197" s="66"/>
+      <c r="D197" s="62"/>
       <c r="G197" s="21"/>
     </row>
     <row r="198" spans="2:7">
-      <c r="B198" s="67"/>
-      <c r="D198" s="63"/>
+      <c r="B198" s="66"/>
+      <c r="D198" s="62"/>
       <c r="G198" s="21"/>
     </row>
     <row r="199" spans="2:7">
-      <c r="B199" s="67"/>
-      <c r="D199" s="63"/>
+      <c r="B199" s="66"/>
+      <c r="D199" s="62"/>
       <c r="G199" s="21"/>
     </row>
     <row r="200" spans="2:7">
-      <c r="B200" s="67"/>
-      <c r="D200" s="63"/>
+      <c r="B200" s="66"/>
+      <c r="D200" s="62"/>
       <c r="G200" s="21"/>
     </row>
     <row r="201" spans="2:7">
-      <c r="B201" s="67"/>
-      <c r="D201" s="63"/>
+      <c r="B201" s="66"/>
+      <c r="D201" s="62"/>
       <c r="G201" s="21"/>
     </row>
     <row r="202" spans="2:7">
-      <c r="B202" s="67"/>
-      <c r="D202" s="63"/>
+      <c r="B202" s="66"/>
+      <c r="D202" s="62"/>
       <c r="G202" s="21"/>
     </row>
     <row r="203" spans="2:7">
-      <c r="B203" s="67"/>
-      <c r="D203" s="63"/>
+      <c r="B203" s="66"/>
+      <c r="D203" s="62"/>
       <c r="G203" s="21"/>
     </row>
     <row r="204" spans="2:7">
-      <c r="B204" s="67"/>
-      <c r="D204" s="63"/>
+      <c r="B204" s="66"/>
+      <c r="D204" s="62"/>
       <c r="G204" s="21"/>
     </row>
     <row r="205" spans="2:7">
-      <c r="B205" s="67"/>
-      <c r="D205" s="63"/>
+      <c r="B205" s="66"/>
+      <c r="D205" s="62"/>
       <c r="G205" s="21"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="67"/>
-      <c r="D206" s="63"/>
+      <c r="B206" s="66"/>
+      <c r="D206" s="62"/>
       <c r="G206" s="21"/>
     </row>
     <row r="207" spans="2:7">
-      <c r="B207" s="67"/>
-      <c r="D207" s="63"/>
+      <c r="B207" s="66"/>
+      <c r="D207" s="62"/>
       <c r="G207" s="21"/>
     </row>
     <row r="208" spans="2:7">
-      <c r="B208" s="67"/>
-      <c r="D208" s="63"/>
+      <c r="B208" s="66"/>
+      <c r="D208" s="62"/>
       <c r="G208" s="21"/>
     </row>
     <row r="209" spans="2:7">
-      <c r="B209" s="67"/>
-      <c r="D209" s="63"/>
+      <c r="B209" s="66"/>
+      <c r="D209" s="62"/>
       <c r="G209" s="21"/>
     </row>
     <row r="210" spans="2:7">
-      <c r="B210" s="67"/>
-      <c r="D210" s="63"/>
+      <c r="B210" s="66"/>
+      <c r="D210" s="62"/>
       <c r="G210" s="21"/>
     </row>
     <row r="211" spans="2:7">
-      <c r="B211" s="67"/>
-      <c r="D211" s="63"/>
+      <c r="B211" s="66"/>
+      <c r="D211" s="62"/>
       <c r="G211" s="21"/>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="67"/>
-      <c r="D212" s="63"/>
+      <c r="B212" s="66"/>
+      <c r="D212" s="62"/>
       <c r="G212" s="21"/>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="67"/>
-      <c r="D213" s="63"/>
+      <c r="B213" s="66"/>
+      <c r="D213" s="62"/>
       <c r="G213" s="21"/>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="67"/>
-      <c r="D214" s="63"/>
+      <c r="B214" s="66"/>
+      <c r="D214" s="62"/>
       <c r="G214" s="21"/>
     </row>
     <row r="215" spans="2:7">
-      <c r="B215" s="67"/>
-      <c r="D215" s="63"/>
+      <c r="B215" s="66"/>
+      <c r="D215" s="62"/>
       <c r="G215" s="21"/>
     </row>
     <row r="216" spans="2:7">
-      <c r="B216" s="67"/>
-      <c r="D216" s="63"/>
+      <c r="B216" s="66"/>
+      <c r="D216" s="62"/>
       <c r="G216" s="21"/>
     </row>
     <row r="217" spans="2:7">
-      <c r="B217" s="67"/>
-      <c r="D217" s="63"/>
+      <c r="B217" s="66"/>
+      <c r="D217" s="62"/>
       <c r="G217" s="21"/>
     </row>
     <row r="218" spans="2:7">
-      <c r="B218" s="67"/>
-      <c r="D218" s="63"/>
+      <c r="B218" s="66"/>
+      <c r="D218" s="62"/>
       <c r="G218" s="21"/>
     </row>
     <row r="219" spans="2:7">
-      <c r="B219" s="67"/>
-      <c r="D219" s="63"/>
+      <c r="B219" s="66"/>
+      <c r="D219" s="62"/>
       <c r="G219" s="21"/>
     </row>
     <row r="220" spans="2:7">
-      <c r="B220" s="67"/>
-      <c r="D220" s="63"/>
+      <c r="B220" s="66"/>
+      <c r="D220" s="62"/>
       <c r="G220" s="21"/>
     </row>
     <row r="221" spans="2:7">
-      <c r="B221" s="67"/>
-      <c r="D221" s="63"/>
+      <c r="B221" s="66"/>
+      <c r="D221" s="62"/>
       <c r="G221" s="21"/>
     </row>
     <row r="222" spans="2:7">
-      <c r="B222" s="67"/>
-      <c r="D222" s="63"/>
+      <c r="B222" s="66"/>
+      <c r="D222" s="62"/>
       <c r="G222" s="21"/>
     </row>
     <row r="223" spans="2:7">
-      <c r="B223" s="67"/>
-      <c r="D223" s="63"/>
+      <c r="B223" s="66"/>
+      <c r="D223" s="62"/>
       <c r="G223" s="21"/>
     </row>
     <row r="224" spans="2:7">
-      <c r="B224" s="67"/>
-      <c r="D224" s="63"/>
+      <c r="B224" s="66"/>
+      <c r="D224" s="62"/>
       <c r="G224" s="21"/>
     </row>
     <row r="225" spans="2:7">
-      <c r="B225" s="67"/>
-      <c r="D225" s="63"/>
+      <c r="B225" s="66"/>
+      <c r="D225" s="62"/>
       <c r="G225" s="21"/>
     </row>
     <row r="226" spans="2:7">
-      <c r="B226" s="67"/>
-      <c r="D226" s="63"/>
+      <c r="B226" s="66"/>
+      <c r="D226" s="62"/>
       <c r="G226" s="21"/>
     </row>
     <row r="227" spans="2:7">
-      <c r="B227" s="67"/>
-      <c r="D227" s="63"/>
+      <c r="B227" s="66"/>
+      <c r="D227" s="62"/>
       <c r="G227" s="21"/>
     </row>
     <row r="228" spans="2:7">
-      <c r="B228" s="67"/>
-      <c r="D228" s="63"/>
+      <c r="B228" s="66"/>
+      <c r="D228" s="62"/>
       <c r="G228" s="21"/>
     </row>
     <row r="229" spans="2:7">
-      <c r="B229" s="67"/>
-      <c r="D229" s="63"/>
+      <c r="B229" s="66"/>
+      <c r="D229" s="62"/>
       <c r="G229" s="21"/>
     </row>
     <row r="230" spans="2:7">
-      <c r="B230" s="67"/>
-      <c r="D230" s="63"/>
+      <c r="B230" s="66"/>
+      <c r="D230" s="62"/>
       <c r="G230" s="21"/>
     </row>
     <row r="231" spans="2:7">
-      <c r="B231" s="67"/>
-      <c r="D231" s="63"/>
+      <c r="B231" s="66"/>
+      <c r="D231" s="62"/>
       <c r="G231" s="21"/>
     </row>
     <row r="232" spans="2:7">
-      <c r="B232" s="67"/>
-      <c r="D232" s="63"/>
+      <c r="B232" s="66"/>
+      <c r="D232" s="62"/>
       <c r="G232" s="21"/>
     </row>
     <row r="233" spans="2:7">
-      <c r="B233" s="67"/>
-      <c r="D233" s="63"/>
+      <c r="B233" s="66"/>
+      <c r="D233" s="62"/>
       <c r="G233" s="21"/>
     </row>
     <row r="234" spans="2:7">
-      <c r="B234" s="67"/>
-      <c r="D234" s="63"/>
+      <c r="B234" s="66"/>
+      <c r="D234" s="62"/>
       <c r="G234" s="21"/>
     </row>
     <row r="235" spans="2:7">
-      <c r="B235" s="67"/>
-      <c r="D235" s="63"/>
+      <c r="B235" s="66"/>
+      <c r="D235" s="62"/>
       <c r="G235" s="21"/>
     </row>
     <row r="236" spans="2:7">
-      <c r="B236" s="67"/>
-      <c r="D236" s="63"/>
+      <c r="B236" s="66"/>
+      <c r="D236" s="62"/>
       <c r="G236" s="21"/>
     </row>
     <row r="237" spans="2:7">
-      <c r="B237" s="67"/>
-      <c r="D237" s="63"/>
+      <c r="B237" s="66"/>
+      <c r="D237" s="62"/>
       <c r="G237" s="21"/>
     </row>
     <row r="238" spans="2:7">
-      <c r="B238" s="67"/>
-      <c r="D238" s="63"/>
+      <c r="B238" s="66"/>
+      <c r="D238" s="62"/>
       <c r="G238" s="21"/>
     </row>
     <row r="239" spans="2:7">
-      <c r="B239" s="67"/>
-      <c r="D239" s="63"/>
+      <c r="B239" s="66"/>
+      <c r="D239" s="62"/>
       <c r="G239" s="21"/>
     </row>
     <row r="240" spans="2:7">
-      <c r="B240" s="67"/>
-      <c r="D240" s="63"/>
+      <c r="B240" s="66"/>
+      <c r="D240" s="62"/>
       <c r="G240" s="21"/>
     </row>
     <row r="241" spans="2:7">
-      <c r="B241" s="67"/>
-      <c r="D241" s="63"/>
+      <c r="B241" s="66"/>
+      <c r="D241" s="62"/>
       <c r="G241" s="21"/>
     </row>
     <row r="242" spans="2:7">
-      <c r="B242" s="67"/>
-      <c r="D242" s="63"/>
+      <c r="B242" s="66"/>
+      <c r="D242" s="62"/>
       <c r="G242" s="21"/>
     </row>
     <row r="243" spans="2:7">
-      <c r="B243" s="67"/>
-      <c r="D243" s="63"/>
+      <c r="B243" s="66"/>
+      <c r="D243" s="62"/>
       <c r="G243" s="21"/>
     </row>
     <row r="244" spans="2:7">
-      <c r="B244" s="67"/>
-      <c r="D244" s="63"/>
+      <c r="B244" s="66"/>
+      <c r="D244" s="62"/>
       <c r="G244" s="21"/>
     </row>
     <row r="245" spans="2:7">
-      <c r="B245" s="67"/>
-      <c r="D245" s="63"/>
+      <c r="B245" s="66"/>
+      <c r="D245" s="62"/>
       <c r="G245" s="21"/>
     </row>
     <row r="246" spans="2:7">
-      <c r="B246" s="67"/>
-      <c r="D246" s="63"/>
+      <c r="B246" s="66"/>
+      <c r="D246" s="62"/>
       <c r="G246" s="21"/>
     </row>
     <row r="247" spans="2:7">
-      <c r="B247" s="67"/>
-      <c r="D247" s="63"/>
+      <c r="B247" s="66"/>
+      <c r="D247" s="62"/>
       <c r="G247" s="21"/>
     </row>
     <row r="248" spans="2:7">
-      <c r="B248" s="67"/>
-      <c r="D248" s="63"/>
+      <c r="B248" s="66"/>
+      <c r="D248" s="62"/>
       <c r="G248" s="21"/>
     </row>
     <row r="249" spans="2:7">
-      <c r="B249" s="67"/>
-      <c r="D249" s="63"/>
+      <c r="B249" s="66"/>
+      <c r="D249" s="62"/>
       <c r="G249" s="21"/>
     </row>
     <row r="250" spans="2:7">
-      <c r="B250" s="67"/>
-      <c r="D250" s="63"/>
+      <c r="B250" s="66"/>
+      <c r="D250" s="62"/>
       <c r="G250" s="21"/>
     </row>
     <row r="251" spans="2:7">
-      <c r="B251" s="67"/>
-      <c r="D251" s="63"/>
+      <c r="B251" s="66"/>
+      <c r="D251" s="62"/>
       <c r="G251" s="21"/>
     </row>
     <row r="252" spans="2:7">
-      <c r="B252" s="67"/>
-      <c r="D252" s="63"/>
+      <c r="B252" s="66"/>
+      <c r="D252" s="62"/>
       <c r="G252" s="21"/>
     </row>
     <row r="253" spans="2:7">
-      <c r="B253" s="67"/>
-      <c r="D253" s="63"/>
+      <c r="B253" s="66"/>
+      <c r="D253" s="62"/>
       <c r="G253" s="21"/>
     </row>
     <row r="254" spans="2:7">
-      <c r="B254" s="67"/>
-      <c r="D254" s="63"/>
+      <c r="B254" s="66"/>
+      <c r="D254" s="62"/>
       <c r="G254" s="21"/>
     </row>
     <row r="255" spans="2:7">
-      <c r="B255" s="67"/>
-      <c r="D255" s="63"/>
+      <c r="B255" s="66"/>
+      <c r="D255" s="62"/>
       <c r="G255" s="21"/>
     </row>
     <row r="256" spans="2:7">
-      <c r="B256" s="67"/>
-      <c r="D256" s="63"/>
+      <c r="B256" s="66"/>
+      <c r="D256" s="62"/>
       <c r="G256" s="21"/>
     </row>
     <row r="257" spans="2:7">
-      <c r="B257" s="67"/>
-      <c r="D257" s="63"/>
+      <c r="B257" s="66"/>
+      <c r="D257" s="62"/>
       <c r="G257" s="21"/>
     </row>
     <row r="258" spans="2:7">
-      <c r="B258" s="67"/>
-      <c r="D258" s="63"/>
+      <c r="B258" s="66"/>
+      <c r="D258" s="62"/>
       <c r="G258" s="21"/>
     </row>
     <row r="259" spans="2:7">
-      <c r="B259" s="67"/>
-      <c r="D259" s="63"/>
+      <c r="B259" s="66"/>
+      <c r="D259" s="62"/>
       <c r="G259" s="21"/>
     </row>
     <row r="260" spans="2:7">
-      <c r="B260" s="67"/>
-      <c r="D260" s="63"/>
+      <c r="B260" s="66"/>
+      <c r="D260" s="62"/>
       <c r="G260" s="21"/>
     </row>
     <row r="261" spans="2:7">
-      <c r="B261" s="67"/>
-      <c r="D261" s="63"/>
+      <c r="B261" s="66"/>
+      <c r="D261" s="62"/>
       <c r="G261" s="21"/>
     </row>
     <row r="262" spans="2:7">
-      <c r="B262" s="67"/>
-      <c r="D262" s="63"/>
+      <c r="B262" s="66"/>
+      <c r="D262" s="62"/>
       <c r="G262" s="21"/>
     </row>
     <row r="263" spans="2:7">
-      <c r="B263" s="67"/>
-      <c r="D263" s="63"/>
+      <c r="B263" s="66"/>
+      <c r="D263" s="62"/>
       <c r="G263" s="21"/>
     </row>
     <row r="264" spans="2:7">
-      <c r="B264" s="67"/>
-      <c r="D264" s="63"/>
+      <c r="B264" s="66"/>
+      <c r="D264" s="62"/>
       <c r="G264" s="21"/>
     </row>
     <row r="265" spans="2:7">
-      <c r="B265" s="67"/>
-      <c r="D265" s="63"/>
+      <c r="B265" s="66"/>
+      <c r="D265" s="62"/>
       <c r="G265" s="21"/>
     </row>
     <row r="266" spans="2:7">
-      <c r="B266" s="67"/>
-      <c r="D266" s="63"/>
+      <c r="B266" s="66"/>
+      <c r="D266" s="62"/>
       <c r="G266" s="21"/>
     </row>
     <row r="267" spans="2:7">
-      <c r="B267" s="67"/>
-      <c r="D267" s="63"/>
+      <c r="B267" s="66"/>
+      <c r="D267" s="62"/>
       <c r="G267" s="21"/>
     </row>
     <row r="268" spans="2:7">
-      <c r="B268" s="67"/>
-      <c r="D268" s="63"/>
+      <c r="B268" s="66"/>
+      <c r="D268" s="62"/>
       <c r="G268" s="21"/>
     </row>
     <row r="269" spans="2:7">
-      <c r="B269" s="67"/>
-      <c r="D269" s="63"/>
+      <c r="B269" s="66"/>
+      <c r="D269" s="62"/>
       <c r="G269" s="21"/>
     </row>
     <row r="270" spans="2:7">
-      <c r="B270" s="67"/>
-      <c r="D270" s="63"/>
+      <c r="B270" s="66"/>
+      <c r="D270" s="62"/>
       <c r="G270" s="21"/>
     </row>
     <row r="271" spans="2:7">
-      <c r="B271" s="67"/>
-      <c r="D271" s="63"/>
+      <c r="B271" s="66"/>
+      <c r="D271" s="62"/>
       <c r="G271" s="21"/>
     </row>
     <row r="272" spans="2:7">
-      <c r="B272" s="67"/>
-      <c r="D272" s="63"/>
+      <c r="B272" s="66"/>
+      <c r="D272" s="62"/>
       <c r="G272" s="21"/>
     </row>
     <row r="273" spans="2:7">
-      <c r="B273" s="67"/>
-      <c r="D273" s="63"/>
+      <c r="B273" s="66"/>
+      <c r="D273" s="62"/>
       <c r="G273" s="21"/>
     </row>
     <row r="274" spans="2:7">
-      <c r="B274" s="67"/>
-      <c r="D274" s="63"/>
+      <c r="B274" s="66"/>
+      <c r="D274" s="62"/>
       <c r="G274" s="21"/>
     </row>
     <row r="275" spans="2:7">
-      <c r="B275" s="67"/>
-      <c r="D275" s="63"/>
+      <c r="B275" s="66"/>
+      <c r="D275" s="62"/>
       <c r="G275" s="21"/>
     </row>
     <row r="276" spans="2:7">
-      <c r="B276" s="67"/>
-      <c r="D276" s="63"/>
+      <c r="B276" s="66"/>
+      <c r="D276" s="62"/>
       <c r="G276" s="21"/>
     </row>
     <row r="277" spans="2:7">
-      <c r="B277" s="67"/>
-      <c r="D277" s="63"/>
+      <c r="B277" s="66"/>
+      <c r="D277" s="62"/>
       <c r="G277" s="21"/>
     </row>
     <row r="278" spans="2:7">
-      <c r="B278" s="67"/>
-      <c r="D278" s="63"/>
+      <c r="B278" s="66"/>
+      <c r="D278" s="62"/>
       <c r="G278" s="21"/>
     </row>
     <row r="279" spans="2:7">
-      <c r="B279" s="67"/>
-      <c r="D279" s="63"/>
+      <c r="B279" s="66"/>
+      <c r="D279" s="62"/>
       <c r="G279" s="21"/>
     </row>
     <row r="280" spans="2:7">
-      <c r="B280" s="67"/>
-      <c r="D280" s="63"/>
+      <c r="B280" s="66"/>
+      <c r="D280" s="62"/>
       <c r="G280" s="21"/>
     </row>
     <row r="281" spans="2:7">
-      <c r="B281" s="67"/>
-      <c r="D281" s="63"/>
+      <c r="B281" s="66"/>
+      <c r="D281" s="62"/>
       <c r="G281" s="21"/>
     </row>
     <row r="282" spans="2:7">
-      <c r="B282" s="67"/>
-      <c r="D282" s="63"/>
+      <c r="B282" s="66"/>
+      <c r="D282" s="62"/>
       <c r="G282" s="21"/>
     </row>
     <row r="283" spans="2:7">
-      <c r="B283" s="67"/>
-      <c r="D283" s="63"/>
+      <c r="B283" s="66"/>
+      <c r="D283" s="62"/>
       <c r="G283" s="21"/>
     </row>
     <row r="284" spans="2:7">
-      <c r="B284" s="67"/>
-      <c r="D284" s="63"/>
+      <c r="B284" s="66"/>
+      <c r="D284" s="62"/>
       <c r="G284" s="21"/>
     </row>
     <row r="285" spans="2:7">
-      <c r="B285" s="67"/>
-      <c r="D285" s="63"/>
+      <c r="B285" s="66"/>
+      <c r="D285" s="62"/>
       <c r="G285" s="21"/>
     </row>
     <row r="286" spans="2:7">
-      <c r="B286" s="67"/>
-      <c r="D286" s="63"/>
+      <c r="B286" s="66"/>
+      <c r="D286" s="62"/>
       <c r="G286" s="21"/>
     </row>
     <row r="287" spans="2:7">
-      <c r="B287" s="67"/>
-      <c r="D287" s="63"/>
+      <c r="B287" s="66"/>
+      <c r="D287" s="62"/>
       <c r="G287" s="21"/>
     </row>
     <row r="288" spans="2:7">
-      <c r="B288" s="67"/>
-      <c r="D288" s="63"/>
+      <c r="B288" s="66"/>
+      <c r="D288" s="62"/>
       <c r="G288" s="21"/>
     </row>
     <row r="289" spans="2:7">
-      <c r="B289" s="67"/>
-      <c r="D289" s="63"/>
+      <c r="B289" s="66"/>
+      <c r="D289" s="62"/>
       <c r="G289" s="21"/>
     </row>
     <row r="290" spans="2:7">
-      <c r="B290" s="67"/>
-      <c r="D290" s="63"/>
+      <c r="B290" s="66"/>
+      <c r="D290" s="62"/>
       <c r="G290" s="21"/>
     </row>
     <row r="291" spans="2:7">
-      <c r="B291" s="67"/>
-      <c r="D291" s="63"/>
+      <c r="B291" s="66"/>
+      <c r="D291" s="62"/>
       <c r="G291" s="21"/>
     </row>
     <row r="292" spans="2:7">
-      <c r="B292" s="67"/>
-      <c r="D292" s="63"/>
+      <c r="B292" s="66"/>
+      <c r="D292" s="62"/>
       <c r="G292" s="21"/>
     </row>
     <row r="293" spans="2:7">
-      <c r="B293" s="67"/>
-      <c r="D293" s="63"/>
+      <c r="B293" s="66"/>
+      <c r="D293" s="62"/>
       <c r="G293" s="21"/>
     </row>
     <row r="294" spans="2:7">
-      <c r="B294" s="67"/>
-      <c r="D294" s="63"/>
+      <c r="B294" s="66"/>
+      <c r="D294" s="62"/>
       <c r="G294" s="21"/>
     </row>
     <row r="295" spans="2:7">
-      <c r="B295" s="67"/>
-      <c r="D295" s="63"/>
+      <c r="B295" s="66"/>
+      <c r="D295" s="62"/>
       <c r="G295" s="21"/>
     </row>
     <row r="296" spans="2:7">
-      <c r="B296" s="67"/>
-      <c r="D296" s="63"/>
+      <c r="B296" s="66"/>
+      <c r="D296" s="62"/>
       <c r="G296" s="21"/>
     </row>
     <row r="297" spans="2:7">
-      <c r="B297" s="67"/>
-      <c r="D297" s="63"/>
+      <c r="B297" s="66"/>
+      <c r="D297" s="62"/>
       <c r="G297" s="21"/>
     </row>
     <row r="298" spans="2:7">
-      <c r="B298" s="67"/>
-      <c r="D298" s="63"/>
+      <c r="B298" s="66"/>
+      <c r="D298" s="62"/>
       <c r="G298" s="21"/>
     </row>
     <row r="299" spans="2:7">
-      <c r="B299" s="67"/>
-      <c r="D299" s="63"/>
+      <c r="B299" s="66"/>
+      <c r="D299" s="62"/>
       <c r="G299" s="21"/>
     </row>
     <row r="300" spans="2:7">
-      <c r="B300" s="67"/>
-      <c r="D300" s="63"/>
+      <c r="B300" s="66"/>
+      <c r="D300" s="62"/>
       <c r="G300" s="21"/>
     </row>
     <row r="301" spans="2:7">
-      <c r="B301" s="67"/>
-      <c r="D301" s="63"/>
+      <c r="B301" s="66"/>
+      <c r="D301" s="62"/>
       <c r="G301" s="21"/>
     </row>
     <row r="302" spans="2:7">
-      <c r="B302" s="67"/>
-      <c r="D302" s="63"/>
+      <c r="B302" s="66"/>
+      <c r="D302" s="62"/>
       <c r="G302" s="21"/>
     </row>
     <row r="303" spans="2:7">
-      <c r="B303" s="67"/>
-      <c r="D303" s="63"/>
+      <c r="B303" s="66"/>
+      <c r="D303" s="62"/>
       <c r="G303" s="21"/>
     </row>
     <row r="304" spans="2:7">
-      <c r="B304" s="67"/>
-      <c r="D304" s="63"/>
+      <c r="B304" s="66"/>
+      <c r="D304" s="62"/>
       <c r="G304" s="21"/>
     </row>
     <row r="305" spans="2:7">
-      <c r="B305" s="67"/>
-      <c r="D305" s="63"/>
+      <c r="B305" s="66"/>
+      <c r="D305" s="62"/>
       <c r="G305" s="21"/>
     </row>
     <row r="306" spans="2:7">
-      <c r="B306" s="67"/>
-      <c r="D306" s="63"/>
+      <c r="B306" s="66"/>
+      <c r="D306" s="62"/>
       <c r="G306" s="21"/>
     </row>
     <row r="307" spans="2:7">
-      <c r="B307" s="67"/>
-      <c r="D307" s="63"/>
+      <c r="B307" s="66"/>
+      <c r="D307" s="62"/>
       <c r="G307" s="21"/>
     </row>
     <row r="308" spans="2:7">
-      <c r="B308" s="67"/>
-      <c r="D308" s="63"/>
+      <c r="B308" s="66"/>
+      <c r="D308" s="62"/>
       <c r="G308" s="21"/>
     </row>
     <row r="309" spans="2:7">
-      <c r="B309" s="67"/>
-      <c r="D309" s="63"/>
+      <c r="B309" s="66"/>
+      <c r="D309" s="62"/>
       <c r="G309" s="21"/>
     </row>
     <row r="310" spans="2:7">
-      <c r="B310" s="67"/>
-      <c r="D310" s="63"/>
+      <c r="B310" s="66"/>
+      <c r="D310" s="62"/>
       <c r="G310" s="21"/>
     </row>
     <row r="311" spans="2:7">
-      <c r="B311" s="67"/>
-      <c r="D311" s="63"/>
+      <c r="B311" s="66"/>
+      <c r="D311" s="62"/>
       <c r="G311" s="21"/>
     </row>
     <row r="312" spans="2:7">
-      <c r="B312" s="67"/>
-      <c r="D312" s="63"/>
+      <c r="B312" s="66"/>
+      <c r="D312" s="62"/>
       <c r="G312" s="21"/>
     </row>
     <row r="313" spans="2:7">
-      <c r="B313" s="67"/>
-      <c r="D313" s="63"/>
+      <c r="B313" s="66"/>
+      <c r="D313" s="62"/>
       <c r="G313" s="21"/>
     </row>
     <row r="314" spans="2:7">
-      <c r="B314" s="67"/>
-      <c r="D314" s="63"/>
+      <c r="B314" s="66"/>
+      <c r="D314" s="62"/>
       <c r="G314" s="21"/>
     </row>
     <row r="315" spans="2:7">
-      <c r="B315" s="67"/>
-      <c r="D315" s="63"/>
+      <c r="B315" s="66"/>
+      <c r="D315" s="62"/>
       <c r="G315" s="21"/>
     </row>
     <row r="316" spans="2:7">
-      <c r="B316" s="67"/>
-      <c r="D316" s="63"/>
+      <c r="B316" s="66"/>
+      <c r="D316" s="62"/>
       <c r="G316" s="21"/>
     </row>
     <row r="317" spans="2:7">
-      <c r="B317" s="67"/>
-      <c r="D317" s="63"/>
+      <c r="B317" s="66"/>
+      <c r="D317" s="62"/>
       <c r="G317" s="21"/>
     </row>
     <row r="318" spans="2:7">
-      <c r="B318" s="67"/>
-      <c r="D318" s="63"/>
+      <c r="B318" s="66"/>
+      <c r="D318" s="62"/>
       <c r="G318" s="21"/>
     </row>
     <row r="319" spans="2:7">
-      <c r="B319" s="67"/>
-      <c r="D319" s="63"/>
+      <c r="B319" s="66"/>
+      <c r="D319" s="62"/>
       <c r="G319" s="21"/>
     </row>
     <row r="320" spans="2:7">
-      <c r="B320" s="67"/>
-      <c r="D320" s="63"/>
+      <c r="B320" s="66"/>
+      <c r="D320" s="62"/>
       <c r="G320" s="21"/>
     </row>
     <row r="321" spans="2:7">
-      <c r="B321" s="67"/>
-      <c r="D321" s="63"/>
+      <c r="B321" s="66"/>
+      <c r="D321" s="62"/>
       <c r="G321" s="21"/>
     </row>
     <row r="322" spans="2:7">
-      <c r="B322" s="67"/>
-      <c r="D322" s="63"/>
+      <c r="B322" s="66"/>
+      <c r="D322" s="62"/>
       <c r="G322" s="21"/>
     </row>
     <row r="323" spans="2:7">
-      <c r="B323" s="67"/>
-      <c r="D323" s="63"/>
+      <c r="B323" s="66"/>
+      <c r="D323" s="62"/>
       <c r="G323" s="21"/>
     </row>
     <row r="324" spans="2:7">
-      <c r="B324" s="67"/>
-      <c r="D324" s="63"/>
+      <c r="B324" s="66"/>
+      <c r="D324" s="62"/>
       <c r="G324" s="21"/>
     </row>
     <row r="325" spans="2:7">
-      <c r="B325" s="67"/>
-      <c r="D325" s="63"/>
+      <c r="B325" s="66"/>
+      <c r="D325" s="62"/>
       <c r="G325" s="21"/>
     </row>
     <row r="326" spans="2:7">
-      <c r="B326" s="67"/>
-      <c r="D326" s="63"/>
+      <c r="B326" s="66"/>
+      <c r="D326" s="62"/>
       <c r="G326" s="21"/>
     </row>
     <row r="327" spans="2:7">
-      <c r="B327" s="67"/>
-      <c r="D327" s="63"/>
+      <c r="B327" s="66"/>
+      <c r="D327" s="62"/>
       <c r="G327" s="21"/>
     </row>
     <row r="328" spans="2:7">
-      <c r="B328" s="67"/>
-      <c r="D328" s="63"/>
+      <c r="B328" s="66"/>
+      <c r="D328" s="62"/>
       <c r="G328" s="21"/>
     </row>
     <row r="329" spans="2:7">
-      <c r="B329" s="67"/>
-      <c r="D329" s="63"/>
+      <c r="B329" s="66"/>
+      <c r="D329" s="62"/>
       <c r="G329" s="21"/>
     </row>
     <row r="330" spans="2:7">
-      <c r="B330" s="67"/>
-      <c r="D330" s="63"/>
+      <c r="B330" s="66"/>
+      <c r="D330" s="62"/>
       <c r="G330" s="21"/>
     </row>
     <row r="331" spans="2:7">
-      <c r="B331" s="67"/>
-      <c r="D331" s="63"/>
+      <c r="B331" s="66"/>
+      <c r="D331" s="62"/>
       <c r="G331" s="21"/>
     </row>
     <row r="332" spans="2:7">
-      <c r="B332" s="67"/>
-      <c r="D332" s="63"/>
+      <c r="B332" s="66"/>
+      <c r="D332" s="62"/>
       <c r="G332" s="21"/>
     </row>
     <row r="333" spans="2:7">
-      <c r="B333" s="67"/>
-      <c r="D333" s="63"/>
+      <c r="B333" s="66"/>
+      <c r="D333" s="62"/>
       <c r="G333" s="21"/>
     </row>
     <row r="334" spans="2:7">
-      <c r="B334" s="67"/>
-      <c r="D334" s="63"/>
+      <c r="B334" s="66"/>
+      <c r="D334" s="62"/>
       <c r="G334" s="21"/>
     </row>
     <row r="335" spans="2:7">
-      <c r="B335" s="67"/>
-      <c r="D335" s="63"/>
+      <c r="B335" s="66"/>
+      <c r="D335" s="62"/>
       <c r="G335" s="21"/>
     </row>
     <row r="336" spans="2:7">
-      <c r="B336" s="67"/>
-      <c r="D336" s="63"/>
+      <c r="B336" s="66"/>
+      <c r="D336" s="62"/>
       <c r="G336" s="21"/>
     </row>
     <row r="337" spans="2:7">
-      <c r="B337" s="67"/>
-      <c r="D337" s="63"/>
+      <c r="B337" s="66"/>
+      <c r="D337" s="62"/>
       <c r="G337" s="21"/>
     </row>
     <row r="338" spans="2:7">
-      <c r="B338" s="67"/>
-      <c r="D338" s="63"/>
+      <c r="B338" s="66"/>
+      <c r="D338" s="62"/>
       <c r="G338" s="21"/>
     </row>
     <row r="339" spans="2:7">
-      <c r="B339" s="67"/>
-      <c r="D339" s="63"/>
+      <c r="B339" s="66"/>
+      <c r="D339" s="62"/>
       <c r="G339" s="21"/>
     </row>
     <row r="340" spans="2:7">
-      <c r="B340" s="67"/>
-      <c r="D340" s="63"/>
+      <c r="B340" s="66"/>
+      <c r="D340" s="62"/>
       <c r="G340" s="21"/>
     </row>
     <row r="341" spans="2:7">
-      <c r="B341" s="67"/>
-      <c r="D341" s="63"/>
+      <c r="B341" s="66"/>
+      <c r="D341" s="62"/>
       <c r="G341" s="21"/>
     </row>
     <row r="342" spans="2:7">
-      <c r="B342" s="67"/>
-      <c r="D342" s="63"/>
+      <c r="B342" s="66"/>
+      <c r="D342" s="62"/>
       <c r="G342" s="21"/>
     </row>
     <row r="343" spans="2:7">
-      <c r="B343" s="67"/>
-      <c r="D343" s="63"/>
+      <c r="B343" s="66"/>
+      <c r="D343" s="62"/>
       <c r="G343" s="21"/>
     </row>
     <row r="344" spans="2:7">
-      <c r="B344" s="67"/>
-      <c r="D344" s="63"/>
+      <c r="B344" s="66"/>
+      <c r="D344" s="62"/>
       <c r="G344" s="21"/>
     </row>
     <row r="345" spans="2:7">
-      <c r="B345" s="67"/>
-      <c r="D345" s="63"/>
+      <c r="B345" s="66"/>
+      <c r="D345" s="62"/>
       <c r="G345" s="21"/>
     </row>
     <row r="346" spans="2:7">
-      <c r="B346" s="67"/>
-      <c r="D346" s="63"/>
+      <c r="B346" s="66"/>
+      <c r="D346" s="62"/>
       <c r="G346" s="21"/>
     </row>
     <row r="347" spans="2:7">
-      <c r="B347" s="67"/>
-      <c r="D347" s="63"/>
+      <c r="B347" s="66"/>
+      <c r="D347" s="62"/>
       <c r="G347" s="21"/>
     </row>
     <row r="348" spans="2:7">
-      <c r="B348" s="67"/>
-      <c r="D348" s="63"/>
+      <c r="B348" s="66"/>
+      <c r="D348" s="62"/>
       <c r="G348" s="21"/>
     </row>
     <row r="349" spans="2:7">
-      <c r="B349" s="67"/>
-      <c r="D349" s="63"/>
+      <c r="B349" s="66"/>
+      <c r="D349" s="62"/>
       <c r="G349" s="21"/>
     </row>
     <row r="350" spans="2:7">
-      <c r="B350" s="67"/>
-      <c r="D350" s="63"/>
+      <c r="B350" s="66"/>
+      <c r="D350" s="62"/>
       <c r="G350" s="21"/>
     </row>
     <row r="351" spans="2:7">
-      <c r="B351" s="67"/>
-      <c r="D351" s="63"/>
+      <c r="B351" s="66"/>
+      <c r="D351" s="62"/>
       <c r="G351" s="21"/>
     </row>
     <row r="352" spans="2:7">
-      <c r="B352" s="67"/>
-      <c r="D352" s="63"/>
+      <c r="B352" s="66"/>
+      <c r="D352" s="62"/>
       <c r="G352" s="21"/>
     </row>
     <row r="353" spans="2:7">
-      <c r="B353" s="67"/>
-      <c r="D353" s="63"/>
+      <c r="B353" s="66"/>
+      <c r="D353" s="62"/>
       <c r="G353" s="21"/>
     </row>
     <row r="354" spans="2:7">
-      <c r="B354" s="67"/>
-      <c r="D354" s="63"/>
+      <c r="B354" s="66"/>
+      <c r="D354" s="62"/>
       <c r="G354" s="21"/>
     </row>
     <row r="355" spans="2:7">
-      <c r="B355" s="67"/>
-      <c r="D355" s="63"/>
+      <c r="B355" s="66"/>
+      <c r="D355" s="62"/>
       <c r="G355" s="21"/>
     </row>
     <row r="356" spans="2:7">
-      <c r="B356" s="67"/>
-      <c r="D356" s="63"/>
+      <c r="B356" s="66"/>
+      <c r="D356" s="62"/>
       <c r="G356" s="21"/>
     </row>
     <row r="357" spans="2:7">
-      <c r="B357" s="67"/>
-      <c r="D357" s="63"/>
+      <c r="B357" s="66"/>
+      <c r="D357" s="62"/>
       <c r="G357" s="21"/>
     </row>
     <row r="358" spans="2:7">
-      <c r="B358" s="67"/>
-      <c r="D358" s="63"/>
+      <c r="B358" s="66"/>
+      <c r="D358" s="62"/>
       <c r="G358" s="21"/>
     </row>
     <row r="359" spans="2:7">
-      <c r="B359" s="67"/>
-      <c r="D359" s="63"/>
+      <c r="B359" s="66"/>
+      <c r="D359" s="62"/>
       <c r="G359" s="21"/>
     </row>
     <row r="360" spans="2:7">
-      <c r="B360" s="67"/>
-      <c r="D360" s="63"/>
+      <c r="B360" s="66"/>
+      <c r="D360" s="62"/>
       <c r="G360" s="21"/>
     </row>
     <row r="361" spans="2:7">
-      <c r="B361" s="67"/>
-      <c r="D361" s="63"/>
+      <c r="B361" s="66"/>
+      <c r="D361" s="62"/>
       <c r="G361" s="21"/>
     </row>
     <row r="362" spans="2:7">
-      <c r="B362" s="67"/>
-      <c r="D362" s="63"/>
+      <c r="B362" s="66"/>
+      <c r="D362" s="62"/>
       <c r="G362" s="21"/>
     </row>
     <row r="363" spans="2:7">
-      <c r="B363" s="67"/>
-      <c r="D363" s="63"/>
+      <c r="B363" s="66"/>
+      <c r="D363" s="62"/>
       <c r="G363" s="21"/>
     </row>
     <row r="364" spans="2:7">
-      <c r="B364" s="67"/>
-      <c r="D364" s="63"/>
+      <c r="B364" s="66"/>
+      <c r="D364" s="62"/>
       <c r="G364" s="21"/>
     </row>
     <row r="365" spans="2:7">
-      <c r="B365" s="67"/>
-      <c r="D365" s="63"/>
+      <c r="B365" s="66"/>
+      <c r="D365" s="62"/>
       <c r="G365" s="21"/>
     </row>
     <row r="366" spans="2:7">
-      <c r="B366" s="67"/>
-      <c r="D366" s="63"/>
+      <c r="B366" s="66"/>
+      <c r="D366" s="62"/>
       <c r="G366" s="21"/>
     </row>
     <row r="367" spans="2:7">
-      <c r="B367" s="67"/>
-      <c r="D367" s="63"/>
+      <c r="B367" s="66"/>
+      <c r="D367" s="62"/>
       <c r="G367" s="21"/>
     </row>
     <row r="368" spans="2:7">
-      <c r="B368" s="67"/>
-      <c r="D368" s="63"/>
+      <c r="B368" s="66"/>
+      <c r="D368" s="62"/>
       <c r="G368" s="21"/>
     </row>
     <row r="369" spans="2:7">
-      <c r="B369" s="67"/>
-      <c r="D369" s="63"/>
+      <c r="B369" s="66"/>
+      <c r="D369" s="62"/>
       <c r="G369" s="21"/>
     </row>
     <row r="370" spans="2:7">
-      <c r="B370" s="67"/>
-      <c r="D370" s="63"/>
+      <c r="B370" s="66"/>
+      <c r="D370" s="62"/>
       <c r="G370" s="21"/>
     </row>
     <row r="371" spans="2:7">
-      <c r="B371" s="67"/>
-      <c r="D371" s="63"/>
+      <c r="B371" s="66"/>
+      <c r="D371" s="62"/>
       <c r="G371" s="21"/>
     </row>
     <row r="372" spans="2:7">
-      <c r="B372" s="67"/>
-      <c r="D372" s="63"/>
+      <c r="B372" s="66"/>
+      <c r="D372" s="62"/>
       <c r="G372" s="21"/>
     </row>
     <row r="373" spans="2:7">
-      <c r="B373" s="67"/>
-      <c r="D373" s="63"/>
+      <c r="B373" s="66"/>
+      <c r="D373" s="62"/>
       <c r="G373" s="21"/>
     </row>
     <row r="374" spans="2:7">
-      <c r="B374" s="67"/>
-      <c r="D374" s="63"/>
+      <c r="B374" s="66"/>
+      <c r="D374" s="62"/>
       <c r="G374" s="21"/>
     </row>
     <row r="375" spans="2:7">
-      <c r="B375" s="67"/>
-      <c r="D375" s="63"/>
+      <c r="B375" s="66"/>
+      <c r="D375" s="62"/>
       <c r="G375" s="21"/>
     </row>
     <row r="376" spans="2:7">
-      <c r="B376" s="67"/>
-      <c r="D376" s="63"/>
+      <c r="B376" s="66"/>
+      <c r="D376" s="62"/>
       <c r="G376" s="21"/>
     </row>
     <row r="377" spans="2:7">
-      <c r="B377" s="67"/>
-      <c r="D377" s="63"/>
+      <c r="B377" s="66"/>
+      <c r="D377" s="62"/>
       <c r="G377" s="21"/>
     </row>
     <row r="378" spans="2:7">
-      <c r="B378" s="67"/>
-      <c r="D378" s="63"/>
+      <c r="B378" s="66"/>
+      <c r="D378" s="62"/>
       <c r="G378" s="21"/>
     </row>
     <row r="379" spans="2:7">
-      <c r="B379" s="67"/>
-      <c r="D379" s="63"/>
+      <c r="B379" s="66"/>
+      <c r="D379" s="62"/>
       <c r="G379" s="21"/>
     </row>
     <row r="380" spans="2:7">
-      <c r="B380" s="67"/>
-      <c r="D380" s="63"/>
+      <c r="B380" s="66"/>
+      <c r="D380" s="62"/>
       <c r="G380" s="21"/>
     </row>
     <row r="381" spans="2:7">
-      <c r="B381" s="67"/>
-      <c r="D381" s="63"/>
+      <c r="B381" s="66"/>
+      <c r="D381" s="62"/>
       <c r="G381" s="21"/>
     </row>
     <row r="382" spans="2:7">
-      <c r="B382" s="67"/>
-      <c r="D382" s="63"/>
+      <c r="B382" s="66"/>
+      <c r="D382" s="62"/>
       <c r="G382" s="21"/>
     </row>
     <row r="383" spans="2:7">
-      <c r="B383" s="67"/>
-      <c r="D383" s="63"/>
+      <c r="B383" s="66"/>
+      <c r="D383" s="62"/>
       <c r="G383" s="21"/>
     </row>
     <row r="384" spans="2:7">
-      <c r="B384" s="67"/>
-      <c r="D384" s="63"/>
+      <c r="B384" s="66"/>
+      <c r="D384" s="62"/>
       <c r="G384" s="21"/>
     </row>
     <row r="385" spans="2:7">
-      <c r="B385" s="67"/>
-      <c r="D385" s="63"/>
+      <c r="B385" s="66"/>
+      <c r="D385" s="62"/>
       <c r="G385" s="21"/>
     </row>
     <row r="386" spans="2:7">
-      <c r="B386" s="67"/>
-      <c r="D386" s="63"/>
+      <c r="B386" s="66"/>
+      <c r="D386" s="62"/>
       <c r="G386" s="21"/>
     </row>
     <row r="387" spans="2:7">
-      <c r="B387" s="67"/>
-      <c r="D387" s="63"/>
+      <c r="B387" s="66"/>
+      <c r="D387" s="62"/>
       <c r="G387" s="21"/>
     </row>
     <row r="388" spans="2:7">
-      <c r="B388" s="67"/>
-      <c r="D388" s="63"/>
+      <c r="B388" s="66"/>
+      <c r="D388" s="62"/>
       <c r="G388" s="21"/>
     </row>
     <row r="389" spans="2:7">
-      <c r="B389" s="67"/>
-      <c r="D389" s="63"/>
+      <c r="B389" s="66"/>
+      <c r="D389" s="62"/>
       <c r="G389" s="21"/>
     </row>
     <row r="390" spans="2:7">
-      <c r="B390" s="67"/>
-      <c r="D390" s="63"/>
+      <c r="B390" s="66"/>
+      <c r="D390" s="62"/>
       <c r="G390" s="21"/>
     </row>
     <row r="391" spans="2:7">
-      <c r="B391" s="67"/>
-      <c r="D391" s="63"/>
+      <c r="B391" s="66"/>
+      <c r="D391" s="62"/>
       <c r="G391" s="21"/>
     </row>
     <row r="392" spans="2:7">
-      <c r="B392" s="67"/>
-      <c r="D392" s="63"/>
+      <c r="B392" s="66"/>
+      <c r="D392" s="62"/>
       <c r="G392" s="21"/>
     </row>
     <row r="393" spans="2:7">
-      <c r="B393" s="67"/>
-      <c r="D393" s="63"/>
+      <c r="B393" s="66"/>
+      <c r="D393" s="62"/>
       <c r="G393" s="21"/>
     </row>
     <row r="394" spans="2:7">
-      <c r="B394" s="67"/>
-      <c r="D394" s="63"/>
+      <c r="B394" s="66"/>
+      <c r="D394" s="62"/>
       <c r="G394" s="21"/>
     </row>
     <row r="395" spans="2:7">
-      <c r="B395" s="67"/>
-      <c r="D395" s="63"/>
+      <c r="B395" s="66"/>
+      <c r="D395" s="62"/>
       <c r="G395" s="21"/>
     </row>
     <row r="396" spans="2:7">
-      <c r="B396" s="67"/>
-      <c r="D396" s="63"/>
+      <c r="B396" s="66"/>
+      <c r="D396" s="62"/>
       <c r="G396" s="21"/>
     </row>
     <row r="397" spans="2:7">
-      <c r="B397" s="67"/>
-      <c r="D397" s="63"/>
+      <c r="B397" s="66"/>
+      <c r="D397" s="62"/>
       <c r="G397" s="21"/>
     </row>
     <row r="398" spans="2:7">
-      <c r="B398" s="67"/>
-      <c r="D398" s="63"/>
+      <c r="B398" s="66"/>
+      <c r="D398" s="62"/>
       <c r="G398" s="21"/>
     </row>
     <row r="399" spans="2:7">
-      <c r="B399" s="67"/>
-      <c r="D399" s="63"/>
+      <c r="B399" s="66"/>
+      <c r="D399" s="62"/>
       <c r="G399" s="21"/>
     </row>
     <row r="400" spans="2:7">
-      <c r="B400" s="67"/>
-      <c r="D400" s="63"/>
+      <c r="B400" s="66"/>
+      <c r="D400" s="62"/>
       <c r="G400" s="21"/>
     </row>
     <row r="401" spans="2:7">
-      <c r="B401" s="67"/>
-      <c r="D401" s="63"/>
+      <c r="B401" s="66"/>
+      <c r="D401" s="62"/>
       <c r="G401" s="21"/>
     </row>
     <row r="402" spans="2:7">
-      <c r="B402" s="67"/>
-      <c r="D402" s="63"/>
+      <c r="B402" s="66"/>
+      <c r="D402" s="62"/>
       <c r="G402" s="21"/>
     </row>
     <row r="403" spans="2:7">
-      <c r="B403" s="67"/>
-      <c r="D403" s="63"/>
+      <c r="B403" s="66"/>
+      <c r="D403" s="62"/>
       <c r="G403" s="21"/>
     </row>
     <row r="404" spans="2:7">
-      <c r="B404" s="67"/>
-      <c r="D404" s="63"/>
+      <c r="B404" s="66"/>
+      <c r="D404" s="62"/>
       <c r="G404" s="21"/>
     </row>
     <row r="405" spans="2:7">
-      <c r="B405" s="67"/>
-      <c r="D405" s="63"/>
+      <c r="B405" s="66"/>
+      <c r="D405" s="62"/>
       <c r="G405" s="21"/>
     </row>
     <row r="406" spans="2:7">
-      <c r="B406" s="67"/>
-      <c r="D406" s="63"/>
+      <c r="B406" s="66"/>
+      <c r="D406" s="62"/>
       <c r="G406" s="21"/>
     </row>
     <row r="407" spans="2:7">
-      <c r="B407" s="67"/>
-      <c r="D407" s="63"/>
+      <c r="B407" s="66"/>
+      <c r="D407" s="62"/>
       <c r="G407" s="21"/>
     </row>
     <row r="408" spans="2:7">
-      <c r="B408" s="67"/>
-      <c r="D408" s="63"/>
+      <c r="B408" s="66"/>
+      <c r="D408" s="62"/>
       <c r="G408" s="21"/>
     </row>
     <row r="409" spans="2:7">
-      <c r="B409" s="67"/>
-      <c r="D409" s="63"/>
+      <c r="B409" s="66"/>
+      <c r="D409" s="62"/>
       <c r="G409" s="21"/>
     </row>
     <row r="410" spans="2:7">
-      <c r="B410" s="67"/>
-      <c r="D410" s="63"/>
+      <c r="B410" s="66"/>
+      <c r="D410" s="62"/>
       <c r="G410" s="21"/>
     </row>
     <row r="411" spans="2:7">
-      <c r="B411" s="67"/>
-      <c r="D411" s="63"/>
+      <c r="B411" s="66"/>
+      <c r="D411" s="62"/>
       <c r="G411" s="21"/>
     </row>
     <row r="412" spans="2:7">
-      <c r="B412" s="67"/>
-      <c r="D412" s="63"/>
+      <c r="B412" s="66"/>
+      <c r="D412" s="62"/>
       <c r="G412" s="21"/>
     </row>
     <row r="413" spans="2:7">
-      <c r="B413" s="67"/>
-      <c r="D413" s="63"/>
+      <c r="B413" s="66"/>
+      <c r="D413" s="62"/>
       <c r="G413" s="21"/>
     </row>
     <row r="414" spans="2:7">
-      <c r="B414" s="67"/>
-      <c r="D414" s="63"/>
+      <c r="B414" s="66"/>
+      <c r="D414" s="62"/>
       <c r="G414" s="21"/>
     </row>
     <row r="415" spans="2:7">
-      <c r="B415" s="67"/>
-      <c r="D415" s="63"/>
+      <c r="B415" s="66"/>
+      <c r="D415" s="62"/>
       <c r="G415" s="21"/>
     </row>
     <row r="416" spans="2:7">
-      <c r="B416" s="67"/>
-      <c r="D416" s="63"/>
+      <c r="B416" s="66"/>
+      <c r="D416" s="62"/>
       <c r="G416" s="21"/>
     </row>
     <row r="417" spans="2:7">
-      <c r="B417" s="67"/>
-      <c r="D417" s="63"/>
+      <c r="B417" s="66"/>
+      <c r="D417" s="62"/>
       <c r="G417" s="21"/>
     </row>
     <row r="418" spans="2:7">
-      <c r="B418" s="67"/>
-      <c r="D418" s="63"/>
+      <c r="B418" s="66"/>
+      <c r="D418" s="62"/>
       <c r="G418" s="21"/>
     </row>
     <row r="419" spans="2:7">
-      <c r="B419" s="67"/>
-      <c r="D419" s="63"/>
+      <c r="B419" s="66"/>
+      <c r="D419" s="62"/>
       <c r="G419" s="21"/>
     </row>
     <row r="420" spans="2:7">
-      <c r="B420" s="67"/>
-      <c r="D420" s="63"/>
+      <c r="B420" s="66"/>
+      <c r="D420" s="62"/>
       <c r="G420" s="21"/>
     </row>
     <row r="421" spans="2:7">
-      <c r="B421" s="67"/>
-      <c r="D421" s="63"/>
+      <c r="B421" s="66"/>
+      <c r="D421" s="62"/>
       <c r="G421" s="21"/>
     </row>
     <row r="422" spans="2:7">
-      <c r="B422" s="67"/>
-      <c r="D422" s="63"/>
+      <c r="B422" s="66"/>
+      <c r="D422" s="62"/>
       <c r="G422" s="21"/>
     </row>
     <row r="423" spans="2:7">
-      <c r="B423" s="67"/>
-      <c r="D423" s="63"/>
+      <c r="B423" s="66"/>
+      <c r="D423" s="62"/>
       <c r="G423" s="21"/>
     </row>
     <row r="424" spans="2:7">
-      <c r="B424" s="67"/>
-      <c r="D424" s="63"/>
+      <c r="B424" s="66"/>
+      <c r="D424" s="62"/>
       <c r="G424" s="21"/>
     </row>
     <row r="425" spans="2:7">
-      <c r="B425" s="67"/>
-      <c r="D425" s="63"/>
+      <c r="B425" s="66"/>
+      <c r="D425" s="62"/>
       <c r="G425" s="21"/>
     </row>
     <row r="426" spans="2:7">
-      <c r="B426" s="67"/>
-      <c r="D426" s="63"/>
+      <c r="B426" s="66"/>
+      <c r="D426" s="62"/>
       <c r="G426" s="21"/>
     </row>
     <row r="427" spans="2:7">
-      <c r="B427" s="67"/>
-      <c r="D427" s="63"/>
+      <c r="B427" s="66"/>
+      <c r="D427" s="62"/>
       <c r="G427" s="21"/>
     </row>
     <row r="428" spans="2:7">
-      <c r="B428" s="67"/>
-      <c r="D428" s="63"/>
+      <c r="B428" s="66"/>
+      <c r="D428" s="62"/>
       <c r="G428" s="21"/>
     </row>
     <row r="429" spans="2:7">
-      <c r="B429" s="67"/>
-      <c r="D429" s="63"/>
+      <c r="B429" s="66"/>
+      <c r="D429" s="62"/>
       <c r="G429" s="21"/>
     </row>
     <row r="430" spans="2:7">
-      <c r="B430" s="67"/>
-      <c r="D430" s="63"/>
+      <c r="B430" s="66"/>
+      <c r="D430" s="62"/>
       <c r="G430" s="21"/>
     </row>
     <row r="431" spans="2:7">
-      <c r="B431" s="67"/>
-      <c r="D431" s="63"/>
+      <c r="B431" s="66"/>
+      <c r="D431" s="62"/>
       <c r="G431" s="21"/>
     </row>
     <row r="432" spans="2:7">
-      <c r="B432" s="67"/>
-      <c r="D432" s="63"/>
+      <c r="B432" s="66"/>
+      <c r="D432" s="62"/>
       <c r="G432" s="21"/>
     </row>
     <row r="433" spans="2:7">
-      <c r="B433" s="67"/>
-      <c r="D433" s="63"/>
+      <c r="B433" s="66"/>
+      <c r="D433" s="62"/>
       <c r="G433" s="21"/>
     </row>
     <row r="434" spans="2:7">
-      <c r="B434" s="67"/>
-      <c r="D434" s="63"/>
+      <c r="B434" s="66"/>
+      <c r="D434" s="62"/>
       <c r="G434" s="21"/>
     </row>
     <row r="435" spans="2:7">
-      <c r="B435" s="67"/>
-      <c r="D435" s="63"/>
+      <c r="B435" s="66"/>
+      <c r="D435" s="62"/>
       <c r="G435" s="21"/>
     </row>
     <row r="436" spans="2:7">
-      <c r="B436" s="67"/>
-      <c r="D436" s="63"/>
+      <c r="B436" s="66"/>
+      <c r="D436" s="62"/>
       <c r="G436" s="21"/>
     </row>
     <row r="437" spans="2:7">
-      <c r="B437" s="67"/>
-      <c r="D437" s="63"/>
+      <c r="B437" s="66"/>
+      <c r="D437" s="62"/>
       <c r="G437" s="21"/>
     </row>
     <row r="438" spans="2:7">
-      <c r="B438" s="67"/>
-      <c r="D438" s="63"/>
+      <c r="B438" s="66"/>
+      <c r="D438" s="62"/>
       <c r="G438" s="21"/>
     </row>
     <row r="439" spans="2:7">
-      <c r="B439" s="67"/>
-      <c r="D439" s="63"/>
+      <c r="B439" s="66"/>
+      <c r="D439" s="62"/>
       <c r="G439" s="21"/>
     </row>
     <row r="440" spans="2:7">
-      <c r="B440" s="67"/>
-      <c r="D440" s="63"/>
+      <c r="B440" s="66"/>
+      <c r="D440" s="62"/>
       <c r="G440" s="21"/>
     </row>
     <row r="441" spans="2:7">
-      <c r="B441" s="67"/>
-      <c r="D441" s="63"/>
+      <c r="B441" s="66"/>
+      <c r="D441" s="62"/>
       <c r="G441" s="21"/>
     </row>
     <row r="442" spans="2:7">
-      <c r="B442" s="67"/>
-      <c r="D442" s="63"/>
+      <c r="B442" s="66"/>
+      <c r="D442" s="62"/>
       <c r="G442" s="21"/>
     </row>
     <row r="443" spans="2:7">
-      <c r="B443" s="67"/>
-      <c r="D443" s="63"/>
+      <c r="B443" s="66"/>
+      <c r="D443" s="62"/>
       <c r="G443" s="21"/>
     </row>
     <row r="444" spans="2:7">
-      <c r="B444" s="67"/>
-      <c r="D444" s="63"/>
+      <c r="B444" s="66"/>
+      <c r="D444" s="62"/>
       <c r="G444" s="21"/>
     </row>
     <row r="445" spans="2:7">
-      <c r="B445" s="67"/>
-      <c r="D445" s="63"/>
+      <c r="B445" s="66"/>
+      <c r="D445" s="62"/>
       <c r="G445" s="21"/>
     </row>
     <row r="446" spans="2:7">
-      <c r="B446" s="67"/>
-      <c r="D446" s="63"/>
+      <c r="B446" s="66"/>
+      <c r="D446" s="62"/>
       <c r="G446" s="21"/>
     </row>
     <row r="447" spans="2:7">
-      <c r="B447" s="67"/>
-      <c r="D447" s="63"/>
+      <c r="B447" s="66"/>
+      <c r="D447" s="62"/>
       <c r="G447" s="21"/>
     </row>
     <row r="448" spans="2:7">
-      <c r="B448" s="67"/>
-      <c r="D448" s="63"/>
+      <c r="B448" s="66"/>
+      <c r="D448" s="62"/>
       <c r="G448" s="21"/>
     </row>
     <row r="449" spans="2:7">
-      <c r="B449" s="67"/>
-      <c r="D449" s="63"/>
+      <c r="B449" s="66"/>
+      <c r="D449" s="62"/>
       <c r="G449" s="21"/>
     </row>
     <row r="450" spans="2:7">
-      <c r="B450" s="67"/>
-      <c r="D450" s="63"/>
+      <c r="B450" s="66"/>
+      <c r="D450" s="62"/>
       <c r="G450" s="21"/>
     </row>
     <row r="451" spans="2:7">
-      <c r="B451" s="67"/>
-      <c r="D451" s="63"/>
+      <c r="B451" s="66"/>
+      <c r="D451" s="62"/>
       <c r="G451" s="21"/>
     </row>
     <row r="452" spans="2:7">
-      <c r="B452" s="67"/>
-      <c r="D452" s="63"/>
+      <c r="B452" s="66"/>
+      <c r="D452" s="62"/>
       <c r="G452" s="21"/>
     </row>
     <row r="453" spans="2:7">
-      <c r="B453" s="67"/>
-      <c r="D453" s="63"/>
+      <c r="B453" s="66"/>
+      <c r="D453" s="62"/>
       <c r="G453" s="21"/>
     </row>
     <row r="454" spans="2:7">
-      <c r="B454" s="67"/>
-      <c r="D454" s="63"/>
+      <c r="B454" s="66"/>
+      <c r="D454" s="62"/>
       <c r="G454" s="21"/>
     </row>
     <row r="455" spans="2:7">
-      <c r="B455" s="67"/>
-      <c r="D455" s="63"/>
+      <c r="B455" s="66"/>
+      <c r="D455" s="62"/>
       <c r="G455" s="21"/>
     </row>
     <row r="456" spans="2:7">
-      <c r="B456" s="67"/>
-      <c r="D456" s="63"/>
+      <c r="B456" s="66"/>
+      <c r="D456" s="62"/>
       <c r="G456" s="21"/>
     </row>
     <row r="457" spans="2:7">
-      <c r="B457" s="67"/>
-      <c r="D457" s="63"/>
+      <c r="B457" s="66"/>
+      <c r="D457" s="62"/>
       <c r="G457" s="21"/>
     </row>
     <row r="458" spans="2:7">
-      <c r="B458" s="67"/>
-      <c r="D458" s="63"/>
+      <c r="B458" s="66"/>
+      <c r="D458" s="62"/>
       <c r="G458" s="21"/>
     </row>
     <row r="459" spans="2:7">
-      <c r="B459" s="67"/>
-      <c r="D459" s="63"/>
+      <c r="B459" s="66"/>
+      <c r="D459" s="62"/>
       <c r="G459" s="21"/>
     </row>
     <row r="460" spans="2:7">
-      <c r="B460" s="67"/>
-      <c r="D460" s="63"/>
+      <c r="B460" s="66"/>
+      <c r="D460" s="62"/>
       <c r="G460" s="21"/>
     </row>
     <row r="461" spans="2:7">
-      <c r="B461" s="67"/>
-      <c r="D461" s="63"/>
+      <c r="B461" s="66"/>
+      <c r="D461" s="62"/>
       <c r="G461" s="21"/>
     </row>
     <row r="462" spans="2:7">
-      <c r="B462" s="67"/>
-      <c r="D462" s="63"/>
+      <c r="B462" s="66"/>
+      <c r="D462" s="62"/>
       <c r="G462" s="21"/>
     </row>
     <row r="463" spans="2:7">
-      <c r="B463" s="67"/>
-      <c r="D463" s="63"/>
+      <c r="B463" s="66"/>
+      <c r="D463" s="62"/>
       <c r="G463" s="21"/>
     </row>
     <row r="464" spans="2:7">
-      <c r="B464" s="67"/>
-      <c r="D464" s="63"/>
+      <c r="B464" s="66"/>
+      <c r="D464" s="62"/>
       <c r="G464" s="21"/>
     </row>
     <row r="465" spans="2:7">
-      <c r="B465" s="67"/>
-      <c r="D465" s="63"/>
+      <c r="B465" s="66"/>
+      <c r="D465" s="62"/>
       <c r="G465" s="21"/>
     </row>
     <row r="466" spans="2:7">
-      <c r="B466" s="67"/>
-      <c r="D466" s="63"/>
+      <c r="B466" s="66"/>
+      <c r="D466" s="62"/>
       <c r="G466" s="21"/>
     </row>
     <row r="467" spans="2:7">
-      <c r="B467" s="67"/>
-      <c r="D467" s="63"/>
+      <c r="B467" s="66"/>
+      <c r="D467" s="62"/>
       <c r="G467" s="21"/>
     </row>
     <row r="468" spans="2:7">
-      <c r="B468" s="67"/>
-      <c r="D468" s="63"/>
+      <c r="B468" s="66"/>
+      <c r="D468" s="62"/>
       <c r="G468" s="21"/>
     </row>
     <row r="469" spans="2:7">
-      <c r="B469" s="67"/>
-      <c r="D469" s="63"/>
+      <c r="B469" s="66"/>
+      <c r="D469" s="62"/>
       <c r="G469" s="21"/>
     </row>
     <row r="470" spans="2:7">
-      <c r="B470" s="67"/>
-      <c r="D470" s="63"/>
+      <c r="B470" s="66"/>
+      <c r="D470" s="62"/>
       <c r="G470" s="21"/>
     </row>
     <row r="471" spans="2:7">
-      <c r="B471" s="67"/>
-      <c r="D471" s="63"/>
+      <c r="B471" s="66"/>
+      <c r="D471" s="62"/>
       <c r="G471" s="21"/>
     </row>
     <row r="472" spans="2:7">
-      <c r="B472" s="67"/>
-      <c r="D472" s="63"/>
+      <c r="B472" s="66"/>
+      <c r="D472" s="62"/>
       <c r="G472" s="21"/>
     </row>
     <row r="473" spans="2:7">
-      <c r="B473" s="67"/>
-      <c r="D473" s="63"/>
+      <c r="B473" s="66"/>
+      <c r="D473" s="62"/>
       <c r="G473" s="21"/>
     </row>
     <row r="474" spans="2:7">
-      <c r="B474" s="67"/>
-      <c r="D474" s="63"/>
+      <c r="B474" s="66"/>
+      <c r="D474" s="62"/>
       <c r="G474" s="21"/>
     </row>
     <row r="475" spans="2:7">
-      <c r="B475" s="67"/>
-      <c r="D475" s="63"/>
+      <c r="B475" s="66"/>
+      <c r="D475" s="62"/>
       <c r="G475" s="21"/>
     </row>
     <row r="476" spans="2:7">
-      <c r="B476" s="67"/>
-      <c r="D476" s="63"/>
+      <c r="B476" s="66"/>
+      <c r="D476" s="62"/>
       <c r="G476" s="21"/>
     </row>
     <row r="477" spans="2:7">
-      <c r="B477" s="67"/>
-      <c r="D477" s="63"/>
+      <c r="B477" s="66"/>
+      <c r="D477" s="62"/>
       <c r="G477" s="21"/>
     </row>
     <row r="478" spans="2:7">
-      <c r="B478" s="67"/>
-      <c r="D478" s="63"/>
+      <c r="B478" s="66"/>
+      <c r="D478" s="62"/>
       <c r="G478" s="21"/>
     </row>
     <row r="479" spans="2:7">
-      <c r="B479" s="67"/>
-      <c r="D479" s="63"/>
+      <c r="B479" s="66"/>
+      <c r="D479" s="62"/>
       <c r="G479" s="21"/>
     </row>
     <row r="480" spans="2:7">
-      <c r="B480" s="67"/>
-      <c r="D480" s="63"/>
+      <c r="B480" s="66"/>
+      <c r="D480" s="62"/>
       <c r="G480" s="21"/>
     </row>
     <row r="481" spans="2:7">
-      <c r="B481" s="67"/>
-      <c r="D481" s="63"/>
+      <c r="B481" s="66"/>
+      <c r="D481" s="62"/>
       <c r="G481" s="21"/>
     </row>
     <row r="482" spans="2:7">
-      <c r="B482" s="67"/>
-      <c r="D482" s="63"/>
+      <c r="B482" s="66"/>
+      <c r="D482" s="62"/>
       <c r="G482" s="21"/>
     </row>
     <row r="483" spans="2:7">
-      <c r="B483" s="67"/>
-      <c r="D483" s="63"/>
+      <c r="B483" s="66"/>
+      <c r="D483" s="62"/>
       <c r="G483" s="21"/>
     </row>
     <row r="484" spans="2:7">
-      <c r="B484" s="67"/>
-      <c r="D484" s="63"/>
+      <c r="B484" s="66"/>
+      <c r="D484" s="62"/>
       <c r="G484" s="21"/>
     </row>
     <row r="485" spans="2:7">
-      <c r="B485" s="67"/>
-      <c r="D485" s="63"/>
+      <c r="B485" s="66"/>
+      <c r="D485" s="62"/>
       <c r="G485" s="21"/>
     </row>
     <row r="486" spans="2:7">
-      <c r="B486" s="67"/>
-      <c r="D486" s="63"/>
+      <c r="B486" s="66"/>
+      <c r="D486" s="62"/>
       <c r="G486" s="21"/>
     </row>
     <row r="487" spans="2:7">
-      <c r="B487" s="67"/>
-      <c r="D487" s="63"/>
+      <c r="B487" s="66"/>
+      <c r="D487" s="62"/>
       <c r="G487" s="21"/>
     </row>
     <row r="488" spans="2:7">
-      <c r="B488" s="67"/>
-      <c r="D488" s="63"/>
+      <c r="B488" s="66"/>
+      <c r="D488" s="62"/>
       <c r="G488" s="21"/>
     </row>
     <row r="489" spans="2:7">
-      <c r="B489" s="67"/>
-      <c r="D489" s="63"/>
+      <c r="B489" s="66"/>
+      <c r="D489" s="62"/>
       <c r="G489" s="21"/>
     </row>
     <row r="490" spans="2:7">
-      <c r="B490" s="67"/>
-      <c r="D490" s="63"/>
+      <c r="B490" s="66"/>
+      <c r="D490" s="62"/>
       <c r="G490" s="21"/>
     </row>
     <row r="491" spans="2:7">
-      <c r="B491" s="67"/>
-      <c r="D491" s="63"/>
+      <c r="B491" s="66"/>
+      <c r="D491" s="62"/>
       <c r="G491" s="21"/>
     </row>
     <row r="492" spans="2:7">
-      <c r="B492" s="67"/>
-      <c r="D492" s="63"/>
+      <c r="B492" s="66"/>
+      <c r="D492" s="62"/>
       <c r="G492" s="21"/>
     </row>
     <row r="493" spans="2:7">
-      <c r="B493" s="67"/>
-      <c r="D493" s="63"/>
+      <c r="B493" s="66"/>
+      <c r="D493" s="62"/>
       <c r="G493" s="21"/>
     </row>
     <row r="494" spans="2:7">
-      <c r="B494" s="67"/>
-      <c r="D494" s="63"/>
+      <c r="B494" s="66"/>
+      <c r="D494" s="62"/>
       <c r="G494" s="21"/>
     </row>
     <row r="495" spans="2:7">
-      <c r="B495" s="67"/>
-      <c r="D495" s="63"/>
+      <c r="B495" s="66"/>
+      <c r="D495" s="62"/>
       <c r="G495" s="21"/>
     </row>
     <row r="496" spans="2:7">
-      <c r="B496" s="67"/>
-      <c r="D496" s="63"/>
+      <c r="B496" s="66"/>
+      <c r="D496" s="62"/>
       <c r="G496" s="21"/>
     </row>
     <row r="497" spans="2:7">
-      <c r="B497" s="67"/>
-      <c r="D497" s="63"/>
+      <c r="B497" s="66"/>
+      <c r="D497" s="62"/>
       <c r="G497" s="21"/>
     </row>
     <row r="498" spans="2:7">
-      <c r="B498" s="67"/>
-      <c r="D498" s="63"/>
+      <c r="B498" s="66"/>
+      <c r="D498" s="62"/>
       <c r="G498" s="21"/>
     </row>
     <row r="499" spans="2:7">
-      <c r="B499" s="67"/>
-      <c r="D499" s="63"/>
+      <c r="B499" s="66"/>
+      <c r="D499" s="62"/>
       <c r="G499" s="21"/>
     </row>
     <row r="500" spans="2:7">
-      <c r="B500" s="67"/>
-      <c r="D500" s="63"/>
+      <c r="B500" s="66"/>
+      <c r="D500" s="62"/>
       <c r="G500" s="21"/>
     </row>
     <row r="501" spans="2:7">
-      <c r="B501" s="67"/>
-      <c r="D501" s="63"/>
+      <c r="B501" s="66"/>
+      <c r="D501" s="62"/>
       <c r="G501" s="21"/>
     </row>
     <row r="502" spans="2:7">
-      <c r="B502" s="67"/>
-      <c r="D502" s="63"/>
+      <c r="B502" s="66"/>
+      <c r="D502" s="62"/>
       <c r="G502" s="21"/>
     </row>
     <row r="503" spans="2:7">
-      <c r="B503" s="67"/>
-      <c r="D503" s="63"/>
+      <c r="B503" s="66"/>
+      <c r="D503" s="62"/>
       <c r="G503" s="21"/>
     </row>
     <row r="504" spans="2:7">
-      <c r="B504" s="67"/>
-      <c r="D504" s="63"/>
+      <c r="B504" s="66"/>
+      <c r="D504" s="62"/>
       <c r="G504" s="21"/>
     </row>
     <row r="505" spans="2:7">
-      <c r="B505" s="67"/>
-      <c r="D505" s="63"/>
+      <c r="B505" s="66"/>
+      <c r="D505" s="62"/>
       <c r="G505" s="21"/>
     </row>
     <row r="506" spans="2:7">
-      <c r="B506" s="67"/>
-      <c r="D506" s="63"/>
+      <c r="B506" s="66"/>
+      <c r="D506" s="62"/>
       <c r="G506" s="21"/>
     </row>
     <row r="507" spans="2:7">
-      <c r="B507" s="67"/>
-      <c r="D507" s="63"/>
+      <c r="B507" s="66"/>
+      <c r="D507" s="62"/>
       <c r="G507" s="21"/>
     </row>
     <row r="508" spans="2:7">
-      <c r="B508" s="67"/>
-      <c r="D508" s="63"/>
+      <c r="B508" s="66"/>
+      <c r="D508" s="62"/>
       <c r="G508" s="21"/>
     </row>
     <row r="509" spans="2:7">
-      <c r="B509" s="67"/>
-      <c r="D509" s="63"/>
+      <c r="B509" s="66"/>
+      <c r="D509" s="62"/>
       <c r="G509" s="21"/>
     </row>
     <row r="510" spans="2:7">
-      <c r="B510" s="67"/>
-      <c r="D510" s="63"/>
+      <c r="B510" s="66"/>
+      <c r="D510" s="62"/>
       <c r="G510" s="21"/>
     </row>
     <row r="511" spans="2:7">
-      <c r="B511" s="67"/>
-      <c r="D511" s="63"/>
+      <c r="B511" s="66"/>
+      <c r="D511" s="62"/>
       <c r="G511" s="21"/>
     </row>
     <row r="512" spans="2:7">
-      <c r="B512" s="67"/>
-      <c r="D512" s="63"/>
+      <c r="B512" s="66"/>
+      <c r="D512" s="62"/>
       <c r="G512" s="21"/>
     </row>
     <row r="513" spans="2:7">
-      <c r="B513" s="67"/>
-      <c r="D513" s="63"/>
+      <c r="B513" s="66"/>
+      <c r="D513" s="62"/>
       <c r="G513" s="21"/>
     </row>
     <row r="514" spans="2:7">
-      <c r="B514" s="67"/>
-      <c r="D514" s="63"/>
+      <c r="B514" s="66"/>
+      <c r="D514" s="62"/>
       <c r="G514" s="21"/>
     </row>
     <row r="515" spans="2:7">
-      <c r="B515" s="67"/>
-      <c r="D515" s="63"/>
+      <c r="B515" s="66"/>
+      <c r="D515" s="62"/>
       <c r="G515" s="21"/>
     </row>
     <row r="516" spans="2:7">
-      <c r="B516" s="67"/>
-      <c r="D516" s="63"/>
+      <c r="B516" s="66"/>
+      <c r="D516" s="62"/>
       <c r="G516" s="21"/>
     </row>
     <row r="517" spans="2:7">
-      <c r="B517" s="67"/>
-      <c r="D517" s="63"/>
+      <c r="B517" s="66"/>
+      <c r="D517" s="62"/>
       <c r="G517" s="21"/>
     </row>
     <row r="518" spans="2:7">
-      <c r="B518" s="67"/>
-      <c r="D518" s="63"/>
+      <c r="B518" s="66"/>
+      <c r="D518" s="62"/>
       <c r="G518" s="21"/>
     </row>
     <row r="519" spans="2:7">
-      <c r="B519" s="67"/>
-      <c r="D519" s="63"/>
+      <c r="B519" s="66"/>
+      <c r="D519" s="62"/>
       <c r="G519" s="21"/>
     </row>
     <row r="520" spans="2:7">
-      <c r="B520" s="67"/>
-      <c r="D520" s="63"/>
+      <c r="B520" s="66"/>
+      <c r="D520" s="62"/>
       <c r="G520" s="21"/>
     </row>
     <row r="521" spans="2:7">
-      <c r="B521" s="67"/>
-      <c r="D521" s="63"/>
+      <c r="B521" s="66"/>
+      <c r="D521" s="62"/>
       <c r="G521" s="21"/>
     </row>
     <row r="522" spans="2:7">
-      <c r="B522" s="67"/>
-      <c r="D522" s="63"/>
+      <c r="B522" s="66"/>
+      <c r="D522" s="62"/>
       <c r="G522" s="21"/>
     </row>
     <row r="523" spans="2:7">
-      <c r="B523" s="67"/>
-      <c r="D523" s="63"/>
+      <c r="B523" s="66"/>
+      <c r="D523" s="62"/>
       <c r="G523" s="21"/>
     </row>
     <row r="524" spans="2:7">
-      <c r="B524" s="67"/>
-      <c r="D524" s="63"/>
+      <c r="B524" s="66"/>
+      <c r="D524" s="62"/>
       <c r="G524" s="21"/>
     </row>
     <row r="525" spans="2:7">
-      <c r="B525" s="67"/>
-      <c r="D525" s="63"/>
+      <c r="B525" s="66"/>
+      <c r="D525" s="62"/>
       <c r="G525" s="21"/>
     </row>
     <row r="526" spans="2:7">
-      <c r="B526" s="67"/>
-      <c r="D526" s="63"/>
+      <c r="B526" s="66"/>
+      <c r="D526" s="62"/>
       <c r="G526" s="21"/>
     </row>
     <row r="527" spans="2:7">
-      <c r="B527" s="67"/>
-      <c r="D527" s="63"/>
+      <c r="B527" s="66"/>
+      <c r="D527" s="62"/>
       <c r="G527" s="21"/>
     </row>
     <row r="528" spans="2:7">
-      <c r="B528" s="67"/>
-      <c r="D528" s="63"/>
+      <c r="B528" s="66"/>
+      <c r="D528" s="62"/>
       <c r="G528" s="21"/>
     </row>
     <row r="529" spans="2:7">
-      <c r="B529" s="67"/>
-      <c r="D529" s="63"/>
+      <c r="B529" s="66"/>
+      <c r="D529" s="62"/>
       <c r="G529" s="21"/>
     </row>
     <row r="530" spans="2:7">
-      <c r="B530" s="67"/>
-      <c r="D530" s="63"/>
+      <c r="B530" s="66"/>
+      <c r="D530" s="62"/>
       <c r="G530" s="21"/>
     </row>
     <row r="531" spans="2:7">
-      <c r="B531" s="67"/>
-      <c r="D531" s="63"/>
+      <c r="B531" s="66"/>
+      <c r="D531" s="62"/>
       <c r="G531" s="21"/>
     </row>
     <row r="532" spans="2:7">
-      <c r="B532" s="67"/>
-      <c r="D532" s="63"/>
+      <c r="B532" s="66"/>
+      <c r="D532" s="62"/>
       <c r="G532" s="21"/>
     </row>
     <row r="533" spans="2:7">
-      <c r="B533" s="67"/>
-      <c r="D533" s="63"/>
+      <c r="B533" s="66"/>
+      <c r="D533" s="62"/>
       <c r="G533" s="21"/>
     </row>
     <row r="534" spans="2:7">
-      <c r="B534" s="67"/>
-      <c r="D534" s="63"/>
+      <c r="B534" s="66"/>
+      <c r="D534" s="62"/>
       <c r="G534" s="21"/>
     </row>
     <row r="535" spans="2:7">
-      <c r="B535" s="67"/>
-      <c r="D535" s="63"/>
+      <c r="B535" s="66"/>
+      <c r="D535" s="62"/>
       <c r="G535" s="21"/>
     </row>
     <row r="536" spans="2:7">
-      <c r="B536" s="67"/>
-      <c r="D536" s="63"/>
+      <c r="B536" s="66"/>
+      <c r="D536" s="62"/>
       <c r="G536" s="21"/>
     </row>
     <row r="537" spans="2:7">
-      <c r="B537" s="67"/>
-      <c r="D537" s="63"/>
+      <c r="B537" s="66"/>
+      <c r="D537" s="62"/>
       <c r="G537" s="21"/>
     </row>
     <row r="538" spans="2:7">
-      <c r="B538" s="67"/>
-      <c r="D538" s="63"/>
+      <c r="B538" s="66"/>
+      <c r="D538" s="62"/>
       <c r="G538" s="21"/>
     </row>
     <row r="539" spans="2:7">
-      <c r="B539" s="67"/>
-      <c r="D539" s="63"/>
+      <c r="B539" s="66"/>
+      <c r="D539" s="62"/>
       <c r="G539" s="21"/>
     </row>
     <row r="540" spans="2:7">
-      <c r="B540" s="67"/>
-      <c r="D540" s="63"/>
+      <c r="B540" s="66"/>
+      <c r="D540" s="62"/>
       <c r="G540" s="21"/>
     </row>
     <row r="541" spans="2:7">
-      <c r="B541" s="67"/>
-      <c r="D541" s="63"/>
+      <c r="B541" s="66"/>
+      <c r="D541" s="62"/>
       <c r="G541" s="21"/>
     </row>
     <row r="542" spans="2:7">
-      <c r="B542" s="67"/>
-      <c r="D542" s="63"/>
+      <c r="B542" s="66"/>
+      <c r="D542" s="62"/>
       <c r="G542" s="21"/>
     </row>
     <row r="543" spans="2:7">
-      <c r="B543" s="67"/>
-      <c r="D543" s="63"/>
+      <c r="B543" s="66"/>
+      <c r="D543" s="62"/>
       <c r="G543" s="21"/>
     </row>
     <row r="544" spans="2:7">
-      <c r="B544" s="67"/>
-      <c r="D544" s="63"/>
+      <c r="B544" s="66"/>
+      <c r="D544" s="62"/>
       <c r="G544" s="21"/>
     </row>
     <row r="545" spans="2:7">
-      <c r="B545" s="67"/>
-      <c r="D545" s="63"/>
+      <c r="B545" s="66"/>
+      <c r="D545" s="62"/>
       <c r="G545" s="21"/>
     </row>
     <row r="546" spans="2:7">
-      <c r="B546" s="67"/>
-      <c r="D546" s="63"/>
+      <c r="B546" s="66"/>
+      <c r="D546" s="62"/>
       <c r="G546" s="21"/>
     </row>
     <row r="547" spans="2:7">
-      <c r="B547" s="67"/>
-      <c r="D547" s="63"/>
+      <c r="B547" s="66"/>
+      <c r="D547" s="62"/>
       <c r="G547" s="21"/>
     </row>
     <row r="548" spans="2:7">
-      <c r="B548" s="67"/>
-      <c r="D548" s="63"/>
+      <c r="B548" s="66"/>
+      <c r="D548" s="62"/>
       <c r="G548" s="21"/>
     </row>
     <row r="549" spans="2:7">
-      <c r="B549" s="67"/>
-      <c r="D549" s="63"/>
+      <c r="B549" s="66"/>
+      <c r="D549" s="62"/>
       <c r="G549" s="21"/>
     </row>
     <row r="550" spans="2:7">
-      <c r="B550" s="67"/>
-      <c r="D550" s="63"/>
+      <c r="B550" s="66"/>
+      <c r="D550" s="62"/>
       <c r="G550" s="21"/>
     </row>
     <row r="551" spans="2:7">
-      <c r="B551" s="67"/>
-      <c r="D551" s="63"/>
+      <c r="B551" s="66"/>
+      <c r="D551" s="62"/>
       <c r="G551" s="21"/>
     </row>
     <row r="552" spans="2:7">
-      <c r="B552" s="67"/>
-      <c r="D552" s="63"/>
+      <c r="B552" s="66"/>
+      <c r="D552" s="62"/>
       <c r="G552" s="21"/>
     </row>
     <row r="553" spans="2:7">
-      <c r="B553" s="67"/>
-      <c r="D553" s="63"/>
+      <c r="B553" s="66"/>
+      <c r="D553" s="62"/>
       <c r="G553" s="21"/>
     </row>
     <row r="554" spans="2:7">
-      <c r="B554" s="67"/>
-      <c r="D554" s="63"/>
+      <c r="B554" s="66"/>
+      <c r="D554" s="62"/>
       <c r="G554" s="21"/>
     </row>
     <row r="555" spans="2:7">
-      <c r="B555" s="67"/>
-      <c r="D555" s="63"/>
+      <c r="B555" s="66"/>
+      <c r="D555" s="62"/>
       <c r="G555" s="21"/>
     </row>
     <row r="556" spans="2:7">
-      <c r="B556" s="67"/>
-      <c r="D556" s="63"/>
+      <c r="B556" s="66"/>
+      <c r="D556" s="62"/>
       <c r="G556" s="21"/>
     </row>
     <row r="557" spans="2:7">
-      <c r="B557" s="67"/>
-      <c r="D557" s="63"/>
+      <c r="B557" s="66"/>
+      <c r="D557" s="62"/>
       <c r="G557" s="21"/>
     </row>
     <row r="558" spans="2:7">
-      <c r="B558" s="67"/>
-      <c r="D558" s="63"/>
+      <c r="B558" s="66"/>
+      <c r="D558" s="62"/>
       <c r="G558" s="21"/>
     </row>
     <row r="559" spans="2:7">
-      <c r="B559" s="67"/>
-      <c r="D559" s="63"/>
+      <c r="B559" s="66"/>
+      <c r="D559" s="62"/>
       <c r="G559" s="21"/>
     </row>
     <row r="560" spans="2:7">
-      <c r="B560" s="67"/>
-      <c r="D560" s="63"/>
+      <c r="B560" s="66"/>
+      <c r="D560" s="62"/>
       <c r="G560" s="21"/>
     </row>
     <row r="561" spans="2:7">
-      <c r="B561" s="67"/>
-      <c r="D561" s="63"/>
+      <c r="B561" s="66"/>
+      <c r="D561" s="62"/>
       <c r="G561" s="21"/>
     </row>
     <row r="562" spans="2:7">
-      <c r="B562" s="67"/>
-      <c r="D562" s="63"/>
+      <c r="B562" s="66"/>
+      <c r="D562" s="62"/>
       <c r="G562" s="21"/>
     </row>
     <row r="563" spans="2:7">
-      <c r="B563" s="67"/>
-      <c r="D563" s="63"/>
+      <c r="B563" s="66"/>
+      <c r="D563" s="62"/>
       <c r="G563" s="21"/>
     </row>
     <row r="564" spans="2:7">
-      <c r="B564" s="67"/>
-      <c r="D564" s="63"/>
+      <c r="B564" s="66"/>
+      <c r="D564" s="62"/>
       <c r="G564" s="21"/>
     </row>
     <row r="565" spans="2:7">
-      <c r="B565" s="67"/>
-      <c r="D565" s="63"/>
+      <c r="B565" s="66"/>
+      <c r="D565" s="62"/>
       <c r="G565" s="21"/>
     </row>
     <row r="566" spans="2:7">
-      <c r="B566" s="67"/>
-      <c r="D566" s="63"/>
+      <c r="B566" s="66"/>
+      <c r="D566" s="62"/>
       <c r="G566" s="21"/>
     </row>
     <row r="567" spans="2:7">
-      <c r="B567" s="67"/>
-      <c r="D567" s="63"/>
+      <c r="B567" s="66"/>
+      <c r="D567" s="62"/>
       <c r="G567" s="21"/>
     </row>
     <row r="568" spans="2:7">
-      <c r="B568" s="67"/>
-      <c r="D568" s="63"/>
+      <c r="B568" s="66"/>
+      <c r="D568" s="62"/>
       <c r="G568" s="21"/>
     </row>
     <row r="569" spans="2:7">
-      <c r="B569" s="67"/>
-      <c r="D569" s="63"/>
+      <c r="B569" s="66"/>
+      <c r="D569" s="62"/>
       <c r="G569" s="21"/>
     </row>
     <row r="570" spans="2:7">
-      <c r="B570" s="67"/>
-      <c r="D570" s="63"/>
+      <c r="B570" s="66"/>
+      <c r="D570" s="62"/>
       <c r="G570" s="21"/>
     </row>
     <row r="571" spans="2:7">
-      <c r="B571" s="67"/>
-      <c r="D571" s="63"/>
+      <c r="B571" s="66"/>
+      <c r="D571" s="62"/>
       <c r="G571" s="21"/>
     </row>
     <row r="572" spans="2:7">
-      <c r="B572" s="67"/>
-      <c r="D572" s="63"/>
+      <c r="B572" s="66"/>
+      <c r="D572" s="62"/>
       <c r="G572" s="21"/>
     </row>
     <row r="573" spans="2:7">
-      <c r="B573" s="67"/>
-      <c r="D573" s="63"/>
+      <c r="B573" s="66"/>
+      <c r="D573" s="62"/>
       <c r="G573" s="21"/>
     </row>
     <row r="574" spans="2:7">
-      <c r="B574" s="67"/>
-      <c r="D574" s="63"/>
+      <c r="B574" s="66"/>
+      <c r="D574" s="62"/>
       <c r="G574" s="21"/>
     </row>
     <row r="575" spans="2:7">
-      <c r="B575" s="67"/>
-      <c r="D575" s="63"/>
+      <c r="B575" s="66"/>
+      <c r="D575" s="62"/>
       <c r="G575" s="21"/>
     </row>
     <row r="576" spans="2:7">
-      <c r="B576" s="67"/>
-      <c r="D576" s="63"/>
+      <c r="B576" s="66"/>
+      <c r="D576" s="62"/>
       <c r="G576" s="21"/>
     </row>
     <row r="577" spans="2:7">
-      <c r="B577" s="67"/>
-      <c r="D577" s="63"/>
+      <c r="B577" s="66"/>
+      <c r="D577" s="62"/>
       <c r="G577" s="21"/>
     </row>
     <row r="578" spans="2:7">
-      <c r="B578" s="67"/>
-      <c r="D578" s="63"/>
+      <c r="B578" s="66"/>
+      <c r="D578" s="62"/>
       <c r="G578" s="21"/>
     </row>
     <row r="579" spans="2:7">
-      <c r="B579" s="67"/>
-      <c r="D579" s="63"/>
+      <c r="B579" s="66"/>
+      <c r="D579" s="62"/>
       <c r="G579" s="21"/>
     </row>
     <row r="580" spans="2:7">
-      <c r="B580" s="67"/>
-      <c r="D580" s="63"/>
+      <c r="B580" s="66"/>
+      <c r="D580" s="62"/>
       <c r="G580" s="21"/>
     </row>
     <row r="581" spans="2:7">
-      <c r="B581" s="67"/>
-      <c r="D581" s="63"/>
+      <c r="B581" s="66"/>
+      <c r="D581" s="62"/>
       <c r="G581" s="21"/>
     </row>
     <row r="582" spans="2:7">
-      <c r="B582" s="67"/>
-      <c r="D582" s="63"/>
+      <c r="B582" s="66"/>
+      <c r="D582" s="62"/>
       <c r="G582" s="21"/>
     </row>
     <row r="583" spans="2:7">
-      <c r="B583" s="67"/>
-      <c r="D583" s="63"/>
+      <c r="B583" s="66"/>
+      <c r="D583" s="62"/>
       <c r="G583" s="21"/>
     </row>
     <row r="584" spans="2:7">
-      <c r="B584" s="67"/>
-      <c r="D584" s="63"/>
+      <c r="B584" s="66"/>
+      <c r="D584" s="62"/>
       <c r="G584" s="21"/>
     </row>
     <row r="585" spans="2:7">
-      <c r="B585" s="67"/>
-      <c r="D585" s="63"/>
+      <c r="B585" s="66"/>
+      <c r="D585" s="62"/>
       <c r="G585" s="21"/>
     </row>
     <row r="586" spans="2:7">
-      <c r="B586" s="67"/>
-      <c r="D586" s="63"/>
+      <c r="B586" s="66"/>
+      <c r="D586" s="62"/>
       <c r="G586" s="21"/>
     </row>
     <row r="587" spans="2:7">
-      <c r="B587" s="67"/>
-      <c r="D587" s="63"/>
+      <c r="B587" s="66"/>
+      <c r="D587" s="62"/>
       <c r="G587" s="21"/>
     </row>
     <row r="588" spans="2:7">
-      <c r="B588" s="67"/>
-      <c r="D588" s="63"/>
+      <c r="B588" s="66"/>
+      <c r="D588" s="62"/>
       <c r="G588" s="21"/>
     </row>
     <row r="589" spans="2:7">
-      <c r="B589" s="67"/>
-      <c r="D589" s="63"/>
+      <c r="B589" s="66"/>
+      <c r="D589" s="62"/>
       <c r="G589" s="21"/>
     </row>
     <row r="590" spans="2:7">
-      <c r="B590" s="67"/>
-      <c r="D590" s="63"/>
+      <c r="B590" s="66"/>
+      <c r="D590" s="62"/>
       <c r="G590" s="21"/>
     </row>
     <row r="591" spans="2:7">
-      <c r="B591" s="67"/>
-      <c r="D591" s="63"/>
+      <c r="B591" s="66"/>
+      <c r="D591" s="62"/>
       <c r="G591" s="21"/>
     </row>
     <row r="592" spans="2:7">
-      <c r="B592" s="67"/>
-      <c r="D592" s="63"/>
+      <c r="B592" s="66"/>
+      <c r="D592" s="62"/>
       <c r="G592" s="21"/>
     </row>
     <row r="593" spans="2:7">
-      <c r="B593" s="67"/>
-      <c r="D593" s="63"/>
+      <c r="B593" s="66"/>
+      <c r="D593" s="62"/>
       <c r="G593" s="21"/>
     </row>
     <row r="594" spans="2:7">
-      <c r="B594" s="67"/>
-      <c r="D594" s="63"/>
+      <c r="B594" s="66"/>
+      <c r="D594" s="62"/>
       <c r="G594" s="21"/>
     </row>
     <row r="595" spans="2:7">
-      <c r="B595" s="67"/>
-      <c r="D595" s="63"/>
+      <c r="B595" s="66"/>
+      <c r="D595" s="62"/>
       <c r="G595" s="21"/>
     </row>
     <row r="596" spans="2:7">
-      <c r="B596" s="67"/>
-      <c r="D596" s="63"/>
+      <c r="B596" s="66"/>
+      <c r="D596" s="62"/>
       <c r="G596" s="21"/>
     </row>
     <row r="597" spans="2:7">
-      <c r="B597" s="67"/>
-      <c r="D597" s="63"/>
+      <c r="B597" s="66"/>
+      <c r="D597" s="62"/>
       <c r="G597" s="21"/>
     </row>
     <row r="598" spans="2:7">
-      <c r="B598" s="67"/>
-      <c r="D598" s="63"/>
+      <c r="B598" s="66"/>
+      <c r="D598" s="62"/>
       <c r="G598" s="21"/>
     </row>
     <row r="599" spans="2:7">
-      <c r="B599" s="67"/>
-      <c r="D599" s="63"/>
+      <c r="B599" s="66"/>
+      <c r="D599" s="62"/>
       <c r="G599" s="21"/>
     </row>
     <row r="600" spans="2:7">
-      <c r="B600" s="67"/>
-      <c r="D600" s="63"/>
+      <c r="B600" s="66"/>
+      <c r="D600" s="62"/>
       <c r="G600" s="21"/>
     </row>
     <row r="601" spans="2:7">
-      <c r="B601" s="67"/>
-      <c r="D601" s="63"/>
+      <c r="B601" s="66"/>
+      <c r="D601" s="62"/>
       <c r="G601" s="21"/>
     </row>
     <row r="602" spans="2:7">
-      <c r="B602" s="67"/>
-      <c r="D602" s="63"/>
+      <c r="B602" s="66"/>
+      <c r="D602" s="62"/>
       <c r="G602" s="21"/>
     </row>
     <row r="603" spans="2:7">
-      <c r="B603" s="67"/>
-      <c r="D603" s="63"/>
+      <c r="B603" s="66"/>
+      <c r="D603" s="62"/>
       <c r="G603" s="21"/>
     </row>
     <row r="604" spans="2:7">
-      <c r="B604" s="67"/>
-      <c r="D604" s="63"/>
+      <c r="B604" s="66"/>
+      <c r="D604" s="62"/>
       <c r="G604" s="21"/>
     </row>
     <row r="605" spans="2:7">
-      <c r="B605" s="67"/>
-      <c r="D605" s="63"/>
+      <c r="B605" s="66"/>
+      <c r="D605" s="62"/>
       <c r="G605" s="21"/>
     </row>
     <row r="606" spans="2:7">
-      <c r="B606" s="67"/>
-      <c r="D606" s="63"/>
+      <c r="B606" s="66"/>
+      <c r="D606" s="62"/>
       <c r="G606" s="21"/>
     </row>
     <row r="607" spans="2:7">
-      <c r="B607" s="67"/>
-      <c r="D607" s="63"/>
+      <c r="B607" s="66"/>
+      <c r="D607" s="62"/>
       <c r="G607" s="21"/>
     </row>
     <row r="608" spans="2:7">
-      <c r="B608" s="67"/>
-      <c r="D608" s="63"/>
+      <c r="B608" s="66"/>
+      <c r="D608" s="62"/>
       <c r="G608" s="21"/>
     </row>
     <row r="609" spans="2:7">
-      <c r="B609" s="67"/>
-      <c r="D609" s="63"/>
+      <c r="B609" s="66"/>
+      <c r="D609" s="62"/>
       <c r="G609" s="21"/>
     </row>
     <row r="610" spans="2:7">
-      <c r="B610" s="67"/>
-      <c r="D610" s="63"/>
+      <c r="B610" s="66"/>
+      <c r="D610" s="62"/>
       <c r="G610" s="21"/>
     </row>
     <row r="611" spans="2:7">
-      <c r="B611" s="67"/>
-      <c r="D611" s="63"/>
+      <c r="B611" s="66"/>
+      <c r="D611" s="62"/>
       <c r="G611" s="21"/>
     </row>
     <row r="612" spans="2:7">
-      <c r="B612" s="67"/>
-      <c r="D612" s="63"/>
+      <c r="B612" s="66"/>
+      <c r="D612" s="62"/>
       <c r="G612" s="21"/>
     </row>
     <row r="613" spans="2:7">
-      <c r="B613" s="67"/>
-      <c r="D613" s="63"/>
+      <c r="B613" s="66"/>
+      <c r="D613" s="62"/>
       <c r="G613" s="21"/>
     </row>
     <row r="614" spans="2:7">
-      <c r="B614" s="67"/>
-      <c r="D614" s="63"/>
+      <c r="B614" s="66"/>
+      <c r="D614" s="62"/>
       <c r="G614" s="21"/>
     </row>
     <row r="615" spans="2:7">
-      <c r="B615" s="67"/>
-      <c r="D615" s="63"/>
+      <c r="B615" s="66"/>
+      <c r="D615" s="62"/>
       <c r="G615" s="21"/>
     </row>
     <row r="616" spans="2:7">
-      <c r="B616" s="67"/>
-      <c r="D616" s="63"/>
+      <c r="B616" s="66"/>
+      <c r="D616" s="62"/>
       <c r="G616" s="21"/>
     </row>
     <row r="617" spans="2:7">
-      <c r="B617" s="67"/>
-      <c r="D617" s="63"/>
+      <c r="B617" s="66"/>
+      <c r="D617" s="62"/>
       <c r="G617" s="21"/>
     </row>
     <row r="618" spans="2:7">
-      <c r="B618" s="67"/>
-      <c r="D618" s="63"/>
+      <c r="B618" s="66"/>
+      <c r="D618" s="62"/>
       <c r="G618" s="21"/>
     </row>
     <row r="619" spans="2:7">
-      <c r="B619" s="67"/>
-      <c r="D619" s="63"/>
+      <c r="B619" s="66"/>
+      <c r="D619" s="62"/>
       <c r="G619" s="21"/>
     </row>
     <row r="620" spans="2:7">
-      <c r="B620" s="67"/>
-      <c r="D620" s="63"/>
+      <c r="B620" s="66"/>
+      <c r="D620" s="62"/>
       <c r="G620" s="21"/>
     </row>
     <row r="621" spans="2:7">
-      <c r="B621" s="67"/>
-      <c r="D621" s="63"/>
+      <c r="B621" s="66"/>
+      <c r="D621" s="62"/>
       <c r="G621" s="21"/>
     </row>
     <row r="622" spans="2:7">
-      <c r="B622" s="67"/>
-      <c r="D622" s="63"/>
+      <c r="B622" s="66"/>
+      <c r="D622" s="62"/>
       <c r="G622" s="21"/>
     </row>
     <row r="623" spans="2:7">
-      <c r="B623" s="67"/>
-      <c r="D623" s="63"/>
+      <c r="B623" s="66"/>
+      <c r="D623" s="62"/>
       <c r="G623" s="21"/>
     </row>
     <row r="624" spans="2:7">
-      <c r="B624" s="67"/>
-      <c r="D624" s="63"/>
+      <c r="B624" s="66"/>
+      <c r="D624" s="62"/>
       <c r="G624" s="21"/>
     </row>
     <row r="625" spans="2:7">
-      <c r="B625" s="67"/>
-      <c r="D625" s="63"/>
+      <c r="B625" s="66"/>
+      <c r="D625" s="62"/>
       <c r="G625" s="21"/>
     </row>
     <row r="626" spans="2:7">
-      <c r="B626" s="67"/>
-      <c r="D626" s="63"/>
+      <c r="B626" s="66"/>
+      <c r="D626" s="62"/>
       <c r="G626" s="21"/>
     </row>
     <row r="627" spans="2:7">
-      <c r="B627" s="67"/>
-      <c r="D627" s="63"/>
+      <c r="B627" s="66"/>
+      <c r="D627" s="62"/>
       <c r="G627" s="21"/>
     </row>
     <row r="628" spans="2:7">
-      <c r="B628" s="67"/>
-      <c r="D628" s="63"/>
+      <c r="B628" s="66"/>
+      <c r="D628" s="62"/>
       <c r="G628" s="21"/>
     </row>
     <row r="629" spans="2:7">
-      <c r="B629" s="67"/>
-      <c r="D629" s="63"/>
+      <c r="B629" s="66"/>
+      <c r="D629" s="62"/>
       <c r="G629" s="21"/>
     </row>
     <row r="630" spans="2:7">
-      <c r="B630" s="67"/>
-      <c r="D630" s="63"/>
+      <c r="B630" s="66"/>
+      <c r="D630" s="62"/>
       <c r="G630" s="21"/>
     </row>
     <row r="631" spans="2:7">
-      <c r="B631" s="67"/>
-      <c r="D631" s="63"/>
+      <c r="B631" s="66"/>
+      <c r="D631" s="62"/>
       <c r="G631" s="21"/>
     </row>
     <row r="632" spans="2:7">
-      <c r="B632" s="67"/>
-      <c r="D632" s="63"/>
+      <c r="B632" s="66"/>
+      <c r="D632" s="62"/>
       <c r="G632" s="21"/>
     </row>
     <row r="633" spans="2:7">
-      <c r="B633" s="67"/>
-      <c r="D633" s="63"/>
+      <c r="B633" s="66"/>
+      <c r="D633" s="62"/>
       <c r="G633" s="21"/>
     </row>
     <row r="634" spans="2:7">
-      <c r="B634" s="67"/>
-      <c r="D634" s="63"/>
+      <c r="B634" s="66"/>
+      <c r="D634" s="62"/>
       <c r="G634" s="21"/>
     </row>
     <row r="635" spans="2:7">
-      <c r="B635" s="67"/>
-      <c r="D635" s="63"/>
+      <c r="B635" s="66"/>
+      <c r="D635" s="62"/>
       <c r="G635" s="21"/>
     </row>
     <row r="636" spans="2:7">
-      <c r="B636" s="67"/>
-      <c r="D636" s="63"/>
+      <c r="B636" s="66"/>
+      <c r="D636" s="62"/>
       <c r="G636" s="21"/>
     </row>
     <row r="637" spans="2:7">
-      <c r="B637" s="67"/>
-      <c r="D637" s="63"/>
+      <c r="B637" s="66"/>
+      <c r="D637" s="62"/>
       <c r="G637" s="21"/>
     </row>
     <row r="638" spans="2:7">
-      <c r="B638" s="67"/>
-      <c r="D638" s="63"/>
+      <c r="B638" s="66"/>
+      <c r="D638" s="62"/>
       <c r="G638" s="21"/>
     </row>
     <row r="639" spans="2:7">
-      <c r="B639" s="67"/>
-      <c r="D639" s="63"/>
+      <c r="B639" s="66"/>
+      <c r="D639" s="62"/>
       <c r="G639" s="21"/>
     </row>
     <row r="640" spans="2:7">
-      <c r="B640" s="67"/>
-      <c r="D640" s="63"/>
+      <c r="B640" s="66"/>
+      <c r="D640" s="62"/>
       <c r="G640" s="21"/>
     </row>
     <row r="641" spans="2:7">
-      <c r="B641" s="67"/>
-      <c r="D641" s="63"/>
+      <c r="B641" s="66"/>
+      <c r="D641" s="62"/>
       <c r="G641" s="21"/>
     </row>
     <row r="642" spans="2:7">
-      <c r="B642" s="67"/>
-      <c r="D642" s="63"/>
+      <c r="B642" s="66"/>
+      <c r="D642" s="62"/>
       <c r="G642" s="21"/>
     </row>
     <row r="643" spans="2:7">
-      <c r="B643" s="67"/>
-      <c r="D643" s="63"/>
+      <c r="B643" s="66"/>
+      <c r="D643" s="62"/>
       <c r="G643" s="21"/>
     </row>
     <row r="644" spans="2:7">
-      <c r="B644" s="67"/>
-      <c r="D644" s="63"/>
+      <c r="B644" s="66"/>
+      <c r="D644" s="62"/>
       <c r="G644" s="21"/>
     </row>
     <row r="645" spans="2:7">
-      <c r="B645" s="67"/>
-      <c r="D645" s="63"/>
+      <c r="B645" s="66"/>
+      <c r="D645" s="62"/>
       <c r="G645" s="21"/>
     </row>
     <row r="646" spans="2:7">
-      <c r="B646" s="67"/>
-      <c r="D646" s="63"/>
+      <c r="B646" s="66"/>
+      <c r="D646" s="62"/>
       <c r="G646" s="21"/>
     </row>
     <row r="647" spans="2:7">
-      <c r="B647" s="67"/>
-      <c r="D647" s="63"/>
+      <c r="B647" s="66"/>
+      <c r="D647" s="62"/>
       <c r="G647" s="21"/>
     </row>
     <row r="648" spans="2:7">
-      <c r="B648" s="67"/>
-      <c r="D648" s="63"/>
+      <c r="B648" s="66"/>
+      <c r="D648" s="62"/>
       <c r="G648" s="21"/>
     </row>
     <row r="649" spans="2:7">
-      <c r="B649" s="67"/>
-      <c r="D649" s="63"/>
+      <c r="B649" s="66"/>
+      <c r="D649" s="62"/>
       <c r="G649" s="21"/>
     </row>
     <row r="650" spans="2:7">
-      <c r="B650" s="67"/>
-      <c r="D650" s="63"/>
+      <c r="B650" s="66"/>
+      <c r="D650" s="62"/>
       <c r="G650" s="21"/>
     </row>
     <row r="651" spans="2:7">
-      <c r="B651" s="67"/>
-      <c r="D651" s="63"/>
+      <c r="B651" s="66"/>
+      <c r="D651" s="62"/>
       <c r="G651" s="21"/>
     </row>
     <row r="652" spans="2:7">
-      <c r="B652" s="67"/>
-      <c r="D652" s="63"/>
+      <c r="B652" s="66"/>
+      <c r="D652" s="62"/>
       <c r="G652" s="21"/>
     </row>
     <row r="653" spans="2:7">
-      <c r="B653" s="67"/>
-      <c r="D653" s="63"/>
+      <c r="B653" s="66"/>
+      <c r="D653" s="62"/>
       <c r="G653" s="21"/>
     </row>
     <row r="654" spans="2:7">
-      <c r="B654" s="67"/>
-      <c r="D654" s="63"/>
+      <c r="B654" s="66"/>
+      <c r="D654" s="62"/>
       <c r="G654" s="21"/>
     </row>
     <row r="655" spans="2:7">
-      <c r="B655" s="67"/>
-      <c r="D655" s="63"/>
+      <c r="B655" s="66"/>
+      <c r="D655" s="62"/>
       <c r="G655" s="21"/>
     </row>
     <row r="656" spans="2:7">
-      <c r="B656" s="67"/>
-      <c r="D656" s="63"/>
+      <c r="B656" s="66"/>
+      <c r="D656" s="62"/>
       <c r="G656" s="21"/>
     </row>
     <row r="657" spans="2:7">
-      <c r="B657" s="67"/>
-      <c r="D657" s="63"/>
+      <c r="B657" s="66"/>
+      <c r="D657" s="62"/>
       <c r="G657" s="21"/>
     </row>
     <row r="658" spans="2:7">
-      <c r="B658" s="67"/>
-      <c r="D658" s="63"/>
+      <c r="B658" s="66"/>
+      <c r="D658" s="62"/>
       <c r="G658" s="21"/>
     </row>
     <row r="659" spans="2:7">
-      <c r="B659" s="67"/>
-      <c r="D659" s="63"/>
+      <c r="B659" s="66"/>
+      <c r="D659" s="62"/>
       <c r="G659" s="21"/>
     </row>
     <row r="660" spans="2:7">
-      <c r="B660" s="67"/>
-      <c r="D660" s="63"/>
+      <c r="B660" s="66"/>
+      <c r="D660" s="62"/>
       <c r="G660" s="21"/>
     </row>
     <row r="661" spans="2:7">
-      <c r="B661" s="67"/>
-      <c r="D661" s="63"/>
+      <c r="B661" s="66"/>
+      <c r="D661" s="62"/>
       <c r="G661" s="21"/>
     </row>
     <row r="662" spans="2:7">
-      <c r="B662" s="67"/>
-      <c r="D662" s="63"/>
+      <c r="B662" s="66"/>
+      <c r="D662" s="62"/>
       <c r="G662" s="21"/>
     </row>
     <row r="663" spans="2:7">
-      <c r="B663" s="67"/>
-      <c r="D663" s="63"/>
+      <c r="B663" s="66"/>
+      <c r="D663" s="62"/>
       <c r="G663" s="21"/>
     </row>
     <row r="664" spans="2:7">
-      <c r="B664" s="67"/>
-      <c r="D664" s="63"/>
+      <c r="B664" s="66"/>
+      <c r="D664" s="62"/>
       <c r="G664" s="21"/>
     </row>
     <row r="665" spans="2:7">
-      <c r="B665" s="67"/>
-      <c r="D665" s="63"/>
+      <c r="B665" s="66"/>
+      <c r="D665" s="62"/>
       <c r="G665" s="21"/>
     </row>
     <row r="666" spans="2:7">
-      <c r="B666" s="67"/>
-      <c r="D666" s="63"/>
+      <c r="B666" s="66"/>
+      <c r="D666" s="62"/>
       <c r="G666" s="21"/>
     </row>
     <row r="667" spans="2:7">
-      <c r="B667" s="67"/>
-      <c r="D667" s="63"/>
+      <c r="B667" s="66"/>
+      <c r="D667" s="62"/>
       <c r="G667" s="21"/>
     </row>
     <row r="668" spans="2:7">
-      <c r="B668" s="67"/>
-      <c r="D668" s="63"/>
+      <c r="B668" s="66"/>
+      <c r="D668" s="62"/>
       <c r="G668" s="21"/>
     </row>
     <row r="669" spans="2:7">
-      <c r="B669" s="67"/>
-      <c r="D669" s="63"/>
+      <c r="B669" s="66"/>
+      <c r="D669" s="62"/>
       <c r="G669" s="21"/>
     </row>
     <row r="670" spans="2:7">
-      <c r="B670" s="67"/>
-      <c r="D670" s="63"/>
+      <c r="B670" s="66"/>
+      <c r="D670" s="62"/>
       <c r="G670" s="21"/>
     </row>
     <row r="671" spans="2:7">
-      <c r="B671" s="67"/>
-      <c r="D671" s="63"/>
+      <c r="B671" s="66"/>
+      <c r="D671" s="62"/>
       <c r="G671" s="21"/>
     </row>
     <row r="672" spans="2:7">
-      <c r="B672" s="67"/>
-      <c r="D672" s="63"/>
+      <c r="B672" s="66"/>
+      <c r="D672" s="62"/>
       <c r="G672" s="21"/>
     </row>
     <row r="673" spans="2:7">
-      <c r="B673" s="67"/>
-      <c r="D673" s="63"/>
+      <c r="B673" s="66"/>
+      <c r="D673" s="62"/>
       <c r="G673" s="21"/>
     </row>
     <row r="674" spans="2:7">
-      <c r="B674" s="67"/>
-      <c r="D674" s="63"/>
+      <c r="B674" s="66"/>
+      <c r="D674" s="62"/>
       <c r="G674" s="21"/>
     </row>
     <row r="675" spans="2:7">
-      <c r="B675" s="67"/>
-      <c r="D675" s="63"/>
+      <c r="B675" s="66"/>
+      <c r="D675" s="62"/>
       <c r="G675" s="21"/>
     </row>
     <row r="676" spans="2:7">
-      <c r="B676" s="67"/>
-      <c r="D676" s="63"/>
+      <c r="B676" s="66"/>
+      <c r="D676" s="62"/>
       <c r="G676" s="21"/>
     </row>
     <row r="677" spans="2:7">
-      <c r="B677" s="67"/>
-      <c r="D677" s="63"/>
+      <c r="B677" s="66"/>
+      <c r="D677" s="62"/>
       <c r="G677" s="21"/>
     </row>
     <row r="678" spans="2:7">
-      <c r="B678" s="67"/>
-      <c r="D678" s="63"/>
+      <c r="B678" s="66"/>
+      <c r="D678" s="62"/>
       <c r="G678" s="21"/>
     </row>
     <row r="679" spans="2:7">
-      <c r="B679" s="67"/>
-      <c r="D679" s="63"/>
+      <c r="B679" s="66"/>
+      <c r="D679" s="62"/>
       <c r="G679" s="21"/>
     </row>
     <row r="680" spans="2:7">
-      <c r="B680" s="67"/>
-      <c r="D680" s="63"/>
+      <c r="B680" s="66"/>
+      <c r="D680" s="62"/>
       <c r="G680" s="21"/>
     </row>
     <row r="681" spans="2:7">
-      <c r="B681" s="67"/>
-      <c r="D681" s="63"/>
+      <c r="B681" s="66"/>
+      <c r="D681" s="62"/>
       <c r="G681" s="21"/>
     </row>
     <row r="682" spans="2:7">
-      <c r="B682" s="67"/>
-      <c r="D682" s="63"/>
+      <c r="B682" s="66"/>
+      <c r="D682" s="62"/>
       <c r="G682" s="21"/>
     </row>
     <row r="683" spans="2:7">
-      <c r="B683" s="67"/>
-      <c r="D683" s="63"/>
+      <c r="B683" s="66"/>
+      <c r="D683" s="62"/>
       <c r="G683" s="21"/>
     </row>
     <row r="684" spans="2:7">
-      <c r="B684" s="67"/>
-      <c r="D684" s="63"/>
+      <c r="B684" s="66"/>
+      <c r="D684" s="62"/>
       <c r="G684" s="21"/>
     </row>
     <row r="685" spans="2:7">
-      <c r="B685" s="67"/>
-      <c r="D685" s="63"/>
+      <c r="B685" s="66"/>
+      <c r="D685" s="62"/>
       <c r="G685" s="21"/>
     </row>
     <row r="686" spans="2:7">
-      <c r="B686" s="67"/>
-      <c r="D686" s="63"/>
+      <c r="B686" s="66"/>
+      <c r="D686" s="62"/>
       <c r="G686" s="21"/>
     </row>
     <row r="687" spans="2:7">
-      <c r="B687" s="67"/>
-      <c r="D687" s="63"/>
+      <c r="B687" s="66"/>
+      <c r="D687" s="62"/>
       <c r="G687" s="21"/>
     </row>
     <row r="688" spans="2:7">
-      <c r="B688" s="67"/>
-      <c r="D688" s="63"/>
+      <c r="B688" s="66"/>
+      <c r="D688" s="62"/>
       <c r="G688" s="21"/>
     </row>
     <row r="689" spans="2:7">
-      <c r="B689" s="67"/>
-      <c r="D689" s="63"/>
+      <c r="B689" s="66"/>
+      <c r="D689" s="62"/>
       <c r="G689" s="21"/>
     </row>
     <row r="690" spans="2:7">
-      <c r="B690" s="67"/>
-      <c r="D690" s="63"/>
+      <c r="B690" s="66"/>
+      <c r="D690" s="62"/>
       <c r="G690" s="21"/>
     </row>
     <row r="691" spans="2:7">
-      <c r="B691" s="67"/>
-      <c r="D691" s="63"/>
+      <c r="B691" s="66"/>
+      <c r="D691" s="62"/>
       <c r="G691" s="21"/>
     </row>
     <row r="692" spans="2:7">
-      <c r="B692" s="67"/>
-      <c r="D692" s="63"/>
+      <c r="B692" s="66"/>
+      <c r="D692" s="62"/>
       <c r="G692" s="21"/>
     </row>
     <row r="693" spans="2:7">
-      <c r="B693" s="67"/>
-      <c r="D693" s="63"/>
+      <c r="B693" s="66"/>
+      <c r="D693" s="62"/>
       <c r="G693" s="21"/>
     </row>
     <row r="694" spans="2:7">
-      <c r="B694" s="67"/>
-      <c r="D694" s="63"/>
+      <c r="B694" s="66"/>
+      <c r="D694" s="62"/>
       <c r="G694" s="21"/>
     </row>
     <row r="695" spans="2:7">
-      <c r="B695" s="67"/>
-      <c r="D695" s="63"/>
+      <c r="B695" s="66"/>
+      <c r="D695" s="62"/>
       <c r="G695" s="21"/>
     </row>
     <row r="696" spans="2:7">
-      <c r="B696" s="67"/>
-      <c r="D696" s="63"/>
+      <c r="B696" s="66"/>
+      <c r="D696" s="62"/>
       <c r="G696" s="21"/>
     </row>
     <row r="697" spans="2:7">
-      <c r="B697" s="67"/>
-      <c r="D697" s="63"/>
+      <c r="B697" s="66"/>
+      <c r="D697" s="62"/>
       <c r="G697" s="21"/>
     </row>
     <row r="698" spans="2:7">
-      <c r="B698" s="67"/>
-      <c r="D698" s="63"/>
+      <c r="B698" s="66"/>
+      <c r="D698" s="62"/>
       <c r="G698" s="21"/>
     </row>
     <row r="699" spans="2:7">
-      <c r="B699" s="67"/>
-      <c r="D699" s="63"/>
+      <c r="B699" s="66"/>
+      <c r="D699" s="62"/>
       <c r="G699" s="21"/>
     </row>
     <row r="700" spans="2:7">
-      <c r="B700" s="67"/>
-      <c r="D700" s="63"/>
+      <c r="B700" s="66"/>
+      <c r="D700" s="62"/>
       <c r="G700" s="21"/>
     </row>
     <row r="701" spans="2:7">
-      <c r="B701" s="67"/>
-      <c r="D701" s="63"/>
+      <c r="B701" s="66"/>
+      <c r="D701" s="62"/>
       <c r="G701" s="21"/>
     </row>
     <row r="702" spans="2:7">
-      <c r="B702" s="67"/>
-      <c r="D702" s="63"/>
+      <c r="B702" s="66"/>
+      <c r="D702" s="62"/>
       <c r="G702" s="21"/>
     </row>
     <row r="703" spans="2:7">
-      <c r="B703" s="67"/>
-      <c r="D703" s="63"/>
+      <c r="B703" s="66"/>
+      <c r="D703" s="62"/>
       <c r="G703" s="21"/>
     </row>
     <row r="704" spans="2:7">
-      <c r="B704" s="67"/>
-      <c r="D704" s="63"/>
+      <c r="B704" s="66"/>
+      <c r="D704" s="62"/>
       <c r="G704" s="21"/>
     </row>
     <row r="705" spans="2:7">
-      <c r="B705" s="67"/>
-      <c r="D705" s="63"/>
+      <c r="B705" s="66"/>
+      <c r="D705" s="62"/>
       <c r="G705" s="21"/>
     </row>
     <row r="706" spans="2:7">
-      <c r="B706" s="67"/>
-      <c r="D706" s="63"/>
+      <c r="B706" s="66"/>
+      <c r="D706" s="62"/>
       <c r="G706" s="21"/>
     </row>
     <row r="707" spans="2:7">
-      <c r="B707" s="67"/>
-      <c r="D707" s="63"/>
+      <c r="B707" s="66"/>
+      <c r="D707" s="62"/>
       <c r="G707" s="21"/>
     </row>
     <row r="708" spans="2:7">
-      <c r="B708" s="67"/>
-      <c r="D708" s="63"/>
+      <c r="B708" s="66"/>
+      <c r="D708" s="62"/>
       <c r="G708" s="21"/>
     </row>
     <row r="709" spans="2:7">
-      <c r="B709" s="67"/>
-      <c r="D709" s="63"/>
+      <c r="B709" s="66"/>
+      <c r="D709" s="62"/>
       <c r="G709" s="21"/>
     </row>
     <row r="710" spans="2:7">
-      <c r="B710" s="67"/>
-      <c r="D710" s="63"/>
+      <c r="B710" s="66"/>
+      <c r="D710" s="62"/>
       <c r="G710" s="21"/>
     </row>
     <row r="711" spans="2:7">
-      <c r="B711" s="67"/>
-      <c r="D711" s="63"/>
+      <c r="B711" s="66"/>
+      <c r="D711" s="62"/>
       <c r="G711" s="21"/>
     </row>
     <row r="712" spans="2:7">
-      <c r="B712" s="67"/>
-      <c r="D712" s="63"/>
+      <c r="B712" s="66"/>
+      <c r="D712" s="62"/>
       <c r="G712" s="21"/>
     </row>
     <row r="713" spans="2:7">
-      <c r="B713" s="67"/>
-      <c r="D713" s="63"/>
+      <c r="B713" s="66"/>
+      <c r="D713" s="62"/>
       <c r="G713" s="21"/>
     </row>
     <row r="714" spans="2:7">
-      <c r="B714" s="67"/>
-      <c r="D714" s="63"/>
+      <c r="B714" s="66"/>
+      <c r="D714" s="62"/>
       <c r="G714" s="21"/>
     </row>
     <row r="715" spans="2:7">
-      <c r="B715" s="67"/>
-      <c r="D715" s="63"/>
+      <c r="B715" s="66"/>
+      <c r="D715" s="62"/>
       <c r="G715" s="21"/>
     </row>
     <row r="716" spans="2:7">
-      <c r="B716" s="67"/>
-      <c r="D716" s="63"/>
+      <c r="B716" s="66"/>
+      <c r="D716" s="62"/>
       <c r="G716" s="21"/>
     </row>
     <row r="717" spans="2:7">
-      <c r="B717" s="67"/>
-      <c r="D717" s="63"/>
+      <c r="B717" s="66"/>
+      <c r="D717" s="62"/>
       <c r="G717" s="21"/>
     </row>
     <row r="718" spans="2:7">
-      <c r="B718" s="67"/>
-      <c r="D718" s="63"/>
+      <c r="B718" s="66"/>
+      <c r="D718" s="62"/>
       <c r="G718" s="21"/>
     </row>
     <row r="719" spans="2:7">
-      <c r="B719" s="67"/>
-      <c r="D719" s="63"/>
+      <c r="B719" s="66"/>
+      <c r="D719" s="62"/>
       <c r="G719" s="21"/>
     </row>
     <row r="720" spans="2:7">
-      <c r="B720" s="67"/>
-      <c r="D720" s="63"/>
+      <c r="B720" s="66"/>
+      <c r="D720" s="62"/>
       <c r="G720" s="21"/>
     </row>
     <row r="721" spans="2:7">
-      <c r="B721" s="67"/>
-      <c r="D721" s="63"/>
+      <c r="B721" s="66"/>
+      <c r="D721" s="62"/>
       <c r="G721" s="21"/>
     </row>
     <row r="722" spans="2:7">
-      <c r="B722" s="67"/>
-      <c r="D722" s="63"/>
+      <c r="B722" s="66"/>
+      <c r="D722" s="62"/>
       <c r="G722" s="21"/>
     </row>
     <row r="723" spans="2:7">
-      <c r="B723" s="67"/>
-      <c r="D723" s="63"/>
+      <c r="B723" s="66"/>
+      <c r="D723" s="62"/>
       <c r="G723" s="21"/>
     </row>
     <row r="724" spans="2:7">
-      <c r="B724" s="67"/>
-      <c r="D724" s="63"/>
+      <c r="B724" s="66"/>
+      <c r="D724" s="62"/>
       <c r="G724" s="21"/>
     </row>
     <row r="725" spans="2:7">
-      <c r="B725" s="67"/>
-      <c r="D725" s="63"/>
+      <c r="B725" s="66"/>
+      <c r="D725" s="62"/>
       <c r="G725" s="21"/>
     </row>
     <row r="726" spans="2:7">
-      <c r="B726" s="67"/>
-      <c r="D726" s="63"/>
+      <c r="B726" s="66"/>
+      <c r="D726" s="62"/>
       <c r="G726" s="21"/>
     </row>
     <row r="727" spans="2:7">
-      <c r="B727" s="67"/>
-      <c r="D727" s="63"/>
+      <c r="B727" s="66"/>
+      <c r="D727" s="62"/>
       <c r="G727" s="21"/>
     </row>
     <row r="728" spans="2:7">
-      <c r="B728" s="67"/>
-      <c r="D728" s="63"/>
+      <c r="B728" s="66"/>
+      <c r="D728" s="62"/>
       <c r="G728" s="21"/>
     </row>
     <row r="729" spans="2:7">
-      <c r="B729" s="67"/>
-      <c r="D729" s="63"/>
+      <c r="B729" s="66"/>
+      <c r="D729" s="62"/>
       <c r="G729" s="21"/>
     </row>
     <row r="730" spans="2:7">
-      <c r="B730" s="67"/>
-      <c r="D730" s="63"/>
+      <c r="B730" s="66"/>
+      <c r="D730" s="62"/>
       <c r="G730" s="21"/>
     </row>
     <row r="731" spans="2:7">
-      <c r="B731" s="67"/>
-      <c r="D731" s="63"/>
+      <c r="B731" s="66"/>
+      <c r="D731" s="62"/>
       <c r="G731" s="21"/>
     </row>
     <row r="732" spans="2:7">
-      <c r="B732" s="67"/>
-      <c r="D732" s="63"/>
+      <c r="B732" s="66"/>
+      <c r="D732" s="62"/>
       <c r="G732" s="21"/>
     </row>
     <row r="733" spans="2:7">
-      <c r="B733" s="67"/>
-      <c r="D733" s="63"/>
+      <c r="B733" s="66"/>
+      <c r="D733" s="62"/>
       <c r="G733" s="21"/>
     </row>
     <row r="734" spans="2:7">
-      <c r="B734" s="67"/>
-      <c r="D734" s="63"/>
+      <c r="B734" s="66"/>
+      <c r="D734" s="62"/>
       <c r="G734" s="21"/>
     </row>
     <row r="735" spans="2:7">
-      <c r="B735" s="67"/>
-      <c r="D735" s="63"/>
+      <c r="B735" s="66"/>
+      <c r="D735" s="62"/>
       <c r="G735" s="21"/>
     </row>
     <row r="736" spans="2:7">
-      <c r="B736" s="67"/>
-      <c r="D736" s="63"/>
+      <c r="B736" s="66"/>
+      <c r="D736" s="62"/>
       <c r="G736" s="21"/>
     </row>
     <row r="737" spans="2:7">
-      <c r="B737" s="67"/>
-      <c r="D737" s="63"/>
+      <c r="B737" s="66"/>
+      <c r="D737" s="62"/>
       <c r="G737" s="21"/>
     </row>
     <row r="738" spans="2:7">
-      <c r="B738" s="67"/>
-      <c r="D738" s="63"/>
+      <c r="B738" s="66"/>
+      <c r="D738" s="62"/>
       <c r="G738" s="21"/>
     </row>
     <row r="739" spans="2:7">
-      <c r="B739" s="67"/>
-      <c r="D739" s="63"/>
+      <c r="B739" s="66"/>
+      <c r="D739" s="62"/>
       <c r="G739" s="21"/>
     </row>
     <row r="740" spans="2:7">
-      <c r="B740" s="67"/>
-      <c r="D740" s="63"/>
+      <c r="B740" s="66"/>
+      <c r="D740" s="62"/>
       <c r="G740" s="21"/>
     </row>
     <row r="741" spans="2:7">
-      <c r="B741" s="67"/>
-      <c r="D741" s="63"/>
+      <c r="B741" s="66"/>
+      <c r="D741" s="62"/>
       <c r="G741" s="21"/>
     </row>
     <row r="742" spans="2:7">
-      <c r="B742" s="67"/>
-      <c r="D742" s="63"/>
+      <c r="B742" s="66"/>
+      <c r="D742" s="62"/>
       <c r="G742" s="21"/>
     </row>
     <row r="743" spans="2:7">
-      <c r="B743" s="67"/>
-      <c r="D743" s="63"/>
+      <c r="B743" s="66"/>
+      <c r="D743" s="62"/>
       <c r="G743" s="21"/>
     </row>
     <row r="744" spans="2:7">
-      <c r="B744" s="67"/>
-      <c r="D744" s="63"/>
+      <c r="B744" s="66"/>
+      <c r="D744" s="62"/>
       <c r="G744" s="21"/>
     </row>
     <row r="745" spans="2:7">
-      <c r="B745" s="67"/>
-      <c r="D745" s="63"/>
+      <c r="B745" s="66"/>
+      <c r="D745" s="62"/>
       <c r="G745" s="21"/>
     </row>
     <row r="746" spans="2:7">
-      <c r="B746" s="67"/>
-      <c r="D746" s="63"/>
+      <c r="B746" s="66"/>
+      <c r="D746" s="62"/>
       <c r="G746" s="21"/>
     </row>
     <row r="747" spans="2:7">
-      <c r="B747" s="67"/>
-      <c r="D747" s="63"/>
+      <c r="B747" s="66"/>
+      <c r="D747" s="62"/>
       <c r="G747" s="21"/>
     </row>
     <row r="748" spans="2:7">
-      <c r="B748" s="67"/>
-      <c r="D748" s="63"/>
+      <c r="B748" s="66"/>
+      <c r="D748" s="62"/>
       <c r="G748" s="21"/>
     </row>
     <row r="749" spans="2:7">
-      <c r="B749" s="67"/>
-      <c r="D749" s="63"/>
+      <c r="B749" s="66"/>
+      <c r="D749" s="62"/>
       <c r="G749" s="21"/>
     </row>
     <row r="750" spans="2:7">
-      <c r="B750" s="67"/>
-      <c r="D750" s="63"/>
+      <c r="B750" s="66"/>
+      <c r="D750" s="62"/>
       <c r="G750" s="21"/>
     </row>
     <row r="751" spans="2:7">
-      <c r="B751" s="67"/>
-      <c r="D751" s="63"/>
+      <c r="B751" s="66"/>
+      <c r="D751" s="62"/>
       <c r="G751" s="21"/>
     </row>
     <row r="752" spans="2:7">
-      <c r="B752" s="67"/>
-      <c r="D752" s="63"/>
+      <c r="B752" s="66"/>
+      <c r="D752" s="62"/>
       <c r="G752" s="21"/>
     </row>
     <row r="753" spans="2:7">
-      <c r="B753" s="67"/>
-      <c r="D753" s="63"/>
+      <c r="B753" s="66"/>
+      <c r="D753" s="62"/>
       <c r="G753" s="21"/>
     </row>
     <row r="754" spans="2:7">
-      <c r="B754" s="67"/>
-      <c r="D754" s="63"/>
+      <c r="B754" s="66"/>
+      <c r="D754" s="62"/>
       <c r="G754" s="21"/>
     </row>
     <row r="755" spans="2:7">
-      <c r="B755" s="67"/>
-      <c r="D755" s="63"/>
+      <c r="B755" s="66"/>
+      <c r="D755" s="62"/>
       <c r="G755" s="21"/>
     </row>
     <row r="756" spans="2:7">
-      <c r="B756" s="67"/>
-      <c r="D756" s="63"/>
+      <c r="B756" s="66"/>
+      <c r="D756" s="62"/>
       <c r="G756" s="21"/>
     </row>
     <row r="757" spans="2:7">
-      <c r="B757" s="67"/>
-      <c r="D757" s="63"/>
+      <c r="B757" s="66"/>
+      <c r="D757" s="62"/>
       <c r="G757" s="21"/>
     </row>
     <row r="758" spans="2:7">
-      <c r="B758" s="67"/>
-      <c r="D758" s="63"/>
+      <c r="B758" s="66"/>
+      <c r="D758" s="62"/>
       <c r="G758" s="21"/>
     </row>
     <row r="759" spans="2:7">
-      <c r="B759" s="67"/>
-      <c r="D759" s="63"/>
+      <c r="B759" s="66"/>
+      <c r="D759" s="62"/>
       <c r="G759" s="21"/>
     </row>
     <row r="760" spans="2:7">
-      <c r="B760" s="67"/>
-      <c r="D760" s="63"/>
+      <c r="B760" s="66"/>
+      <c r="D760" s="62"/>
       <c r="G760" s="21"/>
     </row>
     <row r="761" spans="2:7">
-      <c r="B761" s="67"/>
-      <c r="D761" s="63"/>
+      <c r="B761" s="66"/>
+      <c r="D761" s="62"/>
       <c r="G761" s="21"/>
     </row>
     <row r="762" spans="2:7">
-      <c r="B762" s="67"/>
-      <c r="D762" s="63"/>
+      <c r="B762" s="66"/>
+      <c r="D762" s="62"/>
       <c r="G762" s="21"/>
     </row>
     <row r="763" spans="2:7">
-      <c r="B763" s="67"/>
-      <c r="D763" s="63"/>
+      <c r="B763" s="66"/>
+      <c r="D763" s="62"/>
       <c r="G763" s="21"/>
     </row>
     <row r="764" spans="2:7">
-      <c r="B764" s="67"/>
-      <c r="D764" s="63"/>
+      <c r="B764" s="66"/>
+      <c r="D764" s="62"/>
       <c r="G764" s="21"/>
     </row>
     <row r="765" spans="2:7">
-      <c r="B765" s="67"/>
-      <c r="D765" s="63"/>
+      <c r="B765" s="66"/>
+      <c r="D765" s="62"/>
       <c r="G765" s="21"/>
     </row>
     <row r="766" spans="2:7">
-      <c r="B766" s="67"/>
-      <c r="D766" s="63"/>
+      <c r="B766" s="66"/>
+      <c r="D766" s="62"/>
       <c r="G766" s="21"/>
     </row>
     <row r="767" spans="2:7">
-      <c r="B767" s="67"/>
-      <c r="D767" s="63"/>
+      <c r="B767" s="66"/>
+      <c r="D767" s="62"/>
       <c r="G767" s="21"/>
     </row>
     <row r="768" spans="2:7">
-      <c r="B768" s="67"/>
-      <c r="D768" s="63"/>
+      <c r="B768" s="66"/>
+      <c r="D768" s="62"/>
       <c r="G768" s="21"/>
     </row>
     <row r="769" spans="2:7">
-      <c r="B769" s="67"/>
-      <c r="D769" s="63"/>
+      <c r="B769" s="66"/>
+      <c r="D769" s="62"/>
       <c r="G769" s="21"/>
     </row>
     <row r="770" spans="2:7">
-      <c r="B770" s="67"/>
-      <c r="D770" s="63"/>
+      <c r="B770" s="66"/>
+      <c r="D770" s="62"/>
       <c r="G770" s="21"/>
     </row>
     <row r="771" spans="2:7">
-      <c r="B771" s="67"/>
-      <c r="D771" s="63"/>
+      <c r="B771" s="66"/>
+      <c r="D771" s="62"/>
       <c r="G771" s="21"/>
     </row>
     <row r="772" spans="2:7">
-      <c r="B772" s="67"/>
-      <c r="D772" s="63"/>
+      <c r="B772" s="66"/>
+      <c r="D772" s="62"/>
       <c r="G772" s="21"/>
     </row>
     <row r="773" spans="2:7">
-      <c r="B773" s="67"/>
-      <c r="D773" s="63"/>
+      <c r="B773" s="66"/>
+      <c r="D773" s="62"/>
       <c r="G773" s="21"/>
     </row>
     <row r="774" spans="2:7">
-      <c r="B774" s="67"/>
-      <c r="D774" s="63"/>
+      <c r="B774" s="66"/>
+      <c r="D774" s="62"/>
       <c r="G774" s="21"/>
     </row>
     <row r="775" spans="2:7">
-      <c r="B775" s="67"/>
-      <c r="D775" s="63"/>
+      <c r="B775" s="66"/>
+      <c r="D775" s="62"/>
       <c r="G775" s="21"/>
     </row>
     <row r="776" spans="2:7">
-      <c r="B776" s="67"/>
-      <c r="D776" s="63"/>
+      <c r="B776" s="66"/>
+      <c r="D776" s="62"/>
       <c r="G776" s="21"/>
     </row>
     <row r="777" spans="2:7">
-      <c r="B777" s="67"/>
-      <c r="D777" s="63"/>
+      <c r="B777" s="66"/>
+      <c r="D777" s="62"/>
       <c r="G777" s="21"/>
     </row>
     <row r="778" spans="2:7">
-      <c r="B778" s="67"/>
-      <c r="D778" s="63"/>
+      <c r="B778" s="66"/>
+      <c r="D778" s="62"/>
       <c r="G778" s="21"/>
     </row>
     <row r="779" spans="2:7">
-      <c r="B779" s="67"/>
-      <c r="D779" s="63"/>
+      <c r="B779" s="66"/>
+      <c r="D779" s="62"/>
       <c r="G779" s="21"/>
     </row>
     <row r="780" spans="2:7">
-      <c r="B780" s="67"/>
-      <c r="D780" s="63"/>
+      <c r="B780" s="66"/>
+      <c r="D780" s="62"/>
       <c r="G780" s="21"/>
     </row>
     <row r="781" spans="2:7">
-      <c r="B781" s="67"/>
-      <c r="D781" s="63"/>
+      <c r="B781" s="66"/>
+      <c r="D781" s="62"/>
       <c r="G781" s="21"/>
     </row>
     <row r="782" spans="2:7">
-      <c r="B782" s="67"/>
-      <c r="D782" s="63"/>
+      <c r="B782" s="66"/>
+      <c r="D782" s="62"/>
       <c r="G782" s="21"/>
     </row>
     <row r="783" spans="2:7">
-      <c r="B783" s="67"/>
-      <c r="D783" s="63"/>
+      <c r="B783" s="66"/>
+      <c r="D783" s="62"/>
       <c r="G783" s="21"/>
     </row>
     <row r="784" spans="2:7">
-      <c r="B784" s="67"/>
-      <c r="D784" s="63"/>
+      <c r="B784" s="66"/>
+      <c r="D784" s="62"/>
       <c r="G784" s="21"/>
     </row>
     <row r="785" spans="2:7">
-      <c r="B785" s="67"/>
-      <c r="D785" s="63"/>
+      <c r="B785" s="66"/>
+      <c r="D785" s="62"/>
       <c r="G785" s="21"/>
     </row>
     <row r="786" spans="2:7">
-      <c r="B786" s="67"/>
-      <c r="D786" s="63"/>
+      <c r="B786" s="66"/>
+      <c r="D786" s="62"/>
       <c r="G786" s="21"/>
     </row>
     <row r="787" spans="2:7">
-      <c r="B787" s="67"/>
-      <c r="D787" s="63"/>
+      <c r="B787" s="66"/>
+      <c r="D787" s="62"/>
       <c r="G787" s="21"/>
     </row>
     <row r="788" spans="2:7">
-      <c r="B788" s="67"/>
-      <c r="D788" s="63"/>
+      <c r="B788" s="66"/>
+      <c r="D788" s="62"/>
       <c r="G788" s="21"/>
     </row>
     <row r="789" spans="2:7">
-      <c r="B789" s="67"/>
-      <c r="D789" s="63"/>
+      <c r="B789" s="66"/>
+      <c r="D789" s="62"/>
       <c r="G789" s="21"/>
     </row>
     <row r="790" spans="2:7">
-      <c r="B790" s="67"/>
-      <c r="D790" s="63"/>
+      <c r="B790" s="66"/>
+      <c r="D790" s="62"/>
       <c r="G790" s="21"/>
     </row>
     <row r="791" spans="2:7">
-      <c r="B791" s="67"/>
-      <c r="D791" s="63"/>
+      <c r="B791" s="66"/>
+      <c r="D791" s="62"/>
       <c r="G791" s="21"/>
     </row>
     <row r="792" spans="2:7">
-      <c r="B792" s="67"/>
-      <c r="D792" s="63"/>
+      <c r="B792" s="66"/>
+      <c r="D792" s="62"/>
       <c r="G792" s="21"/>
     </row>
     <row r="793" spans="2:7">
-      <c r="B793" s="67"/>
-      <c r="D793" s="63"/>
+      <c r="B793" s="66"/>
+      <c r="D793" s="62"/>
       <c r="G793" s="21"/>
     </row>
     <row r="794" spans="2:7">
-      <c r="B794" s="67"/>
-      <c r="D794" s="63"/>
+      <c r="B794" s="66"/>
+      <c r="D794" s="62"/>
       <c r="G794" s="21"/>
     </row>
     <row r="795" spans="2:7">
-      <c r="B795" s="67"/>
-      <c r="D795" s="63"/>
+      <c r="B795" s="66"/>
+      <c r="D795" s="62"/>
       <c r="G795" s="21"/>
     </row>
     <row r="796" spans="2:7">
-      <c r="B796" s="67"/>
-      <c r="D796" s="63"/>
+      <c r="B796" s="66"/>
+      <c r="D796" s="62"/>
       <c r="G796" s="21"/>
     </row>
     <row r="797" spans="2:7">
-      <c r="B797" s="67"/>
-      <c r="D797" s="63"/>
+      <c r="B797" s="66"/>
+      <c r="D797" s="62"/>
       <c r="G797" s="21"/>
     </row>
     <row r="798" spans="2:7">
-      <c r="B798" s="67"/>
-      <c r="D798" s="63"/>
+      <c r="B798" s="66"/>
+      <c r="D798" s="62"/>
       <c r="G798" s="21"/>
     </row>
     <row r="799" spans="2:7">
-      <c r="B799" s="67"/>
-      <c r="D799" s="63"/>
+      <c r="B799" s="66"/>
+      <c r="D799" s="62"/>
       <c r="G799" s="21"/>
     </row>
     <row r="800" spans="2:7">
-      <c r="B800" s="67"/>
-      <c r="D800" s="63"/>
+      <c r="B800" s="66"/>
+      <c r="D800" s="62"/>
       <c r="G800" s="21"/>
     </row>
     <row r="801" spans="2:7">
-      <c r="B801" s="67"/>
-      <c r="D801" s="63"/>
+      <c r="B801" s="66"/>
+      <c r="D801" s="62"/>
       <c r="G801" s="21"/>
     </row>
     <row r="802" spans="2:7">
-      <c r="B802" s="67"/>
-      <c r="D802" s="63"/>
+      <c r="B802" s="66"/>
+      <c r="D802" s="62"/>
       <c r="G802" s="21"/>
     </row>
     <row r="803" spans="2:7">
-      <c r="B803" s="67"/>
-      <c r="D803" s="63"/>
+      <c r="B803" s="66"/>
+      <c r="D803" s="62"/>
       <c r="G803" s="21"/>
     </row>
     <row r="804" spans="2:7">
-      <c r="B804" s="67"/>
-      <c r="D804" s="63"/>
+      <c r="B804" s="66"/>
+      <c r="D804" s="62"/>
       <c r="G804" s="21"/>
     </row>
     <row r="805" spans="2:7">
-      <c r="B805" s="67"/>
-      <c r="D805" s="63"/>
+      <c r="B805" s="66"/>
+      <c r="D805" s="62"/>
       <c r="G805" s="21"/>
     </row>
     <row r="806" spans="2:7">
-      <c r="B806" s="67"/>
-      <c r="D806" s="63"/>
+      <c r="B806" s="66"/>
+      <c r="D806" s="62"/>
       <c r="G806" s="21"/>
     </row>
     <row r="807" spans="2:7">
-      <c r="B807" s="67"/>
-      <c r="D807" s="63"/>
+      <c r="B807" s="66"/>
+      <c r="D807" s="62"/>
       <c r="G807" s="21"/>
     </row>
     <row r="808" spans="2:7">
-      <c r="B808" s="67"/>
-      <c r="D808" s="63"/>
+      <c r="B808" s="66"/>
+      <c r="D808" s="62"/>
       <c r="G808" s="21"/>
     </row>
     <row r="809" spans="2:7">
-      <c r="B809" s="67"/>
-      <c r="D809" s="63"/>
+      <c r="B809" s="66"/>
+      <c r="D809" s="62"/>
       <c r="G809" s="21"/>
     </row>
     <row r="810" spans="2:7">
-      <c r="B810" s="67"/>
-      <c r="D810" s="63"/>
+      <c r="B810" s="66"/>
+      <c r="D810" s="62"/>
       <c r="G810" s="21"/>
     </row>
     <row r="811" spans="2:7">
-      <c r="B811" s="67"/>
-      <c r="D811" s="63"/>
+      <c r="B811" s="66"/>
+      <c r="D811" s="62"/>
       <c r="G811" s="21"/>
     </row>
     <row r="812" spans="2:7">
-      <c r="B812" s="67"/>
-      <c r="D812" s="63"/>
+      <c r="B812" s="66"/>
+      <c r="D812" s="62"/>
       <c r="G812" s="21"/>
     </row>
     <row r="813" spans="2:7">
-      <c r="B813" s="67"/>
-      <c r="D813" s="63"/>
+      <c r="B813" s="66"/>
+      <c r="D813" s="62"/>
       <c r="G813" s="21"/>
     </row>
     <row r="814" spans="2:7">
-      <c r="B814" s="67"/>
-      <c r="D814" s="63"/>
+      <c r="B814" s="66"/>
+      <c r="D814" s="62"/>
       <c r="G814" s="21"/>
     </row>
     <row r="815" spans="2:7">
-      <c r="B815" s="67"/>
-      <c r="D815" s="63"/>
+      <c r="B815" s="66"/>
+      <c r="D815" s="62"/>
       <c r="G815" s="21"/>
     </row>
     <row r="816" spans="2:7">
-      <c r="B816" s="67"/>
-      <c r="D816" s="63"/>
+      <c r="B816" s="66"/>
+      <c r="D816" s="62"/>
       <c r="G816" s="21"/>
     </row>
     <row r="817" spans="2:7">
-      <c r="B817" s="67"/>
-      <c r="D817" s="63"/>
+      <c r="B817" s="66"/>
+      <c r="D817" s="62"/>
       <c r="G817" s="21"/>
     </row>
     <row r="818" spans="2:7">
-      <c r="B818" s="67"/>
-      <c r="D818" s="63"/>
+      <c r="B818" s="66"/>
+      <c r="D818" s="62"/>
       <c r="G818" s="21"/>
     </row>
     <row r="819" spans="2:7">
-      <c r="B819" s="67"/>
-      <c r="D819" s="63"/>
+      <c r="B819" s="66"/>
+      <c r="D819" s="62"/>
       <c r="G819" s="21"/>
     </row>
     <row r="820" spans="2:7">
-      <c r="B820" s="67"/>
-      <c r="D820" s="63"/>
+      <c r="B820" s="66"/>
+      <c r="D820" s="62"/>
       <c r="G820" s="21"/>
     </row>
     <row r="821" spans="2:7">
-      <c r="B821" s="67"/>
-      <c r="D821" s="63"/>
+      <c r="B821" s="66"/>
+      <c r="D821" s="62"/>
       <c r="G821" s="21"/>
     </row>
     <row r="822" spans="2:7">
-      <c r="B822" s="67"/>
-      <c r="D822" s="63"/>
+      <c r="B822" s="66"/>
+      <c r="D822" s="62"/>
       <c r="G822" s="21"/>
     </row>
     <row r="823" spans="2:7">
-      <c r="B823" s="67"/>
-      <c r="D823" s="63"/>
+      <c r="B823" s="66"/>
+      <c r="D823" s="62"/>
       <c r="G823" s="21"/>
     </row>
     <row r="824" spans="2:7">
-      <c r="B824" s="67"/>
-      <c r="D824" s="63"/>
+      <c r="B824" s="66"/>
+      <c r="D824" s="62"/>
       <c r="G824" s="21"/>
     </row>
     <row r="825" spans="2:7">
-      <c r="B825" s="67"/>
-      <c r="D825" s="63"/>
+      <c r="B825" s="66"/>
+      <c r="D825" s="62"/>
       <c r="G825" s="21"/>
     </row>
     <row r="826" spans="2:7">
-      <c r="B826" s="67"/>
-      <c r="D826" s="63"/>
+      <c r="B826" s="66"/>
+      <c r="D826" s="62"/>
       <c r="G826" s="21"/>
     </row>
     <row r="827" spans="2:7">
-      <c r="B827" s="67"/>
-      <c r="D827" s="63"/>
+      <c r="B827" s="66"/>
+      <c r="D827" s="62"/>
       <c r="G827" s="21"/>
     </row>
     <row r="828" spans="2:7">
-      <c r="B828" s="67"/>
-      <c r="D828" s="63"/>
+      <c r="B828" s="66"/>
+      <c r="D828" s="62"/>
       <c r="G828" s="21"/>
     </row>
     <row r="829" spans="2:7">
-      <c r="B829" s="67"/>
-      <c r="D829" s="63"/>
+      <c r="B829" s="66"/>
+      <c r="D829" s="62"/>
       <c r="G829" s="21"/>
     </row>
     <row r="830" spans="2:7">
-      <c r="B830" s="67"/>
-      <c r="D830" s="63"/>
+      <c r="B830" s="66"/>
+      <c r="D830" s="62"/>
       <c r="G830" s="21"/>
     </row>
     <row r="831" spans="2:7">
-      <c r="B831" s="67"/>
-      <c r="D831" s="63"/>
+      <c r="B831" s="66"/>
+      <c r="D831" s="62"/>
       <c r="G831" s="21"/>
     </row>
     <row r="832" spans="2:7">
-      <c r="B832" s="67"/>
-      <c r="D832" s="63"/>
+      <c r="B832" s="66"/>
+      <c r="D832" s="62"/>
       <c r="G832" s="21"/>
     </row>
     <row r="833" spans="2:7">
-      <c r="B833" s="67"/>
-      <c r="D833" s="63"/>
+      <c r="B833" s="66"/>
+      <c r="D833" s="62"/>
       <c r="G833" s="21"/>
     </row>
     <row r="834" spans="2:7">
-      <c r="B834" s="67"/>
-      <c r="D834" s="63"/>
+      <c r="B834" s="66"/>
+      <c r="D834" s="62"/>
       <c r="G834" s="21"/>
     </row>
     <row r="835" spans="2:7">
-      <c r="B835" s="67"/>
-      <c r="D835" s="63"/>
+      <c r="B835" s="66"/>
+      <c r="D835" s="62"/>
       <c r="G835" s="21"/>
     </row>
     <row r="836" spans="2:7">
-      <c r="B836" s="67"/>
-      <c r="D836" s="63"/>
+      <c r="B836" s="66"/>
+      <c r="D836" s="62"/>
       <c r="G836" s="21"/>
     </row>
     <row r="837" spans="2:7">
-      <c r="B837" s="67"/>
-      <c r="D837" s="63"/>
+      <c r="B837" s="66"/>
+      <c r="D837" s="62"/>
       <c r="G837" s="21"/>
     </row>
     <row r="838" spans="2:7">
-      <c r="B838" s="67"/>
-      <c r="D838" s="63"/>
+      <c r="B838" s="66"/>
+      <c r="D838" s="62"/>
       <c r="G838" s="21"/>
     </row>
     <row r="839" spans="2:7">
-      <c r="B839" s="67"/>
-      <c r="D839" s="63"/>
+      <c r="B839" s="66"/>
+      <c r="D839" s="62"/>
       <c r="G839" s="21"/>
     </row>
     <row r="840" spans="2:7">
-      <c r="B840" s="67"/>
-      <c r="D840" s="63"/>
+      <c r="B840" s="66"/>
+      <c r="D840" s="62"/>
       <c r="G840" s="21"/>
     </row>
     <row r="841" spans="2:7">
-      <c r="B841" s="67"/>
-      <c r="D841" s="63"/>
+      <c r="B841" s="66"/>
+      <c r="D841" s="62"/>
       <c r="G841" s="21"/>
     </row>
     <row r="842" spans="2:7">
-      <c r="B842" s="67"/>
-      <c r="D842" s="63"/>
+      <c r="B842" s="66"/>
+      <c r="D842" s="62"/>
       <c r="G842" s="21"/>
     </row>
     <row r="843" spans="2:7">
-      <c r="B843" s="67"/>
-      <c r="D843" s="63"/>
+      <c r="B843" s="66"/>
+      <c r="D843" s="62"/>
       <c r="G843" s="21"/>
     </row>
     <row r="844" spans="2:7">
-      <c r="B844" s="67"/>
-      <c r="D844" s="63"/>
+      <c r="B844" s="66"/>
+      <c r="D844" s="62"/>
       <c r="G844" s="21"/>
     </row>
     <row r="845" spans="2:7">
-      <c r="B845" s="67"/>
-      <c r="D845" s="63"/>
+      <c r="B845" s="66"/>
+      <c r="D845" s="62"/>
       <c r="G845" s="21"/>
     </row>
     <row r="846" spans="2:7">
-      <c r="B846" s="67"/>
-      <c r="D846" s="63"/>
+      <c r="B846" s="66"/>
+      <c r="D846" s="62"/>
       <c r="G846" s="21"/>
     </row>
     <row r="847" spans="2:7">
-      <c r="B847" s="67"/>
-      <c r="D847" s="63"/>
+      <c r="B847" s="66"/>
+      <c r="D847" s="62"/>
       <c r="G847" s="21"/>
     </row>
     <row r="848" spans="2:7">
-      <c r="B848" s="67"/>
-      <c r="D848" s="63"/>
+      <c r="B848" s="66"/>
+      <c r="D848" s="62"/>
       <c r="G848" s="21"/>
     </row>
     <row r="849" spans="2:7">
-      <c r="B849" s="67"/>
-      <c r="D849" s="63"/>
+      <c r="B849" s="66"/>
+      <c r="D849" s="62"/>
       <c r="G849" s="21"/>
     </row>
     <row r="850" spans="2:7">
-      <c r="B850" s="67"/>
-      <c r="D850" s="63"/>
+      <c r="B850" s="66"/>
+      <c r="D850" s="62"/>
       <c r="G850" s="21"/>
     </row>
     <row r="851" spans="2:7">
-      <c r="B851" s="67"/>
-      <c r="D851" s="63"/>
+      <c r="B851" s="66"/>
+      <c r="D851" s="62"/>
       <c r="G851" s="21"/>
     </row>
     <row r="852" spans="2:7">
-      <c r="B852" s="67"/>
-      <c r="D852" s="63"/>
+      <c r="B852" s="66"/>
+      <c r="D852" s="62"/>
       <c r="G852" s="21"/>
     </row>
     <row r="853" spans="2:7">
-      <c r="B853" s="67"/>
-      <c r="D853" s="63"/>
+      <c r="B853" s="66"/>
+      <c r="D853" s="62"/>
       <c r="G853" s="21"/>
     </row>
     <row r="854" spans="2:7">
-      <c r="B854" s="67"/>
-      <c r="D854" s="63"/>
+      <c r="B854" s="66"/>
+      <c r="D854" s="62"/>
       <c r="G854" s="21"/>
     </row>
     <row r="855" spans="2:7">
-      <c r="B855" s="67"/>
-      <c r="D855" s="63"/>
+      <c r="B855" s="66"/>
+      <c r="D855" s="62"/>
       <c r="G855" s="21"/>
     </row>
     <row r="856" spans="2:7">
-      <c r="B856" s="67"/>
-      <c r="D856" s="63"/>
+      <c r="B856" s="66"/>
+      <c r="D856" s="62"/>
       <c r="G856" s="21"/>
     </row>
     <row r="857" spans="2:7">
-      <c r="B857" s="67"/>
-      <c r="D857" s="63"/>
+      <c r="B857" s="66"/>
+      <c r="D857" s="62"/>
       <c r="G857" s="21"/>
     </row>
     <row r="858" spans="2:7">
-      <c r="B858" s="67"/>
-      <c r="D858" s="63"/>
+      <c r="B858" s="66"/>
+      <c r="D858" s="62"/>
       <c r="G858" s="21"/>
     </row>
     <row r="859" spans="2:7">
-      <c r="B859" s="67"/>
-      <c r="D859" s="63"/>
+      <c r="B859" s="66"/>
+      <c r="D859" s="62"/>
       <c r="G859" s="21"/>
     </row>
     <row r="860" spans="2:7">
-      <c r="B860" s="67"/>
-      <c r="D860" s="63"/>
+      <c r="B860" s="66"/>
+      <c r="D860" s="62"/>
       <c r="G860" s="21"/>
     </row>
     <row r="861" spans="2:7">
-      <c r="B861" s="67"/>
-      <c r="D861" s="63"/>
+      <c r="B861" s="66"/>
+      <c r="D861" s="62"/>
       <c r="G861" s="21"/>
     </row>
     <row r="862" spans="2:7">
-      <c r="B862" s="67"/>
-      <c r="D862" s="63"/>
+      <c r="B862" s="66"/>
+      <c r="D862" s="62"/>
       <c r="G862" s="21"/>
     </row>
     <row r="863" spans="2:7">
-      <c r="B863" s="67"/>
-      <c r="D863" s="63"/>
+      <c r="B863" s="66"/>
+      <c r="D863" s="62"/>
       <c r="G863" s="21"/>
     </row>
     <row r="864" spans="2:7">
-      <c r="B864" s="67"/>
-      <c r="D864" s="63"/>
+      <c r="B864" s="66"/>
+      <c r="D864" s="62"/>
       <c r="G864" s="21"/>
     </row>
     <row r="865" spans="2:7">
-      <c r="B865" s="67"/>
-      <c r="D865" s="63"/>
+      <c r="B865" s="66"/>
+      <c r="D865" s="62"/>
       <c r="G865" s="21"/>
     </row>
     <row r="866" spans="2:7">
-      <c r="B866" s="67"/>
-      <c r="D866" s="63"/>
+      <c r="B866" s="66"/>
+      <c r="D866" s="62"/>
       <c r="G866" s="21"/>
     </row>
     <row r="867" spans="2:7">
-      <c r="B867" s="67"/>
-      <c r="D867" s="63"/>
+      <c r="B867" s="66"/>
+      <c r="D867" s="62"/>
       <c r="G867" s="21"/>
     </row>
     <row r="868" spans="2:7">
-      <c r="B868" s="67"/>
-      <c r="D868" s="63"/>
+      <c r="B868" s="66"/>
+      <c r="D868" s="62"/>
       <c r="G868" s="21"/>
     </row>
     <row r="869" spans="2:7">
-      <c r="B869" s="67"/>
-      <c r="D869" s="63"/>
+      <c r="B869" s="66"/>
+      <c r="D869" s="62"/>
       <c r="G869" s="21"/>
     </row>
     <row r="870" spans="2:7">
-      <c r="B870" s="67"/>
-      <c r="D870" s="63"/>
+      <c r="B870" s="66"/>
+      <c r="D870" s="62"/>
       <c r="G870" s="21"/>
     </row>
     <row r="871" spans="2:7">
-      <c r="B871" s="67"/>
-      <c r="D871" s="63"/>
+      <c r="B871" s="66"/>
+      <c r="D871" s="62"/>
       <c r="G871" s="21"/>
     </row>
     <row r="872" spans="2:7">
-      <c r="B872" s="67"/>
-      <c r="D872" s="63"/>
+      <c r="B872" s="66"/>
+      <c r="D872" s="62"/>
       <c r="G872" s="21"/>
     </row>
     <row r="873" spans="2:7">
-      <c r="B873" s="67"/>
-      <c r="D873" s="63"/>
+      <c r="B873" s="66"/>
+      <c r="D873" s="62"/>
       <c r="G873" s="21"/>
     </row>
     <row r="874" spans="2:7">
-      <c r="B874" s="67"/>
-      <c r="D874" s="63"/>
+      <c r="B874" s="66"/>
+      <c r="D874" s="62"/>
       <c r="G874" s="21"/>
     </row>
     <row r="875" spans="2:7">
-      <c r="B875" s="67"/>
-      <c r="D875" s="63"/>
+      <c r="B875" s="66"/>
+      <c r="D875" s="62"/>
       <c r="G875" s="21"/>
     </row>
     <row r="876" spans="2:7">
-      <c r="B876" s="67"/>
-      <c r="D876" s="63"/>
+      <c r="B876" s="66"/>
+      <c r="D876" s="62"/>
       <c r="G876" s="21"/>
     </row>
     <row r="877" spans="2:7">
-      <c r="B877" s="67"/>
-      <c r="D877" s="63"/>
+      <c r="B877" s="66"/>
+      <c r="D877" s="62"/>
       <c r="G877" s="21"/>
     </row>
     <row r="878" spans="2:7">
-      <c r="B878" s="67"/>
-      <c r="D878" s="63"/>
+      <c r="B878" s="66"/>
+      <c r="D878" s="62"/>
       <c r="G878" s="21"/>
     </row>
     <row r="879" spans="2:7">
-      <c r="B879" s="67"/>
-      <c r="D879" s="63"/>
+      <c r="B879" s="66"/>
+      <c r="D879" s="62"/>
       <c r="G879" s="21"/>
     </row>
     <row r="880" spans="2:7">
-      <c r="B880" s="67"/>
-      <c r="D880" s="63"/>
+      <c r="B880" s="66"/>
+      <c r="D880" s="62"/>
       <c r="G880" s="21"/>
     </row>
     <row r="881" spans="2:7">
-      <c r="B881" s="67"/>
-      <c r="D881" s="63"/>
+      <c r="B881" s="66"/>
+      <c r="D881" s="62"/>
       <c r="G881" s="21"/>
     </row>
     <row r="882" spans="2:7">
-      <c r="B882" s="67"/>
-      <c r="D882" s="63"/>
+      <c r="B882" s="66"/>
+      <c r="D882" s="62"/>
       <c r="G882" s="21"/>
     </row>
     <row r="883" spans="2:7">
-      <c r="B883" s="67"/>
-      <c r="D883" s="63"/>
+      <c r="B883" s="66"/>
+      <c r="D883" s="62"/>
       <c r="G883" s="21"/>
     </row>
     <row r="884" spans="2:7">
-      <c r="B884" s="67"/>
-      <c r="D884" s="63"/>
+      <c r="B884" s="66"/>
+      <c r="D884" s="62"/>
       <c r="G884" s="21"/>
     </row>
     <row r="885" spans="2:7">
-      <c r="B885" s="67"/>
-      <c r="D885" s="63"/>
+      <c r="B885" s="66"/>
+      <c r="D885" s="62"/>
       <c r="G885" s="21"/>
     </row>
     <row r="886" spans="2:7">
-      <c r="B886" s="67"/>
-      <c r="D886" s="63"/>
+      <c r="B886" s="66"/>
+      <c r="D886" s="62"/>
       <c r="G886" s="21"/>
     </row>
     <row r="887" spans="2:7">
-      <c r="B887" s="67"/>
-      <c r="D887" s="63"/>
+      <c r="B887" s="66"/>
+      <c r="D887" s="62"/>
       <c r="G887" s="21"/>
     </row>
     <row r="888" spans="2:7">
-      <c r="B888" s="67"/>
-      <c r="D888" s="63"/>
+      <c r="B888" s="66"/>
+      <c r="D888" s="62"/>
       <c r="G888" s="21"/>
     </row>
     <row r="889" spans="2:7">
-      <c r="B889" s="67"/>
-      <c r="D889" s="63"/>
+      <c r="B889" s="66"/>
+      <c r="D889" s="62"/>
       <c r="G889" s="21"/>
     </row>
     <row r="890" spans="2:7">
-      <c r="B890" s="67"/>
-      <c r="D890" s="63"/>
+      <c r="B890" s="66"/>
+      <c r="D890" s="62"/>
       <c r="G890" s="21"/>
     </row>
     <row r="891" spans="2:7">
-      <c r="B891" s="67"/>
-      <c r="D891" s="63"/>
+      <c r="B891" s="66"/>
+      <c r="D891" s="62"/>
       <c r="G891" s="21"/>
     </row>
     <row r="892" spans="2:7">
-      <c r="B892" s="67"/>
-      <c r="D892" s="63"/>
+      <c r="B892" s="66"/>
+      <c r="D892" s="62"/>
       <c r="G892" s="21"/>
     </row>
     <row r="893" spans="2:7">
-      <c r="B893" s="67"/>
-      <c r="D893" s="63"/>
+      <c r="B893" s="66"/>
+      <c r="D893" s="62"/>
       <c r="G893" s="21"/>
     </row>
     <row r="894" spans="2:7">
-      <c r="B894" s="67"/>
-      <c r="D894" s="63"/>
+      <c r="B894" s="66"/>
+      <c r="D894" s="62"/>
       <c r="G894" s="21"/>
     </row>
     <row r="895" spans="2:7">
-      <c r="B895" s="67"/>
-      <c r="D895" s="63"/>
+      <c r="B895" s="66"/>
+      <c r="D895" s="62"/>
       <c r="G895" s="21"/>
     </row>
     <row r="896" spans="2:7">
-      <c r="B896" s="67"/>
-      <c r="D896" s="63"/>
+      <c r="B896" s="66"/>
+      <c r="D896" s="62"/>
       <c r="G896" s="21"/>
     </row>
     <row r="897" spans="2:7">
-      <c r="B897" s="67"/>
-      <c r="D897" s="63"/>
+      <c r="B897" s="66"/>
+      <c r="D897" s="62"/>
       <c r="G897" s="21"/>
     </row>
     <row r="898" spans="2:7">
-      <c r="B898" s="67"/>
-      <c r="D898" s="63"/>
+      <c r="B898" s="66"/>
+      <c r="D898" s="62"/>
       <c r="G898" s="21"/>
     </row>
     <row r="899" spans="2:7">
-      <c r="B899" s="67"/>
-      <c r="D899" s="63"/>
+      <c r="B899" s="66"/>
+      <c r="D899" s="62"/>
       <c r="G899" s="21"/>
     </row>
     <row r="900" spans="2:7">
-      <c r="B900" s="67"/>
-      <c r="D900" s="63"/>
+      <c r="B900" s="66"/>
+      <c r="D900" s="62"/>
       <c r="G900" s="21"/>
     </row>
     <row r="901" spans="2:7">
-      <c r="B901" s="67"/>
-      <c r="D901" s="63"/>
+      <c r="B901" s="66"/>
+      <c r="D901" s="62"/>
       <c r="G901" s="21"/>
     </row>
     <row r="902" spans="2:7">
-      <c r="B902" s="67"/>
-      <c r="D902" s="63"/>
+      <c r="B902" s="66"/>
+      <c r="D902" s="62"/>
       <c r="G902" s="21"/>
     </row>
     <row r="903" spans="2:7">
-      <c r="B903" s="67"/>
-      <c r="D903" s="63"/>
+      <c r="B903" s="66"/>
+      <c r="D903" s="62"/>
       <c r="G903" s="21"/>
     </row>
     <row r="904" spans="2:7">
-      <c r="B904" s="67"/>
-      <c r="D904" s="63"/>
+      <c r="B904" s="66"/>
+      <c r="D904" s="62"/>
       <c r="G904" s="21"/>
     </row>
     <row r="905" spans="2:7">
-      <c r="B905" s="67"/>
-      <c r="D905" s="63"/>
+      <c r="B905" s="66"/>
+      <c r="D905" s="62"/>
       <c r="G905" s="21"/>
     </row>
     <row r="906" spans="2:7">
-      <c r="B906" s="67"/>
-      <c r="D906" s="63"/>
+      <c r="B906" s="66"/>
+      <c r="D906" s="62"/>
       <c r="G906" s="21"/>
     </row>
     <row r="907" spans="2:7">
-      <c r="B907" s="67"/>
-      <c r="D907" s="63"/>
+      <c r="B907" s="66"/>
+      <c r="D907" s="62"/>
       <c r="G907" s="21"/>
     </row>
     <row r="908" spans="2:7">
-      <c r="B908" s="67"/>
-      <c r="D908" s="63"/>
+      <c r="B908" s="66"/>
+      <c r="D908" s="62"/>
       <c r="G908" s="21"/>
     </row>
     <row r="909" spans="2:7">
-      <c r="B909" s="67"/>
-      <c r="D909" s="63"/>
+      <c r="B909" s="66"/>
+      <c r="D909" s="62"/>
       <c r="G909" s="21"/>
     </row>
     <row r="910" spans="2:7">
-      <c r="B910" s="67"/>
-      <c r="D910" s="63"/>
+      <c r="B910" s="66"/>
+      <c r="D910" s="62"/>
       <c r="G910" s="21"/>
     </row>
     <row r="911" spans="2:7">
-      <c r="B911" s="67"/>
-      <c r="D911" s="63"/>
+      <c r="B911" s="66"/>
+      <c r="D911" s="62"/>
       <c r="G911" s="21"/>
     </row>
     <row r="912" spans="2:7">
-      <c r="B912" s="67"/>
-      <c r="D912" s="63"/>
+      <c r="B912" s="66"/>
+      <c r="D912" s="62"/>
       <c r="G912" s="21"/>
     </row>
     <row r="913" spans="2:7">
-      <c r="B913" s="67"/>
-      <c r="D913" s="63"/>
+      <c r="B913" s="66"/>
+      <c r="D913" s="62"/>
       <c r="G913" s="21"/>
     </row>
     <row r="914" spans="2:7">
-      <c r="B914" s="67"/>
-      <c r="D914" s="63"/>
+      <c r="B914" s="66"/>
+      <c r="D914" s="62"/>
       <c r="G914" s="21"/>
     </row>
     <row r="915" spans="2:7">
-      <c r="B915" s="67"/>
-      <c r="D915" s="63"/>
+      <c r="B915" s="66"/>
+      <c r="D915" s="62"/>
       <c r="G915" s="21"/>
     </row>
     <row r="916" spans="2:7">
-      <c r="B916" s="67"/>
-      <c r="D916" s="63"/>
+      <c r="B916" s="66"/>
+      <c r="D916" s="62"/>
       <c r="G916" s="21"/>
     </row>
     <row r="917" spans="2:7">
-      <c r="B917" s="67"/>
-      <c r="D917" s="63"/>
+      <c r="B917" s="66"/>
+      <c r="D917" s="62"/>
       <c r="G917" s="21"/>
     </row>
     <row r="918" spans="2:7">
-      <c r="B918" s="67"/>
-      <c r="D918" s="63"/>
+      <c r="B918" s="66"/>
+      <c r="D918" s="62"/>
       <c r="G918" s="21"/>
     </row>
     <row r="919" spans="2:7">
-      <c r="B919" s="67"/>
-      <c r="D919" s="63"/>
+      <c r="B919" s="66"/>
+      <c r="D919" s="62"/>
       <c r="G919" s="21"/>
     </row>
     <row r="920" spans="2:7">
-      <c r="B920" s="67"/>
-      <c r="D920" s="63"/>
+      <c r="B920" s="66"/>
+      <c r="D920" s="62"/>
       <c r="G920" s="21"/>
     </row>
     <row r="921" spans="2:7">
-      <c r="B921" s="67"/>
-      <c r="D921" s="63"/>
+      <c r="B921" s="66"/>
+      <c r="D921" s="62"/>
       <c r="G921" s="21"/>
     </row>
     <row r="922" spans="2:7">
-      <c r="B922" s="67"/>
-      <c r="D922" s="63"/>
+      <c r="B922" s="66"/>
+      <c r="D922" s="62"/>
       <c r="G922" s="21"/>
     </row>
     <row r="923" spans="2:7">
-      <c r="B923" s="67"/>
-      <c r="D923" s="63"/>
+      <c r="B923" s="66"/>
+      <c r="D923" s="62"/>
       <c r="G923" s="21"/>
     </row>
     <row r="924" spans="2:7">
-      <c r="B924" s="67"/>
-      <c r="D924" s="63"/>
+      <c r="B924" s="66"/>
+      <c r="D924" s="62"/>
       <c r="G924" s="21"/>
     </row>
     <row r="925" spans="2:7">
-      <c r="B925" s="67"/>
-      <c r="D925" s="63"/>
+      <c r="B925" s="66"/>
+      <c r="D925" s="62"/>
       <c r="G925" s="21"/>
     </row>
     <row r="926" spans="2:7">
-      <c r="B926" s="67"/>
-      <c r="D926" s="63"/>
+      <c r="B926" s="66"/>
+      <c r="D926" s="62"/>
       <c r="G926" s="21"/>
     </row>
     <row r="927" spans="2:7">
-      <c r="B927" s="67"/>
-      <c r="D927" s="63"/>
+      <c r="B927" s="66"/>
+      <c r="D927" s="62"/>
       <c r="G927" s="21"/>
     </row>
     <row r="928" spans="2:7">
-      <c r="B928" s="67"/>
-      <c r="D928" s="63"/>
+      <c r="B928" s="66"/>
+      <c r="D928" s="62"/>
       <c r="G928" s="21"/>
     </row>
     <row r="929" spans="2:7">
-      <c r="B929" s="67"/>
-      <c r="D929" s="63"/>
+      <c r="B929" s="66"/>
+      <c r="D929" s="62"/>
       <c r="G929" s="21"/>
     </row>
     <row r="930" spans="2:7">
-      <c r="B930" s="67"/>
-      <c r="D930" s="63"/>
+      <c r="B930" s="66"/>
+      <c r="D930" s="62"/>
       <c r="G930" s="21"/>
     </row>
     <row r="931" spans="2:7">
-      <c r="B931" s="67"/>
-      <c r="D931" s="63"/>
+      <c r="B931" s="66"/>
+      <c r="D931" s="62"/>
       <c r="G931" s="21"/>
     </row>
     <row r="932" spans="2:7">
-      <c r="B932" s="67"/>
-      <c r="D932" s="63"/>
+      <c r="B932" s="66"/>
+      <c r="D932" s="62"/>
       <c r="G932" s="21"/>
     </row>
     <row r="933" spans="2:7">
-      <c r="B933" s="67"/>
-      <c r="D933" s="63"/>
+      <c r="B933" s="66"/>
+      <c r="D933" s="62"/>
       <c r="G933" s="21"/>
     </row>
     <row r="934" spans="2:7">
-      <c r="B934" s="67"/>
-      <c r="D934" s="63"/>
+      <c r="B934" s="66"/>
+      <c r="D934" s="62"/>
       <c r="G934" s="21"/>
     </row>
     <row r="935" spans="2:7">
-      <c r="B935" s="67"/>
-      <c r="D935" s="63"/>
+      <c r="B935" s="66"/>
+      <c r="D935" s="62"/>
       <c r="G935" s="21"/>
     </row>
     <row r="936" spans="2:7">
-      <c r="B936" s="67"/>
-      <c r="D936" s="63"/>
+      <c r="B936" s="66"/>
+      <c r="D936" s="62"/>
       <c r="G936" s="21"/>
     </row>
     <row r="937" spans="2:7">
-      <c r="B937" s="67"/>
-      <c r="D937" s="63"/>
+      <c r="B937" s="66"/>
+      <c r="D937" s="62"/>
       <c r="G937" s="21"/>
     </row>
     <row r="938" spans="2:7">
-      <c r="B938" s="67"/>
-      <c r="D938" s="63"/>
+      <c r="B938" s="66"/>
+      <c r="D938" s="62"/>
       <c r="G938" s="21"/>
     </row>
     <row r="939" spans="2:7">
-      <c r="B939" s="67"/>
-      <c r="D939" s="63"/>
+      <c r="B939" s="66"/>
+      <c r="D939" s="62"/>
       <c r="G939" s="21"/>
     </row>
     <row r="940" spans="2:7">
-      <c r="B940" s="67"/>
-      <c r="D940" s="63"/>
+      <c r="B940" s="66"/>
+      <c r="D940" s="62"/>
       <c r="G940" s="21"/>
     </row>
     <row r="941" spans="2:7">
-      <c r="B941" s="67"/>
-      <c r="D941" s="63"/>
+      <c r="B941" s="66"/>
+      <c r="D941" s="62"/>
       <c r="G941" s="21"/>
     </row>
     <row r="942" spans="2:7">
-      <c r="B942" s="67"/>
-      <c r="D942" s="63"/>
+      <c r="B942" s="66"/>
+      <c r="D942" s="62"/>
       <c r="G942" s="21"/>
     </row>
     <row r="943" spans="2:7">
-      <c r="B943" s="67"/>
-      <c r="D943" s="63"/>
+      <c r="B943" s="66"/>
+      <c r="D943" s="62"/>
       <c r="G943" s="21"/>
     </row>
     <row r="944" spans="2:7">
-      <c r="B944" s="67"/>
-      <c r="D944" s="63"/>
+      <c r="B944" s="66"/>
+      <c r="D944" s="62"/>
       <c r="G944" s="21"/>
     </row>
     <row r="945" spans="2:7">
-      <c r="B945" s="67"/>
-      <c r="D945" s="63"/>
+      <c r="B945" s="66"/>
+      <c r="D945" s="62"/>
       <c r="G945" s="21"/>
     </row>
     <row r="946" spans="2:7">
-      <c r="B946" s="67"/>
-      <c r="D946" s="63"/>
+      <c r="B946" s="66"/>
+      <c r="D946" s="62"/>
       <c r="G946" s="21"/>
     </row>
     <row r="947" spans="2:7">
-      <c r="B947" s="67"/>
-      <c r="D947" s="63"/>
+      <c r="B947" s="66"/>
+      <c r="D947" s="62"/>
       <c r="G947" s="21"/>
     </row>
     <row r="948" spans="2:7">
-      <c r="B948" s="67"/>
-      <c r="D948" s="63"/>
+      <c r="B948" s="66"/>
+      <c r="D948" s="62"/>
       <c r="G948" s="21"/>
     </row>
     <row r="949" spans="2:7">
-      <c r="B949" s="67"/>
-      <c r="D949" s="63"/>
+      <c r="B949" s="66"/>
+      <c r="D949" s="62"/>
       <c r="G949" s="21"/>
     </row>
     <row r="950" spans="2:7">
-      <c r="B950" s="67"/>
-      <c r="D950" s="63"/>
+      <c r="B950" s="66"/>
+      <c r="D950" s="62"/>
       <c r="G950" s="21"/>
     </row>
     <row r="951" spans="2:7">
-      <c r="B951" s="67"/>
-      <c r="D951" s="63"/>
+      <c r="B951" s="66"/>
+      <c r="D951" s="62"/>
       <c r="G951" s="21"/>
     </row>
     <row r="952" spans="2:7">
-      <c r="B952" s="67"/>
-      <c r="D952" s="63"/>
+      <c r="B952" s="66"/>
+      <c r="D952" s="62"/>
       <c r="G952" s="21"/>
     </row>
     <row r="953" spans="2:7">
-      <c r="B953" s="67"/>
-      <c r="D953" s="63"/>
+      <c r="B953" s="66"/>
+      <c r="D953" s="62"/>
       <c r="G953" s="21"/>
     </row>
     <row r="954" spans="2:7">
-      <c r="B954" s="67"/>
-      <c r="D954" s="63"/>
+      <c r="B954" s="66"/>
+      <c r="D954" s="62"/>
       <c r="G954" s="21"/>
     </row>
     <row r="955" spans="2:7">
-      <c r="B955" s="67"/>
-      <c r="D955" s="63"/>
+      <c r="B955" s="66"/>
+      <c r="D955" s="62"/>
       <c r="G955" s="21"/>
     </row>
     <row r="956" spans="2:7">
-      <c r="B956" s="67"/>
-      <c r="D956" s="63"/>
+      <c r="B956" s="66"/>
+      <c r="D956" s="62"/>
       <c r="G956" s="21"/>
     </row>
     <row r="957" spans="2:7">
-      <c r="B957" s="67"/>
-      <c r="D957" s="63"/>
+      <c r="B957" s="66"/>
+      <c r="D957" s="62"/>
       <c r="G957" s="21"/>
     </row>
     <row r="958" spans="2:7">
-      <c r="B958" s="67"/>
-      <c r="D958" s="63"/>
+      <c r="B958" s="66"/>
+      <c r="D958" s="62"/>
       <c r="G958" s="21"/>
     </row>
     <row r="959" spans="2:7">
-      <c r="B959" s="67"/>
-      <c r="D959" s="63"/>
+      <c r="B959" s="66"/>
+      <c r="D959" s="62"/>
       <c r="G959" s="21"/>
     </row>
     <row r="960" spans="2:7">
-      <c r="B960" s="67"/>
-      <c r="D960" s="63"/>
+      <c r="B960" s="66"/>
+      <c r="D960" s="62"/>
       <c r="G960" s="21"/>
     </row>
     <row r="961" spans="2:7">
-      <c r="B961" s="67"/>
-      <c r="D961" s="63"/>
+      <c r="B961" s="66"/>
+      <c r="D961" s="62"/>
       <c r="G961" s="21"/>
     </row>
     <row r="962" spans="2:7">
-      <c r="B962" s="67"/>
-      <c r="D962" s="63"/>
+      <c r="B962" s="66"/>
+      <c r="D962" s="62"/>
       <c r="G962" s="21"/>
     </row>
     <row r="963" spans="2:7">
-      <c r="B963" s="67"/>
-      <c r="D963" s="63"/>
+      <c r="B963" s="66"/>
+      <c r="D963" s="62"/>
       <c r="G963" s="21"/>
     </row>
     <row r="964" spans="2:7">
-      <c r="B964" s="67"/>
-      <c r="D964" s="63"/>
+      <c r="B964" s="66"/>
+      <c r="D964" s="62"/>
       <c r="G964" s="21"/>
     </row>
     <row r="965" spans="2:7">
-      <c r="B965" s="67"/>
-      <c r="D965" s="63"/>
+      <c r="B965" s="66"/>
+      <c r="D965" s="62"/>
       <c r="G965" s="21"/>
     </row>
     <row r="966" spans="2:7">
-      <c r="B966" s="67"/>
-      <c r="D966" s="63"/>
+      <c r="B966" s="66"/>
+      <c r="D966" s="62"/>
       <c r="G966" s="21"/>
     </row>
     <row r="967" spans="2:7">
-      <c r="B967" s="67"/>
-      <c r="D967" s="63"/>
+      <c r="B967" s="66"/>
+      <c r="D967" s="62"/>
       <c r="G967" s="21"/>
     </row>
     <row r="968" spans="2:7">
-      <c r="B968" s="67"/>
-      <c r="D968" s="63"/>
+      <c r="B968" s="66"/>
+      <c r="D968" s="62"/>
       <c r="G968" s="21"/>
     </row>
     <row r="969" spans="2:7">
-      <c r="B969" s="67"/>
-      <c r="D969" s="63"/>
+      <c r="B969" s="66"/>
+      <c r="D969" s="62"/>
       <c r="G969" s="21"/>
     </row>
     <row r="970" spans="2:7">
-      <c r="B970" s="67"/>
-      <c r="D970" s="63"/>
+      <c r="B970" s="66"/>
+      <c r="D970" s="62"/>
       <c r="G970" s="21"/>
     </row>
     <row r="971" spans="2:7">
-      <c r="B971" s="67"/>
-      <c r="D971" s="63"/>
+      <c r="B971" s="66"/>
+      <c r="D971" s="62"/>
       <c r="G971" s="21"/>
     </row>
     <row r="972" spans="2:7">
-      <c r="B972" s="67"/>
-      <c r="D972" s="63"/>
+      <c r="B972" s="66"/>
+      <c r="D972" s="62"/>
       <c r="G972" s="21"/>
     </row>
     <row r="973" spans="2:7">
-      <c r="B973" s="67"/>
-      <c r="D973" s="63"/>
+      <c r="B973" s="66"/>
+      <c r="D973" s="62"/>
       <c r="G973" s="21"/>
     </row>
     <row r="974" spans="2:7">
-      <c r="B974" s="67"/>
-      <c r="D974" s="63"/>
+      <c r="B974" s="66"/>
+      <c r="D974" s="62"/>
       <c r="G974" s="21"/>
     </row>
     <row r="975" spans="2:7">
-      <c r="B975" s="67"/>
-      <c r="D975" s="63"/>
+      <c r="B975" s="66"/>
+      <c r="D975" s="62"/>
       <c r="G975" s="21"/>
     </row>
     <row r="976" spans="2:7">
-      <c r="B976" s="67"/>
-      <c r="D976" s="63"/>
+      <c r="B976" s="66"/>
+      <c r="D976" s="62"/>
       <c r="G976" s="21"/>
     </row>
     <row r="977" spans="2:7">
-      <c r="B977" s="67"/>
-      <c r="D977" s="63"/>
+      <c r="B977" s="66"/>
+      <c r="D977" s="62"/>
       <c r="G977" s="21"/>
     </row>
     <row r="978" spans="2:7">
-      <c r="B978" s="67"/>
-      <c r="D978" s="63"/>
+      <c r="B978" s="66"/>
+      <c r="D978" s="62"/>
       <c r="G978" s="21"/>
     </row>
     <row r="979" spans="2:7">
-      <c r="B979" s="67"/>
-      <c r="D979" s="63"/>
+      <c r="B979" s="66"/>
+      <c r="D979" s="62"/>
       <c r="G979" s="21"/>
     </row>
     <row r="980" spans="2:7">
-      <c r="B980" s="67"/>
-      <c r="D980" s="63"/>
+      <c r="B980" s="66"/>
+      <c r="D980" s="62"/>
       <c r="G980" s="21"/>
     </row>
     <row r="981" spans="2:7">
-      <c r="B981" s="67"/>
-      <c r="D981" s="63"/>
+      <c r="B981" s="66"/>
+      <c r="D981" s="62"/>
       <c r="G981" s="21"/>
     </row>
     <row r="982" spans="2:7">
-      <c r="B982" s="67"/>
-      <c r="D982" s="63"/>
+      <c r="B982" s="66"/>
+      <c r="D982" s="62"/>
       <c r="G982" s="21"/>
     </row>
     <row r="983" spans="2:7">
-      <c r="B983" s="67"/>
-      <c r="D983" s="63"/>
+      <c r="B983" s="66"/>
+      <c r="D983" s="62"/>
       <c r="G983" s="21"/>
     </row>
     <row r="984" spans="2:7">
-      <c r="B984" s="67"/>
-      <c r="D984" s="63"/>
+      <c r="B984" s="66"/>
+      <c r="D984" s="62"/>
       <c r="G984" s="21"/>
     </row>
     <row r="985" spans="2:7">
-      <c r="B985" s="67"/>
-      <c r="D985" s="63"/>
+      <c r="B985" s="66"/>
+      <c r="D985" s="62"/>
       <c r="G985" s="21"/>
     </row>
     <row r="986" spans="2:7">
-      <c r="B986" s="67"/>
-      <c r="D986" s="63"/>
+      <c r="B986" s="66"/>
+      <c r="D986" s="62"/>
       <c r="G986" s="21"/>
     </row>
     <row r="987" spans="2:7">
-      <c r="B987" s="67"/>
-      <c r="D987" s="63"/>
+      <c r="B987" s="66"/>
+      <c r="D987" s="62"/>
       <c r="G987" s="21"/>
     </row>
     <row r="988" spans="2:7">
-      <c r="B988" s="67"/>
-      <c r="D988" s="63"/>
+      <c r="B988" s="66"/>
+      <c r="D988" s="62"/>
       <c r="G988" s="21"/>
     </row>
     <row r="989" spans="2:7">
-      <c r="B989" s="67"/>
-      <c r="D989" s="63"/>
+      <c r="B989" s="66"/>
+      <c r="D989" s="62"/>
       <c r="G989" s="21"/>
     </row>
     <row r="990" spans="2:7">
-      <c r="B990" s="67"/>
-      <c r="D990" s="63"/>
+      <c r="B990" s="66"/>
+      <c r="D990" s="62"/>
       <c r="G990" s="21"/>
     </row>
     <row r="991" spans="2:7">
-      <c r="B991" s="67"/>
-      <c r="D991" s="63"/>
+      <c r="B991" s="66"/>
+      <c r="D991" s="62"/>
       <c r="G991" s="21"/>
     </row>
     <row r="992" spans="2:7">
-      <c r="B992" s="67"/>
-      <c r="D992" s="63"/>
+      <c r="B992" s="66"/>
+      <c r="D992" s="62"/>
       <c r="G992" s="21"/>
     </row>
     <row r="993" spans="2:7">
-      <c r="B993" s="67"/>
-      <c r="D993" s="63"/>
+      <c r="B993" s="66"/>
+      <c r="D993" s="62"/>
       <c r="G993" s="21"/>
     </row>
     <row r="994" spans="2:7">
-      <c r="B994" s="67"/>
-      <c r="D994" s="63"/>
+      <c r="B994" s="66"/>
+      <c r="D994" s="62"/>
       <c r="G994" s="21"/>
     </row>
     <row r="995" spans="2:7">
-      <c r="B995" s="67"/>
-      <c r="D995" s="63"/>
+      <c r="B995" s="66"/>
+      <c r="D995" s="62"/>
       <c r="G995" s="21"/>
     </row>
     <row r="996" spans="2:7">
-      <c r="B996" s="67"/>
-      <c r="D996" s="63"/>
+      <c r="B996" s="66"/>
+      <c r="D996" s="62"/>
       <c r="G996" s="21"/>
     </row>
     <row r="997" spans="2:7">
-      <c r="B997" s="67"/>
-      <c r="D997" s="63"/>
+      <c r="B997" s="66"/>
+      <c r="D997" s="62"/>
       <c r="G997" s="21"/>
     </row>
     <row r="998" spans="2:7">
-      <c r="B998" s="67"/>
-      <c r="D998" s="63"/>
+      <c r="B998" s="66"/>
+      <c r="D998" s="62"/>
       <c r="G998" s="21"/>
     </row>
     <row r="999" spans="2:7">
-      <c r="B999" s="67"/>
-      <c r="D999" s="63"/>
+      <c r="B999" s="66"/>
+      <c r="D999" s="62"/>
       <c r="G999" s="21"/>
     </row>
     <row r="1000" spans="2:7">
-      <c r="B1000" s="67"/>
-      <c r="D1000" s="63"/>
+      <c r="B1000" s="66"/>
+      <c r="D1000" s="62"/>
       <c r="G1000" s="21"/>
     </row>
     <row r="1001" spans="2:7">
-      <c r="B1001" s="67"/>
-      <c r="D1001" s="63"/>
+      <c r="B1001" s="66"/>
+      <c r="D1001" s="62"/>
       <c r="G1001" s="21"/>
     </row>
     <row r="1002" spans="2:7">
-      <c r="B1002" s="67"/>
-      <c r="D1002" s="63"/>
+      <c r="B1002" s="66"/>
+      <c r="D1002" s="62"/>
       <c r="G1002" s="21"/>
     </row>
     <row r="1003" spans="2:7">
-      <c r="B1003" s="67"/>
-      <c r="D1003" s="63"/>
+      <c r="B1003" s="66"/>
+      <c r="D1003" s="62"/>
       <c r="G1003" s="21"/>
     </row>
     <row r="1004" spans="2:7">
-      <c r="B1004" s="67"/>
-      <c r="D1004" s="63"/>
+      <c r="B1004" s="66"/>
+      <c r="D1004" s="62"/>
       <c r="G1004" s="21"/>
     </row>
     <row r="1005" spans="2:7">
-      <c r="B1005" s="67"/>
-      <c r="D1005" s="63"/>
+      <c r="B1005" s="66"/>
+      <c r="D1005" s="62"/>
       <c r="G1005" s="21"/>
     </row>
     <row r="1006" spans="2:7">
-      <c r="B1006" s="67"/>
-      <c r="D1006" s="63"/>
+      <c r="B1006" s="66"/>
+      <c r="D1006" s="62"/>
       <c r="G1006" s="21"/>
     </row>
     <row r="1007" spans="2:7">
-      <c r="B1007" s="67"/>
-      <c r="D1007" s="63"/>
+      <c r="B1007" s="66"/>
+      <c r="D1007" s="62"/>
       <c r="G1007" s="21"/>
     </row>
     <row r="1008" spans="2:7">
-      <c r="B1008" s="67"/>
-      <c r="D1008" s="63"/>
+      <c r="B1008" s="66"/>
+      <c r="D1008" s="62"/>
       <c r="G1008" s="21"/>
     </row>
     <row r="1009" spans="2:7">
-      <c r="B1009" s="67"/>
-      <c r="D1009" s="63"/>
+      <c r="B1009" s="66"/>
+      <c r="D1009" s="62"/>
       <c r="G1009" s="21"/>
     </row>
     <row r="1010" spans="2:7">
-      <c r="B1010" s="67"/>
-      <c r="D1010" s="63"/>
+      <c r="B1010" s="66"/>
+      <c r="D1010" s="62"/>
       <c r="G1010" s="21"/>
     </row>
     <row r="1011" spans="2:7">
-      <c r="B1011" s="67"/>
-      <c r="D1011" s="63"/>
+      <c r="B1011" s="66"/>
+      <c r="D1011" s="62"/>
       <c r="G1011" s="21"/>
     </row>
     <row r="1012" spans="2:7">
-      <c r="B1012" s="67"/>
-      <c r="D1012" s="63"/>
+      <c r="B1012" s="66"/>
+      <c r="D1012" s="62"/>
       <c r="G1012" s="21"/>
     </row>
     <row r="1013" spans="2:7">
-      <c r="B1013" s="67"/>
-      <c r="D1013" s="63"/>
+      <c r="B1013" s="66"/>
+      <c r="D1013" s="62"/>
       <c r="G1013" s="21"/>
     </row>
     <row r="1014" spans="2:7">
-      <c r="B1014" s="67"/>
-      <c r="D1014" s="63"/>
+      <c r="B1014" s="66"/>
+      <c r="D1014" s="62"/>
       <c r="G1014" s="21"/>
     </row>
     <row r="1015" spans="2:7">
-      <c r="B1015" s="67"/>
-      <c r="D1015" s="63"/>
+      <c r="B1015" s="66"/>
+      <c r="D1015" s="62"/>
       <c r="G1015" s="21"/>
     </row>
     <row r="1016" spans="2:7">
-      <c r="B1016" s="67"/>
-      <c r="D1016" s="63"/>
+      <c r="B1016" s="66"/>
+      <c r="D1016" s="62"/>
       <c r="G1016" s="21"/>
     </row>
     <row r="1017" spans="2:7">
-      <c r="B1017" s="67"/>
-      <c r="D1017" s="63"/>
+      <c r="B1017" s="66"/>
+      <c r="D1017" s="62"/>
       <c r="G1017" s="21"/>
     </row>
     <row r="1018" spans="2:7">
-      <c r="B1018" s="67"/>
-      <c r="D1018" s="63"/>
+      <c r="B1018" s="66"/>
+      <c r="D1018" s="62"/>
       <c r="G1018" s="21"/>
     </row>
     <row r="1019" spans="2:7">
-      <c r="B1019" s="67"/>
-      <c r="D1019" s="63"/>
+      <c r="B1019" s="66"/>
+      <c r="D1019" s="62"/>
       <c r="G1019" s="21"/>
     </row>
     <row r="1020" spans="2:7">
-      <c r="B1020" s="67"/>
-      <c r="D1020" s="63"/>
+      <c r="B1020" s="66"/>
+      <c r="D1020" s="62"/>
       <c r="G1020" s="21"/>
     </row>
     <row r="1021" spans="2:7">
-      <c r="B1021" s="67"/>
-      <c r="D1021" s="63"/>
+      <c r="B1021" s="66"/>
+      <c r="D1021" s="62"/>
       <c r="G1021" s="21"/>
     </row>
     <row r="1022" spans="2:7">
-      <c r="B1022" s="67"/>
-      <c r="D1022" s="63"/>
+      <c r="B1022" s="66"/>
+      <c r="D1022" s="62"/>
       <c r="G1022" s="21"/>
     </row>
     <row r="1023" spans="2:7">
-      <c r="B1023" s="67"/>
-      <c r="D1023" s="63"/>
+      <c r="B1023" s="66"/>
+      <c r="D1023" s="62"/>
       <c r="G1023" s="21"/>
     </row>
     <row r="1024" spans="2:7">
-      <c r="B1024" s="67"/>
-      <c r="D1024" s="63"/>
+      <c r="B1024" s="66"/>
+      <c r="D1024" s="62"/>
       <c r="G1024" s="21"/>
     </row>
     <row r="1025" spans="2:7">
-      <c r="B1025" s="67"/>
-      <c r="D1025" s="63"/>
+      <c r="B1025" s="66"/>
+      <c r="D1025" s="62"/>
       <c r="G1025" s="21"/>
     </row>
     <row r="1026" spans="2:7">
-      <c r="B1026" s="67"/>
-      <c r="D1026" s="63"/>
+      <c r="B1026" s="66"/>
+      <c r="D1026" s="62"/>
       <c r="G1026" s="21"/>
     </row>
     <row r="1027" spans="2:7">
-      <c r="B1027" s="67"/>
-      <c r="D1027" s="63"/>
+      <c r="B1027" s="66"/>
+      <c r="D1027" s="62"/>
       <c r="G1027" s="21"/>
     </row>
     <row r="1028" spans="2:7">
-      <c r="B1028" s="67"/>
-      <c r="D1028" s="63"/>
+      <c r="B1028" s="66"/>
+      <c r="D1028" s="62"/>
       <c r="G1028" s="21"/>
     </row>
     <row r="1029" spans="2:7">
-      <c r="B1029" s="67"/>
-      <c r="D1029" s="63"/>
+      <c r="B1029" s="66"/>
+      <c r="D1029" s="62"/>
       <c r="G1029" s="21"/>
     </row>
     <row r="1030" spans="2:7">
-      <c r="B1030" s="67"/>
-      <c r="D1030" s="63"/>
+      <c r="B1030" s="66"/>
+      <c r="D1030" s="62"/>
       <c r="G1030" s="21"/>
     </row>
     <row r="1031" spans="2:7">
-      <c r="B1031" s="67"/>
-      <c r="D1031" s="63"/>
+      <c r="B1031" s="66"/>
+      <c r="D1031" s="62"/>
       <c r="G1031" s="21"/>
     </row>
     <row r="1032" spans="2:7">
-      <c r="B1032" s="67"/>
-      <c r="D1032" s="63"/>
+      <c r="B1032" s="66"/>
+      <c r="D1032" s="62"/>
       <c r="G1032" s="21"/>
     </row>
     <row r="1033" spans="2:7">
-      <c r="B1033" s="67"/>
-      <c r="D1033" s="63"/>
+      <c r="B1033" s="66"/>
+      <c r="D1033" s="62"/>
       <c r="G1033" s="21"/>
     </row>
     <row r="1034" spans="2:7">
-      <c r="B1034" s="67"/>
-      <c r="D1034" s="63"/>
+      <c r="B1034" s="66"/>
+      <c r="D1034" s="62"/>
       <c r="G1034" s="21"/>
     </row>
     <row r="1035" spans="2:7">
-      <c r="B1035" s="67"/>
-      <c r="D1035" s="63"/>
+      <c r="B1035" s="66"/>
+      <c r="D1035" s="62"/>
       <c r="G1035" s="21"/>
     </row>
     <row r="1036" spans="2:7">
-      <c r="B1036" s="67"/>
-      <c r="D1036" s="63"/>
+      <c r="B1036" s="66"/>
+      <c r="D1036" s="62"/>
       <c r="G1036" s="21"/>
     </row>
     <row r="1037" spans="2:7">
-      <c r="B1037" s="67"/>
-      <c r="D1037" s="63"/>
+      <c r="B1037" s="66"/>
+      <c r="D1037" s="62"/>
       <c r="G1037" s="21"/>
     </row>
     <row r="1038" spans="2:7">
-      <c r="B1038" s="67"/>
-      <c r="D1038" s="63"/>
+      <c r="B1038" s="66"/>
+      <c r="D1038" s="62"/>
       <c r="G1038" s="21"/>
     </row>
     <row r="1039" spans="2:7">
-      <c r="B1039" s="67"/>
-      <c r="D1039" s="63"/>
+      <c r="B1039" s="66"/>
+      <c r="D1039" s="62"/>
       <c r="G1039" s="21"/>
     </row>
     <row r="1040" spans="2:7">
-      <c r="B1040" s="67"/>
-      <c r="D1040" s="63"/>
+      <c r="B1040" s="66"/>
+      <c r="D1040" s="62"/>
       <c r="G1040" s="21"/>
     </row>
     <row r="1041" spans="2:7">
-      <c r="B1041" s="67"/>
-      <c r="D1041" s="63"/>
+      <c r="B1041" s="66"/>
+      <c r="D1041" s="62"/>
       <c r="G1041" s="21"/>
     </row>
     <row r="1042" spans="2:7">
-      <c r="B1042" s="67"/>
-      <c r="D1042" s="63"/>
+      <c r="B1042" s="66"/>
+      <c r="D1042" s="62"/>
       <c r="G1042" s="21"/>
     </row>
     <row r="1043" spans="2:7">
-      <c r="B1043" s="67"/>
-      <c r="D1043" s="63"/>
+      <c r="B1043" s="66"/>
+      <c r="D1043" s="62"/>
       <c r="G1043" s="21"/>
     </row>
     <row r="1044" spans="2:7">
-      <c r="B1044" s="67"/>
-      <c r="D1044" s="63"/>
+      <c r="B1044" s="66"/>
+      <c r="D1044" s="62"/>
       <c r="G1044" s="21"/>
     </row>
     <row r="1045" spans="2:7">
-      <c r="B1045" s="67"/>
-      <c r="D1045" s="63"/>
+      <c r="B1045" s="66"/>
+      <c r="D1045" s="62"/>
       <c r="G1045" s="21"/>
     </row>
     <row r="1046" spans="2:7">
-      <c r="B1046" s="67"/>
-      <c r="D1046" s="63"/>
+      <c r="B1046" s="66"/>
+      <c r="D1046" s="62"/>
       <c r="G1046" s="21"/>
     </row>
     <row r="1047" spans="2:7">
-      <c r="B1047" s="67"/>
-      <c r="D1047" s="63"/>
+      <c r="B1047" s="66"/>
+      <c r="D1047" s="62"/>
       <c r="G1047" s="21"/>
     </row>
     <row r="1048" spans="2:7">
-      <c r="B1048" s="67"/>
-      <c r="D1048" s="63"/>
+      <c r="B1048" s="66"/>
+      <c r="D1048" s="62"/>
       <c r="G1048" s="21"/>
     </row>
     <row r="1049" spans="2:7">
-      <c r="B1049" s="67"/>
-      <c r="D1049" s="63"/>
+      <c r="B1049" s="66"/>
+      <c r="D1049" s="62"/>
       <c r="G1049" s="21"/>
     </row>
     <row r="1050" spans="2:7">
-      <c r="B1050" s="67"/>
-      <c r="D1050" s="63"/>
+      <c r="B1050" s="66"/>
+      <c r="D1050" s="62"/>
       <c r="G1050" s="21"/>
     </row>
     <row r="1051" spans="2:7">
-      <c r="B1051" s="67"/>
-      <c r="D1051" s="63"/>
+      <c r="B1051" s="66"/>
+      <c r="D1051" s="62"/>
       <c r="G1051" s="21"/>
     </row>
   </sheetData>
@@ -8684,98 +8804,108 @@
     <mergeCell ref="E41:E44"/>
     <mergeCell ref="E38:E40"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:C6 B27:C27 C28 B8:C17 B34:C35 B22:C22 B88:C1051 C85:C87 H46:H48 B42:C42 C2:C3 A2:A3 A14:A17 A48 A24 B47:C60 B64:C75 B84:C84 B83 B79:C82">
-    <cfRule type="expression" dxfId="44" priority="32">
+  <conditionalFormatting sqref="B6:C6 B27:C27 C28 B8:C17 B34:C35 B22:C22 B88:C1051 C85:C87 H46:H48 B42:C42 C2:C3 A2:A3 A14:A17 A48 A24 B47:C58 B64:C75 B84:C84 B83 B79:C82">
+    <cfRule type="expression" dxfId="47" priority="36">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="43" priority="31">
+    <cfRule type="expression" dxfId="46" priority="35">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="42" priority="29">
+    <cfRule type="expression" dxfId="45" priority="33">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C43">
-    <cfRule type="expression" dxfId="41" priority="21">
+    <cfRule type="expression" dxfId="44" priority="25">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:C44">
-    <cfRule type="expression" dxfId="40" priority="20">
+    <cfRule type="expression" dxfId="43" priority="24">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:C41">
-    <cfRule type="expression" dxfId="39" priority="19">
+    <cfRule type="expression" dxfId="42" priority="23">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:C36">
-    <cfRule type="expression" dxfId="38" priority="18">
+    <cfRule type="expression" dxfId="41" priority="22">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:C46">
+    <cfRule type="expression" dxfId="40" priority="21">
+      <formula>LEN(TRIM(#REF!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="39" priority="20">
+      <formula>LEN(TRIM(#REF!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:A13">
+    <cfRule type="expression" dxfId="38" priority="19">
+      <formula>LEN(TRIM(#REF!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
     <cfRule type="expression" dxfId="37" priority="17">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A19:A20">
     <cfRule type="expression" dxfId="36" priority="16">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A13">
+  <conditionalFormatting sqref="A21">
     <cfRule type="expression" dxfId="35" priority="15">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="34" priority="13">
-      <formula>LEN(TRIM(#REF!))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20">
-    <cfRule type="expression" dxfId="33" priority="12">
-      <formula>LEN(TRIM(#REF!))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="32" priority="11">
-      <formula>LEN(TRIM(#REF!))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A22:A30">
-    <cfRule type="expression" dxfId="31" priority="10">
+    <cfRule type="expression" dxfId="34" priority="14">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="33" priority="13">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="32" priority="8">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:C76">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:C77">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:C78">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="29" priority="5">
+      <formula>LEN(TRIM(#REF!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:C59">
+    <cfRule type="expression" dxfId="28" priority="4">
+      <formula>LEN(TRIM(#REF!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:C60">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8801,59 +8931,63 @@
     <hyperlink ref="E54" r:id="rId19" xr:uid="{4E67491B-2AF7-DB41-A669-F0FBDC1FAFF3}"/>
     <hyperlink ref="E55" r:id="rId20" xr:uid="{D9F02A71-9A21-3449-8B0C-FDBEB0D6A51D}"/>
     <hyperlink ref="E56" r:id="rId21" xr:uid="{C1324653-4FFF-3540-A180-79D1223602D7}"/>
-    <hyperlink ref="E57" r:id="rId22" xr:uid="{3F7A465D-9A8A-1B45-B942-DD6F0CB9A82D}"/>
-    <hyperlink ref="E59" r:id="rId23" xr:uid="{55A804A8-7B36-A541-8341-6E47A5B0CA02}"/>
-    <hyperlink ref="E80" r:id="rId24" xr:uid="{2D1B84C9-7012-2542-83CD-941241C43B8D}"/>
-    <hyperlink ref="E81" r:id="rId25" xr:uid="{7ECD8291-4286-154C-ADD8-F7FDF5781E66}"/>
-    <hyperlink ref="E66" r:id="rId26" xr:uid="{D4352E1F-944F-E248-B298-7E14ECE187C7}"/>
-    <hyperlink ref="G66" r:id="rId27" xr:uid="{E1BFCA0A-233C-EA4A-99D1-480B4B84696C}"/>
-    <hyperlink ref="E67" r:id="rId28" xr:uid="{E7D8A663-C1EB-9F44-9951-4309FA427873}"/>
-    <hyperlink ref="E68" r:id="rId29" xr:uid="{AF6DDC50-29B7-D84D-9C26-5768F1427CFD}"/>
-    <hyperlink ref="E69" r:id="rId30" xr:uid="{9C892BA9-1072-834A-9E42-4FA89CFD2571}"/>
-    <hyperlink ref="E73" r:id="rId31" xr:uid="{2E6CD293-E68D-D04F-A3D9-B3F86DDB5D31}"/>
-    <hyperlink ref="F73" r:id="rId32" xr:uid="{FA522719-4626-5F42-8825-22E0C6EE60AA}"/>
-    <hyperlink ref="E74" r:id="rId33" xr:uid="{FEF983C7-5044-6848-89D0-665F4E1E4C0D}"/>
-    <hyperlink ref="F19" r:id="rId34" display="Amazon link2" xr:uid="{1CD81A99-3116-AD4B-B004-916240ADB0B4}"/>
-    <hyperlink ref="F23" r:id="rId35" xr:uid="{26898C78-8DF6-8748-BBC6-A299B06B5837}"/>
-    <hyperlink ref="E19" r:id="rId36" xr:uid="{DC4A1351-5E01-544F-B29E-67B96945B17D}"/>
-    <hyperlink ref="E23" r:id="rId37" xr:uid="{6C57E195-28D9-FA47-8B0F-F920ED69DAD8}"/>
-    <hyperlink ref="E30" r:id="rId38" xr:uid="{EF3CCD49-8964-D646-9032-03B06CCFDD85}"/>
-    <hyperlink ref="E35" r:id="rId39" xr:uid="{AE99EB21-9166-6340-9473-A91686EF03E4}"/>
-    <hyperlink ref="E22" r:id="rId40" xr:uid="{6B96B9FA-D199-D04E-8DD0-0693AF422BFB}"/>
-    <hyperlink ref="E37" r:id="rId41" xr:uid="{BD7D32F2-CA0F-094D-95B3-EB00D9CA7CC9}"/>
-    <hyperlink ref="E41" r:id="rId42" display="Amazon assordment link" xr:uid="{E5ABA1C8-B07C-6343-9303-C0BF0BFD4205}"/>
-    <hyperlink ref="E36" r:id="rId43" xr:uid="{F09524B7-27BC-0C4F-9782-C37CFC7AF460}"/>
-    <hyperlink ref="F45" r:id="rId44" xr:uid="{5E000B03-0B35-7C4C-A2AF-3711E4A8AF5A}"/>
-    <hyperlink ref="F32" r:id="rId45" xr:uid="{BE8C4FA2-14A2-CD47-A40A-9592420B4658}"/>
-    <hyperlink ref="E46" r:id="rId46" xr:uid="{FCA84838-04E2-514E-9275-9F04CF67851B}"/>
-    <hyperlink ref="E38:E40" r:id="rId47" display="Amazon link" xr:uid="{C391115A-0487-0E42-9D94-A87C8B9A05C2}"/>
-    <hyperlink ref="E28" r:id="rId48" xr:uid="{96132316-BFAC-8441-B4E2-03E106516453}"/>
-    <hyperlink ref="E21" r:id="rId49" xr:uid="{3FDDB2B3-433A-0949-B925-8CC8CC6D5B26}"/>
-    <hyperlink ref="F24" r:id="rId50" xr:uid="{77D68BC9-BD62-BE42-A9A2-29F2A6E2338F}"/>
-    <hyperlink ref="E24" r:id="rId51" xr:uid="{BB4EABED-24C7-AC42-9A3C-B15A2321840F}"/>
-    <hyperlink ref="F25" r:id="rId52" xr:uid="{6446D63F-9722-D841-AF1F-9998D82FB5F5}"/>
-    <hyperlink ref="E25" r:id="rId53" xr:uid="{DE76558C-F5B7-9A4B-8913-609588464702}"/>
-    <hyperlink ref="F26" r:id="rId54" xr:uid="{69DF54BF-B14A-054A-B1F6-4E6463D72E6B}"/>
-    <hyperlink ref="E26" r:id="rId55" xr:uid="{05912F73-8115-C749-99F9-64EA4759293D}"/>
-    <hyperlink ref="F82" r:id="rId56" xr:uid="{92507FD0-C7A2-084F-B0BF-2926A832C6E5}"/>
-    <hyperlink ref="F83" r:id="rId57" xr:uid="{727444B8-14EA-3F48-AA45-CF7CB58A45D5}"/>
-    <hyperlink ref="E82" r:id="rId58" xr:uid="{D3980E50-88C1-DA43-8B36-096885FA5DFA}"/>
-    <hyperlink ref="E83" r:id="rId59" xr:uid="{C146BDA2-25FC-A44D-A3AC-D1276AE4FA0B}"/>
-    <hyperlink ref="F70" r:id="rId60" xr:uid="{F2A307F1-AEF1-2D41-B527-77342E2C6421}"/>
-    <hyperlink ref="F71" r:id="rId61" xr:uid="{3C3E09D5-23FC-F941-97B5-12D3345CAD2C}"/>
-    <hyperlink ref="F72" r:id="rId62" xr:uid="{D297BF5B-8E6B-E248-9453-A64373EE52DF}"/>
-    <hyperlink ref="E70" r:id="rId63" xr:uid="{97DD8502-80A0-2247-AE53-4E1B4CCD5A02}"/>
-    <hyperlink ref="E71" r:id="rId64" xr:uid="{00FDBB66-6023-ED4B-824D-AB895D8C4652}"/>
-    <hyperlink ref="E72" r:id="rId65" xr:uid="{ADEFF5A1-3CFA-5744-B7A7-156293700CE6}"/>
-    <hyperlink ref="F75" r:id="rId66" xr:uid="{CFA95CC4-62BB-E041-9316-335E4EBB4234}"/>
-    <hyperlink ref="F76" r:id="rId67" xr:uid="{82FB6B94-417F-BC42-BEA2-138C97554C11}"/>
-    <hyperlink ref="F77" r:id="rId68" xr:uid="{28FA484F-010E-7F49-A397-9DC22BA217C0}"/>
-    <hyperlink ref="F78" r:id="rId69" xr:uid="{FE3B38D2-C2E8-0949-BC7C-4322B1F52890}"/>
-    <hyperlink ref="E75" r:id="rId70" xr:uid="{CF45DEE7-C337-3640-8684-53319C3DE895}"/>
-    <hyperlink ref="E76" r:id="rId71" xr:uid="{A156BC57-5EE0-5E46-8BC3-772D153DDEB3}"/>
-    <hyperlink ref="E77" r:id="rId72" xr:uid="{B77AB816-982C-BC4E-897B-E8F92A332F31}"/>
-    <hyperlink ref="E78" r:id="rId73" xr:uid="{26D67589-8276-364C-A783-2F5C44444EB3}"/>
-    <hyperlink ref="E31" r:id="rId74" xr:uid="{4ACD83DA-DADB-C744-9FB4-21FD53171DAB}"/>
+    <hyperlink ref="E57" r:id="rId22" display="Amazon Link" xr:uid="{3F7A465D-9A8A-1B45-B942-DD6F0CB9A82D}"/>
+    <hyperlink ref="E80" r:id="rId23" xr:uid="{2D1B84C9-7012-2542-83CD-941241C43B8D}"/>
+    <hyperlink ref="E81" r:id="rId24" xr:uid="{7ECD8291-4286-154C-ADD8-F7FDF5781E66}"/>
+    <hyperlink ref="E66" r:id="rId25" xr:uid="{D4352E1F-944F-E248-B298-7E14ECE187C7}"/>
+    <hyperlink ref="G66" r:id="rId26" xr:uid="{E1BFCA0A-233C-EA4A-99D1-480B4B84696C}"/>
+    <hyperlink ref="E67" r:id="rId27" xr:uid="{E7D8A663-C1EB-9F44-9951-4309FA427873}"/>
+    <hyperlink ref="E68" r:id="rId28" xr:uid="{AF6DDC50-29B7-D84D-9C26-5768F1427CFD}"/>
+    <hyperlink ref="E69" r:id="rId29" xr:uid="{9C892BA9-1072-834A-9E42-4FA89CFD2571}"/>
+    <hyperlink ref="E73" r:id="rId30" xr:uid="{2E6CD293-E68D-D04F-A3D9-B3F86DDB5D31}"/>
+    <hyperlink ref="F73" r:id="rId31" xr:uid="{FA522719-4626-5F42-8825-22E0C6EE60AA}"/>
+    <hyperlink ref="E74" r:id="rId32" xr:uid="{FEF983C7-5044-6848-89D0-665F4E1E4C0D}"/>
+    <hyperlink ref="F19" r:id="rId33" display="Amazon link2" xr:uid="{1CD81A99-3116-AD4B-B004-916240ADB0B4}"/>
+    <hyperlink ref="F23" r:id="rId34" xr:uid="{26898C78-8DF6-8748-BBC6-A299B06B5837}"/>
+    <hyperlink ref="E19" r:id="rId35" xr:uid="{DC4A1351-5E01-544F-B29E-67B96945B17D}"/>
+    <hyperlink ref="E23" r:id="rId36" xr:uid="{6C57E195-28D9-FA47-8B0F-F920ED69DAD8}"/>
+    <hyperlink ref="E30" r:id="rId37" xr:uid="{EF3CCD49-8964-D646-9032-03B06CCFDD85}"/>
+    <hyperlink ref="E35" r:id="rId38" xr:uid="{AE99EB21-9166-6340-9473-A91686EF03E4}"/>
+    <hyperlink ref="E22" r:id="rId39" xr:uid="{6B96B9FA-D199-D04E-8DD0-0693AF422BFB}"/>
+    <hyperlink ref="E37" r:id="rId40" xr:uid="{BD7D32F2-CA0F-094D-95B3-EB00D9CA7CC9}"/>
+    <hyperlink ref="E41" r:id="rId41" display="Amazon assordment link" xr:uid="{E5ABA1C8-B07C-6343-9303-C0BF0BFD4205}"/>
+    <hyperlink ref="E36" r:id="rId42" xr:uid="{F09524B7-27BC-0C4F-9782-C37CFC7AF460}"/>
+    <hyperlink ref="F45" r:id="rId43" xr:uid="{5E000B03-0B35-7C4C-A2AF-3711E4A8AF5A}"/>
+    <hyperlink ref="F32" r:id="rId44" xr:uid="{BE8C4FA2-14A2-CD47-A40A-9592420B4658}"/>
+    <hyperlink ref="E46" r:id="rId45" xr:uid="{FCA84838-04E2-514E-9275-9F04CF67851B}"/>
+    <hyperlink ref="E38:E40" r:id="rId46" display="Amazon link" xr:uid="{C391115A-0487-0E42-9D94-A87C8B9A05C2}"/>
+    <hyperlink ref="E28" r:id="rId47" xr:uid="{96132316-BFAC-8441-B4E2-03E106516453}"/>
+    <hyperlink ref="E21" r:id="rId48" xr:uid="{3FDDB2B3-433A-0949-B925-8CC8CC6D5B26}"/>
+    <hyperlink ref="F24" r:id="rId49" xr:uid="{77D68BC9-BD62-BE42-A9A2-29F2A6E2338F}"/>
+    <hyperlink ref="E24" r:id="rId50" xr:uid="{BB4EABED-24C7-AC42-9A3C-B15A2321840F}"/>
+    <hyperlink ref="F25" r:id="rId51" xr:uid="{6446D63F-9722-D841-AF1F-9998D82FB5F5}"/>
+    <hyperlink ref="E25" r:id="rId52" xr:uid="{DE76558C-F5B7-9A4B-8913-609588464702}"/>
+    <hyperlink ref="F26" r:id="rId53" xr:uid="{69DF54BF-B14A-054A-B1F6-4E6463D72E6B}"/>
+    <hyperlink ref="E26" r:id="rId54" xr:uid="{05912F73-8115-C749-99F9-64EA4759293D}"/>
+    <hyperlink ref="F82" r:id="rId55" xr:uid="{92507FD0-C7A2-084F-B0BF-2926A832C6E5}"/>
+    <hyperlink ref="F83" r:id="rId56" xr:uid="{727444B8-14EA-3F48-AA45-CF7CB58A45D5}"/>
+    <hyperlink ref="E82" r:id="rId57" xr:uid="{D3980E50-88C1-DA43-8B36-096885FA5DFA}"/>
+    <hyperlink ref="E83" r:id="rId58" xr:uid="{C146BDA2-25FC-A44D-A3AC-D1276AE4FA0B}"/>
+    <hyperlink ref="F70" r:id="rId59" xr:uid="{F2A307F1-AEF1-2D41-B527-77342E2C6421}"/>
+    <hyperlink ref="F71" r:id="rId60" xr:uid="{3C3E09D5-23FC-F941-97B5-12D3345CAD2C}"/>
+    <hyperlink ref="F72" r:id="rId61" xr:uid="{D297BF5B-8E6B-E248-9453-A64373EE52DF}"/>
+    <hyperlink ref="E70" r:id="rId62" xr:uid="{97DD8502-80A0-2247-AE53-4E1B4CCD5A02}"/>
+    <hyperlink ref="E71" r:id="rId63" xr:uid="{00FDBB66-6023-ED4B-824D-AB895D8C4652}"/>
+    <hyperlink ref="E72" r:id="rId64" xr:uid="{ADEFF5A1-3CFA-5744-B7A7-156293700CE6}"/>
+    <hyperlink ref="F75" r:id="rId65" xr:uid="{CFA95CC4-62BB-E041-9316-335E4EBB4234}"/>
+    <hyperlink ref="F76" r:id="rId66" xr:uid="{82FB6B94-417F-BC42-BEA2-138C97554C11}"/>
+    <hyperlink ref="F77" r:id="rId67" xr:uid="{28FA484F-010E-7F49-A397-9DC22BA217C0}"/>
+    <hyperlink ref="F78" r:id="rId68" xr:uid="{FE3B38D2-C2E8-0949-BC7C-4322B1F52890}"/>
+    <hyperlink ref="E75" r:id="rId69" xr:uid="{CF45DEE7-C337-3640-8684-53319C3DE895}"/>
+    <hyperlink ref="E76" r:id="rId70" xr:uid="{A156BC57-5EE0-5E46-8BC3-772D153DDEB3}"/>
+    <hyperlink ref="E77" r:id="rId71" xr:uid="{B77AB816-982C-BC4E-897B-E8F92A332F31}"/>
+    <hyperlink ref="E78" r:id="rId72" xr:uid="{26D67589-8276-364C-A783-2F5C44444EB3}"/>
+    <hyperlink ref="E31" r:id="rId73" xr:uid="{4ACD83DA-DADB-C744-9FB4-21FD53171DAB}"/>
+    <hyperlink ref="E59" r:id="rId74" xr:uid="{FEC649DC-9B8E-9646-8127-8E1FC1450FCB}"/>
+    <hyperlink ref="F61" r:id="rId75" xr:uid="{56E8E7C4-C0F6-D44A-94FF-30ECDE238FD5}"/>
+    <hyperlink ref="E61" r:id="rId76" xr:uid="{AC66BCCB-21EC-1248-BB6E-0877A1F9CDC6}"/>
+    <hyperlink ref="F62" r:id="rId77" xr:uid="{114E00F7-B93B-DE43-A878-3CE5BDD56172}"/>
+    <hyperlink ref="E62" r:id="rId78" xr:uid="{57570501-E9D2-FE4E-9EDD-2C78AC3E9E23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9073,7 +9207,7 @@
       <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="76" t="s">
         <v>289</v>
       </c>
       <c r="F14" s="38" t="s">
@@ -9097,7 +9231,7 @@
       <c r="D15" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="38" t="s">
         <v>25</v>
       </c>
@@ -9116,7 +9250,7 @@
       <c r="D16" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="38" t="s">
         <v>22</v>
       </c>
@@ -9138,7 +9272,7 @@
       <c r="D17" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="E17" s="57"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="38"/>
       <c r="G17" s="21"/>
       <c r="H17" s="37"/>
@@ -9369,7 +9503,7 @@
       <c r="D28" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="58" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="38"/>
@@ -9551,7 +9685,7 @@
       <c r="D38" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="21" t="s">
@@ -9572,7 +9706,7 @@
       <c r="D39" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="E39" s="58"/>
+      <c r="E39" s="77"/>
       <c r="G39" s="21" t="s">
         <v>332</v>
       </c>
@@ -9591,7 +9725,7 @@
       <c r="D40" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="E40" s="58"/>
+      <c r="E40" s="77"/>
       <c r="G40" s="15" t="s">
         <v>333</v>
       </c>
@@ -9610,7 +9744,7 @@
       <c r="D41" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="76" t="s">
         <v>312</v>
       </c>
       <c r="G41" s="15" t="s">
@@ -9631,7 +9765,7 @@
       <c r="D42" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="E42" s="57"/>
+      <c r="E42" s="76"/>
       <c r="G42" s="15" t="s">
         <v>310</v>
       </c>
@@ -9650,7 +9784,7 @@
       <c r="D43" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="E43" s="57"/>
+      <c r="E43" s="76"/>
       <c r="G43" s="15" t="s">
         <v>304</v>
       </c>
@@ -9669,7 +9803,7 @@
       <c r="D44" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="E44" s="57"/>
+      <c r="E44" s="76"/>
       <c r="G44" s="15" t="s">
         <v>311</v>
       </c>
@@ -10350,10 +10484,10 @@
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="17"/>
-      <c r="D92" s="67" t="s">
+      <c r="D92" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="E92" s="63" t="s">
+      <c r="E92" s="62" t="s">
         <v>390</v>
       </c>
       <c r="F92" s="33">
@@ -10362,10 +10496,10 @@
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="17"/>
-      <c r="D93" s="67" t="s">
+      <c r="D93" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="E93" s="63" t="s">
+      <c r="E93" s="62" t="s">
         <v>392</v>
       </c>
       <c r="F93" s="33">
@@ -10374,28 +10508,28 @@
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="17"/>
-      <c r="D94" s="67" t="s">
+      <c r="D94" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="E94" s="63" t="s">
+      <c r="E94" s="62" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="17"/>
-      <c r="D95" s="67" t="s">
+      <c r="D95" s="66" t="s">
         <v>347</v>
       </c>
-      <c r="E95" s="63" t="s">
+      <c r="E95" s="62" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="17"/>
-      <c r="D96" s="67" t="s">
+      <c r="D96" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="E96" s="63" t="s">
+      <c r="E96" s="62" t="s">
         <v>375</v>
       </c>
       <c r="F96" s="33">
@@ -10404,10 +10538,10 @@
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="17"/>
-      <c r="D97" s="67" t="s">
+      <c r="D97" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="E97" s="63" t="s">
+      <c r="E97" s="62" t="s">
         <v>395</v>
       </c>
       <c r="F97" s="33">
@@ -10416,10 +10550,10 @@
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="17"/>
-      <c r="D98" s="67" t="s">
+      <c r="D98" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="E98" s="63" t="s">
+      <c r="E98" s="62" t="s">
         <v>376</v>
       </c>
       <c r="F98" s="33">
@@ -10428,10 +10562,10 @@
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="17"/>
-      <c r="D99" s="67" t="s">
+      <c r="D99" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="E99" s="63" t="s">
+      <c r="E99" s="62" t="s">
         <v>92</v>
       </c>
       <c r="F99" s="33">
@@ -10440,10 +10574,10 @@
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="17"/>
-      <c r="D100" s="67" t="s">
+      <c r="D100" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="E100" s="63" t="s">
+      <c r="E100" s="62" t="s">
         <v>97</v>
       </c>
       <c r="F100" s="33">
@@ -10452,10 +10586,10 @@
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="17"/>
-      <c r="D101" s="67" t="s">
+      <c r="D101" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="E101" s="63" t="s">
+      <c r="E101" s="62" t="s">
         <v>379</v>
       </c>
       <c r="F101" s="33">
@@ -10464,10 +10598,10 @@
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="17"/>
-      <c r="D102" s="67" t="s">
+      <c r="D102" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="E102" s="63" t="s">
+      <c r="E102" s="62" t="s">
         <v>381</v>
       </c>
       <c r="F102" s="33">
@@ -10476,10 +10610,10 @@
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="17"/>
-      <c r="D103" s="67" t="s">
+      <c r="D103" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="E103" s="63" t="s">
+      <c r="E103" s="62" t="s">
         <v>383</v>
       </c>
       <c r="F103" s="33">
@@ -10488,10 +10622,10 @@
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="17"/>
-      <c r="D104" s="67" t="s">
+      <c r="D104" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="E104" s="63" t="s">
+      <c r="E104" s="62" t="s">
         <v>382</v>
       </c>
       <c r="F104" s="33">
@@ -10500,10 +10634,10 @@
     </row>
     <row r="105" spans="2:7">
       <c r="B105" s="17"/>
-      <c r="D105" s="67" t="s">
+      <c r="D105" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="E105" s="63" t="s">
+      <c r="E105" s="62" t="s">
         <v>11</v>
       </c>
       <c r="F105" s="33">
@@ -10512,10 +10646,10 @@
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="17"/>
-      <c r="D106" s="67" t="s">
+      <c r="D106" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="E106" s="63" t="s">
+      <c r="E106" s="62" t="s">
         <v>370</v>
       </c>
       <c r="F106" s="34">
@@ -10524,10 +10658,10 @@
     </row>
     <row r="107" spans="2:7">
       <c r="B107" s="17"/>
-      <c r="D107" s="67" t="s">
+      <c r="D107" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="E107" s="63" t="s">
+      <c r="E107" s="62" t="s">
         <v>66</v>
       </c>
       <c r="F107" s="33">
@@ -10536,10 +10670,10 @@
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="17"/>
-      <c r="D108" s="67" t="s">
+      <c r="D108" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="E108" s="63" t="s">
+      <c r="E108" s="62" t="s">
         <v>377</v>
       </c>
       <c r="F108" s="33">
@@ -10548,10 +10682,10 @@
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="17"/>
-      <c r="D109" s="67" t="s">
+      <c r="D109" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="E109" s="63" t="s">
+      <c r="E109" s="62" t="s">
         <v>378</v>
       </c>
       <c r="F109" s="33">
@@ -15270,122 +15404,122 @@
     <mergeCell ref="E41:E44"/>
   </mergeCells>
   <conditionalFormatting sqref="B46:C46">
-    <cfRule type="expression" dxfId="25" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="24" priority="17">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="24" priority="16">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="22" priority="15">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="expression" dxfId="21" priority="14">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A30">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="expression" dxfId="18" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6 B27:C27 C28 B8:C17 B34:C35 B22:C22 B47:C78 B80:C83 B87:C1050 C84:C86 H46:H48 B42:C42 C2:C3 A2:A3 A14:A17 A48 A24">
-    <cfRule type="expression" dxfId="17" priority="25">
+    <cfRule type="expression" dxfId="18" priority="25">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="17" priority="24">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="15" priority="23">
+    <cfRule type="expression" dxfId="16" priority="23">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C43">
-    <cfRule type="expression" dxfId="14" priority="22">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:C44">
-    <cfRule type="expression" dxfId="13" priority="21">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:C41">
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:C36">
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:D101 D105:D109">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:F101 F105:F108">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16532,7 +16666,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B41">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ap/GitGYall/4tv/solderless-microlab/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB1A395-B8FD-424A-A8E2-4E9B0C1FA6B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2517E2D1-C464-0644-9F67-C75584D90BE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="440">
   <si>
     <t>ID code</t>
   </si>
@@ -1223,9 +1223,6 @@
     <t>RU-RCL</t>
   </si>
   <si>
-    <t>Jar Flangers (Printed)</t>
-  </si>
-  <si>
     <t>RU-RJF</t>
   </si>
   <si>
@@ -1266,13 +1263,94 @@
     <t>Cooling Unit Lid (Printed)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lid for the Mason jar </t>
-  </si>
-  <si>
     <t>TC-HUL</t>
   </si>
   <si>
     <t>Heating Unit Lid (Printed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lid for the  jar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lid for the jar </t>
+  </si>
+  <si>
+    <t>TC-TAP</t>
+  </si>
+  <si>
+    <t>Tape for the insulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32oz wide mouth canning jar </t>
+  </si>
+  <si>
+    <t>Reactor manifold core (Printed)</t>
+  </si>
+  <si>
+    <t>Reactor manifold lid (Printed)</t>
+  </si>
+  <si>
+    <t>6 oz regular mouth mason jar for core chamber</t>
+  </si>
+  <si>
+    <t>Jar Flanges (Printed)</t>
+  </si>
+  <si>
+    <t>SP-M3S-30</t>
+  </si>
+  <si>
+    <t>RU-ST8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicone tubing 8mm OD  with 1mm wall </t>
+  </si>
+  <si>
+    <t>TC-ST7</t>
+  </si>
+  <si>
+    <t>Stir rod coupler</t>
+  </si>
+  <si>
+    <t>RU-SDA</t>
+  </si>
+  <si>
+    <t>RU-SDC</t>
+  </si>
+  <si>
+    <t>RU-SDK</t>
+  </si>
+  <si>
+    <t>TC-LIQ</t>
+  </si>
+  <si>
+    <t>We have been using water for this version, but other liquids may be more effective for the temperature control.</t>
+  </si>
+  <si>
+    <t>Liquid, water or other</t>
+  </si>
+  <si>
+    <t>CU-RAH</t>
+  </si>
+  <si>
+    <t>Right angle header row</t>
+  </si>
+  <si>
+    <t>Wire Cutter and Stripper</t>
+  </si>
+  <si>
+    <t>CU-WCS</t>
+  </si>
+  <si>
+    <t>Flush cutters</t>
+  </si>
+  <si>
+    <t>CU-FCT</t>
+  </si>
+  <si>
+    <t>Needle-nose pilers</t>
+  </si>
+  <si>
+    <t>CU-NNP</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1661,12 +1739,39 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2381,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E169E61-96C0-0C4A-B524-8C29049A37EB}">
-  <dimension ref="A1:AMJ1051"/>
+  <dimension ref="A1:AMJ1057"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="14"/>
@@ -2924,19 +3029,18 @@
         <v>339</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="C29" s="42">
+        <v>268</v>
+      </c>
+      <c r="C29" s="34">
         <v>2</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="15"/>
       <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8" ht="15">
@@ -2944,18 +3048,23 @@
         <v>339</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="15"/>
+      <c r="G30" s="16" t="s">
+        <v>322</v>
+      </c>
       <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" ht="15">
@@ -2963,240 +3072,224 @@
         <v>339</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="C31" s="34">
         <v>1</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="E31" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="F31" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>30</v>
-      </c>
       <c r="G31" s="16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H31" s="37"/>
     </row>
-    <row r="32" spans="1:8" ht="15">
+    <row r="32" spans="1:8">
       <c r="A32" s="34" t="s">
         <v>339</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>323</v>
+        <v>432</v>
       </c>
       <c r="C32" s="34">
         <v>1</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F32" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E32" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>325</v>
-      </c>
+      <c r="F32" s="39"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:1024">
-      <c r="F33" s="32"/>
-      <c r="G33" s="21"/>
+      <c r="A33" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="C33" s="34">
+        <v>1</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="16"/>
       <c r="H33" s="37"/>
     </row>
-    <row r="34" spans="1:1024" s="20" customFormat="1">
-      <c r="A34" s="65" t="s">
+    <row r="34" spans="1:1024">
+      <c r="A34" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="C34" s="34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:1024">
+      <c r="A35" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="C35" s="34">
+        <v>1</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="39"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="37"/>
+    </row>
+    <row r="36" spans="1:1024">
+      <c r="E36" s="73"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="37"/>
+    </row>
+    <row r="37" spans="1:1024">
+      <c r="F37" s="32"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="37"/>
+    </row>
+    <row r="38" spans="1:1024" s="20" customFormat="1">
+      <c r="A38" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="23"/>
-      <c r="AMJ34" s="15"/>
-    </row>
-    <row r="35" spans="1:1024" ht="30">
-      <c r="A35" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="H35" s="37"/>
-    </row>
-    <row r="36" spans="1:1024" ht="15">
-      <c r="A36" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="H36" s="37"/>
-    </row>
-    <row r="37" spans="1:1024" ht="15">
-      <c r="A37" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1024" ht="15">
-      <c r="A38" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="42">
-        <v>2</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>334</v>
-      </c>
-      <c r="E38" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="H38" s="37"/>
-    </row>
-    <row r="39" spans="1:1024" ht="15">
+      <c r="B38" s="65"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="23"/>
+      <c r="AMJ38" s="15"/>
+    </row>
+    <row r="39" spans="1:1024" ht="30">
       <c r="A39" s="34" t="s">
         <v>271</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="C39" s="42">
-        <v>2</v>
-      </c>
-      <c r="D39" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="E39" s="77"/>
+        <v>265</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>15</v>
+      </c>
       <c r="G39" s="21" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="H39" s="37"/>
     </row>
-    <row r="40" spans="1:1024">
+    <row r="40" spans="1:1024" ht="15">
       <c r="A40" s="34" t="s">
         <v>271</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="C40" s="34">
-        <v>1</v>
-      </c>
-      <c r="D40" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="E40" s="77"/>
-      <c r="G40" s="15" t="s">
-        <v>333</v>
+        <v>316</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="H40" s="37"/>
     </row>
-    <row r="41" spans="1:1024">
+    <row r="41" spans="1:1024" ht="15">
       <c r="A41" s="34" t="s">
         <v>271</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="C41" s="34">
-        <v>23</v>
-      </c>
-      <c r="D41" s="62" t="s">
-        <v>308</v>
-      </c>
-      <c r="E41" s="76" t="s">
-        <v>312</v>
+        <v>277</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>15</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="H41" s="37"/>
-    </row>
-    <row r="42" spans="1:1024">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1024" ht="15">
       <c r="A42" s="34" t="s">
         <v>271</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="C42" s="34">
-        <v>28</v>
+        <v>272</v>
+      </c>
+      <c r="C42" s="42">
+        <v>2</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="E42" s="76"/>
-      <c r="G42" s="15" t="s">
-        <v>310</v>
+        <v>334</v>
+      </c>
+      <c r="E42" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>331</v>
       </c>
       <c r="H42" s="37"/>
     </row>
-    <row r="43" spans="1:1024">
+    <row r="43" spans="1:1024" ht="15">
       <c r="A43" s="34" t="s">
         <v>271</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="C43" s="34">
-        <v>5</v>
+        <v>261</v>
+      </c>
+      <c r="C43" s="42">
+        <v>2</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="E43" s="76"/>
-      <c r="G43" s="15" t="s">
-        <v>304</v>
+        <v>335</v>
+      </c>
+      <c r="E43" s="77"/>
+      <c r="G43" s="21" t="s">
+        <v>332</v>
       </c>
       <c r="H43" s="37"/>
     </row>
@@ -3205,464 +3298,479 @@
         <v>271</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C44" s="34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="E44" s="76"/>
+        <v>336</v>
+      </c>
+      <c r="E44" s="77"/>
       <c r="G44" s="15" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="H44" s="37"/>
     </row>
-    <row r="45" spans="1:1024" ht="30">
+    <row r="45" spans="1:1024">
       <c r="A45" s="34" t="s">
         <v>271</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="C45" s="34">
-        <v>6</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1024" ht="15">
+        <v>23</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="E45" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="H45" s="37"/>
+    </row>
+    <row r="46" spans="1:1024">
       <c r="A46" s="34" t="s">
         <v>271</v>
       </c>
       <c r="B46" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46" s="34">
+        <v>28</v>
+      </c>
+      <c r="D46" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="E46" s="79"/>
+      <c r="G46" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="H46" s="37"/>
+    </row>
+    <row r="47" spans="1:1024">
+      <c r="A47" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="34">
+        <v>5</v>
+      </c>
+      <c r="D47" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" s="79"/>
+      <c r="G47" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H47" s="37"/>
+    </row>
+    <row r="48" spans="1:1024">
+      <c r="A48" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C48" s="34">
+        <v>5</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="E48" s="79"/>
+      <c r="G48" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="H48" s="37"/>
+    </row>
+    <row r="49" spans="1:1024" ht="30">
+      <c r="A49" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="34">
+        <v>6</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1024" ht="15">
+      <c r="A50" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C50" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="D46" s="62" t="s">
+      <c r="D50" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E50" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="21" t="s">
+      <c r="G50" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="H46" s="17"/>
-    </row>
-    <row r="47" spans="1:1024">
-      <c r="B47" s="66"/>
-      <c r="D47" s="62"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="17"/>
-    </row>
-    <row r="49" spans="1:1024">
-      <c r="B49" s="66"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="62"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="37"/>
-    </row>
-    <row r="50" spans="1:1024" s="46" customFormat="1">
-      <c r="A50" s="74" t="s">
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:1024">
+      <c r="B51" s="66"/>
+      <c r="D51" s="62"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="53" spans="1:1024">
+      <c r="B53" s="66"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="62"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="37"/>
+    </row>
+    <row r="54" spans="1:1024" s="46" customFormat="1">
+      <c r="A54" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
-      <c r="AMJ50" s="15"/>
-    </row>
-    <row r="51" spans="1:1024" ht="120">
-      <c r="A51" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="B51" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="33">
-        <v>2</v>
-      </c>
-      <c r="D51" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="50"/>
-    </row>
-    <row r="52" spans="1:1024" ht="15">
-      <c r="A52" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="B52" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="33">
-        <v>1</v>
-      </c>
-      <c r="D52" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="50"/>
-    </row>
-    <row r="53" spans="1:1024" ht="120">
-      <c r="A53" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="B53" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="33">
-        <v>1</v>
-      </c>
-      <c r="D53" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" s="50"/>
-    </row>
-    <row r="54" spans="1:1024" ht="15">
-      <c r="A54" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="B54" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="33">
-        <v>1</v>
-      </c>
-      <c r="D54" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" s="50"/>
-    </row>
-    <row r="55" spans="1:1024" ht="15">
+      <c r="B54" s="68"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="49"/>
+      <c r="AMJ54" s="15"/>
+    </row>
+    <row r="55" spans="1:1024" ht="120">
       <c r="A55" s="34" t="s">
         <v>340</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="C55" s="33">
         <v>2</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="51"/>
+        <v>15</v>
+      </c>
+      <c r="F55" s="26"/>
       <c r="G55" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" s="37"/>
-    </row>
-    <row r="56" spans="1:1024" ht="30">
+        <v>36</v>
+      </c>
+      <c r="H55" s="50"/>
+    </row>
+    <row r="56" spans="1:1024" ht="15">
       <c r="A56" s="34" t="s">
         <v>340</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C56" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E56" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="21" t="s">
-        <v>408</v>
-      </c>
+      <c r="F56" s="26"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="50"/>
     </row>
-    <row r="57" spans="1:1024" ht="15">
+    <row r="57" spans="1:1024" ht="120">
       <c r="A57" s="34" t="s">
         <v>340</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C57" s="33">
         <v>1</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="H57" s="50"/>
     </row>
-    <row r="58" spans="1:1024" ht="30">
+    <row r="58" spans="1:1024" ht="15">
       <c r="A58" s="34" t="s">
         <v>340</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="C58" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="62" t="s">
-        <v>403</v>
-      </c>
-      <c r="F58" s="52"/>
+        <v>45</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="26"/>
       <c r="G58" s="21" t="s">
-        <v>404</v>
+        <v>46</v>
       </c>
       <c r="H58" s="50"/>
     </row>
-    <row r="59" spans="1:1024">
+    <row r="59" spans="1:1024" ht="15">
       <c r="A59" s="34" t="s">
         <v>340</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="C59" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="62" t="s">
-        <v>401</v>
-      </c>
-      <c r="E59" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="53"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="50"/>
-    </row>
-    <row r="60" spans="1:1024" ht="45">
+        <v>48</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="51"/>
+      <c r="G59" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="37"/>
+    </row>
+    <row r="60" spans="1:1024" ht="30">
       <c r="A60" s="34" t="s">
         <v>340</v>
       </c>
       <c r="B60" s="66" t="s">
-        <v>406</v>
+        <v>51</v>
       </c>
       <c r="C60" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="62" t="s">
-        <v>405</v>
+        <v>416</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>15</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>407</v>
       </c>
+      <c r="H60" s="50"/>
     </row>
     <row r="61" spans="1:1024" ht="15">
       <c r="A61" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="B61" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="C61" s="34">
+      <c r="B61" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="33">
         <v>1</v>
       </c>
-      <c r="D61" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="E61" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="F61" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="H61" s="37"/>
-    </row>
-    <row r="62" spans="1:1024" ht="15">
+      <c r="D61" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="50"/>
+    </row>
+    <row r="62" spans="1:1024" ht="30">
       <c r="A62" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="66" t="s">
+        <v>401</v>
+      </c>
+      <c r="C62" s="33">
+        <v>2</v>
+      </c>
+      <c r="D62" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="F62" s="52"/>
+      <c r="G62" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="H62" s="50"/>
+    </row>
+    <row r="63" spans="1:1024">
+      <c r="A63" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B63" s="66" t="s">
+        <v>414</v>
+      </c>
+      <c r="C63" s="33">
+        <v>1</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>415</v>
+      </c>
+      <c r="E63" s="57"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="50"/>
+    </row>
+    <row r="64" spans="1:1024">
+      <c r="A64" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B64" s="66" t="s">
+        <v>399</v>
+      </c>
+      <c r="C64" s="33">
+        <v>1</v>
+      </c>
+      <c r="D64" s="62" t="s">
+        <v>400</v>
+      </c>
+      <c r="E64" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="53"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="50"/>
+    </row>
+    <row r="65" spans="1:1024" ht="45">
+      <c r="A65" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B65" s="66" t="s">
+        <v>405</v>
+      </c>
+      <c r="C65" s="33">
+        <v>1</v>
+      </c>
+      <c r="D65" s="62" t="s">
+        <v>404</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1024" ht="15">
+      <c r="A66" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="C66" s="34">
+        <v>1</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="E66" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="F66" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="C62" s="34">
+      <c r="H66" s="37"/>
+    </row>
+    <row r="67" spans="1:1024" ht="15">
+      <c r="A67" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="C67" s="34">
         <v>1</v>
       </c>
-      <c r="D62" s="43" t="s">
+      <c r="D67" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="E67" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="F67" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="E62" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="F62" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1024">
-      <c r="B64" s="66"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="62"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="37"/>
-    </row>
-    <row r="65" spans="1:1024" s="46" customFormat="1">
-      <c r="A65" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="68"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="49"/>
-      <c r="AMJ65" s="15"/>
-    </row>
-    <row r="66" spans="1:1024" ht="30">
-      <c r="A66" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="B66" s="66" t="s">
-        <v>391</v>
-      </c>
-      <c r="C66" s="33">
+    </row>
+    <row r="68" spans="1:1024" ht="30">
+      <c r="A68" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C68" s="34">
         <v>1</v>
       </c>
-      <c r="D66" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="H66" s="37"/>
-    </row>
-    <row r="67" spans="1:1024" ht="30">
-      <c r="A67" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="B67" s="66" t="s">
-        <v>393</v>
-      </c>
-      <c r="C67" s="33">
-        <v>1</v>
-      </c>
-      <c r="D67" s="62" t="s">
-        <v>392</v>
-      </c>
-      <c r="E67" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H67" s="50"/>
-    </row>
-    <row r="68" spans="1:1024" ht="15">
-      <c r="A68" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="B68" s="66" t="s">
-        <v>394</v>
-      </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="H68" s="50"/>
-    </row>
-    <row r="69" spans="1:1024" ht="15">
-      <c r="A69" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="B69" s="66" t="s">
-        <v>347</v>
-      </c>
+      <c r="D68" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="E68" s="57"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="78" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1024">
+      <c r="B69" s="66"/>
       <c r="C69" s="33"/>
-      <c r="D69" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>15</v>
-      </c>
+      <c r="D69" s="62"/>
       <c r="G69" s="21"/>
       <c r="H69" s="37"/>
     </row>
-    <row r="70" spans="1:1024" ht="15">
-      <c r="A70" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="B70" s="66" t="s">
-        <v>348</v>
-      </c>
-      <c r="C70" s="33">
-        <v>1</v>
-      </c>
-      <c r="D70" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="F70" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" s="21"/>
-      <c r="H70" s="37"/>
-    </row>
-    <row r="71" spans="1:1024" ht="15">
+    <row r="70" spans="1:1024" s="46" customFormat="1">
+      <c r="A70" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="68"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="49"/>
+      <c r="AMJ70" s="15"/>
+    </row>
+    <row r="71" spans="1:1024" ht="30">
       <c r="A71" s="34" t="s">
         <v>342</v>
       </c>
@@ -3673,62 +3781,55 @@
         <v>1</v>
       </c>
       <c r="D71" s="62" t="s">
-        <v>395</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="F71" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="21" t="s">
-        <v>89</v>
+        <v>390</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="55" t="s">
+        <v>79</v>
       </c>
       <c r="H71" s="37"/>
     </row>
-    <row r="72" spans="1:1024" ht="15">
+    <row r="72" spans="1:1024" ht="30">
       <c r="A72" s="34" t="s">
         <v>342</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C72" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="F72" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="21"/>
-      <c r="H72" s="37"/>
+        <v>392</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" s="50"/>
     </row>
     <row r="73" spans="1:1024" ht="15">
       <c r="A73" s="34" t="s">
         <v>342</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="C73" s="33">
         <v>1</v>
       </c>
       <c r="D73" s="62" t="s">
-        <v>92</v>
+        <v>425</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F73" s="32" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H73" s="50"/>
     </row>
@@ -3737,20 +3838,18 @@
         <v>342</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C74" s="33">
         <v>1</v>
       </c>
       <c r="D74" s="62" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E74" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="21" t="s">
-        <v>98</v>
-      </c>
+      <c r="G74" s="21"/>
       <c r="H74" s="37"/>
     </row>
     <row r="75" spans="1:1024" ht="15">
@@ -3758,23 +3857,21 @@
         <v>342</v>
       </c>
       <c r="B75" s="66" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="C75" s="33">
         <v>1</v>
       </c>
       <c r="D75" s="62" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="E75" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="F75" s="38" t="s">
+      <c r="F75" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="G75" s="21" t="s">
-        <v>384</v>
-      </c>
+      <c r="G75" s="21"/>
       <c r="H75" s="37"/>
     </row>
     <row r="76" spans="1:1024" ht="15">
@@ -3782,23 +3879,21 @@
         <v>342</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="C76" s="33">
         <v>1</v>
       </c>
       <c r="D76" s="62" t="s">
-        <v>381</v>
-      </c>
-      <c r="E76" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="E76" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="F76" s="38" t="s">
+      <c r="F76" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="G76" s="21" t="s">
-        <v>385</v>
-      </c>
+      <c r="G76" s="21"/>
       <c r="H76" s="37"/>
     </row>
     <row r="77" spans="1:1024" ht="15">
@@ -3806,22 +3901,22 @@
         <v>342</v>
       </c>
       <c r="B77" s="66" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C77" s="33">
         <v>1</v>
       </c>
       <c r="D77" s="62" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="E77" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="F77" s="38" t="s">
+      <c r="F77" s="73" t="s">
         <v>32</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>387</v>
+        <v>89</v>
       </c>
       <c r="H77" s="37"/>
     </row>
@@ -3830,23 +3925,21 @@
         <v>342</v>
       </c>
       <c r="B78" s="66" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="C78" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="62" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="E78" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="F78" s="38" t="s">
+      <c r="F78" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="G78" s="21" t="s">
-        <v>386</v>
-      </c>
+      <c r="G78" s="21"/>
       <c r="H78" s="37"/>
     </row>
     <row r="79" spans="1:1024" ht="15">
@@ -3854,41 +3947,43 @@
         <v>342</v>
       </c>
       <c r="B79" s="66" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C79" s="33">
         <v>1</v>
       </c>
       <c r="D79" s="62" t="s">
-        <v>11</v>
+        <v>419</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="32"/>
+        <v>93</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>94</v>
+      </c>
       <c r="G79" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="37"/>
-    </row>
-    <row r="80" spans="1:1024" ht="30">
+        <v>95</v>
+      </c>
+      <c r="H79" s="50"/>
+    </row>
+    <row r="80" spans="1:1024" ht="15">
       <c r="A80" s="34" t="s">
         <v>342</v>
       </c>
       <c r="B80" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="C80" s="34">
-        <v>3</v>
+        <v>352</v>
+      </c>
+      <c r="C80" s="33">
+        <v>1</v>
       </c>
       <c r="D80" s="62" t="s">
-        <v>370</v>
+        <v>97</v>
       </c>
       <c r="E80" s="32" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>399</v>
+        <v>98</v>
       </c>
       <c r="H80" s="37"/>
     </row>
@@ -3897,19 +3992,22 @@
         <v>342</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C81" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>15</v>
+        <v>379</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F81" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>68</v>
+        <v>384</v>
       </c>
       <c r="H81" s="37"/>
     </row>
@@ -3918,13 +4016,13 @@
         <v>342</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="C82" s="33">
         <v>1</v>
       </c>
       <c r="D82" s="62" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E82" s="38" t="s">
         <v>295</v>
@@ -3933,7 +4031,7 @@
         <v>32</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H82" s="37"/>
     </row>
@@ -3942,13 +4040,13 @@
         <v>342</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="C83" s="33">
         <v>1</v>
       </c>
       <c r="D83" s="62" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E83" s="38" t="s">
         <v>295</v>
@@ -3957,54 +4055,176 @@
         <v>32</v>
       </c>
       <c r="G83" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="H83" s="37"/>
+    </row>
+    <row r="84" spans="1:8" ht="15">
+      <c r="A84" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="C84" s="33">
+        <v>1</v>
+      </c>
+      <c r="D84" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="H84" s="37"/>
+    </row>
+    <row r="85" spans="1:8" ht="15">
+      <c r="A85" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B85" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="C85" s="33">
+        <v>1</v>
+      </c>
+      <c r="D85" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="32"/>
+      <c r="G85" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="37"/>
+    </row>
+    <row r="86" spans="1:8" ht="30">
+      <c r="A86" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B86" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="C86" s="34">
+        <v>3</v>
+      </c>
+      <c r="D86" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="E86" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="H86" s="37"/>
+    </row>
+    <row r="87" spans="1:8" ht="15">
+      <c r="A87" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B87" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="C87" s="33">
+        <v>3</v>
+      </c>
+      <c r="D87" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H87" s="37"/>
+    </row>
+    <row r="88" spans="1:8" ht="15">
+      <c r="A88" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B88" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="C88" s="33">
+        <v>1</v>
+      </c>
+      <c r="D88" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="H88" s="37"/>
+    </row>
+    <row r="89" spans="1:8" ht="15">
+      <c r="A89" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B89" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="C89" s="33">
+        <v>1</v>
+      </c>
+      <c r="D89" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F89" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="H83" s="37"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="B84" s="66"/>
-      <c r="D84" s="62"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="37"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="D85" s="62"/>
-      <c r="G85" s="21"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="G86" s="21"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="D87" s="62"/>
-      <c r="G87" s="21"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="B88" s="66"/>
-      <c r="D88" s="62"/>
-      <c r="G88" s="21"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="B89" s="66"/>
-      <c r="D89" s="62"/>
-      <c r="G89" s="21"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="B90" s="66"/>
-      <c r="D90" s="62"/>
-      <c r="G90" s="21"/>
+      <c r="H89" s="37"/>
+    </row>
+    <row r="90" spans="1:8" ht="15">
+      <c r="A90" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B90" s="66" t="s">
+        <v>422</v>
+      </c>
+      <c r="C90" s="33">
+        <v>1</v>
+      </c>
+      <c r="D90" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="E90" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="26"/>
+      <c r="G90" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" s="50"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="66"/>
       <c r="D91" s="62"/>
       <c r="G91" s="21"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="66"/>
-      <c r="D92" s="62"/>
       <c r="G92" s="21"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="66"/>
       <c r="D93" s="62"/>
       <c r="G93" s="21"/>
     </row>
@@ -8798,120 +9018,175 @@
       <c r="D1051" s="62"/>
       <c r="G1051" s="21"/>
     </row>
+    <row r="1052" spans="2:7">
+      <c r="B1052" s="66"/>
+      <c r="D1052" s="62"/>
+      <c r="G1052" s="21"/>
+    </row>
+    <row r="1053" spans="2:7">
+      <c r="B1053" s="66"/>
+      <c r="D1053" s="62"/>
+      <c r="G1053" s="21"/>
+    </row>
+    <row r="1054" spans="2:7">
+      <c r="B1054" s="66"/>
+      <c r="D1054" s="62"/>
+      <c r="G1054" s="21"/>
+    </row>
+    <row r="1055" spans="2:7">
+      <c r="B1055" s="66"/>
+      <c r="D1055" s="62"/>
+      <c r="G1055" s="21"/>
+    </row>
+    <row r="1056" spans="2:7">
+      <c r="B1056" s="66"/>
+      <c r="D1056" s="62"/>
+      <c r="G1056" s="21"/>
+    </row>
+    <row r="1057" spans="2:7">
+      <c r="B1057" s="66"/>
+      <c r="D1057" s="62"/>
+      <c r="G1057" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="E42:E44"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:C6 B27:C27 C28 B8:C17 B34:C35 B22:C22 B88:C1051 C85:C87 H46:H48 B42:C42 C2:C3 A2:A3 A14:A17 A48 A24 B47:C58 B64:C75 B84:C84 B83 B79:C82">
-    <cfRule type="expression" dxfId="47" priority="36">
+  <conditionalFormatting sqref="B6:C6 B27:C27 C28 B8:C17 B38:C39 B22:C22 B94:C1057 C91:C93 H50:H52 B46:C46 C2:C3 A2:A3 A14:A17 A52 B51:C63 B69:C75 B89 B85:C88 B77:C81 A22:A29">
+    <cfRule type="expression" dxfId="50" priority="42">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="46" priority="35">
+    <cfRule type="expression" dxfId="49" priority="41">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="45" priority="33">
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="48" priority="39">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:C43">
-    <cfRule type="expression" dxfId="44" priority="25">
+  <conditionalFormatting sqref="B47:C47">
+    <cfRule type="expression" dxfId="47" priority="31">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:C44">
-    <cfRule type="expression" dxfId="43" priority="24">
+  <conditionalFormatting sqref="B48:C48">
+    <cfRule type="expression" dxfId="46" priority="30">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:C41">
-    <cfRule type="expression" dxfId="42" priority="23">
+  <conditionalFormatting sqref="B45:C45">
+    <cfRule type="expression" dxfId="45" priority="29">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C36">
-    <cfRule type="expression" dxfId="41" priority="22">
+  <conditionalFormatting sqref="B40:C40">
+    <cfRule type="expression" dxfId="44" priority="28">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:C46">
-    <cfRule type="expression" dxfId="40" priority="21">
+  <conditionalFormatting sqref="B50:C50">
+    <cfRule type="expression" dxfId="43" priority="27">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="39" priority="20">
+    <cfRule type="expression" dxfId="42" priority="26">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="expression" dxfId="38" priority="19">
+    <cfRule type="expression" dxfId="41" priority="25">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="37" priority="17">
+    <cfRule type="expression" dxfId="40" priority="23">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="expression" dxfId="36" priority="16">
+    <cfRule type="expression" dxfId="39" priority="22">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="35" priority="15">
+    <cfRule type="expression" dxfId="38" priority="21">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A30">
-    <cfRule type="expression" dxfId="34" priority="14">
+  <conditionalFormatting sqref="A30:A31">
+    <cfRule type="expression" dxfId="37" priority="19">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:A32">
-    <cfRule type="expression" dxfId="33" priority="13">
+  <conditionalFormatting sqref="C89">
+    <cfRule type="expression" dxfId="36" priority="14">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="32" priority="8">
+  <conditionalFormatting sqref="B82:C82">
+    <cfRule type="expression" dxfId="35" priority="13">
+      <formula>LEN(TRIM(#REF!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:C83">
+    <cfRule type="expression" dxfId="34" priority="12">
+      <formula>LEN(TRIM(#REF!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84:C84">
+    <cfRule type="expression" dxfId="33" priority="11">
+      <formula>LEN(TRIM(#REF!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:C64">
+    <cfRule type="expression" dxfId="32" priority="10">
+      <formula>LEN(TRIM(#REF!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:C65">
+    <cfRule type="expression" dxfId="31" priority="9">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:C76">
-    <cfRule type="expression" dxfId="31" priority="7">
-      <formula>LEN(TRIM(#REF!))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77:C77">
     <cfRule type="expression" dxfId="30" priority="6">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B78:C78">
+  <conditionalFormatting sqref="B90:C90">
     <cfRule type="expression" dxfId="29" priority="5">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:C59">
+  <conditionalFormatting sqref="A32 A36">
     <cfRule type="expression" dxfId="28" priority="4">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:C60">
+  <conditionalFormatting sqref="A33">
     <cfRule type="expression" dxfId="27" priority="3">
       <formula>LEN(TRIM(#REF!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>LEN(TRIM(#REF!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>LEN(TRIM(#REF!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E79" r:id="rId1" xr:uid="{B137CFAF-F4BE-494C-A965-951C0CCBF76C}"/>
-    <hyperlink ref="G79" r:id="rId2" xr:uid="{2365F65E-2329-B24D-9316-A9CE226A8157}"/>
+    <hyperlink ref="E85" r:id="rId1" xr:uid="{B137CFAF-F4BE-494C-A965-951C0CCBF76C}"/>
+    <hyperlink ref="G85" r:id="rId2" xr:uid="{2365F65E-2329-B24D-9316-A9CE226A8157}"/>
     <hyperlink ref="E11" r:id="rId3" xr:uid="{F2BAE3E7-C659-4744-95FD-465E096A042C}"/>
     <hyperlink ref="E18" r:id="rId4" display="Amazon link2" xr:uid="{25FD2A9E-2FAA-EE4A-B270-194F30D37677}"/>
     <hyperlink ref="E10" r:id="rId5" xr:uid="{4D6881D2-B163-4342-8E9E-39288F1F757C}"/>
@@ -8921,41 +9196,41 @@
     <hyperlink ref="E14" r:id="rId9" display="Ali Express link (kit)" xr:uid="{766333F9-43BC-AD49-9D3D-68DD13D4DA65}"/>
     <hyperlink ref="F15" r:id="rId10" xr:uid="{0A5A6637-FB15-FF45-838A-2E3DD3135727}"/>
     <hyperlink ref="F14" r:id="rId11" xr:uid="{F381A69F-901C-3D44-A094-B555C317BE4C}"/>
-    <hyperlink ref="F31" r:id="rId12" xr:uid="{F4238DBD-A536-6441-BD0B-9CC3DA0D51DE}"/>
+    <hyperlink ref="F30" r:id="rId12" xr:uid="{F4238DBD-A536-6441-BD0B-9CC3DA0D51DE}"/>
     <hyperlink ref="E13" r:id="rId13" xr:uid="{98554BCC-B051-514F-908C-29D39690BC1E}"/>
     <hyperlink ref="E20" r:id="rId14" xr:uid="{7C3B957C-120C-4243-B862-BF30E8E6DCC0}"/>
     <hyperlink ref="E27" r:id="rId15" xr:uid="{E2B1FA98-8074-D849-93FD-FF23B18FE3CC}"/>
-    <hyperlink ref="E51" r:id="rId16" xr:uid="{C3A79828-0364-5C47-B0F5-D458B09EEA50}"/>
-    <hyperlink ref="E52" r:id="rId17" xr:uid="{A7BFA1BC-66DB-834D-A4C1-2354D5E91BD5}"/>
-    <hyperlink ref="E53" r:id="rId18" xr:uid="{F5A19107-01DD-2142-B6AE-67C7C5C01192}"/>
-    <hyperlink ref="E54" r:id="rId19" xr:uid="{4E67491B-2AF7-DB41-A669-F0FBDC1FAFF3}"/>
-    <hyperlink ref="E55" r:id="rId20" xr:uid="{D9F02A71-9A21-3449-8B0C-FDBEB0D6A51D}"/>
-    <hyperlink ref="E56" r:id="rId21" xr:uid="{C1324653-4FFF-3540-A180-79D1223602D7}"/>
-    <hyperlink ref="E57" r:id="rId22" display="Amazon Link" xr:uid="{3F7A465D-9A8A-1B45-B942-DD6F0CB9A82D}"/>
-    <hyperlink ref="E80" r:id="rId23" xr:uid="{2D1B84C9-7012-2542-83CD-941241C43B8D}"/>
-    <hyperlink ref="E81" r:id="rId24" xr:uid="{7ECD8291-4286-154C-ADD8-F7FDF5781E66}"/>
-    <hyperlink ref="E66" r:id="rId25" xr:uid="{D4352E1F-944F-E248-B298-7E14ECE187C7}"/>
-    <hyperlink ref="G66" r:id="rId26" xr:uid="{E1BFCA0A-233C-EA4A-99D1-480B4B84696C}"/>
-    <hyperlink ref="E67" r:id="rId27" xr:uid="{E7D8A663-C1EB-9F44-9951-4309FA427873}"/>
-    <hyperlink ref="E68" r:id="rId28" xr:uid="{AF6DDC50-29B7-D84D-9C26-5768F1427CFD}"/>
-    <hyperlink ref="E69" r:id="rId29" xr:uid="{9C892BA9-1072-834A-9E42-4FA89CFD2571}"/>
-    <hyperlink ref="E73" r:id="rId30" xr:uid="{2E6CD293-E68D-D04F-A3D9-B3F86DDB5D31}"/>
-    <hyperlink ref="F73" r:id="rId31" xr:uid="{FA522719-4626-5F42-8825-22E0C6EE60AA}"/>
-    <hyperlink ref="E74" r:id="rId32" xr:uid="{FEF983C7-5044-6848-89D0-665F4E1E4C0D}"/>
+    <hyperlink ref="E55" r:id="rId16" xr:uid="{C3A79828-0364-5C47-B0F5-D458B09EEA50}"/>
+    <hyperlink ref="E56" r:id="rId17" xr:uid="{A7BFA1BC-66DB-834D-A4C1-2354D5E91BD5}"/>
+    <hyperlink ref="E57" r:id="rId18" xr:uid="{F5A19107-01DD-2142-B6AE-67C7C5C01192}"/>
+    <hyperlink ref="E58" r:id="rId19" xr:uid="{4E67491B-2AF7-DB41-A669-F0FBDC1FAFF3}"/>
+    <hyperlink ref="E59" r:id="rId20" xr:uid="{D9F02A71-9A21-3449-8B0C-FDBEB0D6A51D}"/>
+    <hyperlink ref="E60" r:id="rId21" xr:uid="{C1324653-4FFF-3540-A180-79D1223602D7}"/>
+    <hyperlink ref="E61" r:id="rId22" display="Amazon Link" xr:uid="{3F7A465D-9A8A-1B45-B942-DD6F0CB9A82D}"/>
+    <hyperlink ref="E86" r:id="rId23" xr:uid="{2D1B84C9-7012-2542-83CD-941241C43B8D}"/>
+    <hyperlink ref="E87" r:id="rId24" xr:uid="{7ECD8291-4286-154C-ADD8-F7FDF5781E66}"/>
+    <hyperlink ref="E71" r:id="rId25" xr:uid="{D4352E1F-944F-E248-B298-7E14ECE187C7}"/>
+    <hyperlink ref="G71" r:id="rId26" xr:uid="{E1BFCA0A-233C-EA4A-99D1-480B4B84696C}"/>
+    <hyperlink ref="E72" r:id="rId27" xr:uid="{E7D8A663-C1EB-9F44-9951-4309FA427873}"/>
+    <hyperlink ref="E73" r:id="rId28" xr:uid="{AF6DDC50-29B7-D84D-9C26-5768F1427CFD}"/>
+    <hyperlink ref="E74" r:id="rId29" xr:uid="{9C892BA9-1072-834A-9E42-4FA89CFD2571}"/>
+    <hyperlink ref="E79" r:id="rId30" xr:uid="{2E6CD293-E68D-D04F-A3D9-B3F86DDB5D31}"/>
+    <hyperlink ref="F79" r:id="rId31" xr:uid="{FA522719-4626-5F42-8825-22E0C6EE60AA}"/>
+    <hyperlink ref="E80" r:id="rId32" xr:uid="{FEF983C7-5044-6848-89D0-665F4E1E4C0D}"/>
     <hyperlink ref="F19" r:id="rId33" display="Amazon link2" xr:uid="{1CD81A99-3116-AD4B-B004-916240ADB0B4}"/>
     <hyperlink ref="F23" r:id="rId34" xr:uid="{26898C78-8DF6-8748-BBC6-A299B06B5837}"/>
     <hyperlink ref="E19" r:id="rId35" xr:uid="{DC4A1351-5E01-544F-B29E-67B96945B17D}"/>
     <hyperlink ref="E23" r:id="rId36" xr:uid="{6C57E195-28D9-FA47-8B0F-F920ED69DAD8}"/>
-    <hyperlink ref="E30" r:id="rId37" xr:uid="{EF3CCD49-8964-D646-9032-03B06CCFDD85}"/>
-    <hyperlink ref="E35" r:id="rId38" xr:uid="{AE99EB21-9166-6340-9473-A91686EF03E4}"/>
+    <hyperlink ref="E29" r:id="rId37" xr:uid="{EF3CCD49-8964-D646-9032-03B06CCFDD85}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{AE99EB21-9166-6340-9473-A91686EF03E4}"/>
     <hyperlink ref="E22" r:id="rId39" xr:uid="{6B96B9FA-D199-D04E-8DD0-0693AF422BFB}"/>
-    <hyperlink ref="E37" r:id="rId40" xr:uid="{BD7D32F2-CA0F-094D-95B3-EB00D9CA7CC9}"/>
-    <hyperlink ref="E41" r:id="rId41" display="Amazon assordment link" xr:uid="{E5ABA1C8-B07C-6343-9303-C0BF0BFD4205}"/>
-    <hyperlink ref="E36" r:id="rId42" xr:uid="{F09524B7-27BC-0C4F-9782-C37CFC7AF460}"/>
-    <hyperlink ref="F45" r:id="rId43" xr:uid="{5E000B03-0B35-7C4C-A2AF-3711E4A8AF5A}"/>
-    <hyperlink ref="F32" r:id="rId44" xr:uid="{BE8C4FA2-14A2-CD47-A40A-9592420B4658}"/>
-    <hyperlink ref="E46" r:id="rId45" xr:uid="{FCA84838-04E2-514E-9275-9F04CF67851B}"/>
-    <hyperlink ref="E38:E40" r:id="rId46" display="Amazon link" xr:uid="{C391115A-0487-0E42-9D94-A87C8B9A05C2}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{BD7D32F2-CA0F-094D-95B3-EB00D9CA7CC9}"/>
+    <hyperlink ref="E45" r:id="rId41" display="Amazon assordment link" xr:uid="{E5ABA1C8-B07C-6343-9303-C0BF0BFD4205}"/>
+    <hyperlink ref="E40" r:id="rId42" xr:uid="{F09524B7-27BC-0C4F-9782-C37CFC7AF460}"/>
+    <hyperlink ref="F49" r:id="rId43" xr:uid="{5E000B03-0B35-7C4C-A2AF-3711E4A8AF5A}"/>
+    <hyperlink ref="F31" r:id="rId44" xr:uid="{BE8C4FA2-14A2-CD47-A40A-9592420B4658}"/>
+    <hyperlink ref="E50" r:id="rId45" xr:uid="{FCA84838-04E2-514E-9275-9F04CF67851B}"/>
+    <hyperlink ref="E42:E44" r:id="rId46" display="Amazon link" xr:uid="{C391115A-0487-0E42-9D94-A87C8B9A05C2}"/>
     <hyperlink ref="E28" r:id="rId47" xr:uid="{96132316-BFAC-8441-B4E2-03E106516453}"/>
     <hyperlink ref="E21" r:id="rId48" xr:uid="{3FDDB2B3-433A-0949-B925-8CC8CC6D5B26}"/>
     <hyperlink ref="F24" r:id="rId49" xr:uid="{77D68BC9-BD62-BE42-A9A2-29F2A6E2338F}"/>
@@ -8964,32 +9239,41 @@
     <hyperlink ref="E25" r:id="rId52" xr:uid="{DE76558C-F5B7-9A4B-8913-609588464702}"/>
     <hyperlink ref="F26" r:id="rId53" xr:uid="{69DF54BF-B14A-054A-B1F6-4E6463D72E6B}"/>
     <hyperlink ref="E26" r:id="rId54" xr:uid="{05912F73-8115-C749-99F9-64EA4759293D}"/>
-    <hyperlink ref="F82" r:id="rId55" xr:uid="{92507FD0-C7A2-084F-B0BF-2926A832C6E5}"/>
-    <hyperlink ref="F83" r:id="rId56" xr:uid="{727444B8-14EA-3F48-AA45-CF7CB58A45D5}"/>
-    <hyperlink ref="E82" r:id="rId57" xr:uid="{D3980E50-88C1-DA43-8B36-096885FA5DFA}"/>
-    <hyperlink ref="E83" r:id="rId58" xr:uid="{C146BDA2-25FC-A44D-A3AC-D1276AE4FA0B}"/>
-    <hyperlink ref="F70" r:id="rId59" xr:uid="{F2A307F1-AEF1-2D41-B527-77342E2C6421}"/>
-    <hyperlink ref="F71" r:id="rId60" xr:uid="{3C3E09D5-23FC-F941-97B5-12D3345CAD2C}"/>
-    <hyperlink ref="F72" r:id="rId61" xr:uid="{D297BF5B-8E6B-E248-9453-A64373EE52DF}"/>
-    <hyperlink ref="E70" r:id="rId62" xr:uid="{97DD8502-80A0-2247-AE53-4E1B4CCD5A02}"/>
-    <hyperlink ref="E71" r:id="rId63" xr:uid="{00FDBB66-6023-ED4B-824D-AB895D8C4652}"/>
-    <hyperlink ref="E72" r:id="rId64" xr:uid="{ADEFF5A1-3CFA-5744-B7A7-156293700CE6}"/>
-    <hyperlink ref="F75" r:id="rId65" xr:uid="{CFA95CC4-62BB-E041-9316-335E4EBB4234}"/>
-    <hyperlink ref="F76" r:id="rId66" xr:uid="{82FB6B94-417F-BC42-BEA2-138C97554C11}"/>
-    <hyperlink ref="F77" r:id="rId67" xr:uid="{28FA484F-010E-7F49-A397-9DC22BA217C0}"/>
-    <hyperlink ref="F78" r:id="rId68" xr:uid="{FE3B38D2-C2E8-0949-BC7C-4322B1F52890}"/>
-    <hyperlink ref="E75" r:id="rId69" xr:uid="{CF45DEE7-C337-3640-8684-53319C3DE895}"/>
-    <hyperlink ref="E76" r:id="rId70" xr:uid="{A156BC57-5EE0-5E46-8BC3-772D153DDEB3}"/>
-    <hyperlink ref="E77" r:id="rId71" xr:uid="{B77AB816-982C-BC4E-897B-E8F92A332F31}"/>
-    <hyperlink ref="E78" r:id="rId72" xr:uid="{26D67589-8276-364C-A783-2F5C44444EB3}"/>
-    <hyperlink ref="E31" r:id="rId73" xr:uid="{4ACD83DA-DADB-C744-9FB4-21FD53171DAB}"/>
-    <hyperlink ref="E59" r:id="rId74" xr:uid="{FEC649DC-9B8E-9646-8127-8E1FC1450FCB}"/>
-    <hyperlink ref="F61" r:id="rId75" xr:uid="{56E8E7C4-C0F6-D44A-94FF-30ECDE238FD5}"/>
-    <hyperlink ref="E61" r:id="rId76" xr:uid="{AC66BCCB-21EC-1248-BB6E-0877A1F9CDC6}"/>
-    <hyperlink ref="F62" r:id="rId77" xr:uid="{114E00F7-B93B-DE43-A878-3CE5BDD56172}"/>
-    <hyperlink ref="E62" r:id="rId78" xr:uid="{57570501-E9D2-FE4E-9EDD-2C78AC3E9E23}"/>
+    <hyperlink ref="F88" r:id="rId55" xr:uid="{92507FD0-C7A2-084F-B0BF-2926A832C6E5}"/>
+    <hyperlink ref="F89" r:id="rId56" xr:uid="{727444B8-14EA-3F48-AA45-CF7CB58A45D5}"/>
+    <hyperlink ref="E88" r:id="rId57" xr:uid="{D3980E50-88C1-DA43-8B36-096885FA5DFA}"/>
+    <hyperlink ref="E89" r:id="rId58" xr:uid="{C146BDA2-25FC-A44D-A3AC-D1276AE4FA0B}"/>
+    <hyperlink ref="F75" r:id="rId59" xr:uid="{F2A307F1-AEF1-2D41-B527-77342E2C6421}"/>
+    <hyperlink ref="F77" r:id="rId60" xr:uid="{3C3E09D5-23FC-F941-97B5-12D3345CAD2C}"/>
+    <hyperlink ref="F78" r:id="rId61" xr:uid="{D297BF5B-8E6B-E248-9453-A64373EE52DF}"/>
+    <hyperlink ref="E75" r:id="rId62" xr:uid="{97DD8502-80A0-2247-AE53-4E1B4CCD5A02}"/>
+    <hyperlink ref="E77" r:id="rId63" xr:uid="{00FDBB66-6023-ED4B-824D-AB895D8C4652}"/>
+    <hyperlink ref="E78" r:id="rId64" xr:uid="{ADEFF5A1-3CFA-5744-B7A7-156293700CE6}"/>
+    <hyperlink ref="F81" r:id="rId65" xr:uid="{CFA95CC4-62BB-E041-9316-335E4EBB4234}"/>
+    <hyperlink ref="F82" r:id="rId66" xr:uid="{82FB6B94-417F-BC42-BEA2-138C97554C11}"/>
+    <hyperlink ref="F83" r:id="rId67" xr:uid="{28FA484F-010E-7F49-A397-9DC22BA217C0}"/>
+    <hyperlink ref="F84" r:id="rId68" xr:uid="{FE3B38D2-C2E8-0949-BC7C-4322B1F52890}"/>
+    <hyperlink ref="E81" r:id="rId69" xr:uid="{CF45DEE7-C337-3640-8684-53319C3DE895}"/>
+    <hyperlink ref="E82" r:id="rId70" xr:uid="{A156BC57-5EE0-5E46-8BC3-772D153DDEB3}"/>
+    <hyperlink ref="E83" r:id="rId71" xr:uid="{B77AB816-982C-BC4E-897B-E8F92A332F31}"/>
+    <hyperlink ref="E84" r:id="rId72" xr:uid="{26D67589-8276-364C-A783-2F5C44444EB3}"/>
+    <hyperlink ref="E30" r:id="rId73" xr:uid="{4ACD83DA-DADB-C744-9FB4-21FD53171DAB}"/>
+    <hyperlink ref="E64" r:id="rId74" xr:uid="{FEC649DC-9B8E-9646-8127-8E1FC1450FCB}"/>
+    <hyperlink ref="F66" r:id="rId75" xr:uid="{56E8E7C4-C0F6-D44A-94FF-30ECDE238FD5}"/>
+    <hyperlink ref="E66" r:id="rId76" xr:uid="{AC66BCCB-21EC-1248-BB6E-0877A1F9CDC6}"/>
+    <hyperlink ref="F67" r:id="rId77" xr:uid="{114E00F7-B93B-DE43-A878-3CE5BDD56172}"/>
+    <hyperlink ref="E67" r:id="rId78" xr:uid="{57570501-E9D2-FE4E-9EDD-2C78AC3E9E23}"/>
+    <hyperlink ref="E76" r:id="rId79" xr:uid="{42FEA3BF-78C4-CB40-B63D-2F1736528EF3}"/>
+    <hyperlink ref="F76" r:id="rId80" xr:uid="{CC65263D-A635-724F-8BA7-02F71CBC5886}"/>
+    <hyperlink ref="E90" r:id="rId81" xr:uid="{ADF45541-D227-9843-BA1E-C6C7F22F0B89}"/>
+    <hyperlink ref="E45:E48" r:id="rId82" display="Amazon link - assortment" xr:uid="{76E8B67E-0C96-9645-A006-C1C3BD828B07}"/>
+    <hyperlink ref="E32" r:id="rId83" xr:uid="{00622DE3-4CF5-134D-8DDF-0A9BBCB83F25}"/>
+    <hyperlink ref="E33" r:id="rId84" xr:uid="{12EFFDAA-2A41-194A-94BD-8722F1E58182}"/>
+    <hyperlink ref="E34" r:id="rId85" xr:uid="{DF5A7BC6-BBCC-7549-A68B-BFED40ED0228}"/>
+    <hyperlink ref="E35" r:id="rId86" xr:uid="{85E57CA5-441E-D44F-9CFE-1DF21F57ECBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="445">
   <si>
     <t xml:space="preserve">MicroLab Parts List</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t xml:space="preserve">Control Case (Printed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicroLab link</t>
   </si>
   <si>
     <t xml:space="preserve">Github Link</t>
@@ -516,6 +513,9 @@
     <t xml:space="preserve">Cooling Unit Lid (Printed)</t>
   </si>
   <si>
+    <t xml:space="preserve">MicroLab link</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lid for the  jar </t>
   </si>
   <si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reactor manifold core (Printed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: For particularly high temperatures (above 70C) or particularly strong solvents, you may want materials that are not common for consumer printers. Ordering from a vendor like Craftcloud in a material such as ULTEM 1010 or PPSU costs around $75 for this part (in summer 2024).</t>
   </si>
   <si>
     <t xml:space="preserve">RU-LID</t>
@@ -2336,11 +2339,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G91" activeCellId="0" sqref="G91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F105" activeCellId="0" sqref="F105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.03125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.02"/>
@@ -2733,7 +2736,7 @@
       </c>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2749,83 +2752,75 @@
       <c r="E23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="0"/>
+      <c r="G23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="0"/>
+      <c r="G24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="0"/>
+      <c r="G25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="0"/>
+      <c r="G26" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="H26" s="24"/>
     </row>
@@ -2834,20 +2829,20 @@
         <v>11</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="24"/>
     </row>
@@ -2856,16 +2851,16 @@
         <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="33" t="s">
         <v>68</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>69</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="6"/>
@@ -2876,16 +2871,16 @@
         <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="24"/>
@@ -2895,22 +2890,22 @@
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="24"/>
     </row>
@@ -2919,19 +2914,19 @@
         <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" s="30" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31" s="24"/>
     </row>
@@ -2940,13 +2935,13 @@
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>14</v>
@@ -2960,13 +2955,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>14</v>
@@ -2980,13 +2975,13 @@
         <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>14</v>
@@ -3000,13 +2995,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>14</v>
@@ -3028,7 +3023,7 @@
     </row>
     <row r="38" s="20" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="15"/>
@@ -3040,244 +3035,244 @@
     </row>
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="34" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H42" s="24"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="34" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" s="35"/>
       <c r="G43" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" s="35"/>
       <c r="G44" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H44" s="24"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>44</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H45" s="24"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>28</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" s="31"/>
       <c r="G46" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" s="31"/>
       <c r="G47" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H47" s="24"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" s="31"/>
       <c r="G48" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="36" t="s">
         <v>118</v>
-      </c>
-      <c r="E49" s="36" t="s">
-        <v>119</v>
       </c>
       <c r="F49" s="37" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>123</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H50" s="39"/>
     </row>
@@ -3296,7 +3291,7 @@
     </row>
     <row r="54" s="46" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="41"/>
       <c r="C54" s="42"/>
@@ -3309,38 +3304,38 @@
     </row>
     <row r="55" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>127</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="47"/>
       <c r="G55" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H55" s="48"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>14</v>
@@ -3351,105 +3346,105 @@
     </row>
     <row r="57" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D57" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="G57" s="23" t="s">
-        <v>136</v>
       </c>
       <c r="H57" s="48"/>
     </row>
     <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="47"/>
       <c r="G58" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H58" s="48"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D59" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="F59" s="49"/>
       <c r="G59" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H59" s="24"/>
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H60" s="48"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>14</v>
@@ -3459,35 +3454,35 @@
     </row>
     <row r="62" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F62" s="50"/>
       <c r="G62" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H62" s="48"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F63" s="50"/>
       <c r="G63" s="23"/>
@@ -3495,16 +3490,16 @@
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E64" s="31" t="s">
         <v>14</v>
@@ -3515,39 +3510,39 @@
     </row>
     <row r="65" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D65" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>56</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>161</v>
@@ -3556,7 +3551,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>162</v>
@@ -3568,10 +3563,10 @@
         <v>163</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F67" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>56</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>164</v>
@@ -3579,7 +3574,7 @@
     </row>
     <row r="68" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>165</v>
@@ -3676,7 +3671,7 @@
       <c r="G73" s="23"/>
       <c r="H73" s="48"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>169</v>
       </c>
@@ -3689,38 +3684,36 @@
       <c r="D74" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F74" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G74" s="23"/>
+      <c r="F74" s="0"/>
+      <c r="G74" s="23" t="s">
+        <v>180</v>
+      </c>
       <c r="H74" s="24"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E75" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F75" s="31" t="s">
-        <v>56</v>
-      </c>
+      <c r="F75" s="0"/>
       <c r="G75" s="23"/>
       <c r="H75" s="24"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>169</v>
       </c>
@@ -3731,38 +3724,34 @@
         <v>1</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E76" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F76" s="31" t="s">
-        <v>56</v>
-      </c>
+      <c r="F76" s="0"/>
       <c r="G76" s="23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H76" s="24"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="E77" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E77" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F77" s="31" t="s">
-        <v>56</v>
-      </c>
+      <c r="F77" s="0"/>
       <c r="G77" s="23"/>
       <c r="H77" s="24"/>
     </row>
@@ -3777,16 +3766,16 @@
         <v>1</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H78" s="48"/>
     </row>
@@ -3795,115 +3784,107 @@
         <v>169</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H79" s="24"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C80" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="F80" s="0"/>
       <c r="G80" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H80" s="24"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C81" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="F81" s="0"/>
       <c r="G81" s="23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H81" s="24"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C82" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="F82" s="0"/>
       <c r="G82" s="23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H82" s="24"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="F83" s="0"/>
       <c r="G83" s="23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H83" s="24"/>
     </row>
@@ -3912,41 +3893,41 @@
         <v>169</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H84" s="24"/>
     </row>
-    <row r="85" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>3</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H85" s="24"/>
     </row>
@@ -3955,67 +3936,63 @@
         <v>169</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C86" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H86" s="24"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C87" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="F87" s="0"/>
       <c r="G87" s="23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H87" s="24"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="F88" s="0"/>
       <c r="G88" s="23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H88" s="24"/>
     </row>
@@ -4024,20 +4001,20 @@
         <v>169</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="47"/>
       <c r="G89" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H89" s="48"/>
     </row>
@@ -4046,16 +4023,16 @@
         <v>169</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9038,75 +9015,62 @@
     <hyperlink ref="E20" r:id="rId13" display="Amazon link"/>
     <hyperlink ref="E21" r:id="rId14" display="Amazon link"/>
     <hyperlink ref="E22" r:id="rId15" display="Amazon link"/>
-    <hyperlink ref="E23" r:id="rId16" display="MicroLab link"/>
-    <hyperlink ref="F23" r:id="rId17" display="Github Link"/>
-    <hyperlink ref="E24" r:id="rId18" display="MicroLab link"/>
-    <hyperlink ref="F24" r:id="rId19" display="Github Link"/>
-    <hyperlink ref="E25" r:id="rId20" display="MicroLab link"/>
-    <hyperlink ref="F25" r:id="rId21" display="Github Link"/>
-    <hyperlink ref="E26" r:id="rId22" display="MicroLab link"/>
-    <hyperlink ref="F26" r:id="rId23" display="Github Link"/>
-    <hyperlink ref="E27" r:id="rId24" display="Amazon link"/>
-    <hyperlink ref="E28" r:id="rId25" display="Ali Express Link"/>
-    <hyperlink ref="E29" r:id="rId26" display="Ali Express Link"/>
-    <hyperlink ref="E30" r:id="rId27" display="Amazon link"/>
-    <hyperlink ref="F30" r:id="rId28" display="Ali Express Link"/>
-    <hyperlink ref="F31" r:id="rId29" display="Amazon link"/>
-    <hyperlink ref="E32" r:id="rId30" display="Amazon link"/>
-    <hyperlink ref="E33" r:id="rId31" display="Amazon link"/>
-    <hyperlink ref="E34" r:id="rId32" display="Amazon link"/>
-    <hyperlink ref="E35" r:id="rId33" display="Amazon link"/>
-    <hyperlink ref="E39" r:id="rId34" display="Amazon link"/>
-    <hyperlink ref="E40" r:id="rId35" display="Amazon link"/>
-    <hyperlink ref="E41" r:id="rId36" display="Amazon link"/>
-    <hyperlink ref="E42" r:id="rId37" display="Amazon link"/>
-    <hyperlink ref="E45" r:id="rId38" display="Amazon link - assortment"/>
-    <hyperlink ref="F49" r:id="rId39" display="Amazon link"/>
-    <hyperlink ref="E50" r:id="rId40" display="Amazon link"/>
-    <hyperlink ref="E55" r:id="rId41" display="Amazon link"/>
-    <hyperlink ref="E56" r:id="rId42" display="Amazon link"/>
-    <hyperlink ref="E57" r:id="rId43" display="Amazon link for raw copper tubing"/>
-    <hyperlink ref="E58" r:id="rId44" display="Amazon link"/>
-    <hyperlink ref="E59" r:id="rId45" display="McMaster link"/>
-    <hyperlink ref="E60" r:id="rId46" display="Amazon link"/>
-    <hyperlink ref="E61" r:id="rId47" display="Amazon link"/>
-    <hyperlink ref="E64" r:id="rId48" display="Amazon link"/>
-    <hyperlink ref="E66" r:id="rId49" display="MicroLab link"/>
-    <hyperlink ref="F66" r:id="rId50" display="Github Link"/>
-    <hyperlink ref="E67" r:id="rId51" display="MicroLab link"/>
-    <hyperlink ref="F67" r:id="rId52" display="Github Link"/>
-    <hyperlink ref="E71" r:id="rId53" display="Amazon link"/>
-    <hyperlink ref="G71" r:id="rId54" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="E72" r:id="rId55" display="Amazon link"/>
-    <hyperlink ref="E73" r:id="rId56" display="Amazon link"/>
-    <hyperlink ref="E74" r:id="rId57" display="MicroLab link"/>
-    <hyperlink ref="F74" r:id="rId58" display="Github Link"/>
-    <hyperlink ref="E75" r:id="rId59" display="MicroLab link"/>
-    <hyperlink ref="F75" r:id="rId60" display="Github Link"/>
-    <hyperlink ref="E76" r:id="rId61" display="MicroLab link"/>
-    <hyperlink ref="F76" r:id="rId62" display="Github Link"/>
-    <hyperlink ref="E77" r:id="rId63" display="MicroLab link"/>
-    <hyperlink ref="F77" r:id="rId64" display="Github Link"/>
-    <hyperlink ref="E78" r:id="rId65" display="Amazon 4oz link"/>
-    <hyperlink ref="F78" r:id="rId66" display="Amazon 6oz link"/>
-    <hyperlink ref="E79" r:id="rId67" display="Amazon link"/>
-    <hyperlink ref="E80" r:id="rId68" display="MicroLab link"/>
-    <hyperlink ref="F80" r:id="rId69" display="Github Link"/>
-    <hyperlink ref="E81" r:id="rId70" display="MicroLab link"/>
-    <hyperlink ref="F81" r:id="rId71" display="Github Link"/>
-    <hyperlink ref="E82" r:id="rId72" display="MicroLab link"/>
-    <hyperlink ref="F82" r:id="rId73" display="Github Link"/>
-    <hyperlink ref="E83" r:id="rId74" display="MicroLab link"/>
-    <hyperlink ref="F83" r:id="rId75" display="Github Link"/>
-    <hyperlink ref="E84" r:id="rId76" display="Ali Express link"/>
-    <hyperlink ref="G84" r:id="rId77" display="Used to monitor the temperature in the reaction chamber. This is a link to a USB DS18B20 "/>
-    <hyperlink ref="E85" r:id="rId78" display="Amazon link"/>
-    <hyperlink ref="E86" r:id="rId79" display="Amazon link"/>
-    <hyperlink ref="E87" r:id="rId80" display="MicroLab link"/>
-    <hyperlink ref="F87" r:id="rId81" display="Github Link"/>
-    <hyperlink ref="E88" r:id="rId82" display="MicroLab link"/>
-    <hyperlink ref="F88" r:id="rId83" display="Github Link"/>
-    <hyperlink ref="E89" r:id="rId84" display="Amazon link"/>
+    <hyperlink ref="E23" r:id="rId16" display="Github Link"/>
+    <hyperlink ref="E24" r:id="rId17" display="Github Link"/>
+    <hyperlink ref="E25" r:id="rId18" display="Github Link"/>
+    <hyperlink ref="E26" r:id="rId19" display="Github Link"/>
+    <hyperlink ref="E27" r:id="rId20" display="Amazon link"/>
+    <hyperlink ref="E28" r:id="rId21" display="Ali Express Link"/>
+    <hyperlink ref="E29" r:id="rId22" display="Ali Express Link"/>
+    <hyperlink ref="E30" r:id="rId23" display="Amazon link"/>
+    <hyperlink ref="F30" r:id="rId24" display="Ali Express Link"/>
+    <hyperlink ref="F31" r:id="rId25" display="Amazon link"/>
+    <hyperlink ref="E32" r:id="rId26" display="Amazon link"/>
+    <hyperlink ref="E33" r:id="rId27" display="Amazon link"/>
+    <hyperlink ref="E34" r:id="rId28" display="Amazon link"/>
+    <hyperlink ref="E35" r:id="rId29" display="Amazon link"/>
+    <hyperlink ref="E39" r:id="rId30" display="Amazon link"/>
+    <hyperlink ref="E40" r:id="rId31" display="Amazon link"/>
+    <hyperlink ref="E41" r:id="rId32" display="Amazon link"/>
+    <hyperlink ref="E42" r:id="rId33" display="Amazon link"/>
+    <hyperlink ref="E45" r:id="rId34" display="Amazon link - assortment"/>
+    <hyperlink ref="F49" r:id="rId35" display="Amazon link"/>
+    <hyperlink ref="E50" r:id="rId36" display="Amazon link"/>
+    <hyperlink ref="E55" r:id="rId37" display="Amazon link"/>
+    <hyperlink ref="E56" r:id="rId38" display="Amazon link"/>
+    <hyperlink ref="E57" r:id="rId39" display="Amazon link for raw copper tubing"/>
+    <hyperlink ref="E58" r:id="rId40" display="Amazon link"/>
+    <hyperlink ref="E59" r:id="rId41" display="McMaster link"/>
+    <hyperlink ref="E60" r:id="rId42" display="Amazon link"/>
+    <hyperlink ref="E61" r:id="rId43" display="Amazon link"/>
+    <hyperlink ref="E64" r:id="rId44" display="Amazon link"/>
+    <hyperlink ref="E66" r:id="rId45" display="MicroLab link"/>
+    <hyperlink ref="F66" r:id="rId46" display="Github Link"/>
+    <hyperlink ref="E67" r:id="rId47" display="MicroLab link"/>
+    <hyperlink ref="F67" r:id="rId48" display="Github Link"/>
+    <hyperlink ref="E71" r:id="rId49" display="Amazon link"/>
+    <hyperlink ref="G71" r:id="rId50" display="This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
+    <hyperlink ref="E72" r:id="rId51" display="Amazon link"/>
+    <hyperlink ref="E73" r:id="rId52" display="Amazon link"/>
+    <hyperlink ref="E74" r:id="rId53" display="Github Link"/>
+    <hyperlink ref="G74" r:id="rId54" display="Craftcloud"/>
+    <hyperlink ref="E75" r:id="rId55" display="Github Link"/>
+    <hyperlink ref="E76" r:id="rId56" display="Github Link"/>
+    <hyperlink ref="E77" r:id="rId57" display="Github Link"/>
+    <hyperlink ref="E78" r:id="rId58" display="Amazon 4oz link"/>
+    <hyperlink ref="F78" r:id="rId59" display="Amazon 6oz link"/>
+    <hyperlink ref="E79" r:id="rId60" display="Amazon link"/>
+    <hyperlink ref="E80" r:id="rId61" display="Github Link"/>
+    <hyperlink ref="E81" r:id="rId62" display="Github Link"/>
+    <hyperlink ref="E82" r:id="rId63" display="Github Link"/>
+    <hyperlink ref="E83" r:id="rId64" display="Github Link"/>
+    <hyperlink ref="E84" r:id="rId65" display="Ali Express link"/>
+    <hyperlink ref="G84" r:id="rId66" display="Used to monitor the temperature in the reaction chamber. This is a link to a USB DS18B20 "/>
+    <hyperlink ref="E85" r:id="rId67" display="Amazon link"/>
+    <hyperlink ref="E86" r:id="rId68" display="Amazon link"/>
+    <hyperlink ref="E87" r:id="rId69" display="Github Link"/>
+    <hyperlink ref="E88" r:id="rId70" display="Github Link"/>
+    <hyperlink ref="E89" r:id="rId71" display="Amazon link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -9129,7 +9093,7 @@
       <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.03125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="13.02"/>
@@ -9251,7 +9215,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H10" s="24"/>
     </row>
@@ -9273,7 +9237,7 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H11" s="24"/>
     </row>
@@ -9521,11 +9485,11 @@
         <v>54</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="24"/>
     </row>
@@ -9534,20 +9498,20 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -9556,20 +9520,20 @@
         <v>11</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="24"/>
     </row>
@@ -9578,20 +9542,20 @@
         <v>11</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H26" s="24"/>
     </row>
@@ -9600,20 +9564,20 @@
         <v>11</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="24"/>
     </row>
@@ -9622,16 +9586,16 @@
         <v>11</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="33" t="s">
         <v>68</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>69</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="6"/>
@@ -9642,16 +9606,16 @@
         <v>11</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C29" s="32" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="32"/>
@@ -9662,16 +9626,16 @@
         <v>11</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="59" t="s">
         <v>68</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>69</v>
       </c>
       <c r="F30" s="59"/>
       <c r="G30" s="6"/>
@@ -9682,20 +9646,20 @@
         <v>11</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="24"/>
     </row>
@@ -9704,20 +9668,20 @@
         <v>11</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H32" s="24"/>
     </row>
@@ -9728,7 +9692,7 @@
     </row>
     <row r="34" s="20" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="57"/>
       <c r="D34" s="57"/>
@@ -9739,244 +9703,244 @@
     </row>
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="32" t="n">
         <v>2</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="32" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="35"/>
       <c r="G39" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" s="35"/>
       <c r="G40" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>23</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>44</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>28</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="26"/>
       <c r="G42" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H42" s="24"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" s="26"/>
       <c r="G43" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="26"/>
       <c r="G44" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H44" s="24"/>
     </row>
     <row r="45" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F45" s="37" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="39" t="s">
         <v>122</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>123</v>
       </c>
       <c r="E46" s="30" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H46" s="39"/>
     </row>
@@ -9999,7 +9963,7 @@
     </row>
     <row r="50" s="46" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" s="60"/>
       <c r="D50" s="57"/>
@@ -10011,38 +9975,38 @@
     </row>
     <row r="51" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="39" t="s">
         <v>126</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>127</v>
       </c>
       <c r="C51" s="23" t="n">
         <v>2</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="47"/>
       <c r="G51" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H51" s="48"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>14</v>
@@ -10053,105 +10017,105 @@
     </row>
     <row r="53" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D53" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>136</v>
       </c>
       <c r="H53" s="48"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C54" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="47"/>
       <c r="G54" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H54" s="48"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="23" t="n">
         <v>2</v>
       </c>
       <c r="D55" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="F55" s="49"/>
       <c r="G55" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" s="23" t="n">
         <v>2</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H56" s="48"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C57" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>25</v>
@@ -10161,42 +10125,42 @@
     </row>
     <row r="58" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C58" s="23" t="n">
         <v>2</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F58" s="50"/>
       <c r="G58" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H58" s="48"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C59" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H59" s="24"/>
     </row>
@@ -10210,7 +10174,7 @@
     </row>
     <row r="61" s="46" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B61" s="60"/>
       <c r="D61" s="57"/>
@@ -10222,16 +10186,16 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C62" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>14</v>
@@ -10241,62 +10205,62 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H63" s="24"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="24"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C65" s="23" t="n">
         <v>2</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H65" s="24"/>
     </row>
@@ -10324,13 +10288,13 @@
         <v>169</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C68" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D68" s="39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>14</v>
@@ -10345,13 +10309,13 @@
         <v>169</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C69" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D69" s="39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>14</v>
@@ -10366,17 +10330,17 @@
         <v>169</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="39" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H70" s="48"/>
     </row>
@@ -10385,11 +10349,11 @@
         <v>169</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>14</v>
@@ -10402,16 +10366,16 @@
         <v>169</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C72" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="24"/>
@@ -10421,19 +10385,19 @@
         <v>169</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C73" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H73" s="24"/>
     </row>
@@ -10442,16 +10406,16 @@
         <v>169</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C74" s="23" t="n">
         <v>2</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="24"/>
@@ -10467,16 +10431,16 @@
         <v>1</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H75" s="48"/>
     </row>
@@ -10485,19 +10449,19 @@
         <v>169</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C76" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H76" s="24"/>
     </row>
@@ -10506,19 +10470,19 @@
         <v>169</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C77" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D77" s="39" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H77" s="24"/>
     </row>
@@ -10527,20 +10491,20 @@
         <v>169</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C78" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H78" s="24"/>
     </row>
@@ -10639,25 +10603,25 @@
         <v>176</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="39"/>
       <c r="D95" s="27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="39"/>
       <c r="D96" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F96" s="4" t="n">
         <v>1</v>
@@ -10669,7 +10633,7 @@
         <v>170</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F97" s="4" t="n">
         <v>1</v>
@@ -10678,10 +10642,10 @@
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="39"/>
       <c r="D98" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F98" s="4" t="n">
         <v>2</v>
@@ -10693,7 +10657,7 @@
         <v>178</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F99" s="4" t="n">
         <v>1</v>
@@ -10702,10 +10666,10 @@
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="39"/>
       <c r="D100" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F100" s="4" t="n">
         <v>1</v>
@@ -10714,10 +10678,10 @@
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="39"/>
       <c r="D101" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E101" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F101" s="4" t="n">
         <v>1</v>
@@ -10726,10 +10690,10 @@
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="39"/>
       <c r="D102" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F102" s="4" t="n">
         <v>1</v>
@@ -10738,10 +10702,10 @@
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="39"/>
       <c r="D103" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E103" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F103" s="4" t="n">
         <v>1</v>
@@ -10750,10 +10714,10 @@
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="39"/>
       <c r="D104" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F104" s="4" t="n">
         <v>1</v>
@@ -10762,10 +10726,10 @@
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="39"/>
       <c r="D105" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F105" s="4" t="n">
         <v>1</v>
@@ -10774,10 +10738,10 @@
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="39"/>
       <c r="D106" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E106" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F106" s="1" t="n">
         <v>3</v>
@@ -10786,10 +10750,10 @@
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="39"/>
       <c r="D107" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F107" s="4" t="n">
         <v>3</v>
@@ -10798,10 +10762,10 @@
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="39"/>
       <c r="D108" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F108" s="4" t="n">
         <v>1</v>
@@ -10810,10 +10774,10 @@
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="39"/>
       <c r="D109" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E109" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F109" s="4" t="n">
         <v>1</v>
@@ -15729,7 +15693,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.21875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.66"/>
@@ -15739,773 +15703,773 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="61" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E1" s="62" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I1" s="62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="61" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D2" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I2" s="65" t="n">
         <v>7.1</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I3" s="65" t="n">
         <v>5.49</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="61" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D4" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H4" s="67" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I4" s="65" t="n">
         <v>25.9</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K4" s="65" t="n">
         <v>47.98</v>
       </c>
       <c r="L4" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="61" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D5" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H5" s="63"/>
       <c r="I5" s="65" t="n">
         <v>7.36</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D6" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H6" s="63"/>
       <c r="I6" s="65"/>
       <c r="J6" s="62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D7" s="62" t="n">
         <v>4</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H7" s="63"/>
       <c r="I7" s="65" t="n">
         <v>9.99</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K7" s="62" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D8" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I8" s="65" t="n">
         <v>8.99</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="61" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D9" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H9" s="63"/>
       <c r="I9" s="69"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D10" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I10" s="69" t="n">
         <v>25.99</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K10" s="62" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="61" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D11" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I11" s="65" t="n">
         <v>5.99</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="61" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="64" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="63" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I12" s="65" t="n">
         <v>13.99</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="G13" s="62"/>
       <c r="H13" s="63" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I13" s="69"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D14" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="65" t="n">
         <v>3.82</v>
       </c>
       <c r="J14" s="62" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D15" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I15" s="65" t="n">
         <v>36.99</v>
       </c>
       <c r="J15" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D16" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H16" s="63"/>
       <c r="I16" s="65" t="n">
         <v>10.91</v>
       </c>
       <c r="J16" s="62" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="61" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D17" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F17" s="62"/>
       <c r="H17" s="63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I17" s="65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J17" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K17" s="62" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="61" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D18" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H18" s="63" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I18" s="65" t="n">
         <v>13.25</v>
       </c>
       <c r="J18" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="61" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D19" s="62" t="n">
         <v>4</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I19" s="65" t="n">
         <v>64.08</v>
       </c>
       <c r="J19" s="62" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="61" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D20" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H20" s="63"/>
       <c r="I20" s="69"/>
       <c r="J20" s="62" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="61" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D21" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H21" s="63"/>
       <c r="I21" s="65" t="n">
         <v>26.79</v>
       </c>
       <c r="J21" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="61" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D22" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H22" s="63"/>
       <c r="I22" s="69"/>
       <c r="J22" s="62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="61" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D23" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H23" s="63"/>
       <c r="I23" s="69"/>
       <c r="J23" s="62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="61" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C24" s="70" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D24" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H24" s="63"/>
       <c r="I24" s="69"/>
       <c r="J24" s="62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="61" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D25" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H25" s="63"/>
       <c r="I25" s="69"/>
       <c r="J25" s="62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="61" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D26" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H26" s="63"/>
       <c r="I26" s="69"/>
       <c r="J26" s="62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="61" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D27" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H27" s="63"/>
       <c r="I27" s="69"/>
       <c r="J27" s="62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="61" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D28" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H28" s="63"/>
       <c r="I28" s="69"/>
       <c r="J28" s="62" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="61" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D29" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F29" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H29" s="63"/>
       <c r="I29" s="69" t="n">
         <v>13.7</v>
       </c>
       <c r="J29" s="62" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K29" s="62" t="n">
         <v>13.99</v>
       </c>
       <c r="L29" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="61" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H30" s="63" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I30" s="65" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J30" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K30" s="62" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="61"/>
       <c r="B31" s="61" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E31" s="68"/>
       <c r="H31" s="63"/>
@@ -16514,10 +16478,10 @@
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="61"/>
       <c r="B32" s="61" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E32" s="68"/>
       <c r="H32" s="63"/>
@@ -16526,10 +16490,10 @@
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="61"/>
       <c r="B33" s="61" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E33" s="68"/>
       <c r="H33" s="63"/>
@@ -16537,119 +16501,119 @@
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="61" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D34" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G34" s="62" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H34" s="63"/>
       <c r="I34" s="65" t="n">
         <v>11.98</v>
       </c>
       <c r="J34" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="61" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D35" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F35" s="64" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H35" s="63"/>
       <c r="I35" s="69" t="n">
         <v>7.63</v>
       </c>
       <c r="J35" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K35" s="62" t="n">
         <v>19.99</v>
       </c>
       <c r="L35" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="61" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D36" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H36" s="63"/>
       <c r="I36" s="69"/>
       <c r="J36" s="62" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="61" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D37" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H37" s="63" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I37" s="65" t="n">
         <v>1.18</v>
       </c>
       <c r="J37" s="62" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="61" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B38" s="61"/>
       <c r="C38" s="61" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D38" s="62" t="n">
         <v>1</v>
@@ -16659,69 +16623,69 @@
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="61" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D39" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H39" s="63"/>
       <c r="I39" s="65" t="n">
         <v>9.35</v>
       </c>
       <c r="J39" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="71"/>
       <c r="B40" s="61" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H40" s="63" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I40" s="65" t="n">
         <v>16.99</v>
       </c>
       <c r="J40" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="71"/>
       <c r="B41" s="61" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D41" s="62" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H41" s="63"/>
       <c r="I41" s="72" t="n">
         <v>8.99</v>
       </c>
       <c r="J41" s="73" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16735,7 +16699,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="62" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16743,32 +16707,32 @@
         <v>3.9</v>
       </c>
       <c r="J44" s="62" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K44" s="62" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="62" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K45" s="62" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="62" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I46" s="65" t="n">
         <v>4</v>
       </c>
       <c r="J46" s="62" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K46" s="62" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16776,24 +16740,24 @@
         <v>9.85</v>
       </c>
       <c r="J47" s="62" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K47" s="62" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L47" s="62" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="73" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J48" s="73" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K48" s="73" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -235,7 +235,7 @@
     <t xml:space="preserve">Ali Express Link</t>
   </si>
   <si>
-    <t xml:space="preserve">Straight connectors will work best</t>
+    <t xml:space="preserve">Straight connectors will work best, shorter length (25cm) is recommended.</t>
   </si>
   <si>
     <t xml:space="preserve">CU-SDC</t>
@@ -1936,11 +1936,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.03125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.02"/>
@@ -8667,7 +8667,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.21875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.66"/>

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -654,7 +654,8 @@
     <t xml:space="preserve">Alibaba Link</t>
   </si>
   <si>
-    <t xml:space="preserve">The 3 stepper motors should come with their own cable, but will need to cut in half and split between the Control Unit and the pumps box. </t>
+    <t xml:space="preserve">The 3 stepper motors should come with their own cable, but will need to cut in half and split between the Control Unit and the pumps box. 
+NOTE: Those links are likely to be sold out. There are other stepper-driven pumps, but they will not interface seamlessly with the printed parts. We’re also looking for DIY/printable designs.</t>
   </si>
   <si>
     <t xml:space="preserve">RU-SYR</t>
@@ -1936,8 +1937,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G84" activeCellId="0" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3489,7 +3490,7 @@
       </c>
       <c r="H82" s="28"/>
     </row>
-    <row r="83" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>166</v>
       </c>
@@ -8667,7 +8668,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.21875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.66"/>

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Parts List" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Parts List" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="387">
   <si>
     <t xml:space="preserve">MicroLab Parts List</t>
   </si>
@@ -245,15 +245,6 @@
   </si>
   <si>
     <t xml:space="preserve">Stepdown converter with barrel connector and USB ports.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU-UTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB to Screw Terminal adapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used with 12V to 5V Converter (CU-SDC)</t>
   </si>
   <si>
     <t xml:space="preserve">CU-RAH</t>
@@ -1400,136 +1391,136 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1541,11 +1532,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1553,7 +1544,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1561,59 +1552,59 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1621,55 +1612,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1930,15 +1913,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G84" activeCellId="0" sqref="G84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1949,13 +2038,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="42.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="23.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="80.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="80.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="15.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="9" style="5" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="6" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2003,7 +2092,7 @@
       <c r="G5" s="12"/>
       <c r="AMJ5" s="6"/>
     </row>
-    <row r="6" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="22" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
@@ -2055,7 +2144,7 @@
       <c r="G9" s="21"/>
       <c r="AMJ9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2168,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2101,7 +2190,7 @@
       </c>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2123,7 +2212,7 @@
       </c>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2169,7 +2258,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2188,7 +2277,7 @@
       </c>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2210,7 +2299,7 @@
       </c>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -2228,7 +2317,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2248,7 +2337,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2272,7 +2361,7 @@
       </c>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2294,7 +2383,7 @@
       </c>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2312,7 +2401,7 @@
       </c>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2334,7 +2423,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2358,7 +2447,7 @@
       </c>
       <c r="H23" s="28"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2382,7 +2471,7 @@
       </c>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2406,7 +2495,7 @@
       </c>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2430,7 +2519,7 @@
       </c>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -2452,7 +2541,7 @@
       </c>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2468,12 +2557,15 @@
       <c r="E28" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G28" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -2497,7 +2589,7 @@
       </c>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -2510,26 +2602,25 @@
       <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="E30" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="35" t="s">
-        <v>76</v>
-      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="35"/>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>14</v>
@@ -2538,18 +2629,18 @@
       <c r="G31" s="35"/>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>14</v>
@@ -2558,18 +2649,18 @@
       <c r="G32" s="35"/>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="34" t="s">
         <v>14</v>
@@ -2579,113 +2670,114 @@
       <c r="H33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>14</v>
-      </c>
+      <c r="E34" s="34"/>
       <c r="F34" s="33"/>
       <c r="G34" s="35"/>
       <c r="H34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="34"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="35"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="3"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-    </row>
-    <row r="37" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="s">
+    <row r="36" s="22" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="AMJ36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
-      <c r="AMJ37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="28"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>97</v>
@@ -2696,68 +2788,66 @@
       <c r="D41" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="37" t="s">
-        <v>14</v>
-      </c>
+      <c r="E41" s="37"/>
       <c r="G41" s="27" t="s">
         <v>99</v>
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="36" t="n">
-        <v>2</v>
+      <c r="C42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>101</v>
       </c>
       <c r="E42" s="37"/>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="6" t="s">
         <v>102</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="37"/>
+      <c r="E43" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="G43" s="6" t="s">
         <v>105</v>
       </c>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="34" t="s">
-        <v>44</v>
-      </c>
+      <c r="E44" s="34"/>
       <c r="G44" s="6" t="s">
         <v>108</v>
       </c>
@@ -2765,13 +2855,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>110</v>
@@ -2784,7 +2874,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>112</v>
@@ -2801,104 +2891,107 @@
       </c>
       <c r="H46" s="28"/>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D47" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="34"/>
-      <c r="G47" s="6" t="s">
+      <c r="E47" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="28"/>
-    </row>
-    <row r="48" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D48" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="38" t="s">
+      <c r="C48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="D48" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="G48" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="H48" s="41"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="30"/>
+      <c r="D49" s="31"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="41"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="30"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="31"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+    </row>
+    <row r="52" s="47" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="B52" s="42"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46"/>
+      <c r="AMJ52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="B53" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="H49" s="41"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="30"/>
-      <c r="D50" s="31"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="41"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="30"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="31"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-    </row>
-    <row r="53" s="47" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="46"/>
-      <c r="AMJ53" s="6"/>
-    </row>
-    <row r="54" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="48"/>
+      <c r="G53" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="49"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>128</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="31" t="s">
         <v>129</v>
@@ -2907,64 +3000,64 @@
         <v>14</v>
       </c>
       <c r="F54" s="48"/>
-      <c r="G54" s="27" t="s">
+      <c r="G54" s="27"/>
+      <c r="H54" s="49"/>
+    </row>
+    <row r="55" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="H54" s="49"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="30" t="s">
+      <c r="C55" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="4" t="n">
+      <c r="E55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" s="49"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D55" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D56" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="48"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="49"/>
-    </row>
-    <row r="56" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="F56" s="48"/>
       <c r="G56" s="27" t="s">
         <v>137</v>
       </c>
       <c r="H56" s="49"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>138</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>139</v>
@@ -2972,21 +3065,20 @@
       <c r="E57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="48"/>
       <c r="G57" s="27" t="s">
         <v>140</v>
       </c>
       <c r="H57" s="49"/>
     </row>
-    <row r="58" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B58" s="30" t="s">
         <v>141</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="31" t="s">
         <v>142</v>
@@ -2994,106 +3086,109 @@
       <c r="E58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="G58" s="27"/>
+      <c r="H58" s="49"/>
+    </row>
+    <row r="59" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="H58" s="49"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="30" t="s">
+      <c r="C59" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C59" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" s="31" t="s">
+      <c r="F59" s="50"/>
+      <c r="G59" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="27"/>
       <c r="H59" s="49"/>
     </row>
-    <row r="60" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>146</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
         <v>147</v>
       </c>
       <c r="F60" s="50"/>
-      <c r="G60" s="27" t="s">
-        <v>148</v>
-      </c>
+      <c r="G60" s="27"/>
       <c r="H60" s="49"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F61" s="50"/>
+        <v>149</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="51"/>
       <c r="G61" s="27"/>
       <c r="H61" s="49"/>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D62" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="51"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="49"/>
-    </row>
-    <row r="63" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="4" t="n">
+      <c r="C63" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G63" s="27" t="s">
+      <c r="E63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="28"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>156</v>
@@ -3113,11 +3208,10 @@
       <c r="G64" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H64" s="28"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="65" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>159</v>
@@ -3128,57 +3222,55 @@
       <c r="D65" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G65" s="6" t="s">
+      <c r="F65" s="34"/>
+      <c r="G65" s="52" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="30"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="31"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+    </row>
+    <row r="67" s="47" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="B67" s="42"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="46"/>
+      <c r="AMJ67" s="6"/>
+    </row>
+    <row r="68" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D68" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="H68" s="28"/>
+    </row>
+    <row r="69" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="30"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="31"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28"/>
-    </row>
-    <row r="68" s="47" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="46"/>
-      <c r="AMJ68" s="6"/>
-    </row>
-    <row r="69" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>167</v>
@@ -3192,14 +3284,14 @@
       <c r="E69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="54" t="s">
+      <c r="G69" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="H69" s="28"/>
-    </row>
-    <row r="70" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" s="49"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>170</v>
@@ -3213,42 +3305,43 @@
       <c r="E70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="27" t="s">
+      <c r="G70" s="27"/>
+      <c r="H70" s="49"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="30" t="s">
         <v>172</v>
-      </c>
-      <c r="H70" s="49"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>173</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D71" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+    </row>
+    <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="30" t="s">
         <v>174</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="27"/>
-      <c r="H71" s="49"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>175</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>55</v>
@@ -3259,18 +3352,18 @@
       <c r="G72" s="27"/>
       <c r="H72" s="28"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>55</v>
@@ -3278,18 +3371,20 @@
       <c r="F73" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G73" s="27"/>
+      <c r="G73" s="27" t="s">
+        <v>177</v>
+      </c>
       <c r="H73" s="28"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="31" t="s">
         <v>179</v>
@@ -3300,60 +3395,57 @@
       <c r="F74" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G74" s="27" t="s">
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+    </row>
+    <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="H74" s="28"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B75" s="30" t="s">
+      <c r="E75" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C75" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D75" s="31" t="s">
+      <c r="F75" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G75" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="H75" s="49"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="G76" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="H76" s="49"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H76" s="28"/>
+    </row>
+    <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>187</v>
@@ -3365,16 +3457,19 @@
         <v>188</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="G77" s="27" t="s">
         <v>189</v>
       </c>
       <c r="H77" s="28"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>190</v>
@@ -3396,9 +3491,9 @@
       </c>
       <c r="H78" s="28"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>193</v>
@@ -3420,9 +3515,9 @@
       </c>
       <c r="H79" s="28"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>196</v>
@@ -3444,9 +3539,9 @@
       </c>
       <c r="H80" s="28"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>199</v>
@@ -3458,86 +3553,86 @@
         <v>200</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F81" s="3"/>
       <c r="G81" s="27" t="s">
         <v>201</v>
       </c>
       <c r="H81" s="28"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C82" s="4" t="n">
-        <v>1</v>
+      <c r="C82" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="D82" s="31" t="s">
         <v>203</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F82" s="55" t="s">
+        <v>204</v>
+      </c>
       <c r="G82" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H82" s="28"/>
     </row>
-    <row r="83" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C83" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="C83" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="55" t="s">
-        <v>207</v>
-      </c>
       <c r="G83" s="27" t="s">
         <v>208</v>
       </c>
       <c r="H83" s="28"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>209</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84" s="31" t="s">
         <v>210</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="G84" s="27" t="s">
         <v>211</v>
       </c>
       <c r="H84" s="28"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>212</v>
@@ -3559,51 +3654,32 @@
       </c>
       <c r="H85" s="28"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B86" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C86" s="4" t="n">
+      <c r="C86" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D86" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="G86" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="H86" s="28"/>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="G87" s="27" t="s">
-        <v>220</v>
-      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G87" s="27"/>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="31"/>
       <c r="G88" s="27"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="30"/>
       <c r="D89" s="31"/>
       <c r="G89" s="27"/>
     </row>
@@ -8422,11 +8498,7 @@
       <c r="D1052" s="31"/>
       <c r="G1052" s="27"/>
     </row>
-    <row r="1053" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1053" s="30"/>
-      <c r="D1053" s="31"/>
-      <c r="G1053" s="27"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8434,10 +8506,10 @@
   <mergeCells count="4">
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E46"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:C6 B27:C27 B8:C17 B37:C38 B22:C22 B90:C1053 C87:C89 H49:H51 B45:C45 C2 A2:A3 A14:A17 A51 B50:C61 B67:C72 B86 B82:C85 B74:C78 A22:A28">
+  <conditionalFormatting sqref="B6:C6 B27:C27 B8:C17 B36:C37 B22:C22 B89:C1052 C86:C88 H48:H50 B44:C44 C2 A2:A3 A14:A17 A50 B49:C60 B66:C71 B85 B81:C84 B73:C77 A22:A28">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
@@ -8447,32 +8519,32 @@
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
+  <conditionalFormatting sqref="B50">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:C46">
+  <conditionalFormatting sqref="B45:C45">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:C47">
+  <conditionalFormatting sqref="B46:C46">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:C44">
+  <conditionalFormatting sqref="B43:C43">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:C39">
+  <conditionalFormatting sqref="B38:C38">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:C49">
+  <conditionalFormatting sqref="B48:C48">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
@@ -8502,62 +8574,62 @@
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
+  <conditionalFormatting sqref="A29">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
+  <conditionalFormatting sqref="C85">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:C79">
+  <conditionalFormatting sqref="B78:C78">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80:C80">
+  <conditionalFormatting sqref="B79:C79">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81:C81">
+  <conditionalFormatting sqref="B80:C80">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:C62">
+  <conditionalFormatting sqref="B61:C61">
     <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:C63">
+  <conditionalFormatting sqref="B62:C62">
     <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73:C73">
+  <conditionalFormatting sqref="B72:C72">
     <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31 A35">
+  <conditionalFormatting sqref="A30 A34">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A31">
     <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
+  <conditionalFormatting sqref="A32">
     <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A33">
     <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
@@ -8588,64 +8660,64 @@
     <hyperlink ref="F26" r:id="rId23" display="Github Link"/>
     <hyperlink ref="E27" r:id="rId24" display="Amazon link"/>
     <hyperlink ref="E28" r:id="rId25" display="Ali Express Link"/>
-    <hyperlink ref="E29" r:id="rId26" display="Amazon link"/>
-    <hyperlink ref="F29" r:id="rId27" display="Ali Express Link"/>
-    <hyperlink ref="F30" r:id="rId28" display="Amazon link"/>
-    <hyperlink ref="E31" r:id="rId29" display="Amazon link"/>
-    <hyperlink ref="E32" r:id="rId30" display="Amazon link"/>
-    <hyperlink ref="E33" r:id="rId31" display="Amazon link"/>
-    <hyperlink ref="E34" r:id="rId32" display="Amazon link"/>
-    <hyperlink ref="E38" r:id="rId33" display="Amazon link"/>
-    <hyperlink ref="E39" r:id="rId34" display="Amazon link"/>
-    <hyperlink ref="E40" r:id="rId35" display="Amazon link"/>
-    <hyperlink ref="E41" r:id="rId36" display="Amazon link"/>
-    <hyperlink ref="E44" r:id="rId37" display="Amazon link - assortment"/>
-    <hyperlink ref="F48" r:id="rId38" display="Amazon link"/>
-    <hyperlink ref="E49" r:id="rId39" display="Amazon link"/>
-    <hyperlink ref="E54" r:id="rId40" display="Amazon link"/>
-    <hyperlink ref="E55" r:id="rId41" display="Amazon link"/>
-    <hyperlink ref="E56" r:id="rId42" display="Amazon link for raw copper tubing"/>
-    <hyperlink ref="F56" r:id="rId43" display="Amazon link for aluminum cooler"/>
-    <hyperlink ref="E57" r:id="rId44" display="Amazon link"/>
-    <hyperlink ref="E58" r:id="rId45" display="Amazon link"/>
-    <hyperlink ref="E59" r:id="rId46" display="Amazon link"/>
-    <hyperlink ref="E62" r:id="rId47" display="Amazon link"/>
-    <hyperlink ref="E64" r:id="rId48" display="MicroLab link"/>
-    <hyperlink ref="F64" r:id="rId49" display="Github Link"/>
-    <hyperlink ref="E65" r:id="rId50" display="MicroLab link"/>
-    <hyperlink ref="F65" r:id="rId51" display="Github Link"/>
-    <hyperlink ref="E69" r:id="rId52" display="Amazon link"/>
-    <hyperlink ref="G69" r:id="rId53" display="Amazon link  This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="E70" r:id="rId54" display="Amazon link"/>
-    <hyperlink ref="E71" r:id="rId55" display="Amazon link"/>
-    <hyperlink ref="E72" r:id="rId56" display="MicroLab link"/>
-    <hyperlink ref="F72" r:id="rId57" display="Github Link"/>
-    <hyperlink ref="E73" r:id="rId58" display="MicroLab link"/>
-    <hyperlink ref="F73" r:id="rId59" display="Github Link"/>
-    <hyperlink ref="E74" r:id="rId60" display="MicroLab link"/>
-    <hyperlink ref="F74" r:id="rId61" display="Github Link"/>
-    <hyperlink ref="E75" r:id="rId62" display="MicroLab link"/>
-    <hyperlink ref="F75" r:id="rId63" display="Github Link"/>
-    <hyperlink ref="E76" r:id="rId64" display="Amazon 4oz link"/>
-    <hyperlink ref="F76" r:id="rId65" display="Amazon 6oz link"/>
-    <hyperlink ref="E77" r:id="rId66" display="Amazon link"/>
-    <hyperlink ref="E78" r:id="rId67" display="MicroLab link"/>
-    <hyperlink ref="F78" r:id="rId68" display="Github Link"/>
-    <hyperlink ref="E79" r:id="rId69" display="MicroLab link"/>
-    <hyperlink ref="F79" r:id="rId70" display="Github Link"/>
-    <hyperlink ref="E80" r:id="rId71" display="MicroLab link"/>
-    <hyperlink ref="F80" r:id="rId72" display="Github Link"/>
-    <hyperlink ref="E81" r:id="rId73" display="MicroLab link"/>
-    <hyperlink ref="F81" r:id="rId74" display="Github Link"/>
-    <hyperlink ref="E82" r:id="rId75" display="Ali Express link"/>
-    <hyperlink ref="G82" r:id="rId76" display="Used to monitor the temperature in the reaction chamber. This is a link to a USB DS18B20 "/>
-    <hyperlink ref="E83" r:id="rId77" display="Amazon link"/>
-    <hyperlink ref="F83" r:id="rId78" display="Alibaba Link"/>
-    <hyperlink ref="E84" r:id="rId79" display="Amazon link"/>
-    <hyperlink ref="E85" r:id="rId80" display="MicroLab link"/>
-    <hyperlink ref="F85" r:id="rId81" display="Github Link"/>
-    <hyperlink ref="E86" r:id="rId82" display="MicroLab link"/>
-    <hyperlink ref="F86" r:id="rId83" display="Github Link"/>
+    <hyperlink ref="F28" r:id="rId26" display="Amazon Link"/>
+    <hyperlink ref="E29" r:id="rId27" display="Amazon link"/>
+    <hyperlink ref="F29" r:id="rId28" display="Ali Express Link"/>
+    <hyperlink ref="E30" r:id="rId29" display="Amazon link"/>
+    <hyperlink ref="E31" r:id="rId30" display="Amazon link"/>
+    <hyperlink ref="E32" r:id="rId31" display="Amazon link"/>
+    <hyperlink ref="E33" r:id="rId32" display="Amazon link"/>
+    <hyperlink ref="E37" r:id="rId33" display="Amazon link"/>
+    <hyperlink ref="E38" r:id="rId34" display="Amazon link"/>
+    <hyperlink ref="E39" r:id="rId35" display="Amazon link"/>
+    <hyperlink ref="E40" r:id="rId36" display="Amazon link"/>
+    <hyperlink ref="E43" r:id="rId37" display="Amazon link - assortment"/>
+    <hyperlink ref="F47" r:id="rId38" display="Amazon link"/>
+    <hyperlink ref="E48" r:id="rId39" display="Amazon link"/>
+    <hyperlink ref="E53" r:id="rId40" display="Amazon link"/>
+    <hyperlink ref="E54" r:id="rId41" display="Amazon link"/>
+    <hyperlink ref="E55" r:id="rId42" display="Amazon link for raw copper tubing"/>
+    <hyperlink ref="F55" r:id="rId43" display="Amazon link for aluminum cooler"/>
+    <hyperlink ref="E56" r:id="rId44" display="Amazon link"/>
+    <hyperlink ref="E57" r:id="rId45" display="Amazon link"/>
+    <hyperlink ref="E58" r:id="rId46" display="Amazon link"/>
+    <hyperlink ref="E61" r:id="rId47" display="Amazon link"/>
+    <hyperlink ref="E63" r:id="rId48" display="MicroLab link"/>
+    <hyperlink ref="F63" r:id="rId49" display="Github Link"/>
+    <hyperlink ref="E64" r:id="rId50" display="MicroLab link"/>
+    <hyperlink ref="F64" r:id="rId51" display="Github Link"/>
+    <hyperlink ref="E68" r:id="rId52" display="Amazon link"/>
+    <hyperlink ref="G68" r:id="rId53" display="Amazon link  This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
+    <hyperlink ref="E69" r:id="rId54" display="Amazon link"/>
+    <hyperlink ref="E70" r:id="rId55" display="Amazon link"/>
+    <hyperlink ref="E71" r:id="rId56" display="MicroLab link"/>
+    <hyperlink ref="F71" r:id="rId57" display="Github Link"/>
+    <hyperlink ref="E72" r:id="rId58" display="MicroLab link"/>
+    <hyperlink ref="F72" r:id="rId59" display="Github Link"/>
+    <hyperlink ref="E73" r:id="rId60" display="MicroLab link"/>
+    <hyperlink ref="F73" r:id="rId61" display="Github Link"/>
+    <hyperlink ref="E74" r:id="rId62" display="MicroLab link"/>
+    <hyperlink ref="F74" r:id="rId63" display="Github Link"/>
+    <hyperlink ref="E75" r:id="rId64" display="Amazon 4oz link"/>
+    <hyperlink ref="F75" r:id="rId65" display="Amazon 6oz link"/>
+    <hyperlink ref="E76" r:id="rId66" display="Amazon link"/>
+    <hyperlink ref="E77" r:id="rId67" display="MicroLab link"/>
+    <hyperlink ref="F77" r:id="rId68" display="Github Link"/>
+    <hyperlink ref="E78" r:id="rId69" display="MicroLab link"/>
+    <hyperlink ref="F78" r:id="rId70" display="Github Link"/>
+    <hyperlink ref="E79" r:id="rId71" display="MicroLab link"/>
+    <hyperlink ref="F79" r:id="rId72" display="Github Link"/>
+    <hyperlink ref="E80" r:id="rId73" display="MicroLab link"/>
+    <hyperlink ref="F80" r:id="rId74" display="Github Link"/>
+    <hyperlink ref="E81" r:id="rId75" display="Ali Express link"/>
+    <hyperlink ref="G81" r:id="rId76" display="Used to monitor the temperature in the reaction chamber. This is a link to a USB DS18B20 "/>
+    <hyperlink ref="E82" r:id="rId77" display="Amazon link"/>
+    <hyperlink ref="F82" r:id="rId78" display="Alibaba Link"/>
+    <hyperlink ref="E83" r:id="rId79" display="Amazon link"/>
+    <hyperlink ref="E84" r:id="rId80" display="MicroLab link"/>
+    <hyperlink ref="F84" r:id="rId81" display="Github Link"/>
+    <hyperlink ref="E85" r:id="rId82" display="MicroLab link"/>
+    <hyperlink ref="F85" r:id="rId83" display="Github Link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8658,7 +8730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8670,1001 +8742,1001 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.66"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="56.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="56" width="26.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="56" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="56" width="56.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="56" width="16.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="G1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="57" t="s">
+      <c r="H1" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="57" t="s">
+      <c r="I1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="J1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="52" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="B2" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="C2" s="57" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56" t="s">
+      <c r="D2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="G2" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="H2" s="52" t="s">
         <v>231</v>
-      </c>
-      <c r="D2" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>234</v>
       </c>
       <c r="I2" s="59" t="n">
         <v>7.1</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="57" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56" t="s">
+      <c r="E3" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="52" t="s">
         <v>236</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>239</v>
       </c>
       <c r="I3" s="59" t="n">
         <v>5.49</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="56" t="s">
+      <c r="D4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="H4" s="61" t="s">
         <v>242</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>245</v>
       </c>
       <c r="I4" s="59" t="n">
         <v>25.9</v>
       </c>
-      <c r="J4" s="57" t="s">
-        <v>246</v>
+      <c r="J4" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="K4" s="59" t="n">
         <v>47.98</v>
       </c>
-      <c r="L4" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="57" t="n">
+      <c r="L4" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="59" t="n">
         <v>7.36</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" s="57" t="n">
+      <c r="D6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="59"/>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="57" t="n">
+      <c r="D7" s="6" t="n">
         <v>4</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="59" t="n">
         <v>9.99</v>
       </c>
-      <c r="J7" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="K7" s="57" t="s">
+      <c r="J7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="56" t="s">
+      <c r="D8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="52" t="s">
         <v>259</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>262</v>
       </c>
       <c r="I8" s="59" t="n">
         <v>8.99</v>
       </c>
-      <c r="J8" s="57" t="s">
-        <v>240</v>
+      <c r="J8" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="59"/>
+    </row>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="B10" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="D9" s="57" t="n">
+      <c r="C10" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="63"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="56" t="s">
+      <c r="E10" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="F10" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="I10" s="59" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D10" s="57" t="n">
+      <c r="L10" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="I10" s="63" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="56" t="s">
+      <c r="E11" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" s="52" t="s">
         <v>273</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>276</v>
       </c>
       <c r="I11" s="59" t="n">
         <v>5.99</v>
       </c>
-      <c r="J11" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="56" t="s">
+      <c r="J11" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="52" t="s">
         <v>278</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="52" t="s">
-        <v>281</v>
       </c>
       <c r="I12" s="59" t="n">
         <v>13.99</v>
       </c>
-      <c r="J12" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="56" t="s">
+      <c r="J12" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="I13" s="59"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="B14" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="52" t="s">
+      <c r="C14" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="I13" s="63"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="56" t="s">
+      <c r="D14" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>288</v>
-      </c>
-      <c r="D14" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>289</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="59" t="n">
         <v>3.82</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="57" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="56" t="s">
+      <c r="D15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" s="52" t="s">
         <v>291</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="D15" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>294</v>
       </c>
       <c r="I15" s="59" t="n">
         <v>36.99</v>
       </c>
-      <c r="J15" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="57" t="n">
+      <c r="J15" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="59" t="n">
         <v>10.91</v>
       </c>
-      <c r="J16" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="56" t="s">
+      <c r="J16" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="H17" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="I17" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C17" s="56" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="D17" s="57" t="n">
+      <c r="B18" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="F17" s="57"/>
-      <c r="H17" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="J17" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="K17" s="57" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="56" t="s">
+      <c r="E18" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" s="52" t="s">
         <v>303</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>305</v>
-      </c>
-      <c r="D18" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>306</v>
       </c>
       <c r="I18" s="59" t="n">
         <v>13.25</v>
       </c>
-      <c r="J18" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="56" t="s">
+      <c r="J18" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="52" t="s">
         <v>307</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="D19" s="57" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>310</v>
       </c>
       <c r="I19" s="59" t="n">
         <v>64.08</v>
       </c>
-      <c r="J19" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="56" t="s">
+      <c r="J19" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" s="52"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B20" s="56" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="B21" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="D20" s="57" t="n">
+      <c r="C21" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="57" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="D21" s="57" t="n">
-        <v>1</v>
-      </c>
       <c r="E21" s="58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="59" t="n">
         <v>26.79</v>
       </c>
-      <c r="J21" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="56" t="s">
+      <c r="J21" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B22" s="56" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="B23" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="D22" s="57" t="n">
+      <c r="C23" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="56" t="s">
+      <c r="E23" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H23" s="52"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B24" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C24" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="57" t="n">
+      <c r="D24" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56" t="s">
+      <c r="E24" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H24" s="52"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B25" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C25" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="D24" s="57" t="n">
+      <c r="D25" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="56" t="s">
+      <c r="E25" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" s="52"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B26" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C26" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="D25" s="57" t="n">
+      <c r="D26" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E25" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="56" t="s">
+      <c r="E26" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" s="52"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B27" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C27" s="63" t="s">
         <v>333</v>
       </c>
-      <c r="D26" s="57" t="n">
+      <c r="D27" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E26" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="56" t="s">
+      <c r="E27" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27" s="52"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B28" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C28" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="D27" s="57" t="n">
+      <c r="D28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H28" s="52"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="D29" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E27" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>338</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="D28" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="57" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="56" t="s">
+      <c r="E29" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="H29" s="52"/>
+      <c r="I29" s="59" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" s="6" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="B30" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="D29" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="G29" s="57" t="s">
+      <c r="C30" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="63" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J29" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="K29" s="57" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="L29" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="56" t="s">
+      <c r="E30" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H30" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="I30" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="J30" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E30" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H30" s="52" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="C31" s="57" t="s">
         <v>350</v>
-      </c>
-      <c r="J30" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="K30" s="57" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>353</v>
       </c>
       <c r="E31" s="62"/>
       <c r="H31" s="52"/>
-      <c r="I31" s="63"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>355</v>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>352</v>
       </c>
       <c r="E32" s="62"/>
       <c r="H32" s="52"/>
-      <c r="I32" s="63"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>357</v>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>354</v>
       </c>
       <c r="E33" s="62"/>
       <c r="H33" s="52"/>
-      <c r="I33" s="63"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="56" t="s">
+      <c r="I33" s="59"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>359</v>
-      </c>
-      <c r="C34" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="D34" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="G34" s="57" t="s">
-        <v>361</v>
       </c>
       <c r="H34" s="52"/>
       <c r="I34" s="59" t="n">
         <v>11.98</v>
       </c>
-      <c r="J34" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="56" t="s">
+      <c r="J34" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F35" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="H35" s="52"/>
+      <c r="I35" s="59" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K35" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="B36" s="57" t="s">
         <v>364</v>
       </c>
-      <c r="D35" s="57" t="n">
+      <c r="C36" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="63" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="J35" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="K35" s="57" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="L35" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="56" t="s">
+      <c r="E36" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" s="52"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B37" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C37" s="57" t="s">
         <v>368</v>
       </c>
-      <c r="D36" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H36" s="52"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="57" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="56" t="s">
+      <c r="D37" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H37" s="52" t="s">
         <v>369</v>
-      </c>
-      <c r="B37" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>371</v>
-      </c>
-      <c r="D37" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H37" s="52" t="s">
-        <v>372</v>
       </c>
       <c r="I37" s="59" t="n">
         <v>1.18</v>
       </c>
-      <c r="J37" s="57" t="s">
+      <c r="J37" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="52"/>
+      <c r="I38" s="59"/>
+    </row>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="57" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="56" t="s">
+      <c r="B39" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56" t="s">
+      <c r="C39" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="D38" s="57" t="n">
+      <c r="D39" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="52"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="56" t="s">
-        <v>376</v>
-      </c>
-      <c r="B39" s="56" t="s">
-        <v>377</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="D39" s="57" t="n">
-        <v>1</v>
-      </c>
       <c r="E39" s="58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H39" s="52"/>
       <c r="I39" s="59" t="n">
         <v>9.35</v>
       </c>
-      <c r="J39" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="65"/>
-      <c r="B40" s="56" t="s">
-        <v>379</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>380</v>
+      <c r="J39" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>377</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I40" s="59" t="n">
         <v>16.99</v>
       </c>
-      <c r="J40" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="65"/>
-      <c r="B41" s="56" t="s">
-        <v>382</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>383</v>
-      </c>
-      <c r="D41" s="57" t="n">
+      <c r="J40" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57" t="s">
+        <v>379</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="D41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H41" s="52"/>
-      <c r="I41" s="66" t="n">
+      <c r="I41" s="64" t="n">
         <v>8.99</v>
       </c>
-      <c r="J41" s="67" t="s">
-        <v>240</v>
+      <c r="J41" s="65" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="63" t="n">
+      <c r="I42" s="59" t="n">
         <f aca="false">SUM(I2:I41)</f>
         <v>336.46</v>
       </c>
@@ -9673,70 +9745,70 @@
       <c r="I43" s="59" t="n">
         <v>37</v>
       </c>
-      <c r="J43" s="57" t="s">
-        <v>384</v>
+      <c r="J43" s="6" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I44" s="59" t="n">
         <v>3.9</v>
       </c>
-      <c r="J44" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="K44" s="57" t="s">
-        <v>246</v>
+      <c r="J44" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="K45" s="57" t="s">
-        <v>386</v>
+      <c r="J45" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G46" s="57" t="s">
-        <v>387</v>
+      <c r="G46" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="I46" s="59" t="n">
         <v>4</v>
       </c>
-      <c r="J46" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="K46" s="57" t="s">
-        <v>250</v>
+      <c r="J46" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I47" s="59" t="n">
         <v>9.85</v>
       </c>
-      <c r="J47" s="57" t="s">
+      <c r="J47" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="L47" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="K47" s="57" t="s">
-        <v>373</v>
-      </c>
-      <c r="L47" s="57" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="J48" s="67" t="s">
-        <v>385</v>
-      </c>
-      <c r="K48" s="67" t="s">
-        <v>240</v>
+      <c r="I48" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="J48" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="K48" s="65" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="63" t="n">
+      <c r="I49" s="59" t="n">
         <f aca="false">SUM(I42:I48)</f>
         <v>391.21</v>
       </c>

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="391">
   <si>
     <t xml:space="preserve">MicroLab Parts List</t>
   </si>
@@ -310,7 +310,10 @@
     <t xml:space="preserve">SP-PC12</t>
   </si>
   <si>
-    <t xml:space="preserve">12-pin connector, panel-mount screw terminal </t>
+    <t xml:space="preserve">12-pin Phoenix connector, panel-mount screw terminal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Ali Express Link</t>
   </si>
   <si>
     <t xml:space="preserve">[Control Unit] [Pumps Box]  connector has three pieces: plug, mount plate and socket</t>
@@ -319,7 +322,7 @@
     <t xml:space="preserve">SP-PC8</t>
   </si>
   <si>
-    <t xml:space="preserve">8-pin connector, panel-mount screw terminal </t>
+    <t xml:space="preserve">8-pin Phoenix connector, panel-mount screw terminal </t>
   </si>
   <si>
     <t xml:space="preserve">[Control Unit] [Pumps Box] connector has three pieces: plug, mount plate and socket</t>
@@ -328,10 +331,10 @@
     <t xml:space="preserve">SP-PC2</t>
   </si>
   <si>
-    <t xml:space="preserve">2-pin connector, panel-mount screw terminal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Control Unit] connector has three pieces: plug, mount plate and socket</t>
+    <t xml:space="preserve">2-pin Phoenix connector, panel-mount screw terminal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Required if using an aquarium temperature control</t>
   </si>
   <si>
     <t xml:space="preserve">SP-M3S-12</t>
@@ -455,7 +458,16 @@
     <t xml:space="preserve">TC-REL</t>
   </si>
   <si>
-    <t xml:space="preserve">Switchable power supply</t>
+    <t xml:space="preserve">Not Recommended: Switchable power supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-AQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquarium Temperature Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommended instead of TC-RED</t>
   </si>
   <si>
     <t xml:space="preserve">TC-INS</t>
@@ -2026,16 +2038,16 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D59" activeCellId="0" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.93"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="42.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="51.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="23.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="80.34"/>
@@ -2754,7 +2766,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -2767,11 +2779,12 @@
       <c r="D40" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="37" t="s">
-        <v>14</v>
+      <c r="E40" s="37"/>
+      <c r="F40" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H40" s="28"/>
     </row>
@@ -2780,17 +2793,17 @@
         <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41" s="36" t="n">
         <v>2</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E41" s="37"/>
       <c r="G41" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H41" s="28"/>
     </row>
@@ -2799,17 +2812,17 @@
         <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E42" s="37"/>
       <c r="G42" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H42" s="28"/>
     </row>
@@ -2818,19 +2831,19 @@
         <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E43" s="34" t="s">
         <v>44</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H43" s="28"/>
     </row>
@@ -2839,17 +2852,17 @@
         <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>28</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E44" s="34"/>
       <c r="G44" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H44" s="28"/>
     </row>
@@ -2858,17 +2871,17 @@
         <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E45" s="34"/>
       <c r="G45" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H45" s="28"/>
     </row>
@@ -2877,17 +2890,17 @@
         <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E46" s="34"/>
       <c r="G46" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H46" s="28"/>
     </row>
@@ -2896,22 +2909,22 @@
         <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F47" s="39" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2919,19 +2932,19 @@
         <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H48" s="41"/>
     </row>
@@ -2950,7 +2963,7 @@
     </row>
     <row r="52" s="47" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B52" s="42"/>
       <c r="C52" s="43"/>
@@ -2963,38 +2976,38 @@
     </row>
     <row r="53" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H53" s="49"/>
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>14</v>
@@ -3005,199 +3018,198 @@
     </row>
     <row r="55" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H55" s="49"/>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="48"/>
       <c r="G56" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H56" s="49"/>
     </row>
     <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H57" s="49"/>
     </row>
     <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="27"/>
+      <c r="G58" s="27" t="s">
+        <v>103</v>
+      </c>
       <c r="H58" s="49"/>
     </row>
-    <row r="59" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" s="49"/>
+    </row>
+    <row r="60" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="H59" s="49"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="D60" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F60" s="50"/>
-      <c r="G60" s="27"/>
+      <c r="G60" s="27" t="s">
+        <v>149</v>
+      </c>
       <c r="H60" s="49"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C61" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="51"/>
+        <v>151</v>
+      </c>
+      <c r="F61" s="50"/>
       <c r="G61" s="27"/>
       <c r="H61" s="49"/>
     </row>
-    <row r="62" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="G62" s="27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="51"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="49"/>
+    </row>
+    <row r="63" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63" s="6" t="s">
+      <c r="D63" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="H63" s="28"/>
+      <c r="G63" s="27" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>55</v>
@@ -3206,142 +3218,144 @@
         <v>56</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="H64" s="28"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F65" s="34"/>
-      <c r="G65" s="52" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="30"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="31"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-    </row>
-    <row r="67" s="47" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18" t="s">
+      <c r="E65" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="46"/>
-      <c r="AMJ67" s="6"/>
-    </row>
-    <row r="68" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="C66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C68" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" s="31" t="s">
+      <c r="F66" s="34"/>
+      <c r="G66" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="54" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="30"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="31"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+    </row>
+    <row r="68" s="47" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="H68" s="28"/>
-    </row>
-    <row r="69" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="42"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="46"/>
+      <c r="AMJ68" s="6"/>
+    </row>
+    <row r="69" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="H69" s="49"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G69" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="H69" s="28"/>
+    </row>
+    <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="27"/>
+      <c r="G70" s="27" t="s">
+        <v>173</v>
+      </c>
       <c r="H70" s="49"/>
     </row>
     <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="34" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G71" s="27"/>
-      <c r="H71" s="28"/>
+      <c r="H71" s="49"/>
     </row>
     <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>55</v>
@@ -3352,18 +3366,18 @@
       <c r="G72" s="27"/>
       <c r="H72" s="28"/>
     </row>
-    <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>55</v>
@@ -3371,23 +3385,21 @@
       <c r="F73" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G73" s="27" t="s">
-        <v>177</v>
-      </c>
+      <c r="G73" s="27"/>
       <c r="H73" s="28"/>
     </row>
-    <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>55</v>
@@ -3395,90 +3407,90 @@
       <c r="F74" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G74" s="27"/>
+      <c r="G74" s="27" t="s">
+        <v>181</v>
+      </c>
       <c r="H74" s="28"/>
     </row>
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="H75" s="49"/>
+        <v>55</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
     </row>
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D76" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>14</v>
+      <c r="F76" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="H76" s="28"/>
+        <v>187</v>
+      </c>
+      <c r="H76" s="49"/>
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H77" s="28"/>
     </row>
     <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C78" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>55</v>
@@ -3487,22 +3499,22 @@
         <v>56</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H78" s="28"/>
     </row>
     <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>55</v>
@@ -3511,22 +3523,22 @@
         <v>56</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H79" s="28"/>
     </row>
     <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C80" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>55</v>
@@ -3535,64 +3547,64 @@
         <v>56</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H80" s="28"/>
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C81" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="H81" s="28"/>
+    </row>
+    <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="H81" s="28"/>
-    </row>
-    <row r="82" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C82" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="55" t="s">
-        <v>204</v>
-      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="27" t="s">
         <v>205</v>
       </c>
       <c r="H82" s="28"/>
     </row>
-    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="4" t="n">
+      <c r="C83" s="1" t="n">
         <v>3</v>
       </c>
       <c r="D83" s="31" t="s">
@@ -3601,47 +3613,47 @@
       <c r="E83" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F83" s="55" t="s">
+        <v>208</v>
+      </c>
       <c r="G83" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H83" s="28"/>
     </row>
     <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G84" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H84" s="28"/>
     </row>
     <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>55</v>
@@ -3650,36 +3662,55 @@
         <v>56</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H85" s="28"/>
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C86" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G87" s="27"/>
+        <v>218</v>
+      </c>
+      <c r="H86" s="28"/>
+    </row>
+    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="31"/>
       <c r="G88" s="27"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="30"/>
       <c r="D89" s="31"/>
       <c r="G89" s="27"/>
     </row>
@@ -8498,18 +8529,23 @@
       <c r="D1052" s="31"/>
       <c r="G1052" s="27"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1053" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1053" s="30"/>
+      <c r="D1053" s="31"/>
+      <c r="G1053" s="27"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
     <mergeCell ref="E43:E46"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:C6 B27:C27 B8:C17 B36:C37 B22:C22 B89:C1052 C86:C88 H48:H50 B44:C44 C2 A2:A3 A14:A17 A50 B49:C60 B66:C71 B85 B81:C84 B73:C77 A22:A28">
+  <conditionalFormatting sqref="B6:C6 B27:C27 B8:C17 B36:C37 B22:C22 B90:C1053 C87:C89 H48:H50 B44:C44 C2 A2:A3 A14:A17 A50 B49:C61 B67:C72 B86 B82:C85 B74:C78 A22:A28">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
@@ -8579,37 +8615,37 @@
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
+  <conditionalFormatting sqref="C86">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B78:C78">
+  <conditionalFormatting sqref="B79:C79">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:C79">
+  <conditionalFormatting sqref="B80:C80">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80:C80">
+  <conditionalFormatting sqref="B81:C81">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61:C61">
+  <conditionalFormatting sqref="B62:C62">
     <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:C62">
+  <conditionalFormatting sqref="B63:C63">
     <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:C72">
+  <conditionalFormatting sqref="B73:C73">
     <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
@@ -8670,7 +8706,7 @@
     <hyperlink ref="E37" r:id="rId33" display="Amazon link"/>
     <hyperlink ref="E38" r:id="rId34" display="Amazon link"/>
     <hyperlink ref="E39" r:id="rId35" display="Amazon link"/>
-    <hyperlink ref="E40" r:id="rId36" display="Amazon link"/>
+    <hyperlink ref="F40" r:id="rId36" display="New Ali Express Link"/>
     <hyperlink ref="E43" r:id="rId37" display="Amazon link - assortment"/>
     <hyperlink ref="F47" r:id="rId38" display="Amazon link"/>
     <hyperlink ref="E48" r:id="rId39" display="Amazon link"/>
@@ -8681,43 +8717,44 @@
     <hyperlink ref="E56" r:id="rId44" display="Amazon link"/>
     <hyperlink ref="E57" r:id="rId45" display="Amazon link"/>
     <hyperlink ref="E58" r:id="rId46" display="Amazon link"/>
-    <hyperlink ref="E61" r:id="rId47" display="Amazon link"/>
-    <hyperlink ref="E63" r:id="rId48" display="MicroLab link"/>
-    <hyperlink ref="F63" r:id="rId49" display="Github Link"/>
-    <hyperlink ref="E64" r:id="rId50" display="MicroLab link"/>
-    <hyperlink ref="F64" r:id="rId51" display="Github Link"/>
-    <hyperlink ref="E68" r:id="rId52" display="Amazon link"/>
-    <hyperlink ref="G68" r:id="rId53" display="Amazon link  This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
-    <hyperlink ref="E69" r:id="rId54" display="Amazon link"/>
+    <hyperlink ref="E59" r:id="rId47" display="Amazon link"/>
+    <hyperlink ref="E62" r:id="rId48" display="Amazon link"/>
+    <hyperlink ref="E64" r:id="rId49" display="MicroLab link"/>
+    <hyperlink ref="F64" r:id="rId50" display="Github Link"/>
+    <hyperlink ref="E65" r:id="rId51" display="MicroLab link"/>
+    <hyperlink ref="F65" r:id="rId52" display="Github Link"/>
+    <hyperlink ref="E69" r:id="rId53" display="Amazon link"/>
+    <hyperlink ref="G69" r:id="rId54" display="Amazon link  This link is to a 100 RPM 12v motor. You can also buy a faster motor and use a PWM controller to adjust the speed manually."/>
     <hyperlink ref="E70" r:id="rId55" display="Amazon link"/>
-    <hyperlink ref="E71" r:id="rId56" display="MicroLab link"/>
-    <hyperlink ref="F71" r:id="rId57" display="Github Link"/>
-    <hyperlink ref="E72" r:id="rId58" display="MicroLab link"/>
-    <hyperlink ref="F72" r:id="rId59" display="Github Link"/>
-    <hyperlink ref="E73" r:id="rId60" display="MicroLab link"/>
-    <hyperlink ref="F73" r:id="rId61" display="Github Link"/>
-    <hyperlink ref="E74" r:id="rId62" display="MicroLab link"/>
-    <hyperlink ref="F74" r:id="rId63" display="Github Link"/>
-    <hyperlink ref="E75" r:id="rId64" display="Amazon 4oz link"/>
-    <hyperlink ref="F75" r:id="rId65" display="Amazon 6oz link"/>
-    <hyperlink ref="E76" r:id="rId66" display="Amazon link"/>
-    <hyperlink ref="E77" r:id="rId67" display="MicroLab link"/>
-    <hyperlink ref="F77" r:id="rId68" display="Github Link"/>
-    <hyperlink ref="E78" r:id="rId69" display="MicroLab link"/>
-    <hyperlink ref="F78" r:id="rId70" display="Github Link"/>
-    <hyperlink ref="E79" r:id="rId71" display="MicroLab link"/>
-    <hyperlink ref="F79" r:id="rId72" display="Github Link"/>
-    <hyperlink ref="E80" r:id="rId73" display="MicroLab link"/>
-    <hyperlink ref="F80" r:id="rId74" display="Github Link"/>
-    <hyperlink ref="E81" r:id="rId75" display="Ali Express link"/>
-    <hyperlink ref="G81" r:id="rId76" display="Used to monitor the temperature in the reaction chamber. This is a link to a USB DS18B20 "/>
-    <hyperlink ref="E82" r:id="rId77" display="Amazon link"/>
-    <hyperlink ref="F82" r:id="rId78" display="Alibaba Link"/>
-    <hyperlink ref="E83" r:id="rId79" display="Amazon link"/>
-    <hyperlink ref="E84" r:id="rId80" display="MicroLab link"/>
-    <hyperlink ref="F84" r:id="rId81" display="Github Link"/>
-    <hyperlink ref="E85" r:id="rId82" display="MicroLab link"/>
-    <hyperlink ref="F85" r:id="rId83" display="Github Link"/>
+    <hyperlink ref="E71" r:id="rId56" display="Amazon link"/>
+    <hyperlink ref="E72" r:id="rId57" display="MicroLab link"/>
+    <hyperlink ref="F72" r:id="rId58" display="Github Link"/>
+    <hyperlink ref="E73" r:id="rId59" display="MicroLab link"/>
+    <hyperlink ref="F73" r:id="rId60" display="Github Link"/>
+    <hyperlink ref="E74" r:id="rId61" display="MicroLab link"/>
+    <hyperlink ref="F74" r:id="rId62" display="Github Link"/>
+    <hyperlink ref="E75" r:id="rId63" display="MicroLab link"/>
+    <hyperlink ref="F75" r:id="rId64" display="Github Link"/>
+    <hyperlink ref="E76" r:id="rId65" display="Amazon 4oz link"/>
+    <hyperlink ref="F76" r:id="rId66" display="Amazon 6oz link"/>
+    <hyperlink ref="E77" r:id="rId67" display="Amazon link"/>
+    <hyperlink ref="E78" r:id="rId68" display="MicroLab link"/>
+    <hyperlink ref="F78" r:id="rId69" display="Github Link"/>
+    <hyperlink ref="E79" r:id="rId70" display="MicroLab link"/>
+    <hyperlink ref="F79" r:id="rId71" display="Github Link"/>
+    <hyperlink ref="E80" r:id="rId72" display="MicroLab link"/>
+    <hyperlink ref="F80" r:id="rId73" display="Github Link"/>
+    <hyperlink ref="E81" r:id="rId74" display="MicroLab link"/>
+    <hyperlink ref="F81" r:id="rId75" display="Github Link"/>
+    <hyperlink ref="E82" r:id="rId76" display="Ali Express link"/>
+    <hyperlink ref="G82" r:id="rId77" display="Used to monitor the temperature in the reaction chamber. This is a link to a USB DS18B20 "/>
+    <hyperlink ref="E83" r:id="rId78" display="Amazon link"/>
+    <hyperlink ref="F83" r:id="rId79" display="Alibaba Link"/>
+    <hyperlink ref="E84" r:id="rId80" display="Amazon link"/>
+    <hyperlink ref="E85" r:id="rId81" display="MicroLab link"/>
+    <hyperlink ref="F85" r:id="rId82" display="Github Link"/>
+    <hyperlink ref="E86" r:id="rId83" display="MicroLab link"/>
+    <hyperlink ref="F86" r:id="rId84" display="Github Link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8750,773 +8787,773 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="57" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C1" s="57" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="57" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I2" s="59" t="n">
         <v>7.1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>229</v>
-      </c>
       <c r="H3" s="52" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I3" s="59" t="n">
         <v>5.49</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="57" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I4" s="59" t="n">
         <v>25.9</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K4" s="59" t="n">
         <v>47.98</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="57" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="59" t="n">
         <v>7.36</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="57" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="59"/>
       <c r="J6" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="57" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>4</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="59" t="n">
         <v>9.99</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="57" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I8" s="59" t="n">
         <v>8.99</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="57" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="57" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I10" s="59" t="n">
         <v>25.99</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="57" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I11" s="59" t="n">
         <v>5.99</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="57" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="58" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="52" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I12" s="59" t="n">
         <v>13.99</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="57" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="52" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I13" s="59"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="57" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="59" t="n">
         <v>3.82</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="57" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I15" s="59" t="n">
         <v>36.99</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="57" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="59" t="n">
         <v>10.91</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="57" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F17" s="6"/>
       <c r="H17" s="52" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="57" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I18" s="59" t="n">
         <v>13.25</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="57" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>4</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I19" s="59" t="n">
         <v>64.08</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="57" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="59"/>
       <c r="J20" s="6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="57" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="59" t="n">
         <v>26.79</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="57" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="59"/>
       <c r="J22" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="57" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="59"/>
       <c r="J23" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="57" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H24" s="52"/>
       <c r="I24" s="59"/>
       <c r="J24" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="57" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H25" s="52"/>
       <c r="I25" s="59"/>
       <c r="J25" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="57" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H26" s="52"/>
       <c r="I26" s="59"/>
       <c r="J26" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="57" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H27" s="52"/>
       <c r="I27" s="59"/>
       <c r="J27" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="57" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H28" s="52"/>
       <c r="I28" s="59"/>
       <c r="J28" s="6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="57" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F29" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H29" s="52"/>
       <c r="I29" s="59" t="n">
         <v>13.7</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K29" s="6" t="n">
         <v>13.99</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="57" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I30" s="59" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="57"/>
       <c r="B31" s="57" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E31" s="62"/>
       <c r="H31" s="52"/>
@@ -9525,10 +9562,10 @@
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="57"/>
       <c r="B32" s="57" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E32" s="62"/>
       <c r="H32" s="52"/>
@@ -9537,10 +9574,10 @@
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="57"/>
       <c r="B33" s="57" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E33" s="62"/>
       <c r="H33" s="52"/>
@@ -9548,119 +9585,119 @@
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="57" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H34" s="52"/>
       <c r="I34" s="59" t="n">
         <v>11.98</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="57" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F35" s="58" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H35" s="52"/>
       <c r="I35" s="59" t="n">
         <v>7.63</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K35" s="6" t="n">
         <v>19.99</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="57" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H36" s="52"/>
       <c r="I36" s="59"/>
       <c r="J36" s="6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="57" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E37" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="I37" s="59" t="n">
         <v>1.18</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="57" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B38" s="57"/>
       <c r="C38" s="57" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>1</v>
@@ -9670,69 +9707,69 @@
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="57" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H39" s="52"/>
       <c r="I39" s="59" t="n">
         <v>9.35</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="57"/>
       <c r="B40" s="57" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I40" s="59" t="n">
         <v>16.99</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="57"/>
       <c r="B41" s="57" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H41" s="52"/>
       <c r="I41" s="64" t="n">
         <v>8.99</v>
       </c>
       <c r="J41" s="65" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9746,7 +9783,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9754,32 +9791,32 @@
         <v>3.9</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="6" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I46" s="59" t="n">
         <v>4</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9787,24 +9824,24 @@
         <v>9.85</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="J48" s="65" t="s">
-        <v>382</v>
-      </c>
       <c r="K48" s="65" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="390">
   <si>
     <t xml:space="preserve">MicroLab Parts List</t>
   </si>
@@ -549,19 +549,52 @@
     <t xml:space="preserve">RU-COR</t>
   </si>
   <si>
-    <t xml:space="preserve">Reactor manifold core (Printed)</t>
+    <t xml:space="preserve">Old Reactor manifold core (Printed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: New Reactor Core files here.</t>
   </si>
   <si>
     <t xml:space="preserve">RU-LID</t>
   </si>
   <si>
-    <t xml:space="preserve">Reactor manifold lid (Printed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stir rod mount (Printed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE: the motor mount is under development and does not exactly fit the linked motor</t>
+    <t xml:space="preserve">Old Reactor manifold lid (Printed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: This part is obsolete with the new Reactor Core design.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU-PTFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTFE Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Stir rod mount (Printed)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: This part is obsolete with the new Reactor Core design
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: the motor mount is under development and does not exactly fit the linked motor</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">RU-RJF</t>
@@ -579,16 +612,13 @@
     <t xml:space="preserve">Amazon 6oz link</t>
   </si>
   <si>
-    <t xml:space="preserve">6oz jars are optimal but are hard to find individually</t>
+    <t xml:space="preserve">NOTE: New Reactor Core uses a GL45 250ml bottle instead!</t>
   </si>
   <si>
     <t xml:space="preserve">RU-OUT</t>
   </si>
   <si>
     <t xml:space="preserve">32oz wide mouth mason jar for outer jacket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same jar as the temperature control units</t>
   </si>
   <si>
     <t xml:space="preserve">RU-SDH</t>
@@ -2026,8 +2056,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G73" activeCellId="0" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3327,7 +3357,9 @@
       <c r="F71" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G71" s="27"/>
+      <c r="G71" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="H71" s="28"/>
     </row>
     <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3335,13 +3367,13 @@
         <v>163</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>55</v>
@@ -3349,45 +3381,43 @@
       <c r="F72" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G72" s="27"/>
+      <c r="G72" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H72" s="28"/>
     </row>
-    <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G73" s="27" t="s">
-        <v>177</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F73" s="34"/>
+      <c r="G73" s="12"/>
       <c r="H73" s="28"/>
     </row>
-    <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>55</v>
@@ -3395,7 +3425,9 @@
       <c r="F74" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G74" s="27"/>
+      <c r="G74" s="12" t="s">
+        <v>181</v>
+      </c>
       <c r="H74" s="28"/>
     </row>
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3403,68 +3435,64 @@
         <v>163</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="H75" s="49"/>
+        <v>55</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
     </row>
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D76" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="27" t="s">
+      <c r="F76" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H76" s="28"/>
+      <c r="G76" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H76" s="49"/>
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G77" s="27" t="s">
-        <v>189</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G77" s="27"/>
       <c r="H77" s="28"/>
     </row>
     <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,53 +3581,56 @@
         <v>200</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F81" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G81" s="27" t="s">
         <v>201</v>
       </c>
       <c r="H81" s="28"/>
     </row>
-    <row r="82" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C82" s="1" t="n">
-        <v>3</v>
+      <c r="C82" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="D82" s="31" t="s">
         <v>203</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="G82" s="27" t="s">
-        <v>205</v>
-      </c>
       <c r="H82" s="28"/>
     </row>
-    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B83" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" s="31" t="s">
         <v>206</v>
-      </c>
-      <c r="C83" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>207</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="F83" s="55" t="s">
+        <v>207</v>
       </c>
       <c r="G83" s="27" t="s">
         <v>208</v>
@@ -3614,16 +3645,13 @@
         <v>209</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" s="31" t="s">
         <v>210</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G84" s="27" t="s">
         <v>211</v>
@@ -3658,28 +3686,47 @@
       <c r="A86" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C86" s="1" t="n">
+      <c r="C86" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D86" s="31" t="s">
         <v>216</v>
       </c>
+      <c r="E86" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G86" s="27" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G87" s="27"/>
+      <c r="H86" s="28"/>
+    </row>
+    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="31"/>
       <c r="G88" s="27"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="30"/>
       <c r="D89" s="31"/>
       <c r="G89" s="27"/>
     </row>
@@ -8498,7 +8545,11 @@
       <c r="D1052" s="31"/>
       <c r="G1052" s="27"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1053" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1053" s="30"/>
+      <c r="D1053" s="31"/>
+      <c r="G1053" s="27"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8509,7 +8560,7 @@
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="E43:E46"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:C6 B27:C27 B8:C17 B36:C37 B22:C22 B89:C1052 C86:C88 H48:H50 B44:C44 C2 A2:A3 A14:A17 A50 B49:C60 B66:C71 B85 B81:C84 B73:C77 A22:A28">
+  <conditionalFormatting sqref="B6:C6 B27:C27 B8:C17 B36:C37 B22:C22 B90:C1053 C87:C89 H48:H50 B44:C44 C2 A2:A3 A14:A17 A50 B49:C60 B66:C71 B86 B82:C85 B74:C78 A22:A28">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
@@ -8579,22 +8630,22 @@
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
+  <conditionalFormatting sqref="C86">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B78:C78">
+  <conditionalFormatting sqref="B79:C79">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:C79">
+  <conditionalFormatting sqref="B80:C80">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80:C80">
+  <conditionalFormatting sqref="B81:C81">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
@@ -8609,7 +8660,7 @@
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:C72">
+  <conditionalFormatting sqref="B72:C73">
     <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
@@ -8692,32 +8743,35 @@
     <hyperlink ref="E70" r:id="rId55" display="Amazon link"/>
     <hyperlink ref="E71" r:id="rId56" display="MicroLab link"/>
     <hyperlink ref="F71" r:id="rId57" display="Github Link"/>
-    <hyperlink ref="E72" r:id="rId58" display="MicroLab link"/>
-    <hyperlink ref="F72" r:id="rId59" display="Github Link"/>
-    <hyperlink ref="E73" r:id="rId60" display="MicroLab link"/>
-    <hyperlink ref="F73" r:id="rId61" display="Github Link"/>
+    <hyperlink ref="G71" r:id="rId58" display="New Reactor Core files here"/>
+    <hyperlink ref="E72" r:id="rId59" display="MicroLab link"/>
+    <hyperlink ref="F72" r:id="rId60" display="Github Link"/>
+    <hyperlink ref="E73" r:id="rId61" display="Amazon Link"/>
     <hyperlink ref="E74" r:id="rId62" display="MicroLab link"/>
     <hyperlink ref="F74" r:id="rId63" display="Github Link"/>
-    <hyperlink ref="E75" r:id="rId64" display="Amazon 4oz link"/>
-    <hyperlink ref="F75" r:id="rId65" display="Amazon 6oz link"/>
-    <hyperlink ref="E76" r:id="rId66" display="Amazon link"/>
-    <hyperlink ref="E77" r:id="rId67" display="MicroLab link"/>
-    <hyperlink ref="F77" r:id="rId68" display="Github Link"/>
-    <hyperlink ref="E78" r:id="rId69" display="MicroLab link"/>
-    <hyperlink ref="F78" r:id="rId70" display="Github Link"/>
-    <hyperlink ref="E79" r:id="rId71" display="MicroLab link"/>
-    <hyperlink ref="F79" r:id="rId72" display="Github Link"/>
-    <hyperlink ref="E80" r:id="rId73" display="MicroLab link"/>
-    <hyperlink ref="F80" r:id="rId74" display="Github Link"/>
-    <hyperlink ref="E81" r:id="rId75" display="Ali Express link"/>
-    <hyperlink ref="G81" r:id="rId76" display="Used to monitor the temperature in the reaction chamber. This is a link to a USB DS18B20 "/>
-    <hyperlink ref="E82" r:id="rId77" display="Amazon link"/>
-    <hyperlink ref="F82" r:id="rId78" display="Alibaba Link"/>
-    <hyperlink ref="E83" r:id="rId79" display="Amazon link"/>
-    <hyperlink ref="E84" r:id="rId80" display="MicroLab link"/>
-    <hyperlink ref="F84" r:id="rId81" display="Github Link"/>
-    <hyperlink ref="E85" r:id="rId82" display="MicroLab link"/>
-    <hyperlink ref="F85" r:id="rId83" display="Github Link"/>
+    <hyperlink ref="E75" r:id="rId64" display="MicroLab link"/>
+    <hyperlink ref="F75" r:id="rId65" display="Github Link"/>
+    <hyperlink ref="E76" r:id="rId66" display="Amazon 4oz link"/>
+    <hyperlink ref="F76" r:id="rId67" display="Amazon 6oz link"/>
+    <hyperlink ref="G76" r:id="rId68" display="a GL45 250ml bottle"/>
+    <hyperlink ref="E77" r:id="rId69" display="Amazon link"/>
+    <hyperlink ref="E78" r:id="rId70" display="MicroLab link"/>
+    <hyperlink ref="F78" r:id="rId71" display="Github Link"/>
+    <hyperlink ref="E79" r:id="rId72" display="MicroLab link"/>
+    <hyperlink ref="F79" r:id="rId73" display="Github Link"/>
+    <hyperlink ref="E80" r:id="rId74" display="MicroLab link"/>
+    <hyperlink ref="F80" r:id="rId75" display="Github Link"/>
+    <hyperlink ref="E81" r:id="rId76" display="MicroLab link"/>
+    <hyperlink ref="F81" r:id="rId77" display="Github Link"/>
+    <hyperlink ref="E82" r:id="rId78" display="Ali Express link"/>
+    <hyperlink ref="G82" r:id="rId79" display="Used to monitor the temperature in the reaction chamber. This is a link to a USB DS18B20 "/>
+    <hyperlink ref="E83" r:id="rId80" display="Amazon link"/>
+    <hyperlink ref="F83" r:id="rId81" display="Alibaba Link"/>
+    <hyperlink ref="E84" r:id="rId82" display="Amazon link"/>
+    <hyperlink ref="E85" r:id="rId83" display="MicroLab link"/>
+    <hyperlink ref="F85" r:id="rId84" display="Github Link"/>
+    <hyperlink ref="E86" r:id="rId85" display="MicroLab link"/>
+    <hyperlink ref="F86" r:id="rId86" display="Github Link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8750,773 +8804,773 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="57" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C1" s="57" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="57" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I2" s="59" t="n">
         <v>7.1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="57" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I3" s="59" t="n">
         <v>5.49</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="57" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I4" s="59" t="n">
         <v>25.9</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K4" s="59" t="n">
         <v>47.98</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="57" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="59" t="n">
         <v>7.36</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="57" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="59"/>
       <c r="J6" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="57" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>4</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="59" t="n">
         <v>9.99</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="57" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I8" s="59" t="n">
         <v>8.99</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="57" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="57" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I10" s="59" t="n">
         <v>25.99</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="57" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I11" s="59" t="n">
         <v>5.99</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="57" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="58" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="52" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I12" s="59" t="n">
         <v>13.99</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="57" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="52" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I13" s="59"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="57" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="59" t="n">
         <v>3.82</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="57" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I15" s="59" t="n">
         <v>36.99</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="57" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="59" t="n">
         <v>10.91</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="57" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F17" s="6"/>
       <c r="H17" s="52" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="57" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I18" s="59" t="n">
         <v>13.25</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="57" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>4</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I19" s="59" t="n">
         <v>64.08</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="57" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="59"/>
       <c r="J20" s="6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="57" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="59" t="n">
         <v>26.79</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="57" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="59"/>
       <c r="J22" s="6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="57" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="59"/>
       <c r="J23" s="6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="57" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H24" s="52"/>
       <c r="I24" s="59"/>
       <c r="J24" s="6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="57" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H25" s="52"/>
       <c r="I25" s="59"/>
       <c r="J25" s="6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="57" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H26" s="52"/>
       <c r="I26" s="59"/>
       <c r="J26" s="6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="57" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H27" s="52"/>
       <c r="I27" s="59"/>
       <c r="J27" s="6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="57" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H28" s="52"/>
       <c r="I28" s="59"/>
       <c r="J28" s="6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="57" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F29" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H29" s="52"/>
       <c r="I29" s="59" t="n">
         <v>13.7</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K29" s="6" t="n">
         <v>13.99</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="57" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="I30" s="59" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="57"/>
       <c r="B31" s="57" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E31" s="62"/>
       <c r="H31" s="52"/>
@@ -9525,10 +9579,10 @@
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="57"/>
       <c r="B32" s="57" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E32" s="62"/>
       <c r="H32" s="52"/>
@@ -9537,10 +9591,10 @@
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="57"/>
       <c r="B33" s="57" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E33" s="62"/>
       <c r="H33" s="52"/>
@@ -9548,119 +9602,119 @@
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="57" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H34" s="52"/>
       <c r="I34" s="59" t="n">
         <v>11.98</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="57" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F35" s="58" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H35" s="52"/>
       <c r="I35" s="59" t="n">
         <v>7.63</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K35" s="6" t="n">
         <v>19.99</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="57" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H36" s="52"/>
       <c r="I36" s="59"/>
       <c r="J36" s="6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="57" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E37" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I37" s="59" t="n">
         <v>1.18</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="57" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B38" s="57"/>
       <c r="C38" s="57" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>1</v>
@@ -9670,69 +9724,69 @@
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="57" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H39" s="52"/>
       <c r="I39" s="59" t="n">
         <v>9.35</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="57"/>
       <c r="B40" s="57" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I40" s="59" t="n">
         <v>16.99</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="57"/>
       <c r="B41" s="57" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H41" s="52"/>
       <c r="I41" s="64" t="n">
         <v>8.99</v>
       </c>
       <c r="J41" s="65" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9746,7 +9800,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9754,32 +9808,32 @@
         <v>3.9</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I46" s="59" t="n">
         <v>4</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9787,24 +9841,24 @@
         <v>9.85</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="65" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J48" s="65" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K48" s="65" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/microlab-parts-list.xlsx
+++ b/docs/microlab-parts-list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="366">
   <si>
     <t xml:space="preserve">MicroLab Parts List</t>
   </si>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">4-wire cable, 18 gauge</t>
   </si>
   <si>
-    <t xml:space="preserve">[Control Unit] [Pumps Box] 10 feet will be used to make cables to connect the Control Unit and the Pumps unit. Some of the rest will be used to wire components within the Control Unit. </t>
+    <t xml:space="preserve">[Control Unit] [Pumps Box] 10 feet will be used to make cables to connect the Control Unit and the Pumps unit. Some of the rest will be used to wire components within the Control Unit. You can also use wires from ethernet cables.</t>
   </si>
   <si>
     <t xml:space="preserve">SP-RBW</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">2-wire cable, red and Black , 18 gauge</t>
   </si>
   <si>
-    <t xml:space="preserve">We won't use all of it, you may want to get a smaller amount if you can find it cheaper. </t>
+    <t xml:space="preserve">Optional and we won't use all of it, you may want to get a smaller amount if you can find it cheaper. </t>
   </si>
   <si>
     <t xml:space="preserve">SP-SWW</t>
@@ -337,10 +337,10 @@
     <t xml:space="preserve">SP-M3S-12</t>
   </si>
   <si>
-    <t xml:space="preserve">12mm M3 screws with nuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Reactor Unit]  3 for reactor unit and 20 for reactor stand</t>
+    <t xml:space="preserve">12mm M3 screws with nuts (Optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Reactor Unit] 20 for reactor stand (Optional)</t>
   </si>
   <si>
     <t xml:space="preserve">SP-M3S-16</t>
@@ -358,7 +358,7 @@
     <t xml:space="preserve">20mm M3 screws with nuts</t>
   </si>
   <si>
-    <t xml:space="preserve">[Control Unit] [Reactor]  2 for Control Unit, 3 for Reactor Unit</t>
+    <t xml:space="preserve">[Control Unit] [Reactor]  2 for Control Unit</t>
   </si>
   <si>
     <t xml:space="preserve">SP-M3S-30</t>
@@ -411,16 +411,10 @@
 NOTE: These will actually be installed in the Pumps Unit.</t>
   </si>
   <si>
-    <t xml:space="preserve">TC-SBH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submersible heater</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC-CTB</t>
   </si>
   <si>
-    <t xml:space="preserve">Copper tubing 1/4" OD x 3/16" ID</t>
+    <t xml:space="preserve">Copper tubing 10’ ¼" OD x 3/16" ID</t>
   </si>
   <si>
     <t xml:space="preserve">Amazon link for raw copper tubing</t>
@@ -443,30 +437,6 @@
     <t xml:space="preserve">Silicone tubing should fit snugly around the copper tubing </t>
   </si>
   <si>
-    <t xml:space="preserve">TC-JAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32oz wide mouth canning jar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A 32oz wide mouth jar will contain the heating coils and the copper coils. Link is to a multi-pack but single jars are not easy to find and buying in bulk is often cheaper. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-REL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switchable power supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-INS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insulation for jars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although you could use a knit hat or any other insulator for this, we find that upcycling the foil bubblewrap bags used for shipping cold things is a light and convenient way to insulate the jars</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC-TAP</t>
   </si>
   <si>
@@ -489,31 +459,13 @@
       </t>
   </si>
   <si>
-    <t xml:space="preserve">TC-CUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooling Unit Lid (Printed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lid for the  jar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-HUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heating Unit Lid (Printed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lid for the jar </t>
-  </si>
-  <si>
     <t xml:space="preserve">TC-LIQ</t>
   </si>
   <si>
-    <t xml:space="preserve">Liquid, water or other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We have been using water for this version, but other liquids may be more effective for the temperature control.</t>
+    <t xml:space="preserve">Liquid, propylene glycol, water, or other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have been using propylene glycol which support temperature ranges as high and as low as the MicroLab supports.</t>
   </si>
   <si>
     <t xml:space="preserve">REACTOR UNIT</t>
@@ -546,67 +498,22 @@
     <t xml:space="preserve">Stir rod coupler 4mm-to-5mm</t>
   </si>
   <si>
+    <t xml:space="preserve">RU-PTFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTFE Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU-RJF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jar Flanges (Printed)</t>
+  </si>
+  <si>
     <t xml:space="preserve">RU-COR</t>
   </si>
   <si>
-    <t xml:space="preserve">Old Reactor manifold core (Printed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE: New Reactor Core files here.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU-LID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old Reactor manifold lid (Printed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE: This part is obsolete with the new Reactor Core design.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU-PTFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFE Sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old Stir rod mount (Printed)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">NOTE: This part is obsolete with the new Reactor Core design
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">NOTE: the motor mount is under development and does not exactly fit the linked motor</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RU-RJF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jar Flanges (Printed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 oz regular mouth mason jar for core chamber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon 4oz link</t>
+    <t xml:space="preserve">250ml GL45 Borosilicate Glass Bottles</t>
   </si>
   <si>
     <t xml:space="preserve">Amazon 6oz link</t>
@@ -2056,8 +1963,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G73" activeCellId="0" sqref="G73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2743,7 +2650,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -2891,7 +2798,7 @@
         <v>109</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>110</v>
@@ -3013,7 +2920,7 @@
       </c>
       <c r="H53" s="49"/>
     </row>
-    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>124</v>
       </c>
@@ -3021,65 +2928,62 @@
         <v>128</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="31" t="s">
         <v>129</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="48"/>
-      <c r="G54" s="27"/>
+        <v>130</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="H54" s="49"/>
     </row>
-    <row r="55" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F55" s="48"/>
       <c r="G55" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H55" s="49"/>
     </row>
-    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="27" t="s">
         <v>137</v>
       </c>
+      <c r="F56" s="50"/>
+      <c r="G56" s="27"/>
       <c r="H56" s="49"/>
     </row>
-    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="